--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -1131,10 +1131,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="D2">
-        <v>1171528</v>
+        <v>1182778</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1163,10 +1163,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>3608</v>
+        <v>3644</v>
       </c>
       <c r="D3">
-        <v>5355562</v>
+        <v>5406681</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1195,10 +1195,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1273</v>
+        <v>1288</v>
       </c>
       <c r="D4">
-        <v>1904226</v>
+        <v>1926726</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1227,10 +1227,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D5">
-        <v>481500</v>
+        <v>490500</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1323,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="D8">
-        <v>1045128</v>
+        <v>1059628</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1355,10 +1355,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2271</v>
+        <v>2288</v>
       </c>
       <c r="D9">
-        <v>3355409</v>
+        <v>3379732</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1387,10 +1387,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="D10">
-        <v>881948</v>
+        <v>896108</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1419,10 +1419,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D11">
-        <v>208500</v>
+        <v>210000</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1483,10 +1483,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1053</v>
+        <v>1064</v>
       </c>
       <c r="D13">
-        <v>1404725</v>
+        <v>1417827</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1515,10 +1515,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>1443</v>
+        <v>1452</v>
       </c>
       <c r="D14">
-        <v>2096187</v>
+        <v>2108735</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1547,10 +1547,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>2630</v>
+        <v>2657</v>
       </c>
       <c r="D15">
-        <v>3872689</v>
+        <v>3912408</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1579,10 +1579,10 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="D16">
-        <v>1044192</v>
+        <v>1069297</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1611,10 +1611,10 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D17">
-        <v>211500</v>
+        <v>214500</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1675,10 +1675,10 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>1092</v>
+        <v>1101</v>
       </c>
       <c r="D19">
-        <v>1479649</v>
+        <v>1491481</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1707,10 +1707,10 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D20">
-        <v>563704</v>
+        <v>570266</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1739,10 +1739,10 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>1176</v>
+        <v>1191</v>
       </c>
       <c r="D21">
-        <v>1735568</v>
+        <v>1756213</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1771,10 +1771,10 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D22">
-        <v>467422</v>
+        <v>474922</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1803,10 +1803,10 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23">
-        <v>123000</v>
+        <v>124500</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1867,10 +1867,10 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D25">
-        <v>1123176</v>
+        <v>1127676</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1899,10 +1899,10 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>1919</v>
+        <v>1937</v>
       </c>
       <c r="D26">
-        <v>2795537</v>
+        <v>2820418</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1931,10 +1931,10 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>4144</v>
+        <v>4180</v>
       </c>
       <c r="D27">
-        <v>6141336</v>
+        <v>6193487</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -1963,10 +1963,10 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>1250</v>
+        <v>1271</v>
       </c>
       <c r="D28">
-        <v>1863199</v>
+        <v>1893852</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -1995,10 +1995,10 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D29">
-        <v>427016</v>
+        <v>433016</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -2059,10 +2059,10 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>1533</v>
+        <v>1543</v>
       </c>
       <c r="D31">
-        <v>2011114</v>
+        <v>2024909</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2091,10 +2091,10 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="D32">
-        <v>1092582</v>
+        <v>1111463</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2123,10 +2123,10 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="D33">
-        <v>2618309</v>
+        <v>2647899</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D34">
-        <v>701856</v>
+        <v>714047</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2283,10 +2283,10 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="D38">
-        <v>1091776</v>
+        <v>1108168</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2315,10 +2315,10 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>2368</v>
+        <v>2390</v>
       </c>
       <c r="D39">
-        <v>3480890</v>
+        <v>3513858</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2347,10 +2347,10 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>5512</v>
+        <v>5569</v>
       </c>
       <c r="D40">
-        <v>8190593</v>
+        <v>8274090</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2379,10 +2379,10 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>2141</v>
+        <v>2173</v>
       </c>
       <c r="D41">
-        <v>3195594</v>
+        <v>3243172</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -2411,10 +2411,10 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="D42">
-        <v>971765</v>
+        <v>994696</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -2443,10 +2443,10 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D43">
-        <v>243000</v>
+        <v>249000</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -2507,10 +2507,10 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>3049</v>
+        <v>3075</v>
       </c>
       <c r="D45">
-        <v>4270846</v>
+        <v>4304516</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2539,10 +2539,10 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>3660</v>
+        <v>3684</v>
       </c>
       <c r="D46">
-        <v>5349488</v>
+        <v>5383749</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -2571,10 +2571,10 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>8756</v>
+        <v>8824</v>
       </c>
       <c r="D47">
-        <v>12996387</v>
+        <v>13092536</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -2603,10 +2603,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>2930</v>
+        <v>2963</v>
       </c>
       <c r="D48">
-        <v>4382294</v>
+        <v>4431028</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2635,10 +2635,10 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="D49">
-        <v>1113214</v>
+        <v>1123714</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -2667,10 +2667,10 @@
         <v>11</v>
       </c>
       <c r="C50">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D50">
-        <v>196500</v>
+        <v>198000</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -2763,10 +2763,10 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>3518</v>
+        <v>3534</v>
       </c>
       <c r="D53">
-        <v>4910075</v>
+        <v>4931892</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2795,10 +2795,10 @@
         <v>11</v>
       </c>
       <c r="C54">
-        <v>1969</v>
+        <v>1995</v>
       </c>
       <c r="D54">
-        <v>2875475</v>
+        <v>2911574</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -2827,10 +2827,10 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>5059</v>
+        <v>5109</v>
       </c>
       <c r="D55">
-        <v>7486670</v>
+        <v>7559370</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2859,10 +2859,10 @@
         <v>11</v>
       </c>
       <c r="C56">
-        <v>1535</v>
+        <v>1559</v>
       </c>
       <c r="D56">
-        <v>2291266</v>
+        <v>2327266</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -2891,10 +2891,10 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="D57">
-        <v>525893</v>
+        <v>539393</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -2923,10 +2923,10 @@
         <v>11</v>
       </c>
       <c r="C58">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D58">
-        <v>93000</v>
+        <v>94500</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -2955,10 +2955,10 @@
         <v>11</v>
       </c>
       <c r="C59">
-        <v>2103</v>
+        <v>2125</v>
       </c>
       <c r="D59">
-        <v>2790939</v>
+        <v>2820267</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -2987,10 +2987,10 @@
         <v>11</v>
       </c>
       <c r="C60">
-        <v>1620</v>
+        <v>1633</v>
       </c>
       <c r="D60">
-        <v>2355838</v>
+        <v>2373538</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -3019,10 +3019,10 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>4408</v>
+        <v>4452</v>
       </c>
       <c r="D61">
-        <v>6513778</v>
+        <v>6577043</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3051,10 +3051,10 @@
         <v>11</v>
       </c>
       <c r="C62">
-        <v>1453</v>
+        <v>1468</v>
       </c>
       <c r="D62">
-        <v>2165363</v>
+        <v>2185970</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3083,10 +3083,10 @@
         <v>11</v>
       </c>
       <c r="C63">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D63">
-        <v>584560</v>
+        <v>593560</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -3147,10 +3147,10 @@
         <v>11</v>
       </c>
       <c r="C65">
-        <v>1797</v>
+        <v>1816</v>
       </c>
       <c r="D65">
-        <v>2425582</v>
+        <v>2450654</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -3179,10 +3179,10 @@
         <v>11</v>
       </c>
       <c r="C66">
-        <v>5519</v>
+        <v>5592</v>
       </c>
       <c r="D66">
-        <v>8082088</v>
+        <v>8189955</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3211,10 +3211,10 @@
         <v>11</v>
       </c>
       <c r="C67">
-        <v>14059</v>
+        <v>14192</v>
       </c>
       <c r="D67">
-        <v>20828137</v>
+        <v>21024048</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3243,10 +3243,10 @@
         <v>11</v>
       </c>
       <c r="C68">
-        <v>4885</v>
+        <v>4929</v>
       </c>
       <c r="D68">
-        <v>7302515</v>
+        <v>7366404</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3275,10 +3275,10 @@
         <v>11</v>
       </c>
       <c r="C69">
-        <v>1246</v>
+        <v>1261</v>
       </c>
       <c r="D69">
-        <v>1865009</v>
+        <v>1887245</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3307,10 +3307,10 @@
         <v>11</v>
       </c>
       <c r="C70">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D70">
-        <v>340500</v>
+        <v>343500</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3403,10 +3403,10 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <v>4473</v>
+        <v>4506</v>
       </c>
       <c r="D73">
-        <v>6293198</v>
+        <v>6339483</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
@@ -3435,10 +3435,10 @@
         <v>11</v>
       </c>
       <c r="C74">
-        <v>1661</v>
+        <v>1682</v>
       </c>
       <c r="D74">
-        <v>2432895</v>
+        <v>2462798</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -3467,10 +3467,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>4146</v>
+        <v>4197</v>
       </c>
       <c r="D75">
-        <v>6154593</v>
+        <v>6229044</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3499,10 +3499,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>1763</v>
+        <v>1776</v>
       </c>
       <c r="D76">
-        <v>2635243</v>
+        <v>2653578</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3531,10 +3531,10 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="D77">
-        <v>959166</v>
+        <v>968461</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3563,10 +3563,10 @@
         <v>11</v>
       </c>
       <c r="C78">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D78">
-        <v>262905</v>
+        <v>265905</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -3627,10 +3627,10 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>4149</v>
+        <v>4176</v>
       </c>
       <c r="D80">
-        <v>5925230</v>
+        <v>5962697</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -3659,10 +3659,10 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>1187</v>
+        <v>1192</v>
       </c>
       <c r="D81">
-        <v>1739431</v>
+        <v>1746931</v>
       </c>
       <c r="E81" t="s">
         <v>13</v>
@@ -3691,10 +3691,10 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>3196</v>
+        <v>3224</v>
       </c>
       <c r="D82">
-        <v>4725822</v>
+        <v>4766922</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
@@ -3723,10 +3723,10 @@
         <v>11</v>
       </c>
       <c r="C83">
-        <v>1085</v>
+        <v>1096</v>
       </c>
       <c r="D83">
-        <v>1621910</v>
+        <v>1638410</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
@@ -3755,10 +3755,10 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D84">
-        <v>408000</v>
+        <v>411000</v>
       </c>
       <c r="E84" t="s">
         <v>13</v>
@@ -3851,10 +3851,10 @@
         <v>11</v>
       </c>
       <c r="C87">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="D87">
-        <v>1651296</v>
+        <v>1658616</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
@@ -3883,10 +3883,10 @@
         <v>11</v>
       </c>
       <c r="C88">
-        <v>1074</v>
+        <v>1086</v>
       </c>
       <c r="D88">
-        <v>1573907</v>
+        <v>1591316</v>
       </c>
       <c r="E88" t="s">
         <v>13</v>
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="C89">
-        <v>2977</v>
+        <v>3004</v>
       </c>
       <c r="D89">
-        <v>4413083</v>
+        <v>4451872</v>
       </c>
       <c r="E89" t="s">
         <v>13</v>
@@ -3947,10 +3947,10 @@
         <v>11</v>
       </c>
       <c r="C90">
-        <v>994</v>
+        <v>1008</v>
       </c>
       <c r="D90">
-        <v>1487578</v>
+        <v>1507534</v>
       </c>
       <c r="E90" t="s">
         <v>13</v>
@@ -3979,10 +3979,10 @@
         <v>11</v>
       </c>
       <c r="C91">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D91">
-        <v>370500</v>
+        <v>381000</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -4011,10 +4011,10 @@
         <v>11</v>
       </c>
       <c r="C92">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D92">
-        <v>78000</v>
+        <v>79500</v>
       </c>
       <c r="E92" t="s">
         <v>13</v>
@@ -4075,10 +4075,10 @@
         <v>11</v>
       </c>
       <c r="C94">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="D94">
-        <v>1307953</v>
+        <v>1328171</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
@@ -4107,10 +4107,10 @@
         <v>11</v>
       </c>
       <c r="C95">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D95">
-        <v>652674</v>
+        <v>657174</v>
       </c>
       <c r="E95" t="s">
         <v>13</v>
@@ -4139,10 +4139,10 @@
         <v>11</v>
       </c>
       <c r="C96">
-        <v>1159</v>
+        <v>1171</v>
       </c>
       <c r="D96">
-        <v>1721632</v>
+        <v>1739632</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
@@ -4171,10 +4171,10 @@
         <v>11</v>
       </c>
       <c r="C97">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D97">
-        <v>512611</v>
+        <v>517111</v>
       </c>
       <c r="E97" t="s">
         <v>13</v>
@@ -4267,10 +4267,10 @@
         <v>11</v>
       </c>
       <c r="C100">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D100">
-        <v>676581</v>
+        <v>683242</v>
       </c>
       <c r="E100" t="s">
         <v>13</v>
@@ -4299,10 +4299,10 @@
         <v>11</v>
       </c>
       <c r="C101">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="D101">
-        <v>1016085</v>
+        <v>1032585</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -4331,10 +4331,10 @@
         <v>11</v>
       </c>
       <c r="C102">
-        <v>1744</v>
+        <v>1760</v>
       </c>
       <c r="D102">
-        <v>2581238</v>
+        <v>2605238</v>
       </c>
       <c r="E102" t="s">
         <v>13</v>
@@ -4363,10 +4363,10 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D103">
-        <v>727122</v>
+        <v>742122</v>
       </c>
       <c r="E103" t="s">
         <v>13</v>
@@ -4395,10 +4395,10 @@
         <v>11</v>
       </c>
       <c r="C104">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D104">
-        <v>181750</v>
+        <v>184750</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
@@ -4427,10 +4427,10 @@
         <v>11</v>
       </c>
       <c r="C105">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D105">
-        <v>27000</v>
+        <v>28500</v>
       </c>
       <c r="E105" t="s">
         <v>13</v>
@@ -4459,10 +4459,10 @@
         <v>11</v>
       </c>
       <c r="C106">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="D106">
-        <v>751991</v>
+        <v>770336</v>
       </c>
       <c r="E106" t="s">
         <v>13</v>
@@ -4491,10 +4491,10 @@
         <v>11</v>
       </c>
       <c r="C107">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D107">
-        <v>634784</v>
+        <v>639724</v>
       </c>
       <c r="E107" t="s">
         <v>13</v>
@@ -4523,10 +4523,10 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>1274</v>
+        <v>1285</v>
       </c>
       <c r="D108">
-        <v>1869729</v>
+        <v>1884427</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -4555,10 +4555,10 @@
         <v>11</v>
       </c>
       <c r="C109">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D109">
-        <v>580927</v>
+        <v>585427</v>
       </c>
       <c r="E109" t="s">
         <v>13</v>
@@ -4651,10 +4651,10 @@
         <v>11</v>
       </c>
       <c r="C112">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="D112">
-        <v>711776</v>
+        <v>723256</v>
       </c>
       <c r="E112" t="s">
         <v>13</v>
@@ -4683,10 +4683,10 @@
         <v>11</v>
       </c>
       <c r="C113">
-        <v>1207</v>
+        <v>1220</v>
       </c>
       <c r="D113">
-        <v>1761028</v>
+        <v>1779178</v>
       </c>
       <c r="E113" t="s">
         <v>13</v>
@@ -4715,10 +4715,10 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>3730</v>
+        <v>3768</v>
       </c>
       <c r="D114">
-        <v>5520877</v>
+        <v>5574234</v>
       </c>
       <c r="E114" t="s">
         <v>13</v>
@@ -4747,10 +4747,10 @@
         <v>11</v>
       </c>
       <c r="C115">
-        <v>1064</v>
+        <v>1082</v>
       </c>
       <c r="D115">
-        <v>1593506</v>
+        <v>1620506</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -4779,10 +4779,10 @@
         <v>11</v>
       </c>
       <c r="C116">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D116">
-        <v>327326</v>
+        <v>337826</v>
       </c>
       <c r="E116" t="s">
         <v>13</v>
@@ -4811,10 +4811,10 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117">
-        <v>40500</v>
+        <v>42000</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
@@ -4843,10 +4843,10 @@
         <v>11</v>
       </c>
       <c r="C118">
-        <v>1465</v>
+        <v>1478</v>
       </c>
       <c r="D118">
-        <v>2016705</v>
+        <v>2030706</v>
       </c>
       <c r="E118" t="s">
         <v>13</v>
@@ -4875,10 +4875,10 @@
         <v>11</v>
       </c>
       <c r="C119">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D119">
-        <v>385710</v>
+        <v>387210</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
@@ -4907,10 +4907,10 @@
         <v>11</v>
       </c>
       <c r="C120">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="D120">
-        <v>1094861</v>
+        <v>1103861</v>
       </c>
       <c r="E120" t="s">
         <v>13</v>
@@ -5035,10 +5035,10 @@
         <v>11</v>
       </c>
       <c r="C124">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D124">
-        <v>305510</v>
+        <v>311000</v>
       </c>
       <c r="E124" t="s">
         <v>13</v>
@@ -5067,10 +5067,10 @@
         <v>11</v>
       </c>
       <c r="C125">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="D125">
-        <v>1003319</v>
+        <v>1016819</v>
       </c>
       <c r="E125" t="s">
         <v>13</v>
@@ -5099,10 +5099,10 @@
         <v>11</v>
       </c>
       <c r="C126">
-        <v>2061</v>
+        <v>2080</v>
       </c>
       <c r="D126">
-        <v>3056603</v>
+        <v>3084348</v>
       </c>
       <c r="E126" t="s">
         <v>13</v>
@@ -5131,10 +5131,10 @@
         <v>11</v>
       </c>
       <c r="C127">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D127">
-        <v>895763</v>
+        <v>900263</v>
       </c>
       <c r="E127" t="s">
         <v>13</v>
@@ -5163,10 +5163,10 @@
         <v>11</v>
       </c>
       <c r="C128">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D128">
-        <v>211500</v>
+        <v>214500</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
@@ -5227,10 +5227,10 @@
         <v>11</v>
       </c>
       <c r="C130">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="D130">
-        <v>917051</v>
+        <v>927551</v>
       </c>
       <c r="E130" t="s">
         <v>13</v>
@@ -5259,10 +5259,10 @@
         <v>11</v>
       </c>
       <c r="C131">
-        <v>1640</v>
+        <v>1652</v>
       </c>
       <c r="D131">
-        <v>2389080</v>
+        <v>2406721</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
@@ -5291,10 +5291,10 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>3947</v>
+        <v>3983</v>
       </c>
       <c r="D132">
-        <v>5827426</v>
+        <v>5875990</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -5323,10 +5323,10 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>1053</v>
+        <v>1063</v>
       </c>
       <c r="D133">
-        <v>1572609</v>
+        <v>1587609</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
@@ -5355,10 +5355,10 @@
         <v>11</v>
       </c>
       <c r="C134">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D134">
-        <v>353849</v>
+        <v>365849</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -5451,10 +5451,10 @@
         <v>11</v>
       </c>
       <c r="C137">
-        <v>1441</v>
+        <v>1454</v>
       </c>
       <c r="D137">
-        <v>1939644</v>
+        <v>1955148</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -5483,10 +5483,10 @@
         <v>11</v>
       </c>
       <c r="C138">
-        <v>2297</v>
+        <v>2310</v>
       </c>
       <c r="D138">
-        <v>3358243</v>
+        <v>3376953</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -5515,10 +5515,10 @@
         <v>11</v>
       </c>
       <c r="C139">
-        <v>5357</v>
+        <v>5413</v>
       </c>
       <c r="D139">
-        <v>7942780</v>
+        <v>8025801</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -5547,10 +5547,10 @@
         <v>11</v>
       </c>
       <c r="C140">
-        <v>1841</v>
+        <v>1860</v>
       </c>
       <c r="D140">
-        <v>2757066</v>
+        <v>2785027</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
@@ -5579,10 +5579,10 @@
         <v>11</v>
       </c>
       <c r="C141">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D141">
-        <v>619511</v>
+        <v>625511</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
@@ -5611,10 +5611,10 @@
         <v>11</v>
       </c>
       <c r="C142">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D142">
-        <v>97124</v>
+        <v>98624</v>
       </c>
       <c r="E142" t="s">
         <v>14</v>
@@ -5675,10 +5675,10 @@
         <v>11</v>
       </c>
       <c r="C144">
-        <v>1986</v>
+        <v>2002</v>
       </c>
       <c r="D144">
-        <v>2708778</v>
+        <v>2730569</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -5707,10 +5707,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>2128</v>
+        <v>2147</v>
       </c>
       <c r="D145">
-        <v>3109873</v>
+        <v>3137493</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -5739,10 +5739,10 @@
         <v>11</v>
       </c>
       <c r="C146">
-        <v>6200</v>
+        <v>6251</v>
       </c>
       <c r="D146">
-        <v>9213188</v>
+        <v>9288373</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
@@ -5771,10 +5771,10 @@
         <v>11</v>
       </c>
       <c r="C147">
-        <v>2035</v>
+        <v>2057</v>
       </c>
       <c r="D147">
-        <v>3042257</v>
+        <v>3075257</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -5803,10 +5803,10 @@
         <v>11</v>
       </c>
       <c r="C148">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D148">
-        <v>786664</v>
+        <v>806164</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -5835,10 +5835,10 @@
         <v>11</v>
       </c>
       <c r="C149">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D149">
-        <v>142500</v>
+        <v>144000</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
@@ -5899,10 +5899,10 @@
         <v>11</v>
       </c>
       <c r="C151">
-        <v>1935</v>
+        <v>1944</v>
       </c>
       <c r="D151">
-        <v>2675659</v>
+        <v>2688494</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -5931,10 +5931,10 @@
         <v>11</v>
       </c>
       <c r="C152">
-        <v>2337</v>
+        <v>2358</v>
       </c>
       <c r="D152">
-        <v>3397962</v>
+        <v>3426669</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
@@ -5963,10 +5963,10 @@
         <v>11</v>
       </c>
       <c r="C153">
-        <v>5227</v>
+        <v>5272</v>
       </c>
       <c r="D153">
-        <v>7739462</v>
+        <v>7805935</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
@@ -5995,10 +5995,10 @@
         <v>11</v>
       </c>
       <c r="C154">
-        <v>1605</v>
+        <v>1625</v>
       </c>
       <c r="D154">
-        <v>2399348</v>
+        <v>2429348</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -6027,10 +6027,10 @@
         <v>11</v>
       </c>
       <c r="C155">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D155">
-        <v>544577</v>
+        <v>556432</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
@@ -6059,10 +6059,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D156">
-        <v>70500</v>
+        <v>72000</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
@@ -6123,10 +6123,10 @@
         <v>11</v>
       </c>
       <c r="C158">
-        <v>1837</v>
+        <v>1856</v>
       </c>
       <c r="D158">
-        <v>2527604</v>
+        <v>2555124</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -6155,10 +6155,10 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D159">
-        <v>759333</v>
+        <v>766833</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -6187,10 +6187,10 @@
         <v>11</v>
       </c>
       <c r="C160">
-        <v>1602</v>
+        <v>1617</v>
       </c>
       <c r="D160">
-        <v>2363170</v>
+        <v>2385173</v>
       </c>
       <c r="E160" t="s">
         <v>15</v>
@@ -6219,10 +6219,10 @@
         <v>11</v>
       </c>
       <c r="C161">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="D161">
-        <v>758481</v>
+        <v>774981</v>
       </c>
       <c r="E161" t="s">
         <v>15</v>
@@ -6251,10 +6251,10 @@
         <v>11</v>
       </c>
       <c r="C162">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D162">
-        <v>208500</v>
+        <v>210000</v>
       </c>
       <c r="E162" t="s">
         <v>15</v>
@@ -6315,10 +6315,10 @@
         <v>11</v>
       </c>
       <c r="C164">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="D164">
-        <v>983619</v>
+        <v>994251</v>
       </c>
       <c r="E164" t="s">
         <v>15</v>
@@ -6347,10 +6347,10 @@
         <v>11</v>
       </c>
       <c r="C165">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D165">
-        <v>1099980</v>
+        <v>1105980</v>
       </c>
       <c r="E165" t="s">
         <v>15</v>
@@ -6379,10 +6379,10 @@
         <v>11</v>
       </c>
       <c r="C166">
-        <v>2332</v>
+        <v>2358</v>
       </c>
       <c r="D166">
-        <v>3458796</v>
+        <v>3495637</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -6411,10 +6411,10 @@
         <v>11</v>
       </c>
       <c r="C167">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="D167">
-        <v>1138044</v>
+        <v>1156537</v>
       </c>
       <c r="E167" t="s">
         <v>15</v>
@@ -6443,10 +6443,10 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D168">
-        <v>265500</v>
+        <v>273000</v>
       </c>
       <c r="E168" t="s">
         <v>15</v>
@@ -6507,10 +6507,10 @@
         <v>11</v>
       </c>
       <c r="C170">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="D170">
-        <v>954709</v>
+        <v>959747</v>
       </c>
       <c r="E170" t="s">
         <v>15</v>
@@ -6539,10 +6539,10 @@
         <v>11</v>
       </c>
       <c r="C171">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D171">
-        <v>499514</v>
+        <v>508514</v>
       </c>
       <c r="E171" t="s">
         <v>15</v>
@@ -6571,10 +6571,10 @@
         <v>11</v>
       </c>
       <c r="C172">
-        <v>1244</v>
+        <v>1258</v>
       </c>
       <c r="D172">
-        <v>1834944</v>
+        <v>1855588</v>
       </c>
       <c r="E172" t="s">
         <v>15</v>
@@ -6603,10 +6603,10 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D173">
-        <v>639681</v>
+        <v>645681</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -6699,10 +6699,10 @@
         <v>11</v>
       </c>
       <c r="C176">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D176">
-        <v>643159</v>
+        <v>647373</v>
       </c>
       <c r="E176" t="s">
         <v>15</v>
@@ -6731,10 +6731,10 @@
         <v>11</v>
       </c>
       <c r="C177">
-        <v>1321</v>
+        <v>1338</v>
       </c>
       <c r="D177">
-        <v>1923791</v>
+        <v>1947221</v>
       </c>
       <c r="E177" t="s">
         <v>15</v>
@@ -6763,10 +6763,10 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>3665</v>
+        <v>3695</v>
       </c>
       <c r="D178">
-        <v>5418584</v>
+        <v>5462194</v>
       </c>
       <c r="E178" t="s">
         <v>15</v>
@@ -6795,10 +6795,10 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <v>1202</v>
+        <v>1212</v>
       </c>
       <c r="D179">
-        <v>1799449</v>
+        <v>1813359</v>
       </c>
       <c r="E179" t="s">
         <v>15</v>
@@ -6827,10 +6827,10 @@
         <v>11</v>
       </c>
       <c r="C180">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D180">
-        <v>469500</v>
+        <v>474000</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -6923,10 +6923,10 @@
         <v>11</v>
       </c>
       <c r="C183">
-        <v>1277</v>
+        <v>1290</v>
       </c>
       <c r="D183">
-        <v>1733034</v>
+        <v>1750325</v>
       </c>
       <c r="E183" t="s">
         <v>15</v>
@@ -6955,10 +6955,10 @@
         <v>11</v>
       </c>
       <c r="C184">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D184">
-        <v>907243</v>
+        <v>914430</v>
       </c>
       <c r="E184" t="s">
         <v>15</v>
@@ -6987,10 +6987,10 @@
         <v>11</v>
       </c>
       <c r="C185">
-        <v>2067</v>
+        <v>2083</v>
       </c>
       <c r="D185">
-        <v>3062430</v>
+        <v>3085546</v>
       </c>
       <c r="E185" t="s">
         <v>15</v>
@@ -7019,10 +7019,10 @@
         <v>11</v>
       </c>
       <c r="C186">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="D186">
-        <v>1023298</v>
+        <v>1036798</v>
       </c>
       <c r="E186" t="s">
         <v>15</v>
@@ -7051,10 +7051,10 @@
         <v>11</v>
       </c>
       <c r="C187">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D187">
-        <v>204991</v>
+        <v>206491</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -7083,10 +7083,10 @@
         <v>11</v>
       </c>
       <c r="C188">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D188">
-        <v>46500</v>
+        <v>48000</v>
       </c>
       <c r="E188" t="s">
         <v>15</v>
@@ -7115,10 +7115,10 @@
         <v>11</v>
       </c>
       <c r="C189">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="D189">
-        <v>968743</v>
+        <v>976243</v>
       </c>
       <c r="E189" t="s">
         <v>15</v>
@@ -7147,10 +7147,10 @@
         <v>11</v>
       </c>
       <c r="C190">
-        <v>1192</v>
+        <v>1203</v>
       </c>
       <c r="D190">
-        <v>1749305</v>
+        <v>1763846</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
@@ -7179,10 +7179,10 @@
         <v>11</v>
       </c>
       <c r="C191">
-        <v>3670</v>
+        <v>3704</v>
       </c>
       <c r="D191">
-        <v>5444444</v>
+        <v>5492421</v>
       </c>
       <c r="E191" t="s">
         <v>15</v>
@@ -7211,10 +7211,10 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>1283</v>
+        <v>1302</v>
       </c>
       <c r="D192">
-        <v>1922724</v>
+        <v>1949666</v>
       </c>
       <c r="E192" t="s">
         <v>15</v>
@@ -7243,10 +7243,10 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D193">
-        <v>445500</v>
+        <v>450000</v>
       </c>
       <c r="E193" t="s">
         <v>15</v>
@@ -7275,10 +7275,10 @@
         <v>11</v>
       </c>
       <c r="C194">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D194">
-        <v>52500</v>
+        <v>54000</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -7339,10 +7339,10 @@
         <v>11</v>
       </c>
       <c r="C196">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="D196">
-        <v>1542074</v>
+        <v>1549451</v>
       </c>
       <c r="E196" t="s">
         <v>15</v>
@@ -7371,10 +7371,10 @@
         <v>11</v>
       </c>
       <c r="C197">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D197">
-        <v>719999</v>
+        <v>724499</v>
       </c>
       <c r="E197" t="s">
         <v>16</v>
@@ -7403,10 +7403,10 @@
         <v>11</v>
       </c>
       <c r="C198">
-        <v>2015</v>
+        <v>2031</v>
       </c>
       <c r="D198">
-        <v>2965873</v>
+        <v>2989020</v>
       </c>
       <c r="E198" t="s">
         <v>16</v>
@@ -7435,10 +7435,10 @@
         <v>11</v>
       </c>
       <c r="C199">
-        <v>1049</v>
+        <v>1058</v>
       </c>
       <c r="D199">
-        <v>1560077</v>
+        <v>1573577</v>
       </c>
       <c r="E199" t="s">
         <v>16</v>
@@ -7467,10 +7467,10 @@
         <v>11</v>
       </c>
       <c r="C200">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D200">
-        <v>403534</v>
+        <v>410211</v>
       </c>
       <c r="E200" t="s">
         <v>16</v>
@@ -7531,10 +7531,10 @@
         <v>11</v>
       </c>
       <c r="C202">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D202">
-        <v>301432</v>
+        <v>304232</v>
       </c>
       <c r="E202" t="s">
         <v>16</v>
@@ -7563,10 +7563,10 @@
         <v>11</v>
       </c>
       <c r="C203">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="D203">
-        <v>1681517</v>
+        <v>1693517</v>
       </c>
       <c r="E203" t="s">
         <v>16</v>
@@ -7595,10 +7595,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>2408</v>
+        <v>2428</v>
       </c>
       <c r="D204">
-        <v>3535218</v>
+        <v>3565218</v>
       </c>
       <c r="E204" t="s">
         <v>16</v>
@@ -7627,10 +7627,10 @@
         <v>11</v>
       </c>
       <c r="C205">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="D205">
-        <v>1085206</v>
+        <v>1095706</v>
       </c>
       <c r="E205" t="s">
         <v>16</v>
@@ -7659,10 +7659,10 @@
         <v>11</v>
       </c>
       <c r="C206">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D206">
-        <v>267330</v>
+        <v>270330</v>
       </c>
       <c r="E206" t="s">
         <v>16</v>
@@ -7691,10 +7691,10 @@
         <v>11</v>
       </c>
       <c r="C207">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D207">
-        <v>45000</v>
+        <v>46500</v>
       </c>
       <c r="E207" t="s">
         <v>16</v>
@@ -7723,10 +7723,10 @@
         <v>11</v>
       </c>
       <c r="C208">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="D208">
-        <v>1226470</v>
+        <v>1237500</v>
       </c>
       <c r="E208" t="s">
         <v>16</v>
@@ -7755,10 +7755,10 @@
         <v>11</v>
       </c>
       <c r="C209">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D209">
-        <v>656063</v>
+        <v>665513</v>
       </c>
       <c r="E209" t="s">
         <v>17</v>
@@ -7787,10 +7787,10 @@
         <v>11</v>
       </c>
       <c r="C210">
-        <v>1416</v>
+        <v>1433</v>
       </c>
       <c r="D210">
-        <v>2090833</v>
+        <v>2113982</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -7819,10 +7819,10 @@
         <v>11</v>
       </c>
       <c r="C211">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D211">
-        <v>672226</v>
+        <v>683424</v>
       </c>
       <c r="E211" t="s">
         <v>17</v>
@@ -7851,10 +7851,10 @@
         <v>11</v>
       </c>
       <c r="C212">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D212">
-        <v>193500</v>
+        <v>196500</v>
       </c>
       <c r="E212" t="s">
         <v>17</v>
@@ -7883,10 +7883,10 @@
         <v>11</v>
       </c>
       <c r="C213">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D213">
-        <v>24000</v>
+        <v>25500</v>
       </c>
       <c r="E213" t="s">
         <v>17</v>
@@ -7915,10 +7915,10 @@
         <v>11</v>
       </c>
       <c r="C214">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D214">
-        <v>791470</v>
+        <v>796000</v>
       </c>
       <c r="E214" t="s">
         <v>17</v>
@@ -7947,10 +7947,10 @@
         <v>11</v>
       </c>
       <c r="C215">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="D215">
-        <v>854313</v>
+        <v>869073</v>
       </c>
       <c r="E215" t="s">
         <v>17</v>
@@ -7979,10 +7979,10 @@
         <v>11</v>
       </c>
       <c r="C216">
-        <v>1690</v>
+        <v>1706</v>
       </c>
       <c r="D216">
-        <v>2491161</v>
+        <v>2512691</v>
       </c>
       <c r="E216" t="s">
         <v>17</v>
@@ -8011,10 +8011,10 @@
         <v>11</v>
       </c>
       <c r="C217">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D217">
-        <v>786034</v>
+        <v>798034</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -8043,10 +8043,10 @@
         <v>11</v>
       </c>
       <c r="C218">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D218">
-        <v>192000</v>
+        <v>195000</v>
       </c>
       <c r="E218" t="s">
         <v>17</v>
@@ -8107,10 +8107,10 @@
         <v>11</v>
       </c>
       <c r="C220">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D220">
-        <v>794957</v>
+        <v>800957</v>
       </c>
       <c r="E220" t="s">
         <v>17</v>
@@ -8139,10 +8139,10 @@
         <v>11</v>
       </c>
       <c r="C221">
-        <v>2344</v>
+        <v>2363</v>
       </c>
       <c r="D221">
-        <v>3424866</v>
+        <v>3451425</v>
       </c>
       <c r="E221" t="s">
         <v>17</v>
@@ -8171,10 +8171,10 @@
         <v>11</v>
       </c>
       <c r="C222">
-        <v>7820</v>
+        <v>7902</v>
       </c>
       <c r="D222">
-        <v>11591470</v>
+        <v>11711131</v>
       </c>
       <c r="E222" t="s">
         <v>17</v>
@@ -8203,10 +8203,10 @@
         <v>11</v>
       </c>
       <c r="C223">
-        <v>2964</v>
+        <v>3013</v>
       </c>
       <c r="D223">
-        <v>4439147</v>
+        <v>4512433</v>
       </c>
       <c r="E223" t="s">
         <v>17</v>
@@ -8235,10 +8235,10 @@
         <v>11</v>
       </c>
       <c r="C224">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="D224">
-        <v>1248541</v>
+        <v>1272541</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -8267,10 +8267,10 @@
         <v>11</v>
       </c>
       <c r="C225">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D225">
-        <v>231000</v>
+        <v>236878</v>
       </c>
       <c r="E225" t="s">
         <v>17</v>
@@ -8331,10 +8331,10 @@
         <v>11</v>
       </c>
       <c r="C227">
-        <v>2007</v>
+        <v>2028</v>
       </c>
       <c r="D227">
-        <v>2784943</v>
+        <v>2812907</v>
       </c>
       <c r="E227" t="s">
         <v>17</v>
@@ -8363,10 +8363,10 @@
         <v>11</v>
       </c>
       <c r="C228">
-        <v>1632</v>
+        <v>1652</v>
       </c>
       <c r="D228">
-        <v>2390374</v>
+        <v>2419724</v>
       </c>
       <c r="E228" t="s">
         <v>17</v>
@@ -8395,10 +8395,10 @@
         <v>11</v>
       </c>
       <c r="C229">
-        <v>4997</v>
+        <v>5055</v>
       </c>
       <c r="D229">
-        <v>7392612</v>
+        <v>7478341</v>
       </c>
       <c r="E229" t="s">
         <v>17</v>
@@ -8427,10 +8427,10 @@
         <v>11</v>
       </c>
       <c r="C230">
-        <v>2005</v>
+        <v>2026</v>
       </c>
       <c r="D230">
-        <v>2993664</v>
+        <v>3025164</v>
       </c>
       <c r="E230" t="s">
         <v>17</v>
@@ -8459,10 +8459,10 @@
         <v>11</v>
       </c>
       <c r="C231">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D231">
-        <v>762754</v>
+        <v>773254</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -8555,10 +8555,10 @@
         <v>11</v>
       </c>
       <c r="C234">
-        <v>1235</v>
+        <v>1245</v>
       </c>
       <c r="D234">
-        <v>1673331</v>
+        <v>1683528</v>
       </c>
       <c r="E234" t="s">
         <v>17</v>
@@ -8587,10 +8587,10 @@
         <v>11</v>
       </c>
       <c r="C235">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D235">
-        <v>468510</v>
+        <v>474510</v>
       </c>
       <c r="E235" t="s">
         <v>17</v>
@@ -8619,10 +8619,10 @@
         <v>11</v>
       </c>
       <c r="C236">
-        <v>909</v>
+        <v>924</v>
       </c>
       <c r="D236">
-        <v>1337619</v>
+        <v>1360119</v>
       </c>
       <c r="E236" t="s">
         <v>17</v>
@@ -8651,10 +8651,10 @@
         <v>11</v>
       </c>
       <c r="C237">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D237">
-        <v>414899</v>
+        <v>417899</v>
       </c>
       <c r="E237" t="s">
         <v>17</v>
@@ -8683,10 +8683,10 @@
         <v>11</v>
       </c>
       <c r="C238">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D238">
-        <v>126000</v>
+        <v>129000</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -8747,10 +8747,10 @@
         <v>11</v>
       </c>
       <c r="C240">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D240">
-        <v>482699</v>
+        <v>486490</v>
       </c>
       <c r="E240" t="s">
         <v>17</v>
@@ -8779,10 +8779,10 @@
         <v>11</v>
       </c>
       <c r="C241">
-        <v>1086</v>
+        <v>1097</v>
       </c>
       <c r="D241">
-        <v>1589632</v>
+        <v>1606132</v>
       </c>
       <c r="E241" t="s">
         <v>17</v>
@@ -8811,10 +8811,10 @@
         <v>11</v>
       </c>
       <c r="C242">
-        <v>3114</v>
+        <v>3152</v>
       </c>
       <c r="D242">
-        <v>4621869</v>
+        <v>4677592</v>
       </c>
       <c r="E242" t="s">
         <v>17</v>
@@ -8843,10 +8843,10 @@
         <v>11</v>
       </c>
       <c r="C243">
-        <v>1136</v>
+        <v>1145</v>
       </c>
       <c r="D243">
-        <v>1693717</v>
+        <v>1706250</v>
       </c>
       <c r="E243" t="s">
         <v>17</v>
@@ -8875,10 +8875,10 @@
         <v>11</v>
       </c>
       <c r="C244">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D244">
-        <v>492468</v>
+        <v>499968</v>
       </c>
       <c r="E244" t="s">
         <v>17</v>
@@ -8907,10 +8907,10 @@
         <v>11</v>
       </c>
       <c r="C245">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D245">
-        <v>61500</v>
+        <v>63000</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
@@ -8971,10 +8971,10 @@
         <v>11</v>
       </c>
       <c r="C247">
-        <v>1093</v>
+        <v>1106</v>
       </c>
       <c r="D247">
-        <v>1463853</v>
+        <v>1482453</v>
       </c>
       <c r="E247" t="s">
         <v>17</v>
@@ -9003,10 +9003,10 @@
         <v>11</v>
       </c>
       <c r="C248">
-        <v>1180</v>
+        <v>1187</v>
       </c>
       <c r="D248">
-        <v>1740423</v>
+        <v>1750327</v>
       </c>
       <c r="E248" t="s">
         <v>17</v>
@@ -9035,10 +9035,10 @@
         <v>11</v>
       </c>
       <c r="C249">
-        <v>3661</v>
+        <v>3690</v>
       </c>
       <c r="D249">
-        <v>5426415</v>
+        <v>5469359</v>
       </c>
       <c r="E249" t="s">
         <v>17</v>
@@ -9067,10 +9067,10 @@
         <v>11</v>
       </c>
       <c r="C250">
-        <v>1231</v>
+        <v>1246</v>
       </c>
       <c r="D250">
-        <v>1841818</v>
+        <v>1864318</v>
       </c>
       <c r="E250" t="s">
         <v>17</v>
@@ -9099,10 +9099,10 @@
         <v>11</v>
       </c>
       <c r="C251">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D251">
-        <v>475094</v>
+        <v>478782</v>
       </c>
       <c r="E251" t="s">
         <v>17</v>
@@ -9131,10 +9131,10 @@
         <v>11</v>
       </c>
       <c r="C252">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D252">
-        <v>114000</v>
+        <v>115500</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -9195,10 +9195,10 @@
         <v>11</v>
       </c>
       <c r="C254">
-        <v>1351</v>
+        <v>1366</v>
       </c>
       <c r="D254">
-        <v>1859812</v>
+        <v>1879806</v>
       </c>
       <c r="E254" t="s">
         <v>17</v>
@@ -9227,10 +9227,10 @@
         <v>11</v>
       </c>
       <c r="C255">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D255">
-        <v>471222</v>
+        <v>477052</v>
       </c>
       <c r="E255" t="s">
         <v>17</v>
@@ -9259,10 +9259,10 @@
         <v>11</v>
       </c>
       <c r="C256">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="D256">
-        <v>1343319</v>
+        <v>1357672</v>
       </c>
       <c r="E256" t="s">
         <v>17</v>
@@ -9291,10 +9291,10 @@
         <v>11</v>
       </c>
       <c r="C257">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="D257">
-        <v>412088</v>
+        <v>425588</v>
       </c>
       <c r="E257" t="s">
         <v>17</v>
@@ -9323,10 +9323,10 @@
         <v>11</v>
       </c>
       <c r="C258">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D258">
-        <v>109500</v>
+        <v>111000</v>
       </c>
       <c r="E258" t="s">
         <v>17</v>
@@ -9387,10 +9387,10 @@
         <v>11</v>
       </c>
       <c r="C260">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D260">
-        <v>470748</v>
+        <v>473748</v>
       </c>
       <c r="E260" t="s">
         <v>17</v>
@@ -9419,10 +9419,10 @@
         <v>11</v>
       </c>
       <c r="C261">
-        <v>1676</v>
+        <v>1685</v>
       </c>
       <c r="D261">
-        <v>2448906</v>
+        <v>2461698</v>
       </c>
       <c r="E261" t="s">
         <v>17</v>
@@ -9451,10 +9451,10 @@
         <v>11</v>
       </c>
       <c r="C262">
-        <v>5638</v>
+        <v>5690</v>
       </c>
       <c r="D262">
-        <v>8339377</v>
+        <v>8413193</v>
       </c>
       <c r="E262" t="s">
         <v>17</v>
@@ -9483,10 +9483,10 @@
         <v>11</v>
       </c>
       <c r="C263">
-        <v>2350</v>
+        <v>2374</v>
       </c>
       <c r="D263">
-        <v>3518910</v>
+        <v>3554149</v>
       </c>
       <c r="E263" t="s">
         <v>17</v>
@@ -9515,10 +9515,10 @@
         <v>11</v>
       </c>
       <c r="C264">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="D264">
-        <v>1053000</v>
+        <v>1066500</v>
       </c>
       <c r="E264" t="s">
         <v>17</v>
@@ -9579,10 +9579,10 @@
         <v>11</v>
       </c>
       <c r="C266">
-        <v>1476</v>
+        <v>1491</v>
       </c>
       <c r="D266">
-        <v>2026672</v>
+        <v>2046608</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
@@ -9611,10 +9611,10 @@
         <v>11</v>
       </c>
       <c r="C267">
-        <v>1018</v>
+        <v>1030</v>
       </c>
       <c r="D267">
-        <v>1467423</v>
+        <v>1484723</v>
       </c>
       <c r="E267" t="s">
         <v>17</v>
@@ -9643,10 +9643,10 @@
         <v>11</v>
       </c>
       <c r="C268">
-        <v>2588</v>
+        <v>2605</v>
       </c>
       <c r="D268">
-        <v>3833669</v>
+        <v>3859169</v>
       </c>
       <c r="E268" t="s">
         <v>17</v>
@@ -9675,10 +9675,10 @@
         <v>11</v>
       </c>
       <c r="C269">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D269">
-        <v>1227993</v>
+        <v>1238493</v>
       </c>
       <c r="E269" t="s">
         <v>17</v>
@@ -9707,10 +9707,10 @@
         <v>11</v>
       </c>
       <c r="C270">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D270">
-        <v>304500</v>
+        <v>307500</v>
       </c>
       <c r="E270" t="s">
         <v>17</v>
@@ -9803,10 +9803,10 @@
         <v>11</v>
       </c>
       <c r="C273">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="D273">
-        <v>1358304</v>
+        <v>1365908</v>
       </c>
       <c r="E273" t="s">
         <v>17</v>
@@ -9835,10 +9835,10 @@
         <v>11</v>
       </c>
       <c r="C274">
-        <v>942</v>
+        <v>952</v>
       </c>
       <c r="D274">
-        <v>1363095</v>
+        <v>1377695</v>
       </c>
       <c r="E274" t="s">
         <v>18</v>
@@ -9867,10 +9867,10 @@
         <v>11</v>
       </c>
       <c r="C275">
-        <v>3538</v>
+        <v>3577</v>
       </c>
       <c r="D275">
-        <v>5217138</v>
+        <v>5274982</v>
       </c>
       <c r="E275" t="s">
         <v>18</v>
@@ -9899,10 +9899,10 @@
         <v>11</v>
       </c>
       <c r="C276">
-        <v>1346</v>
+        <v>1356</v>
       </c>
       <c r="D276">
-        <v>2011964</v>
+        <v>2026964</v>
       </c>
       <c r="E276" t="s">
         <v>18</v>
@@ -9931,10 +9931,10 @@
         <v>11</v>
       </c>
       <c r="C277">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D277">
-        <v>618500</v>
+        <v>624500</v>
       </c>
       <c r="E277" t="s">
         <v>18</v>
@@ -9963,10 +9963,10 @@
         <v>11</v>
       </c>
       <c r="C278">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D278">
-        <v>121500</v>
+        <v>123000</v>
       </c>
       <c r="E278" t="s">
         <v>18</v>
@@ -9995,10 +9995,10 @@
         <v>11</v>
       </c>
       <c r="C279">
-        <v>2220</v>
+        <v>2255</v>
       </c>
       <c r="D279">
-        <v>3086502</v>
+        <v>3134602</v>
       </c>
       <c r="E279" t="s">
         <v>18</v>
@@ -10027,10 +10027,10 @@
         <v>11</v>
       </c>
       <c r="C280">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D280">
-        <v>489284</v>
+        <v>490784</v>
       </c>
       <c r="E280" t="s">
         <v>19</v>
@@ -10059,10 +10059,10 @@
         <v>11</v>
       </c>
       <c r="C281">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="D281">
-        <v>1306177</v>
+        <v>1334977</v>
       </c>
       <c r="E281" t="s">
         <v>19</v>
@@ -10123,10 +10123,10 @@
         <v>11</v>
       </c>
       <c r="C283">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D283">
-        <v>184378</v>
+        <v>185878</v>
       </c>
       <c r="E283" t="s">
         <v>19</v>
@@ -10187,10 +10187,10 @@
         <v>11</v>
       </c>
       <c r="C285">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D285">
-        <v>586930</v>
+        <v>594222</v>
       </c>
       <c r="E285" t="s">
         <v>19</v>
@@ -10219,10 +10219,10 @@
         <v>11</v>
       </c>
       <c r="C286">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="D286">
-        <v>1084187</v>
+        <v>1093187</v>
       </c>
       <c r="E286" t="s">
         <v>20</v>
@@ -10251,10 +10251,10 @@
         <v>11</v>
       </c>
       <c r="C287">
-        <v>2355</v>
+        <v>2380</v>
       </c>
       <c r="D287">
-        <v>3493533</v>
+        <v>3528473</v>
       </c>
       <c r="E287" t="s">
         <v>20</v>
@@ -10283,10 +10283,10 @@
         <v>11</v>
       </c>
       <c r="C288">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="D288">
-        <v>1302871</v>
+        <v>1317871</v>
       </c>
       <c r="E288" t="s">
         <v>20</v>
@@ -10315,10 +10315,10 @@
         <v>11</v>
       </c>
       <c r="C289">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D289">
-        <v>317952</v>
+        <v>320952</v>
       </c>
       <c r="E289" t="s">
         <v>20</v>
@@ -10411,10 +10411,10 @@
         <v>11</v>
       </c>
       <c r="C292">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="D292">
-        <v>1223539</v>
+        <v>1230323</v>
       </c>
       <c r="E292" t="s">
         <v>20</v>
@@ -10443,10 +10443,10 @@
         <v>11</v>
       </c>
       <c r="C293">
-        <v>4357</v>
+        <v>4388</v>
       </c>
       <c r="D293">
-        <v>6317145</v>
+        <v>6360574</v>
       </c>
       <c r="E293" t="s">
         <v>20</v>
@@ -10475,10 +10475,10 @@
         <v>11</v>
       </c>
       <c r="C294">
-        <v>12793</v>
+        <v>12917</v>
       </c>
       <c r="D294">
-        <v>18874580</v>
+        <v>19057142</v>
       </c>
       <c r="E294" t="s">
         <v>20</v>
@@ -10507,10 +10507,10 @@
         <v>11</v>
       </c>
       <c r="C295">
-        <v>4472</v>
+        <v>4506</v>
       </c>
       <c r="D295">
-        <v>6691879</v>
+        <v>6741959</v>
       </c>
       <c r="E295" t="s">
         <v>20</v>
@@ -10539,10 +10539,10 @@
         <v>11</v>
       </c>
       <c r="C296">
-        <v>1299</v>
+        <v>1313</v>
       </c>
       <c r="D296">
-        <v>1945092</v>
+        <v>1966092</v>
       </c>
       <c r="E296" t="s">
         <v>20</v>
@@ -10571,10 +10571,10 @@
         <v>11</v>
       </c>
       <c r="C297">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D297">
-        <v>358202</v>
+        <v>359702</v>
       </c>
       <c r="E297" t="s">
         <v>20</v>
@@ -10603,10 +10603,10 @@
         <v>11</v>
       </c>
       <c r="C298">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D298">
-        <v>30000</v>
+        <v>31500</v>
       </c>
       <c r="E298" t="s">
         <v>20</v>
@@ -10635,10 +10635,10 @@
         <v>11</v>
       </c>
       <c r="C299">
-        <v>3879</v>
+        <v>3906</v>
       </c>
       <c r="D299">
-        <v>5206780</v>
+        <v>5242830</v>
       </c>
       <c r="E299" t="s">
         <v>20</v>
@@ -10667,10 +10667,10 @@
         <v>11</v>
       </c>
       <c r="C300">
-        <v>1303</v>
+        <v>1313</v>
       </c>
       <c r="D300">
-        <v>1915721</v>
+        <v>1930721</v>
       </c>
       <c r="E300" t="s">
         <v>20</v>
@@ -10699,10 +10699,10 @@
         <v>11</v>
       </c>
       <c r="C301">
-        <v>4196</v>
+        <v>4234</v>
       </c>
       <c r="D301">
-        <v>6205368</v>
+        <v>6260779</v>
       </c>
       <c r="E301" t="s">
         <v>20</v>
@@ -10731,10 +10731,10 @@
         <v>11</v>
       </c>
       <c r="C302">
-        <v>1481</v>
+        <v>1495</v>
       </c>
       <c r="D302">
-        <v>2217873</v>
+        <v>2238873</v>
       </c>
       <c r="E302" t="s">
         <v>20</v>
@@ -10763,10 +10763,10 @@
         <v>11</v>
       </c>
       <c r="C303">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D303">
-        <v>556500</v>
+        <v>562500</v>
       </c>
       <c r="E303" t="s">
         <v>20</v>
@@ -10859,10 +10859,10 @@
         <v>11</v>
       </c>
       <c r="C306">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="D306">
-        <v>1775386</v>
+        <v>1781386</v>
       </c>
       <c r="E306" t="s">
         <v>20</v>
@@ -10891,10 +10891,10 @@
         <v>11</v>
       </c>
       <c r="C307">
-        <v>2333</v>
+        <v>2349</v>
       </c>
       <c r="D307">
-        <v>3388317</v>
+        <v>3411717</v>
       </c>
       <c r="E307" t="s">
         <v>20</v>
@@ -10923,10 +10923,10 @@
         <v>11</v>
       </c>
       <c r="C308">
-        <v>7318</v>
+        <v>7394</v>
       </c>
       <c r="D308">
-        <v>10789431</v>
+        <v>10898419</v>
       </c>
       <c r="E308" t="s">
         <v>20</v>
@@ -10955,10 +10955,10 @@
         <v>11</v>
       </c>
       <c r="C309">
-        <v>2303</v>
+        <v>2325</v>
       </c>
       <c r="D309">
-        <v>3441640</v>
+        <v>3474640</v>
       </c>
       <c r="E309" t="s">
         <v>20</v>
@@ -10987,10 +10987,10 @@
         <v>11</v>
       </c>
       <c r="C310">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="D310">
-        <v>1017479</v>
+        <v>1030979</v>
       </c>
       <c r="E310" t="s">
         <v>20</v>
@@ -11019,10 +11019,10 @@
         <v>11</v>
       </c>
       <c r="C311">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D311">
-        <v>150000</v>
+        <v>151500</v>
       </c>
       <c r="E311" t="s">
         <v>20</v>
@@ -11083,10 +11083,10 @@
         <v>11</v>
       </c>
       <c r="C313">
-        <v>2466</v>
+        <v>2487</v>
       </c>
       <c r="D313">
-        <v>3271731</v>
+        <v>3297721</v>
       </c>
       <c r="E313" t="s">
         <v>20</v>
@@ -11115,10 +11115,10 @@
         <v>11</v>
       </c>
       <c r="C314">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="D314">
-        <v>1402030</v>
+        <v>1411239</v>
       </c>
       <c r="E314" t="s">
         <v>20</v>
@@ -11147,10 +11147,10 @@
         <v>11</v>
       </c>
       <c r="C315">
-        <v>2775</v>
+        <v>2794</v>
       </c>
       <c r="D315">
-        <v>4107696</v>
+        <v>4135803</v>
       </c>
       <c r="E315" t="s">
         <v>20</v>
@@ -11179,10 +11179,10 @@
         <v>11</v>
       </c>
       <c r="C316">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="D316">
-        <v>1509028</v>
+        <v>1531528</v>
       </c>
       <c r="E316" t="s">
         <v>20</v>
@@ -11211,10 +11211,10 @@
         <v>11</v>
       </c>
       <c r="C317">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D317">
-        <v>350700</v>
+        <v>357071</v>
       </c>
       <c r="E317" t="s">
         <v>20</v>
@@ -11243,10 +11243,10 @@
         <v>11</v>
       </c>
       <c r="C318">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D318">
-        <v>79500</v>
+        <v>84000</v>
       </c>
       <c r="E318" t="s">
         <v>20</v>
@@ -11275,10 +11275,10 @@
         <v>11</v>
       </c>
       <c r="C319">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="D319">
-        <v>1409765</v>
+        <v>1417420</v>
       </c>
       <c r="E319" t="s">
         <v>20</v>
@@ -11307,10 +11307,10 @@
         <v>11</v>
       </c>
       <c r="C320">
-        <v>2622</v>
+        <v>2641</v>
       </c>
       <c r="D320">
-        <v>3828807</v>
+        <v>3856499</v>
       </c>
       <c r="E320" t="s">
         <v>21</v>
@@ -11339,10 +11339,10 @@
         <v>11</v>
       </c>
       <c r="C321">
-        <v>7129</v>
+        <v>7183</v>
       </c>
       <c r="D321">
-        <v>10522647</v>
+        <v>10601399</v>
       </c>
       <c r="E321" t="s">
         <v>21</v>
@@ -11371,10 +11371,10 @@
         <v>11</v>
       </c>
       <c r="C322">
-        <v>2526</v>
+        <v>2542</v>
       </c>
       <c r="D322">
-        <v>3774272</v>
+        <v>3798272</v>
       </c>
       <c r="E322" t="s">
         <v>21</v>
@@ -11403,10 +11403,10 @@
         <v>11</v>
       </c>
       <c r="C323">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="D323">
-        <v>1217549</v>
+        <v>1232549</v>
       </c>
       <c r="E323" t="s">
         <v>21</v>
@@ -11499,10 +11499,10 @@
         <v>11</v>
       </c>
       <c r="C326">
-        <v>2721</v>
+        <v>2754</v>
       </c>
       <c r="D326">
-        <v>3704387</v>
+        <v>3748553</v>
       </c>
       <c r="E326" t="s">
         <v>21</v>
@@ -11531,10 +11531,10 @@
         <v>11</v>
       </c>
       <c r="C327">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="D327">
-        <v>1200936</v>
+        <v>1211436</v>
       </c>
       <c r="E327" t="s">
         <v>22</v>
@@ -11563,10 +11563,10 @@
         <v>11</v>
       </c>
       <c r="C328">
-        <v>2874</v>
+        <v>2912</v>
       </c>
       <c r="D328">
-        <v>4247614</v>
+        <v>4304614</v>
       </c>
       <c r="E328" t="s">
         <v>22</v>
@@ -11595,10 +11595,10 @@
         <v>11</v>
       </c>
       <c r="C329">
-        <v>1121</v>
+        <v>1139</v>
       </c>
       <c r="D329">
-        <v>1678048</v>
+        <v>1705048</v>
       </c>
       <c r="E329" t="s">
         <v>22</v>
@@ -11627,10 +11627,10 @@
         <v>11</v>
       </c>
       <c r="C330">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D330">
-        <v>588000</v>
+        <v>595500</v>
       </c>
       <c r="E330" t="s">
         <v>22</v>
@@ -11659,10 +11659,10 @@
         <v>11</v>
       </c>
       <c r="C331">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D331">
-        <v>116569</v>
+        <v>118069</v>
       </c>
       <c r="E331" t="s">
         <v>22</v>
@@ -11723,10 +11723,10 @@
         <v>11</v>
       </c>
       <c r="C333">
-        <v>1660</v>
+        <v>1696</v>
       </c>
       <c r="D333">
-        <v>2231188</v>
+        <v>2281232</v>
       </c>
       <c r="E333" t="s">
         <v>22</v>
@@ -11755,10 +11755,10 @@
         <v>11</v>
       </c>
       <c r="C334">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D334">
-        <v>414719</v>
+        <v>422189</v>
       </c>
       <c r="E334" t="s">
         <v>23</v>
@@ -11787,10 +11787,10 @@
         <v>11</v>
       </c>
       <c r="C335">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D335">
-        <v>140610</v>
+        <v>142110</v>
       </c>
       <c r="E335" t="s">
         <v>23</v>
@@ -11851,10 +11851,10 @@
         <v>11</v>
       </c>
       <c r="C337">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D337">
-        <v>19500</v>
+        <v>22500</v>
       </c>
       <c r="E337" t="s">
         <v>23</v>
@@ -11915,10 +11915,10 @@
         <v>11</v>
       </c>
       <c r="C339">
-        <v>1964</v>
+        <v>1992</v>
       </c>
       <c r="D339">
-        <v>2862914</v>
+        <v>2901492</v>
       </c>
       <c r="E339" t="s">
         <v>24</v>
@@ -11947,10 +11947,10 @@
         <v>11</v>
       </c>
       <c r="C340">
-        <v>4879</v>
+        <v>4915</v>
       </c>
       <c r="D340">
-        <v>7212508</v>
+        <v>7262089</v>
       </c>
       <c r="E340" t="s">
         <v>24</v>
@@ -11979,10 +11979,10 @@
         <v>11</v>
       </c>
       <c r="C341">
-        <v>1577</v>
+        <v>1605</v>
       </c>
       <c r="D341">
-        <v>2358583</v>
+        <v>2399871</v>
       </c>
       <c r="E341" t="s">
         <v>24</v>
@@ -12011,10 +12011,10 @@
         <v>11</v>
       </c>
       <c r="C342">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D342">
-        <v>688405</v>
+        <v>696145</v>
       </c>
       <c r="E342" t="s">
         <v>24</v>
@@ -12043,10 +12043,10 @@
         <v>11</v>
       </c>
       <c r="C343">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D343">
-        <v>105000</v>
+        <v>109500</v>
       </c>
       <c r="E343" t="s">
         <v>24</v>
@@ -12107,10 +12107,10 @@
         <v>11</v>
       </c>
       <c r="C345">
-        <v>1467</v>
+        <v>1476</v>
       </c>
       <c r="D345">
-        <v>1988347</v>
+        <v>2000011</v>
       </c>
       <c r="E345" t="s">
         <v>24</v>
@@ -12139,10 +12139,10 @@
         <v>11</v>
       </c>
       <c r="C346">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="D346">
-        <v>1608397</v>
+        <v>1618514</v>
       </c>
       <c r="E346" t="s">
         <v>24</v>
@@ -12171,10 +12171,10 @@
         <v>11</v>
       </c>
       <c r="C347">
-        <v>3294</v>
+        <v>3322</v>
       </c>
       <c r="D347">
-        <v>4875720</v>
+        <v>4916752</v>
       </c>
       <c r="E347" t="s">
         <v>24</v>
@@ -12203,10 +12203,10 @@
         <v>11</v>
       </c>
       <c r="C348">
-        <v>1060</v>
+        <v>1075</v>
       </c>
       <c r="D348">
-        <v>1584970</v>
+        <v>1605999</v>
       </c>
       <c r="E348" t="s">
         <v>24</v>
@@ -12235,10 +12235,10 @@
         <v>11</v>
       </c>
       <c r="C349">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D349">
-        <v>416542</v>
+        <v>422542</v>
       </c>
       <c r="E349" t="s">
         <v>24</v>
@@ -12331,10 +12331,10 @@
         <v>11</v>
       </c>
       <c r="C352">
-        <v>1036</v>
+        <v>1045</v>
       </c>
       <c r="D352">
-        <v>1389494</v>
+        <v>1402994</v>
       </c>
       <c r="E352" t="s">
         <v>24</v>
@@ -12363,10 +12363,10 @@
         <v>11</v>
       </c>
       <c r="C353">
-        <v>1248</v>
+        <v>1257</v>
       </c>
       <c r="D353">
-        <v>1835930</v>
+        <v>1849430</v>
       </c>
       <c r="E353" t="s">
         <v>24</v>
@@ -12395,10 +12395,10 @@
         <v>11</v>
       </c>
       <c r="C354">
-        <v>3301</v>
+        <v>3329</v>
       </c>
       <c r="D354">
-        <v>4896544</v>
+        <v>4938007</v>
       </c>
       <c r="E354" t="s">
         <v>24</v>
@@ -12427,10 +12427,10 @@
         <v>11</v>
       </c>
       <c r="C355">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="D355">
-        <v>1483511</v>
+        <v>1501511</v>
       </c>
       <c r="E355" t="s">
         <v>24</v>
@@ -12459,10 +12459,10 @@
         <v>11</v>
       </c>
       <c r="C356">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D356">
-        <v>401683</v>
+        <v>406183</v>
       </c>
       <c r="E356" t="s">
         <v>24</v>
@@ -12523,10 +12523,10 @@
         <v>11</v>
       </c>
       <c r="C358">
-        <v>1031</v>
+        <v>1043</v>
       </c>
       <c r="D358">
-        <v>1385276</v>
+        <v>1401706</v>
       </c>
       <c r="E358" t="s">
         <v>24</v>
@@ -12555,10 +12555,10 @@
         <v>11</v>
       </c>
       <c r="C359">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D359">
-        <v>874138</v>
+        <v>875638</v>
       </c>
       <c r="E359" t="s">
         <v>24</v>
@@ -12587,10 +12587,10 @@
         <v>11</v>
       </c>
       <c r="C360">
-        <v>1773</v>
+        <v>1783</v>
       </c>
       <c r="D360">
-        <v>2625326</v>
+        <v>2640326</v>
       </c>
       <c r="E360" t="s">
         <v>24</v>
@@ -12619,10 +12619,10 @@
         <v>11</v>
       </c>
       <c r="C361">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D361">
-        <v>715701</v>
+        <v>729201</v>
       </c>
       <c r="E361" t="s">
         <v>24</v>
@@ -12651,10 +12651,10 @@
         <v>11</v>
       </c>
       <c r="C362">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D362">
-        <v>168000</v>
+        <v>171000</v>
       </c>
       <c r="E362" t="s">
         <v>24</v>
@@ -12715,10 +12715,10 @@
         <v>11</v>
       </c>
       <c r="C364">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="D364">
-        <v>943109</v>
+        <v>953609</v>
       </c>
       <c r="E364" t="s">
         <v>24</v>
@@ -12747,10 +12747,10 @@
         <v>11</v>
       </c>
       <c r="C365">
-        <v>1899</v>
+        <v>1906</v>
       </c>
       <c r="D365">
-        <v>2782159</v>
+        <v>2792659</v>
       </c>
       <c r="E365" t="s">
         <v>24</v>
@@ -12779,10 +12779,10 @@
         <v>11</v>
       </c>
       <c r="C366">
-        <v>6269</v>
+        <v>6334</v>
       </c>
       <c r="D366">
-        <v>9282282</v>
+        <v>9377659</v>
       </c>
       <c r="E366" t="s">
         <v>24</v>
@@ -12811,10 +12811,10 @@
         <v>11</v>
       </c>
       <c r="C367">
-        <v>2222</v>
+        <v>2252</v>
       </c>
       <c r="D367">
-        <v>3325997</v>
+        <v>3369797</v>
       </c>
       <c r="E367" t="s">
         <v>24</v>
@@ -12843,10 +12843,10 @@
         <v>11</v>
       </c>
       <c r="C368">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="D368">
-        <v>840785</v>
+        <v>855785</v>
       </c>
       <c r="E368" t="s">
         <v>24</v>
@@ -12875,10 +12875,10 @@
         <v>11</v>
       </c>
       <c r="C369">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D369">
-        <v>188810</v>
+        <v>191810</v>
       </c>
       <c r="E369" t="s">
         <v>24</v>
@@ -12939,10 +12939,10 @@
         <v>11</v>
       </c>
       <c r="C371">
-        <v>1882</v>
+        <v>1896</v>
       </c>
       <c r="D371">
-        <v>2527032</v>
+        <v>2546683</v>
       </c>
       <c r="E371" t="s">
         <v>24</v>
@@ -12971,10 +12971,10 @@
         <v>11</v>
       </c>
       <c r="C372">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D372">
-        <v>1108970</v>
+        <v>1111970</v>
       </c>
       <c r="E372" t="s">
         <v>25</v>
@@ -13003,10 +13003,10 @@
         <v>11</v>
       </c>
       <c r="C373">
-        <v>2162</v>
+        <v>2180</v>
       </c>
       <c r="D373">
-        <v>3189041</v>
+        <v>3214375</v>
       </c>
       <c r="E373" t="s">
         <v>25</v>
@@ -13035,10 +13035,10 @@
         <v>11</v>
       </c>
       <c r="C374">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="D374">
-        <v>1042790</v>
+        <v>1048790</v>
       </c>
       <c r="E374" t="s">
         <v>25</v>
@@ -13067,10 +13067,10 @@
         <v>11</v>
       </c>
       <c r="C375">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D375">
-        <v>312911</v>
+        <v>317411</v>
       </c>
       <c r="E375" t="s">
         <v>25</v>
@@ -13131,10 +13131,10 @@
         <v>11</v>
       </c>
       <c r="C377">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="D377">
-        <v>1161146</v>
+        <v>1163146</v>
       </c>
       <c r="E377" t="s">
         <v>25</v>
@@ -13163,10 +13163,10 @@
         <v>11</v>
       </c>
       <c r="C378">
-        <v>2733</v>
+        <v>2757</v>
       </c>
       <c r="D378">
-        <v>3975104</v>
+        <v>4009365</v>
       </c>
       <c r="E378" t="s">
         <v>25</v>
@@ -13195,10 +13195,10 @@
         <v>11</v>
       </c>
       <c r="C379">
-        <v>5518</v>
+        <v>5555</v>
       </c>
       <c r="D379">
-        <v>8165796</v>
+        <v>8221296</v>
       </c>
       <c r="E379" t="s">
         <v>25</v>
@@ -13227,10 +13227,10 @@
         <v>11</v>
       </c>
       <c r="C380">
-        <v>1608</v>
+        <v>1623</v>
       </c>
       <c r="D380">
-        <v>2405395</v>
+        <v>2426907</v>
       </c>
       <c r="E380" t="s">
         <v>25</v>
@@ -13259,10 +13259,10 @@
         <v>11</v>
       </c>
       <c r="C381">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D381">
-        <v>589500</v>
+        <v>592500</v>
       </c>
       <c r="E381" t="s">
         <v>25</v>
@@ -13355,10 +13355,10 @@
         <v>11</v>
       </c>
       <c r="C384">
-        <v>1760</v>
+        <v>1777</v>
       </c>
       <c r="D384">
-        <v>2390571</v>
+        <v>2415325</v>
       </c>
       <c r="E384" t="s">
         <v>25</v>
@@ -13387,10 +13387,10 @@
         <v>11</v>
       </c>
       <c r="C385">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D385">
-        <v>973722</v>
+        <v>979722</v>
       </c>
       <c r="E385" t="s">
         <v>25</v>
@@ -13419,10 +13419,10 @@
         <v>11</v>
       </c>
       <c r="C386">
-        <v>1744</v>
+        <v>1759</v>
       </c>
       <c r="D386">
-        <v>2570449</v>
+        <v>2592753</v>
       </c>
       <c r="E386" t="s">
         <v>25</v>
@@ -13451,10 +13451,10 @@
         <v>11</v>
       </c>
       <c r="C387">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D387">
-        <v>734389</v>
+        <v>744889</v>
       </c>
       <c r="E387" t="s">
         <v>25</v>
@@ -13483,10 +13483,10 @@
         <v>11</v>
       </c>
       <c r="C388">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D388">
-        <v>205500</v>
+        <v>208500</v>
       </c>
       <c r="E388" t="s">
         <v>25</v>
@@ -13547,10 +13547,10 @@
         <v>11</v>
       </c>
       <c r="C390">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="D390">
-        <v>1102124</v>
+        <v>1117277</v>
       </c>
       <c r="E390" t="s">
         <v>25</v>
@@ -13611,10 +13611,10 @@
         <v>11</v>
       </c>
       <c r="C392">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="D392">
-        <v>956129</v>
+        <v>965129</v>
       </c>
       <c r="E392" t="s">
         <v>25</v>
@@ -13643,10 +13643,10 @@
         <v>11</v>
       </c>
       <c r="C393">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D393">
-        <v>312846</v>
+        <v>320346</v>
       </c>
       <c r="E393" t="s">
         <v>25</v>
@@ -13675,10 +13675,10 @@
         <v>11</v>
       </c>
       <c r="C394">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D394">
-        <v>48000</v>
+        <v>49500</v>
       </c>
       <c r="E394" t="s">
         <v>25</v>
@@ -13739,10 +13739,10 @@
         <v>11</v>
       </c>
       <c r="C396">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D396">
-        <v>471421</v>
+        <v>476610</v>
       </c>
       <c r="E396" t="s">
         <v>25</v>
@@ -13771,10 +13771,10 @@
         <v>11</v>
       </c>
       <c r="C397">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="D397">
-        <v>871547</v>
+        <v>879047</v>
       </c>
       <c r="E397" t="s">
         <v>25</v>
@@ -13803,10 +13803,10 @@
         <v>11</v>
       </c>
       <c r="C398">
-        <v>1949</v>
+        <v>1962</v>
       </c>
       <c r="D398">
-        <v>2894892</v>
+        <v>2914392</v>
       </c>
       <c r="E398" t="s">
         <v>25</v>
@@ -13835,10 +13835,10 @@
         <v>11</v>
       </c>
       <c r="C399">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="D399">
-        <v>958546</v>
+        <v>970494</v>
       </c>
       <c r="E399" t="s">
         <v>25</v>
@@ -13931,10 +13931,10 @@
         <v>11</v>
       </c>
       <c r="C402">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="D402">
-        <v>875572</v>
+        <v>883072</v>
       </c>
       <c r="E402" t="s">
         <v>25</v>
@@ -13963,10 +13963,10 @@
         <v>11</v>
       </c>
       <c r="C403">
-        <v>1638</v>
+        <v>1646</v>
       </c>
       <c r="D403">
-        <v>2357202</v>
+        <v>2368764</v>
       </c>
       <c r="E403" t="s">
         <v>25</v>
@@ -13995,10 +13995,10 @@
         <v>11</v>
       </c>
       <c r="C404">
-        <v>3501</v>
+        <v>3532</v>
       </c>
       <c r="D404">
-        <v>5159923</v>
+        <v>5205013</v>
       </c>
       <c r="E404" t="s">
         <v>25</v>
@@ -14027,10 +14027,10 @@
         <v>11</v>
       </c>
       <c r="C405">
-        <v>963</v>
+        <v>977</v>
       </c>
       <c r="D405">
-        <v>1439354</v>
+        <v>1459076</v>
       </c>
       <c r="E405" t="s">
         <v>25</v>
@@ -14059,10 +14059,10 @@
         <v>11</v>
       </c>
       <c r="C406">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D406">
-        <v>348636</v>
+        <v>353136</v>
       </c>
       <c r="E406" t="s">
         <v>25</v>
@@ -14123,10 +14123,10 @@
         <v>11</v>
       </c>
       <c r="C408">
-        <v>1501</v>
+        <v>1518</v>
       </c>
       <c r="D408">
-        <v>1995454</v>
+        <v>2018752</v>
       </c>
       <c r="E408" t="s">
         <v>25</v>
@@ -14155,10 +14155,10 @@
         <v>11</v>
       </c>
       <c r="C409">
-        <v>5454</v>
+        <v>5505</v>
       </c>
       <c r="D409">
-        <v>7953703</v>
+        <v>8029462</v>
       </c>
       <c r="E409" t="s">
         <v>25</v>
@@ -14187,10 +14187,10 @@
         <v>11</v>
       </c>
       <c r="C410">
-        <v>11801</v>
+        <v>11911</v>
       </c>
       <c r="D410">
-        <v>17405204</v>
+        <v>17565461</v>
       </c>
       <c r="E410" t="s">
         <v>25</v>
@@ -14219,10 +14219,10 @@
         <v>11</v>
       </c>
       <c r="C411">
-        <v>3986</v>
+        <v>4019</v>
       </c>
       <c r="D411">
-        <v>5950603</v>
+        <v>6000103</v>
       </c>
       <c r="E411" t="s">
         <v>25</v>
@@ -14251,10 +14251,10 @@
         <v>11</v>
       </c>
       <c r="C412">
-        <v>1163</v>
+        <v>1174</v>
       </c>
       <c r="D412">
-        <v>1741759</v>
+        <v>1757610</v>
       </c>
       <c r="E412" t="s">
         <v>25</v>
@@ -14283,10 +14283,10 @@
         <v>11</v>
       </c>
       <c r="C413">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D413">
-        <v>337500</v>
+        <v>339000</v>
       </c>
       <c r="E413" t="s">
         <v>25</v>
@@ -14379,10 +14379,10 @@
         <v>11</v>
       </c>
       <c r="C416">
-        <v>4064</v>
+        <v>4098</v>
       </c>
       <c r="D416">
-        <v>5609637</v>
+        <v>5657194</v>
       </c>
       <c r="E416" t="s">
         <v>25</v>
@@ -14411,10 +14411,10 @@
         <v>11</v>
       </c>
       <c r="C417">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="D417">
-        <v>1204585</v>
+        <v>1216585</v>
       </c>
       <c r="E417" t="s">
         <v>25</v>
@@ -14443,10 +14443,10 @@
         <v>11</v>
       </c>
       <c r="C418">
-        <v>2114</v>
+        <v>2137</v>
       </c>
       <c r="D418">
-        <v>3129042</v>
+        <v>3162686</v>
       </c>
       <c r="E418" t="s">
         <v>25</v>
@@ -14475,10 +14475,10 @@
         <v>11</v>
       </c>
       <c r="C419">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="D419">
-        <v>1029196</v>
+        <v>1043256</v>
       </c>
       <c r="E419" t="s">
         <v>25</v>
@@ -14507,10 +14507,10 @@
         <v>11</v>
       </c>
       <c r="C420">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D420">
-        <v>304500</v>
+        <v>310500</v>
       </c>
       <c r="E420" t="s">
         <v>25</v>
@@ -14571,10 +14571,10 @@
         <v>11</v>
       </c>
       <c r="C422">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="D422">
-        <v>1362399</v>
+        <v>1370918</v>
       </c>
       <c r="E422" t="s">
         <v>25</v>
@@ -14603,10 +14603,10 @@
         <v>11</v>
       </c>
       <c r="C423">
-        <v>1768</v>
+        <v>1776</v>
       </c>
       <c r="D423">
-        <v>2552020</v>
+        <v>2563088</v>
       </c>
       <c r="E423" t="s">
         <v>25</v>
@@ -14635,10 +14635,10 @@
         <v>11</v>
       </c>
       <c r="C424">
-        <v>3340</v>
+        <v>3365</v>
       </c>
       <c r="D424">
-        <v>4921229</v>
+        <v>4957699</v>
       </c>
       <c r="E424" t="s">
         <v>25</v>
@@ -14667,10 +14667,10 @@
         <v>11</v>
       </c>
       <c r="C425">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="D425">
-        <v>1491196</v>
+        <v>1500196</v>
       </c>
       <c r="E425" t="s">
         <v>25</v>
@@ -14699,10 +14699,10 @@
         <v>11</v>
       </c>
       <c r="C426">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D426">
-        <v>355846</v>
+        <v>363346</v>
       </c>
       <c r="E426" t="s">
         <v>25</v>
@@ -14795,10 +14795,10 @@
         <v>11</v>
       </c>
       <c r="C429">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="D429">
-        <v>1292281</v>
+        <v>1299026</v>
       </c>
       <c r="E429" t="s">
         <v>25</v>
@@ -14827,10 +14827,10 @@
         <v>11</v>
       </c>
       <c r="C430">
-        <v>1043</v>
+        <v>1057</v>
       </c>
       <c r="D430">
-        <v>1513831</v>
+        <v>1534267</v>
       </c>
       <c r="E430" t="s">
         <v>25</v>
@@ -14859,10 +14859,10 @@
         <v>11</v>
       </c>
       <c r="C431">
-        <v>2287</v>
+        <v>2307</v>
       </c>
       <c r="D431">
-        <v>3379707</v>
+        <v>3407244</v>
       </c>
       <c r="E431" t="s">
         <v>25</v>
@@ -14891,10 +14891,10 @@
         <v>11</v>
       </c>
       <c r="C432">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="D432">
-        <v>1160632</v>
+        <v>1172632</v>
       </c>
       <c r="E432" t="s">
         <v>25</v>
@@ -14923,10 +14923,10 @@
         <v>11</v>
       </c>
       <c r="C433">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D433">
-        <v>262500</v>
+        <v>264000</v>
       </c>
       <c r="E433" t="s">
         <v>25</v>
@@ -14955,10 +14955,10 @@
         <v>11</v>
       </c>
       <c r="C434">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D434">
-        <v>52500</v>
+        <v>54000</v>
       </c>
       <c r="E434" t="s">
         <v>25</v>
@@ -14987,10 +14987,10 @@
         <v>11</v>
       </c>
       <c r="C435">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="D435">
-        <v>1316963</v>
+        <v>1323723</v>
       </c>
       <c r="E435" t="s">
         <v>25</v>
@@ -15019,10 +15019,10 @@
         <v>11</v>
       </c>
       <c r="C436">
-        <v>2275</v>
+        <v>2294</v>
       </c>
       <c r="D436">
-        <v>3297287</v>
+        <v>3325787</v>
       </c>
       <c r="E436" t="s">
         <v>25</v>
@@ -15051,10 +15051,10 @@
         <v>11</v>
       </c>
       <c r="C437">
-        <v>5981</v>
+        <v>6056</v>
       </c>
       <c r="D437">
-        <v>8830096</v>
+        <v>8939066</v>
       </c>
       <c r="E437" t="s">
         <v>25</v>
@@ -15083,10 +15083,10 @@
         <v>11</v>
       </c>
       <c r="C438">
-        <v>1961</v>
+        <v>1995</v>
       </c>
       <c r="D438">
-        <v>2925680</v>
+        <v>2975606</v>
       </c>
       <c r="E438" t="s">
         <v>25</v>
@@ -15115,10 +15115,10 @@
         <v>11</v>
       </c>
       <c r="C439">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D439">
-        <v>751800</v>
+        <v>759300</v>
       </c>
       <c r="E439" t="s">
         <v>25</v>
@@ -15211,10 +15211,10 @@
         <v>11</v>
       </c>
       <c r="C442">
-        <v>2213</v>
+        <v>2243</v>
       </c>
       <c r="D442">
-        <v>3036863</v>
+        <v>3079249</v>
       </c>
       <c r="E442" t="s">
         <v>25</v>
@@ -15243,10 +15243,10 @@
         <v>11</v>
       </c>
       <c r="C443">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="D443">
-        <v>1098142</v>
+        <v>1106168</v>
       </c>
       <c r="E443" t="s">
         <v>25</v>
@@ -15275,10 +15275,10 @@
         <v>11</v>
       </c>
       <c r="C444">
-        <v>2269</v>
+        <v>2291</v>
       </c>
       <c r="D444">
-        <v>3351655</v>
+        <v>3383588</v>
       </c>
       <c r="E444" t="s">
         <v>25</v>
@@ -15307,10 +15307,10 @@
         <v>11</v>
       </c>
       <c r="C445">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="D445">
-        <v>1116647</v>
+        <v>1122647</v>
       </c>
       <c r="E445" t="s">
         <v>25</v>
@@ -15339,10 +15339,10 @@
         <v>11</v>
       </c>
       <c r="C446">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D446">
-        <v>312001</v>
+        <v>316501</v>
       </c>
       <c r="E446" t="s">
         <v>25</v>
@@ -15371,10 +15371,10 @@
         <v>11</v>
       </c>
       <c r="C447">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D447">
-        <v>46500</v>
+        <v>48000</v>
       </c>
       <c r="E447" t="s">
         <v>25</v>
@@ -15435,10 +15435,10 @@
         <v>11</v>
       </c>
       <c r="C449">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="D449">
-        <v>1076319</v>
+        <v>1085327</v>
       </c>
       <c r="E449" t="s">
         <v>25</v>
@@ -15467,10 +15467,10 @@
         <v>11</v>
       </c>
       <c r="C450">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D450">
-        <v>454622</v>
+        <v>458467</v>
       </c>
       <c r="E450" t="s">
         <v>26</v>
@@ -15499,10 +15499,10 @@
         <v>11</v>
       </c>
       <c r="C451">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="D451">
-        <v>1643404</v>
+        <v>1657404</v>
       </c>
       <c r="E451" t="s">
         <v>26</v>
@@ -15531,10 +15531,10 @@
         <v>11</v>
       </c>
       <c r="C452">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D452">
-        <v>583801</v>
+        <v>586801</v>
       </c>
       <c r="E452" t="s">
         <v>26</v>
@@ -15563,10 +15563,10 @@
         <v>11</v>
       </c>
       <c r="C453">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D453">
-        <v>142041</v>
+        <v>145041</v>
       </c>
       <c r="E453" t="s">
         <v>26</v>
@@ -15627,10 +15627,10 @@
         <v>11</v>
       </c>
       <c r="C455">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D455">
-        <v>670572</v>
+        <v>681628</v>
       </c>
       <c r="E455" t="s">
         <v>26</v>
@@ -15659,10 +15659,10 @@
         <v>11</v>
       </c>
       <c r="C456">
-        <v>1681</v>
+        <v>1698</v>
       </c>
       <c r="D456">
-        <v>2434387</v>
+        <v>2458468</v>
       </c>
       <c r="E456" t="s">
         <v>26</v>
@@ -15691,10 +15691,10 @@
         <v>11</v>
       </c>
       <c r="C457">
-        <v>3203</v>
+        <v>3233</v>
       </c>
       <c r="D457">
-        <v>4721223</v>
+        <v>4765974</v>
       </c>
       <c r="E457" t="s">
         <v>26</v>
@@ -15723,10 +15723,10 @@
         <v>11</v>
       </c>
       <c r="C458">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="D458">
-        <v>1438349</v>
+        <v>1453349</v>
       </c>
       <c r="E458" t="s">
         <v>26</v>
@@ -15755,10 +15755,10 @@
         <v>11</v>
       </c>
       <c r="C459">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D459">
-        <v>376924</v>
+        <v>384424</v>
       </c>
       <c r="E459" t="s">
         <v>26</v>
@@ -15787,10 +15787,10 @@
         <v>11</v>
       </c>
       <c r="C460">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D460">
-        <v>51000</v>
+        <v>52500</v>
       </c>
       <c r="E460" t="s">
         <v>26</v>
@@ -15851,10 +15851,10 @@
         <v>11</v>
       </c>
       <c r="C462">
-        <v>1125</v>
+        <v>1140</v>
       </c>
       <c r="D462">
-        <v>1506803</v>
+        <v>1524883</v>
       </c>
       <c r="E462" t="s">
         <v>26</v>
@@ -15883,10 +15883,10 @@
         <v>11</v>
       </c>
       <c r="C463">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="D463">
-        <v>1521734</v>
+        <v>1531790</v>
       </c>
       <c r="E463" t="s">
         <v>26</v>
@@ -15915,10 +15915,10 @@
         <v>11</v>
       </c>
       <c r="C464">
-        <v>2271</v>
+        <v>2292</v>
       </c>
       <c r="D464">
-        <v>3347157</v>
+        <v>3377120</v>
       </c>
       <c r="E464" t="s">
         <v>26</v>
@@ -15947,10 +15947,10 @@
         <v>11</v>
       </c>
       <c r="C465">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="D465">
-        <v>1000481</v>
+        <v>1018540</v>
       </c>
       <c r="E465" t="s">
         <v>26</v>
@@ -16075,10 +16075,10 @@
         <v>11</v>
       </c>
       <c r="C469">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="D469">
-        <v>1582185</v>
+        <v>1595825</v>
       </c>
       <c r="E469" t="s">
         <v>26</v>
@@ -16107,10 +16107,10 @@
         <v>11</v>
       </c>
       <c r="C470">
-        <v>2714</v>
+        <v>2742</v>
       </c>
       <c r="D470">
-        <v>3954551</v>
+        <v>3996070</v>
       </c>
       <c r="E470" t="s">
         <v>26</v>
@@ -16139,10 +16139,10 @@
         <v>11</v>
       </c>
       <c r="C471">
-        <v>6543</v>
+        <v>6605</v>
       </c>
       <c r="D471">
-        <v>9646769</v>
+        <v>9737447</v>
       </c>
       <c r="E471" t="s">
         <v>26</v>
@@ -16171,10 +16171,10 @@
         <v>11</v>
       </c>
       <c r="C472">
-        <v>1866</v>
+        <v>1885</v>
       </c>
       <c r="D472">
-        <v>2782771</v>
+        <v>2810139</v>
       </c>
       <c r="E472" t="s">
         <v>26</v>
@@ -16203,10 +16203,10 @@
         <v>11</v>
       </c>
       <c r="C473">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D473">
-        <v>592356</v>
+        <v>604356</v>
       </c>
       <c r="E473" t="s">
         <v>26</v>
@@ -16235,10 +16235,10 @@
         <v>11</v>
       </c>
       <c r="C474">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D474">
-        <v>84000</v>
+        <v>87000</v>
       </c>
       <c r="E474" t="s">
         <v>26</v>
@@ -16267,10 +16267,10 @@
         <v>11</v>
       </c>
       <c r="C475">
-        <v>2452</v>
+        <v>2475</v>
       </c>
       <c r="D475">
-        <v>3319111</v>
+        <v>3350016</v>
       </c>
       <c r="E475" t="s">
         <v>26</v>
@@ -16299,10 +16299,10 @@
         <v>11</v>
       </c>
       <c r="C476">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="D476">
-        <v>897697</v>
+        <v>906697</v>
       </c>
       <c r="E476" t="s">
         <v>26</v>
@@ -16331,10 +16331,10 @@
         <v>11</v>
       </c>
       <c r="C477">
-        <v>1412</v>
+        <v>1427</v>
       </c>
       <c r="D477">
-        <v>2074837</v>
+        <v>2097149</v>
       </c>
       <c r="E477" t="s">
         <v>26</v>
@@ -16363,10 +16363,10 @@
         <v>11</v>
       </c>
       <c r="C478">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D478">
-        <v>671418</v>
+        <v>678918</v>
       </c>
       <c r="E478" t="s">
         <v>26</v>
@@ -16395,10 +16395,10 @@
         <v>11</v>
       </c>
       <c r="C479">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D479">
-        <v>154212</v>
+        <v>155712</v>
       </c>
       <c r="E479" t="s">
         <v>26</v>
@@ -16459,10 +16459,10 @@
         <v>11</v>
       </c>
       <c r="C481">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="D481">
-        <v>979809</v>
+        <v>990714</v>
       </c>
       <c r="E481" t="s">
         <v>26</v>
@@ -16491,10 +16491,10 @@
         <v>11</v>
       </c>
       <c r="C482">
-        <v>3834</v>
+        <v>3870</v>
       </c>
       <c r="D482">
-        <v>5595604</v>
+        <v>5646187</v>
       </c>
       <c r="E482" t="s">
         <v>26</v>
@@ -16523,10 +16523,10 @@
         <v>11</v>
       </c>
       <c r="C483">
-        <v>9390</v>
+        <v>9490</v>
       </c>
       <c r="D483">
-        <v>13886318</v>
+        <v>14032354</v>
       </c>
       <c r="E483" t="s">
         <v>26</v>
@@ -16555,10 +16555,10 @@
         <v>11</v>
       </c>
       <c r="C484">
-        <v>3308</v>
+        <v>3348</v>
       </c>
       <c r="D484">
-        <v>4939804</v>
+        <v>4999013</v>
       </c>
       <c r="E484" t="s">
         <v>26</v>
@@ -16587,10 +16587,10 @@
         <v>11</v>
       </c>
       <c r="C485">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="D485">
-        <v>1456272</v>
+        <v>1467334</v>
       </c>
       <c r="E485" t="s">
         <v>26</v>
@@ -16619,10 +16619,10 @@
         <v>11</v>
       </c>
       <c r="C486">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D486">
-        <v>255000</v>
+        <v>256500</v>
       </c>
       <c r="E486" t="s">
         <v>26</v>
@@ -16683,10 +16683,10 @@
         <v>11</v>
       </c>
       <c r="C488">
-        <v>3712</v>
+        <v>3738</v>
       </c>
       <c r="D488">
-        <v>5070675</v>
+        <v>5102348</v>
       </c>
       <c r="E488" t="s">
         <v>26</v>
@@ -16715,10 +16715,10 @@
         <v>11</v>
       </c>
       <c r="C489">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="D489">
-        <v>1138406</v>
+        <v>1145478</v>
       </c>
       <c r="E489" t="s">
         <v>26</v>
@@ -16747,10 +16747,10 @@
         <v>11</v>
       </c>
       <c r="C490">
-        <v>1983</v>
+        <v>2003</v>
       </c>
       <c r="D490">
-        <v>2926696</v>
+        <v>2952687</v>
       </c>
       <c r="E490" t="s">
         <v>26</v>
@@ -16779,10 +16779,10 @@
         <v>11</v>
       </c>
       <c r="C491">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="D491">
-        <v>962677</v>
+        <v>973177</v>
       </c>
       <c r="E491" t="s">
         <v>26</v>
@@ -16811,10 +16811,10 @@
         <v>11</v>
       </c>
       <c r="C492">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D492">
-        <v>219994</v>
+        <v>221494</v>
       </c>
       <c r="E492" t="s">
         <v>26</v>
@@ -16875,10 +16875,10 @@
         <v>11</v>
       </c>
       <c r="C494">
-        <v>1063</v>
+        <v>1072</v>
       </c>
       <c r="D494">
-        <v>1441793</v>
+        <v>1455293</v>
       </c>
       <c r="E494" t="s">
         <v>26</v>
@@ -16907,10 +16907,10 @@
         <v>11</v>
       </c>
       <c r="C495">
-        <v>5125</v>
+        <v>5163</v>
       </c>
       <c r="D495">
-        <v>7458900</v>
+        <v>7514204</v>
       </c>
       <c r="E495" t="s">
         <v>26</v>
@@ -16939,10 +16939,10 @@
         <v>11</v>
       </c>
       <c r="C496">
-        <v>11527</v>
+        <v>11642</v>
       </c>
       <c r="D496">
-        <v>16985187</v>
+        <v>17153427</v>
       </c>
       <c r="E496" t="s">
         <v>26</v>
@@ -16971,10 +16971,10 @@
         <v>11</v>
       </c>
       <c r="C497">
-        <v>3507</v>
+        <v>3539</v>
       </c>
       <c r="D497">
-        <v>5236848</v>
+        <v>5282436</v>
       </c>
       <c r="E497" t="s">
         <v>26</v>
@@ -17003,10 +17003,10 @@
         <v>11</v>
       </c>
       <c r="C498">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="D498">
-        <v>1300812</v>
+        <v>1321774</v>
       </c>
       <c r="E498" t="s">
         <v>26</v>
@@ -17035,10 +17035,10 @@
         <v>11</v>
       </c>
       <c r="C499">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D499">
-        <v>196700</v>
+        <v>198200</v>
       </c>
       <c r="E499" t="s">
         <v>26</v>
@@ -17099,10 +17099,10 @@
         <v>11</v>
       </c>
       <c r="C501">
-        <v>3688</v>
+        <v>3715</v>
       </c>
       <c r="D501">
-        <v>5003951</v>
+        <v>5038712</v>
       </c>
       <c r="E501" t="s">
         <v>26</v>
@@ -17131,10 +17131,10 @@
         <v>11</v>
       </c>
       <c r="C502">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="D502">
-        <v>1121019</v>
+        <v>1129219</v>
       </c>
       <c r="E502" t="s">
         <v>26</v>
@@ -17163,10 +17163,10 @@
         <v>11</v>
       </c>
       <c r="C503">
-        <v>1402</v>
+        <v>1416</v>
       </c>
       <c r="D503">
-        <v>2074798</v>
+        <v>2095054</v>
       </c>
       <c r="E503" t="s">
         <v>26</v>
@@ -17195,10 +17195,10 @@
         <v>11</v>
       </c>
       <c r="C504">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D504">
-        <v>575618</v>
+        <v>584618</v>
       </c>
       <c r="E504" t="s">
         <v>26</v>
@@ -17227,10 +17227,10 @@
         <v>11</v>
       </c>
       <c r="C505">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D505">
-        <v>154335</v>
+        <v>155835</v>
       </c>
       <c r="E505" t="s">
         <v>26</v>
@@ -17291,10 +17291,10 @@
         <v>11</v>
       </c>
       <c r="C507">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="D507">
-        <v>972378</v>
+        <v>982324</v>
       </c>
       <c r="E507" t="s">
         <v>26</v>
@@ -17323,10 +17323,10 @@
         <v>11</v>
       </c>
       <c r="C508">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D508">
-        <v>599755</v>
+        <v>612051</v>
       </c>
       <c r="E508" t="s">
         <v>26</v>
@@ -17355,10 +17355,10 @@
         <v>11</v>
       </c>
       <c r="C509">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="D509">
-        <v>915105</v>
+        <v>931258</v>
       </c>
       <c r="E509" t="s">
         <v>26</v>
@@ -17387,10 +17387,10 @@
         <v>11</v>
       </c>
       <c r="C510">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D510">
-        <v>267956</v>
+        <v>272456</v>
       </c>
       <c r="E510" t="s">
         <v>26</v>
@@ -17451,10 +17451,10 @@
         <v>11</v>
       </c>
       <c r="C512">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D512">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="E512" t="s">
         <v>26</v>
@@ -17483,10 +17483,10 @@
         <v>11</v>
       </c>
       <c r="C513">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D513">
-        <v>378776</v>
+        <v>384776</v>
       </c>
       <c r="E513" t="s">
         <v>26</v>
@@ -17515,10 +17515,10 @@
         <v>11</v>
       </c>
       <c r="C514">
-        <v>2347</v>
+        <v>2368</v>
       </c>
       <c r="D514">
-        <v>3418437</v>
+        <v>3447899</v>
       </c>
       <c r="E514" t="s">
         <v>26</v>
@@ -17547,10 +17547,10 @@
         <v>11</v>
       </c>
       <c r="C515">
-        <v>4253</v>
+        <v>4286</v>
       </c>
       <c r="D515">
-        <v>6240496</v>
+        <v>6289699</v>
       </c>
       <c r="E515" t="s">
         <v>26</v>
@@ -17579,10 +17579,10 @@
         <v>11</v>
       </c>
       <c r="C516">
-        <v>1312</v>
+        <v>1327</v>
       </c>
       <c r="D516">
-        <v>1960503</v>
+        <v>1983003</v>
       </c>
       <c r="E516" t="s">
         <v>26</v>
@@ -17611,10 +17611,10 @@
         <v>11</v>
       </c>
       <c r="C517">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D517">
-        <v>517500</v>
+        <v>525000</v>
       </c>
       <c r="E517" t="s">
         <v>26</v>
@@ -17675,10 +17675,10 @@
         <v>11</v>
       </c>
       <c r="C519">
-        <v>1595</v>
+        <v>1610</v>
       </c>
       <c r="D519">
-        <v>2153707</v>
+        <v>2172405</v>
       </c>
       <c r="E519" t="s">
         <v>26</v>
@@ -17707,10 +17707,10 @@
         <v>11</v>
       </c>
       <c r="C520">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="D520">
-        <v>1522240</v>
+        <v>1531240</v>
       </c>
       <c r="E520" t="s">
         <v>26</v>
@@ -17739,10 +17739,10 @@
         <v>11</v>
       </c>
       <c r="C521">
-        <v>2689</v>
+        <v>2731</v>
       </c>
       <c r="D521">
-        <v>3981194</v>
+        <v>4041789</v>
       </c>
       <c r="E521" t="s">
         <v>26</v>
@@ -17771,10 +17771,10 @@
         <v>11</v>
       </c>
       <c r="C522">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="D522">
-        <v>1170057</v>
+        <v>1179057</v>
       </c>
       <c r="E522" t="s">
         <v>26</v>
@@ -17803,10 +17803,10 @@
         <v>11</v>
       </c>
       <c r="C523">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D523">
-        <v>241300</v>
+        <v>247300</v>
       </c>
       <c r="E523" t="s">
         <v>26</v>
@@ -17867,10 +17867,10 @@
         <v>11</v>
       </c>
       <c r="C525">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="D525">
-        <v>1486153</v>
+        <v>1498039</v>
       </c>
       <c r="E525" t="s">
         <v>26</v>
@@ -17899,10 +17899,10 @@
         <v>11</v>
       </c>
       <c r="C526">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="D526">
-        <v>987288</v>
+        <v>1005288</v>
       </c>
       <c r="E526" t="s">
         <v>26</v>
@@ -17931,10 +17931,10 @@
         <v>11</v>
       </c>
       <c r="C527">
-        <v>1731</v>
+        <v>1749</v>
       </c>
       <c r="D527">
-        <v>2558740</v>
+        <v>2584524</v>
       </c>
       <c r="E527" t="s">
         <v>26</v>
@@ -17963,10 +17963,10 @@
         <v>11</v>
       </c>
       <c r="C528">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D528">
-        <v>769805</v>
+        <v>774305</v>
       </c>
       <c r="E528" t="s">
         <v>26</v>
@@ -17995,10 +17995,10 @@
         <v>11</v>
       </c>
       <c r="C529">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D529">
-        <v>214500</v>
+        <v>217500</v>
       </c>
       <c r="E529" t="s">
         <v>26</v>
@@ -18091,10 +18091,10 @@
         <v>11</v>
       </c>
       <c r="C532">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D532">
-        <v>991275</v>
+        <v>996455</v>
       </c>
       <c r="E532" t="s">
         <v>26</v>
@@ -18123,10 +18123,10 @@
         <v>11</v>
       </c>
       <c r="C533">
-        <v>3242</v>
+        <v>3265</v>
       </c>
       <c r="D533">
-        <v>4749603</v>
+        <v>4781753</v>
       </c>
       <c r="E533" t="s">
         <v>27</v>
@@ -18155,10 +18155,10 @@
         <v>11</v>
       </c>
       <c r="C534">
-        <v>8167</v>
+        <v>8224</v>
       </c>
       <c r="D534">
-        <v>12109706</v>
+        <v>12192119</v>
       </c>
       <c r="E534" t="s">
         <v>27</v>
@@ -18187,10 +18187,10 @@
         <v>11</v>
       </c>
       <c r="C535">
-        <v>2958</v>
+        <v>2989</v>
       </c>
       <c r="D535">
-        <v>4422973</v>
+        <v>4469151</v>
       </c>
       <c r="E535" t="s">
         <v>27</v>
@@ -18219,10 +18219,10 @@
         <v>11</v>
       </c>
       <c r="C536">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D536">
-        <v>1095396</v>
+        <v>1105896</v>
       </c>
       <c r="E536" t="s">
         <v>27</v>
@@ -18251,10 +18251,10 @@
         <v>11</v>
       </c>
       <c r="C537">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D537">
-        <v>175228</v>
+        <v>176728</v>
       </c>
       <c r="E537" t="s">
         <v>27</v>
@@ -18315,10 +18315,10 @@
         <v>11</v>
       </c>
       <c r="C539">
-        <v>2634</v>
+        <v>2657</v>
       </c>
       <c r="D539">
-        <v>3586854</v>
+        <v>3618277</v>
       </c>
       <c r="E539" t="s">
         <v>27</v>
@@ -18347,10 +18347,10 @@
         <v>11</v>
       </c>
       <c r="C540">
-        <v>1466</v>
+        <v>1476</v>
       </c>
       <c r="D540">
-        <v>2145026</v>
+        <v>2160026</v>
       </c>
       <c r="E540" t="s">
         <v>27</v>
@@ -18379,10 +18379,10 @@
         <v>11</v>
       </c>
       <c r="C541">
-        <v>4635</v>
+        <v>4681</v>
       </c>
       <c r="D541">
-        <v>6869745</v>
+        <v>6937189</v>
       </c>
       <c r="E541" t="s">
         <v>27</v>
@@ -18411,10 +18411,10 @@
         <v>11</v>
       </c>
       <c r="C542">
-        <v>1478</v>
+        <v>1498</v>
       </c>
       <c r="D542">
-        <v>2205277</v>
+        <v>2235243</v>
       </c>
       <c r="E542" t="s">
         <v>27</v>
@@ -18443,10 +18443,10 @@
         <v>11</v>
       </c>
       <c r="C543">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D543">
-        <v>571702</v>
+        <v>578460</v>
       </c>
       <c r="E543" t="s">
         <v>27</v>
@@ -18475,10 +18475,10 @@
         <v>11</v>
       </c>
       <c r="C544">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D544">
-        <v>69000</v>
+        <v>70500</v>
       </c>
       <c r="E544" t="s">
         <v>27</v>
@@ -18539,10 +18539,10 @@
         <v>11</v>
       </c>
       <c r="C546">
-        <v>1442</v>
+        <v>1453</v>
       </c>
       <c r="D546">
-        <v>1985140</v>
+        <v>1998789</v>
       </c>
       <c r="E546" t="s">
         <v>27</v>
@@ -18571,10 +18571,10 @@
         <v>11</v>
       </c>
       <c r="C547">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D547">
-        <v>891837</v>
+        <v>900837</v>
       </c>
       <c r="E547" t="s">
         <v>27</v>
@@ -18603,10 +18603,10 @@
         <v>11</v>
       </c>
       <c r="C548">
-        <v>1669</v>
+        <v>1681</v>
       </c>
       <c r="D548">
-        <v>2471132</v>
+        <v>2486001</v>
       </c>
       <c r="E548" t="s">
         <v>27</v>
@@ -18635,10 +18635,10 @@
         <v>11</v>
       </c>
       <c r="C549">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D549">
-        <v>765526</v>
+        <v>773026</v>
       </c>
       <c r="E549" t="s">
         <v>27</v>
@@ -18763,10 +18763,10 @@
         <v>11</v>
       </c>
       <c r="C553">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D553">
-        <v>692085</v>
+        <v>701040</v>
       </c>
       <c r="E553" t="s">
         <v>27</v>
@@ -18795,10 +18795,10 @@
         <v>11</v>
       </c>
       <c r="C554">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D554">
-        <v>1460680</v>
+        <v>1467358</v>
       </c>
       <c r="E554" t="s">
         <v>27</v>
@@ -18827,10 +18827,10 @@
         <v>11</v>
       </c>
       <c r="C555">
-        <v>2749</v>
+        <v>2769</v>
       </c>
       <c r="D555">
-        <v>4073648</v>
+        <v>4103648</v>
       </c>
       <c r="E555" t="s">
         <v>27</v>
@@ -18859,10 +18859,10 @@
         <v>11</v>
       </c>
       <c r="C556">
-        <v>892</v>
+        <v>906</v>
       </c>
       <c r="D556">
-        <v>1331656</v>
+        <v>1352400</v>
       </c>
       <c r="E556" t="s">
         <v>27</v>
@@ -18891,10 +18891,10 @@
         <v>11</v>
       </c>
       <c r="C557">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D557">
-        <v>321699</v>
+        <v>323199</v>
       </c>
       <c r="E557" t="s">
         <v>27</v>
@@ -18923,10 +18923,10 @@
         <v>11</v>
       </c>
       <c r="C558">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D558">
-        <v>58500</v>
+        <v>60000</v>
       </c>
       <c r="E558" t="s">
         <v>27</v>
@@ -18955,10 +18955,10 @@
         <v>11</v>
       </c>
       <c r="C559">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="D559">
-        <v>1171995</v>
+        <v>1181013</v>
       </c>
       <c r="E559" t="s">
         <v>27</v>
@@ -18987,10 +18987,10 @@
         <v>11</v>
       </c>
       <c r="C560">
-        <v>2042</v>
+        <v>2058</v>
       </c>
       <c r="D560">
-        <v>2975455</v>
+        <v>2998716</v>
       </c>
       <c r="E560" t="s">
         <v>27</v>
@@ -19019,10 +19019,10 @@
         <v>11</v>
       </c>
       <c r="C561">
-        <v>4338</v>
+        <v>4377</v>
       </c>
       <c r="D561">
-        <v>6411317</v>
+        <v>6468918</v>
       </c>
       <c r="E561" t="s">
         <v>27</v>
@@ -19051,10 +19051,10 @@
         <v>11</v>
       </c>
       <c r="C562">
-        <v>1522</v>
+        <v>1536</v>
       </c>
       <c r="D562">
-        <v>2272428</v>
+        <v>2293428</v>
       </c>
       <c r="E562" t="s">
         <v>27</v>
@@ -19179,10 +19179,10 @@
         <v>11</v>
       </c>
       <c r="C566">
-        <v>1309</v>
+        <v>1321</v>
       </c>
       <c r="D566">
-        <v>1805660</v>
+        <v>1823323</v>
       </c>
       <c r="E566" t="s">
         <v>27</v>
@@ -19211,10 +19211,10 @@
         <v>11</v>
       </c>
       <c r="C567">
-        <v>5015</v>
+        <v>5056</v>
       </c>
       <c r="D567">
-        <v>7328435</v>
+        <v>7382195</v>
       </c>
       <c r="E567" t="s">
         <v>28</v>
@@ -19243,10 +19243,10 @@
         <v>11</v>
       </c>
       <c r="C568">
-        <v>12612</v>
+        <v>12734</v>
       </c>
       <c r="D568">
-        <v>18655839</v>
+        <v>18834114</v>
       </c>
       <c r="E568" t="s">
         <v>28</v>
@@ -19275,10 +19275,10 @@
         <v>11</v>
       </c>
       <c r="C569">
-        <v>3845</v>
+        <v>3881</v>
       </c>
       <c r="D569">
-        <v>5747903</v>
+        <v>5801431</v>
       </c>
       <c r="E569" t="s">
         <v>28</v>
@@ -19307,10 +19307,10 @@
         <v>11</v>
       </c>
       <c r="C570">
-        <v>1027</v>
+        <v>1047</v>
       </c>
       <c r="D570">
-        <v>1537590</v>
+        <v>1567590</v>
       </c>
       <c r="E570" t="s">
         <v>28</v>
@@ -19339,10 +19339,10 @@
         <v>11</v>
       </c>
       <c r="C571">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D571">
-        <v>311771</v>
+        <v>316958</v>
       </c>
       <c r="E571" t="s">
         <v>28</v>
@@ -19403,10 +19403,10 @@
         <v>11</v>
       </c>
       <c r="C573">
-        <v>4387</v>
+        <v>4418</v>
       </c>
       <c r="D573">
-        <v>6102959</v>
+        <v>6147171</v>
       </c>
       <c r="E573" t="s">
         <v>28</v>
@@ -19435,10 +19435,10 @@
         <v>11</v>
       </c>
       <c r="C574">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="D574">
-        <v>1296113</v>
+        <v>1312227</v>
       </c>
       <c r="E574" t="s">
         <v>28</v>
@@ -19467,10 +19467,10 @@
         <v>11</v>
       </c>
       <c r="C575">
-        <v>1770</v>
+        <v>1786</v>
       </c>
       <c r="D575">
-        <v>2600002</v>
+        <v>2622583</v>
       </c>
       <c r="E575" t="s">
         <v>28</v>
@@ -19499,10 +19499,10 @@
         <v>11</v>
       </c>
       <c r="C576">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D576">
-        <v>760630</v>
+        <v>774130</v>
       </c>
       <c r="E576" t="s">
         <v>28</v>
@@ -19563,10 +19563,10 @@
         <v>11</v>
       </c>
       <c r="C578">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D578">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="E578" t="s">
         <v>28</v>
@@ -19595,10 +19595,10 @@
         <v>11</v>
       </c>
       <c r="C579">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="D579">
-        <v>979597</v>
+        <v>987037</v>
       </c>
       <c r="E579" t="s">
         <v>28</v>
@@ -19627,10 +19627,10 @@
         <v>11</v>
       </c>
       <c r="C580">
-        <v>6390</v>
+        <v>6460</v>
       </c>
       <c r="D580">
-        <v>9356935</v>
+        <v>9459408</v>
       </c>
       <c r="E580" t="s">
         <v>28</v>
@@ -19659,10 +19659,10 @@
         <v>11</v>
       </c>
       <c r="C581">
-        <v>17912</v>
+        <v>18050</v>
       </c>
       <c r="D581">
-        <v>26483334</v>
+        <v>26683481</v>
       </c>
       <c r="E581" t="s">
         <v>28</v>
@@ -19691,10 +19691,10 @@
         <v>11</v>
       </c>
       <c r="C582">
-        <v>5626</v>
+        <v>5691</v>
       </c>
       <c r="D582">
-        <v>8415102</v>
+        <v>8511327</v>
       </c>
       <c r="E582" t="s">
         <v>28</v>
@@ -19723,10 +19723,10 @@
         <v>11</v>
       </c>
       <c r="C583">
-        <v>1435</v>
+        <v>1442</v>
       </c>
       <c r="D583">
-        <v>2147676</v>
+        <v>2158176</v>
       </c>
       <c r="E583" t="s">
         <v>28</v>
@@ -19755,10 +19755,10 @@
         <v>11</v>
       </c>
       <c r="C584">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D584">
-        <v>458354</v>
+        <v>464254</v>
       </c>
       <c r="E584" t="s">
         <v>28</v>
@@ -19851,10 +19851,10 @@
         <v>11</v>
       </c>
       <c r="C587">
-        <v>5828</v>
+        <v>5874</v>
       </c>
       <c r="D587">
-        <v>8011799</v>
+        <v>8073100</v>
       </c>
       <c r="E587" t="s">
         <v>28</v>
@@ -19883,10 +19883,10 @@
         <v>11</v>
       </c>
       <c r="C588">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D588">
-        <v>1095786</v>
+        <v>1099820</v>
       </c>
       <c r="E588" t="s">
         <v>28</v>
@@ -19915,10 +19915,10 @@
         <v>11</v>
       </c>
       <c r="C589">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="D589">
-        <v>2521473</v>
+        <v>2535480</v>
       </c>
       <c r="E589" t="s">
         <v>28</v>
@@ -19947,10 +19947,10 @@
         <v>11</v>
       </c>
       <c r="C590">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D590">
-        <v>952944</v>
+        <v>962615</v>
       </c>
       <c r="E590" t="s">
         <v>28</v>
@@ -19979,10 +19979,10 @@
         <v>11</v>
       </c>
       <c r="C591">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D591">
-        <v>281561</v>
+        <v>284561</v>
       </c>
       <c r="E591" t="s">
         <v>28</v>
@@ -20043,10 +20043,10 @@
         <v>11</v>
       </c>
       <c r="C593">
-        <v>1281</v>
+        <v>1290</v>
       </c>
       <c r="D593">
-        <v>1799931</v>
+        <v>1811282</v>
       </c>
       <c r="E593" t="s">
         <v>28</v>
@@ -20075,10 +20075,10 @@
         <v>11</v>
       </c>
       <c r="C594">
-        <v>5431</v>
+        <v>5471</v>
       </c>
       <c r="D594">
-        <v>7824287</v>
+        <v>7883884</v>
       </c>
       <c r="E594" t="s">
         <v>28</v>
@@ -20107,10 +20107,10 @@
         <v>11</v>
       </c>
       <c r="C595">
-        <v>11034</v>
+        <v>11122</v>
       </c>
       <c r="D595">
-        <v>16223054</v>
+        <v>16351551</v>
       </c>
       <c r="E595" t="s">
         <v>28</v>
@@ -20139,10 +20139,10 @@
         <v>11</v>
       </c>
       <c r="C596">
-        <v>3051</v>
+        <v>3078</v>
       </c>
       <c r="D596">
-        <v>4558134</v>
+        <v>4598634</v>
       </c>
       <c r="E596" t="s">
         <v>28</v>
@@ -20171,10 +20171,10 @@
         <v>11</v>
       </c>
       <c r="C597">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="D597">
-        <v>1050914</v>
+        <v>1062914</v>
       </c>
       <c r="E597" t="s">
         <v>28</v>
@@ -20267,10 +20267,10 @@
         <v>11</v>
       </c>
       <c r="C600">
-        <v>3520</v>
+        <v>3557</v>
       </c>
       <c r="D600">
-        <v>4849945</v>
+        <v>4896214</v>
       </c>
       <c r="E600" t="s">
         <v>28</v>
@@ -20299,10 +20299,10 @@
         <v>11</v>
       </c>
       <c r="C601">
-        <v>2308</v>
+        <v>2325</v>
       </c>
       <c r="D601">
-        <v>3349866</v>
+        <v>3374334</v>
       </c>
       <c r="E601" t="s">
         <v>28</v>
@@ -20331,10 +20331,10 @@
         <v>11</v>
       </c>
       <c r="C602">
-        <v>6039</v>
+        <v>6100</v>
       </c>
       <c r="D602">
-        <v>8912162</v>
+        <v>8999222</v>
       </c>
       <c r="E602" t="s">
         <v>28</v>
@@ -20363,10 +20363,10 @@
         <v>11</v>
       </c>
       <c r="C603">
-        <v>1644</v>
+        <v>1660</v>
       </c>
       <c r="D603">
-        <v>2454416</v>
+        <v>2478416</v>
       </c>
       <c r="E603" t="s">
         <v>28</v>
@@ -20395,10 +20395,10 @@
         <v>11</v>
       </c>
       <c r="C604">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D604">
-        <v>532957</v>
+        <v>540457</v>
       </c>
       <c r="E604" t="s">
         <v>28</v>
@@ -20427,10 +20427,10 @@
         <v>11</v>
       </c>
       <c r="C605">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D605">
-        <v>111000</v>
+        <v>112500</v>
       </c>
       <c r="E605" t="s">
         <v>28</v>
@@ -20491,10 +20491,10 @@
         <v>11</v>
       </c>
       <c r="C607">
-        <v>1941</v>
+        <v>1959</v>
       </c>
       <c r="D607">
-        <v>2600900</v>
+        <v>2625375</v>
       </c>
       <c r="E607" t="s">
         <v>28</v>
@@ -20523,10 +20523,10 @@
         <v>11</v>
       </c>
       <c r="C608">
-        <v>2093</v>
+        <v>2124</v>
       </c>
       <c r="D608">
-        <v>3071963</v>
+        <v>3117363</v>
       </c>
       <c r="E608" t="s">
         <v>29</v>
@@ -20555,10 +20555,10 @@
         <v>11</v>
       </c>
       <c r="C609">
-        <v>6387</v>
+        <v>6446</v>
       </c>
       <c r="D609">
-        <v>9489965</v>
+        <v>9576371</v>
       </c>
       <c r="E609" t="s">
         <v>29</v>
@@ -20587,10 +20587,10 @@
         <v>11</v>
       </c>
       <c r="C610">
-        <v>2504</v>
+        <v>2537</v>
       </c>
       <c r="D610">
-        <v>3743159</v>
+        <v>3792659</v>
       </c>
       <c r="E610" t="s">
         <v>29</v>
@@ -20619,10 +20619,10 @@
         <v>11</v>
       </c>
       <c r="C611">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="D611">
-        <v>1062810</v>
+        <v>1071810</v>
       </c>
       <c r="E611" t="s">
         <v>29</v>
@@ -20651,10 +20651,10 @@
         <v>11</v>
       </c>
       <c r="C612">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D612">
-        <v>155801</v>
+        <v>157301</v>
       </c>
       <c r="E612" t="s">
         <v>29</v>
@@ -20715,10 +20715,10 @@
         <v>11</v>
       </c>
       <c r="C614">
-        <v>2058</v>
+        <v>2072</v>
       </c>
       <c r="D614">
-        <v>2891968</v>
+        <v>2911831</v>
       </c>
       <c r="E614" t="s">
         <v>29</v>
@@ -20747,10 +20747,10 @@
         <v>11</v>
       </c>
       <c r="C615">
-        <v>3508</v>
+        <v>3542</v>
       </c>
       <c r="D615">
-        <v>5155438</v>
+        <v>5205261</v>
       </c>
       <c r="E615" t="s">
         <v>29</v>
@@ -20779,10 +20779,10 @@
         <v>11</v>
       </c>
       <c r="C616">
-        <v>9135</v>
+        <v>9220</v>
       </c>
       <c r="D616">
-        <v>13529457</v>
+        <v>13652594</v>
       </c>
       <c r="E616" t="s">
         <v>29</v>
@@ -20811,10 +20811,10 @@
         <v>11</v>
       </c>
       <c r="C617">
-        <v>4224</v>
+        <v>4255</v>
       </c>
       <c r="D617">
-        <v>6320341</v>
+        <v>6366841</v>
       </c>
       <c r="E617" t="s">
         <v>29</v>
@@ -20843,10 +20843,10 @@
         <v>11</v>
       </c>
       <c r="C618">
-        <v>1258</v>
+        <v>1279</v>
       </c>
       <c r="D618">
-        <v>1883554</v>
+        <v>1915054</v>
       </c>
       <c r="E618" t="s">
         <v>29</v>
@@ -20875,10 +20875,10 @@
         <v>11</v>
       </c>
       <c r="C619">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D619">
-        <v>364500</v>
+        <v>370500</v>
       </c>
       <c r="E619" t="s">
         <v>29</v>
@@ -20907,10 +20907,10 @@
         <v>11</v>
       </c>
       <c r="C620">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D620">
-        <v>19500</v>
+        <v>22500</v>
       </c>
       <c r="E620" t="s">
         <v>29</v>
@@ -20939,10 +20939,10 @@
         <v>11</v>
       </c>
       <c r="C621">
-        <v>3189</v>
+        <v>3221</v>
       </c>
       <c r="D621">
-        <v>4478879</v>
+        <v>4524743</v>
       </c>
       <c r="E621" t="s">
         <v>29</v>
@@ -20971,10 +20971,10 @@
         <v>11</v>
       </c>
       <c r="C622">
-        <v>10068</v>
+        <v>10176</v>
       </c>
       <c r="D622">
-        <v>14726172</v>
+        <v>14877908</v>
       </c>
       <c r="E622" t="s">
         <v>29</v>
@@ -21003,10 +21003,10 @@
         <v>11</v>
       </c>
       <c r="C623">
-        <v>29341</v>
+        <v>29659</v>
       </c>
       <c r="D623">
-        <v>43506873</v>
+        <v>43976144</v>
       </c>
       <c r="E623" t="s">
         <v>29</v>
@@ -21035,10 +21035,10 @@
         <v>11</v>
       </c>
       <c r="C624">
-        <v>13771</v>
+        <v>13896</v>
       </c>
       <c r="D624">
-        <v>20613857</v>
+        <v>20799288</v>
       </c>
       <c r="E624" t="s">
         <v>29</v>
@@ -21067,10 +21067,10 @@
         <v>11</v>
       </c>
       <c r="C625">
-        <v>4816</v>
+        <v>4869</v>
       </c>
       <c r="D625">
-        <v>7216684</v>
+        <v>7296184</v>
       </c>
       <c r="E625" t="s">
         <v>29</v>
@@ -21099,10 +21099,10 @@
         <v>11</v>
       </c>
       <c r="C626">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="D626">
-        <v>1537250</v>
+        <v>1552250</v>
       </c>
       <c r="E626" t="s">
         <v>29</v>
@@ -21131,10 +21131,10 @@
         <v>11</v>
       </c>
       <c r="C627">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D627">
-        <v>75000</v>
+        <v>76500</v>
       </c>
       <c r="E627" t="s">
         <v>29</v>
@@ -21195,10 +21195,10 @@
         <v>11</v>
       </c>
       <c r="C629">
-        <v>9773</v>
+        <v>9874</v>
       </c>
       <c r="D629">
-        <v>13676698</v>
+        <v>13809875</v>
       </c>
       <c r="E629" t="s">
         <v>29</v>
@@ -21227,10 +21227,10 @@
         <v>11</v>
       </c>
       <c r="C630">
-        <v>2809</v>
+        <v>2840</v>
       </c>
       <c r="D630">
-        <v>4107828</v>
+        <v>4153170</v>
       </c>
       <c r="E630" t="s">
         <v>29</v>
@@ -21259,10 +21259,10 @@
         <v>11</v>
       </c>
       <c r="C631">
-        <v>10607</v>
+        <v>10723</v>
       </c>
       <c r="D631">
-        <v>15711270</v>
+        <v>15879777</v>
       </c>
       <c r="E631" t="s">
         <v>29</v>
@@ -21291,10 +21291,10 @@
         <v>11</v>
       </c>
       <c r="C632">
-        <v>5119</v>
+        <v>5173</v>
       </c>
       <c r="D632">
-        <v>7644482</v>
+        <v>7725482</v>
       </c>
       <c r="E632" t="s">
         <v>29</v>
@@ -21323,10 +21323,10 @@
         <v>11</v>
       </c>
       <c r="C633">
-        <v>1463</v>
+        <v>1479</v>
       </c>
       <c r="D633">
-        <v>2191984</v>
+        <v>2215984</v>
       </c>
       <c r="E633" t="s">
         <v>29</v>
@@ -21355,10 +21355,10 @@
         <v>11</v>
       </c>
       <c r="C634">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D634">
-        <v>468201</v>
+        <v>483201</v>
       </c>
       <c r="E634" t="s">
         <v>29</v>
@@ -21419,10 +21419,10 @@
         <v>11</v>
       </c>
       <c r="C636">
-        <v>2967</v>
+        <v>2999</v>
       </c>
       <c r="D636">
-        <v>4137627</v>
+        <v>4178223</v>
       </c>
       <c r="E636" t="s">
         <v>29</v>
@@ -21451,10 +21451,10 @@
         <v>11</v>
       </c>
       <c r="C637">
-        <v>2599</v>
+        <v>2614</v>
       </c>
       <c r="D637">
-        <v>3801432</v>
+        <v>3823152</v>
       </c>
       <c r="E637" t="s">
         <v>29</v>
@@ -21483,10 +21483,10 @@
         <v>11</v>
       </c>
       <c r="C638">
-        <v>7711</v>
+        <v>7787</v>
       </c>
       <c r="D638">
-        <v>11423962</v>
+        <v>11532113</v>
       </c>
       <c r="E638" t="s">
         <v>29</v>
@@ -21515,10 +21515,10 @@
         <v>11</v>
       </c>
       <c r="C639">
-        <v>2984</v>
+        <v>3010</v>
       </c>
       <c r="D639">
-        <v>4451632</v>
+        <v>4490082</v>
       </c>
       <c r="E639" t="s">
         <v>29</v>
@@ -21547,10 +21547,10 @@
         <v>11</v>
       </c>
       <c r="C640">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="D640">
-        <v>1296000</v>
+        <v>1312500</v>
       </c>
       <c r="E640" t="s">
         <v>29</v>
@@ -21579,10 +21579,10 @@
         <v>11</v>
       </c>
       <c r="C641">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D641">
-        <v>214500</v>
+        <v>216000</v>
       </c>
       <c r="E641" t="s">
         <v>29</v>
@@ -21643,10 +21643,10 @@
         <v>11</v>
       </c>
       <c r="C643">
-        <v>2479</v>
+        <v>2499</v>
       </c>
       <c r="D643">
-        <v>3445198</v>
+        <v>3469423</v>
       </c>
       <c r="E643" t="s">
         <v>29</v>
@@ -21675,10 +21675,10 @@
         <v>11</v>
       </c>
       <c r="C644">
-        <v>2070</v>
+        <v>2090</v>
       </c>
       <c r="D644">
-        <v>3045852</v>
+        <v>3074369</v>
       </c>
       <c r="E644" t="s">
         <v>29</v>
@@ -21707,10 +21707,10 @@
         <v>11</v>
       </c>
       <c r="C645">
-        <v>6860</v>
+        <v>6919</v>
       </c>
       <c r="D645">
-        <v>10171205</v>
+        <v>10257927</v>
       </c>
       <c r="E645" t="s">
         <v>29</v>
@@ -21739,10 +21739,10 @@
         <v>11</v>
       </c>
       <c r="C646">
-        <v>2915</v>
+        <v>2948</v>
       </c>
       <c r="D646">
-        <v>4355414</v>
+        <v>4402600</v>
       </c>
       <c r="E646" t="s">
         <v>29</v>
@@ -21771,10 +21771,10 @@
         <v>11</v>
       </c>
       <c r="C647">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="D647">
-        <v>1199444</v>
+        <v>1217416</v>
       </c>
       <c r="E647" t="s">
         <v>29</v>
@@ -21803,10 +21803,10 @@
         <v>11</v>
       </c>
       <c r="C648">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D648">
-        <v>237900</v>
+        <v>242400</v>
       </c>
       <c r="E648" t="s">
         <v>29</v>
@@ -21835,10 +21835,10 @@
         <v>11</v>
       </c>
       <c r="C649">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D649">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="E649" t="s">
         <v>29</v>
@@ -21867,10 +21867,10 @@
         <v>11</v>
       </c>
       <c r="C650">
-        <v>2178</v>
+        <v>2195</v>
       </c>
       <c r="D650">
-        <v>3030171</v>
+        <v>3049761</v>
       </c>
       <c r="E650" t="s">
         <v>29</v>
@@ -21899,10 +21899,10 @@
         <v>11</v>
       </c>
       <c r="C651">
-        <v>2678</v>
+        <v>2707</v>
       </c>
       <c r="D651">
-        <v>3939332</v>
+        <v>3980140</v>
       </c>
       <c r="E651" t="s">
         <v>29</v>
@@ -21931,10 +21931,10 @@
         <v>11</v>
       </c>
       <c r="C652">
-        <v>8158</v>
+        <v>8239</v>
       </c>
       <c r="D652">
-        <v>12088560</v>
+        <v>12206998</v>
       </c>
       <c r="E652" t="s">
         <v>29</v>
@@ -21963,10 +21963,10 @@
         <v>11</v>
       </c>
       <c r="C653">
-        <v>3446</v>
+        <v>3494</v>
       </c>
       <c r="D653">
-        <v>5151070</v>
+        <v>5221690</v>
       </c>
       <c r="E653" t="s">
         <v>29</v>
@@ -21995,10 +21995,10 @@
         <v>11</v>
       </c>
       <c r="C654">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="D654">
-        <v>1445106</v>
+        <v>1451106</v>
       </c>
       <c r="E654" t="s">
         <v>29</v>
@@ -22027,10 +22027,10 @@
         <v>11</v>
       </c>
       <c r="C655">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D655">
-        <v>292500</v>
+        <v>297000</v>
       </c>
       <c r="E655" t="s">
         <v>29</v>
@@ -22059,10 +22059,10 @@
         <v>11</v>
       </c>
       <c r="C656">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D656">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="E656" t="s">
         <v>29</v>
@@ -22091,10 +22091,10 @@
         <v>11</v>
       </c>
       <c r="C657">
-        <v>2811</v>
+        <v>2835</v>
       </c>
       <c r="D657">
-        <v>3951590</v>
+        <v>3985416</v>
       </c>
       <c r="E657" t="s">
         <v>29</v>
@@ -22123,10 +22123,10 @@
         <v>11</v>
       </c>
       <c r="C658">
-        <v>2492</v>
+        <v>2512</v>
       </c>
       <c r="D658">
-        <v>3661303</v>
+        <v>3688930</v>
       </c>
       <c r="E658" t="s">
         <v>29</v>
@@ -22155,10 +22155,10 @@
         <v>11</v>
       </c>
       <c r="C659">
-        <v>7089</v>
+        <v>7157</v>
       </c>
       <c r="D659">
-        <v>10496839</v>
+        <v>10598042</v>
       </c>
       <c r="E659" t="s">
         <v>29</v>
@@ -22187,10 +22187,10 @@
         <v>11</v>
       </c>
       <c r="C660">
-        <v>2745</v>
+        <v>2776</v>
       </c>
       <c r="D660">
-        <v>4104465</v>
+        <v>4149715</v>
       </c>
       <c r="E660" t="s">
         <v>29</v>
@@ -22219,10 +22219,10 @@
         <v>11</v>
       </c>
       <c r="C661">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="D661">
-        <v>1270183</v>
+        <v>1283673</v>
       </c>
       <c r="E661" t="s">
         <v>29</v>
@@ -22251,10 +22251,10 @@
         <v>11</v>
       </c>
       <c r="C662">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D662">
-        <v>234950</v>
+        <v>236450</v>
       </c>
       <c r="E662" t="s">
         <v>29</v>
@@ -22315,10 +22315,10 @@
         <v>11</v>
       </c>
       <c r="C664">
-        <v>2489</v>
+        <v>2513</v>
       </c>
       <c r="D664">
-        <v>3455546</v>
+        <v>3488970</v>
       </c>
       <c r="E664" t="s">
         <v>29</v>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5322" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5330" uniqueCount="238">
   <si>
     <t>dispositif</t>
   </si>
@@ -1085,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J665"/>
+  <dimension ref="A1:J666"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1131,10 +1131,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="D2">
-        <v>1200778</v>
+        <v>1212778</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1163,10 +1163,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>3701</v>
+        <v>3733</v>
       </c>
       <c r="D3">
-        <v>5484866</v>
+        <v>5532866</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1195,10 +1195,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1313</v>
+        <v>1330</v>
       </c>
       <c r="D4">
-        <v>1963568</v>
+        <v>1988242</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1227,10 +1227,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D5">
-        <v>498000</v>
+        <v>501000</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1259,10 +1259,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>84000</v>
+        <v>87000</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1291,10 +1291,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D7">
-        <v>155635</v>
+        <v>160135</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1323,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="D8">
-        <v>1067774</v>
+        <v>1079344</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1355,10 +1355,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2314</v>
+        <v>2344</v>
       </c>
       <c r="D9">
-        <v>3416498</v>
+        <v>3459499</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1387,10 +1387,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="D10">
-        <v>906608</v>
+        <v>918720</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1419,10 +1419,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D11">
-        <v>214500</v>
+        <v>219000</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1483,10 +1483,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="D13">
-        <v>1440223</v>
+        <v>1448703</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1515,10 +1515,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>1464</v>
+        <v>1478</v>
       </c>
       <c r="D14">
-        <v>2125689</v>
+        <v>2146231</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1547,10 +1547,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>2692</v>
+        <v>2725</v>
       </c>
       <c r="D15">
-        <v>3963300</v>
+        <v>4009665</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1579,10 +1579,10 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="D16">
-        <v>1082259</v>
+        <v>1105664</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1611,10 +1611,10 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D17">
-        <v>219976</v>
+        <v>224476</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1675,10 +1675,10 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>1111</v>
+        <v>1123</v>
       </c>
       <c r="D19">
-        <v>1505093</v>
+        <v>1520746</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1707,10 +1707,10 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D20">
-        <v>581310</v>
+        <v>586373</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1739,10 +1739,10 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>1205</v>
+        <v>1220</v>
       </c>
       <c r="D21">
-        <v>1773950</v>
+        <v>1795010</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1771,10 +1771,10 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="D22">
-        <v>483922</v>
+        <v>496702</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1803,10 +1803,10 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23">
-        <v>124500</v>
+        <v>127282</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1835,10 +1835,10 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -1867,10 +1867,10 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="D25">
-        <v>1147941</v>
+        <v>1169966</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1899,10 +1899,10 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>1961</v>
+        <v>1972</v>
       </c>
       <c r="D26">
-        <v>2854563</v>
+        <v>2870185</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1931,10 +1931,10 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>4229</v>
+        <v>4269</v>
       </c>
       <c r="D27">
-        <v>6262814</v>
+        <v>6321164</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -1963,10 +1963,10 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>1285</v>
+        <v>1297</v>
       </c>
       <c r="D28">
-        <v>1912956</v>
+        <v>1930956</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -1995,10 +1995,10 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D29">
-        <v>439016</v>
+        <v>445016</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -2027,10 +2027,10 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D30">
-        <v>90000</v>
+        <v>91500</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -2059,10 +2059,10 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>1554</v>
+        <v>1573</v>
       </c>
       <c r="D31">
-        <v>2039761</v>
+        <v>2064586</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2091,10 +2091,10 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="D32">
-        <v>1123871</v>
+        <v>1137480</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2123,10 +2123,10 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>1814</v>
+        <v>1835</v>
       </c>
       <c r="D33">
-        <v>2676014</v>
+        <v>2705113</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="D34">
-        <v>725590</v>
+        <v>738466</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2187,10 +2187,10 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D35">
-        <v>163172</v>
+        <v>172890</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2283,10 +2283,10 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="D38">
-        <v>1117860</v>
+        <v>1134240</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2315,10 +2315,10 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>2435</v>
+        <v>2461</v>
       </c>
       <c r="D39">
-        <v>3571885</v>
+        <v>3610885</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2347,10 +2347,10 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>5665</v>
+        <v>5755</v>
       </c>
       <c r="D40">
-        <v>8414292</v>
+        <v>8542492</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2379,10 +2379,10 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>2215</v>
+        <v>2264</v>
       </c>
       <c r="D41">
-        <v>3306172</v>
+        <v>3378035</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -2411,10 +2411,10 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="D42">
-        <v>1015696</v>
+        <v>1033498</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -2443,10 +2443,10 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D43">
-        <v>255000</v>
+        <v>261000</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -2507,10 +2507,10 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>3111</v>
+        <v>3148</v>
       </c>
       <c r="D45">
-        <v>4351650</v>
+        <v>4399610</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2539,10 +2539,10 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>3724</v>
+        <v>3764</v>
       </c>
       <c r="D46">
-        <v>5440674</v>
+        <v>5497325</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -2571,10 +2571,10 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>8919</v>
+        <v>9021</v>
       </c>
       <c r="D47">
-        <v>13232396</v>
+        <v>13379412</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -2603,10 +2603,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>3013</v>
+        <v>3050</v>
       </c>
       <c r="D48">
-        <v>4502669</v>
+        <v>4558074</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2635,10 +2635,10 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="D49">
-        <v>1146214</v>
+        <v>1157720</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -2667,10 +2667,10 @@
         <v>11</v>
       </c>
       <c r="C50">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D50">
-        <v>204000</v>
+        <v>213000</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -2763,10 +2763,10 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>3575</v>
+        <v>3603</v>
       </c>
       <c r="D53">
-        <v>4987466</v>
+        <v>5023212</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2795,10 +2795,10 @@
         <v>11</v>
       </c>
       <c r="C54">
-        <v>2023</v>
+        <v>2043</v>
       </c>
       <c r="D54">
-        <v>2952083</v>
+        <v>2980050</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -2827,10 +2827,10 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>5186</v>
+        <v>5221</v>
       </c>
       <c r="D55">
-        <v>7672924</v>
+        <v>7721697</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2859,10 +2859,10 @@
         <v>11</v>
       </c>
       <c r="C56">
-        <v>1584</v>
+        <v>1623</v>
       </c>
       <c r="D56">
-        <v>2364766</v>
+        <v>2421353</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -2891,10 +2891,10 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D57">
-        <v>548393</v>
+        <v>560393</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -2923,10 +2923,10 @@
         <v>11</v>
       </c>
       <c r="C58">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D58">
-        <v>96000</v>
+        <v>100500</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -2955,10 +2955,10 @@
         <v>11</v>
       </c>
       <c r="C59">
-        <v>2163</v>
+        <v>2183</v>
       </c>
       <c r="D59">
-        <v>2874505</v>
+        <v>2898055</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -2987,10 +2987,10 @@
         <v>11</v>
       </c>
       <c r="C60">
-        <v>1650</v>
+        <v>1663</v>
       </c>
       <c r="D60">
-        <v>2396010</v>
+        <v>2414624</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -3019,10 +3019,10 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>4509</v>
+        <v>4555</v>
       </c>
       <c r="D61">
-        <v>6662276</v>
+        <v>6728302</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3051,10 +3051,10 @@
         <v>11</v>
       </c>
       <c r="C62">
-        <v>1491</v>
+        <v>1511</v>
       </c>
       <c r="D62">
-        <v>2220013</v>
+        <v>2250013</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3083,10 +3083,10 @@
         <v>11</v>
       </c>
       <c r="C63">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D63">
-        <v>596560</v>
+        <v>607060</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -3115,10 +3115,10 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D64">
-        <v>92486</v>
+        <v>93986</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3179,10 +3179,10 @@
         <v>11</v>
       </c>
       <c r="C66">
-        <v>1851</v>
+        <v>1869</v>
       </c>
       <c r="D66">
-        <v>2497778</v>
+        <v>2521804</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3211,10 +3211,10 @@
         <v>11</v>
       </c>
       <c r="C67">
-        <v>5659</v>
+        <v>5709</v>
       </c>
       <c r="D67">
-        <v>8285850</v>
+        <v>8356391</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3243,10 +3243,10 @@
         <v>11</v>
       </c>
       <c r="C68">
-        <v>14363</v>
+        <v>14497</v>
       </c>
       <c r="D68">
-        <v>21271342</v>
+        <v>21467839</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3275,10 +3275,10 @@
         <v>11</v>
       </c>
       <c r="C69">
-        <v>4997</v>
+        <v>5062</v>
       </c>
       <c r="D69">
-        <v>7466709</v>
+        <v>7561576</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3307,10 +3307,10 @@
         <v>11</v>
       </c>
       <c r="C70">
-        <v>1277</v>
+        <v>1291</v>
       </c>
       <c r="D70">
-        <v>1909873</v>
+        <v>1930873</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3339,10 +3339,10 @@
         <v>11</v>
       </c>
       <c r="C71">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D71">
-        <v>349500</v>
+        <v>357000</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
@@ -3435,10 +3435,10 @@
         <v>11</v>
       </c>
       <c r="C74">
-        <v>4565</v>
+        <v>4610</v>
       </c>
       <c r="D74">
-        <v>6419862</v>
+        <v>6480972</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -3467,10 +3467,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>1707</v>
+        <v>1730</v>
       </c>
       <c r="D75">
-        <v>2499308</v>
+        <v>2532568</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3499,10 +3499,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>4234</v>
+        <v>4270</v>
       </c>
       <c r="D76">
-        <v>6281073</v>
+        <v>6334143</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3531,10 +3531,10 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>1803</v>
+        <v>1830</v>
       </c>
       <c r="D77">
-        <v>2692591</v>
+        <v>2730500</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3563,10 +3563,10 @@
         <v>11</v>
       </c>
       <c r="C78">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="D78">
-        <v>977839</v>
+        <v>992754</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -3595,10 +3595,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D79">
-        <v>270405</v>
+        <v>273405</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3659,10 +3659,10 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>4222</v>
+        <v>4239</v>
       </c>
       <c r="D81">
-        <v>6025446</v>
+        <v>6050519</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -3691,10 +3691,10 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>1205</v>
+        <v>1218</v>
       </c>
       <c r="D82">
-        <v>1766431</v>
+        <v>1785931</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
@@ -3723,10 +3723,10 @@
         <v>11</v>
       </c>
       <c r="C83">
-        <v>3262</v>
+        <v>3302</v>
       </c>
       <c r="D83">
-        <v>4823353</v>
+        <v>4881217</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
@@ -3755,10 +3755,10 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>1115</v>
+        <v>1130</v>
       </c>
       <c r="D84">
-        <v>1666910</v>
+        <v>1689410</v>
       </c>
       <c r="E84" t="s">
         <v>13</v>
@@ -3787,10 +3787,10 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D85">
-        <v>417000</v>
+        <v>423000</v>
       </c>
       <c r="E85" t="s">
         <v>13</v>
@@ -3883,10 +3883,10 @@
         <v>11</v>
       </c>
       <c r="C88">
-        <v>1243</v>
+        <v>1250</v>
       </c>
       <c r="D88">
-        <v>1670766</v>
+        <v>1679434</v>
       </c>
       <c r="E88" t="s">
         <v>13</v>
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="C89">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="D89">
-        <v>1605757</v>
+        <v>1617757</v>
       </c>
       <c r="E89" t="s">
         <v>13</v>
@@ -3947,10 +3947,10 @@
         <v>11</v>
       </c>
       <c r="C90">
-        <v>3046</v>
+        <v>3074</v>
       </c>
       <c r="D90">
-        <v>4514872</v>
+        <v>4555496</v>
       </c>
       <c r="E90" t="s">
         <v>13</v>
@@ -3979,10 +3979,10 @@
         <v>11</v>
       </c>
       <c r="C91">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="D91">
-        <v>1519534</v>
+        <v>1532533</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -4011,10 +4011,10 @@
         <v>11</v>
       </c>
       <c r="C92">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D92">
-        <v>385419</v>
+        <v>391419</v>
       </c>
       <c r="E92" t="s">
         <v>13</v>
@@ -4107,10 +4107,10 @@
         <v>11</v>
       </c>
       <c r="C95">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="D95">
-        <v>1336953</v>
+        <v>1347610</v>
       </c>
       <c r="E95" t="s">
         <v>13</v>
@@ -4139,10 +4139,10 @@
         <v>11</v>
       </c>
       <c r="C96">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D96">
-        <v>665194</v>
+        <v>666694</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
@@ -4171,10 +4171,10 @@
         <v>11</v>
       </c>
       <c r="C97">
-        <v>1188</v>
+        <v>1204</v>
       </c>
       <c r="D97">
-        <v>1764115</v>
+        <v>1786144</v>
       </c>
       <c r="E97" t="s">
         <v>13</v>
@@ -4203,10 +4203,10 @@
         <v>11</v>
       </c>
       <c r="C98">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="D98">
-        <v>519274</v>
+        <v>541774</v>
       </c>
       <c r="E98" t="s">
         <v>13</v>
@@ -4235,10 +4235,10 @@
         <v>11</v>
       </c>
       <c r="C99">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D99">
-        <v>138000</v>
+        <v>139500</v>
       </c>
       <c r="E99" t="s">
         <v>13</v>
@@ -4299,10 +4299,10 @@
         <v>11</v>
       </c>
       <c r="C101">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D101">
-        <v>702431</v>
+        <v>710949</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -4331,10 +4331,10 @@
         <v>11</v>
       </c>
       <c r="C102">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="D102">
-        <v>1046890</v>
+        <v>1055890</v>
       </c>
       <c r="E102" t="s">
         <v>13</v>
@@ -4363,10 +4363,10 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>1781</v>
+        <v>1799</v>
       </c>
       <c r="D103">
-        <v>2636738</v>
+        <v>2662986</v>
       </c>
       <c r="E103" t="s">
         <v>13</v>
@@ -4395,10 +4395,10 @@
         <v>11</v>
       </c>
       <c r="C104">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D104">
-        <v>751256</v>
+        <v>758019</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
@@ -4427,10 +4427,10 @@
         <v>11</v>
       </c>
       <c r="C105">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D105">
-        <v>187750</v>
+        <v>189250</v>
       </c>
       <c r="E105" t="s">
         <v>13</v>
@@ -4459,10 +4459,10 @@
         <v>11</v>
       </c>
       <c r="C106">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D106">
-        <v>28500</v>
+        <v>30000</v>
       </c>
       <c r="E106" t="s">
         <v>13</v>
@@ -4491,10 +4491,10 @@
         <v>11</v>
       </c>
       <c r="C107">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="D107">
-        <v>778285</v>
+        <v>788785</v>
       </c>
       <c r="E107" t="s">
         <v>13</v>
@@ -4523,10 +4523,10 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D108">
-        <v>652364</v>
+        <v>657424</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -4555,10 +4555,10 @@
         <v>11</v>
       </c>
       <c r="C109">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="D109">
-        <v>1909927</v>
+        <v>1925040</v>
       </c>
       <c r="E109" t="s">
         <v>13</v>
@@ -4587,10 +4587,10 @@
         <v>11</v>
       </c>
       <c r="C110">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D110">
-        <v>590785</v>
+        <v>593860</v>
       </c>
       <c r="E110" t="s">
         <v>13</v>
@@ -4619,10 +4619,10 @@
         <v>11</v>
       </c>
       <c r="C111">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D111">
-        <v>112500</v>
+        <v>114000</v>
       </c>
       <c r="E111" t="s">
         <v>13</v>
@@ -4683,10 +4683,10 @@
         <v>11</v>
       </c>
       <c r="C113">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D113">
-        <v>733756</v>
+        <v>738911</v>
       </c>
       <c r="E113" t="s">
         <v>13</v>
@@ -4715,10 +4715,10 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>1235</v>
+        <v>1251</v>
       </c>
       <c r="D114">
-        <v>1799515</v>
+        <v>1822181</v>
       </c>
       <c r="E114" t="s">
         <v>13</v>
@@ -4747,10 +4747,10 @@
         <v>11</v>
       </c>
       <c r="C115">
-        <v>3817</v>
+        <v>3865</v>
       </c>
       <c r="D115">
-        <v>5646219</v>
+        <v>5716017</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -4779,10 +4779,10 @@
         <v>11</v>
       </c>
       <c r="C116">
-        <v>1103</v>
+        <v>1119</v>
       </c>
       <c r="D116">
-        <v>1651106</v>
+        <v>1674358</v>
       </c>
       <c r="E116" t="s">
         <v>13</v>
@@ -4811,10 +4811,10 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D117">
-        <v>343826</v>
+        <v>349826</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
@@ -4843,10 +4843,10 @@
         <v>11</v>
       </c>
       <c r="C118">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D118">
-        <v>45000</v>
+        <v>48000</v>
       </c>
       <c r="E118" t="s">
         <v>13</v>
@@ -4875,10 +4875,10 @@
         <v>11</v>
       </c>
       <c r="C119">
-        <v>1492</v>
+        <v>1503</v>
       </c>
       <c r="D119">
-        <v>2049182</v>
+        <v>2065182</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
@@ -4907,10 +4907,10 @@
         <v>11</v>
       </c>
       <c r="C120">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D120">
-        <v>393338</v>
+        <v>400838</v>
       </c>
       <c r="E120" t="s">
         <v>13</v>
@@ -4939,10 +4939,10 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="D121">
-        <v>1120361</v>
+        <v>1126361</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -4971,10 +4971,10 @@
         <v>11</v>
       </c>
       <c r="C122">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D122">
-        <v>390575</v>
+        <v>395075</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -5003,10 +5003,10 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D123">
-        <v>84000</v>
+        <v>85500</v>
       </c>
       <c r="E123" t="s">
         <v>13</v>
@@ -5067,10 +5067,10 @@
         <v>11</v>
       </c>
       <c r="C125">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D125">
-        <v>311972</v>
+        <v>314972</v>
       </c>
       <c r="E125" t="s">
         <v>13</v>
@@ -5099,10 +5099,10 @@
         <v>11</v>
       </c>
       <c r="C126">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="D126">
-        <v>1033319</v>
+        <v>1045826</v>
       </c>
       <c r="E126" t="s">
         <v>13</v>
@@ -5131,10 +5131,10 @@
         <v>11</v>
       </c>
       <c r="C127">
-        <v>2115</v>
+        <v>2143</v>
       </c>
       <c r="D127">
-        <v>3134724</v>
+        <v>3176299</v>
       </c>
       <c r="E127" t="s">
         <v>13</v>
@@ -5163,10 +5163,10 @@
         <v>11</v>
       </c>
       <c r="C128">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D128">
-        <v>907319</v>
+        <v>916319</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
@@ -5195,10 +5195,10 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D129">
-        <v>217500</v>
+        <v>223500</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -5259,10 +5259,10 @@
         <v>11</v>
       </c>
       <c r="C131">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="D131">
-        <v>941670</v>
+        <v>952150</v>
       </c>
       <c r="E131" t="s">
         <v>13</v>
@@ -5291,10 +5291,10 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>1679</v>
+        <v>1699</v>
       </c>
       <c r="D132">
-        <v>2446524</v>
+        <v>2475150</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -5323,10 +5323,10 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>4031</v>
+        <v>4078</v>
       </c>
       <c r="D133">
-        <v>5942565</v>
+        <v>6011237</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
@@ -5355,10 +5355,10 @@
         <v>11</v>
       </c>
       <c r="C134">
-        <v>1074</v>
+        <v>1088</v>
       </c>
       <c r="D134">
-        <v>1604109</v>
+        <v>1625109</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -5387,10 +5387,10 @@
         <v>11</v>
       </c>
       <c r="C135">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D135">
-        <v>373349</v>
+        <v>379261</v>
       </c>
       <c r="E135" t="s">
         <v>14</v>
@@ -5419,10 +5419,10 @@
         <v>11</v>
       </c>
       <c r="C136">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D136">
-        <v>28500</v>
+        <v>30000</v>
       </c>
       <c r="E136" t="s">
         <v>14</v>
@@ -5483,10 +5483,10 @@
         <v>11</v>
       </c>
       <c r="C138">
-        <v>1480</v>
+        <v>1485</v>
       </c>
       <c r="D138">
-        <v>1988013</v>
+        <v>1995513</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -5515,10 +5515,10 @@
         <v>11</v>
       </c>
       <c r="C139">
-        <v>2332</v>
+        <v>2350</v>
       </c>
       <c r="D139">
-        <v>3408673</v>
+        <v>3433922</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -5547,10 +5547,10 @@
         <v>11</v>
       </c>
       <c r="C140">
-        <v>5476</v>
+        <v>5538</v>
       </c>
       <c r="D140">
-        <v>8115263</v>
+        <v>8198594</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
@@ -5579,10 +5579,10 @@
         <v>11</v>
       </c>
       <c r="C141">
-        <v>1888</v>
+        <v>1916</v>
       </c>
       <c r="D141">
-        <v>2825268</v>
+        <v>2867268</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
@@ -5611,10 +5611,10 @@
         <v>11</v>
       </c>
       <c r="C142">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D142">
-        <v>636011</v>
+        <v>649511</v>
       </c>
       <c r="E142" t="s">
         <v>14</v>
@@ -5643,10 +5643,10 @@
         <v>11</v>
       </c>
       <c r="C143">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D143">
-        <v>107624</v>
+        <v>109124</v>
       </c>
       <c r="E143" t="s">
         <v>14</v>
@@ -5707,10 +5707,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>2022</v>
+        <v>2043</v>
       </c>
       <c r="D145">
-        <v>2752243</v>
+        <v>2780251</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -5739,10 +5739,10 @@
         <v>11</v>
       </c>
       <c r="C146">
-        <v>2174</v>
+        <v>2185</v>
       </c>
       <c r="D146">
-        <v>3177271</v>
+        <v>3190689</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
@@ -5771,10 +5771,10 @@
         <v>11</v>
       </c>
       <c r="C147">
-        <v>6330</v>
+        <v>6395</v>
       </c>
       <c r="D147">
-        <v>9404031</v>
+        <v>9495964</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -5803,10 +5803,10 @@
         <v>11</v>
       </c>
       <c r="C148">
-        <v>2079</v>
+        <v>2100</v>
       </c>
       <c r="D148">
-        <v>3108257</v>
+        <v>3138316</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -5835,10 +5835,10 @@
         <v>11</v>
       </c>
       <c r="C149">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D149">
-        <v>813664</v>
+        <v>822664</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
@@ -5867,10 +5867,10 @@
         <v>11</v>
       </c>
       <c r="C150">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D150">
-        <v>144000</v>
+        <v>147000</v>
       </c>
       <c r="E150" t="s">
         <v>14</v>
@@ -5931,10 +5931,10 @@
         <v>11</v>
       </c>
       <c r="C152">
-        <v>1959</v>
+        <v>1980</v>
       </c>
       <c r="D152">
-        <v>2709413</v>
+        <v>2736016</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
@@ -5963,10 +5963,10 @@
         <v>11</v>
       </c>
       <c r="C153">
-        <v>2380</v>
+        <v>2402</v>
       </c>
       <c r="D153">
-        <v>3458537</v>
+        <v>3489463</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
@@ -5995,10 +5995,10 @@
         <v>11</v>
       </c>
       <c r="C154">
-        <v>5334</v>
+        <v>5380</v>
       </c>
       <c r="D154">
-        <v>7892796</v>
+        <v>7957765</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -6027,10 +6027,10 @@
         <v>11</v>
       </c>
       <c r="C155">
-        <v>1650</v>
+        <v>1675</v>
       </c>
       <c r="D155">
-        <v>2466282</v>
+        <v>2502647</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
@@ -6059,10 +6059,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D156">
-        <v>572646</v>
+        <v>586866</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
@@ -6155,10 +6155,10 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>1871</v>
+        <v>1882</v>
       </c>
       <c r="D159">
-        <v>2574999</v>
+        <v>2590586</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
@@ -6187,10 +6187,10 @@
         <v>11</v>
       </c>
       <c r="C160">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D160">
-        <v>770912</v>
+        <v>774781</v>
       </c>
       <c r="E160" t="s">
         <v>15</v>
@@ -6219,10 +6219,10 @@
         <v>11</v>
       </c>
       <c r="C161">
-        <v>1639</v>
+        <v>1661</v>
       </c>
       <c r="D161">
-        <v>2418173</v>
+        <v>2448919</v>
       </c>
       <c r="E161" t="s">
         <v>15</v>
@@ -6251,10 +6251,10 @@
         <v>11</v>
       </c>
       <c r="C162">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="D162">
-        <v>794205</v>
+        <v>810754</v>
       </c>
       <c r="E162" t="s">
         <v>15</v>
@@ -6283,10 +6283,10 @@
         <v>11</v>
       </c>
       <c r="C163">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D163">
-        <v>219000</v>
+        <v>222000</v>
       </c>
       <c r="E163" t="s">
         <v>15</v>
@@ -6315,10 +6315,10 @@
         <v>11</v>
       </c>
       <c r="C164">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D164">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="E164" t="s">
         <v>15</v>
@@ -6347,10 +6347,10 @@
         <v>11</v>
       </c>
       <c r="C165">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="D165">
-        <v>1003476</v>
+        <v>1008861</v>
       </c>
       <c r="E165" t="s">
         <v>15</v>
@@ -6379,10 +6379,10 @@
         <v>11</v>
       </c>
       <c r="C166">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D166">
-        <v>1119326</v>
+        <v>1123826</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -6411,10 +6411,10 @@
         <v>11</v>
       </c>
       <c r="C167">
-        <v>2385</v>
+        <v>2406</v>
       </c>
       <c r="D167">
-        <v>3536137</v>
+        <v>3567259</v>
       </c>
       <c r="E167" t="s">
         <v>15</v>
@@ -6443,10 +6443,10 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="D168">
-        <v>1184160</v>
+        <v>1201420</v>
       </c>
       <c r="E168" t="s">
         <v>15</v>
@@ -6475,10 +6475,10 @@
         <v>11</v>
       </c>
       <c r="C169">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D169">
-        <v>283500</v>
+        <v>289500</v>
       </c>
       <c r="E169" t="s">
         <v>15</v>
@@ -6539,10 +6539,10 @@
         <v>11</v>
       </c>
       <c r="C171">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="D171">
-        <v>966250</v>
+        <v>978833</v>
       </c>
       <c r="E171" t="s">
         <v>15</v>
@@ -6571,10 +6571,10 @@
         <v>11</v>
       </c>
       <c r="C172">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D172">
-        <v>517514</v>
+        <v>519014</v>
       </c>
       <c r="E172" t="s">
         <v>15</v>
@@ -6603,10 +6603,10 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <v>1276</v>
+        <v>1294</v>
       </c>
       <c r="D173">
-        <v>1880965</v>
+        <v>1907965</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -6635,10 +6635,10 @@
         <v>11</v>
       </c>
       <c r="C174">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="D174">
-        <v>657681</v>
+        <v>675681</v>
       </c>
       <c r="E174" t="s">
         <v>15</v>
@@ -6667,10 +6667,10 @@
         <v>11</v>
       </c>
       <c r="C175">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D175">
-        <v>150000</v>
+        <v>154500</v>
       </c>
       <c r="E175" t="s">
         <v>15</v>
@@ -6699,10 +6699,10 @@
         <v>11</v>
       </c>
       <c r="C176">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D176">
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="E176" t="s">
         <v>15</v>
@@ -6731,10 +6731,10 @@
         <v>11</v>
       </c>
       <c r="C177">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D177">
-        <v>662409</v>
+        <v>668917</v>
       </c>
       <c r="E177" t="s">
         <v>15</v>
@@ -6763,10 +6763,10 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="D178">
-        <v>1965221</v>
+        <v>1991878</v>
       </c>
       <c r="E178" t="s">
         <v>15</v>
@@ -6795,10 +6795,10 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <v>3744</v>
+        <v>3786</v>
       </c>
       <c r="D179">
-        <v>5534420</v>
+        <v>5595662</v>
       </c>
       <c r="E179" t="s">
         <v>15</v>
@@ -6827,10 +6827,10 @@
         <v>11</v>
       </c>
       <c r="C180">
-        <v>1243</v>
+        <v>1255</v>
       </c>
       <c r="D180">
-        <v>1859362</v>
+        <v>1877205</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -6859,10 +6859,10 @@
         <v>11</v>
       </c>
       <c r="C181">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D181">
-        <v>487500</v>
+        <v>496500</v>
       </c>
       <c r="E181" t="s">
         <v>15</v>
@@ -6891,10 +6891,10 @@
         <v>11</v>
       </c>
       <c r="C182">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D182">
-        <v>76500</v>
+        <v>79500</v>
       </c>
       <c r="E182" t="s">
         <v>15</v>
@@ -6955,10 +6955,10 @@
         <v>11</v>
       </c>
       <c r="C184">
-        <v>1311</v>
+        <v>1318</v>
       </c>
       <c r="D184">
-        <v>1778800</v>
+        <v>1788800</v>
       </c>
       <c r="E184" t="s">
         <v>15</v>
@@ -6987,10 +6987,10 @@
         <v>11</v>
       </c>
       <c r="C185">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="D185">
-        <v>923430</v>
+        <v>930971</v>
       </c>
       <c r="E185" t="s">
         <v>15</v>
@@ -7019,10 +7019,10 @@
         <v>11</v>
       </c>
       <c r="C186">
-        <v>2110</v>
+        <v>2127</v>
       </c>
       <c r="D186">
-        <v>3125306</v>
+        <v>3149326</v>
       </c>
       <c r="E186" t="s">
         <v>15</v>
@@ -7051,10 +7051,10 @@
         <v>11</v>
       </c>
       <c r="C187">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="D187">
-        <v>1054798</v>
+        <v>1063798</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -7083,10 +7083,10 @@
         <v>11</v>
       </c>
       <c r="C188">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D188">
-        <v>207991</v>
+        <v>215491</v>
       </c>
       <c r="E188" t="s">
         <v>15</v>
@@ -7147,10 +7147,10 @@
         <v>11</v>
       </c>
       <c r="C190">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="D190">
-        <v>986993</v>
+        <v>993588</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
@@ -7179,10 +7179,10 @@
         <v>11</v>
       </c>
       <c r="C191">
-        <v>1210</v>
+        <v>1228</v>
       </c>
       <c r="D191">
-        <v>1773391</v>
+        <v>1799160</v>
       </c>
       <c r="E191" t="s">
         <v>15</v>
@@ -7211,10 +7211,10 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>3748</v>
+        <v>3787</v>
       </c>
       <c r="D192">
-        <v>5556806</v>
+        <v>5614559</v>
       </c>
       <c r="E192" t="s">
         <v>15</v>
@@ -7243,10 +7243,10 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <v>1329</v>
+        <v>1351</v>
       </c>
       <c r="D193">
-        <v>1990166</v>
+        <v>2023166</v>
       </c>
       <c r="E193" t="s">
         <v>15</v>
@@ -7275,10 +7275,10 @@
         <v>11</v>
       </c>
       <c r="C194">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D194">
-        <v>462000</v>
+        <v>471000</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -7307,10 +7307,10 @@
         <v>11</v>
       </c>
       <c r="C195">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D195">
-        <v>55500</v>
+        <v>58500</v>
       </c>
       <c r="E195" t="s">
         <v>15</v>
@@ -7371,10 +7371,10 @@
         <v>11</v>
       </c>
       <c r="C197">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="D197">
-        <v>1558942</v>
+        <v>1567789</v>
       </c>
       <c r="E197" t="s">
         <v>15</v>
@@ -7403,10 +7403,10 @@
         <v>11</v>
       </c>
       <c r="C198">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D198">
-        <v>739299</v>
+        <v>747653</v>
       </c>
       <c r="E198" t="s">
         <v>16</v>
@@ -7435,10 +7435,10 @@
         <v>11</v>
       </c>
       <c r="C199">
-        <v>2060</v>
+        <v>2073</v>
       </c>
       <c r="D199">
-        <v>3032061</v>
+        <v>3050723</v>
       </c>
       <c r="E199" t="s">
         <v>16</v>
@@ -7467,10 +7467,10 @@
         <v>11</v>
       </c>
       <c r="C200">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="D200">
-        <v>1602641</v>
+        <v>1613141</v>
       </c>
       <c r="E200" t="s">
         <v>16</v>
@@ -7499,10 +7499,10 @@
         <v>11</v>
       </c>
       <c r="C201">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D201">
-        <v>425211</v>
+        <v>428211</v>
       </c>
       <c r="E201" t="s">
         <v>16</v>
@@ -7531,10 +7531,10 @@
         <v>11</v>
       </c>
       <c r="C202">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D202">
-        <v>82500</v>
+        <v>84000</v>
       </c>
       <c r="E202" t="s">
         <v>16</v>
@@ -7563,10 +7563,10 @@
         <v>11</v>
       </c>
       <c r="C203">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D203">
-        <v>306865</v>
+        <v>309865</v>
       </c>
       <c r="E203" t="s">
         <v>16</v>
@@ -7595,10 +7595,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>1193</v>
+        <v>1204</v>
       </c>
       <c r="D204">
-        <v>1724497</v>
+        <v>1739968</v>
       </c>
       <c r="E204" t="s">
         <v>16</v>
@@ -7627,10 +7627,10 @@
         <v>11</v>
       </c>
       <c r="C205">
-        <v>2459</v>
+        <v>2480</v>
       </c>
       <c r="D205">
-        <v>3610479</v>
+        <v>3639653</v>
       </c>
       <c r="E205" t="s">
         <v>16</v>
@@ -7659,10 +7659,10 @@
         <v>11</v>
       </c>
       <c r="C206">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="D206">
-        <v>1117513</v>
+        <v>1127781</v>
       </c>
       <c r="E206" t="s">
         <v>16</v>
@@ -7691,10 +7691,10 @@
         <v>11</v>
       </c>
       <c r="C207">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D207">
-        <v>273330</v>
+        <v>274830</v>
       </c>
       <c r="E207" t="s">
         <v>16</v>
@@ -7723,10 +7723,10 @@
         <v>11</v>
       </c>
       <c r="C208">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D208">
-        <v>49500</v>
+        <v>51000</v>
       </c>
       <c r="E208" t="s">
         <v>16</v>
@@ -7755,10 +7755,10 @@
         <v>11</v>
       </c>
       <c r="C209">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="D209">
-        <v>1263075</v>
+        <v>1271783</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -7787,10 +7787,10 @@
         <v>11</v>
       </c>
       <c r="C210">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D210">
-        <v>673775</v>
+        <v>681318</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -7819,10 +7819,10 @@
         <v>11</v>
       </c>
       <c r="C211">
-        <v>1461</v>
+        <v>1478</v>
       </c>
       <c r="D211">
-        <v>2152607</v>
+        <v>2175810</v>
       </c>
       <c r="E211" t="s">
         <v>17</v>
@@ -7851,10 +7851,10 @@
         <v>11</v>
       </c>
       <c r="C212">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D212">
-        <v>691168</v>
+        <v>695668</v>
       </c>
       <c r="E212" t="s">
         <v>17</v>
@@ -7883,10 +7883,10 @@
         <v>11</v>
       </c>
       <c r="C213">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D213">
-        <v>198000</v>
+        <v>201000</v>
       </c>
       <c r="E213" t="s">
         <v>17</v>
@@ -7947,10 +7947,10 @@
         <v>11</v>
       </c>
       <c r="C215">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D215">
-        <v>796220</v>
+        <v>797720</v>
       </c>
       <c r="E215" t="s">
         <v>17</v>
@@ -7979,10 +7979,10 @@
         <v>11</v>
       </c>
       <c r="C216">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D216">
-        <v>882294</v>
+        <v>885294</v>
       </c>
       <c r="E216" t="s">
         <v>17</v>
@@ -8011,10 +8011,10 @@
         <v>11</v>
       </c>
       <c r="C217">
-        <v>1726</v>
+        <v>1741</v>
       </c>
       <c r="D217">
-        <v>2541218</v>
+        <v>2563718</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -8043,10 +8043,10 @@
         <v>11</v>
       </c>
       <c r="C218">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D218">
-        <v>811759</v>
+        <v>820759</v>
       </c>
       <c r="E218" t="s">
         <v>17</v>
@@ -8075,10 +8075,10 @@
         <v>11</v>
       </c>
       <c r="C219">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D219">
-        <v>199500</v>
+        <v>201000</v>
       </c>
       <c r="E219" t="s">
         <v>17</v>
@@ -8139,10 +8139,10 @@
         <v>11</v>
       </c>
       <c r="C221">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="D221">
-        <v>808574</v>
+        <v>818447</v>
       </c>
       <c r="E221" t="s">
         <v>17</v>
@@ -8171,10 +8171,10 @@
         <v>11</v>
       </c>
       <c r="C222">
-        <v>2389</v>
+        <v>2408</v>
       </c>
       <c r="D222">
-        <v>3490306</v>
+        <v>3517338</v>
       </c>
       <c r="E222" t="s">
         <v>17</v>
@@ -8203,10 +8203,10 @@
         <v>11</v>
       </c>
       <c r="C223">
-        <v>8009</v>
+        <v>8090</v>
       </c>
       <c r="D223">
-        <v>11865634</v>
+        <v>11983355</v>
       </c>
       <c r="E223" t="s">
         <v>17</v>
@@ -8235,10 +8235,10 @@
         <v>11</v>
       </c>
       <c r="C224">
-        <v>3062</v>
+        <v>3106</v>
       </c>
       <c r="D224">
-        <v>4581696</v>
+        <v>4645519</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -8267,10 +8267,10 @@
         <v>11</v>
       </c>
       <c r="C225">
-        <v>861</v>
+        <v>872</v>
       </c>
       <c r="D225">
-        <v>1287974</v>
+        <v>1303862</v>
       </c>
       <c r="E225" t="s">
         <v>17</v>
@@ -8299,10 +8299,10 @@
         <v>11</v>
       </c>
       <c r="C226">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D226">
-        <v>242878</v>
+        <v>250378</v>
       </c>
       <c r="E226" t="s">
         <v>17</v>
@@ -8331,10 +8331,10 @@
         <v>11</v>
       </c>
       <c r="C227">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D227">
-        <v>19500</v>
+        <v>22500</v>
       </c>
       <c r="E227" t="s">
         <v>17</v>
@@ -8363,10 +8363,10 @@
         <v>11</v>
       </c>
       <c r="C228">
-        <v>2056</v>
+        <v>2072</v>
       </c>
       <c r="D228">
-        <v>2851413</v>
+        <v>2870686</v>
       </c>
       <c r="E228" t="s">
         <v>17</v>
@@ -8395,10 +8395,10 @@
         <v>11</v>
       </c>
       <c r="C229">
-        <v>1677</v>
+        <v>1696</v>
       </c>
       <c r="D229">
-        <v>2451737</v>
+        <v>2477732</v>
       </c>
       <c r="E229" t="s">
         <v>17</v>
@@ -8427,10 +8427,10 @@
         <v>11</v>
       </c>
       <c r="C230">
-        <v>5121</v>
+        <v>5163</v>
       </c>
       <c r="D230">
-        <v>7575299</v>
+        <v>7635750</v>
       </c>
       <c r="E230" t="s">
         <v>17</v>
@@ -8459,10 +8459,10 @@
         <v>11</v>
       </c>
       <c r="C231">
-        <v>2060</v>
+        <v>2083</v>
       </c>
       <c r="D231">
-        <v>3074531</v>
+        <v>3108818</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -8491,10 +8491,10 @@
         <v>11</v>
       </c>
       <c r="C232">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="D232">
-        <v>785254</v>
+        <v>797795</v>
       </c>
       <c r="E232" t="s">
         <v>17</v>
@@ -8523,10 +8523,10 @@
         <v>11</v>
       </c>
       <c r="C233">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D233">
-        <v>161730</v>
+        <v>163230</v>
       </c>
       <c r="E233" t="s">
         <v>17</v>
@@ -8587,10 +8587,10 @@
         <v>11</v>
       </c>
       <c r="C235">
-        <v>1268</v>
+        <v>1280</v>
       </c>
       <c r="D235">
-        <v>1714353</v>
+        <v>1729209</v>
       </c>
       <c r="E235" t="s">
         <v>17</v>
@@ -8619,10 +8619,10 @@
         <v>11</v>
       </c>
       <c r="C236">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D236">
-        <v>482010</v>
+        <v>487006</v>
       </c>
       <c r="E236" t="s">
         <v>17</v>
@@ -8651,10 +8651,10 @@
         <v>11</v>
       </c>
       <c r="C237">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="D237">
-        <v>1372222</v>
+        <v>1391722</v>
       </c>
       <c r="E237" t="s">
         <v>17</v>
@@ -8683,10 +8683,10 @@
         <v>11</v>
       </c>
       <c r="C238">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D238">
-        <v>425399</v>
+        <v>434812</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -8715,10 +8715,10 @@
         <v>11</v>
       </c>
       <c r="C239">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D239">
-        <v>132000</v>
+        <v>136500</v>
       </c>
       <c r="E239" t="s">
         <v>17</v>
@@ -8747,10 +8747,10 @@
         <v>11</v>
       </c>
       <c r="C240">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D240">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="E240" t="s">
         <v>17</v>
@@ -8779,10 +8779,10 @@
         <v>11</v>
       </c>
       <c r="C241">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D241">
-        <v>495290</v>
+        <v>499790</v>
       </c>
       <c r="E241" t="s">
         <v>17</v>
@@ -8811,10 +8811,10 @@
         <v>11</v>
       </c>
       <c r="C242">
-        <v>1110</v>
+        <v>1119</v>
       </c>
       <c r="D242">
-        <v>1624077</v>
+        <v>1637577</v>
       </c>
       <c r="E242" t="s">
         <v>17</v>
@@ -8843,10 +8843,10 @@
         <v>11</v>
       </c>
       <c r="C243">
-        <v>3206</v>
+        <v>3234</v>
       </c>
       <c r="D243">
-        <v>4757224</v>
+        <v>4797877</v>
       </c>
       <c r="E243" t="s">
         <v>17</v>
@@ -8875,10 +8875,10 @@
         <v>11</v>
       </c>
       <c r="C244">
-        <v>1158</v>
+        <v>1165</v>
       </c>
       <c r="D244">
-        <v>1725750</v>
+        <v>1736250</v>
       </c>
       <c r="E244" t="s">
         <v>17</v>
@@ -8907,10 +8907,10 @@
         <v>11</v>
       </c>
       <c r="C245">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D245">
-        <v>508968</v>
+        <v>513468</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
@@ -8939,10 +8939,10 @@
         <v>11</v>
       </c>
       <c r="C246">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D246">
-        <v>64500</v>
+        <v>67500</v>
       </c>
       <c r="E246" t="s">
         <v>17</v>
@@ -9003,10 +9003,10 @@
         <v>11</v>
       </c>
       <c r="C248">
-        <v>1118</v>
+        <v>1128</v>
       </c>
       <c r="D248">
-        <v>1497486</v>
+        <v>1511799</v>
       </c>
       <c r="E248" t="s">
         <v>17</v>
@@ -9035,10 +9035,10 @@
         <v>11</v>
       </c>
       <c r="C249">
-        <v>1200</v>
+        <v>1215</v>
       </c>
       <c r="D249">
-        <v>1769827</v>
+        <v>1790335</v>
       </c>
       <c r="E249" t="s">
         <v>17</v>
@@ -9067,10 +9067,10 @@
         <v>11</v>
       </c>
       <c r="C250">
-        <v>3731</v>
+        <v>3757</v>
       </c>
       <c r="D250">
-        <v>5524649</v>
+        <v>5563518</v>
       </c>
       <c r="E250" t="s">
         <v>17</v>
@@ -9099,10 +9099,10 @@
         <v>11</v>
       </c>
       <c r="C251">
-        <v>1255</v>
+        <v>1276</v>
       </c>
       <c r="D251">
-        <v>1877818</v>
+        <v>1908078</v>
       </c>
       <c r="E251" t="s">
         <v>17</v>
@@ -9131,10 +9131,10 @@
         <v>11</v>
       </c>
       <c r="C252">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D252">
-        <v>484782</v>
+        <v>489282</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -9163,10 +9163,10 @@
         <v>11</v>
       </c>
       <c r="C253">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D253">
-        <v>118500</v>
+        <v>120000</v>
       </c>
       <c r="E253" t="s">
         <v>17</v>
@@ -9227,10 +9227,10 @@
         <v>11</v>
       </c>
       <c r="C255">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="D255">
-        <v>1902511</v>
+        <v>1911511</v>
       </c>
       <c r="E255" t="s">
         <v>17</v>
@@ -9259,10 +9259,10 @@
         <v>11</v>
       </c>
       <c r="C256">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D256">
-        <v>481230</v>
+        <v>486884</v>
       </c>
       <c r="E256" t="s">
         <v>17</v>
@@ -9291,10 +9291,10 @@
         <v>11</v>
       </c>
       <c r="C257">
-        <v>940</v>
+        <v>951</v>
       </c>
       <c r="D257">
-        <v>1381672</v>
+        <v>1396882</v>
       </c>
       <c r="E257" t="s">
         <v>17</v>
@@ -9323,10 +9323,10 @@
         <v>11</v>
       </c>
       <c r="C258">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D258">
-        <v>433088</v>
+        <v>436088</v>
       </c>
       <c r="E258" t="s">
         <v>17</v>
@@ -9419,10 +9419,10 @@
         <v>11</v>
       </c>
       <c r="C261">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D261">
-        <v>478197</v>
+        <v>481657</v>
       </c>
       <c r="E261" t="s">
         <v>17</v>
@@ -9451,10 +9451,10 @@
         <v>11</v>
       </c>
       <c r="C262">
-        <v>1712</v>
+        <v>1729</v>
       </c>
       <c r="D262">
-        <v>2499806</v>
+        <v>2523463</v>
       </c>
       <c r="E262" t="s">
         <v>17</v>
@@ -9483,10 +9483,10 @@
         <v>11</v>
       </c>
       <c r="C263">
-        <v>5762</v>
+        <v>5815</v>
       </c>
       <c r="D263">
-        <v>8518890</v>
+        <v>8596321</v>
       </c>
       <c r="E263" t="s">
         <v>17</v>
@@ -9515,10 +9515,10 @@
         <v>11</v>
       </c>
       <c r="C264">
-        <v>2405</v>
+        <v>2437</v>
       </c>
       <c r="D264">
-        <v>3600649</v>
+        <v>3647449</v>
       </c>
       <c r="E264" t="s">
         <v>17</v>
@@ -9547,10 +9547,10 @@
         <v>11</v>
       </c>
       <c r="C265">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="D265">
-        <v>1080000</v>
+        <v>1096500</v>
       </c>
       <c r="E265" t="s">
         <v>17</v>
@@ -9611,10 +9611,10 @@
         <v>11</v>
       </c>
       <c r="C267">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="D267">
-        <v>2058810</v>
+        <v>2066310</v>
       </c>
       <c r="E267" t="s">
         <v>17</v>
@@ -9643,10 +9643,10 @@
         <v>11</v>
       </c>
       <c r="C268">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="D268">
-        <v>1500566</v>
+        <v>1511066</v>
       </c>
       <c r="E268" t="s">
         <v>17</v>
@@ -9675,10 +9675,10 @@
         <v>11</v>
       </c>
       <c r="C269">
-        <v>2639</v>
+        <v>2664</v>
       </c>
       <c r="D269">
-        <v>3907850</v>
+        <v>3941777</v>
       </c>
       <c r="E269" t="s">
         <v>17</v>
@@ -9707,10 +9707,10 @@
         <v>11</v>
       </c>
       <c r="C270">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="D270">
-        <v>1253493</v>
+        <v>1271493</v>
       </c>
       <c r="E270" t="s">
         <v>17</v>
@@ -9739,10 +9739,10 @@
         <v>11</v>
       </c>
       <c r="C271">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D271">
-        <v>320963</v>
+        <v>326963</v>
       </c>
       <c r="E271" t="s">
         <v>17</v>
@@ -9835,10 +9835,10 @@
         <v>11</v>
       </c>
       <c r="C274">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="D274">
-        <v>1380536</v>
+        <v>1389220</v>
       </c>
       <c r="E274" t="s">
         <v>17</v>
@@ -9867,10 +9867,10 @@
         <v>11</v>
       </c>
       <c r="C275">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="D275">
-        <v>1403195</v>
+        <v>1424097</v>
       </c>
       <c r="E275" t="s">
         <v>18</v>
@@ -9899,10 +9899,10 @@
         <v>11</v>
       </c>
       <c r="C276">
-        <v>3641</v>
+        <v>3685</v>
       </c>
       <c r="D276">
-        <v>5369139</v>
+        <v>5435059</v>
       </c>
       <c r="E276" t="s">
         <v>18</v>
@@ -9931,10 +9931,10 @@
         <v>11</v>
       </c>
       <c r="C277">
-        <v>1374</v>
+        <v>1388</v>
       </c>
       <c r="D277">
-        <v>2053964</v>
+        <v>2074964</v>
       </c>
       <c r="E277" t="s">
         <v>18</v>
@@ -9963,10 +9963,10 @@
         <v>11</v>
       </c>
       <c r="C278">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D278">
-        <v>629000</v>
+        <v>632000</v>
       </c>
       <c r="E278" t="s">
         <v>18</v>
@@ -9995,10 +9995,10 @@
         <v>11</v>
       </c>
       <c r="C279">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D279">
-        <v>130500</v>
+        <v>133500</v>
       </c>
       <c r="E279" t="s">
         <v>18</v>
@@ -10027,10 +10027,10 @@
         <v>11</v>
       </c>
       <c r="C280">
-        <v>2319</v>
+        <v>2376</v>
       </c>
       <c r="D280">
-        <v>3228118</v>
+        <v>3306602</v>
       </c>
       <c r="E280" t="s">
         <v>18</v>
@@ -10059,10 +10059,10 @@
         <v>11</v>
       </c>
       <c r="C281">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D281">
-        <v>502784</v>
+        <v>507284</v>
       </c>
       <c r="E281" t="s">
         <v>19</v>
@@ -10091,10 +10091,10 @@
         <v>11</v>
       </c>
       <c r="C282">
-        <v>927</v>
+        <v>942</v>
       </c>
       <c r="D282">
-        <v>1373977</v>
+        <v>1394992</v>
       </c>
       <c r="E282" t="s">
         <v>19</v>
@@ -10123,10 +10123,10 @@
         <v>11</v>
       </c>
       <c r="C283">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D283">
-        <v>560476</v>
+        <v>569476</v>
       </c>
       <c r="E283" t="s">
         <v>19</v>
@@ -10155,10 +10155,10 @@
         <v>11</v>
       </c>
       <c r="C284">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D284">
-        <v>190378</v>
+        <v>193378</v>
       </c>
       <c r="E284" t="s">
         <v>19</v>
@@ -10219,10 +10219,10 @@
         <v>11</v>
       </c>
       <c r="C286">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="D286">
-        <v>622722</v>
+        <v>641265</v>
       </c>
       <c r="E286" t="s">
         <v>19</v>
@@ -10251,10 +10251,10 @@
         <v>11</v>
       </c>
       <c r="C287">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="D287">
-        <v>1105187</v>
+        <v>1119375</v>
       </c>
       <c r="E287" t="s">
         <v>20</v>
@@ -10283,10 +10283,10 @@
         <v>11</v>
       </c>
       <c r="C288">
-        <v>2413</v>
+        <v>2430</v>
       </c>
       <c r="D288">
-        <v>3576493</v>
+        <v>3601143</v>
       </c>
       <c r="E288" t="s">
         <v>20</v>
@@ -10315,10 +10315,10 @@
         <v>11</v>
       </c>
       <c r="C289">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="D289">
-        <v>1339821</v>
+        <v>1357316</v>
       </c>
       <c r="E289" t="s">
         <v>20</v>
@@ -10347,10 +10347,10 @@
         <v>11</v>
       </c>
       <c r="C290">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D290">
-        <v>330701</v>
+        <v>336701</v>
       </c>
       <c r="E290" t="s">
         <v>20</v>
@@ -10443,10 +10443,10 @@
         <v>11</v>
       </c>
       <c r="C293">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="D293">
-        <v>1245833</v>
+        <v>1252603</v>
       </c>
       <c r="E293" t="s">
         <v>20</v>
@@ -10475,10 +10475,10 @@
         <v>11</v>
       </c>
       <c r="C294">
-        <v>4443</v>
+        <v>4472</v>
       </c>
       <c r="D294">
-        <v>6438129</v>
+        <v>6479285</v>
       </c>
       <c r="E294" t="s">
         <v>20</v>
@@ -10507,10 +10507,10 @@
         <v>11</v>
       </c>
       <c r="C295">
-        <v>13098</v>
+        <v>13219</v>
       </c>
       <c r="D295">
-        <v>19318043</v>
+        <v>19492731</v>
       </c>
       <c r="E295" t="s">
         <v>20</v>
@@ -10539,10 +10539,10 @@
         <v>11</v>
       </c>
       <c r="C296">
-        <v>4577</v>
+        <v>4645</v>
       </c>
       <c r="D296">
-        <v>6846647</v>
+        <v>6944884</v>
       </c>
       <c r="E296" t="s">
         <v>20</v>
@@ -10571,10 +10571,10 @@
         <v>11</v>
       </c>
       <c r="C297">
-        <v>1332</v>
+        <v>1346</v>
       </c>
       <c r="D297">
-        <v>1994592</v>
+        <v>2015592</v>
       </c>
       <c r="E297" t="s">
         <v>20</v>
@@ -10603,10 +10603,10 @@
         <v>11</v>
       </c>
       <c r="C298">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D298">
-        <v>368702</v>
+        <v>374702</v>
       </c>
       <c r="E298" t="s">
         <v>20</v>
@@ -10667,10 +10667,10 @@
         <v>11</v>
       </c>
       <c r="C300">
-        <v>3957</v>
+        <v>3994</v>
       </c>
       <c r="D300">
-        <v>5308001</v>
+        <v>5359755</v>
       </c>
       <c r="E300" t="s">
         <v>20</v>
@@ -10699,10 +10699,10 @@
         <v>11</v>
       </c>
       <c r="C301">
-        <v>1325</v>
+        <v>1344</v>
       </c>
       <c r="D301">
-        <v>1948508</v>
+        <v>1977008</v>
       </c>
       <c r="E301" t="s">
         <v>20</v>
@@ -10731,10 +10731,10 @@
         <v>11</v>
       </c>
       <c r="C302">
-        <v>4266</v>
+        <v>4310</v>
       </c>
       <c r="D302">
-        <v>6308700</v>
+        <v>6372826</v>
       </c>
       <c r="E302" t="s">
         <v>20</v>
@@ -10763,10 +10763,10 @@
         <v>11</v>
       </c>
       <c r="C303">
-        <v>1516</v>
+        <v>1533</v>
       </c>
       <c r="D303">
-        <v>2269557</v>
+        <v>2295057</v>
       </c>
       <c r="E303" t="s">
         <v>20</v>
@@ -10795,10 +10795,10 @@
         <v>11</v>
       </c>
       <c r="C304">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D304">
-        <v>571500</v>
+        <v>576000</v>
       </c>
       <c r="E304" t="s">
         <v>20</v>
@@ -10827,10 +10827,10 @@
         <v>11</v>
       </c>
       <c r="C305">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D305">
-        <v>103500</v>
+        <v>108000</v>
       </c>
       <c r="E305" t="s">
         <v>20</v>
@@ -10891,10 +10891,10 @@
         <v>11</v>
       </c>
       <c r="C307">
-        <v>1302</v>
+        <v>1309</v>
       </c>
       <c r="D307">
-        <v>1801491</v>
+        <v>1810951</v>
       </c>
       <c r="E307" t="s">
         <v>20</v>
@@ -10923,10 +10923,10 @@
         <v>11</v>
       </c>
       <c r="C308">
-        <v>2374</v>
+        <v>2385</v>
       </c>
       <c r="D308">
-        <v>3447504</v>
+        <v>3463009</v>
       </c>
       <c r="E308" t="s">
         <v>20</v>
@@ -10955,10 +10955,10 @@
         <v>11</v>
       </c>
       <c r="C309">
-        <v>7467</v>
+        <v>7522</v>
       </c>
       <c r="D309">
-        <v>11004597</v>
+        <v>11084340</v>
       </c>
       <c r="E309" t="s">
         <v>20</v>
@@ -10987,10 +10987,10 @@
         <v>11</v>
       </c>
       <c r="C310">
-        <v>2364</v>
+        <v>2390</v>
       </c>
       <c r="D310">
-        <v>3532211</v>
+        <v>3569737</v>
       </c>
       <c r="E310" t="s">
         <v>20</v>
@@ -11019,10 +11019,10 @@
         <v>11</v>
       </c>
       <c r="C311">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="D311">
-        <v>1047704</v>
+        <v>1061204</v>
       </c>
       <c r="E311" t="s">
         <v>20</v>
@@ -11051,10 +11051,10 @@
         <v>11</v>
       </c>
       <c r="C312">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D312">
-        <v>159000</v>
+        <v>163500</v>
       </c>
       <c r="E312" t="s">
         <v>20</v>
@@ -11115,10 +11115,10 @@
         <v>11</v>
       </c>
       <c r="C314">
-        <v>2513</v>
+        <v>2527</v>
       </c>
       <c r="D314">
-        <v>3328588</v>
+        <v>3346116</v>
       </c>
       <c r="E314" t="s">
         <v>20</v>
@@ -11147,10 +11147,10 @@
         <v>11</v>
       </c>
       <c r="C315">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="D315">
-        <v>1423837</v>
+        <v>1437734</v>
       </c>
       <c r="E315" t="s">
         <v>20</v>
@@ -11179,10 +11179,10 @@
         <v>11</v>
       </c>
       <c r="C316">
-        <v>2837</v>
+        <v>2862</v>
       </c>
       <c r="D316">
-        <v>4193961</v>
+        <v>4229775</v>
       </c>
       <c r="E316" t="s">
         <v>20</v>
@@ -11211,10 +11211,10 @@
         <v>11</v>
       </c>
       <c r="C317">
-        <v>1038</v>
+        <v>1054</v>
       </c>
       <c r="D317">
-        <v>1551028</v>
+        <v>1575028</v>
       </c>
       <c r="E317" t="s">
         <v>20</v>
@@ -11243,10 +11243,10 @@
         <v>11</v>
       </c>
       <c r="C318">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D318">
-        <v>367571</v>
+        <v>376571</v>
       </c>
       <c r="E318" t="s">
         <v>20</v>
@@ -11275,10 +11275,10 @@
         <v>11</v>
       </c>
       <c r="C319">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D319">
-        <v>84000</v>
+        <v>85500</v>
       </c>
       <c r="E319" t="s">
         <v>20</v>
@@ -11307,10 +11307,10 @@
         <v>11</v>
       </c>
       <c r="C320">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="D320">
-        <v>1430520</v>
+        <v>1442520</v>
       </c>
       <c r="E320" t="s">
         <v>20</v>
@@ -11339,10 +11339,10 @@
         <v>11</v>
       </c>
       <c r="C321">
-        <v>2677</v>
+        <v>2699</v>
       </c>
       <c r="D321">
-        <v>3909805</v>
+        <v>3941438</v>
       </c>
       <c r="E321" t="s">
         <v>21</v>
@@ -11371,10 +11371,10 @@
         <v>11</v>
       </c>
       <c r="C322">
-        <v>7279</v>
+        <v>7337</v>
       </c>
       <c r="D322">
-        <v>10742239</v>
+        <v>10828142</v>
       </c>
       <c r="E322" t="s">
         <v>21</v>
@@ -11403,10 +11403,10 @@
         <v>11</v>
       </c>
       <c r="C323">
-        <v>2576</v>
+        <v>2600</v>
       </c>
       <c r="D323">
-        <v>3849272</v>
+        <v>3885113</v>
       </c>
       <c r="E323" t="s">
         <v>21</v>
@@ -11435,10 +11435,10 @@
         <v>11</v>
       </c>
       <c r="C324">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="D324">
-        <v>1258049</v>
+        <v>1276049</v>
       </c>
       <c r="E324" t="s">
         <v>21</v>
@@ -11467,10 +11467,10 @@
         <v>11</v>
       </c>
       <c r="C325">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D325">
-        <v>252112</v>
+        <v>253612</v>
       </c>
       <c r="E325" t="s">
         <v>21</v>
@@ -11531,10 +11531,10 @@
         <v>11</v>
       </c>
       <c r="C327">
-        <v>2788</v>
+        <v>2828</v>
       </c>
       <c r="D327">
-        <v>3796155</v>
+        <v>3850533</v>
       </c>
       <c r="E327" t="s">
         <v>21</v>
@@ -11563,10 +11563,10 @@
         <v>11</v>
       </c>
       <c r="C328">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="D328">
-        <v>1231250</v>
+        <v>1254393</v>
       </c>
       <c r="E328" t="s">
         <v>22</v>
@@ -11595,10 +11595,10 @@
         <v>11</v>
       </c>
       <c r="C329">
-        <v>2950</v>
+        <v>2979</v>
       </c>
       <c r="D329">
-        <v>4360946</v>
+        <v>4403846</v>
       </c>
       <c r="E329" t="s">
         <v>22</v>
@@ -11627,10 +11627,10 @@
         <v>11</v>
       </c>
       <c r="C330">
-        <v>1158</v>
+        <v>1170</v>
       </c>
       <c r="D330">
-        <v>1733548</v>
+        <v>1751548</v>
       </c>
       <c r="E330" t="s">
         <v>22</v>
@@ -11659,10 +11659,10 @@
         <v>11</v>
       </c>
       <c r="C331">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D331">
-        <v>606000</v>
+        <v>607500</v>
       </c>
       <c r="E331" t="s">
         <v>22</v>
@@ -11691,10 +11691,10 @@
         <v>11</v>
       </c>
       <c r="C332">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D332">
-        <v>124069</v>
+        <v>125569</v>
       </c>
       <c r="E332" t="s">
         <v>22</v>
@@ -11755,10 +11755,10 @@
         <v>11</v>
       </c>
       <c r="C334">
-        <v>1736</v>
+        <v>1753</v>
       </c>
       <c r="D334">
-        <v>2335993</v>
+        <v>2358530</v>
       </c>
       <c r="E334" t="s">
         <v>22</v>
@@ -11787,10 +11787,10 @@
         <v>11</v>
       </c>
       <c r="C335">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D335">
-        <v>446189</v>
+        <v>456689</v>
       </c>
       <c r="E335" t="s">
         <v>23</v>
@@ -11819,10 +11819,10 @@
         <v>11</v>
       </c>
       <c r="C336">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D336">
-        <v>151110</v>
+        <v>154110</v>
       </c>
       <c r="E336" t="s">
         <v>23</v>
@@ -11851,10 +11851,10 @@
         <v>11</v>
       </c>
       <c r="C337">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D337">
-        <v>61500</v>
+        <v>64500</v>
       </c>
       <c r="E337" t="s">
         <v>23</v>
@@ -11915,10 +11915,10 @@
         <v>11</v>
       </c>
       <c r="C339">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D339">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="E339" t="s">
         <v>23</v>
@@ -11947,10 +11947,10 @@
         <v>11</v>
       </c>
       <c r="C340">
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="D340">
-        <v>2930642</v>
+        <v>2946871</v>
       </c>
       <c r="E340" t="s">
         <v>24</v>
@@ -11979,10 +11979,10 @@
         <v>11</v>
       </c>
       <c r="C341">
-        <v>4979</v>
+        <v>5022</v>
       </c>
       <c r="D341">
-        <v>7355334</v>
+        <v>7419625</v>
       </c>
       <c r="E341" t="s">
         <v>24</v>
@@ -12011,10 +12011,10 @@
         <v>11</v>
       </c>
       <c r="C342">
-        <v>1628</v>
+        <v>1649</v>
       </c>
       <c r="D342">
-        <v>2434371</v>
+        <v>2465871</v>
       </c>
       <c r="E342" t="s">
         <v>24</v>
@@ -12043,10 +12043,10 @@
         <v>11</v>
       </c>
       <c r="C343">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D343">
-        <v>702145</v>
+        <v>708145</v>
       </c>
       <c r="E343" t="s">
         <v>24</v>
@@ -12075,10 +12075,10 @@
         <v>11</v>
       </c>
       <c r="C344">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D344">
-        <v>111000</v>
+        <v>112500</v>
       </c>
       <c r="E344" t="s">
         <v>24</v>
@@ -12107,10 +12107,10 @@
         <v>11</v>
       </c>
       <c r="C345">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D345">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="E345" t="s">
         <v>24</v>
@@ -12139,10 +12139,10 @@
         <v>11</v>
       </c>
       <c r="C346">
-        <v>1499</v>
+        <v>1516</v>
       </c>
       <c r="D346">
-        <v>2028549</v>
+        <v>2052014</v>
       </c>
       <c r="E346" t="s">
         <v>24</v>
@@ -12171,10 +12171,10 @@
         <v>11</v>
       </c>
       <c r="C347">
-        <v>1120</v>
+        <v>1133</v>
       </c>
       <c r="D347">
-        <v>1635178</v>
+        <v>1654678</v>
       </c>
       <c r="E347" t="s">
         <v>24</v>
@@ -12203,10 +12203,10 @@
         <v>11</v>
       </c>
       <c r="C348">
-        <v>3354</v>
+        <v>3389</v>
       </c>
       <c r="D348">
-        <v>4964752</v>
+        <v>5015450</v>
       </c>
       <c r="E348" t="s">
         <v>24</v>
@@ -12235,10 +12235,10 @@
         <v>11</v>
       </c>
       <c r="C349">
-        <v>1097</v>
+        <v>1108</v>
       </c>
       <c r="D349">
-        <v>1637949</v>
+        <v>1653066</v>
       </c>
       <c r="E349" t="s">
         <v>24</v>
@@ -12267,10 +12267,10 @@
         <v>11</v>
       </c>
       <c r="C350">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D350">
-        <v>430042</v>
+        <v>434542</v>
       </c>
       <c r="E350" t="s">
         <v>24</v>
@@ -12299,10 +12299,10 @@
         <v>11</v>
       </c>
       <c r="C351">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D351">
-        <v>54000</v>
+        <v>58500</v>
       </c>
       <c r="E351" t="s">
         <v>24</v>
@@ -12363,10 +12363,10 @@
         <v>11</v>
       </c>
       <c r="C353">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="D353">
-        <v>1407895</v>
+        <v>1419503</v>
       </c>
       <c r="E353" t="s">
         <v>24</v>
@@ -12395,10 +12395,10 @@
         <v>11</v>
       </c>
       <c r="C354">
-        <v>1271</v>
+        <v>1285</v>
       </c>
       <c r="D354">
-        <v>1869168</v>
+        <v>1888138</v>
       </c>
       <c r="E354" t="s">
         <v>24</v>
@@ -12427,10 +12427,10 @@
         <v>11</v>
       </c>
       <c r="C355">
-        <v>3372</v>
+        <v>3402</v>
       </c>
       <c r="D355">
-        <v>4997843</v>
+        <v>5040814</v>
       </c>
       <c r="E355" t="s">
         <v>24</v>
@@ -12459,10 +12459,10 @@
         <v>11</v>
       </c>
       <c r="C356">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="D356">
-        <v>1533011</v>
+        <v>1550343</v>
       </c>
       <c r="E356" t="s">
         <v>24</v>
@@ -12491,10 +12491,10 @@
         <v>11</v>
       </c>
       <c r="C357">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D357">
-        <v>410683</v>
+        <v>415183</v>
       </c>
       <c r="E357" t="s">
         <v>24</v>
@@ -12523,10 +12523,10 @@
         <v>11</v>
       </c>
       <c r="C358">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D358">
-        <v>39000</v>
+        <v>40500</v>
       </c>
       <c r="E358" t="s">
         <v>24</v>
@@ -12555,10 +12555,10 @@
         <v>11</v>
       </c>
       <c r="C359">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="D359">
-        <v>1425765</v>
+        <v>1430765</v>
       </c>
       <c r="E359" t="s">
         <v>24</v>
@@ -12587,10 +12587,10 @@
         <v>11</v>
       </c>
       <c r="C360">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="D360">
-        <v>894236</v>
+        <v>906236</v>
       </c>
       <c r="E360" t="s">
         <v>24</v>
@@ -12619,10 +12619,10 @@
         <v>11</v>
       </c>
       <c r="C361">
-        <v>1809</v>
+        <v>1836</v>
       </c>
       <c r="D361">
-        <v>2678546</v>
+        <v>2715762</v>
       </c>
       <c r="E361" t="s">
         <v>24</v>
@@ -12651,10 +12651,10 @@
         <v>11</v>
       </c>
       <c r="C362">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D362">
-        <v>741201</v>
+        <v>753201</v>
       </c>
       <c r="E362" t="s">
         <v>24</v>
@@ -12683,10 +12683,10 @@
         <v>11</v>
       </c>
       <c r="C363">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D363">
-        <v>180000</v>
+        <v>183000</v>
       </c>
       <c r="E363" t="s">
         <v>24</v>
@@ -12747,10 +12747,10 @@
         <v>11</v>
       </c>
       <c r="C365">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="D365">
-        <v>963493</v>
+        <v>970993</v>
       </c>
       <c r="E365" t="s">
         <v>24</v>
@@ -12779,10 +12779,10 @@
         <v>11</v>
       </c>
       <c r="C366">
-        <v>1935</v>
+        <v>1949</v>
       </c>
       <c r="D366">
-        <v>2833178</v>
+        <v>2854178</v>
       </c>
       <c r="E366" t="s">
         <v>24</v>
@@ -12811,10 +12811,10 @@
         <v>11</v>
       </c>
       <c r="C367">
-        <v>6403</v>
+        <v>6462</v>
       </c>
       <c r="D367">
-        <v>9481159</v>
+        <v>9565907</v>
       </c>
       <c r="E367" t="s">
         <v>24</v>
@@ -12843,10 +12843,10 @@
         <v>11</v>
       </c>
       <c r="C368">
-        <v>2289</v>
+        <v>2306</v>
       </c>
       <c r="D368">
-        <v>3424234</v>
+        <v>3449734</v>
       </c>
       <c r="E368" t="s">
         <v>24</v>
@@ -12875,10 +12875,10 @@
         <v>11</v>
       </c>
       <c r="C369">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="D369">
-        <v>866285</v>
+        <v>876785</v>
       </c>
       <c r="E369" t="s">
         <v>24</v>
@@ -12971,10 +12971,10 @@
         <v>11</v>
       </c>
       <c r="C372">
-        <v>1918</v>
+        <v>1934</v>
       </c>
       <c r="D372">
-        <v>2574236</v>
+        <v>2593663</v>
       </c>
       <c r="E372" t="s">
         <v>24</v>
@@ -13003,10 +13003,10 @@
         <v>11</v>
       </c>
       <c r="C373">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="D373">
-        <v>1128314</v>
+        <v>1132470</v>
       </c>
       <c r="E373" t="s">
         <v>25</v>
@@ -13035,10 +13035,10 @@
         <v>11</v>
       </c>
       <c r="C374">
-        <v>2198</v>
+        <v>2214</v>
       </c>
       <c r="D374">
-        <v>3241157</v>
+        <v>3264528</v>
       </c>
       <c r="E374" t="s">
         <v>25</v>
@@ -13067,10 +13067,10 @@
         <v>11</v>
       </c>
       <c r="C375">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="D375">
-        <v>1059290</v>
+        <v>1068290</v>
       </c>
       <c r="E375" t="s">
         <v>25</v>
@@ -13099,10 +13099,10 @@
         <v>11</v>
       </c>
       <c r="C376">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D376">
-        <v>318911</v>
+        <v>324911</v>
       </c>
       <c r="E376" t="s">
         <v>25</v>
@@ -13163,10 +13163,10 @@
         <v>11</v>
       </c>
       <c r="C378">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="D378">
-        <v>1173585</v>
+        <v>1184399</v>
       </c>
       <c r="E378" t="s">
         <v>25</v>
@@ -13195,10 +13195,10 @@
         <v>11</v>
       </c>
       <c r="C379">
-        <v>2775</v>
+        <v>2793</v>
       </c>
       <c r="D379">
-        <v>4036365</v>
+        <v>4062370</v>
       </c>
       <c r="E379" t="s">
         <v>25</v>
@@ -13227,10 +13227,10 @@
         <v>11</v>
       </c>
       <c r="C380">
-        <v>5619</v>
+        <v>5672</v>
       </c>
       <c r="D380">
-        <v>8311909</v>
+        <v>8387841</v>
       </c>
       <c r="E380" t="s">
         <v>25</v>
@@ -13259,10 +13259,10 @@
         <v>11</v>
       </c>
       <c r="C381">
-        <v>1646</v>
+        <v>1666</v>
       </c>
       <c r="D381">
-        <v>2461407</v>
+        <v>2491407</v>
       </c>
       <c r="E381" t="s">
         <v>25</v>
@@ -13291,10 +13291,10 @@
         <v>11</v>
       </c>
       <c r="C382">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D382">
-        <v>602085</v>
+        <v>606585</v>
       </c>
       <c r="E382" t="s">
         <v>25</v>
@@ -13323,10 +13323,10 @@
         <v>11</v>
       </c>
       <c r="C383">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D383">
-        <v>83928</v>
+        <v>89928</v>
       </c>
       <c r="E383" t="s">
         <v>25</v>
@@ -13387,10 +13387,10 @@
         <v>11</v>
       </c>
       <c r="C385">
-        <v>1794</v>
+        <v>1807</v>
       </c>
       <c r="D385">
-        <v>2434927</v>
+        <v>2452203</v>
       </c>
       <c r="E385" t="s">
         <v>25</v>
@@ -13419,10 +13419,10 @@
         <v>11</v>
       </c>
       <c r="C386">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="D386">
-        <v>990222</v>
+        <v>1005222</v>
       </c>
       <c r="E386" t="s">
         <v>25</v>
@@ -13451,10 +13451,10 @@
         <v>11</v>
       </c>
       <c r="C387">
-        <v>1784</v>
+        <v>1802</v>
       </c>
       <c r="D387">
-        <v>2629784</v>
+        <v>2654515</v>
       </c>
       <c r="E387" t="s">
         <v>25</v>
@@ -13483,10 +13483,10 @@
         <v>11</v>
       </c>
       <c r="C388">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D388">
-        <v>759889</v>
+        <v>771889</v>
       </c>
       <c r="E388" t="s">
         <v>25</v>
@@ -13515,10 +13515,10 @@
         <v>11</v>
       </c>
       <c r="C389">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D389">
-        <v>214500</v>
+        <v>219557</v>
       </c>
       <c r="E389" t="s">
         <v>25</v>
@@ -13579,10 +13579,10 @@
         <v>11</v>
       </c>
       <c r="C391">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="D391">
-        <v>1136378</v>
+        <v>1157391</v>
       </c>
       <c r="E391" t="s">
         <v>25</v>
@@ -13611,10 +13611,10 @@
         <v>11</v>
       </c>
       <c r="C392">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D392">
-        <v>332228</v>
+        <v>335228</v>
       </c>
       <c r="E392" t="s">
         <v>25</v>
@@ -13643,10 +13643,10 @@
         <v>11</v>
       </c>
       <c r="C393">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="D393">
-        <v>979228</v>
+        <v>997413</v>
       </c>
       <c r="E393" t="s">
         <v>25</v>
@@ -13675,10 +13675,10 @@
         <v>11</v>
       </c>
       <c r="C394">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D394">
-        <v>321846</v>
+        <v>324846</v>
       </c>
       <c r="E394" t="s">
         <v>25</v>
@@ -13707,10 +13707,10 @@
         <v>11</v>
       </c>
       <c r="C395">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D395">
-        <v>49500</v>
+        <v>51000</v>
       </c>
       <c r="E395" t="s">
         <v>25</v>
@@ -13771,10 +13771,10 @@
         <v>11</v>
       </c>
       <c r="C397">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D397">
-        <v>484635</v>
+        <v>485375</v>
       </c>
       <c r="E397" t="s">
         <v>25</v>
@@ -13803,10 +13803,10 @@
         <v>11</v>
       </c>
       <c r="C398">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D398">
-        <v>886473</v>
+        <v>895473</v>
       </c>
       <c r="E398" t="s">
         <v>25</v>
@@ -13835,10 +13835,10 @@
         <v>11</v>
       </c>
       <c r="C399">
-        <v>1982</v>
+        <v>1999</v>
       </c>
       <c r="D399">
-        <v>2942046</v>
+        <v>2966570</v>
       </c>
       <c r="E399" t="s">
         <v>25</v>
@@ -13867,10 +13867,10 @@
         <v>11</v>
       </c>
       <c r="C400">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="D400">
-        <v>988481</v>
+        <v>995981</v>
       </c>
       <c r="E400" t="s">
         <v>25</v>
@@ -13899,10 +13899,10 @@
         <v>11</v>
       </c>
       <c r="C401">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D401">
-        <v>234000</v>
+        <v>235500</v>
       </c>
       <c r="E401" t="s">
         <v>25</v>
@@ -13963,10 +13963,10 @@
         <v>11</v>
       </c>
       <c r="C403">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D403">
-        <v>891578</v>
+        <v>894478</v>
       </c>
       <c r="E403" t="s">
         <v>25</v>
@@ -13995,10 +13995,10 @@
         <v>11</v>
       </c>
       <c r="C404">
-        <v>1663</v>
+        <v>1675</v>
       </c>
       <c r="D404">
-        <v>2393834</v>
+        <v>2409514</v>
       </c>
       <c r="E404" t="s">
         <v>25</v>
@@ -14027,10 +14027,10 @@
         <v>11</v>
       </c>
       <c r="C405">
-        <v>3563</v>
+        <v>3607</v>
       </c>
       <c r="D405">
-        <v>5250293</v>
+        <v>5314578</v>
       </c>
       <c r="E405" t="s">
         <v>25</v>
@@ -14059,10 +14059,10 @@
         <v>11</v>
       </c>
       <c r="C406">
-        <v>984</v>
+        <v>995</v>
       </c>
       <c r="D406">
-        <v>1469374</v>
+        <v>1485264</v>
       </c>
       <c r="E406" t="s">
         <v>25</v>
@@ -14091,10 +14091,10 @@
         <v>11</v>
       </c>
       <c r="C407">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D407">
-        <v>357636</v>
+        <v>360636</v>
       </c>
       <c r="E407" t="s">
         <v>25</v>
@@ -14155,10 +14155,10 @@
         <v>11</v>
       </c>
       <c r="C409">
-        <v>1542</v>
+        <v>1555</v>
       </c>
       <c r="D409">
-        <v>2050714</v>
+        <v>2066348</v>
       </c>
       <c r="E409" t="s">
         <v>25</v>
@@ -14187,10 +14187,10 @@
         <v>11</v>
       </c>
       <c r="C410">
-        <v>5569</v>
+        <v>5610</v>
       </c>
       <c r="D410">
-        <v>8120428</v>
+        <v>8180322</v>
       </c>
       <c r="E410" t="s">
         <v>25</v>
@@ -14219,10 +14219,10 @@
         <v>11</v>
       </c>
       <c r="C411">
-        <v>12036</v>
+        <v>12166</v>
       </c>
       <c r="D411">
-        <v>17748696</v>
+        <v>17934126</v>
       </c>
       <c r="E411" t="s">
         <v>25</v>
@@ -14251,10 +14251,10 @@
         <v>11</v>
       </c>
       <c r="C412">
-        <v>4086</v>
+        <v>4125</v>
       </c>
       <c r="D412">
-        <v>6099233</v>
+        <v>6157523</v>
       </c>
       <c r="E412" t="s">
         <v>25</v>
@@ -14283,10 +14283,10 @@
         <v>11</v>
       </c>
       <c r="C413">
-        <v>1192</v>
+        <v>1212</v>
       </c>
       <c r="D413">
-        <v>1784610</v>
+        <v>1814610</v>
       </c>
       <c r="E413" t="s">
         <v>25</v>
@@ -14315,10 +14315,10 @@
         <v>11</v>
       </c>
       <c r="C414">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D414">
-        <v>342000</v>
+        <v>349500</v>
       </c>
       <c r="E414" t="s">
         <v>25</v>
@@ -14411,10 +14411,10 @@
         <v>11</v>
       </c>
       <c r="C417">
-        <v>4155</v>
+        <v>4203</v>
       </c>
       <c r="D417">
-        <v>5728366</v>
+        <v>5791899</v>
       </c>
       <c r="E417" t="s">
         <v>25</v>
@@ -14443,10 +14443,10 @@
         <v>11</v>
       </c>
       <c r="C418">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="D418">
-        <v>1228585</v>
+        <v>1242085</v>
       </c>
       <c r="E418" t="s">
         <v>25</v>
@@ -14475,10 +14475,10 @@
         <v>11</v>
       </c>
       <c r="C419">
-        <v>2162</v>
+        <v>2185</v>
       </c>
       <c r="D419">
-        <v>3200085</v>
+        <v>3234186</v>
       </c>
       <c r="E419" t="s">
         <v>25</v>
@@ -14507,10 +14507,10 @@
         <v>11</v>
       </c>
       <c r="C420">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="D420">
-        <v>1058256</v>
+        <v>1068756</v>
       </c>
       <c r="E420" t="s">
         <v>25</v>
@@ -14539,10 +14539,10 @@
         <v>11</v>
       </c>
       <c r="C421">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D421">
-        <v>316500</v>
+        <v>321381</v>
       </c>
       <c r="E421" t="s">
         <v>25</v>
@@ -14571,10 +14571,10 @@
         <v>11</v>
       </c>
       <c r="C422">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D422">
-        <v>58500</v>
+        <v>60000</v>
       </c>
       <c r="E422" t="s">
         <v>25</v>
@@ -14603,10 +14603,10 @@
         <v>11</v>
       </c>
       <c r="C423">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D423">
-        <v>1384511</v>
+        <v>1387511</v>
       </c>
       <c r="E423" t="s">
         <v>25</v>
@@ -14635,10 +14635,10 @@
         <v>11</v>
       </c>
       <c r="C424">
-        <v>1792</v>
+        <v>1804</v>
       </c>
       <c r="D424">
-        <v>2586325</v>
+        <v>2602940</v>
       </c>
       <c r="E424" t="s">
         <v>25</v>
@@ -14667,10 +14667,10 @@
         <v>11</v>
       </c>
       <c r="C425">
-        <v>3394</v>
+        <v>3409</v>
       </c>
       <c r="D425">
-        <v>5001199</v>
+        <v>5023699</v>
       </c>
       <c r="E425" t="s">
         <v>25</v>
@@ -14699,10 +14699,10 @@
         <v>11</v>
       </c>
       <c r="C426">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="D426">
-        <v>1514546</v>
+        <v>1534046</v>
       </c>
       <c r="E426" t="s">
         <v>25</v>
@@ -14731,10 +14731,10 @@
         <v>11</v>
       </c>
       <c r="C427">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D427">
-        <v>364846</v>
+        <v>367846</v>
       </c>
       <c r="E427" t="s">
         <v>25</v>
@@ -14827,10 +14827,10 @@
         <v>11</v>
       </c>
       <c r="C430">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="D430">
-        <v>1309185</v>
+        <v>1322457</v>
       </c>
       <c r="E430" t="s">
         <v>25</v>
@@ -14859,10 +14859,10 @@
         <v>11</v>
       </c>
       <c r="C431">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="D431">
-        <v>1547767</v>
+        <v>1556789</v>
       </c>
       <c r="E431" t="s">
         <v>25</v>
@@ -14891,10 +14891,10 @@
         <v>11</v>
       </c>
       <c r="C432">
-        <v>2330</v>
+        <v>2351</v>
       </c>
       <c r="D432">
-        <v>3440416</v>
+        <v>3471396</v>
       </c>
       <c r="E432" t="s">
         <v>25</v>
@@ -14923,10 +14923,10 @@
         <v>11</v>
       </c>
       <c r="C433">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="D433">
-        <v>1192977</v>
+        <v>1207977</v>
       </c>
       <c r="E433" t="s">
         <v>25</v>
@@ -14955,10 +14955,10 @@
         <v>11</v>
       </c>
       <c r="C434">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D434">
-        <v>273000</v>
+        <v>276000</v>
       </c>
       <c r="E434" t="s">
         <v>25</v>
@@ -15019,10 +15019,10 @@
         <v>11</v>
       </c>
       <c r="C436">
-        <v>976</v>
+        <v>989</v>
       </c>
       <c r="D436">
-        <v>1343776</v>
+        <v>1361643</v>
       </c>
       <c r="E436" t="s">
         <v>25</v>
@@ -15051,10 +15051,10 @@
         <v>11</v>
       </c>
       <c r="C437">
-        <v>2312</v>
+        <v>2339</v>
       </c>
       <c r="D437">
-        <v>3350709</v>
+        <v>3391209</v>
       </c>
       <c r="E437" t="s">
         <v>25</v>
@@ -15083,10 +15083,10 @@
         <v>11</v>
       </c>
       <c r="C438">
-        <v>6133</v>
+        <v>6198</v>
       </c>
       <c r="D438">
-        <v>9047533</v>
+        <v>9138757</v>
       </c>
       <c r="E438" t="s">
         <v>25</v>
@@ -15115,10 +15115,10 @@
         <v>11</v>
       </c>
       <c r="C439">
-        <v>2029</v>
+        <v>2048</v>
       </c>
       <c r="D439">
-        <v>3025255</v>
+        <v>3053755</v>
       </c>
       <c r="E439" t="s">
         <v>25</v>
@@ -15147,10 +15147,10 @@
         <v>11</v>
       </c>
       <c r="C440">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D440">
-        <v>775800</v>
+        <v>790144</v>
       </c>
       <c r="E440" t="s">
         <v>25</v>
@@ -15179,10 +15179,10 @@
         <v>11</v>
       </c>
       <c r="C441">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D441">
-        <v>109200</v>
+        <v>112200</v>
       </c>
       <c r="E441" t="s">
         <v>25</v>
@@ -15243,10 +15243,10 @@
         <v>11</v>
       </c>
       <c r="C443">
-        <v>2270</v>
+        <v>2291</v>
       </c>
       <c r="D443">
-        <v>3112956</v>
+        <v>3139329</v>
       </c>
       <c r="E443" t="s">
         <v>25</v>
@@ -15275,10 +15275,10 @@
         <v>11</v>
       </c>
       <c r="C444">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="D444">
-        <v>1119502</v>
+        <v>1128864</v>
       </c>
       <c r="E444" t="s">
         <v>25</v>
@@ -15307,10 +15307,10 @@
         <v>11</v>
       </c>
       <c r="C445">
-        <v>2319</v>
+        <v>2340</v>
       </c>
       <c r="D445">
-        <v>3424688</v>
+        <v>3456188</v>
       </c>
       <c r="E445" t="s">
         <v>25</v>
@@ -15339,10 +15339,10 @@
         <v>11</v>
       </c>
       <c r="C446">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="D446">
-        <v>1136106</v>
+        <v>1155215</v>
       </c>
       <c r="E446" t="s">
         <v>25</v>
@@ -15371,10 +15371,10 @@
         <v>11</v>
       </c>
       <c r="C447">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D447">
-        <v>323714</v>
+        <v>326714</v>
       </c>
       <c r="E447" t="s">
         <v>25</v>
@@ -15435,10 +15435,10 @@
         <v>11</v>
       </c>
       <c r="C449">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D449">
-        <v>3808</v>
+        <v>5308</v>
       </c>
       <c r="E449" t="s">
         <v>25</v>
@@ -15467,10 +15467,10 @@
         <v>11</v>
       </c>
       <c r="C450">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="D450">
-        <v>1096700</v>
+        <v>1104046</v>
       </c>
       <c r="E450" t="s">
         <v>25</v>
@@ -15499,10 +15499,10 @@
         <v>11</v>
       </c>
       <c r="C451">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D451">
-        <v>461264</v>
+        <v>468764</v>
       </c>
       <c r="E451" t="s">
         <v>26</v>
@@ -15531,10 +15531,10 @@
         <v>11</v>
       </c>
       <c r="C452">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="D452">
-        <v>1676576</v>
+        <v>1694576</v>
       </c>
       <c r="E452" t="s">
         <v>26</v>
@@ -15563,10 +15563,10 @@
         <v>11</v>
       </c>
       <c r="C453">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D453">
-        <v>594301</v>
+        <v>602515</v>
       </c>
       <c r="E453" t="s">
         <v>26</v>
@@ -15595,10 +15595,10 @@
         <v>11</v>
       </c>
       <c r="C454">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D454">
-        <v>148041</v>
+        <v>153945</v>
       </c>
       <c r="E454" t="s">
         <v>26</v>
@@ -15659,10 +15659,10 @@
         <v>11</v>
       </c>
       <c r="C456">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D456">
-        <v>690406</v>
+        <v>693406</v>
       </c>
       <c r="E456" t="s">
         <v>26</v>
@@ -15691,10 +15691,10 @@
         <v>11</v>
       </c>
       <c r="C457">
-        <v>1714</v>
+        <v>1719</v>
       </c>
       <c r="D457">
-        <v>2479464</v>
+        <v>2486964</v>
       </c>
       <c r="E457" t="s">
         <v>26</v>
@@ -15723,10 +15723,10 @@
         <v>11</v>
       </c>
       <c r="C458">
-        <v>3273</v>
+        <v>3295</v>
       </c>
       <c r="D458">
-        <v>4825974</v>
+        <v>4856670</v>
       </c>
       <c r="E458" t="s">
         <v>26</v>
@@ -15755,10 +15755,10 @@
         <v>11</v>
       </c>
       <c r="C459">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="D459">
-        <v>1480349</v>
+        <v>1486818</v>
       </c>
       <c r="E459" t="s">
         <v>26</v>
@@ -15787,10 +15787,10 @@
         <v>11</v>
       </c>
       <c r="C460">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D460">
-        <v>391014</v>
+        <v>394014</v>
       </c>
       <c r="E460" t="s">
         <v>26</v>
@@ -15883,10 +15883,10 @@
         <v>11</v>
       </c>
       <c r="C463">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="D463">
-        <v>1548833</v>
+        <v>1556687</v>
       </c>
       <c r="E463" t="s">
         <v>26</v>
@@ -15915,10 +15915,10 @@
         <v>11</v>
       </c>
       <c r="C464">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="D464">
-        <v>1555954</v>
+        <v>1565041</v>
       </c>
       <c r="E464" t="s">
         <v>26</v>
@@ -15947,10 +15947,10 @@
         <v>11</v>
       </c>
       <c r="C465">
-        <v>2330</v>
+        <v>2364</v>
       </c>
       <c r="D465">
-        <v>3432152</v>
+        <v>3482482</v>
       </c>
       <c r="E465" t="s">
         <v>26</v>
@@ -15979,10 +15979,10 @@
         <v>11</v>
       </c>
       <c r="C466">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="D466">
-        <v>1037790</v>
+        <v>1047590</v>
       </c>
       <c r="E466" t="s">
         <v>26</v>
@@ -16011,10 +16011,10 @@
         <v>11</v>
       </c>
       <c r="C467">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D467">
-        <v>267281</v>
+        <v>271781</v>
       </c>
       <c r="E467" t="s">
         <v>26</v>
@@ -16107,10 +16107,10 @@
         <v>11</v>
       </c>
       <c r="C470">
-        <v>1191</v>
+        <v>1203</v>
       </c>
       <c r="D470">
-        <v>1613661</v>
+        <v>1628227</v>
       </c>
       <c r="E470" t="s">
         <v>26</v>
@@ -16139,10 +16139,10 @@
         <v>11</v>
       </c>
       <c r="C471">
-        <v>2776</v>
+        <v>2803</v>
       </c>
       <c r="D471">
-        <v>4044965</v>
+        <v>4082826</v>
       </c>
       <c r="E471" t="s">
         <v>26</v>
@@ -16171,10 +16171,10 @@
         <v>11</v>
       </c>
       <c r="C472">
-        <v>6683</v>
+        <v>6748</v>
       </c>
       <c r="D472">
-        <v>9850071</v>
+        <v>9944029</v>
       </c>
       <c r="E472" t="s">
         <v>26</v>
@@ -16203,10 +16203,10 @@
         <v>11</v>
       </c>
       <c r="C473">
-        <v>1914</v>
+        <v>1937</v>
       </c>
       <c r="D473">
-        <v>2851957</v>
+        <v>2885823</v>
       </c>
       <c r="E473" t="s">
         <v>26</v>
@@ -16235,10 +16235,10 @@
         <v>11</v>
       </c>
       <c r="C474">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D474">
-        <v>623856</v>
+        <v>630844</v>
       </c>
       <c r="E474" t="s">
         <v>26</v>
@@ -16267,10 +16267,10 @@
         <v>11</v>
       </c>
       <c r="C475">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D475">
-        <v>93000</v>
+        <v>94500</v>
       </c>
       <c r="E475" t="s">
         <v>26</v>
@@ -16299,10 +16299,10 @@
         <v>11</v>
       </c>
       <c r="C476">
-        <v>2504</v>
+        <v>2518</v>
       </c>
       <c r="D476">
-        <v>3385735</v>
+        <v>3404908</v>
       </c>
       <c r="E476" t="s">
         <v>26</v>
@@ -16331,10 +16331,10 @@
         <v>11</v>
       </c>
       <c r="C477">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="D477">
-        <v>912697</v>
+        <v>929197</v>
       </c>
       <c r="E477" t="s">
         <v>26</v>
@@ -16363,10 +16363,10 @@
         <v>11</v>
       </c>
       <c r="C478">
-        <v>1447</v>
+        <v>1462</v>
       </c>
       <c r="D478">
-        <v>2126302</v>
+        <v>2146328</v>
       </c>
       <c r="E478" t="s">
         <v>26</v>
@@ -16395,10 +16395,10 @@
         <v>11</v>
       </c>
       <c r="C479">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D479">
-        <v>684918</v>
+        <v>690918</v>
       </c>
       <c r="E479" t="s">
         <v>26</v>
@@ -16459,10 +16459,10 @@
         <v>11</v>
       </c>
       <c r="C481">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D481">
-        <v>32714</v>
+        <v>37214</v>
       </c>
       <c r="E481" t="s">
         <v>26</v>
@@ -16491,10 +16491,10 @@
         <v>11</v>
       </c>
       <c r="C482">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="D482">
-        <v>1007289</v>
+        <v>1022379</v>
       </c>
       <c r="E482" t="s">
         <v>26</v>
@@ -16523,10 +16523,10 @@
         <v>11</v>
       </c>
       <c r="C483">
-        <v>3901</v>
+        <v>3941</v>
       </c>
       <c r="D483">
-        <v>5690471</v>
+        <v>5749174</v>
       </c>
       <c r="E483" t="s">
         <v>26</v>
@@ -16555,10 +16555,10 @@
         <v>11</v>
       </c>
       <c r="C484">
-        <v>9598</v>
+        <v>9686</v>
       </c>
       <c r="D484">
-        <v>14186613</v>
+        <v>14311573</v>
       </c>
       <c r="E484" t="s">
         <v>26</v>
@@ -16587,10 +16587,10 @@
         <v>11</v>
       </c>
       <c r="C485">
-        <v>3383</v>
+        <v>3422</v>
       </c>
       <c r="D485">
-        <v>5051513</v>
+        <v>5108742</v>
       </c>
       <c r="E485" t="s">
         <v>26</v>
@@ -16619,10 +16619,10 @@
         <v>11</v>
       </c>
       <c r="C486">
-        <v>993</v>
+        <v>1004</v>
       </c>
       <c r="D486">
-        <v>1487327</v>
+        <v>1503827</v>
       </c>
       <c r="E486" t="s">
         <v>26</v>
@@ -16651,10 +16651,10 @@
         <v>11</v>
       </c>
       <c r="C487">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D487">
-        <v>258000</v>
+        <v>264000</v>
       </c>
       <c r="E487" t="s">
         <v>26</v>
@@ -16715,10 +16715,10 @@
         <v>11</v>
       </c>
       <c r="C489">
-        <v>3789</v>
+        <v>3826</v>
       </c>
       <c r="D489">
-        <v>5168906</v>
+        <v>5214191</v>
       </c>
       <c r="E489" t="s">
         <v>26</v>
@@ -16747,10 +16747,10 @@
         <v>11</v>
       </c>
       <c r="C490">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="D490">
-        <v>1160532</v>
+        <v>1170593</v>
       </c>
       <c r="E490" t="s">
         <v>26</v>
@@ -16779,10 +16779,10 @@
         <v>11</v>
       </c>
       <c r="C491">
-        <v>2029</v>
+        <v>2055</v>
       </c>
       <c r="D491">
-        <v>2988040</v>
+        <v>3026449</v>
       </c>
       <c r="E491" t="s">
         <v>26</v>
@@ -16811,10 +16811,10 @@
         <v>11</v>
       </c>
       <c r="C492">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="D492">
-        <v>981327</v>
+        <v>990327</v>
       </c>
       <c r="E492" t="s">
         <v>26</v>
@@ -16843,10 +16843,10 @@
         <v>11</v>
       </c>
       <c r="C493">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D493">
-        <v>227494</v>
+        <v>233494</v>
       </c>
       <c r="E493" t="s">
         <v>26</v>
@@ -16907,10 +16907,10 @@
         <v>11</v>
       </c>
       <c r="C495">
-        <v>1091</v>
+        <v>1100</v>
       </c>
       <c r="D495">
-        <v>1480233</v>
+        <v>1492555</v>
       </c>
       <c r="E495" t="s">
         <v>26</v>
@@ -16939,10 +16939,10 @@
         <v>11</v>
       </c>
       <c r="C496">
-        <v>5233</v>
+        <v>5267</v>
       </c>
       <c r="D496">
-        <v>7611031</v>
+        <v>7659613</v>
       </c>
       <c r="E496" t="s">
         <v>26</v>
@@ -16971,10 +16971,10 @@
         <v>11</v>
       </c>
       <c r="C497">
-        <v>11759</v>
+        <v>11859</v>
       </c>
       <c r="D497">
-        <v>17324449</v>
+        <v>17470251</v>
       </c>
       <c r="E497" t="s">
         <v>26</v>
@@ -17003,10 +17003,10 @@
         <v>11</v>
       </c>
       <c r="C498">
-        <v>3577</v>
+        <v>3628</v>
       </c>
       <c r="D498">
-        <v>5339436</v>
+        <v>5415936</v>
       </c>
       <c r="E498" t="s">
         <v>26</v>
@@ -17035,10 +17035,10 @@
         <v>11</v>
       </c>
       <c r="C499">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="D499">
-        <v>1346838</v>
+        <v>1360338</v>
       </c>
       <c r="E499" t="s">
         <v>26</v>
@@ -17067,10 +17067,10 @@
         <v>11</v>
       </c>
       <c r="C500">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D500">
-        <v>207200</v>
+        <v>211700</v>
       </c>
       <c r="E500" t="s">
         <v>26</v>
@@ -17131,10 +17131,10 @@
         <v>11</v>
       </c>
       <c r="C502">
-        <v>3757</v>
+        <v>3785</v>
       </c>
       <c r="D502">
-        <v>5093003</v>
+        <v>5130074</v>
       </c>
       <c r="E502" t="s">
         <v>26</v>
@@ -17163,10 +17163,10 @@
         <v>11</v>
       </c>
       <c r="C503">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="D503">
-        <v>1140679</v>
+        <v>1149794</v>
       </c>
       <c r="E503" t="s">
         <v>26</v>
@@ -17195,10 +17195,10 @@
         <v>11</v>
       </c>
       <c r="C504">
-        <v>1443</v>
+        <v>1462</v>
       </c>
       <c r="D504">
-        <v>2135298</v>
+        <v>2161107</v>
       </c>
       <c r="E504" t="s">
         <v>26</v>
@@ -17227,10 +17227,10 @@
         <v>11</v>
       </c>
       <c r="C505">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D505">
-        <v>591718</v>
+        <v>594718</v>
       </c>
       <c r="E505" t="s">
         <v>26</v>
@@ -17323,10 +17323,10 @@
         <v>11</v>
       </c>
       <c r="C508">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="D508">
-        <v>987480</v>
+        <v>994296</v>
       </c>
       <c r="E508" t="s">
         <v>26</v>
@@ -17355,10 +17355,10 @@
         <v>11</v>
       </c>
       <c r="C509">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D509">
-        <v>615051</v>
+        <v>618051</v>
       </c>
       <c r="E509" t="s">
         <v>26</v>
@@ -17387,10 +17387,10 @@
         <v>11</v>
       </c>
       <c r="C510">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="D510">
-        <v>945715</v>
+        <v>958051</v>
       </c>
       <c r="E510" t="s">
         <v>26</v>
@@ -17419,10 +17419,10 @@
         <v>11</v>
       </c>
       <c r="C511">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D511">
-        <v>278456</v>
+        <v>283792</v>
       </c>
       <c r="E511" t="s">
         <v>26</v>
@@ -17451,10 +17451,10 @@
         <v>11</v>
       </c>
       <c r="C512">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D512">
-        <v>51000</v>
+        <v>55500</v>
       </c>
       <c r="E512" t="s">
         <v>26</v>
@@ -17515,10 +17515,10 @@
         <v>11</v>
       </c>
       <c r="C514">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D514">
-        <v>391796</v>
+        <v>399240</v>
       </c>
       <c r="E514" t="s">
         <v>26</v>
@@ -17547,10 +17547,10 @@
         <v>11</v>
       </c>
       <c r="C515">
-        <v>2394</v>
+        <v>2420</v>
       </c>
       <c r="D515">
-        <v>3485606</v>
+        <v>3522781</v>
       </c>
       <c r="E515" t="s">
         <v>26</v>
@@ -17579,10 +17579,10 @@
         <v>11</v>
       </c>
       <c r="C516">
-        <v>4345</v>
+        <v>4396</v>
       </c>
       <c r="D516">
-        <v>6374169</v>
+        <v>6447084</v>
       </c>
       <c r="E516" t="s">
         <v>26</v>
@@ -17611,10 +17611,10 @@
         <v>11</v>
       </c>
       <c r="C517">
-        <v>1345</v>
+        <v>1367</v>
       </c>
       <c r="D517">
-        <v>2009240</v>
+        <v>2042240</v>
       </c>
       <c r="E517" t="s">
         <v>26</v>
@@ -17643,10 +17643,10 @@
         <v>11</v>
       </c>
       <c r="C518">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D518">
-        <v>531724</v>
+        <v>539224</v>
       </c>
       <c r="E518" t="s">
         <v>26</v>
@@ -17707,10 +17707,10 @@
         <v>11</v>
       </c>
       <c r="C520">
-        <v>1624</v>
+        <v>1639</v>
       </c>
       <c r="D520">
-        <v>2192523</v>
+        <v>2210139</v>
       </c>
       <c r="E520" t="s">
         <v>26</v>
@@ -17739,10 +17739,10 @@
         <v>11</v>
       </c>
       <c r="C521">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="D521">
-        <v>1552220</v>
+        <v>1571720</v>
       </c>
       <c r="E521" t="s">
         <v>26</v>
@@ -17771,10 +17771,10 @@
         <v>11</v>
       </c>
       <c r="C522">
-        <v>2771</v>
+        <v>2810</v>
       </c>
       <c r="D522">
-        <v>4100637</v>
+        <v>4157773</v>
       </c>
       <c r="E522" t="s">
         <v>26</v>
@@ -17803,10 +17803,10 @@
         <v>11</v>
       </c>
       <c r="C523">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="D523">
-        <v>1197057</v>
+        <v>1219557</v>
       </c>
       <c r="E523" t="s">
         <v>26</v>
@@ -17835,10 +17835,10 @@
         <v>11</v>
       </c>
       <c r="C524">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D524">
-        <v>253300</v>
+        <v>262300</v>
       </c>
       <c r="E524" t="s">
         <v>26</v>
@@ -17899,10 +17899,10 @@
         <v>11</v>
       </c>
       <c r="C526">
-        <v>1115</v>
+        <v>1124</v>
       </c>
       <c r="D526">
-        <v>1512065</v>
+        <v>1521068</v>
       </c>
       <c r="E526" t="s">
         <v>26</v>
@@ -17931,10 +17931,10 @@
         <v>11</v>
       </c>
       <c r="C527">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="D527">
-        <v>1016548</v>
+        <v>1028548</v>
       </c>
       <c r="E527" t="s">
         <v>26</v>
@@ -17963,10 +17963,10 @@
         <v>11</v>
       </c>
       <c r="C528">
-        <v>1778</v>
+        <v>1799</v>
       </c>
       <c r="D528">
-        <v>2624378</v>
+        <v>2655367</v>
       </c>
       <c r="E528" t="s">
         <v>26</v>
@@ -17995,10 +17995,10 @@
         <v>11</v>
       </c>
       <c r="C529">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="D529">
-        <v>782808</v>
+        <v>798646</v>
       </c>
       <c r="E529" t="s">
         <v>26</v>
@@ -18027,10 +18027,10 @@
         <v>11</v>
       </c>
       <c r="C530">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D530">
-        <v>222000</v>
+        <v>223500</v>
       </c>
       <c r="E530" t="s">
         <v>26</v>
@@ -18123,10 +18123,10 @@
         <v>11</v>
       </c>
       <c r="C533">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="D533">
-        <v>1012698</v>
+        <v>1026475</v>
       </c>
       <c r="E533" t="s">
         <v>26</v>
@@ -18155,10 +18155,10 @@
         <v>11</v>
       </c>
       <c r="C534">
-        <v>3297</v>
+        <v>3318</v>
       </c>
       <c r="D534">
-        <v>4827759</v>
+        <v>4858042</v>
       </c>
       <c r="E534" t="s">
         <v>27</v>
@@ -18187,10 +18187,10 @@
         <v>11</v>
       </c>
       <c r="C535">
-        <v>8299</v>
+        <v>8373</v>
       </c>
       <c r="D535">
-        <v>12302042</v>
+        <v>12409545</v>
       </c>
       <c r="E535" t="s">
         <v>27</v>
@@ -18219,10 +18219,10 @@
         <v>11</v>
       </c>
       <c r="C536">
-        <v>3035</v>
+        <v>3077</v>
       </c>
       <c r="D536">
-        <v>4535109</v>
+        <v>4596778</v>
       </c>
       <c r="E536" t="s">
         <v>27</v>
@@ -18251,10 +18251,10 @@
         <v>11</v>
       </c>
       <c r="C537">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="D537">
-        <v>1119396</v>
+        <v>1136845</v>
       </c>
       <c r="E537" t="s">
         <v>27</v>
@@ -18283,10 +18283,10 @@
         <v>11</v>
       </c>
       <c r="C538">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D538">
-        <v>176728</v>
+        <v>179728</v>
       </c>
       <c r="E538" t="s">
         <v>27</v>
@@ -18347,10 +18347,10 @@
         <v>11</v>
       </c>
       <c r="C540">
-        <v>2685</v>
+        <v>2702</v>
       </c>
       <c r="D540">
-        <v>3655812</v>
+        <v>3678919</v>
       </c>
       <c r="E540" t="s">
         <v>27</v>
@@ -18379,10 +18379,10 @@
         <v>11</v>
       </c>
       <c r="C541">
-        <v>1491</v>
+        <v>1499</v>
       </c>
       <c r="D541">
-        <v>2182161</v>
+        <v>2193122</v>
       </c>
       <c r="E541" t="s">
         <v>27</v>
@@ -18411,10 +18411,10 @@
         <v>11</v>
       </c>
       <c r="C542">
-        <v>4739</v>
+        <v>4789</v>
       </c>
       <c r="D542">
-        <v>7021449</v>
+        <v>7092506</v>
       </c>
       <c r="E542" t="s">
         <v>27</v>
@@ -18443,10 +18443,10 @@
         <v>11</v>
       </c>
       <c r="C543">
-        <v>1519</v>
+        <v>1546</v>
       </c>
       <c r="D543">
-        <v>2265232</v>
+        <v>2305004</v>
       </c>
       <c r="E543" t="s">
         <v>27</v>
@@ -18475,10 +18475,10 @@
         <v>11</v>
       </c>
       <c r="C544">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D544">
-        <v>587460</v>
+        <v>589592</v>
       </c>
       <c r="E544" t="s">
         <v>27</v>
@@ -18507,10 +18507,10 @@
         <v>11</v>
       </c>
       <c r="C545">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D545">
-        <v>78000</v>
+        <v>79500</v>
       </c>
       <c r="E545" t="s">
         <v>27</v>
@@ -18571,10 +18571,10 @@
         <v>11</v>
       </c>
       <c r="C547">
-        <v>1469</v>
+        <v>1482</v>
       </c>
       <c r="D547">
-        <v>2021574</v>
+        <v>2039148</v>
       </c>
       <c r="E547" t="s">
         <v>27</v>
@@ -18603,10 +18603,10 @@
         <v>11</v>
       </c>
       <c r="C548">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D548">
-        <v>906216</v>
+        <v>918216</v>
       </c>
       <c r="E548" t="s">
         <v>27</v>
@@ -18635,10 +18635,10 @@
         <v>11</v>
       </c>
       <c r="C549">
-        <v>1708</v>
+        <v>1723</v>
       </c>
       <c r="D549">
-        <v>2526501</v>
+        <v>2546729</v>
       </c>
       <c r="E549" t="s">
         <v>27</v>
@@ -18667,10 +18667,10 @@
         <v>11</v>
       </c>
       <c r="C550">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="D550">
-        <v>786526</v>
+        <v>804498</v>
       </c>
       <c r="E550" t="s">
         <v>27</v>
@@ -18699,10 +18699,10 @@
         <v>11</v>
       </c>
       <c r="C551">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D551">
-        <v>197918</v>
+        <v>205418</v>
       </c>
       <c r="E551" t="s">
         <v>27</v>
@@ -18795,10 +18795,10 @@
         <v>11</v>
       </c>
       <c r="C554">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D554">
-        <v>714931</v>
+        <v>722727</v>
       </c>
       <c r="E554" t="s">
         <v>27</v>
@@ -18827,10 +18827,10 @@
         <v>11</v>
       </c>
       <c r="C555">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="D555">
-        <v>1482308</v>
+        <v>1492711</v>
       </c>
       <c r="E555" t="s">
         <v>27</v>
@@ -18859,10 +18859,10 @@
         <v>11</v>
       </c>
       <c r="C556">
-        <v>2800</v>
+        <v>2829</v>
       </c>
       <c r="D556">
-        <v>4148411</v>
+        <v>4190607</v>
       </c>
       <c r="E556" t="s">
         <v>27</v>
@@ -18891,10 +18891,10 @@
         <v>11</v>
       </c>
       <c r="C557">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="D557">
-        <v>1384147</v>
+        <v>1399147</v>
       </c>
       <c r="E557" t="s">
         <v>27</v>
@@ -18923,10 +18923,10 @@
         <v>11</v>
       </c>
       <c r="C558">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D558">
-        <v>332199</v>
+        <v>335199</v>
       </c>
       <c r="E558" t="s">
         <v>27</v>
@@ -18987,10 +18987,10 @@
         <v>11</v>
       </c>
       <c r="C560">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="D560">
-        <v>1195684</v>
+        <v>1201891</v>
       </c>
       <c r="E560" t="s">
         <v>27</v>
@@ -19019,10 +19019,10 @@
         <v>11</v>
       </c>
       <c r="C561">
-        <v>2085</v>
+        <v>2094</v>
       </c>
       <c r="D561">
-        <v>3036882</v>
+        <v>3048798</v>
       </c>
       <c r="E561" t="s">
         <v>27</v>
@@ -19051,10 +19051,10 @@
         <v>11</v>
       </c>
       <c r="C562">
-        <v>4435</v>
+        <v>4464</v>
       </c>
       <c r="D562">
-        <v>6555521</v>
+        <v>6595826</v>
       </c>
       <c r="E562" t="s">
         <v>27</v>
@@ -19083,10 +19083,10 @@
         <v>11</v>
       </c>
       <c r="C563">
-        <v>1573</v>
+        <v>1588</v>
       </c>
       <c r="D563">
-        <v>2347035</v>
+        <v>2369387</v>
       </c>
       <c r="E563" t="s">
         <v>27</v>
@@ -19115,10 +19115,10 @@
         <v>11</v>
       </c>
       <c r="C564">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D564">
-        <v>518540</v>
+        <v>523040</v>
       </c>
       <c r="E564" t="s">
         <v>27</v>
@@ -19211,10 +19211,10 @@
         <v>11</v>
       </c>
       <c r="C567">
-        <v>1332</v>
+        <v>1349</v>
       </c>
       <c r="D567">
-        <v>1833083</v>
+        <v>1854213</v>
       </c>
       <c r="E567" t="s">
         <v>27</v>
@@ -19243,10 +19243,10 @@
         <v>11</v>
       </c>
       <c r="C568">
-        <v>5133</v>
+        <v>5170</v>
       </c>
       <c r="D568">
-        <v>7492552</v>
+        <v>7541960</v>
       </c>
       <c r="E568" t="s">
         <v>28</v>
@@ -19275,10 +19275,10 @@
         <v>11</v>
       </c>
       <c r="C569">
-        <v>12932</v>
+        <v>13053</v>
       </c>
       <c r="D569">
-        <v>19119351</v>
+        <v>19295774</v>
       </c>
       <c r="E569" t="s">
         <v>28</v>
@@ -19307,10 +19307,10 @@
         <v>11</v>
       </c>
       <c r="C570">
-        <v>3929</v>
+        <v>3969</v>
       </c>
       <c r="D570">
-        <v>5871731</v>
+        <v>5931306</v>
       </c>
       <c r="E570" t="s">
         <v>28</v>
@@ -19339,10 +19339,10 @@
         <v>11</v>
       </c>
       <c r="C571">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="D571">
-        <v>1593907</v>
+        <v>1607407</v>
       </c>
       <c r="E571" t="s">
         <v>28</v>
@@ -19371,10 +19371,10 @@
         <v>11</v>
       </c>
       <c r="C572">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D572">
-        <v>324458</v>
+        <v>328958</v>
       </c>
       <c r="E572" t="s">
         <v>28</v>
@@ -19435,10 +19435,10 @@
         <v>11</v>
       </c>
       <c r="C574">
-        <v>4494</v>
+        <v>4538</v>
       </c>
       <c r="D574">
-        <v>6242290</v>
+        <v>6297939</v>
       </c>
       <c r="E574" t="s">
         <v>28</v>
@@ -19467,10 +19467,10 @@
         <v>11</v>
       </c>
       <c r="C575">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="D575">
-        <v>1327627</v>
+        <v>1339652</v>
       </c>
       <c r="E575" t="s">
         <v>28</v>
@@ -19499,10 +19499,10 @@
         <v>11</v>
       </c>
       <c r="C576">
-        <v>1798</v>
+        <v>1812</v>
       </c>
       <c r="D576">
-        <v>2639413</v>
+        <v>2659836</v>
       </c>
       <c r="E576" t="s">
         <v>28</v>
@@ -19531,10 +19531,10 @@
         <v>11</v>
       </c>
       <c r="C577">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D577">
-        <v>788154</v>
+        <v>794159</v>
       </c>
       <c r="E577" t="s">
         <v>28</v>
@@ -19563,10 +19563,10 @@
         <v>11</v>
       </c>
       <c r="C578">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D578">
-        <v>143669</v>
+        <v>145169</v>
       </c>
       <c r="E578" t="s">
         <v>28</v>
@@ -19595,10 +19595,10 @@
         <v>11</v>
       </c>
       <c r="C579">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D579">
-        <v>33000</v>
+        <v>34500</v>
       </c>
       <c r="E579" t="s">
         <v>28</v>
@@ -19627,10 +19627,10 @@
         <v>11</v>
       </c>
       <c r="C580">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="D580">
-        <v>998791</v>
+        <v>1012945</v>
       </c>
       <c r="E580" t="s">
         <v>28</v>
@@ -19659,10 +19659,10 @@
         <v>11</v>
       </c>
       <c r="C581">
-        <v>6524</v>
+        <v>6580</v>
       </c>
       <c r="D581">
-        <v>9551352</v>
+        <v>9633328</v>
       </c>
       <c r="E581" t="s">
         <v>28</v>
@@ -19691,10 +19691,10 @@
         <v>11</v>
       </c>
       <c r="C582">
-        <v>18291</v>
+        <v>18476</v>
       </c>
       <c r="D582">
-        <v>27037117</v>
+        <v>27307197</v>
       </c>
       <c r="E582" t="s">
         <v>28</v>
@@ -19723,10 +19723,10 @@
         <v>11</v>
       </c>
       <c r="C583">
-        <v>5766</v>
+        <v>5837</v>
       </c>
       <c r="D583">
-        <v>8620008</v>
+        <v>8724959</v>
       </c>
       <c r="E583" t="s">
         <v>28</v>
@@ -19755,10 +19755,10 @@
         <v>11</v>
       </c>
       <c r="C584">
-        <v>1466</v>
+        <v>1480</v>
       </c>
       <c r="D584">
-        <v>2194176</v>
+        <v>2215176</v>
       </c>
       <c r="E584" t="s">
         <v>28</v>
@@ -19787,10 +19787,10 @@
         <v>11</v>
       </c>
       <c r="C585">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D585">
-        <v>468754</v>
+        <v>471754</v>
       </c>
       <c r="E585" t="s">
         <v>28</v>
@@ -19819,10 +19819,10 @@
         <v>11</v>
       </c>
       <c r="C586">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D586">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="E586" t="s">
         <v>28</v>
@@ -19883,10 +19883,10 @@
         <v>11</v>
       </c>
       <c r="C588">
-        <v>5936</v>
+        <v>5967</v>
       </c>
       <c r="D588">
-        <v>8157553</v>
+        <v>8199925</v>
       </c>
       <c r="E588" t="s">
         <v>28</v>
@@ -19915,10 +19915,10 @@
         <v>11</v>
       </c>
       <c r="C589">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="D589">
-        <v>1111732</v>
+        <v>1124580</v>
       </c>
       <c r="E589" t="s">
         <v>28</v>
@@ -19947,10 +19947,10 @@
         <v>11</v>
       </c>
       <c r="C590">
-        <v>1753</v>
+        <v>1771</v>
       </c>
       <c r="D590">
-        <v>2577078</v>
+        <v>2604078</v>
       </c>
       <c r="E590" t="s">
         <v>28</v>
@@ -19979,10 +19979,10 @@
         <v>11</v>
       </c>
       <c r="C591">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D591">
-        <v>988115</v>
+        <v>994115</v>
       </c>
       <c r="E591" t="s">
         <v>28</v>
@@ -20011,10 +20011,10 @@
         <v>11</v>
       </c>
       <c r="C592">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D592">
-        <v>284561</v>
+        <v>287561</v>
       </c>
       <c r="E592" t="s">
         <v>28</v>
@@ -20043,10 +20043,10 @@
         <v>11</v>
       </c>
       <c r="C593">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D593">
-        <v>84000</v>
+        <v>85500</v>
       </c>
       <c r="E593" t="s">
         <v>28</v>
@@ -20075,10 +20075,10 @@
         <v>11</v>
       </c>
       <c r="C594">
-        <v>1306</v>
+        <v>3</v>
       </c>
       <c r="D594">
-        <v>1832490</v>
+        <v>4500</v>
       </c>
       <c r="E594" t="s">
         <v>28</v>
@@ -20093,10 +20093,10 @@
         <v>216</v>
       </c>
       <c r="I594" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="J594" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="595" spans="1:10">
@@ -20107,10 +20107,10 @@
         <v>11</v>
       </c>
       <c r="C595">
-        <v>5533</v>
+        <v>1323</v>
       </c>
       <c r="D595">
-        <v>7972196</v>
+        <v>1853282</v>
       </c>
       <c r="E595" t="s">
         <v>28</v>
@@ -20119,16 +20119,16 @@
         <v>46</v>
       </c>
       <c r="G595" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H595" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I595" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J595" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="596" spans="1:10">
@@ -20139,10 +20139,10 @@
         <v>11</v>
       </c>
       <c r="C596">
-        <v>11243</v>
+        <v>5591</v>
       </c>
       <c r="D596">
-        <v>16528349</v>
+        <v>8055636</v>
       </c>
       <c r="E596" t="s">
         <v>28</v>
@@ -20157,10 +20157,10 @@
         <v>217</v>
       </c>
       <c r="I596" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J596" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="597" spans="1:10">
@@ -20171,10 +20171,10 @@
         <v>11</v>
       </c>
       <c r="C597">
-        <v>3109</v>
+        <v>11352</v>
       </c>
       <c r="D597">
-        <v>4641710</v>
+        <v>16679606</v>
       </c>
       <c r="E597" t="s">
         <v>28</v>
@@ -20189,10 +20189,10 @@
         <v>217</v>
       </c>
       <c r="I597" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J597" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="598" spans="1:10">
@@ -20203,10 +20203,10 @@
         <v>11</v>
       </c>
       <c r="C598">
-        <v>721</v>
+        <v>3139</v>
       </c>
       <c r="D598">
-        <v>1077438</v>
+        <v>4684863</v>
       </c>
       <c r="E598" t="s">
         <v>28</v>
@@ -20221,10 +20221,10 @@
         <v>217</v>
       </c>
       <c r="I598" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J598" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="599" spans="1:10">
@@ -20235,10 +20235,10 @@
         <v>11</v>
       </c>
       <c r="C599">
-        <v>105</v>
+        <v>726</v>
       </c>
       <c r="D599">
-        <v>157500</v>
+        <v>1084938</v>
       </c>
       <c r="E599" t="s">
         <v>28</v>
@@ -20253,10 +20253,10 @@
         <v>217</v>
       </c>
       <c r="I599" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J599" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="600" spans="1:10">
@@ -20267,10 +20267,10 @@
         <v>11</v>
       </c>
       <c r="C600">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="D600">
-        <v>10500</v>
+        <v>165000</v>
       </c>
       <c r="E600" t="s">
         <v>28</v>
@@ -20285,10 +20285,10 @@
         <v>217</v>
       </c>
       <c r="I600" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="J600" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="601" spans="1:10">
@@ -20299,10 +20299,10 @@
         <v>11</v>
       </c>
       <c r="C601">
-        <v>3588</v>
+        <v>7</v>
       </c>
       <c r="D601">
-        <v>4936568</v>
+        <v>10500</v>
       </c>
       <c r="E601" t="s">
         <v>28</v>
@@ -20317,10 +20317,10 @@
         <v>217</v>
       </c>
       <c r="I601" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="J601" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="602" spans="1:10">
@@ -20331,10 +20331,10 @@
         <v>11</v>
       </c>
       <c r="C602">
-        <v>2344</v>
+        <v>3623</v>
       </c>
       <c r="D602">
-        <v>3401781</v>
+        <v>4981858</v>
       </c>
       <c r="E602" t="s">
         <v>28</v>
@@ -20343,16 +20343,16 @@
         <v>46</v>
       </c>
       <c r="G602" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="H602" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I602" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J602" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="603" spans="1:10">
@@ -20363,10 +20363,10 @@
         <v>11</v>
       </c>
       <c r="C603">
-        <v>6191</v>
+        <v>2364</v>
       </c>
       <c r="D603">
-        <v>9130353</v>
+        <v>3431009</v>
       </c>
       <c r="E603" t="s">
         <v>28</v>
@@ -20381,10 +20381,10 @@
         <v>218</v>
       </c>
       <c r="I603" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J603" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="604" spans="1:10">
@@ -20395,10 +20395,10 @@
         <v>11</v>
       </c>
       <c r="C604">
-        <v>1700</v>
+        <v>6254</v>
       </c>
       <c r="D604">
-        <v>2537262</v>
+        <v>9223521</v>
       </c>
       <c r="E604" t="s">
         <v>28</v>
@@ -20413,10 +20413,10 @@
         <v>218</v>
       </c>
       <c r="I604" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J604" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="605" spans="1:10">
@@ -20427,10 +20427,10 @@
         <v>11</v>
       </c>
       <c r="C605">
-        <v>371</v>
+        <v>1718</v>
       </c>
       <c r="D605">
-        <v>555457</v>
+        <v>2564262</v>
       </c>
       <c r="E605" t="s">
         <v>28</v>
@@ -20445,10 +20445,10 @@
         <v>218</v>
       </c>
       <c r="I605" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J605" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="606" spans="1:10">
@@ -20459,10 +20459,10 @@
         <v>11</v>
       </c>
       <c r="C606">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="D606">
-        <v>118500</v>
+        <v>564594</v>
       </c>
       <c r="E606" t="s">
         <v>28</v>
@@ -20477,10 +20477,10 @@
         <v>218</v>
       </c>
       <c r="I606" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J606" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="607" spans="1:10">
@@ -20491,10 +20491,10 @@
         <v>11</v>
       </c>
       <c r="C607">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D607">
-        <v>7500</v>
+        <v>118500</v>
       </c>
       <c r="E607" t="s">
         <v>28</v>
@@ -20509,10 +20509,10 @@
         <v>218</v>
       </c>
       <c r="I607" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="J607" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="608" spans="1:10">
@@ -20523,10 +20523,10 @@
         <v>11</v>
       </c>
       <c r="C608">
-        <v>1978</v>
+        <v>5</v>
       </c>
       <c r="D608">
-        <v>2651464</v>
+        <v>7500</v>
       </c>
       <c r="E608" t="s">
         <v>28</v>
@@ -20541,10 +20541,10 @@
         <v>218</v>
       </c>
       <c r="I608" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="J608" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="609" spans="1:10">
@@ -20555,28 +20555,28 @@
         <v>11</v>
       </c>
       <c r="C609">
-        <v>2140</v>
+        <v>1990</v>
       </c>
       <c r="D609">
-        <v>3140925</v>
+        <v>2666770</v>
       </c>
       <c r="E609" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F609" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G609" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="H609" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I609" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J609" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="610" spans="1:10">
@@ -20587,10 +20587,10 @@
         <v>11</v>
       </c>
       <c r="C610">
-        <v>6527</v>
+        <v>2157</v>
       </c>
       <c r="D610">
-        <v>9695069</v>
+        <v>3166236</v>
       </c>
       <c r="E610" t="s">
         <v>29</v>
@@ -20605,10 +20605,10 @@
         <v>219</v>
       </c>
       <c r="I610" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J610" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="611" spans="1:10">
@@ -20619,10 +20619,10 @@
         <v>11</v>
       </c>
       <c r="C611">
-        <v>2575</v>
+        <v>6575</v>
       </c>
       <c r="D611">
-        <v>3849462</v>
+        <v>9763248</v>
       </c>
       <c r="E611" t="s">
         <v>29</v>
@@ -20637,10 +20637,10 @@
         <v>219</v>
       </c>
       <c r="I611" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J611" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="612" spans="1:10">
@@ -20651,10 +20651,10 @@
         <v>11</v>
       </c>
       <c r="C612">
-        <v>725</v>
+        <v>2612</v>
       </c>
       <c r="D612">
-        <v>1085310</v>
+        <v>3901117</v>
       </c>
       <c r="E612" t="s">
         <v>29</v>
@@ -20669,10 +20669,10 @@
         <v>219</v>
       </c>
       <c r="I612" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J612" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="613" spans="1:10">
@@ -20683,10 +20683,10 @@
         <v>11</v>
       </c>
       <c r="C613">
-        <v>109</v>
+        <v>741</v>
       </c>
       <c r="D613">
-        <v>163301</v>
+        <v>1109310</v>
       </c>
       <c r="E613" t="s">
         <v>29</v>
@@ -20701,10 +20701,10 @@
         <v>219</v>
       </c>
       <c r="I613" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J613" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="614" spans="1:10">
@@ -20715,10 +20715,10 @@
         <v>11</v>
       </c>
       <c r="C614">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="D614">
-        <v>15000</v>
+        <v>167801</v>
       </c>
       <c r="E614" t="s">
         <v>29</v>
@@ -20733,10 +20733,10 @@
         <v>219</v>
       </c>
       <c r="I614" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="J614" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="615" spans="1:10">
@@ -20747,10 +20747,10 @@
         <v>11</v>
       </c>
       <c r="C615">
-        <v>2086</v>
+        <v>10</v>
       </c>
       <c r="D615">
-        <v>2929510</v>
+        <v>15000</v>
       </c>
       <c r="E615" t="s">
         <v>29</v>
@@ -20765,10 +20765,10 @@
         <v>219</v>
       </c>
       <c r="I615" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="J615" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="616" spans="1:10">
@@ -20779,10 +20779,10 @@
         <v>11</v>
       </c>
       <c r="C616">
-        <v>3587</v>
+        <v>2110</v>
       </c>
       <c r="D616">
-        <v>5268819</v>
+        <v>2961787</v>
       </c>
       <c r="E616" t="s">
         <v>29</v>
@@ -20791,16 +20791,16 @@
         <v>47</v>
       </c>
       <c r="G616" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H616" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I616" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J616" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="617" spans="1:10">
@@ -20811,10 +20811,10 @@
         <v>11</v>
       </c>
       <c r="C617">
-        <v>9323</v>
+        <v>3629</v>
       </c>
       <c r="D617">
-        <v>13801822</v>
+        <v>5330588</v>
       </c>
       <c r="E617" t="s">
         <v>29</v>
@@ -20829,10 +20829,10 @@
         <v>220</v>
       </c>
       <c r="I617" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J617" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="618" spans="1:10">
@@ -20843,10 +20843,10 @@
         <v>11</v>
       </c>
       <c r="C618">
-        <v>4311</v>
+        <v>9417</v>
       </c>
       <c r="D618">
-        <v>6450581</v>
+        <v>13939533</v>
       </c>
       <c r="E618" t="s">
         <v>29</v>
@@ -20861,10 +20861,10 @@
         <v>220</v>
       </c>
       <c r="I618" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J618" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="619" spans="1:10">
@@ -20875,10 +20875,10 @@
         <v>11</v>
       </c>
       <c r="C619">
-        <v>1298</v>
+        <v>4366</v>
       </c>
       <c r="D619">
-        <v>1943554</v>
+        <v>6532033</v>
       </c>
       <c r="E619" t="s">
         <v>29</v>
@@ -20893,10 +20893,10 @@
         <v>220</v>
       </c>
       <c r="I619" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J619" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="620" spans="1:10">
@@ -20907,10 +20907,10 @@
         <v>11</v>
       </c>
       <c r="C620">
-        <v>250</v>
+        <v>1310</v>
       </c>
       <c r="D620">
-        <v>375000</v>
+        <v>1961554</v>
       </c>
       <c r="E620" t="s">
         <v>29</v>
@@ -20925,10 +20925,10 @@
         <v>220</v>
       </c>
       <c r="I620" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J620" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="621" spans="1:10">
@@ -20939,10 +20939,10 @@
         <v>11</v>
       </c>
       <c r="C621">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="D621">
-        <v>22500</v>
+        <v>382500</v>
       </c>
       <c r="E621" t="s">
         <v>29</v>
@@ -20957,10 +20957,10 @@
         <v>220</v>
       </c>
       <c r="I621" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="J621" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="622" spans="1:10">
@@ -20971,10 +20971,10 @@
         <v>11</v>
       </c>
       <c r="C622">
-        <v>3251</v>
+        <v>15</v>
       </c>
       <c r="D622">
-        <v>4562609</v>
+        <v>22500</v>
       </c>
       <c r="E622" t="s">
         <v>29</v>
@@ -20989,10 +20989,10 @@
         <v>220</v>
       </c>
       <c r="I622" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="J622" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="623" spans="1:10">
@@ -21003,10 +21003,10 @@
         <v>11</v>
       </c>
       <c r="C623">
-        <v>10329</v>
+        <v>3281</v>
       </c>
       <c r="D623">
-        <v>15095802</v>
+        <v>4600915</v>
       </c>
       <c r="E623" t="s">
         <v>29</v>
@@ -21015,16 +21015,16 @@
         <v>47</v>
       </c>
       <c r="G623" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="H623" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I623" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J623" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="624" spans="1:10">
@@ -21035,10 +21035,10 @@
         <v>11</v>
       </c>
       <c r="C624">
-        <v>30046</v>
+        <v>10440</v>
       </c>
       <c r="D624">
-        <v>44541039</v>
+        <v>15257898</v>
       </c>
       <c r="E624" t="s">
         <v>29</v>
@@ -21053,10 +21053,10 @@
         <v>221</v>
       </c>
       <c r="I624" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J624" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="625" spans="1:10">
@@ -21067,10 +21067,10 @@
         <v>11</v>
       </c>
       <c r="C625">
-        <v>14087</v>
+        <v>30338</v>
       </c>
       <c r="D625">
-        <v>21084549</v>
+        <v>44966643</v>
       </c>
       <c r="E625" t="s">
         <v>29</v>
@@ -21085,10 +21085,10 @@
         <v>221</v>
       </c>
       <c r="I625" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J625" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="626" spans="1:10">
@@ -21099,10 +21099,10 @@
         <v>11</v>
       </c>
       <c r="C626">
-        <v>4943</v>
+        <v>14274</v>
       </c>
       <c r="D626">
-        <v>7406784</v>
+        <v>21362695</v>
       </c>
       <c r="E626" t="s">
         <v>29</v>
@@ -21117,10 +21117,10 @@
         <v>221</v>
       </c>
       <c r="I626" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J626" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="627" spans="1:10">
@@ -21131,10 +21131,10 @@
         <v>11</v>
       </c>
       <c r="C627">
-        <v>1056</v>
+        <v>5001</v>
       </c>
       <c r="D627">
-        <v>1583750</v>
+        <v>7493144</v>
       </c>
       <c r="E627" t="s">
         <v>29</v>
@@ -21149,10 +21149,10 @@
         <v>221</v>
       </c>
       <c r="I627" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J627" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="628" spans="1:10">
@@ -21163,10 +21163,10 @@
         <v>11</v>
       </c>
       <c r="C628">
-        <v>52</v>
+        <v>1077</v>
       </c>
       <c r="D628">
-        <v>78000</v>
+        <v>1614813</v>
       </c>
       <c r="E628" t="s">
         <v>29</v>
@@ -21181,10 +21181,10 @@
         <v>221</v>
       </c>
       <c r="I628" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="J628" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="629" spans="1:10">
@@ -21195,10 +21195,10 @@
         <v>11</v>
       </c>
       <c r="C629">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D629">
-        <v>6000</v>
+        <v>78000</v>
       </c>
       <c r="E629" t="s">
         <v>29</v>
@@ -21213,10 +21213,10 @@
         <v>221</v>
       </c>
       <c r="I629" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="J629" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="630" spans="1:10">
@@ -21227,10 +21227,10 @@
         <v>11</v>
       </c>
       <c r="C630">
-        <v>10051</v>
+        <v>4</v>
       </c>
       <c r="D630">
-        <v>14029071</v>
+        <v>6000</v>
       </c>
       <c r="E630" t="s">
         <v>29</v>
@@ -21245,10 +21245,10 @@
         <v>221</v>
       </c>
       <c r="I630" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="J630" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="631" spans="1:10">
@@ -21259,10 +21259,10 @@
         <v>11</v>
       </c>
       <c r="C631">
-        <v>2878</v>
+        <v>10153</v>
       </c>
       <c r="D631">
-        <v>4208842</v>
+        <v>14164649</v>
       </c>
       <c r="E631" t="s">
         <v>29</v>
@@ -21271,16 +21271,16 @@
         <v>47</v>
       </c>
       <c r="G631" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H631" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I631" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J631" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="632" spans="1:10">
@@ -21291,10 +21291,10 @@
         <v>11</v>
       </c>
       <c r="C632">
-        <v>10873</v>
+        <v>2920</v>
       </c>
       <c r="D632">
-        <v>16100453</v>
+        <v>4270278</v>
       </c>
       <c r="E632" t="s">
         <v>29</v>
@@ -21309,10 +21309,10 @@
         <v>222</v>
       </c>
       <c r="I632" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J632" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="633" spans="1:10">
@@ -21323,10 +21323,10 @@
         <v>11</v>
       </c>
       <c r="C633">
-        <v>5259</v>
+        <v>10997</v>
       </c>
       <c r="D633">
-        <v>7854219</v>
+        <v>16280892</v>
       </c>
       <c r="E633" t="s">
         <v>29</v>
@@ -21341,10 +21341,10 @@
         <v>222</v>
       </c>
       <c r="I633" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J633" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="634" spans="1:10">
@@ -21355,10 +21355,10 @@
         <v>11</v>
       </c>
       <c r="C634">
-        <v>1499</v>
+        <v>5327</v>
       </c>
       <c r="D634">
-        <v>2244881</v>
+        <v>7956183</v>
       </c>
       <c r="E634" t="s">
         <v>29</v>
@@ -21373,10 +21373,10 @@
         <v>222</v>
       </c>
       <c r="I634" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J634" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="635" spans="1:10">
@@ -21387,10 +21387,10 @@
         <v>11</v>
       </c>
       <c r="C635">
-        <v>333</v>
+        <v>1514</v>
       </c>
       <c r="D635">
-        <v>498201</v>
+        <v>2267381</v>
       </c>
       <c r="E635" t="s">
         <v>29</v>
@@ -21405,10 +21405,10 @@
         <v>222</v>
       </c>
       <c r="I635" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J635" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="636" spans="1:10">
@@ -21419,10 +21419,10 @@
         <v>11</v>
       </c>
       <c r="C636">
-        <v>17</v>
+        <v>336</v>
       </c>
       <c r="D636">
-        <v>25500</v>
+        <v>502701</v>
       </c>
       <c r="E636" t="s">
         <v>29</v>
@@ -21437,10 +21437,10 @@
         <v>222</v>
       </c>
       <c r="I636" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="J636" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="637" spans="1:10">
@@ -21451,10 +21451,10 @@
         <v>11</v>
       </c>
       <c r="C637">
-        <v>3024</v>
+        <v>17</v>
       </c>
       <c r="D637">
-        <v>4213046</v>
+        <v>25500</v>
       </c>
       <c r="E637" t="s">
         <v>29</v>
@@ -21469,10 +21469,10 @@
         <v>222</v>
       </c>
       <c r="I637" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="J637" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="638" spans="1:10">
@@ -21483,10 +21483,10 @@
         <v>11</v>
       </c>
       <c r="C638">
-        <v>2640</v>
+        <v>3045</v>
       </c>
       <c r="D638">
-        <v>3861332</v>
+        <v>4241675</v>
       </c>
       <c r="E638" t="s">
         <v>29</v>
@@ -21495,16 +21495,16 @@
         <v>47</v>
       </c>
       <c r="G638" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="H638" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I638" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J638" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="639" spans="1:10">
@@ -21515,10 +21515,10 @@
         <v>11</v>
       </c>
       <c r="C639">
-        <v>7880</v>
+        <v>2666</v>
       </c>
       <c r="D639">
-        <v>11670283</v>
+        <v>3899086</v>
       </c>
       <c r="E639" t="s">
         <v>29</v>
@@ -21533,10 +21533,10 @@
         <v>223</v>
       </c>
       <c r="I639" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J639" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="640" spans="1:10">
@@ -21547,10 +21547,10 @@
         <v>11</v>
       </c>
       <c r="C640">
-        <v>3063</v>
+        <v>7965</v>
       </c>
       <c r="D640">
-        <v>4566703</v>
+        <v>11796471</v>
       </c>
       <c r="E640" t="s">
         <v>29</v>
@@ -21565,10 +21565,10 @@
         <v>223</v>
       </c>
       <c r="I640" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J640" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="641" spans="1:10">
@@ -21579,10 +21579,10 @@
         <v>11</v>
       </c>
       <c r="C641">
-        <v>891</v>
+        <v>3094</v>
       </c>
       <c r="D641">
-        <v>1335000</v>
+        <v>4613203</v>
       </c>
       <c r="E641" t="s">
         <v>29</v>
@@ -21597,10 +21597,10 @@
         <v>223</v>
       </c>
       <c r="I641" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J641" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="642" spans="1:10">
@@ -21611,10 +21611,10 @@
         <v>11</v>
       </c>
       <c r="C642">
-        <v>146</v>
+        <v>898</v>
       </c>
       <c r="D642">
-        <v>219000</v>
+        <v>1345500</v>
       </c>
       <c r="E642" t="s">
         <v>29</v>
@@ -21629,10 +21629,10 @@
         <v>223</v>
       </c>
       <c r="I642" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J642" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="643" spans="1:10">
@@ -21643,10 +21643,10 @@
         <v>11</v>
       </c>
       <c r="C643">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="D643">
-        <v>4500</v>
+        <v>222000</v>
       </c>
       <c r="E643" t="s">
         <v>29</v>
@@ -21661,10 +21661,10 @@
         <v>223</v>
       </c>
       <c r="I643" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="J643" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="644" spans="1:10">
@@ -21675,10 +21675,10 @@
         <v>11</v>
       </c>
       <c r="C644">
-        <v>2526</v>
+        <v>3</v>
       </c>
       <c r="D644">
-        <v>3506016</v>
+        <v>4500</v>
       </c>
       <c r="E644" t="s">
         <v>29</v>
@@ -21693,10 +21693,10 @@
         <v>223</v>
       </c>
       <c r="I644" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="J644" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="645" spans="1:10">
@@ -21707,10 +21707,10 @@
         <v>11</v>
       </c>
       <c r="C645">
-        <v>2119</v>
+        <v>2548</v>
       </c>
       <c r="D645">
-        <v>3113521</v>
+        <v>3536199</v>
       </c>
       <c r="E645" t="s">
         <v>29</v>
@@ -21719,16 +21719,16 @@
         <v>47</v>
       </c>
       <c r="G645" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H645" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I645" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J645" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="646" spans="1:10">
@@ -21739,10 +21739,10 @@
         <v>11</v>
       </c>
       <c r="C646">
-        <v>7005</v>
+        <v>2149</v>
       </c>
       <c r="D646">
-        <v>10383801</v>
+        <v>3158120</v>
       </c>
       <c r="E646" t="s">
         <v>29</v>
@@ -21757,10 +21757,10 @@
         <v>224</v>
       </c>
       <c r="I646" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J646" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="647" spans="1:10">
@@ -21771,10 +21771,10 @@
         <v>11</v>
       </c>
       <c r="C647">
-        <v>2998</v>
+        <v>7068</v>
       </c>
       <c r="D647">
-        <v>4475081</v>
+        <v>10474794</v>
       </c>
       <c r="E647" t="s">
         <v>29</v>
@@ -21789,10 +21789,10 @@
         <v>224</v>
       </c>
       <c r="I647" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J647" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="648" spans="1:10">
@@ -21803,10 +21803,10 @@
         <v>11</v>
       </c>
       <c r="C648">
-        <v>830</v>
+        <v>3038</v>
       </c>
       <c r="D648">
-        <v>1242916</v>
+        <v>4535081</v>
       </c>
       <c r="E648" t="s">
         <v>29</v>
@@ -21821,10 +21821,10 @@
         <v>224</v>
       </c>
       <c r="I648" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J648" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="649" spans="1:10">
@@ -21835,10 +21835,10 @@
         <v>11</v>
       </c>
       <c r="C649">
-        <v>164</v>
+        <v>842</v>
       </c>
       <c r="D649">
-        <v>243900</v>
+        <v>1260916</v>
       </c>
       <c r="E649" t="s">
         <v>29</v>
@@ -21853,10 +21853,10 @@
         <v>224</v>
       </c>
       <c r="I649" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J649" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="650" spans="1:10">
@@ -21867,10 +21867,10 @@
         <v>11</v>
       </c>
       <c r="C650">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D650">
-        <v>18000</v>
+        <v>249900</v>
       </c>
       <c r="E650" t="s">
         <v>29</v>
@@ -21885,10 +21885,10 @@
         <v>224</v>
       </c>
       <c r="I650" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="J650" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="651" spans="1:10">
@@ -21899,10 +21899,10 @@
         <v>11</v>
       </c>
       <c r="C651">
-        <v>2222</v>
+        <v>12</v>
       </c>
       <c r="D651">
-        <v>3085148</v>
+        <v>18000</v>
       </c>
       <c r="E651" t="s">
         <v>29</v>
@@ -21917,10 +21917,10 @@
         <v>224</v>
       </c>
       <c r="I651" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="J651" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="652" spans="1:10">
@@ -21931,10 +21931,10 @@
         <v>11</v>
       </c>
       <c r="C652">
-        <v>2740</v>
+        <v>2239</v>
       </c>
       <c r="D652">
-        <v>4026942</v>
+        <v>3106053</v>
       </c>
       <c r="E652" t="s">
         <v>29</v>
@@ -21943,16 +21943,16 @@
         <v>47</v>
       </c>
       <c r="G652" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="H652" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I652" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J652" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="653" spans="1:10">
@@ -21963,10 +21963,10 @@
         <v>11</v>
       </c>
       <c r="C653">
-        <v>8361</v>
+        <v>2770</v>
       </c>
       <c r="D653">
-        <v>12383798</v>
+        <v>4070077</v>
       </c>
       <c r="E653" t="s">
         <v>29</v>
@@ -21981,10 +21981,10 @@
         <v>225</v>
       </c>
       <c r="I653" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J653" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="654" spans="1:10">
@@ -21995,10 +21995,10 @@
         <v>11</v>
       </c>
       <c r="C654">
-        <v>3540</v>
+        <v>8445</v>
       </c>
       <c r="D654">
-        <v>5289213</v>
+        <v>12506808</v>
       </c>
       <c r="E654" t="s">
         <v>29</v>
@@ -22013,10 +22013,10 @@
         <v>225</v>
       </c>
       <c r="I654" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J654" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="655" spans="1:10">
@@ -22027,10 +22027,10 @@
         <v>11</v>
       </c>
       <c r="C655">
-        <v>977</v>
+        <v>3585</v>
       </c>
       <c r="D655">
-        <v>1461606</v>
+        <v>5356038</v>
       </c>
       <c r="E655" t="s">
         <v>29</v>
@@ -22045,10 +22045,10 @@
         <v>225</v>
       </c>
       <c r="I655" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J655" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="656" spans="1:10">
@@ -22059,10 +22059,10 @@
         <v>11</v>
       </c>
       <c r="C656">
-        <v>204</v>
+        <v>990</v>
       </c>
       <c r="D656">
-        <v>306000</v>
+        <v>1481106</v>
       </c>
       <c r="E656" t="s">
         <v>29</v>
@@ -22077,10 +22077,10 @@
         <v>225</v>
       </c>
       <c r="I656" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J656" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="657" spans="1:10">
@@ -22091,10 +22091,10 @@
         <v>11</v>
       </c>
       <c r="C657">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="D657">
-        <v>15000</v>
+        <v>312000</v>
       </c>
       <c r="E657" t="s">
         <v>29</v>
@@ -22109,10 +22109,10 @@
         <v>225</v>
       </c>
       <c r="I657" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="J657" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="658" spans="1:10">
@@ -22123,10 +22123,10 @@
         <v>11</v>
       </c>
       <c r="C658">
-        <v>2871</v>
+        <v>10</v>
       </c>
       <c r="D658">
-        <v>4032434</v>
+        <v>15000</v>
       </c>
       <c r="E658" t="s">
         <v>29</v>
@@ -22141,10 +22141,10 @@
         <v>225</v>
       </c>
       <c r="I658" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="J658" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="659" spans="1:10">
@@ -22155,10 +22155,10 @@
         <v>11</v>
       </c>
       <c r="C659">
-        <v>2545</v>
+        <v>2885</v>
       </c>
       <c r="D659">
-        <v>3736189</v>
+        <v>4049622</v>
       </c>
       <c r="E659" t="s">
         <v>29</v>
@@ -22167,16 +22167,16 @@
         <v>47</v>
       </c>
       <c r="G659" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="H659" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I659" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J659" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="660" spans="1:10">
@@ -22187,10 +22187,10 @@
         <v>11</v>
       </c>
       <c r="C660">
-        <v>7231</v>
+        <v>2556</v>
       </c>
       <c r="D660">
-        <v>10705823</v>
+        <v>3752564</v>
       </c>
       <c r="E660" t="s">
         <v>29</v>
@@ -22205,10 +22205,10 @@
         <v>226</v>
       </c>
       <c r="I660" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="J660" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="661" spans="1:10">
@@ -22219,10 +22219,10 @@
         <v>11</v>
       </c>
       <c r="C661">
-        <v>2809</v>
+        <v>7293</v>
       </c>
       <c r="D661">
-        <v>4197990</v>
+        <v>10794535</v>
       </c>
       <c r="E661" t="s">
         <v>29</v>
@@ -22237,10 +22237,10 @@
         <v>226</v>
       </c>
       <c r="I661" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J661" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="662" spans="1:10">
@@ -22251,10 +22251,10 @@
         <v>11</v>
       </c>
       <c r="C662">
-        <v>868</v>
+        <v>2833</v>
       </c>
       <c r="D662">
-        <v>1301673</v>
+        <v>4231074</v>
       </c>
       <c r="E662" t="s">
         <v>29</v>
@@ -22269,10 +22269,10 @@
         <v>226</v>
       </c>
       <c r="I662" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J662" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="663" spans="1:10">
@@ -22283,10 +22283,10 @@
         <v>11</v>
       </c>
       <c r="C663">
-        <v>158</v>
+        <v>878</v>
       </c>
       <c r="D663">
-        <v>236450</v>
+        <v>1315446</v>
       </c>
       <c r="E663" t="s">
         <v>29</v>
@@ -22301,10 +22301,10 @@
         <v>226</v>
       </c>
       <c r="I663" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J663" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="664" spans="1:10">
@@ -22315,10 +22315,10 @@
         <v>11</v>
       </c>
       <c r="C664">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="D664">
-        <v>15712</v>
+        <v>243950</v>
       </c>
       <c r="E664" t="s">
         <v>29</v>
@@ -22333,10 +22333,10 @@
         <v>226</v>
       </c>
       <c r="I664" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="J664" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="665" spans="1:10">
@@ -22347,10 +22347,10 @@
         <v>11</v>
       </c>
       <c r="C665">
-        <v>2538</v>
+        <v>11</v>
       </c>
       <c r="D665">
-        <v>3521910</v>
+        <v>15712</v>
       </c>
       <c r="E665" t="s">
         <v>29</v>
@@ -22365,9 +22365,41 @@
         <v>226</v>
       </c>
       <c r="I665" t="s">
+        <v>110</v>
+      </c>
+      <c r="J665" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="666" spans="1:10">
+      <c r="A666" t="s">
+        <v>10</v>
+      </c>
+      <c r="B666" t="s">
+        <v>11</v>
+      </c>
+      <c r="C666">
+        <v>2549</v>
+      </c>
+      <c r="D666">
+        <v>3537035</v>
+      </c>
+      <c r="E666" t="s">
+        <v>29</v>
+      </c>
+      <c r="F666" t="s">
+        <v>47</v>
+      </c>
+      <c r="G666" t="s">
+        <v>130</v>
+      </c>
+      <c r="H666" t="s">
+        <v>226</v>
+      </c>
+      <c r="I666" t="s">
         <v>228</v>
       </c>
-      <c r="J665" t="s">
+      <c r="J666" t="s">
         <v>234</v>
       </c>
     </row>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -1131,10 +1131,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D2">
-        <v>1212778</v>
+        <v>1217278</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1163,10 +1163,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>3733</v>
+        <v>3746</v>
       </c>
       <c r="D3">
-        <v>5532866</v>
+        <v>5552030</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1195,10 +1195,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1330</v>
+        <v>1336</v>
       </c>
       <c r="D4">
-        <v>1988242</v>
+        <v>1996562</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1259,10 +1259,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>87000</v>
+        <v>88500</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1323,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D8">
-        <v>1079344</v>
+        <v>1080844</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1355,10 +1355,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2344</v>
+        <v>2355</v>
       </c>
       <c r="D9">
-        <v>3459499</v>
+        <v>3474140</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1387,10 +1387,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D10">
-        <v>918720</v>
+        <v>920220</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1419,10 +1419,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11">
-        <v>219000</v>
+        <v>220500</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1483,10 +1483,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D13">
-        <v>1448703</v>
+        <v>1450203</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1515,10 +1515,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>1478</v>
+        <v>1484</v>
       </c>
       <c r="D14">
-        <v>2146231</v>
+        <v>2154731</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1547,10 +1547,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>2725</v>
+        <v>2738</v>
       </c>
       <c r="D15">
-        <v>4009665</v>
+        <v>4028435</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1675,10 +1675,10 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D19">
-        <v>1520746</v>
+        <v>1521573</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1739,10 +1739,10 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="D21">
-        <v>1795010</v>
+        <v>1802510</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1867,10 +1867,10 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="D25">
-        <v>1169966</v>
+        <v>1178022</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1899,10 +1899,10 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="D26">
-        <v>2870185</v>
+        <v>2873185</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1931,10 +1931,10 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>4269</v>
+        <v>4276</v>
       </c>
       <c r="D27">
-        <v>6321164</v>
+        <v>6331664</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -1963,10 +1963,10 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>1297</v>
+        <v>1305</v>
       </c>
       <c r="D28">
-        <v>1930956</v>
+        <v>1942956</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -2059,10 +2059,10 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>1573</v>
+        <v>1582</v>
       </c>
       <c r="D31">
-        <v>2064586</v>
+        <v>2074140</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2091,10 +2091,10 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="D32">
-        <v>1137480</v>
+        <v>1142103</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2123,10 +2123,10 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D33">
-        <v>2705113</v>
+        <v>2706613</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D34">
-        <v>738466</v>
+        <v>742966</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2283,10 +2283,10 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="D38">
-        <v>1134240</v>
+        <v>1140240</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2315,10 +2315,10 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>2461</v>
+        <v>2467</v>
       </c>
       <c r="D39">
-        <v>3610885</v>
+        <v>3619451</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2347,10 +2347,10 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>5755</v>
+        <v>5768</v>
       </c>
       <c r="D40">
-        <v>8542492</v>
+        <v>8561404</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2379,10 +2379,10 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>2264</v>
+        <v>2273</v>
       </c>
       <c r="D41">
-        <v>3378035</v>
+        <v>3387910</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -2411,10 +2411,10 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="D42">
-        <v>1033498</v>
+        <v>1039498</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -2443,10 +2443,10 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D43">
-        <v>261000</v>
+        <v>264806</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -2507,10 +2507,10 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>3148</v>
+        <v>3160</v>
       </c>
       <c r="D45">
-        <v>4399610</v>
+        <v>4414872</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2539,10 +2539,10 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>3764</v>
+        <v>3785</v>
       </c>
       <c r="D46">
-        <v>5497325</v>
+        <v>5527888</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -2571,10 +2571,10 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>9021</v>
+        <v>9061</v>
       </c>
       <c r="D47">
-        <v>13379412</v>
+        <v>13439052</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -2603,10 +2603,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>3050</v>
+        <v>3065</v>
       </c>
       <c r="D48">
-        <v>4558074</v>
+        <v>4579752</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2635,10 +2635,10 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D49">
-        <v>1157720</v>
+        <v>1160720</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -2667,10 +2667,10 @@
         <v>11</v>
       </c>
       <c r="C50">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D50">
-        <v>213000</v>
+        <v>214500</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -2763,10 +2763,10 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>3603</v>
+        <v>3621</v>
       </c>
       <c r="D53">
-        <v>5023212</v>
+        <v>5047926</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2795,10 +2795,10 @@
         <v>11</v>
       </c>
       <c r="C54">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="D54">
-        <v>2980050</v>
+        <v>2990550</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -2827,10 +2827,10 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>5221</v>
+        <v>5245</v>
       </c>
       <c r="D55">
-        <v>7721697</v>
+        <v>7756112</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2859,10 +2859,10 @@
         <v>11</v>
       </c>
       <c r="C56">
-        <v>1623</v>
+        <v>1630</v>
       </c>
       <c r="D56">
-        <v>2421353</v>
+        <v>2430823</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -2891,10 +2891,10 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D57">
-        <v>560393</v>
+        <v>564893</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -2923,10 +2923,10 @@
         <v>11</v>
       </c>
       <c r="C58">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D58">
-        <v>100500</v>
+        <v>102000</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -2955,10 +2955,10 @@
         <v>11</v>
       </c>
       <c r="C59">
-        <v>2183</v>
+        <v>2193</v>
       </c>
       <c r="D59">
-        <v>2898055</v>
+        <v>2911217</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -2987,10 +2987,10 @@
         <v>11</v>
       </c>
       <c r="C60">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="D60">
-        <v>2414624</v>
+        <v>2419124</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -3019,10 +3019,10 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>4555</v>
+        <v>4566</v>
       </c>
       <c r="D61">
-        <v>6728302</v>
+        <v>6744043</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3051,10 +3051,10 @@
         <v>11</v>
       </c>
       <c r="C62">
-        <v>1511</v>
+        <v>1518</v>
       </c>
       <c r="D62">
-        <v>2250013</v>
+        <v>2259859</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3083,10 +3083,10 @@
         <v>11</v>
       </c>
       <c r="C63">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D63">
-        <v>607060</v>
+        <v>610060</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -3179,10 +3179,10 @@
         <v>11</v>
       </c>
       <c r="C66">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="D66">
-        <v>2521804</v>
+        <v>2523838</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3211,10 +3211,10 @@
         <v>11</v>
       </c>
       <c r="C67">
-        <v>5709</v>
+        <v>5732</v>
       </c>
       <c r="D67">
-        <v>8356391</v>
+        <v>8386906</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3243,10 +3243,10 @@
         <v>11</v>
       </c>
       <c r="C68">
-        <v>14497</v>
+        <v>14555</v>
       </c>
       <c r="D68">
-        <v>21467839</v>
+        <v>21553313</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3275,10 +3275,10 @@
         <v>11</v>
       </c>
       <c r="C69">
-        <v>5062</v>
+        <v>5082</v>
       </c>
       <c r="D69">
-        <v>7561576</v>
+        <v>7590424</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3307,10 +3307,10 @@
         <v>11</v>
       </c>
       <c r="C70">
-        <v>1291</v>
+        <v>1298</v>
       </c>
       <c r="D70">
-        <v>1930873</v>
+        <v>1939131</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3339,10 +3339,10 @@
         <v>11</v>
       </c>
       <c r="C71">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D71">
-        <v>357000</v>
+        <v>358500</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
@@ -3435,10 +3435,10 @@
         <v>11</v>
       </c>
       <c r="C74">
-        <v>4610</v>
+        <v>4639</v>
       </c>
       <c r="D74">
-        <v>6480972</v>
+        <v>6518012</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -3467,10 +3467,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>1730</v>
+        <v>1738</v>
       </c>
       <c r="D75">
-        <v>2532568</v>
+        <v>2544568</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3499,10 +3499,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>4270</v>
+        <v>4281</v>
       </c>
       <c r="D76">
-        <v>6334143</v>
+        <v>6350643</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3531,10 +3531,10 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>1830</v>
+        <v>1841</v>
       </c>
       <c r="D77">
-        <v>2730500</v>
+        <v>2746900</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3563,10 +3563,10 @@
         <v>11</v>
       </c>
       <c r="C78">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D78">
-        <v>992754</v>
+        <v>998754</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -3659,10 +3659,10 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>4239</v>
+        <v>4262</v>
       </c>
       <c r="D81">
-        <v>6050519</v>
+        <v>6081271</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -3691,10 +3691,10 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="D82">
-        <v>1785931</v>
+        <v>1794931</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
@@ -3723,10 +3723,10 @@
         <v>11</v>
       </c>
       <c r="C83">
-        <v>3302</v>
+        <v>3313</v>
       </c>
       <c r="D83">
-        <v>4881217</v>
+        <v>4897153</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
@@ -3755,10 +3755,10 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="D84">
-        <v>1689410</v>
+        <v>1700698</v>
       </c>
       <c r="E84" t="s">
         <v>13</v>
@@ -3787,10 +3787,10 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D85">
-        <v>423000</v>
+        <v>424500</v>
       </c>
       <c r="E85" t="s">
         <v>13</v>
@@ -3883,10 +3883,10 @@
         <v>11</v>
       </c>
       <c r="C88">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D88">
-        <v>1679434</v>
+        <v>1680934</v>
       </c>
       <c r="E88" t="s">
         <v>13</v>
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="C89">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="D89">
-        <v>1617757</v>
+        <v>1622257</v>
       </c>
       <c r="E89" t="s">
         <v>13</v>
@@ -3947,10 +3947,10 @@
         <v>11</v>
       </c>
       <c r="C90">
-        <v>3074</v>
+        <v>3088</v>
       </c>
       <c r="D90">
-        <v>4555496</v>
+        <v>4576257</v>
       </c>
       <c r="E90" t="s">
         <v>13</v>
@@ -3979,10 +3979,10 @@
         <v>11</v>
       </c>
       <c r="C91">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="D91">
-        <v>1532533</v>
+        <v>1537033</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -4011,10 +4011,10 @@
         <v>11</v>
       </c>
       <c r="C92">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92">
-        <v>391419</v>
+        <v>394419</v>
       </c>
       <c r="E92" t="s">
         <v>13</v>
@@ -4107,10 +4107,10 @@
         <v>11</v>
       </c>
       <c r="C95">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="D95">
-        <v>1347610</v>
+        <v>1351118</v>
       </c>
       <c r="E95" t="s">
         <v>13</v>
@@ -4139,10 +4139,10 @@
         <v>11</v>
       </c>
       <c r="C96">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D96">
-        <v>666694</v>
+        <v>668194</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
@@ -4171,10 +4171,10 @@
         <v>11</v>
       </c>
       <c r="C97">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="D97">
-        <v>1786144</v>
+        <v>1790309</v>
       </c>
       <c r="E97" t="s">
         <v>13</v>
@@ -4299,10 +4299,10 @@
         <v>11</v>
       </c>
       <c r="C101">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D101">
-        <v>710949</v>
+        <v>713409</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -4331,10 +4331,10 @@
         <v>11</v>
       </c>
       <c r="C102">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D102">
-        <v>1055890</v>
+        <v>1059528</v>
       </c>
       <c r="E102" t="s">
         <v>13</v>
@@ -4363,10 +4363,10 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>1799</v>
+        <v>1805</v>
       </c>
       <c r="D103">
-        <v>2662986</v>
+        <v>2671142</v>
       </c>
       <c r="E103" t="s">
         <v>13</v>
@@ -4395,10 +4395,10 @@
         <v>11</v>
       </c>
       <c r="C104">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D104">
-        <v>758019</v>
+        <v>765519</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
@@ -4427,10 +4427,10 @@
         <v>11</v>
       </c>
       <c r="C105">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D105">
-        <v>189250</v>
+        <v>189384</v>
       </c>
       <c r="E105" t="s">
         <v>13</v>
@@ -4491,10 +4491,10 @@
         <v>11</v>
       </c>
       <c r="C107">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D107">
-        <v>788785</v>
+        <v>793285</v>
       </c>
       <c r="E107" t="s">
         <v>13</v>
@@ -4523,10 +4523,10 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D108">
-        <v>657424</v>
+        <v>660186</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -4587,10 +4587,10 @@
         <v>11</v>
       </c>
       <c r="C110">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D110">
-        <v>593860</v>
+        <v>599860</v>
       </c>
       <c r="E110" t="s">
         <v>13</v>
@@ -4619,10 +4619,10 @@
         <v>11</v>
       </c>
       <c r="C111">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D111">
-        <v>114000</v>
+        <v>115500</v>
       </c>
       <c r="E111" t="s">
         <v>13</v>
@@ -4683,10 +4683,10 @@
         <v>11</v>
       </c>
       <c r="C113">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D113">
-        <v>738911</v>
+        <v>741911</v>
       </c>
       <c r="E113" t="s">
         <v>13</v>
@@ -4715,10 +4715,10 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="D114">
-        <v>1822181</v>
+        <v>1829681</v>
       </c>
       <c r="E114" t="s">
         <v>13</v>
@@ -4747,10 +4747,10 @@
         <v>11</v>
       </c>
       <c r="C115">
-        <v>3865</v>
+        <v>3875</v>
       </c>
       <c r="D115">
-        <v>5716017</v>
+        <v>5730286</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -4779,10 +4779,10 @@
         <v>11</v>
       </c>
       <c r="C116">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="D116">
-        <v>1674358</v>
+        <v>1677358</v>
       </c>
       <c r="E116" t="s">
         <v>13</v>
@@ -4811,10 +4811,10 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D117">
-        <v>349826</v>
+        <v>351326</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
@@ -4843,10 +4843,10 @@
         <v>11</v>
       </c>
       <c r="C118">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D118">
-        <v>48000</v>
+        <v>49500</v>
       </c>
       <c r="E118" t="s">
         <v>13</v>
@@ -4875,10 +4875,10 @@
         <v>11</v>
       </c>
       <c r="C119">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="D119">
-        <v>2065182</v>
+        <v>2068182</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
@@ -4907,10 +4907,10 @@
         <v>11</v>
       </c>
       <c r="C120">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D120">
-        <v>400838</v>
+        <v>402414</v>
       </c>
       <c r="E120" t="s">
         <v>13</v>
@@ -4939,10 +4939,10 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D121">
-        <v>1126361</v>
+        <v>1127861</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -4971,10 +4971,10 @@
         <v>11</v>
       </c>
       <c r="C122">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D122">
-        <v>395075</v>
+        <v>399575</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -5067,10 +5067,10 @@
         <v>11</v>
       </c>
       <c r="C125">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D125">
-        <v>314972</v>
+        <v>316386</v>
       </c>
       <c r="E125" t="s">
         <v>13</v>
@@ -5099,10 +5099,10 @@
         <v>11</v>
       </c>
       <c r="C126">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D126">
-        <v>1045826</v>
+        <v>1048826</v>
       </c>
       <c r="E126" t="s">
         <v>13</v>
@@ -5131,10 +5131,10 @@
         <v>11</v>
       </c>
       <c r="C127">
-        <v>2143</v>
+        <v>2158</v>
       </c>
       <c r="D127">
-        <v>3176299</v>
+        <v>3196973</v>
       </c>
       <c r="E127" t="s">
         <v>13</v>
@@ -5163,10 +5163,10 @@
         <v>11</v>
       </c>
       <c r="C128">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D128">
-        <v>916319</v>
+        <v>920819</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
@@ -5259,10 +5259,10 @@
         <v>11</v>
       </c>
       <c r="C131">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="D131">
-        <v>952150</v>
+        <v>958071</v>
       </c>
       <c r="E131" t="s">
         <v>13</v>
@@ -5291,10 +5291,10 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="D132">
-        <v>2475150</v>
+        <v>2479650</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -5323,10 +5323,10 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>4078</v>
+        <v>4091</v>
       </c>
       <c r="D133">
-        <v>6011237</v>
+        <v>6030737</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
@@ -5355,10 +5355,10 @@
         <v>11</v>
       </c>
       <c r="C134">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="D134">
-        <v>1625109</v>
+        <v>1630151</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -5483,10 +5483,10 @@
         <v>11</v>
       </c>
       <c r="C138">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="D138">
-        <v>1995513</v>
+        <v>1999754</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -5515,10 +5515,10 @@
         <v>11</v>
       </c>
       <c r="C139">
-        <v>2350</v>
+        <v>2359</v>
       </c>
       <c r="D139">
-        <v>3433922</v>
+        <v>3446493</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -5547,10 +5547,10 @@
         <v>11</v>
       </c>
       <c r="C140">
-        <v>5538</v>
+        <v>5555</v>
       </c>
       <c r="D140">
-        <v>8198594</v>
+        <v>8222233</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
@@ -5579,10 +5579,10 @@
         <v>11</v>
       </c>
       <c r="C141">
-        <v>1916</v>
+        <v>1925</v>
       </c>
       <c r="D141">
-        <v>2867268</v>
+        <v>2879674</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
@@ -5611,10 +5611,10 @@
         <v>11</v>
       </c>
       <c r="C142">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D142">
-        <v>649511</v>
+        <v>651011</v>
       </c>
       <c r="E142" t="s">
         <v>14</v>
@@ -5707,10 +5707,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>2043</v>
+        <v>2051</v>
       </c>
       <c r="D145">
-        <v>2780251</v>
+        <v>2792251</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -5739,10 +5739,10 @@
         <v>11</v>
       </c>
       <c r="C146">
-        <v>2185</v>
+        <v>2193</v>
       </c>
       <c r="D146">
-        <v>3190689</v>
+        <v>3202689</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
@@ -5771,10 +5771,10 @@
         <v>11</v>
       </c>
       <c r="C147">
-        <v>6395</v>
+        <v>6411</v>
       </c>
       <c r="D147">
-        <v>9495964</v>
+        <v>9519964</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -5803,10 +5803,10 @@
         <v>11</v>
       </c>
       <c r="C148">
-        <v>2100</v>
+        <v>2106</v>
       </c>
       <c r="D148">
-        <v>3138316</v>
+        <v>3147316</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -5835,10 +5835,10 @@
         <v>11</v>
       </c>
       <c r="C149">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D149">
-        <v>822664</v>
+        <v>824164</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
@@ -5931,10 +5931,10 @@
         <v>11</v>
       </c>
       <c r="C152">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="D152">
-        <v>2736016</v>
+        <v>2737516</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
@@ -5963,10 +5963,10 @@
         <v>11</v>
       </c>
       <c r="C153">
-        <v>2402</v>
+        <v>2412</v>
       </c>
       <c r="D153">
-        <v>3489463</v>
+        <v>3503691</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
@@ -5995,10 +5995,10 @@
         <v>11</v>
       </c>
       <c r="C154">
-        <v>5380</v>
+        <v>5393</v>
       </c>
       <c r="D154">
-        <v>7957765</v>
+        <v>7976420</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -6027,10 +6027,10 @@
         <v>11</v>
       </c>
       <c r="C155">
-        <v>1675</v>
+        <v>1680</v>
       </c>
       <c r="D155">
-        <v>2502647</v>
+        <v>2510147</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
@@ -6059,10 +6059,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D156">
-        <v>586866</v>
+        <v>591366</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
@@ -6155,10 +6155,10 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>1882</v>
+        <v>1889</v>
       </c>
       <c r="D159">
-        <v>2590586</v>
+        <v>2599229</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
@@ -6187,10 +6187,10 @@
         <v>11</v>
       </c>
       <c r="C160">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D160">
-        <v>774781</v>
+        <v>778781</v>
       </c>
       <c r="E160" t="s">
         <v>15</v>
@@ -6219,10 +6219,10 @@
         <v>11</v>
       </c>
       <c r="C161">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="D161">
-        <v>2448919</v>
+        <v>2462207</v>
       </c>
       <c r="E161" t="s">
         <v>15</v>
@@ -6251,10 +6251,10 @@
         <v>11</v>
       </c>
       <c r="C162">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D162">
-        <v>810754</v>
+        <v>812254</v>
       </c>
       <c r="E162" t="s">
         <v>15</v>
@@ -6283,10 +6283,10 @@
         <v>11</v>
       </c>
       <c r="C163">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D163">
-        <v>222000</v>
+        <v>223500</v>
       </c>
       <c r="E163" t="s">
         <v>15</v>
@@ -6347,10 +6347,10 @@
         <v>11</v>
       </c>
       <c r="C165">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="D165">
-        <v>1008861</v>
+        <v>1017044</v>
       </c>
       <c r="E165" t="s">
         <v>15</v>
@@ -6379,10 +6379,10 @@
         <v>11</v>
       </c>
       <c r="C166">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D166">
-        <v>1123826</v>
+        <v>1125326</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -6411,10 +6411,10 @@
         <v>11</v>
       </c>
       <c r="C167">
-        <v>2406</v>
+        <v>2414</v>
       </c>
       <c r="D167">
-        <v>3567259</v>
+        <v>3579259</v>
       </c>
       <c r="E167" t="s">
         <v>15</v>
@@ -6443,10 +6443,10 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D168">
-        <v>1201420</v>
+        <v>1208920</v>
       </c>
       <c r="E168" t="s">
         <v>15</v>
@@ -6475,10 +6475,10 @@
         <v>11</v>
       </c>
       <c r="C169">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D169">
-        <v>289500</v>
+        <v>291000</v>
       </c>
       <c r="E169" t="s">
         <v>15</v>
@@ -6571,10 +6571,10 @@
         <v>11</v>
       </c>
       <c r="C172">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D172">
-        <v>519014</v>
+        <v>521864</v>
       </c>
       <c r="E172" t="s">
         <v>15</v>
@@ -6603,10 +6603,10 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <v>1294</v>
+        <v>1299</v>
       </c>
       <c r="D173">
-        <v>1907965</v>
+        <v>1914549</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -6635,10 +6635,10 @@
         <v>11</v>
       </c>
       <c r="C174">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D174">
-        <v>675681</v>
+        <v>680181</v>
       </c>
       <c r="E174" t="s">
         <v>15</v>
@@ -6763,10 +6763,10 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="D178">
-        <v>1991878</v>
+        <v>1994878</v>
       </c>
       <c r="E178" t="s">
         <v>15</v>
@@ -6795,10 +6795,10 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <v>3786</v>
+        <v>3798</v>
       </c>
       <c r="D179">
-        <v>5595662</v>
+        <v>5612882</v>
       </c>
       <c r="E179" t="s">
         <v>15</v>
@@ -6827,10 +6827,10 @@
         <v>11</v>
       </c>
       <c r="C180">
-        <v>1255</v>
+        <v>1263</v>
       </c>
       <c r="D180">
-        <v>1877205</v>
+        <v>1888912</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -6955,10 +6955,10 @@
         <v>11</v>
       </c>
       <c r="C184">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="D184">
-        <v>1788800</v>
+        <v>1794800</v>
       </c>
       <c r="E184" t="s">
         <v>15</v>
@@ -6987,10 +6987,10 @@
         <v>11</v>
       </c>
       <c r="C185">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D185">
-        <v>930971</v>
+        <v>933971</v>
       </c>
       <c r="E185" t="s">
         <v>15</v>
@@ -7019,10 +7019,10 @@
         <v>11</v>
       </c>
       <c r="C186">
-        <v>2127</v>
+        <v>2133</v>
       </c>
       <c r="D186">
-        <v>3149326</v>
+        <v>3157736</v>
       </c>
       <c r="E186" t="s">
         <v>15</v>
@@ -7051,10 +7051,10 @@
         <v>11</v>
       </c>
       <c r="C187">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D187">
-        <v>1063798</v>
+        <v>1068015</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -7147,10 +7147,10 @@
         <v>11</v>
       </c>
       <c r="C190">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D190">
-        <v>993588</v>
+        <v>998607</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
@@ -7179,10 +7179,10 @@
         <v>11</v>
       </c>
       <c r="C191">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="D191">
-        <v>1799160</v>
+        <v>1803963</v>
       </c>
       <c r="E191" t="s">
         <v>15</v>
@@ -7211,10 +7211,10 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>3787</v>
+        <v>3805</v>
       </c>
       <c r="D192">
-        <v>5614559</v>
+        <v>5640374</v>
       </c>
       <c r="E192" t="s">
         <v>15</v>
@@ -7243,10 +7243,10 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <v>1351</v>
+        <v>1359</v>
       </c>
       <c r="D193">
-        <v>2023166</v>
+        <v>2035166</v>
       </c>
       <c r="E193" t="s">
         <v>15</v>
@@ -7371,10 +7371,10 @@
         <v>11</v>
       </c>
       <c r="C197">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="D197">
-        <v>1567789</v>
+        <v>1573789</v>
       </c>
       <c r="E197" t="s">
         <v>15</v>
@@ -7403,10 +7403,10 @@
         <v>11</v>
       </c>
       <c r="C198">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D198">
-        <v>747653</v>
+        <v>750653</v>
       </c>
       <c r="E198" t="s">
         <v>16</v>
@@ -7435,10 +7435,10 @@
         <v>11</v>
       </c>
       <c r="C199">
-        <v>2073</v>
+        <v>2084</v>
       </c>
       <c r="D199">
-        <v>3050723</v>
+        <v>3065973</v>
       </c>
       <c r="E199" t="s">
         <v>16</v>
@@ -7467,10 +7467,10 @@
         <v>11</v>
       </c>
       <c r="C200">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="D200">
-        <v>1613141</v>
+        <v>1623641</v>
       </c>
       <c r="E200" t="s">
         <v>16</v>
@@ -7499,10 +7499,10 @@
         <v>11</v>
       </c>
       <c r="C201">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D201">
-        <v>428211</v>
+        <v>434211</v>
       </c>
       <c r="E201" t="s">
         <v>16</v>
@@ -7563,10 +7563,10 @@
         <v>11</v>
       </c>
       <c r="C203">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D203">
-        <v>309865</v>
+        <v>312865</v>
       </c>
       <c r="E203" t="s">
         <v>16</v>
@@ -7595,10 +7595,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="D204">
-        <v>1739968</v>
+        <v>1747468</v>
       </c>
       <c r="E204" t="s">
         <v>16</v>
@@ -7627,10 +7627,10 @@
         <v>11</v>
       </c>
       <c r="C205">
-        <v>2480</v>
+        <v>2484</v>
       </c>
       <c r="D205">
-        <v>3639653</v>
+        <v>3645653</v>
       </c>
       <c r="E205" t="s">
         <v>16</v>
@@ -7659,10 +7659,10 @@
         <v>11</v>
       </c>
       <c r="C206">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="D206">
-        <v>1127781</v>
+        <v>1132281</v>
       </c>
       <c r="E206" t="s">
         <v>16</v>
@@ -7691,10 +7691,10 @@
         <v>11</v>
       </c>
       <c r="C207">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D207">
-        <v>274830</v>
+        <v>276330</v>
       </c>
       <c r="E207" t="s">
         <v>16</v>
@@ -7755,10 +7755,10 @@
         <v>11</v>
       </c>
       <c r="C209">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="D209">
-        <v>1271783</v>
+        <v>1278583</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -7787,10 +7787,10 @@
         <v>11</v>
       </c>
       <c r="C210">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D210">
-        <v>681318</v>
+        <v>685818</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -7819,10 +7819,10 @@
         <v>11</v>
       </c>
       <c r="C211">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="D211">
-        <v>2175810</v>
+        <v>2180310</v>
       </c>
       <c r="E211" t="s">
         <v>17</v>
@@ -7883,10 +7883,10 @@
         <v>11</v>
       </c>
       <c r="C213">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D213">
-        <v>201000</v>
+        <v>202500</v>
       </c>
       <c r="E213" t="s">
         <v>17</v>
@@ -7947,10 +7947,10 @@
         <v>11</v>
       </c>
       <c r="C215">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D215">
-        <v>797720</v>
+        <v>798820</v>
       </c>
       <c r="E215" t="s">
         <v>17</v>
@@ -7979,10 +7979,10 @@
         <v>11</v>
       </c>
       <c r="C216">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D216">
-        <v>885294</v>
+        <v>886794</v>
       </c>
       <c r="E216" t="s">
         <v>17</v>
@@ -8011,10 +8011,10 @@
         <v>11</v>
       </c>
       <c r="C217">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="D217">
-        <v>2563718</v>
+        <v>2569718</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -8043,10 +8043,10 @@
         <v>11</v>
       </c>
       <c r="C218">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D218">
-        <v>820759</v>
+        <v>823759</v>
       </c>
       <c r="E218" t="s">
         <v>17</v>
@@ -8075,10 +8075,10 @@
         <v>11</v>
       </c>
       <c r="C219">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D219">
-        <v>201000</v>
+        <v>204000</v>
       </c>
       <c r="E219" t="s">
         <v>17</v>
@@ -8139,10 +8139,10 @@
         <v>11</v>
       </c>
       <c r="C221">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D221">
-        <v>818447</v>
+        <v>819947</v>
       </c>
       <c r="E221" t="s">
         <v>17</v>
@@ -8171,10 +8171,10 @@
         <v>11</v>
       </c>
       <c r="C222">
-        <v>2408</v>
+        <v>2412</v>
       </c>
       <c r="D222">
-        <v>3517338</v>
+        <v>3523338</v>
       </c>
       <c r="E222" t="s">
         <v>17</v>
@@ -8203,10 +8203,10 @@
         <v>11</v>
       </c>
       <c r="C223">
-        <v>8090</v>
+        <v>8119</v>
       </c>
       <c r="D223">
-        <v>11983355</v>
+        <v>12025273</v>
       </c>
       <c r="E223" t="s">
         <v>17</v>
@@ -8235,10 +8235,10 @@
         <v>11</v>
       </c>
       <c r="C224">
-        <v>3106</v>
+        <v>3119</v>
       </c>
       <c r="D224">
-        <v>4645519</v>
+        <v>4664455</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -8267,10 +8267,10 @@
         <v>11</v>
       </c>
       <c r="C225">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="D225">
-        <v>1303862</v>
+        <v>1309862</v>
       </c>
       <c r="E225" t="s">
         <v>17</v>
@@ -8363,10 +8363,10 @@
         <v>11</v>
       </c>
       <c r="C228">
-        <v>2072</v>
+        <v>2078</v>
       </c>
       <c r="D228">
-        <v>2870686</v>
+        <v>2878464</v>
       </c>
       <c r="E228" t="s">
         <v>17</v>
@@ -8395,10 +8395,10 @@
         <v>11</v>
       </c>
       <c r="C229">
-        <v>1696</v>
+        <v>1709</v>
       </c>
       <c r="D229">
-        <v>2477732</v>
+        <v>2492946</v>
       </c>
       <c r="E229" t="s">
         <v>17</v>
@@ -8427,10 +8427,10 @@
         <v>11</v>
       </c>
       <c r="C230">
-        <v>5163</v>
+        <v>5190</v>
       </c>
       <c r="D230">
-        <v>7635750</v>
+        <v>7675970</v>
       </c>
       <c r="E230" t="s">
         <v>17</v>
@@ -8459,10 +8459,10 @@
         <v>11</v>
       </c>
       <c r="C231">
-        <v>2083</v>
+        <v>2095</v>
       </c>
       <c r="D231">
-        <v>3108818</v>
+        <v>3126818</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -8587,10 +8587,10 @@
         <v>11</v>
       </c>
       <c r="C235">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D235">
-        <v>1729209</v>
+        <v>1732209</v>
       </c>
       <c r="E235" t="s">
         <v>17</v>
@@ -8619,10 +8619,10 @@
         <v>11</v>
       </c>
       <c r="C236">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D236">
-        <v>487006</v>
+        <v>488506</v>
       </c>
       <c r="E236" t="s">
         <v>17</v>
@@ -8651,10 +8651,10 @@
         <v>11</v>
       </c>
       <c r="C237">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="D237">
-        <v>1391722</v>
+        <v>1402222</v>
       </c>
       <c r="E237" t="s">
         <v>17</v>
@@ -8683,10 +8683,10 @@
         <v>11</v>
       </c>
       <c r="C238">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D238">
-        <v>434812</v>
+        <v>436312</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -8715,10 +8715,10 @@
         <v>11</v>
       </c>
       <c r="C239">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D239">
-        <v>136500</v>
+        <v>138000</v>
       </c>
       <c r="E239" t="s">
         <v>17</v>
@@ -8779,10 +8779,10 @@
         <v>11</v>
       </c>
       <c r="C241">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D241">
-        <v>499790</v>
+        <v>501290</v>
       </c>
       <c r="E241" t="s">
         <v>17</v>
@@ -8811,10 +8811,10 @@
         <v>11</v>
       </c>
       <c r="C242">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="D242">
-        <v>1637577</v>
+        <v>1643001</v>
       </c>
       <c r="E242" t="s">
         <v>17</v>
@@ -8843,10 +8843,10 @@
         <v>11</v>
       </c>
       <c r="C243">
-        <v>3234</v>
+        <v>3245</v>
       </c>
       <c r="D243">
-        <v>4797877</v>
+        <v>4812463</v>
       </c>
       <c r="E243" t="s">
         <v>17</v>
@@ -8875,10 +8875,10 @@
         <v>11</v>
       </c>
       <c r="C244">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="D244">
-        <v>1736250</v>
+        <v>1744493</v>
       </c>
       <c r="E244" t="s">
         <v>17</v>
@@ -8907,10 +8907,10 @@
         <v>11</v>
       </c>
       <c r="C245">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D245">
-        <v>513468</v>
+        <v>514968</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
@@ -8939,10 +8939,10 @@
         <v>11</v>
       </c>
       <c r="C246">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D246">
-        <v>67500</v>
+        <v>69000</v>
       </c>
       <c r="E246" t="s">
         <v>17</v>
@@ -9003,10 +9003,10 @@
         <v>11</v>
       </c>
       <c r="C248">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D248">
-        <v>1511799</v>
+        <v>1513771</v>
       </c>
       <c r="E248" t="s">
         <v>17</v>
@@ -9035,10 +9035,10 @@
         <v>11</v>
       </c>
       <c r="C249">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="D249">
-        <v>1790335</v>
+        <v>1797835</v>
       </c>
       <c r="E249" t="s">
         <v>17</v>
@@ -9067,10 +9067,10 @@
         <v>11</v>
       </c>
       <c r="C250">
-        <v>3757</v>
+        <v>3768</v>
       </c>
       <c r="D250">
-        <v>5563518</v>
+        <v>5580018</v>
       </c>
       <c r="E250" t="s">
         <v>17</v>
@@ -9099,10 +9099,10 @@
         <v>11</v>
       </c>
       <c r="C251">
-        <v>1276</v>
+        <v>1281</v>
       </c>
       <c r="D251">
-        <v>1908078</v>
+        <v>1915578</v>
       </c>
       <c r="E251" t="s">
         <v>17</v>
@@ -9131,10 +9131,10 @@
         <v>11</v>
       </c>
       <c r="C252">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D252">
-        <v>489282</v>
+        <v>490782</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -9227,10 +9227,10 @@
         <v>11</v>
       </c>
       <c r="C255">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D255">
-        <v>1911511</v>
+        <v>1912096</v>
       </c>
       <c r="E255" t="s">
         <v>17</v>
@@ -9259,10 +9259,10 @@
         <v>11</v>
       </c>
       <c r="C256">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D256">
-        <v>486884</v>
+        <v>488384</v>
       </c>
       <c r="E256" t="s">
         <v>17</v>
@@ -9291,10 +9291,10 @@
         <v>11</v>
       </c>
       <c r="C257">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D257">
-        <v>1396882</v>
+        <v>1399129</v>
       </c>
       <c r="E257" t="s">
         <v>17</v>
@@ -9419,10 +9419,10 @@
         <v>11</v>
       </c>
       <c r="C261">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D261">
-        <v>481657</v>
+        <v>484657</v>
       </c>
       <c r="E261" t="s">
         <v>17</v>
@@ -9451,10 +9451,10 @@
         <v>11</v>
       </c>
       <c r="C262">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="D262">
-        <v>2523463</v>
+        <v>2529346</v>
       </c>
       <c r="E262" t="s">
         <v>17</v>
@@ -9483,10 +9483,10 @@
         <v>11</v>
       </c>
       <c r="C263">
-        <v>5815</v>
+        <v>5821</v>
       </c>
       <c r="D263">
-        <v>8596321</v>
+        <v>8602955</v>
       </c>
       <c r="E263" t="s">
         <v>17</v>
@@ -9515,10 +9515,10 @@
         <v>11</v>
       </c>
       <c r="C264">
-        <v>2437</v>
+        <v>2442</v>
       </c>
       <c r="D264">
-        <v>3647449</v>
+        <v>3654949</v>
       </c>
       <c r="E264" t="s">
         <v>17</v>
@@ -9547,10 +9547,10 @@
         <v>11</v>
       </c>
       <c r="C265">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D265">
-        <v>1096500</v>
+        <v>1098000</v>
       </c>
       <c r="E265" t="s">
         <v>17</v>
@@ -9611,10 +9611,10 @@
         <v>11</v>
       </c>
       <c r="C267">
-        <v>1505</v>
+        <v>1511</v>
       </c>
       <c r="D267">
-        <v>2066310</v>
+        <v>2072214</v>
       </c>
       <c r="E267" t="s">
         <v>17</v>
@@ -9643,10 +9643,10 @@
         <v>11</v>
       </c>
       <c r="C268">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D268">
-        <v>1511066</v>
+        <v>1514066</v>
       </c>
       <c r="E268" t="s">
         <v>17</v>
@@ -9675,10 +9675,10 @@
         <v>11</v>
       </c>
       <c r="C269">
-        <v>2664</v>
+        <v>2672</v>
       </c>
       <c r="D269">
-        <v>3941777</v>
+        <v>3953777</v>
       </c>
       <c r="E269" t="s">
         <v>17</v>
@@ -9707,10 +9707,10 @@
         <v>11</v>
       </c>
       <c r="C270">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="D270">
-        <v>1271493</v>
+        <v>1277493</v>
       </c>
       <c r="E270" t="s">
         <v>17</v>
@@ -9739,10 +9739,10 @@
         <v>11</v>
       </c>
       <c r="C271">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D271">
-        <v>326963</v>
+        <v>328463</v>
       </c>
       <c r="E271" t="s">
         <v>17</v>
@@ -9835,10 +9835,10 @@
         <v>11</v>
       </c>
       <c r="C274">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D274">
-        <v>1389220</v>
+        <v>1392220</v>
       </c>
       <c r="E274" t="s">
         <v>17</v>
@@ -9867,10 +9867,10 @@
         <v>11</v>
       </c>
       <c r="C275">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="D275">
-        <v>1424097</v>
+        <v>1431597</v>
       </c>
       <c r="E275" t="s">
         <v>18</v>
@@ -9899,10 +9899,10 @@
         <v>11</v>
       </c>
       <c r="C276">
-        <v>3685</v>
+        <v>3722</v>
       </c>
       <c r="D276">
-        <v>5435059</v>
+        <v>5489209</v>
       </c>
       <c r="E276" t="s">
         <v>18</v>
@@ -9931,10 +9931,10 @@
         <v>11</v>
       </c>
       <c r="C277">
-        <v>1388</v>
+        <v>1395</v>
       </c>
       <c r="D277">
-        <v>2074964</v>
+        <v>2085464</v>
       </c>
       <c r="E277" t="s">
         <v>18</v>
@@ -9963,10 +9963,10 @@
         <v>11</v>
       </c>
       <c r="C278">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D278">
-        <v>632000</v>
+        <v>641000</v>
       </c>
       <c r="E278" t="s">
         <v>18</v>
@@ -10027,10 +10027,10 @@
         <v>11</v>
       </c>
       <c r="C280">
-        <v>2376</v>
+        <v>2417</v>
       </c>
       <c r="D280">
-        <v>3306602</v>
+        <v>3364281</v>
       </c>
       <c r="E280" t="s">
         <v>18</v>
@@ -10059,10 +10059,10 @@
         <v>11</v>
       </c>
       <c r="C281">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D281">
-        <v>507284</v>
+        <v>511784</v>
       </c>
       <c r="E281" t="s">
         <v>19</v>
@@ -10091,10 +10091,10 @@
         <v>11</v>
       </c>
       <c r="C282">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="D282">
-        <v>1394992</v>
+        <v>1402492</v>
       </c>
       <c r="E282" t="s">
         <v>19</v>
@@ -10123,10 +10123,10 @@
         <v>11</v>
       </c>
       <c r="C283">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D283">
-        <v>569476</v>
+        <v>573976</v>
       </c>
       <c r="E283" t="s">
         <v>19</v>
@@ -10155,10 +10155,10 @@
         <v>11</v>
       </c>
       <c r="C284">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D284">
-        <v>193378</v>
+        <v>196378</v>
       </c>
       <c r="E284" t="s">
         <v>19</v>
@@ -10219,10 +10219,10 @@
         <v>11</v>
       </c>
       <c r="C286">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D286">
-        <v>641265</v>
+        <v>650481</v>
       </c>
       <c r="E286" t="s">
         <v>19</v>
@@ -10251,10 +10251,10 @@
         <v>11</v>
       </c>
       <c r="C287">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="D287">
-        <v>1119375</v>
+        <v>1125375</v>
       </c>
       <c r="E287" t="s">
         <v>20</v>
@@ -10283,10 +10283,10 @@
         <v>11</v>
       </c>
       <c r="C288">
-        <v>2430</v>
+        <v>2440</v>
       </c>
       <c r="D288">
-        <v>3601143</v>
+        <v>3616143</v>
       </c>
       <c r="E288" t="s">
         <v>20</v>
@@ -10347,10 +10347,10 @@
         <v>11</v>
       </c>
       <c r="C290">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D290">
-        <v>336701</v>
+        <v>341201</v>
       </c>
       <c r="E290" t="s">
         <v>20</v>
@@ -10443,10 +10443,10 @@
         <v>11</v>
       </c>
       <c r="C293">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="D293">
-        <v>1252603</v>
+        <v>1257666</v>
       </c>
       <c r="E293" t="s">
         <v>20</v>
@@ -10475,10 +10475,10 @@
         <v>11</v>
       </c>
       <c r="C294">
-        <v>4472</v>
+        <v>4490</v>
       </c>
       <c r="D294">
-        <v>6479285</v>
+        <v>6504332</v>
       </c>
       <c r="E294" t="s">
         <v>20</v>
@@ -10507,10 +10507,10 @@
         <v>11</v>
       </c>
       <c r="C295">
-        <v>13219</v>
+        <v>13262</v>
       </c>
       <c r="D295">
-        <v>19492731</v>
+        <v>19552377</v>
       </c>
       <c r="E295" t="s">
         <v>20</v>
@@ -10539,10 +10539,10 @@
         <v>11</v>
       </c>
       <c r="C296">
-        <v>4645</v>
+        <v>4657</v>
       </c>
       <c r="D296">
-        <v>6944884</v>
+        <v>6962884</v>
       </c>
       <c r="E296" t="s">
         <v>20</v>
@@ -10571,10 +10571,10 @@
         <v>11</v>
       </c>
       <c r="C297">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="D297">
-        <v>2015592</v>
+        <v>2019662</v>
       </c>
       <c r="E297" t="s">
         <v>20</v>
@@ -10603,10 +10603,10 @@
         <v>11</v>
       </c>
       <c r="C298">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D298">
-        <v>374702</v>
+        <v>379202</v>
       </c>
       <c r="E298" t="s">
         <v>20</v>
@@ -10667,10 +10667,10 @@
         <v>11</v>
       </c>
       <c r="C300">
-        <v>3994</v>
+        <v>4008</v>
       </c>
       <c r="D300">
-        <v>5359755</v>
+        <v>5375227</v>
       </c>
       <c r="E300" t="s">
         <v>20</v>
@@ -10699,10 +10699,10 @@
         <v>11</v>
       </c>
       <c r="C301">
-        <v>1344</v>
+        <v>1351</v>
       </c>
       <c r="D301">
-        <v>1977008</v>
+        <v>1987508</v>
       </c>
       <c r="E301" t="s">
         <v>20</v>
@@ -10731,10 +10731,10 @@
         <v>11</v>
       </c>
       <c r="C302">
-        <v>4310</v>
+        <v>4329</v>
       </c>
       <c r="D302">
-        <v>6372826</v>
+        <v>6400632</v>
       </c>
       <c r="E302" t="s">
         <v>20</v>
@@ -10763,10 +10763,10 @@
         <v>11</v>
       </c>
       <c r="C303">
-        <v>1533</v>
+        <v>1539</v>
       </c>
       <c r="D303">
-        <v>2295057</v>
+        <v>2304057</v>
       </c>
       <c r="E303" t="s">
         <v>20</v>
@@ -10795,10 +10795,10 @@
         <v>11</v>
       </c>
       <c r="C304">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D304">
-        <v>576000</v>
+        <v>579000</v>
       </c>
       <c r="E304" t="s">
         <v>20</v>
@@ -10891,10 +10891,10 @@
         <v>11</v>
       </c>
       <c r="C307">
-        <v>1309</v>
+        <v>1316</v>
       </c>
       <c r="D307">
-        <v>1810951</v>
+        <v>1819468</v>
       </c>
       <c r="E307" t="s">
         <v>20</v>
@@ -10923,10 +10923,10 @@
         <v>11</v>
       </c>
       <c r="C308">
-        <v>2385</v>
+        <v>2389</v>
       </c>
       <c r="D308">
-        <v>3463009</v>
+        <v>3469009</v>
       </c>
       <c r="E308" t="s">
         <v>20</v>
@@ -10955,10 +10955,10 @@
         <v>11</v>
       </c>
       <c r="C309">
-        <v>7522</v>
+        <v>7539</v>
       </c>
       <c r="D309">
-        <v>11084340</v>
+        <v>11108541</v>
       </c>
       <c r="E309" t="s">
         <v>20</v>
@@ -10987,10 +10987,10 @@
         <v>11</v>
       </c>
       <c r="C310">
-        <v>2390</v>
+        <v>2395</v>
       </c>
       <c r="D310">
-        <v>3569737</v>
+        <v>3577237</v>
       </c>
       <c r="E310" t="s">
         <v>20</v>
@@ -11019,10 +11019,10 @@
         <v>11</v>
       </c>
       <c r="C311">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D311">
-        <v>1061204</v>
+        <v>1064204</v>
       </c>
       <c r="E311" t="s">
         <v>20</v>
@@ -11115,10 +11115,10 @@
         <v>11</v>
       </c>
       <c r="C314">
-        <v>2527</v>
+        <v>2537</v>
       </c>
       <c r="D314">
-        <v>3346116</v>
+        <v>3360156</v>
       </c>
       <c r="E314" t="s">
         <v>20</v>
@@ -11147,10 +11147,10 @@
         <v>11</v>
       </c>
       <c r="C315">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="D315">
-        <v>1437734</v>
+        <v>1443734</v>
       </c>
       <c r="E315" t="s">
         <v>20</v>
@@ -11179,10 +11179,10 @@
         <v>11</v>
       </c>
       <c r="C316">
-        <v>2862</v>
+        <v>2868</v>
       </c>
       <c r="D316">
-        <v>4229775</v>
+        <v>4236842</v>
       </c>
       <c r="E316" t="s">
         <v>20</v>
@@ -11211,10 +11211,10 @@
         <v>11</v>
       </c>
       <c r="C317">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D317">
-        <v>1575028</v>
+        <v>1578028</v>
       </c>
       <c r="E317" t="s">
         <v>20</v>
@@ -11243,10 +11243,10 @@
         <v>11</v>
       </c>
       <c r="C318">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D318">
-        <v>376571</v>
+        <v>378071</v>
       </c>
       <c r="E318" t="s">
         <v>20</v>
@@ -11307,10 +11307,10 @@
         <v>11</v>
       </c>
       <c r="C320">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="D320">
-        <v>1442520</v>
+        <v>1446806</v>
       </c>
       <c r="E320" t="s">
         <v>20</v>
@@ -11339,10 +11339,10 @@
         <v>11</v>
       </c>
       <c r="C321">
-        <v>2699</v>
+        <v>2709</v>
       </c>
       <c r="D321">
-        <v>3941438</v>
+        <v>3954918</v>
       </c>
       <c r="E321" t="s">
         <v>21</v>
@@ -11371,10 +11371,10 @@
         <v>11</v>
       </c>
       <c r="C322">
-        <v>7337</v>
+        <v>7371</v>
       </c>
       <c r="D322">
-        <v>10828142</v>
+        <v>10878685</v>
       </c>
       <c r="E322" t="s">
         <v>21</v>
@@ -11403,10 +11403,10 @@
         <v>11</v>
       </c>
       <c r="C323">
-        <v>2600</v>
+        <v>2612</v>
       </c>
       <c r="D323">
-        <v>3885113</v>
+        <v>3903113</v>
       </c>
       <c r="E323" t="s">
         <v>21</v>
@@ -11435,10 +11435,10 @@
         <v>11</v>
       </c>
       <c r="C324">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D324">
-        <v>1276049</v>
+        <v>1282049</v>
       </c>
       <c r="E324" t="s">
         <v>21</v>
@@ -11467,10 +11467,10 @@
         <v>11</v>
       </c>
       <c r="C325">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D325">
-        <v>253612</v>
+        <v>259612</v>
       </c>
       <c r="E325" t="s">
         <v>21</v>
@@ -11531,10 +11531,10 @@
         <v>11</v>
       </c>
       <c r="C327">
-        <v>2828</v>
+        <v>2847</v>
       </c>
       <c r="D327">
-        <v>3850533</v>
+        <v>3878333</v>
       </c>
       <c r="E327" t="s">
         <v>21</v>
@@ -11563,10 +11563,10 @@
         <v>11</v>
       </c>
       <c r="C328">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="D328">
-        <v>1254393</v>
+        <v>1267893</v>
       </c>
       <c r="E328" t="s">
         <v>22</v>
@@ -11595,10 +11595,10 @@
         <v>11</v>
       </c>
       <c r="C329">
-        <v>2979</v>
+        <v>2994</v>
       </c>
       <c r="D329">
-        <v>4403846</v>
+        <v>4425546</v>
       </c>
       <c r="E329" t="s">
         <v>22</v>
@@ -11627,10 +11627,10 @@
         <v>11</v>
       </c>
       <c r="C330">
-        <v>1170</v>
+        <v>1189</v>
       </c>
       <c r="D330">
-        <v>1751548</v>
+        <v>1779659</v>
       </c>
       <c r="E330" t="s">
         <v>22</v>
@@ -11659,10 +11659,10 @@
         <v>11</v>
       </c>
       <c r="C331">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D331">
-        <v>607500</v>
+        <v>618000</v>
       </c>
       <c r="E331" t="s">
         <v>22</v>
@@ -11755,10 +11755,10 @@
         <v>11</v>
       </c>
       <c r="C334">
-        <v>1753</v>
+        <v>1767</v>
       </c>
       <c r="D334">
-        <v>2358530</v>
+        <v>2371711</v>
       </c>
       <c r="E334" t="s">
         <v>22</v>
@@ -11947,10 +11947,10 @@
         <v>11</v>
       </c>
       <c r="C340">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="D340">
-        <v>2946871</v>
+        <v>2951371</v>
       </c>
       <c r="E340" t="s">
         <v>24</v>
@@ -11979,10 +11979,10 @@
         <v>11</v>
       </c>
       <c r="C341">
-        <v>5022</v>
+        <v>5040</v>
       </c>
       <c r="D341">
-        <v>7419625</v>
+        <v>7445049</v>
       </c>
       <c r="E341" t="s">
         <v>24</v>
@@ -12011,10 +12011,10 @@
         <v>11</v>
       </c>
       <c r="C342">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D342">
-        <v>2465871</v>
+        <v>2468871</v>
       </c>
       <c r="E342" t="s">
         <v>24</v>
@@ -12139,10 +12139,10 @@
         <v>11</v>
       </c>
       <c r="C346">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="D346">
-        <v>2052014</v>
+        <v>2058014</v>
       </c>
       <c r="E346" t="s">
         <v>24</v>
@@ -12171,10 +12171,10 @@
         <v>11</v>
       </c>
       <c r="C347">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="D347">
-        <v>1654678</v>
+        <v>1660678</v>
       </c>
       <c r="E347" t="s">
         <v>24</v>
@@ -12203,10 +12203,10 @@
         <v>11</v>
       </c>
       <c r="C348">
-        <v>3389</v>
+        <v>3402</v>
       </c>
       <c r="D348">
-        <v>5015450</v>
+        <v>5034020</v>
       </c>
       <c r="E348" t="s">
         <v>24</v>
@@ -12235,10 +12235,10 @@
         <v>11</v>
       </c>
       <c r="C349">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="D349">
-        <v>1653066</v>
+        <v>1663566</v>
       </c>
       <c r="E349" t="s">
         <v>24</v>
@@ -12267,10 +12267,10 @@
         <v>11</v>
       </c>
       <c r="C350">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D350">
-        <v>434542</v>
+        <v>436042</v>
       </c>
       <c r="E350" t="s">
         <v>24</v>
@@ -12363,10 +12363,10 @@
         <v>11</v>
       </c>
       <c r="C353">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="D353">
-        <v>1419503</v>
+        <v>1429662</v>
       </c>
       <c r="E353" t="s">
         <v>24</v>
@@ -12395,10 +12395,10 @@
         <v>11</v>
       </c>
       <c r="C354">
-        <v>1285</v>
+        <v>1290</v>
       </c>
       <c r="D354">
-        <v>1888138</v>
+        <v>1894247</v>
       </c>
       <c r="E354" t="s">
         <v>24</v>
@@ -12427,10 +12427,10 @@
         <v>11</v>
       </c>
       <c r="C355">
-        <v>3402</v>
+        <v>3414</v>
       </c>
       <c r="D355">
-        <v>5040814</v>
+        <v>5058117</v>
       </c>
       <c r="E355" t="s">
         <v>24</v>
@@ -12459,10 +12459,10 @@
         <v>11</v>
       </c>
       <c r="C356">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D356">
-        <v>1550343</v>
+        <v>1551843</v>
       </c>
       <c r="E356" t="s">
         <v>24</v>
@@ -12491,10 +12491,10 @@
         <v>11</v>
       </c>
       <c r="C357">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D357">
-        <v>415183</v>
+        <v>416683</v>
       </c>
       <c r="E357" t="s">
         <v>24</v>
@@ -12587,10 +12587,10 @@
         <v>11</v>
       </c>
       <c r="C360">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D360">
-        <v>906236</v>
+        <v>907736</v>
       </c>
       <c r="E360" t="s">
         <v>24</v>
@@ -12619,10 +12619,10 @@
         <v>11</v>
       </c>
       <c r="C361">
-        <v>1836</v>
+        <v>1843</v>
       </c>
       <c r="D361">
-        <v>2715762</v>
+        <v>2725704</v>
       </c>
       <c r="E361" t="s">
         <v>24</v>
@@ -12651,10 +12651,10 @@
         <v>11</v>
       </c>
       <c r="C362">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D362">
-        <v>753201</v>
+        <v>756201</v>
       </c>
       <c r="E362" t="s">
         <v>24</v>
@@ -12683,10 +12683,10 @@
         <v>11</v>
       </c>
       <c r="C363">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D363">
-        <v>183000</v>
+        <v>184500</v>
       </c>
       <c r="E363" t="s">
         <v>24</v>
@@ -12747,10 +12747,10 @@
         <v>11</v>
       </c>
       <c r="C365">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D365">
-        <v>970993</v>
+        <v>971593</v>
       </c>
       <c r="E365" t="s">
         <v>24</v>
@@ -12779,10 +12779,10 @@
         <v>11</v>
       </c>
       <c r="C366">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="D366">
-        <v>2854178</v>
+        <v>2857178</v>
       </c>
       <c r="E366" t="s">
         <v>24</v>
@@ -12811,10 +12811,10 @@
         <v>11</v>
       </c>
       <c r="C367">
-        <v>6462</v>
+        <v>6494</v>
       </c>
       <c r="D367">
-        <v>9565907</v>
+        <v>9612657</v>
       </c>
       <c r="E367" t="s">
         <v>24</v>
@@ -12843,10 +12843,10 @@
         <v>11</v>
       </c>
       <c r="C368">
-        <v>2306</v>
+        <v>2316</v>
       </c>
       <c r="D368">
-        <v>3449734</v>
+        <v>3464734</v>
       </c>
       <c r="E368" t="s">
         <v>24</v>
@@ -12875,10 +12875,10 @@
         <v>11</v>
       </c>
       <c r="C369">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D369">
-        <v>876785</v>
+        <v>878285</v>
       </c>
       <c r="E369" t="s">
         <v>24</v>
@@ -12971,10 +12971,10 @@
         <v>11</v>
       </c>
       <c r="C372">
-        <v>1934</v>
+        <v>1942</v>
       </c>
       <c r="D372">
-        <v>2593663</v>
+        <v>2604543</v>
       </c>
       <c r="E372" t="s">
         <v>24</v>
@@ -13003,10 +13003,10 @@
         <v>11</v>
       </c>
       <c r="C373">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D373">
-        <v>1132470</v>
+        <v>1136970</v>
       </c>
       <c r="E373" t="s">
         <v>25</v>
@@ -13035,10 +13035,10 @@
         <v>11</v>
       </c>
       <c r="C374">
-        <v>2214</v>
+        <v>2219</v>
       </c>
       <c r="D374">
-        <v>3264528</v>
+        <v>3272028</v>
       </c>
       <c r="E374" t="s">
         <v>25</v>
@@ -13067,10 +13067,10 @@
         <v>11</v>
       </c>
       <c r="C375">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D375">
-        <v>1068290</v>
+        <v>1068992</v>
       </c>
       <c r="E375" t="s">
         <v>25</v>
@@ -13099,10 +13099,10 @@
         <v>11</v>
       </c>
       <c r="C376">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D376">
-        <v>324911</v>
+        <v>326411</v>
       </c>
       <c r="E376" t="s">
         <v>25</v>
@@ -13163,10 +13163,10 @@
         <v>11</v>
       </c>
       <c r="C378">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="D378">
-        <v>1184399</v>
+        <v>1191299</v>
       </c>
       <c r="E378" t="s">
         <v>25</v>
@@ -13195,10 +13195,10 @@
         <v>11</v>
       </c>
       <c r="C379">
-        <v>2793</v>
+        <v>2799</v>
       </c>
       <c r="D379">
-        <v>4062370</v>
+        <v>4070395</v>
       </c>
       <c r="E379" t="s">
         <v>25</v>
@@ -13227,10 +13227,10 @@
         <v>11</v>
       </c>
       <c r="C380">
-        <v>5672</v>
+        <v>5691</v>
       </c>
       <c r="D380">
-        <v>8387841</v>
+        <v>8412915</v>
       </c>
       <c r="E380" t="s">
         <v>25</v>
@@ -13259,10 +13259,10 @@
         <v>11</v>
       </c>
       <c r="C381">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="D381">
-        <v>2491407</v>
+        <v>2494407</v>
       </c>
       <c r="E381" t="s">
         <v>25</v>
@@ -13291,10 +13291,10 @@
         <v>11</v>
       </c>
       <c r="C382">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D382">
-        <v>606585</v>
+        <v>611085</v>
       </c>
       <c r="E382" t="s">
         <v>25</v>
@@ -13355,10 +13355,10 @@
         <v>11</v>
       </c>
       <c r="C384">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D384">
-        <v>6000</v>
+        <v>6356</v>
       </c>
       <c r="E384" t="s">
         <v>25</v>
@@ -13387,10 +13387,10 @@
         <v>11</v>
       </c>
       <c r="C385">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="D385">
-        <v>2452203</v>
+        <v>2457878</v>
       </c>
       <c r="E385" t="s">
         <v>25</v>
@@ -13419,10 +13419,10 @@
         <v>11</v>
       </c>
       <c r="C386">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D386">
-        <v>1005222</v>
+        <v>1006722</v>
       </c>
       <c r="E386" t="s">
         <v>25</v>
@@ -13451,10 +13451,10 @@
         <v>11</v>
       </c>
       <c r="C387">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="D387">
-        <v>2654515</v>
+        <v>2665466</v>
       </c>
       <c r="E387" t="s">
         <v>25</v>
@@ -13483,10 +13483,10 @@
         <v>11</v>
       </c>
       <c r="C388">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D388">
-        <v>771889</v>
+        <v>774889</v>
       </c>
       <c r="E388" t="s">
         <v>25</v>
@@ -13579,10 +13579,10 @@
         <v>11</v>
       </c>
       <c r="C391">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="D391">
-        <v>1157391</v>
+        <v>1165522</v>
       </c>
       <c r="E391" t="s">
         <v>25</v>
@@ -13643,10 +13643,10 @@
         <v>11</v>
       </c>
       <c r="C393">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D393">
-        <v>997413</v>
+        <v>998913</v>
       </c>
       <c r="E393" t="s">
         <v>25</v>
@@ -13675,10 +13675,10 @@
         <v>11</v>
       </c>
       <c r="C394">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D394">
-        <v>324846</v>
+        <v>326346</v>
       </c>
       <c r="E394" t="s">
         <v>25</v>
@@ -13771,10 +13771,10 @@
         <v>11</v>
       </c>
       <c r="C397">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D397">
-        <v>485375</v>
+        <v>486484</v>
       </c>
       <c r="E397" t="s">
         <v>25</v>
@@ -13803,10 +13803,10 @@
         <v>11</v>
       </c>
       <c r="C398">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D398">
-        <v>895473</v>
+        <v>898473</v>
       </c>
       <c r="E398" t="s">
         <v>25</v>
@@ -13835,10 +13835,10 @@
         <v>11</v>
       </c>
       <c r="C399">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="D399">
-        <v>2966570</v>
+        <v>2976683</v>
       </c>
       <c r="E399" t="s">
         <v>25</v>
@@ -13867,10 +13867,10 @@
         <v>11</v>
       </c>
       <c r="C400">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D400">
-        <v>995981</v>
+        <v>1000481</v>
       </c>
       <c r="E400" t="s">
         <v>25</v>
@@ -13899,10 +13899,10 @@
         <v>11</v>
       </c>
       <c r="C401">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D401">
-        <v>235500</v>
+        <v>237000</v>
       </c>
       <c r="E401" t="s">
         <v>25</v>
@@ -13963,10 +13963,10 @@
         <v>11</v>
       </c>
       <c r="C403">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D403">
-        <v>894478</v>
+        <v>900164</v>
       </c>
       <c r="E403" t="s">
         <v>25</v>
@@ -13995,10 +13995,10 @@
         <v>11</v>
       </c>
       <c r="C404">
-        <v>1675</v>
+        <v>1687</v>
       </c>
       <c r="D404">
-        <v>2409514</v>
+        <v>2426351</v>
       </c>
       <c r="E404" t="s">
         <v>25</v>
@@ -14027,10 +14027,10 @@
         <v>11</v>
       </c>
       <c r="C405">
-        <v>3607</v>
+        <v>3617</v>
       </c>
       <c r="D405">
-        <v>5314578</v>
+        <v>5328670</v>
       </c>
       <c r="E405" t="s">
         <v>25</v>
@@ -14059,10 +14059,10 @@
         <v>11</v>
       </c>
       <c r="C406">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="D406">
-        <v>1485264</v>
+        <v>1489764</v>
       </c>
       <c r="E406" t="s">
         <v>25</v>
@@ -14155,10 +14155,10 @@
         <v>11</v>
       </c>
       <c r="C409">
-        <v>1555</v>
+        <v>1567</v>
       </c>
       <c r="D409">
-        <v>2066348</v>
+        <v>2081261</v>
       </c>
       <c r="E409" t="s">
         <v>25</v>
@@ -14187,10 +14187,10 @@
         <v>11</v>
       </c>
       <c r="C410">
-        <v>5610</v>
+        <v>5630</v>
       </c>
       <c r="D410">
-        <v>8180322</v>
+        <v>8209217</v>
       </c>
       <c r="E410" t="s">
         <v>25</v>
@@ -14219,10 +14219,10 @@
         <v>11</v>
       </c>
       <c r="C411">
-        <v>12166</v>
+        <v>12227</v>
       </c>
       <c r="D411">
-        <v>17934126</v>
+        <v>18021922</v>
       </c>
       <c r="E411" t="s">
         <v>25</v>
@@ -14251,10 +14251,10 @@
         <v>11</v>
       </c>
       <c r="C412">
-        <v>4125</v>
+        <v>4141</v>
       </c>
       <c r="D412">
-        <v>6157523</v>
+        <v>6179867</v>
       </c>
       <c r="E412" t="s">
         <v>25</v>
@@ -14283,10 +14283,10 @@
         <v>11</v>
       </c>
       <c r="C413">
-        <v>1212</v>
+        <v>1219</v>
       </c>
       <c r="D413">
-        <v>1814610</v>
+        <v>1825110</v>
       </c>
       <c r="E413" t="s">
         <v>25</v>
@@ -14315,10 +14315,10 @@
         <v>11</v>
       </c>
       <c r="C414">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D414">
-        <v>349500</v>
+        <v>351000</v>
       </c>
       <c r="E414" t="s">
         <v>25</v>
@@ -14411,10 +14411,10 @@
         <v>11</v>
       </c>
       <c r="C417">
-        <v>4203</v>
+        <v>4217</v>
       </c>
       <c r="D417">
-        <v>5791899</v>
+        <v>5809824</v>
       </c>
       <c r="E417" t="s">
         <v>25</v>
@@ -14475,10 +14475,10 @@
         <v>11</v>
       </c>
       <c r="C419">
-        <v>2185</v>
+        <v>2197</v>
       </c>
       <c r="D419">
-        <v>3234186</v>
+        <v>3252186</v>
       </c>
       <c r="E419" t="s">
         <v>25</v>
@@ -14507,10 +14507,10 @@
         <v>11</v>
       </c>
       <c r="C420">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D420">
-        <v>1068756</v>
+        <v>1070256</v>
       </c>
       <c r="E420" t="s">
         <v>25</v>
@@ -14539,10 +14539,10 @@
         <v>11</v>
       </c>
       <c r="C421">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D421">
-        <v>321381</v>
+        <v>324381</v>
       </c>
       <c r="E421" t="s">
         <v>25</v>
@@ -14603,10 +14603,10 @@
         <v>11</v>
       </c>
       <c r="C423">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D423">
-        <v>1387511</v>
+        <v>1389011</v>
       </c>
       <c r="E423" t="s">
         <v>25</v>
@@ -14635,10 +14635,10 @@
         <v>11</v>
       </c>
       <c r="C424">
-        <v>1804</v>
+        <v>1810</v>
       </c>
       <c r="D424">
-        <v>2602940</v>
+        <v>2611642</v>
       </c>
       <c r="E424" t="s">
         <v>25</v>
@@ -14667,10 +14667,10 @@
         <v>11</v>
       </c>
       <c r="C425">
-        <v>3409</v>
+        <v>3416</v>
       </c>
       <c r="D425">
-        <v>5023699</v>
+        <v>5034199</v>
       </c>
       <c r="E425" t="s">
         <v>25</v>
@@ -14699,10 +14699,10 @@
         <v>11</v>
       </c>
       <c r="C426">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="D426">
-        <v>1534046</v>
+        <v>1544546</v>
       </c>
       <c r="E426" t="s">
         <v>25</v>
@@ -14731,10 +14731,10 @@
         <v>11</v>
       </c>
       <c r="C427">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D427">
-        <v>367846</v>
+        <v>370846</v>
       </c>
       <c r="E427" t="s">
         <v>25</v>
@@ -14827,10 +14827,10 @@
         <v>11</v>
       </c>
       <c r="C430">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D430">
-        <v>1322457</v>
+        <v>1325457</v>
       </c>
       <c r="E430" t="s">
         <v>25</v>
@@ -14859,10 +14859,10 @@
         <v>11</v>
       </c>
       <c r="C431">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D431">
-        <v>1556789</v>
+        <v>1558289</v>
       </c>
       <c r="E431" t="s">
         <v>25</v>
@@ -14891,10 +14891,10 @@
         <v>11</v>
       </c>
       <c r="C432">
-        <v>2351</v>
+        <v>2359</v>
       </c>
       <c r="D432">
-        <v>3471396</v>
+        <v>3483396</v>
       </c>
       <c r="E432" t="s">
         <v>25</v>
@@ -14923,10 +14923,10 @@
         <v>11</v>
       </c>
       <c r="C433">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D433">
-        <v>1207977</v>
+        <v>1210977</v>
       </c>
       <c r="E433" t="s">
         <v>25</v>
@@ -14955,10 +14955,10 @@
         <v>11</v>
       </c>
       <c r="C434">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D434">
-        <v>276000</v>
+        <v>280500</v>
       </c>
       <c r="E434" t="s">
         <v>25</v>
@@ -15051,10 +15051,10 @@
         <v>11</v>
       </c>
       <c r="C437">
-        <v>2339</v>
+        <v>2344</v>
       </c>
       <c r="D437">
-        <v>3391209</v>
+        <v>3398709</v>
       </c>
       <c r="E437" t="s">
         <v>25</v>
@@ -15083,10 +15083,10 @@
         <v>11</v>
       </c>
       <c r="C438">
-        <v>6198</v>
+        <v>6225</v>
       </c>
       <c r="D438">
-        <v>9138757</v>
+        <v>9177482</v>
       </c>
       <c r="E438" t="s">
         <v>25</v>
@@ -15115,10 +15115,10 @@
         <v>11</v>
       </c>
       <c r="C439">
-        <v>2048</v>
+        <v>2056</v>
       </c>
       <c r="D439">
-        <v>3053755</v>
+        <v>3065755</v>
       </c>
       <c r="E439" t="s">
         <v>25</v>
@@ -15147,10 +15147,10 @@
         <v>11</v>
       </c>
       <c r="C440">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D440">
-        <v>790144</v>
+        <v>793144</v>
       </c>
       <c r="E440" t="s">
         <v>25</v>
@@ -15243,10 +15243,10 @@
         <v>11</v>
       </c>
       <c r="C443">
-        <v>2291</v>
+        <v>2299</v>
       </c>
       <c r="D443">
-        <v>3139329</v>
+        <v>3148264</v>
       </c>
       <c r="E443" t="s">
         <v>25</v>
@@ -15275,10 +15275,10 @@
         <v>11</v>
       </c>
       <c r="C444">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="D444">
-        <v>1128864</v>
+        <v>1134864</v>
       </c>
       <c r="E444" t="s">
         <v>25</v>
@@ -15307,10 +15307,10 @@
         <v>11</v>
       </c>
       <c r="C445">
-        <v>2340</v>
+        <v>2344</v>
       </c>
       <c r="D445">
-        <v>3456188</v>
+        <v>3462188</v>
       </c>
       <c r="E445" t="s">
         <v>25</v>
@@ -15339,10 +15339,10 @@
         <v>11</v>
       </c>
       <c r="C446">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D446">
-        <v>1155215</v>
+        <v>1156715</v>
       </c>
       <c r="E446" t="s">
         <v>25</v>
@@ -15371,10 +15371,10 @@
         <v>11</v>
       </c>
       <c r="C447">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D447">
-        <v>326714</v>
+        <v>328214</v>
       </c>
       <c r="E447" t="s">
         <v>25</v>
@@ -15467,10 +15467,10 @@
         <v>11</v>
       </c>
       <c r="C450">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D450">
-        <v>1104046</v>
+        <v>1108546</v>
       </c>
       <c r="E450" t="s">
         <v>25</v>
@@ -15499,10 +15499,10 @@
         <v>11</v>
       </c>
       <c r="C451">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D451">
-        <v>468764</v>
+        <v>470264</v>
       </c>
       <c r="E451" t="s">
         <v>26</v>
@@ -15531,10 +15531,10 @@
         <v>11</v>
       </c>
       <c r="C452">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="D452">
-        <v>1694576</v>
+        <v>1700576</v>
       </c>
       <c r="E452" t="s">
         <v>26</v>
@@ -15563,10 +15563,10 @@
         <v>11</v>
       </c>
       <c r="C453">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D453">
-        <v>602515</v>
+        <v>605515</v>
       </c>
       <c r="E453" t="s">
         <v>26</v>
@@ -15595,10 +15595,10 @@
         <v>11</v>
       </c>
       <c r="C454">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D454">
-        <v>153945</v>
+        <v>155445</v>
       </c>
       <c r="E454" t="s">
         <v>26</v>
@@ -15659,10 +15659,10 @@
         <v>11</v>
       </c>
       <c r="C456">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D456">
-        <v>693406</v>
+        <v>696406</v>
       </c>
       <c r="E456" t="s">
         <v>26</v>
@@ -15691,10 +15691,10 @@
         <v>11</v>
       </c>
       <c r="C457">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="D457">
-        <v>2486964</v>
+        <v>2492755</v>
       </c>
       <c r="E457" t="s">
         <v>26</v>
@@ -15723,10 +15723,10 @@
         <v>11</v>
       </c>
       <c r="C458">
-        <v>3295</v>
+        <v>3302</v>
       </c>
       <c r="D458">
-        <v>4856670</v>
+        <v>4865871</v>
       </c>
       <c r="E458" t="s">
         <v>26</v>
@@ -15755,10 +15755,10 @@
         <v>11</v>
       </c>
       <c r="C459">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D459">
-        <v>1486818</v>
+        <v>1492818</v>
       </c>
       <c r="E459" t="s">
         <v>26</v>
@@ -15883,10 +15883,10 @@
         <v>11</v>
       </c>
       <c r="C463">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D463">
-        <v>1556687</v>
+        <v>1558187</v>
       </c>
       <c r="E463" t="s">
         <v>26</v>
@@ -15915,10 +15915,10 @@
         <v>11</v>
       </c>
       <c r="C464">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="D464">
-        <v>1565041</v>
+        <v>1569485</v>
       </c>
       <c r="E464" t="s">
         <v>26</v>
@@ -15947,10 +15947,10 @@
         <v>11</v>
       </c>
       <c r="C465">
-        <v>2364</v>
+        <v>2380</v>
       </c>
       <c r="D465">
-        <v>3482482</v>
+        <v>3506482</v>
       </c>
       <c r="E465" t="s">
         <v>26</v>
@@ -15979,10 +15979,10 @@
         <v>11</v>
       </c>
       <c r="C466">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D466">
-        <v>1047590</v>
+        <v>1050590</v>
       </c>
       <c r="E466" t="s">
         <v>26</v>
@@ -16011,10 +16011,10 @@
         <v>11</v>
       </c>
       <c r="C467">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D467">
-        <v>271781</v>
+        <v>274781</v>
       </c>
       <c r="E467" t="s">
         <v>26</v>
@@ -16107,10 +16107,10 @@
         <v>11</v>
       </c>
       <c r="C470">
-        <v>1203</v>
+        <v>1210</v>
       </c>
       <c r="D470">
-        <v>1628227</v>
+        <v>1638314</v>
       </c>
       <c r="E470" t="s">
         <v>26</v>
@@ -16139,10 +16139,10 @@
         <v>11</v>
       </c>
       <c r="C471">
-        <v>2803</v>
+        <v>2810</v>
       </c>
       <c r="D471">
-        <v>4082826</v>
+        <v>4091733</v>
       </c>
       <c r="E471" t="s">
         <v>26</v>
@@ -16171,10 +16171,10 @@
         <v>11</v>
       </c>
       <c r="C472">
-        <v>6748</v>
+        <v>6770</v>
       </c>
       <c r="D472">
-        <v>9944029</v>
+        <v>9976499</v>
       </c>
       <c r="E472" t="s">
         <v>26</v>
@@ -16203,10 +16203,10 @@
         <v>11</v>
       </c>
       <c r="C473">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="D473">
-        <v>2885823</v>
+        <v>2890323</v>
       </c>
       <c r="E473" t="s">
         <v>26</v>
@@ -16299,10 +16299,10 @@
         <v>11</v>
       </c>
       <c r="C476">
-        <v>2518</v>
+        <v>2528</v>
       </c>
       <c r="D476">
-        <v>3404908</v>
+        <v>3418901</v>
       </c>
       <c r="E476" t="s">
         <v>26</v>
@@ -16331,10 +16331,10 @@
         <v>11</v>
       </c>
       <c r="C477">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D477">
-        <v>929197</v>
+        <v>934286</v>
       </c>
       <c r="E477" t="s">
         <v>26</v>
@@ -16363,10 +16363,10 @@
         <v>11</v>
       </c>
       <c r="C478">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="D478">
-        <v>2146328</v>
+        <v>2149328</v>
       </c>
       <c r="E478" t="s">
         <v>26</v>
@@ -16395,10 +16395,10 @@
         <v>11</v>
       </c>
       <c r="C479">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D479">
-        <v>690918</v>
+        <v>692418</v>
       </c>
       <c r="E479" t="s">
         <v>26</v>
@@ -16491,10 +16491,10 @@
         <v>11</v>
       </c>
       <c r="C482">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="D482">
-        <v>1022379</v>
+        <v>1028891</v>
       </c>
       <c r="E482" t="s">
         <v>26</v>
@@ -16523,10 +16523,10 @@
         <v>11</v>
       </c>
       <c r="C483">
-        <v>3941</v>
+        <v>3951</v>
       </c>
       <c r="D483">
-        <v>5749174</v>
+        <v>5762307</v>
       </c>
       <c r="E483" t="s">
         <v>26</v>
@@ -16555,10 +16555,10 @@
         <v>11</v>
       </c>
       <c r="C484">
-        <v>9686</v>
+        <v>9716</v>
       </c>
       <c r="D484">
-        <v>14311573</v>
+        <v>14355435</v>
       </c>
       <c r="E484" t="s">
         <v>26</v>
@@ -16587,10 +16587,10 @@
         <v>11</v>
       </c>
       <c r="C485">
-        <v>3422</v>
+        <v>3436</v>
       </c>
       <c r="D485">
-        <v>5108742</v>
+        <v>5128693</v>
       </c>
       <c r="E485" t="s">
         <v>26</v>
@@ -16619,10 +16619,10 @@
         <v>11</v>
       </c>
       <c r="C486">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="D486">
-        <v>1503827</v>
+        <v>1511327</v>
       </c>
       <c r="E486" t="s">
         <v>26</v>
@@ -16715,10 +16715,10 @@
         <v>11</v>
       </c>
       <c r="C489">
-        <v>3826</v>
+        <v>3840</v>
       </c>
       <c r="D489">
-        <v>5214191</v>
+        <v>5231185</v>
       </c>
       <c r="E489" t="s">
         <v>26</v>
@@ -16747,10 +16747,10 @@
         <v>11</v>
       </c>
       <c r="C490">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D490">
-        <v>1170593</v>
+        <v>1176193</v>
       </c>
       <c r="E490" t="s">
         <v>26</v>
@@ -16779,10 +16779,10 @@
         <v>11</v>
       </c>
       <c r="C491">
-        <v>2055</v>
+        <v>2063</v>
       </c>
       <c r="D491">
-        <v>3026449</v>
+        <v>3038449</v>
       </c>
       <c r="E491" t="s">
         <v>26</v>
@@ -16811,10 +16811,10 @@
         <v>11</v>
       </c>
       <c r="C492">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D492">
-        <v>990327</v>
+        <v>996327</v>
       </c>
       <c r="E492" t="s">
         <v>26</v>
@@ -16907,10 +16907,10 @@
         <v>11</v>
       </c>
       <c r="C495">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D495">
-        <v>1492555</v>
+        <v>1494236</v>
       </c>
       <c r="E495" t="s">
         <v>26</v>
@@ -16939,10 +16939,10 @@
         <v>11</v>
       </c>
       <c r="C496">
-        <v>5267</v>
+        <v>5285</v>
       </c>
       <c r="D496">
-        <v>7659613</v>
+        <v>7685833</v>
       </c>
       <c r="E496" t="s">
         <v>26</v>
@@ -16971,10 +16971,10 @@
         <v>11</v>
       </c>
       <c r="C497">
-        <v>11859</v>
+        <v>11908</v>
       </c>
       <c r="D497">
-        <v>17470251</v>
+        <v>17541421</v>
       </c>
       <c r="E497" t="s">
         <v>26</v>
@@ -17003,10 +17003,10 @@
         <v>11</v>
       </c>
       <c r="C498">
-        <v>3628</v>
+        <v>3642</v>
       </c>
       <c r="D498">
-        <v>5415936</v>
+        <v>5436536</v>
       </c>
       <c r="E498" t="s">
         <v>26</v>
@@ -17035,10 +17035,10 @@
         <v>11</v>
       </c>
       <c r="C499">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D499">
-        <v>1360338</v>
+        <v>1364838</v>
       </c>
       <c r="E499" t="s">
         <v>26</v>
@@ -17067,10 +17067,10 @@
         <v>11</v>
       </c>
       <c r="C500">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D500">
-        <v>211700</v>
+        <v>213200</v>
       </c>
       <c r="E500" t="s">
         <v>26</v>
@@ -17131,10 +17131,10 @@
         <v>11</v>
       </c>
       <c r="C502">
-        <v>3785</v>
+        <v>3794</v>
       </c>
       <c r="D502">
-        <v>5130074</v>
+        <v>5141626</v>
       </c>
       <c r="E502" t="s">
         <v>26</v>
@@ -17163,10 +17163,10 @@
         <v>11</v>
       </c>
       <c r="C503">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D503">
-        <v>1149794</v>
+        <v>1154294</v>
       </c>
       <c r="E503" t="s">
         <v>26</v>
@@ -17195,10 +17195,10 @@
         <v>11</v>
       </c>
       <c r="C504">
-        <v>1462</v>
+        <v>1470</v>
       </c>
       <c r="D504">
-        <v>2161107</v>
+        <v>2173107</v>
       </c>
       <c r="E504" t="s">
         <v>26</v>
@@ -17227,10 +17227,10 @@
         <v>11</v>
       </c>
       <c r="C505">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D505">
-        <v>594718</v>
+        <v>599218</v>
       </c>
       <c r="E505" t="s">
         <v>26</v>
@@ -17291,10 +17291,10 @@
         <v>11</v>
       </c>
       <c r="C507">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D507">
-        <v>7798</v>
+        <v>9298</v>
       </c>
       <c r="E507" t="s">
         <v>26</v>
@@ -17323,10 +17323,10 @@
         <v>11</v>
       </c>
       <c r="C508">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D508">
-        <v>994296</v>
+        <v>995796</v>
       </c>
       <c r="E508" t="s">
         <v>26</v>
@@ -17355,10 +17355,10 @@
         <v>11</v>
       </c>
       <c r="C509">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D509">
-        <v>618051</v>
+        <v>621303</v>
       </c>
       <c r="E509" t="s">
         <v>26</v>
@@ -17387,10 +17387,10 @@
         <v>11</v>
       </c>
       <c r="C510">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D510">
-        <v>958051</v>
+        <v>962551</v>
       </c>
       <c r="E510" t="s">
         <v>26</v>
@@ -17419,10 +17419,10 @@
         <v>11</v>
       </c>
       <c r="C511">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D511">
-        <v>283792</v>
+        <v>286792</v>
       </c>
       <c r="E511" t="s">
         <v>26</v>
@@ -17515,10 +17515,10 @@
         <v>11</v>
       </c>
       <c r="C514">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D514">
-        <v>399240</v>
+        <v>403740</v>
       </c>
       <c r="E514" t="s">
         <v>26</v>
@@ -17547,10 +17547,10 @@
         <v>11</v>
       </c>
       <c r="C515">
-        <v>2420</v>
+        <v>2426</v>
       </c>
       <c r="D515">
-        <v>3522781</v>
+        <v>3530706</v>
       </c>
       <c r="E515" t="s">
         <v>26</v>
@@ -17579,10 +17579,10 @@
         <v>11</v>
       </c>
       <c r="C516">
-        <v>4396</v>
+        <v>4407</v>
       </c>
       <c r="D516">
-        <v>6447084</v>
+        <v>6461976</v>
       </c>
       <c r="E516" t="s">
         <v>26</v>
@@ -17611,10 +17611,10 @@
         <v>11</v>
       </c>
       <c r="C517">
-        <v>1367</v>
+        <v>1372</v>
       </c>
       <c r="D517">
-        <v>2042240</v>
+        <v>2049740</v>
       </c>
       <c r="E517" t="s">
         <v>26</v>
@@ -17643,10 +17643,10 @@
         <v>11</v>
       </c>
       <c r="C518">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D518">
-        <v>539224</v>
+        <v>542224</v>
       </c>
       <c r="E518" t="s">
         <v>26</v>
@@ -17707,10 +17707,10 @@
         <v>11</v>
       </c>
       <c r="C520">
-        <v>1639</v>
+        <v>1647</v>
       </c>
       <c r="D520">
-        <v>2210139</v>
+        <v>2219992</v>
       </c>
       <c r="E520" t="s">
         <v>26</v>
@@ -17739,10 +17739,10 @@
         <v>11</v>
       </c>
       <c r="C521">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="D521">
-        <v>1571720</v>
+        <v>1579220</v>
       </c>
       <c r="E521" t="s">
         <v>26</v>
@@ -17771,10 +17771,10 @@
         <v>11</v>
       </c>
       <c r="C522">
-        <v>2810</v>
+        <v>2821</v>
       </c>
       <c r="D522">
-        <v>4157773</v>
+        <v>4173100</v>
       </c>
       <c r="E522" t="s">
         <v>26</v>
@@ -17803,10 +17803,10 @@
         <v>11</v>
       </c>
       <c r="C523">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D523">
-        <v>1219557</v>
+        <v>1220403</v>
       </c>
       <c r="E523" t="s">
         <v>26</v>
@@ -17899,10 +17899,10 @@
         <v>11</v>
       </c>
       <c r="C526">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="D526">
-        <v>1521068</v>
+        <v>1528568</v>
       </c>
       <c r="E526" t="s">
         <v>26</v>
@@ -17931,10 +17931,10 @@
         <v>11</v>
       </c>
       <c r="C527">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="D527">
-        <v>1028548</v>
+        <v>1034455</v>
       </c>
       <c r="E527" t="s">
         <v>26</v>
@@ -17963,10 +17963,10 @@
         <v>11</v>
       </c>
       <c r="C528">
-        <v>1799</v>
+        <v>1805</v>
       </c>
       <c r="D528">
-        <v>2655367</v>
+        <v>2663467</v>
       </c>
       <c r="E528" t="s">
         <v>26</v>
@@ -17995,10 +17995,10 @@
         <v>11</v>
       </c>
       <c r="C529">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D529">
-        <v>798646</v>
+        <v>803146</v>
       </c>
       <c r="E529" t="s">
         <v>26</v>
@@ -18027,10 +18027,10 @@
         <v>11</v>
       </c>
       <c r="C530">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D530">
-        <v>223500</v>
+        <v>226500</v>
       </c>
       <c r="E530" t="s">
         <v>26</v>
@@ -18123,10 +18123,10 @@
         <v>11</v>
       </c>
       <c r="C533">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="D533">
-        <v>1026475</v>
+        <v>1030975</v>
       </c>
       <c r="E533" t="s">
         <v>26</v>
@@ -18155,10 +18155,10 @@
         <v>11</v>
       </c>
       <c r="C534">
-        <v>3318</v>
+        <v>3322</v>
       </c>
       <c r="D534">
-        <v>4858042</v>
+        <v>4864042</v>
       </c>
       <c r="E534" t="s">
         <v>27</v>
@@ -18187,10 +18187,10 @@
         <v>11</v>
       </c>
       <c r="C535">
-        <v>8373</v>
+        <v>8396</v>
       </c>
       <c r="D535">
-        <v>12409545</v>
+        <v>12440838</v>
       </c>
       <c r="E535" t="s">
         <v>27</v>
@@ -18219,10 +18219,10 @@
         <v>11</v>
       </c>
       <c r="C536">
-        <v>3077</v>
+        <v>3089</v>
       </c>
       <c r="D536">
-        <v>4596778</v>
+        <v>4614778</v>
       </c>
       <c r="E536" t="s">
         <v>27</v>
@@ -18251,10 +18251,10 @@
         <v>11</v>
       </c>
       <c r="C537">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D537">
-        <v>1136845</v>
+        <v>1138345</v>
       </c>
       <c r="E537" t="s">
         <v>27</v>
@@ -18347,10 +18347,10 @@
         <v>11</v>
       </c>
       <c r="C540">
-        <v>2702</v>
+        <v>2713</v>
       </c>
       <c r="D540">
-        <v>3678919</v>
+        <v>3692609</v>
       </c>
       <c r="E540" t="s">
         <v>27</v>
@@ -18379,10 +18379,10 @@
         <v>11</v>
       </c>
       <c r="C541">
-        <v>1499</v>
+        <v>1506</v>
       </c>
       <c r="D541">
-        <v>2193122</v>
+        <v>2203113</v>
       </c>
       <c r="E541" t="s">
         <v>27</v>
@@ -18411,10 +18411,10 @@
         <v>11</v>
       </c>
       <c r="C542">
-        <v>4789</v>
+        <v>4811</v>
       </c>
       <c r="D542">
-        <v>7092506</v>
+        <v>7123842</v>
       </c>
       <c r="E542" t="s">
         <v>27</v>
@@ -18443,10 +18443,10 @@
         <v>11</v>
       </c>
       <c r="C543">
-        <v>1546</v>
+        <v>1551</v>
       </c>
       <c r="D543">
-        <v>2305004</v>
+        <v>2312504</v>
       </c>
       <c r="E543" t="s">
         <v>27</v>
@@ -18571,10 +18571,10 @@
         <v>11</v>
       </c>
       <c r="C547">
-        <v>1482</v>
+        <v>1490</v>
       </c>
       <c r="D547">
-        <v>2039148</v>
+        <v>2048436</v>
       </c>
       <c r="E547" t="s">
         <v>27</v>
@@ -18603,10 +18603,10 @@
         <v>11</v>
       </c>
       <c r="C548">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D548">
-        <v>918216</v>
+        <v>924216</v>
       </c>
       <c r="E548" t="s">
         <v>27</v>
@@ -18635,10 +18635,10 @@
         <v>11</v>
       </c>
       <c r="C549">
-        <v>1723</v>
+        <v>1729</v>
       </c>
       <c r="D549">
-        <v>2546729</v>
+        <v>2554538</v>
       </c>
       <c r="E549" t="s">
         <v>27</v>
@@ -18667,10 +18667,10 @@
         <v>11</v>
       </c>
       <c r="C550">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D550">
-        <v>804498</v>
+        <v>807498</v>
       </c>
       <c r="E550" t="s">
         <v>27</v>
@@ -18795,10 +18795,10 @@
         <v>11</v>
       </c>
       <c r="C554">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D554">
-        <v>722727</v>
+        <v>725128</v>
       </c>
       <c r="E554" t="s">
         <v>27</v>
@@ -18827,10 +18827,10 @@
         <v>11</v>
       </c>
       <c r="C555">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="D555">
-        <v>1492711</v>
+        <v>1496757</v>
       </c>
       <c r="E555" t="s">
         <v>27</v>
@@ -18859,10 +18859,10 @@
         <v>11</v>
       </c>
       <c r="C556">
-        <v>2829</v>
+        <v>2837</v>
       </c>
       <c r="D556">
-        <v>4190607</v>
+        <v>4202004</v>
       </c>
       <c r="E556" t="s">
         <v>27</v>
@@ -18891,10 +18891,10 @@
         <v>11</v>
       </c>
       <c r="C557">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D557">
-        <v>1399147</v>
+        <v>1400647</v>
       </c>
       <c r="E557" t="s">
         <v>27</v>
@@ -18923,10 +18923,10 @@
         <v>11</v>
       </c>
       <c r="C558">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D558">
-        <v>335199</v>
+        <v>338199</v>
       </c>
       <c r="E558" t="s">
         <v>27</v>
@@ -18987,10 +18987,10 @@
         <v>11</v>
       </c>
       <c r="C560">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D560">
-        <v>1201891</v>
+        <v>1205647</v>
       </c>
       <c r="E560" t="s">
         <v>27</v>
@@ -19019,10 +19019,10 @@
         <v>11</v>
       </c>
       <c r="C561">
-        <v>2094</v>
+        <v>2100</v>
       </c>
       <c r="D561">
-        <v>3048798</v>
+        <v>3057333</v>
       </c>
       <c r="E561" t="s">
         <v>27</v>
@@ -19051,10 +19051,10 @@
         <v>11</v>
       </c>
       <c r="C562">
-        <v>4464</v>
+        <v>4473</v>
       </c>
       <c r="D562">
-        <v>6595826</v>
+        <v>6607852</v>
       </c>
       <c r="E562" t="s">
         <v>27</v>
@@ -19083,10 +19083,10 @@
         <v>11</v>
       </c>
       <c r="C563">
-        <v>1588</v>
+        <v>1597</v>
       </c>
       <c r="D563">
-        <v>2369387</v>
+        <v>2382887</v>
       </c>
       <c r="E563" t="s">
         <v>27</v>
@@ -19115,10 +19115,10 @@
         <v>11</v>
       </c>
       <c r="C564">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D564">
-        <v>523040</v>
+        <v>524540</v>
       </c>
       <c r="E564" t="s">
         <v>27</v>
@@ -19211,10 +19211,10 @@
         <v>11</v>
       </c>
       <c r="C567">
-        <v>1349</v>
+        <v>1356</v>
       </c>
       <c r="D567">
-        <v>1854213</v>
+        <v>1863340</v>
       </c>
       <c r="E567" t="s">
         <v>27</v>
@@ -19243,10 +19243,10 @@
         <v>11</v>
       </c>
       <c r="C568">
-        <v>5170</v>
+        <v>5196</v>
       </c>
       <c r="D568">
-        <v>7541960</v>
+        <v>7578982</v>
       </c>
       <c r="E568" t="s">
         <v>28</v>
@@ -19275,10 +19275,10 @@
         <v>11</v>
       </c>
       <c r="C569">
-        <v>13053</v>
+        <v>13128</v>
       </c>
       <c r="D569">
-        <v>19295774</v>
+        <v>19403695</v>
       </c>
       <c r="E569" t="s">
         <v>28</v>
@@ -19307,10 +19307,10 @@
         <v>11</v>
       </c>
       <c r="C570">
-        <v>3969</v>
+        <v>3991</v>
       </c>
       <c r="D570">
-        <v>5931306</v>
+        <v>5964021</v>
       </c>
       <c r="E570" t="s">
         <v>28</v>
@@ -19339,10 +19339,10 @@
         <v>11</v>
       </c>
       <c r="C571">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D571">
-        <v>1607407</v>
+        <v>1610407</v>
       </c>
       <c r="E571" t="s">
         <v>28</v>
@@ -19371,10 +19371,10 @@
         <v>11</v>
       </c>
       <c r="C572">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D572">
-        <v>328958</v>
+        <v>330458</v>
       </c>
       <c r="E572" t="s">
         <v>28</v>
@@ -19435,10 +19435,10 @@
         <v>11</v>
       </c>
       <c r="C574">
-        <v>4538</v>
+        <v>4567</v>
       </c>
       <c r="D574">
-        <v>6297939</v>
+        <v>6336717</v>
       </c>
       <c r="E574" t="s">
         <v>28</v>
@@ -19467,10 +19467,10 @@
         <v>11</v>
       </c>
       <c r="C575">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D575">
-        <v>1339652</v>
+        <v>1344152</v>
       </c>
       <c r="E575" t="s">
         <v>28</v>
@@ -19499,10 +19499,10 @@
         <v>11</v>
       </c>
       <c r="C576">
-        <v>1812</v>
+        <v>1817</v>
       </c>
       <c r="D576">
-        <v>2659836</v>
+        <v>2667336</v>
       </c>
       <c r="E576" t="s">
         <v>28</v>
@@ -19531,10 +19531,10 @@
         <v>11</v>
       </c>
       <c r="C577">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D577">
-        <v>794159</v>
+        <v>798659</v>
       </c>
       <c r="E577" t="s">
         <v>28</v>
@@ -19563,10 +19563,10 @@
         <v>11</v>
       </c>
       <c r="C578">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D578">
-        <v>145169</v>
+        <v>146669</v>
       </c>
       <c r="E578" t="s">
         <v>28</v>
@@ -19627,10 +19627,10 @@
         <v>11</v>
       </c>
       <c r="C580">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D580">
-        <v>1012945</v>
+        <v>1014445</v>
       </c>
       <c r="E580" t="s">
         <v>28</v>
@@ -19659,10 +19659,10 @@
         <v>11</v>
       </c>
       <c r="C581">
-        <v>6580</v>
+        <v>6600</v>
       </c>
       <c r="D581">
-        <v>9633328</v>
+        <v>9660528</v>
       </c>
       <c r="E581" t="s">
         <v>28</v>
@@ -19691,10 +19691,10 @@
         <v>11</v>
       </c>
       <c r="C582">
-        <v>18476</v>
+        <v>18556</v>
       </c>
       <c r="D582">
-        <v>27307197</v>
+        <v>27424453</v>
       </c>
       <c r="E582" t="s">
         <v>28</v>
@@ -19723,10 +19723,10 @@
         <v>11</v>
       </c>
       <c r="C583">
-        <v>5837</v>
+        <v>5869</v>
       </c>
       <c r="D583">
-        <v>8724959</v>
+        <v>8772959</v>
       </c>
       <c r="E583" t="s">
         <v>28</v>
@@ -19755,10 +19755,10 @@
         <v>11</v>
       </c>
       <c r="C584">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="D584">
-        <v>2215176</v>
+        <v>2218828</v>
       </c>
       <c r="E584" t="s">
         <v>28</v>
@@ -19787,10 +19787,10 @@
         <v>11</v>
       </c>
       <c r="C585">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D585">
-        <v>471754</v>
+        <v>474754</v>
       </c>
       <c r="E585" t="s">
         <v>28</v>
@@ -19883,10 +19883,10 @@
         <v>11</v>
       </c>
       <c r="C588">
-        <v>5967</v>
+        <v>5988</v>
       </c>
       <c r="D588">
-        <v>8199925</v>
+        <v>8225263</v>
       </c>
       <c r="E588" t="s">
         <v>28</v>
@@ -19915,10 +19915,10 @@
         <v>11</v>
       </c>
       <c r="C589">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D589">
-        <v>1124580</v>
+        <v>1129478</v>
       </c>
       <c r="E589" t="s">
         <v>28</v>
@@ -19947,10 +19947,10 @@
         <v>11</v>
       </c>
       <c r="C590">
-        <v>1771</v>
+        <v>1780</v>
       </c>
       <c r="D590">
-        <v>2604078</v>
+        <v>2616250</v>
       </c>
       <c r="E590" t="s">
         <v>28</v>
@@ -19979,10 +19979,10 @@
         <v>11</v>
       </c>
       <c r="C591">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D591">
-        <v>994115</v>
+        <v>995615</v>
       </c>
       <c r="E591" t="s">
         <v>28</v>
@@ -20011,10 +20011,10 @@
         <v>11</v>
       </c>
       <c r="C592">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D592">
-        <v>287561</v>
+        <v>289061</v>
       </c>
       <c r="E592" t="s">
         <v>28</v>
@@ -20043,10 +20043,10 @@
         <v>11</v>
       </c>
       <c r="C593">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D593">
-        <v>85500</v>
+        <v>87000</v>
       </c>
       <c r="E593" t="s">
         <v>28</v>
@@ -20107,10 +20107,10 @@
         <v>11</v>
       </c>
       <c r="C595">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="D595">
-        <v>1853282</v>
+        <v>1858982</v>
       </c>
       <c r="E595" t="s">
         <v>28</v>
@@ -20139,10 +20139,10 @@
         <v>11</v>
       </c>
       <c r="C596">
-        <v>5591</v>
+        <v>5613</v>
       </c>
       <c r="D596">
-        <v>8055636</v>
+        <v>8088328</v>
       </c>
       <c r="E596" t="s">
         <v>28</v>
@@ -20171,10 +20171,10 @@
         <v>11</v>
       </c>
       <c r="C597">
-        <v>11352</v>
+        <v>11395</v>
       </c>
       <c r="D597">
-        <v>16679606</v>
+        <v>16741953</v>
       </c>
       <c r="E597" t="s">
         <v>28</v>
@@ -20203,10 +20203,10 @@
         <v>11</v>
       </c>
       <c r="C598">
-        <v>3139</v>
+        <v>3152</v>
       </c>
       <c r="D598">
-        <v>4684863</v>
+        <v>4704347</v>
       </c>
       <c r="E598" t="s">
         <v>28</v>
@@ -20235,10 +20235,10 @@
         <v>11</v>
       </c>
       <c r="C599">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="D599">
-        <v>1084938</v>
+        <v>1089438</v>
       </c>
       <c r="E599" t="s">
         <v>28</v>
@@ -20331,10 +20331,10 @@
         <v>11</v>
       </c>
       <c r="C602">
-        <v>3623</v>
+        <v>3635</v>
       </c>
       <c r="D602">
-        <v>4981858</v>
+        <v>4997336</v>
       </c>
       <c r="E602" t="s">
         <v>28</v>
@@ -20363,10 +20363,10 @@
         <v>11</v>
       </c>
       <c r="C603">
-        <v>2364</v>
+        <v>2369</v>
       </c>
       <c r="D603">
-        <v>3431009</v>
+        <v>3438509</v>
       </c>
       <c r="E603" t="s">
         <v>28</v>
@@ -20395,10 +20395,10 @@
         <v>11</v>
       </c>
       <c r="C604">
-        <v>6254</v>
+        <v>6279</v>
       </c>
       <c r="D604">
-        <v>9223521</v>
+        <v>9258690</v>
       </c>
       <c r="E604" t="s">
         <v>28</v>
@@ -20427,10 +20427,10 @@
         <v>11</v>
       </c>
       <c r="C605">
-        <v>1718</v>
+        <v>1725</v>
       </c>
       <c r="D605">
-        <v>2564262</v>
+        <v>2574762</v>
       </c>
       <c r="E605" t="s">
         <v>28</v>
@@ -20459,10 +20459,10 @@
         <v>11</v>
       </c>
       <c r="C606">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D606">
-        <v>564594</v>
+        <v>567594</v>
       </c>
       <c r="E606" t="s">
         <v>28</v>
@@ -20555,10 +20555,10 @@
         <v>11</v>
       </c>
       <c r="C609">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D609">
-        <v>2666770</v>
+        <v>2680721</v>
       </c>
       <c r="E609" t="s">
         <v>28</v>
@@ -20587,10 +20587,10 @@
         <v>11</v>
       </c>
       <c r="C610">
-        <v>2157</v>
+        <v>2172</v>
       </c>
       <c r="D610">
-        <v>3166236</v>
+        <v>3188736</v>
       </c>
       <c r="E610" t="s">
         <v>29</v>
@@ -20619,10 +20619,10 @@
         <v>11</v>
       </c>
       <c r="C611">
-        <v>6575</v>
+        <v>6604</v>
       </c>
       <c r="D611">
-        <v>9763248</v>
+        <v>9805739</v>
       </c>
       <c r="E611" t="s">
         <v>29</v>
@@ -20651,10 +20651,10 @@
         <v>11</v>
       </c>
       <c r="C612">
-        <v>2612</v>
+        <v>2618</v>
       </c>
       <c r="D612">
-        <v>3901117</v>
+        <v>3910117</v>
       </c>
       <c r="E612" t="s">
         <v>29</v>
@@ -20683,10 +20683,10 @@
         <v>11</v>
       </c>
       <c r="C613">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D613">
-        <v>1109310</v>
+        <v>1112310</v>
       </c>
       <c r="E613" t="s">
         <v>29</v>
@@ -20715,10 +20715,10 @@
         <v>11</v>
       </c>
       <c r="C614">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D614">
-        <v>167801</v>
+        <v>170801</v>
       </c>
       <c r="E614" t="s">
         <v>29</v>
@@ -20779,10 +20779,10 @@
         <v>11</v>
       </c>
       <c r="C616">
-        <v>2110</v>
+        <v>2114</v>
       </c>
       <c r="D616">
-        <v>2961787</v>
+        <v>2967167</v>
       </c>
       <c r="E616" t="s">
         <v>29</v>
@@ -20811,10 +20811,10 @@
         <v>11</v>
       </c>
       <c r="C617">
-        <v>3629</v>
+        <v>3643</v>
       </c>
       <c r="D617">
-        <v>5330588</v>
+        <v>5351588</v>
       </c>
       <c r="E617" t="s">
         <v>29</v>
@@ -20843,10 +20843,10 @@
         <v>11</v>
       </c>
       <c r="C618">
-        <v>9417</v>
+        <v>9473</v>
       </c>
       <c r="D618">
-        <v>13939533</v>
+        <v>14021851</v>
       </c>
       <c r="E618" t="s">
         <v>29</v>
@@ -20875,10 +20875,10 @@
         <v>11</v>
       </c>
       <c r="C619">
-        <v>4366</v>
+        <v>4394</v>
       </c>
       <c r="D619">
-        <v>6532033</v>
+        <v>6574033</v>
       </c>
       <c r="E619" t="s">
         <v>29</v>
@@ -20907,10 +20907,10 @@
         <v>11</v>
       </c>
       <c r="C620">
-        <v>1310</v>
+        <v>1316</v>
       </c>
       <c r="D620">
-        <v>1961554</v>
+        <v>1970554</v>
       </c>
       <c r="E620" t="s">
         <v>29</v>
@@ -20939,10 +20939,10 @@
         <v>11</v>
       </c>
       <c r="C621">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D621">
-        <v>382500</v>
+        <v>387000</v>
       </c>
       <c r="E621" t="s">
         <v>29</v>
@@ -21003,10 +21003,10 @@
         <v>11</v>
       </c>
       <c r="C623">
-        <v>3281</v>
+        <v>3296</v>
       </c>
       <c r="D623">
-        <v>4600915</v>
+        <v>4619385</v>
       </c>
       <c r="E623" t="s">
         <v>29</v>
@@ -21035,10 +21035,10 @@
         <v>11</v>
       </c>
       <c r="C624">
-        <v>10440</v>
+        <v>10509</v>
       </c>
       <c r="D624">
-        <v>15257898</v>
+        <v>15358815</v>
       </c>
       <c r="E624" t="s">
         <v>29</v>
@@ -21067,10 +21067,10 @@
         <v>11</v>
       </c>
       <c r="C625">
-        <v>30338</v>
+        <v>30539</v>
       </c>
       <c r="D625">
-        <v>44966643</v>
+        <v>45256237</v>
       </c>
       <c r="E625" t="s">
         <v>29</v>
@@ -21099,10 +21099,10 @@
         <v>11</v>
       </c>
       <c r="C626">
-        <v>14274</v>
+        <v>14358</v>
       </c>
       <c r="D626">
-        <v>21362695</v>
+        <v>21488695</v>
       </c>
       <c r="E626" t="s">
         <v>29</v>
@@ -21131,10 +21131,10 @@
         <v>11</v>
       </c>
       <c r="C627">
-        <v>5001</v>
+        <v>5030</v>
       </c>
       <c r="D627">
-        <v>7493144</v>
+        <v>7536644</v>
       </c>
       <c r="E627" t="s">
         <v>29</v>
@@ -21163,10 +21163,10 @@
         <v>11</v>
       </c>
       <c r="C628">
-        <v>1077</v>
+        <v>1089</v>
       </c>
       <c r="D628">
-        <v>1614813</v>
+        <v>1632813</v>
       </c>
       <c r="E628" t="s">
         <v>29</v>
@@ -21259,10 +21259,10 @@
         <v>11</v>
       </c>
       <c r="C631">
-        <v>10153</v>
+        <v>10229</v>
       </c>
       <c r="D631">
-        <v>14164649</v>
+        <v>14264009</v>
       </c>
       <c r="E631" t="s">
         <v>29</v>
@@ -21291,10 +21291,10 @@
         <v>11</v>
       </c>
       <c r="C632">
-        <v>2920</v>
+        <v>2942</v>
       </c>
       <c r="D632">
-        <v>4270278</v>
+        <v>4300652</v>
       </c>
       <c r="E632" t="s">
         <v>29</v>
@@ -21323,10 +21323,10 @@
         <v>11</v>
       </c>
       <c r="C633">
-        <v>10997</v>
+        <v>11074</v>
       </c>
       <c r="D633">
-        <v>16280892</v>
+        <v>16392868</v>
       </c>
       <c r="E633" t="s">
         <v>29</v>
@@ -21355,10 +21355,10 @@
         <v>11</v>
       </c>
       <c r="C634">
-        <v>5327</v>
+        <v>5375</v>
       </c>
       <c r="D634">
-        <v>7956183</v>
+        <v>8026857</v>
       </c>
       <c r="E634" t="s">
         <v>29</v>
@@ -21387,10 +21387,10 @@
         <v>11</v>
       </c>
       <c r="C635">
-        <v>1514</v>
+        <v>1522</v>
       </c>
       <c r="D635">
-        <v>2267381</v>
+        <v>2279381</v>
       </c>
       <c r="E635" t="s">
         <v>29</v>
@@ -21419,10 +21419,10 @@
         <v>11</v>
       </c>
       <c r="C636">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D636">
-        <v>502701</v>
+        <v>506445</v>
       </c>
       <c r="E636" t="s">
         <v>29</v>
@@ -21483,10 +21483,10 @@
         <v>11</v>
       </c>
       <c r="C638">
-        <v>3045</v>
+        <v>3063</v>
       </c>
       <c r="D638">
-        <v>4241675</v>
+        <v>4266580</v>
       </c>
       <c r="E638" t="s">
         <v>29</v>
@@ -21515,10 +21515,10 @@
         <v>11</v>
       </c>
       <c r="C639">
-        <v>2666</v>
+        <v>2677</v>
       </c>
       <c r="D639">
-        <v>3899086</v>
+        <v>3913639</v>
       </c>
       <c r="E639" t="s">
         <v>29</v>
@@ -21547,10 +21547,10 @@
         <v>11</v>
       </c>
       <c r="C640">
-        <v>7965</v>
+        <v>8003</v>
       </c>
       <c r="D640">
-        <v>11796471</v>
+        <v>11852291</v>
       </c>
       <c r="E640" t="s">
         <v>29</v>
@@ -21579,10 +21579,10 @@
         <v>11</v>
       </c>
       <c r="C641">
-        <v>3094</v>
+        <v>3107</v>
       </c>
       <c r="D641">
-        <v>4613203</v>
+        <v>4631503</v>
       </c>
       <c r="E641" t="s">
         <v>29</v>
@@ -21611,10 +21611,10 @@
         <v>11</v>
       </c>
       <c r="C642">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="D642">
-        <v>1345500</v>
+        <v>1353000</v>
       </c>
       <c r="E642" t="s">
         <v>29</v>
@@ -21707,10 +21707,10 @@
         <v>11</v>
       </c>
       <c r="C645">
-        <v>2548</v>
+        <v>2563</v>
       </c>
       <c r="D645">
-        <v>3536199</v>
+        <v>3556059</v>
       </c>
       <c r="E645" t="s">
         <v>29</v>
@@ -21739,10 +21739,10 @@
         <v>11</v>
       </c>
       <c r="C646">
-        <v>2149</v>
+        <v>2161</v>
       </c>
       <c r="D646">
-        <v>3158120</v>
+        <v>3174542</v>
       </c>
       <c r="E646" t="s">
         <v>29</v>
@@ -21771,10 +21771,10 @@
         <v>11</v>
       </c>
       <c r="C647">
-        <v>7068</v>
+        <v>7111</v>
       </c>
       <c r="D647">
-        <v>10474794</v>
+        <v>10534330</v>
       </c>
       <c r="E647" t="s">
         <v>29</v>
@@ -21803,10 +21803,10 @@
         <v>11</v>
       </c>
       <c r="C648">
-        <v>3038</v>
+        <v>3061</v>
       </c>
       <c r="D648">
-        <v>4535081</v>
+        <v>4569581</v>
       </c>
       <c r="E648" t="s">
         <v>29</v>
@@ -21835,10 +21835,10 @@
         <v>11</v>
       </c>
       <c r="C649">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D649">
-        <v>1260916</v>
+        <v>1269916</v>
       </c>
       <c r="E649" t="s">
         <v>29</v>
@@ -21867,10 +21867,10 @@
         <v>11</v>
       </c>
       <c r="C650">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D650">
-        <v>249900</v>
+        <v>252900</v>
       </c>
       <c r="E650" t="s">
         <v>29</v>
@@ -21931,10 +21931,10 @@
         <v>11</v>
       </c>
       <c r="C652">
-        <v>2239</v>
+        <v>2258</v>
       </c>
       <c r="D652">
-        <v>3106053</v>
+        <v>3129573</v>
       </c>
       <c r="E652" t="s">
         <v>29</v>
@@ -21963,10 +21963,10 @@
         <v>11</v>
       </c>
       <c r="C653">
-        <v>2770</v>
+        <v>2785</v>
       </c>
       <c r="D653">
-        <v>4070077</v>
+        <v>4090510</v>
       </c>
       <c r="E653" t="s">
         <v>29</v>
@@ -21995,10 +21995,10 @@
         <v>11</v>
       </c>
       <c r="C654">
-        <v>8445</v>
+        <v>8504</v>
       </c>
       <c r="D654">
-        <v>12506808</v>
+        <v>12590532</v>
       </c>
       <c r="E654" t="s">
         <v>29</v>
@@ -22027,10 +22027,10 @@
         <v>11</v>
       </c>
       <c r="C655">
-        <v>3585</v>
+        <v>3598</v>
       </c>
       <c r="D655">
-        <v>5356038</v>
+        <v>5375538</v>
       </c>
       <c r="E655" t="s">
         <v>29</v>
@@ -22059,10 +22059,10 @@
         <v>11</v>
       </c>
       <c r="C656">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="D656">
-        <v>1481106</v>
+        <v>1494606</v>
       </c>
       <c r="E656" t="s">
         <v>29</v>
@@ -22091,10 +22091,10 @@
         <v>11</v>
       </c>
       <c r="C657">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D657">
-        <v>312000</v>
+        <v>315000</v>
       </c>
       <c r="E657" t="s">
         <v>29</v>
@@ -22155,10 +22155,10 @@
         <v>11</v>
       </c>
       <c r="C659">
-        <v>2885</v>
+        <v>2900</v>
       </c>
       <c r="D659">
-        <v>4049622</v>
+        <v>4067573</v>
       </c>
       <c r="E659" t="s">
         <v>29</v>
@@ -22187,10 +22187,10 @@
         <v>11</v>
       </c>
       <c r="C660">
-        <v>2556</v>
+        <v>2573</v>
       </c>
       <c r="D660">
-        <v>3752564</v>
+        <v>3777306</v>
       </c>
       <c r="E660" t="s">
         <v>29</v>
@@ -22219,10 +22219,10 @@
         <v>11</v>
       </c>
       <c r="C661">
-        <v>7293</v>
+        <v>7323</v>
       </c>
       <c r="D661">
-        <v>10794535</v>
+        <v>10839535</v>
       </c>
       <c r="E661" t="s">
         <v>29</v>
@@ -22251,10 +22251,10 @@
         <v>11</v>
       </c>
       <c r="C662">
-        <v>2833</v>
+        <v>2839</v>
       </c>
       <c r="D662">
-        <v>4231074</v>
+        <v>4240074</v>
       </c>
       <c r="E662" t="s">
         <v>29</v>
@@ -22283,10 +22283,10 @@
         <v>11</v>
       </c>
       <c r="C663">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="D663">
-        <v>1315446</v>
+        <v>1322946</v>
       </c>
       <c r="E663" t="s">
         <v>29</v>
@@ -22379,10 +22379,10 @@
         <v>11</v>
       </c>
       <c r="C666">
-        <v>2549</v>
+        <v>2557</v>
       </c>
       <c r="D666">
-        <v>3537035</v>
+        <v>3549035</v>
       </c>
       <c r="E666" t="s">
         <v>29</v>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -1131,10 +1131,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D2">
-        <v>1217278</v>
+        <v>1220278</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1163,10 +1163,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>3746</v>
+        <v>3759</v>
       </c>
       <c r="D3">
-        <v>5552030</v>
+        <v>5571430</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1195,10 +1195,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D4">
-        <v>1996562</v>
+        <v>1998062</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1291,10 +1291,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D7">
-        <v>160135</v>
+        <v>161635</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1323,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D8">
-        <v>1080844</v>
+        <v>1083844</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1355,10 +1355,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2355</v>
+        <v>2360</v>
       </c>
       <c r="D9">
-        <v>3474140</v>
+        <v>3481608</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1483,10 +1483,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="D13">
-        <v>1450203</v>
+        <v>1453203</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1515,10 +1515,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="D14">
-        <v>2154731</v>
+        <v>2158914</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1547,10 +1547,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>2738</v>
+        <v>2745</v>
       </c>
       <c r="D15">
-        <v>4028435</v>
+        <v>4038203</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1611,10 +1611,10 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D17">
-        <v>224476</v>
+        <v>225976</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1675,10 +1675,10 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="D19">
-        <v>1521573</v>
+        <v>1523323</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1707,10 +1707,10 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D20">
-        <v>586373</v>
+        <v>589975</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1739,10 +1739,10 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="D21">
-        <v>1802510</v>
+        <v>1808843</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1771,10 +1771,10 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D22">
-        <v>496702</v>
+        <v>498202</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1867,10 +1867,10 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="D25">
-        <v>1178022</v>
+        <v>1184022</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1899,10 +1899,10 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="D26">
-        <v>2873185</v>
+        <v>2877159</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1931,10 +1931,10 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>4276</v>
+        <v>4282</v>
       </c>
       <c r="D27">
-        <v>6331664</v>
+        <v>6340664</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -1963,10 +1963,10 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="D28">
-        <v>1942956</v>
+        <v>1947487</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -1995,10 +1995,10 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D29">
-        <v>445016</v>
+        <v>449516</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -2059,10 +2059,10 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="D31">
-        <v>2074140</v>
+        <v>2078640</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2091,10 +2091,10 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D32">
-        <v>1142103</v>
+        <v>1143603</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2123,10 +2123,10 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="D33">
-        <v>2706613</v>
+        <v>2711113</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D34">
-        <v>742966</v>
+        <v>745966</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2187,10 +2187,10 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D35">
-        <v>172890</v>
+        <v>174390</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2283,10 +2283,10 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D38">
-        <v>1140240</v>
+        <v>1141740</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2315,10 +2315,10 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>2467</v>
+        <v>2472</v>
       </c>
       <c r="D39">
-        <v>3619451</v>
+        <v>3626391</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2347,10 +2347,10 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>5768</v>
+        <v>5786</v>
       </c>
       <c r="D40">
-        <v>8561404</v>
+        <v>8588404</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2379,10 +2379,10 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>2273</v>
+        <v>2278</v>
       </c>
       <c r="D41">
-        <v>3387910</v>
+        <v>3395410</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -2507,10 +2507,10 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>3160</v>
+        <v>3166</v>
       </c>
       <c r="D45">
-        <v>4414872</v>
+        <v>4423324</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2539,10 +2539,10 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>3785</v>
+        <v>3792</v>
       </c>
       <c r="D46">
-        <v>5527888</v>
+        <v>5538388</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -2571,10 +2571,10 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>9061</v>
+        <v>9080</v>
       </c>
       <c r="D47">
-        <v>13439052</v>
+        <v>13466591</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -2603,10 +2603,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>3065</v>
+        <v>3069</v>
       </c>
       <c r="D48">
-        <v>4579752</v>
+        <v>4585752</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2635,10 +2635,10 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D49">
-        <v>1160720</v>
+        <v>1162370</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -2763,10 +2763,10 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>3621</v>
+        <v>3631</v>
       </c>
       <c r="D53">
-        <v>5047926</v>
+        <v>5059642</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2795,10 +2795,10 @@
         <v>11</v>
       </c>
       <c r="C54">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="D54">
-        <v>2990550</v>
+        <v>2993550</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -2827,10 +2827,10 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>5245</v>
+        <v>5252</v>
       </c>
       <c r="D55">
-        <v>7756112</v>
+        <v>7766612</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2859,10 +2859,10 @@
         <v>11</v>
       </c>
       <c r="C56">
-        <v>1630</v>
+        <v>1635</v>
       </c>
       <c r="D56">
-        <v>2430823</v>
+        <v>2438323</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -2955,10 +2955,10 @@
         <v>11</v>
       </c>
       <c r="C59">
-        <v>2193</v>
+        <v>2203</v>
       </c>
       <c r="D59">
-        <v>2911217</v>
+        <v>2922957</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -2987,10 +2987,10 @@
         <v>11</v>
       </c>
       <c r="C60">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="D60">
-        <v>2419124</v>
+        <v>2423197</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -3019,10 +3019,10 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>4566</v>
+        <v>4572</v>
       </c>
       <c r="D61">
-        <v>6744043</v>
+        <v>6752076</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3051,10 +3051,10 @@
         <v>11</v>
       </c>
       <c r="C62">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="D62">
-        <v>2259859</v>
+        <v>2265859</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3179,10 +3179,10 @@
         <v>11</v>
       </c>
       <c r="C66">
-        <v>1871</v>
+        <v>1876</v>
       </c>
       <c r="D66">
-        <v>2523838</v>
+        <v>2531338</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3211,10 +3211,10 @@
         <v>11</v>
       </c>
       <c r="C67">
-        <v>5732</v>
+        <v>5742</v>
       </c>
       <c r="D67">
-        <v>8386906</v>
+        <v>8401906</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3243,10 +3243,10 @@
         <v>11</v>
       </c>
       <c r="C68">
-        <v>14555</v>
+        <v>14574</v>
       </c>
       <c r="D68">
-        <v>21553313</v>
+        <v>21580913</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3275,10 +3275,10 @@
         <v>11</v>
       </c>
       <c r="C69">
-        <v>5082</v>
+        <v>5093</v>
       </c>
       <c r="D69">
-        <v>7590424</v>
+        <v>7606772</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3307,10 +3307,10 @@
         <v>11</v>
       </c>
       <c r="C70">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D70">
-        <v>1939131</v>
+        <v>1940631</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3435,10 +3435,10 @@
         <v>11</v>
       </c>
       <c r="C74">
-        <v>4639</v>
+        <v>4644</v>
       </c>
       <c r="D74">
-        <v>6518012</v>
+        <v>6524485</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -3467,10 +3467,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>1738</v>
+        <v>1744</v>
       </c>
       <c r="D75">
-        <v>2544568</v>
+        <v>2553568</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3499,10 +3499,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>4281</v>
+        <v>4288</v>
       </c>
       <c r="D76">
-        <v>6350643</v>
+        <v>6360423</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3531,10 +3531,10 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="D77">
-        <v>2746900</v>
+        <v>2752900</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3563,10 +3563,10 @@
         <v>11</v>
       </c>
       <c r="C78">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D78">
-        <v>998754</v>
+        <v>1000254</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -3595,10 +3595,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D79">
-        <v>273405</v>
+        <v>277905</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3659,10 +3659,10 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>4262</v>
+        <v>4268</v>
       </c>
       <c r="D81">
-        <v>6081271</v>
+        <v>6089127</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -3691,10 +3691,10 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="D82">
-        <v>1794931</v>
+        <v>1797931</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
@@ -3723,10 +3723,10 @@
         <v>11</v>
       </c>
       <c r="C83">
-        <v>3313</v>
+        <v>3322</v>
       </c>
       <c r="D83">
-        <v>4897153</v>
+        <v>4910073</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
@@ -3755,10 +3755,10 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="D84">
-        <v>1700698</v>
+        <v>1706698</v>
       </c>
       <c r="E84" t="s">
         <v>13</v>
@@ -3787,10 +3787,10 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D85">
-        <v>424500</v>
+        <v>427500</v>
       </c>
       <c r="E85" t="s">
         <v>13</v>
@@ -3883,10 +3883,10 @@
         <v>11</v>
       </c>
       <c r="C88">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D88">
-        <v>1680934</v>
+        <v>1682434</v>
       </c>
       <c r="E88" t="s">
         <v>13</v>
@@ -3947,10 +3947,10 @@
         <v>11</v>
       </c>
       <c r="C90">
-        <v>3088</v>
+        <v>3098</v>
       </c>
       <c r="D90">
-        <v>4576257</v>
+        <v>4590376</v>
       </c>
       <c r="E90" t="s">
         <v>13</v>
@@ -3979,10 +3979,10 @@
         <v>11</v>
       </c>
       <c r="C91">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="D91">
-        <v>1537033</v>
+        <v>1543736</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -4011,10 +4011,10 @@
         <v>11</v>
       </c>
       <c r="C92">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92">
-        <v>394419</v>
+        <v>395919</v>
       </c>
       <c r="E92" t="s">
         <v>13</v>
@@ -4107,10 +4107,10 @@
         <v>11</v>
       </c>
       <c r="C95">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="D95">
-        <v>1351118</v>
+        <v>1355618</v>
       </c>
       <c r="E95" t="s">
         <v>13</v>
@@ -4139,10 +4139,10 @@
         <v>11</v>
       </c>
       <c r="C96">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D96">
-        <v>668194</v>
+        <v>669694</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
@@ -4171,10 +4171,10 @@
         <v>11</v>
       </c>
       <c r="C97">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="D97">
-        <v>1790309</v>
+        <v>1792538</v>
       </c>
       <c r="E97" t="s">
         <v>13</v>
@@ -4299,10 +4299,10 @@
         <v>11</v>
       </c>
       <c r="C101">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D101">
-        <v>713409</v>
+        <v>714909</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -4331,10 +4331,10 @@
         <v>11</v>
       </c>
       <c r="C102">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="D102">
-        <v>1059528</v>
+        <v>1063981</v>
       </c>
       <c r="E102" t="s">
         <v>13</v>
@@ -4363,10 +4363,10 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="D103">
-        <v>2671142</v>
+        <v>2677142</v>
       </c>
       <c r="E103" t="s">
         <v>13</v>
@@ -4395,10 +4395,10 @@
         <v>11</v>
       </c>
       <c r="C104">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D104">
-        <v>765519</v>
+        <v>767019</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
@@ -4491,10 +4491,10 @@
         <v>11</v>
       </c>
       <c r="C107">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D107">
-        <v>793285</v>
+        <v>793704</v>
       </c>
       <c r="E107" t="s">
         <v>13</v>
@@ -4523,10 +4523,10 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D108">
-        <v>660186</v>
+        <v>662466</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -4555,10 +4555,10 @@
         <v>11</v>
       </c>
       <c r="C109">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D109">
-        <v>1925040</v>
+        <v>1926540</v>
       </c>
       <c r="E109" t="s">
         <v>13</v>
@@ -4619,10 +4619,10 @@
         <v>11</v>
       </c>
       <c r="C111">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D111">
-        <v>115500</v>
+        <v>117000</v>
       </c>
       <c r="E111" t="s">
         <v>13</v>
@@ -4683,10 +4683,10 @@
         <v>11</v>
       </c>
       <c r="C113">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D113">
-        <v>741911</v>
+        <v>742280</v>
       </c>
       <c r="E113" t="s">
         <v>13</v>
@@ -4715,10 +4715,10 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>1256</v>
+        <v>1261</v>
       </c>
       <c r="D114">
-        <v>1829681</v>
+        <v>1837181</v>
       </c>
       <c r="E114" t="s">
         <v>13</v>
@@ -4747,10 +4747,10 @@
         <v>11</v>
       </c>
       <c r="C115">
-        <v>3875</v>
+        <v>3883</v>
       </c>
       <c r="D115">
-        <v>5730286</v>
+        <v>5741540</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -4779,10 +4779,10 @@
         <v>11</v>
       </c>
       <c r="C116">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="D116">
-        <v>1677358</v>
+        <v>1683358</v>
       </c>
       <c r="E116" t="s">
         <v>13</v>
@@ -4811,10 +4811,10 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D117">
-        <v>351326</v>
+        <v>352826</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
@@ -4875,10 +4875,10 @@
         <v>11</v>
       </c>
       <c r="C119">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="D119">
-        <v>2068182</v>
+        <v>2071693</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
@@ -4939,10 +4939,10 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D121">
-        <v>1127861</v>
+        <v>1129361</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -5067,10 +5067,10 @@
         <v>11</v>
       </c>
       <c r="C125">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D125">
-        <v>316386</v>
+        <v>318348</v>
       </c>
       <c r="E125" t="s">
         <v>13</v>
@@ -5099,10 +5099,10 @@
         <v>11</v>
       </c>
       <c r="C126">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D126">
-        <v>1048826</v>
+        <v>1051826</v>
       </c>
       <c r="E126" t="s">
         <v>13</v>
@@ -5131,10 +5131,10 @@
         <v>11</v>
       </c>
       <c r="C127">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="D127">
-        <v>3196973</v>
+        <v>3202132</v>
       </c>
       <c r="E127" t="s">
         <v>13</v>
@@ -5195,10 +5195,10 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D129">
-        <v>223500</v>
+        <v>226500</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -5227,10 +5227,10 @@
         <v>11</v>
       </c>
       <c r="C130">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D130">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="E130" t="s">
         <v>13</v>
@@ -5259,10 +5259,10 @@
         <v>11</v>
       </c>
       <c r="C131">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D131">
-        <v>958071</v>
+        <v>962029</v>
       </c>
       <c r="E131" t="s">
         <v>13</v>
@@ -5291,10 +5291,10 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>1702</v>
+        <v>1707</v>
       </c>
       <c r="D132">
-        <v>2479650</v>
+        <v>2487150</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -5323,10 +5323,10 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>4091</v>
+        <v>4097</v>
       </c>
       <c r="D133">
-        <v>6030737</v>
+        <v>6039737</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
@@ -5355,10 +5355,10 @@
         <v>11</v>
       </c>
       <c r="C134">
-        <v>1092</v>
+        <v>1099</v>
       </c>
       <c r="D134">
-        <v>1630151</v>
+        <v>1640651</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -5387,10 +5387,10 @@
         <v>11</v>
       </c>
       <c r="C135">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D135">
-        <v>379261</v>
+        <v>380761</v>
       </c>
       <c r="E135" t="s">
         <v>14</v>
@@ -5483,10 +5483,10 @@
         <v>11</v>
       </c>
       <c r="C138">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="D138">
-        <v>1999754</v>
+        <v>2002754</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -5515,10 +5515,10 @@
         <v>11</v>
       </c>
       <c r="C139">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="D139">
-        <v>3446493</v>
+        <v>3450844</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -5547,10 +5547,10 @@
         <v>11</v>
       </c>
       <c r="C140">
-        <v>5555</v>
+        <v>5567</v>
       </c>
       <c r="D140">
-        <v>8222233</v>
+        <v>8238300</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
@@ -5579,10 +5579,10 @@
         <v>11</v>
       </c>
       <c r="C141">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="D141">
-        <v>2879674</v>
+        <v>2881174</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
@@ -5707,10 +5707,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="D145">
-        <v>2792251</v>
+        <v>2795251</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -5739,10 +5739,10 @@
         <v>11</v>
       </c>
       <c r="C146">
-        <v>2193</v>
+        <v>2198</v>
       </c>
       <c r="D146">
-        <v>3202689</v>
+        <v>3210189</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
@@ -5771,10 +5771,10 @@
         <v>11</v>
       </c>
       <c r="C147">
-        <v>6411</v>
+        <v>6421</v>
       </c>
       <c r="D147">
-        <v>9519964</v>
+        <v>9534964</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -5803,10 +5803,10 @@
         <v>11</v>
       </c>
       <c r="C148">
-        <v>2106</v>
+        <v>2113</v>
       </c>
       <c r="D148">
-        <v>3147316</v>
+        <v>3157056</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -5835,10 +5835,10 @@
         <v>11</v>
       </c>
       <c r="C149">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D149">
-        <v>824164</v>
+        <v>827164</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
@@ -5931,10 +5931,10 @@
         <v>11</v>
       </c>
       <c r="C152">
-        <v>1981</v>
+        <v>1986</v>
       </c>
       <c r="D152">
-        <v>2737516</v>
+        <v>2743694</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
@@ -5995,10 +5995,10 @@
         <v>11</v>
       </c>
       <c r="C154">
-        <v>5393</v>
+        <v>5406</v>
       </c>
       <c r="D154">
-        <v>7976420</v>
+        <v>7995738</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -6027,10 +6027,10 @@
         <v>11</v>
       </c>
       <c r="C155">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="D155">
-        <v>2510147</v>
+        <v>2514647</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
@@ -6059,10 +6059,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D156">
-        <v>591366</v>
+        <v>595866</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
@@ -6155,10 +6155,10 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="D159">
-        <v>2599229</v>
+        <v>2603729</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
@@ -6187,10 +6187,10 @@
         <v>11</v>
       </c>
       <c r="C160">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D160">
-        <v>778781</v>
+        <v>780281</v>
       </c>
       <c r="E160" t="s">
         <v>15</v>
@@ -6219,10 +6219,10 @@
         <v>11</v>
       </c>
       <c r="C161">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="D161">
-        <v>2462207</v>
+        <v>2466707</v>
       </c>
       <c r="E161" t="s">
         <v>15</v>
@@ -6251,10 +6251,10 @@
         <v>11</v>
       </c>
       <c r="C162">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D162">
-        <v>812254</v>
+        <v>813754</v>
       </c>
       <c r="E162" t="s">
         <v>15</v>
@@ -6283,10 +6283,10 @@
         <v>11</v>
       </c>
       <c r="C163">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D163">
-        <v>223500</v>
+        <v>226500</v>
       </c>
       <c r="E163" t="s">
         <v>15</v>
@@ -6347,10 +6347,10 @@
         <v>11</v>
       </c>
       <c r="C165">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D165">
-        <v>1017044</v>
+        <v>1017689</v>
       </c>
       <c r="E165" t="s">
         <v>15</v>
@@ -6411,10 +6411,10 @@
         <v>11</v>
       </c>
       <c r="C167">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="D167">
-        <v>3579259</v>
+        <v>3583759</v>
       </c>
       <c r="E167" t="s">
         <v>15</v>
@@ -6443,10 +6443,10 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D168">
-        <v>1208920</v>
+        <v>1210420</v>
       </c>
       <c r="E168" t="s">
         <v>15</v>
@@ -6603,10 +6603,10 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="D173">
-        <v>1914549</v>
+        <v>1920549</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -6667,10 +6667,10 @@
         <v>11</v>
       </c>
       <c r="C175">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D175">
-        <v>154500</v>
+        <v>156000</v>
       </c>
       <c r="E175" t="s">
         <v>15</v>
@@ -6731,10 +6731,10 @@
         <v>11</v>
       </c>
       <c r="C177">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D177">
-        <v>668917</v>
+        <v>671917</v>
       </c>
       <c r="E177" t="s">
         <v>15</v>
@@ -6763,10 +6763,10 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="D178">
-        <v>1994878</v>
+        <v>1996729</v>
       </c>
       <c r="E178" t="s">
         <v>15</v>
@@ -6795,10 +6795,10 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <v>3798</v>
+        <v>3803</v>
       </c>
       <c r="D179">
-        <v>5612882</v>
+        <v>5620382</v>
       </c>
       <c r="E179" t="s">
         <v>15</v>
@@ -6827,10 +6827,10 @@
         <v>11</v>
       </c>
       <c r="C180">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="D180">
-        <v>1888912</v>
+        <v>1894912</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -6859,10 +6859,10 @@
         <v>11</v>
       </c>
       <c r="C181">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D181">
-        <v>496500</v>
+        <v>498000</v>
       </c>
       <c r="E181" t="s">
         <v>15</v>
@@ -6955,10 +6955,10 @@
         <v>11</v>
       </c>
       <c r="C184">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D184">
-        <v>1794800</v>
+        <v>1796300</v>
       </c>
       <c r="E184" t="s">
         <v>15</v>
@@ -7019,10 +7019,10 @@
         <v>11</v>
       </c>
       <c r="C186">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="D186">
-        <v>3157736</v>
+        <v>3163736</v>
       </c>
       <c r="E186" t="s">
         <v>15</v>
@@ -7051,10 +7051,10 @@
         <v>11</v>
       </c>
       <c r="C187">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D187">
-        <v>1068015</v>
+        <v>1069515</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -7083,10 +7083,10 @@
         <v>11</v>
       </c>
       <c r="C188">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D188">
-        <v>215491</v>
+        <v>216991</v>
       </c>
       <c r="E188" t="s">
         <v>15</v>
@@ -7147,10 +7147,10 @@
         <v>11</v>
       </c>
       <c r="C190">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D190">
-        <v>998607</v>
+        <v>1000107</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
@@ -7211,10 +7211,10 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>3805</v>
+        <v>3812</v>
       </c>
       <c r="D192">
-        <v>5640374</v>
+        <v>5650874</v>
       </c>
       <c r="E192" t="s">
         <v>15</v>
@@ -7371,10 +7371,10 @@
         <v>11</v>
       </c>
       <c r="C197">
-        <v>1173</v>
+        <v>1178</v>
       </c>
       <c r="D197">
-        <v>1573789</v>
+        <v>1577272</v>
       </c>
       <c r="E197" t="s">
         <v>15</v>
@@ -7403,10 +7403,10 @@
         <v>11</v>
       </c>
       <c r="C198">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D198">
-        <v>750653</v>
+        <v>753885</v>
       </c>
       <c r="E198" t="s">
         <v>16</v>
@@ -7467,10 +7467,10 @@
         <v>11</v>
       </c>
       <c r="C200">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D200">
-        <v>1623641</v>
+        <v>1625810</v>
       </c>
       <c r="E200" t="s">
         <v>16</v>
@@ -7499,10 +7499,10 @@
         <v>11</v>
       </c>
       <c r="C201">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D201">
-        <v>434211</v>
+        <v>435711</v>
       </c>
       <c r="E201" t="s">
         <v>16</v>
@@ -7595,10 +7595,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="D204">
-        <v>1747468</v>
+        <v>1749495</v>
       </c>
       <c r="E204" t="s">
         <v>16</v>
@@ -7627,10 +7627,10 @@
         <v>11</v>
       </c>
       <c r="C205">
-        <v>2484</v>
+        <v>2487</v>
       </c>
       <c r="D205">
-        <v>3645653</v>
+        <v>3650153</v>
       </c>
       <c r="E205" t="s">
         <v>16</v>
@@ -7659,10 +7659,10 @@
         <v>11</v>
       </c>
       <c r="C206">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D206">
-        <v>1132281</v>
+        <v>1135281</v>
       </c>
       <c r="E206" t="s">
         <v>16</v>
@@ -7691,10 +7691,10 @@
         <v>11</v>
       </c>
       <c r="C207">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D207">
-        <v>276330</v>
+        <v>279330</v>
       </c>
       <c r="E207" t="s">
         <v>16</v>
@@ -7755,10 +7755,10 @@
         <v>11</v>
       </c>
       <c r="C209">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D209">
-        <v>1278583</v>
+        <v>1281583</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -7787,10 +7787,10 @@
         <v>11</v>
       </c>
       <c r="C210">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D210">
-        <v>685818</v>
+        <v>688818</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -7819,10 +7819,10 @@
         <v>11</v>
       </c>
       <c r="C211">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="D211">
-        <v>2180310</v>
+        <v>2184810</v>
       </c>
       <c r="E211" t="s">
         <v>17</v>
@@ -7851,10 +7851,10 @@
         <v>11</v>
       </c>
       <c r="C212">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D212">
-        <v>695668</v>
+        <v>697168</v>
       </c>
       <c r="E212" t="s">
         <v>17</v>
@@ -7979,10 +7979,10 @@
         <v>11</v>
       </c>
       <c r="C216">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D216">
-        <v>886794</v>
+        <v>888294</v>
       </c>
       <c r="E216" t="s">
         <v>17</v>
@@ -8011,10 +8011,10 @@
         <v>11</v>
       </c>
       <c r="C217">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="D217">
-        <v>2569718</v>
+        <v>2575089</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -8043,10 +8043,10 @@
         <v>11</v>
       </c>
       <c r="C218">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D218">
-        <v>823759</v>
+        <v>834259</v>
       </c>
       <c r="E218" t="s">
         <v>17</v>
@@ -8139,10 +8139,10 @@
         <v>11</v>
       </c>
       <c r="C221">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D221">
-        <v>819947</v>
+        <v>822608</v>
       </c>
       <c r="E221" t="s">
         <v>17</v>
@@ -8171,10 +8171,10 @@
         <v>11</v>
       </c>
       <c r="C222">
-        <v>2412</v>
+        <v>2419</v>
       </c>
       <c r="D222">
-        <v>3523338</v>
+        <v>3533838</v>
       </c>
       <c r="E222" t="s">
         <v>17</v>
@@ -8203,10 +8203,10 @@
         <v>11</v>
       </c>
       <c r="C223">
-        <v>8119</v>
+        <v>8140</v>
       </c>
       <c r="D223">
-        <v>12025273</v>
+        <v>12056773</v>
       </c>
       <c r="E223" t="s">
         <v>17</v>
@@ -8235,10 +8235,10 @@
         <v>11</v>
       </c>
       <c r="C224">
-        <v>3119</v>
+        <v>3133</v>
       </c>
       <c r="D224">
-        <v>4664455</v>
+        <v>4685455</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -8267,10 +8267,10 @@
         <v>11</v>
       </c>
       <c r="C225">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D225">
-        <v>1309862</v>
+        <v>1312862</v>
       </c>
       <c r="E225" t="s">
         <v>17</v>
@@ -8363,10 +8363,10 @@
         <v>11</v>
       </c>
       <c r="C228">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="D228">
-        <v>2878464</v>
+        <v>2882864</v>
       </c>
       <c r="E228" t="s">
         <v>17</v>
@@ -8395,10 +8395,10 @@
         <v>11</v>
       </c>
       <c r="C229">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="D229">
-        <v>2492946</v>
+        <v>2497446</v>
       </c>
       <c r="E229" t="s">
         <v>17</v>
@@ -8427,10 +8427,10 @@
         <v>11</v>
       </c>
       <c r="C230">
-        <v>5190</v>
+        <v>5204</v>
       </c>
       <c r="D230">
-        <v>7675970</v>
+        <v>7695377</v>
       </c>
       <c r="E230" t="s">
         <v>17</v>
@@ -8459,10 +8459,10 @@
         <v>11</v>
       </c>
       <c r="C231">
-        <v>2095</v>
+        <v>2104</v>
       </c>
       <c r="D231">
-        <v>3126818</v>
+        <v>3140318</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -8491,10 +8491,10 @@
         <v>11</v>
       </c>
       <c r="C232">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D232">
-        <v>797795</v>
+        <v>799295</v>
       </c>
       <c r="E232" t="s">
         <v>17</v>
@@ -8523,10 +8523,10 @@
         <v>11</v>
       </c>
       <c r="C233">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D233">
-        <v>163230</v>
+        <v>164730</v>
       </c>
       <c r="E233" t="s">
         <v>17</v>
@@ -8587,10 +8587,10 @@
         <v>11</v>
       </c>
       <c r="C235">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="D235">
-        <v>1732209</v>
+        <v>1738209</v>
       </c>
       <c r="E235" t="s">
         <v>17</v>
@@ -8651,10 +8651,10 @@
         <v>11</v>
       </c>
       <c r="C237">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D237">
-        <v>1402222</v>
+        <v>1403722</v>
       </c>
       <c r="E237" t="s">
         <v>17</v>
@@ -8747,10 +8747,10 @@
         <v>11</v>
       </c>
       <c r="C240">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D240">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="E240" t="s">
         <v>17</v>
@@ -8811,10 +8811,10 @@
         <v>11</v>
       </c>
       <c r="C242">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="D242">
-        <v>1643001</v>
+        <v>1646001</v>
       </c>
       <c r="E242" t="s">
         <v>17</v>
@@ -8843,10 +8843,10 @@
         <v>11</v>
       </c>
       <c r="C243">
-        <v>3245</v>
+        <v>3254</v>
       </c>
       <c r="D243">
-        <v>4812463</v>
+        <v>4825163</v>
       </c>
       <c r="E243" t="s">
         <v>17</v>
@@ -8875,10 +8875,10 @@
         <v>11</v>
       </c>
       <c r="C244">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="D244">
-        <v>1744493</v>
+        <v>1746622</v>
       </c>
       <c r="E244" t="s">
         <v>17</v>
@@ -9003,10 +9003,10 @@
         <v>11</v>
       </c>
       <c r="C248">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="D248">
-        <v>1513771</v>
+        <v>1519771</v>
       </c>
       <c r="E248" t="s">
         <v>17</v>
@@ -9035,10 +9035,10 @@
         <v>11</v>
       </c>
       <c r="C249">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="D249">
-        <v>1797835</v>
+        <v>1806835</v>
       </c>
       <c r="E249" t="s">
         <v>17</v>
@@ -9067,10 +9067,10 @@
         <v>11</v>
       </c>
       <c r="C250">
-        <v>3768</v>
+        <v>3777</v>
       </c>
       <c r="D250">
-        <v>5580018</v>
+        <v>5590199</v>
       </c>
       <c r="E250" t="s">
         <v>17</v>
@@ -9099,10 +9099,10 @@
         <v>11</v>
       </c>
       <c r="C251">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="D251">
-        <v>1915578</v>
+        <v>1921578</v>
       </c>
       <c r="E251" t="s">
         <v>17</v>
@@ -9131,10 +9131,10 @@
         <v>11</v>
       </c>
       <c r="C252">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D252">
-        <v>490782</v>
+        <v>493782</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -9259,10 +9259,10 @@
         <v>11</v>
       </c>
       <c r="C256">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D256">
-        <v>488384</v>
+        <v>489884</v>
       </c>
       <c r="E256" t="s">
         <v>17</v>
@@ -9291,10 +9291,10 @@
         <v>11</v>
       </c>
       <c r="C257">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="D257">
-        <v>1399129</v>
+        <v>1403629</v>
       </c>
       <c r="E257" t="s">
         <v>17</v>
@@ -9323,10 +9323,10 @@
         <v>11</v>
       </c>
       <c r="C258">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D258">
-        <v>436088</v>
+        <v>437588</v>
       </c>
       <c r="E258" t="s">
         <v>17</v>
@@ -9355,10 +9355,10 @@
         <v>11</v>
       </c>
       <c r="C259">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D259">
-        <v>115500</v>
+        <v>116396</v>
       </c>
       <c r="E259" t="s">
         <v>17</v>
@@ -9451,10 +9451,10 @@
         <v>11</v>
       </c>
       <c r="C262">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="D262">
-        <v>2529346</v>
+        <v>2541346</v>
       </c>
       <c r="E262" t="s">
         <v>17</v>
@@ -9483,10 +9483,10 @@
         <v>11</v>
       </c>
       <c r="C263">
-        <v>5821</v>
+        <v>5833</v>
       </c>
       <c r="D263">
-        <v>8602955</v>
+        <v>8619494</v>
       </c>
       <c r="E263" t="s">
         <v>17</v>
@@ -9547,10 +9547,10 @@
         <v>11</v>
       </c>
       <c r="C265">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="D265">
-        <v>1098000</v>
+        <v>1102500</v>
       </c>
       <c r="E265" t="s">
         <v>17</v>
@@ -9611,10 +9611,10 @@
         <v>11</v>
       </c>
       <c r="C267">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="D267">
-        <v>2072214</v>
+        <v>2073913</v>
       </c>
       <c r="E267" t="s">
         <v>17</v>
@@ -9643,10 +9643,10 @@
         <v>11</v>
       </c>
       <c r="C268">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="D268">
-        <v>1514066</v>
+        <v>1520066</v>
       </c>
       <c r="E268" t="s">
         <v>17</v>
@@ -9675,10 +9675,10 @@
         <v>11</v>
       </c>
       <c r="C269">
-        <v>2672</v>
+        <v>2681</v>
       </c>
       <c r="D269">
-        <v>3953777</v>
+        <v>3966456</v>
       </c>
       <c r="E269" t="s">
         <v>17</v>
@@ -9707,10 +9707,10 @@
         <v>11</v>
       </c>
       <c r="C270">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D270">
-        <v>1277493</v>
+        <v>1280493</v>
       </c>
       <c r="E270" t="s">
         <v>17</v>
@@ -9739,10 +9739,10 @@
         <v>11</v>
       </c>
       <c r="C271">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D271">
-        <v>328463</v>
+        <v>329963</v>
       </c>
       <c r="E271" t="s">
         <v>17</v>
@@ -9835,10 +9835,10 @@
         <v>11</v>
       </c>
       <c r="C274">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D274">
-        <v>1392220</v>
+        <v>1395594</v>
       </c>
       <c r="E274" t="s">
         <v>17</v>
@@ -9867,10 +9867,10 @@
         <v>11</v>
       </c>
       <c r="C275">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="D275">
-        <v>1431597</v>
+        <v>1440597</v>
       </c>
       <c r="E275" t="s">
         <v>18</v>
@@ -9899,10 +9899,10 @@
         <v>11</v>
       </c>
       <c r="C276">
-        <v>3722</v>
+        <v>3737</v>
       </c>
       <c r="D276">
-        <v>5489209</v>
+        <v>5511619</v>
       </c>
       <c r="E276" t="s">
         <v>18</v>
@@ -9931,10 +9931,10 @@
         <v>11</v>
       </c>
       <c r="C277">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D277">
-        <v>2085464</v>
+        <v>2086964</v>
       </c>
       <c r="E277" t="s">
         <v>18</v>
@@ -9963,10 +9963,10 @@
         <v>11</v>
       </c>
       <c r="C278">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D278">
-        <v>641000</v>
+        <v>644000</v>
       </c>
       <c r="E278" t="s">
         <v>18</v>
@@ -10027,10 +10027,10 @@
         <v>11</v>
       </c>
       <c r="C280">
-        <v>2417</v>
+        <v>2443</v>
       </c>
       <c r="D280">
-        <v>3364281</v>
+        <v>3400256</v>
       </c>
       <c r="E280" t="s">
         <v>18</v>
@@ -10091,10 +10091,10 @@
         <v>11</v>
       </c>
       <c r="C282">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="D282">
-        <v>1402492</v>
+        <v>1411492</v>
       </c>
       <c r="E282" t="s">
         <v>19</v>
@@ -10123,10 +10123,10 @@
         <v>11</v>
       </c>
       <c r="C283">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D283">
-        <v>573976</v>
+        <v>575476</v>
       </c>
       <c r="E283" t="s">
         <v>19</v>
@@ -10155,10 +10155,10 @@
         <v>11</v>
       </c>
       <c r="C284">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D284">
-        <v>196378</v>
+        <v>197878</v>
       </c>
       <c r="E284" t="s">
         <v>19</v>
@@ -10219,10 +10219,10 @@
         <v>11</v>
       </c>
       <c r="C286">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D286">
-        <v>650481</v>
+        <v>656481</v>
       </c>
       <c r="E286" t="s">
         <v>19</v>
@@ -10283,10 +10283,10 @@
         <v>11</v>
       </c>
       <c r="C288">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="D288">
-        <v>3616143</v>
+        <v>3619143</v>
       </c>
       <c r="E288" t="s">
         <v>20</v>
@@ -10315,10 +10315,10 @@
         <v>11</v>
       </c>
       <c r="C289">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D289">
-        <v>1357316</v>
+        <v>1361209</v>
       </c>
       <c r="E289" t="s">
         <v>20</v>
@@ -10443,10 +10443,10 @@
         <v>11</v>
       </c>
       <c r="C293">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D293">
-        <v>1257666</v>
+        <v>1259166</v>
       </c>
       <c r="E293" t="s">
         <v>20</v>
@@ -10475,10 +10475,10 @@
         <v>11</v>
       </c>
       <c r="C294">
-        <v>4490</v>
+        <v>4497</v>
       </c>
       <c r="D294">
-        <v>6504332</v>
+        <v>6513580</v>
       </c>
       <c r="E294" t="s">
         <v>20</v>
@@ -10507,10 +10507,10 @@
         <v>11</v>
       </c>
       <c r="C295">
-        <v>13262</v>
+        <v>13290</v>
       </c>
       <c r="D295">
-        <v>19552377</v>
+        <v>19593847</v>
       </c>
       <c r="E295" t="s">
         <v>20</v>
@@ -10539,10 +10539,10 @@
         <v>11</v>
       </c>
       <c r="C296">
-        <v>4657</v>
+        <v>4669</v>
       </c>
       <c r="D296">
-        <v>6962884</v>
+        <v>6980884</v>
       </c>
       <c r="E296" t="s">
         <v>20</v>
@@ -10571,10 +10571,10 @@
         <v>11</v>
       </c>
       <c r="C297">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="D297">
-        <v>2019662</v>
+        <v>2022662</v>
       </c>
       <c r="E297" t="s">
         <v>20</v>
@@ -10603,10 +10603,10 @@
         <v>11</v>
       </c>
       <c r="C298">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D298">
-        <v>379202</v>
+        <v>382202</v>
       </c>
       <c r="E298" t="s">
         <v>20</v>
@@ -10667,10 +10667,10 @@
         <v>11</v>
       </c>
       <c r="C300">
-        <v>4008</v>
+        <v>4012</v>
       </c>
       <c r="D300">
-        <v>5375227</v>
+        <v>5379983</v>
       </c>
       <c r="E300" t="s">
         <v>20</v>
@@ -10699,10 +10699,10 @@
         <v>11</v>
       </c>
       <c r="C301">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="D301">
-        <v>1987508</v>
+        <v>1992858</v>
       </c>
       <c r="E301" t="s">
         <v>20</v>
@@ -10731,10 +10731,10 @@
         <v>11</v>
       </c>
       <c r="C302">
-        <v>4329</v>
+        <v>4341</v>
       </c>
       <c r="D302">
-        <v>6400632</v>
+        <v>6418632</v>
       </c>
       <c r="E302" t="s">
         <v>20</v>
@@ -10763,10 +10763,10 @@
         <v>11</v>
       </c>
       <c r="C303">
-        <v>1539</v>
+        <v>1544</v>
       </c>
       <c r="D303">
-        <v>2304057</v>
+        <v>2311557</v>
       </c>
       <c r="E303" t="s">
         <v>20</v>
@@ -10795,10 +10795,10 @@
         <v>11</v>
       </c>
       <c r="C304">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D304">
-        <v>579000</v>
+        <v>580500</v>
       </c>
       <c r="E304" t="s">
         <v>20</v>
@@ -10891,10 +10891,10 @@
         <v>11</v>
       </c>
       <c r="C307">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D307">
-        <v>1819468</v>
+        <v>1820968</v>
       </c>
       <c r="E307" t="s">
         <v>20</v>
@@ -10923,10 +10923,10 @@
         <v>11</v>
       </c>
       <c r="C308">
-        <v>2389</v>
+        <v>2394</v>
       </c>
       <c r="D308">
-        <v>3469009</v>
+        <v>3476509</v>
       </c>
       <c r="E308" t="s">
         <v>20</v>
@@ -10955,10 +10955,10 @@
         <v>11</v>
       </c>
       <c r="C309">
-        <v>7539</v>
+        <v>7561</v>
       </c>
       <c r="D309">
-        <v>11108541</v>
+        <v>11138691</v>
       </c>
       <c r="E309" t="s">
         <v>20</v>
@@ -10987,10 +10987,10 @@
         <v>11</v>
       </c>
       <c r="C310">
-        <v>2395</v>
+        <v>2403</v>
       </c>
       <c r="D310">
-        <v>3577237</v>
+        <v>3589237</v>
       </c>
       <c r="E310" t="s">
         <v>20</v>
@@ -11019,10 +11019,10 @@
         <v>11</v>
       </c>
       <c r="C311">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D311">
-        <v>1064204</v>
+        <v>1065704</v>
       </c>
       <c r="E311" t="s">
         <v>20</v>
@@ -11115,10 +11115,10 @@
         <v>11</v>
       </c>
       <c r="C314">
-        <v>2537</v>
+        <v>2542</v>
       </c>
       <c r="D314">
-        <v>3360156</v>
+        <v>3367556</v>
       </c>
       <c r="E314" t="s">
         <v>20</v>
@@ -11147,10 +11147,10 @@
         <v>11</v>
       </c>
       <c r="C315">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D315">
-        <v>1443734</v>
+        <v>1446791</v>
       </c>
       <c r="E315" t="s">
         <v>20</v>
@@ -11179,10 +11179,10 @@
         <v>11</v>
       </c>
       <c r="C316">
-        <v>2868</v>
+        <v>2876</v>
       </c>
       <c r="D316">
-        <v>4236842</v>
+        <v>4248308</v>
       </c>
       <c r="E316" t="s">
         <v>20</v>
@@ -11211,10 +11211,10 @@
         <v>11</v>
       </c>
       <c r="C317">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="D317">
-        <v>1578028</v>
+        <v>1583271</v>
       </c>
       <c r="E317" t="s">
         <v>20</v>
@@ -11275,10 +11275,10 @@
         <v>11</v>
       </c>
       <c r="C319">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D319">
-        <v>85500</v>
+        <v>87000</v>
       </c>
       <c r="E319" t="s">
         <v>20</v>
@@ -11307,10 +11307,10 @@
         <v>11</v>
       </c>
       <c r="C320">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="D320">
-        <v>1446806</v>
+        <v>1456313</v>
       </c>
       <c r="E320" t="s">
         <v>20</v>
@@ -11339,10 +11339,10 @@
         <v>11</v>
       </c>
       <c r="C321">
-        <v>2709</v>
+        <v>2720</v>
       </c>
       <c r="D321">
-        <v>3954918</v>
+        <v>3971418</v>
       </c>
       <c r="E321" t="s">
         <v>21</v>
@@ -11371,10 +11371,10 @@
         <v>11</v>
       </c>
       <c r="C322">
-        <v>7371</v>
+        <v>7399</v>
       </c>
       <c r="D322">
-        <v>10878685</v>
+        <v>10920685</v>
       </c>
       <c r="E322" t="s">
         <v>21</v>
@@ -11403,10 +11403,10 @@
         <v>11</v>
       </c>
       <c r="C323">
-        <v>2612</v>
+        <v>2623</v>
       </c>
       <c r="D323">
-        <v>3903113</v>
+        <v>3918983</v>
       </c>
       <c r="E323" t="s">
         <v>21</v>
@@ -11435,10 +11435,10 @@
         <v>11</v>
       </c>
       <c r="C324">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="D324">
-        <v>1282049</v>
+        <v>1289549</v>
       </c>
       <c r="E324" t="s">
         <v>21</v>
@@ -11531,10 +11531,10 @@
         <v>11</v>
       </c>
       <c r="C327">
-        <v>2847</v>
+        <v>2864</v>
       </c>
       <c r="D327">
-        <v>3878333</v>
+        <v>3902465</v>
       </c>
       <c r="E327" t="s">
         <v>21</v>
@@ -11595,10 +11595,10 @@
         <v>11</v>
       </c>
       <c r="C329">
-        <v>2994</v>
+        <v>2998</v>
       </c>
       <c r="D329">
-        <v>4425546</v>
+        <v>4431546</v>
       </c>
       <c r="E329" t="s">
         <v>22</v>
@@ -11627,10 +11627,10 @@
         <v>11</v>
       </c>
       <c r="C330">
-        <v>1189</v>
+        <v>1194</v>
       </c>
       <c r="D330">
-        <v>1779659</v>
+        <v>1787159</v>
       </c>
       <c r="E330" t="s">
         <v>22</v>
@@ -11755,10 +11755,10 @@
         <v>11</v>
       </c>
       <c r="C334">
-        <v>1767</v>
+        <v>1772</v>
       </c>
       <c r="D334">
-        <v>2371711</v>
+        <v>2379211</v>
       </c>
       <c r="E334" t="s">
         <v>22</v>
@@ -11787,10 +11787,10 @@
         <v>11</v>
       </c>
       <c r="C335">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D335">
-        <v>456689</v>
+        <v>458189</v>
       </c>
       <c r="E335" t="s">
         <v>23</v>
@@ -11819,10 +11819,10 @@
         <v>11</v>
       </c>
       <c r="C336">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D336">
-        <v>154110</v>
+        <v>158610</v>
       </c>
       <c r="E336" t="s">
         <v>23</v>
@@ -11947,10 +11947,10 @@
         <v>11</v>
       </c>
       <c r="C340">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="D340">
-        <v>2951371</v>
+        <v>2954371</v>
       </c>
       <c r="E340" t="s">
         <v>24</v>
@@ -11979,10 +11979,10 @@
         <v>11</v>
       </c>
       <c r="C341">
-        <v>5040</v>
+        <v>5048</v>
       </c>
       <c r="D341">
-        <v>7445049</v>
+        <v>7457049</v>
       </c>
       <c r="E341" t="s">
         <v>24</v>
@@ -12011,10 +12011,10 @@
         <v>11</v>
       </c>
       <c r="C342">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="D342">
-        <v>2468871</v>
+        <v>2470371</v>
       </c>
       <c r="E342" t="s">
         <v>24</v>
@@ -12043,10 +12043,10 @@
         <v>11</v>
       </c>
       <c r="C343">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D343">
-        <v>708145</v>
+        <v>711145</v>
       </c>
       <c r="E343" t="s">
         <v>24</v>
@@ -12139,10 +12139,10 @@
         <v>11</v>
       </c>
       <c r="C346">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D346">
-        <v>2058014</v>
+        <v>2059514</v>
       </c>
       <c r="E346" t="s">
         <v>24</v>
@@ -12171,10 +12171,10 @@
         <v>11</v>
       </c>
       <c r="C347">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D347">
-        <v>1660678</v>
+        <v>1662178</v>
       </c>
       <c r="E347" t="s">
         <v>24</v>
@@ -12203,10 +12203,10 @@
         <v>11</v>
       </c>
       <c r="C348">
-        <v>3402</v>
+        <v>3409</v>
       </c>
       <c r="D348">
-        <v>5034020</v>
+        <v>5044520</v>
       </c>
       <c r="E348" t="s">
         <v>24</v>
@@ -12235,10 +12235,10 @@
         <v>11</v>
       </c>
       <c r="C349">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="D349">
-        <v>1663566</v>
+        <v>1669566</v>
       </c>
       <c r="E349" t="s">
         <v>24</v>
@@ -12267,10 +12267,10 @@
         <v>11</v>
       </c>
       <c r="C350">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D350">
-        <v>436042</v>
+        <v>437542</v>
       </c>
       <c r="E350" t="s">
         <v>24</v>
@@ -12363,10 +12363,10 @@
         <v>11</v>
       </c>
       <c r="C353">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="D353">
-        <v>1429662</v>
+        <v>1432586</v>
       </c>
       <c r="E353" t="s">
         <v>24</v>
@@ -12427,10 +12427,10 @@
         <v>11</v>
       </c>
       <c r="C355">
-        <v>3414</v>
+        <v>3416</v>
       </c>
       <c r="D355">
-        <v>5058117</v>
+        <v>5060170</v>
       </c>
       <c r="E355" t="s">
         <v>24</v>
@@ -12555,10 +12555,10 @@
         <v>11</v>
       </c>
       <c r="C359">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="D359">
-        <v>1430765</v>
+        <v>1436765</v>
       </c>
       <c r="E359" t="s">
         <v>24</v>
@@ -12619,10 +12619,10 @@
         <v>11</v>
       </c>
       <c r="C361">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="D361">
-        <v>2725704</v>
+        <v>2731704</v>
       </c>
       <c r="E361" t="s">
         <v>24</v>
@@ -12683,10 +12683,10 @@
         <v>11</v>
       </c>
       <c r="C363">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D363">
-        <v>184500</v>
+        <v>186000</v>
       </c>
       <c r="E363" t="s">
         <v>24</v>
@@ -12747,10 +12747,10 @@
         <v>11</v>
       </c>
       <c r="C365">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D365">
-        <v>971593</v>
+        <v>974593</v>
       </c>
       <c r="E365" t="s">
         <v>24</v>
@@ -12779,10 +12779,10 @@
         <v>11</v>
       </c>
       <c r="C366">
-        <v>1951</v>
+        <v>1962</v>
       </c>
       <c r="D366">
-        <v>2857178</v>
+        <v>2873678</v>
       </c>
       <c r="E366" t="s">
         <v>24</v>
@@ -12811,10 +12811,10 @@
         <v>11</v>
       </c>
       <c r="C367">
-        <v>6494</v>
+        <v>6502</v>
       </c>
       <c r="D367">
-        <v>9612657</v>
+        <v>9624657</v>
       </c>
       <c r="E367" t="s">
         <v>24</v>
@@ -12843,10 +12843,10 @@
         <v>11</v>
       </c>
       <c r="C368">
-        <v>2316</v>
+        <v>2323</v>
       </c>
       <c r="D368">
-        <v>3464734</v>
+        <v>3475234</v>
       </c>
       <c r="E368" t="s">
         <v>24</v>
@@ -12875,10 +12875,10 @@
         <v>11</v>
       </c>
       <c r="C369">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D369">
-        <v>878285</v>
+        <v>881285</v>
       </c>
       <c r="E369" t="s">
         <v>24</v>
@@ -12971,10 +12971,10 @@
         <v>11</v>
       </c>
       <c r="C372">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="D372">
-        <v>2604543</v>
+        <v>2609964</v>
       </c>
       <c r="E372" t="s">
         <v>24</v>
@@ -13035,10 +13035,10 @@
         <v>11</v>
       </c>
       <c r="C374">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="D374">
-        <v>3272028</v>
+        <v>3275028</v>
       </c>
       <c r="E374" t="s">
         <v>25</v>
@@ -13067,10 +13067,10 @@
         <v>11</v>
       </c>
       <c r="C375">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D375">
-        <v>1068992</v>
+        <v>1070492</v>
       </c>
       <c r="E375" t="s">
         <v>25</v>
@@ -13099,10 +13099,10 @@
         <v>11</v>
       </c>
       <c r="C376">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D376">
-        <v>326411</v>
+        <v>327911</v>
       </c>
       <c r="E376" t="s">
         <v>25</v>
@@ -13163,10 +13163,10 @@
         <v>11</v>
       </c>
       <c r="C378">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D378">
-        <v>1191299</v>
+        <v>1191849</v>
       </c>
       <c r="E378" t="s">
         <v>25</v>
@@ -13195,10 +13195,10 @@
         <v>11</v>
       </c>
       <c r="C379">
-        <v>2799</v>
+        <v>2804</v>
       </c>
       <c r="D379">
-        <v>4070395</v>
+        <v>4076616</v>
       </c>
       <c r="E379" t="s">
         <v>25</v>
@@ -13227,10 +13227,10 @@
         <v>11</v>
       </c>
       <c r="C380">
-        <v>5691</v>
+        <v>5698</v>
       </c>
       <c r="D380">
-        <v>8412915</v>
+        <v>8423415</v>
       </c>
       <c r="E380" t="s">
         <v>25</v>
@@ -13259,10 +13259,10 @@
         <v>11</v>
       </c>
       <c r="C381">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="D381">
-        <v>2494407</v>
+        <v>2497407</v>
       </c>
       <c r="E381" t="s">
         <v>25</v>
@@ -13387,10 +13387,10 @@
         <v>11</v>
       </c>
       <c r="C385">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D385">
-        <v>2457878</v>
+        <v>2458558</v>
       </c>
       <c r="E385" t="s">
         <v>25</v>
@@ -13419,10 +13419,10 @@
         <v>11</v>
       </c>
       <c r="C386">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D386">
-        <v>1006722</v>
+        <v>1008222</v>
       </c>
       <c r="E386" t="s">
         <v>25</v>
@@ -13451,10 +13451,10 @@
         <v>11</v>
       </c>
       <c r="C387">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="D387">
-        <v>2665466</v>
+        <v>2666966</v>
       </c>
       <c r="E387" t="s">
         <v>25</v>
@@ -13483,10 +13483,10 @@
         <v>11</v>
       </c>
       <c r="C388">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D388">
-        <v>774889</v>
+        <v>776389</v>
       </c>
       <c r="E388" t="s">
         <v>25</v>
@@ -13643,10 +13643,10 @@
         <v>11</v>
       </c>
       <c r="C393">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D393">
-        <v>998913</v>
+        <v>1001913</v>
       </c>
       <c r="E393" t="s">
         <v>25</v>
@@ -13771,10 +13771,10 @@
         <v>11</v>
       </c>
       <c r="C397">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D397">
-        <v>486484</v>
+        <v>486663</v>
       </c>
       <c r="E397" t="s">
         <v>25</v>
@@ -13803,10 +13803,10 @@
         <v>11</v>
       </c>
       <c r="C398">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D398">
-        <v>898473</v>
+        <v>899973</v>
       </c>
       <c r="E398" t="s">
         <v>25</v>
@@ -13835,10 +13835,10 @@
         <v>11</v>
       </c>
       <c r="C399">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D399">
-        <v>2976683</v>
+        <v>2977209</v>
       </c>
       <c r="E399" t="s">
         <v>25</v>
@@ -13867,10 +13867,10 @@
         <v>11</v>
       </c>
       <c r="C400">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D400">
-        <v>1000481</v>
+        <v>1001981</v>
       </c>
       <c r="E400" t="s">
         <v>25</v>
@@ -13899,10 +13899,10 @@
         <v>11</v>
       </c>
       <c r="C401">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D401">
-        <v>237000</v>
+        <v>238500</v>
       </c>
       <c r="E401" t="s">
         <v>25</v>
@@ -13931,10 +13931,10 @@
         <v>11</v>
       </c>
       <c r="C402">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D402">
-        <v>43500</v>
+        <v>45000</v>
       </c>
       <c r="E402" t="s">
         <v>25</v>
@@ -13963,10 +13963,10 @@
         <v>11</v>
       </c>
       <c r="C403">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D403">
-        <v>900164</v>
+        <v>902264</v>
       </c>
       <c r="E403" t="s">
         <v>25</v>
@@ -14027,10 +14027,10 @@
         <v>11</v>
       </c>
       <c r="C405">
-        <v>3617</v>
+        <v>3622</v>
       </c>
       <c r="D405">
-        <v>5328670</v>
+        <v>5334902</v>
       </c>
       <c r="E405" t="s">
         <v>25</v>
@@ -14059,10 +14059,10 @@
         <v>11</v>
       </c>
       <c r="C406">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="D406">
-        <v>1489764</v>
+        <v>1497264</v>
       </c>
       <c r="E406" t="s">
         <v>25</v>
@@ -14155,10 +14155,10 @@
         <v>11</v>
       </c>
       <c r="C409">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="D409">
-        <v>2081261</v>
+        <v>2085761</v>
       </c>
       <c r="E409" t="s">
         <v>25</v>
@@ -14187,10 +14187,10 @@
         <v>11</v>
       </c>
       <c r="C410">
-        <v>5630</v>
+        <v>5647</v>
       </c>
       <c r="D410">
-        <v>8209217</v>
+        <v>8231767</v>
       </c>
       <c r="E410" t="s">
         <v>25</v>
@@ -14219,10 +14219,10 @@
         <v>11</v>
       </c>
       <c r="C411">
-        <v>12227</v>
+        <v>12263</v>
       </c>
       <c r="D411">
-        <v>18021922</v>
+        <v>18071759</v>
       </c>
       <c r="E411" t="s">
         <v>25</v>
@@ -14251,10 +14251,10 @@
         <v>11</v>
       </c>
       <c r="C412">
-        <v>4141</v>
+        <v>4149</v>
       </c>
       <c r="D412">
-        <v>6179867</v>
+        <v>6191867</v>
       </c>
       <c r="E412" t="s">
         <v>25</v>
@@ -14283,10 +14283,10 @@
         <v>11</v>
       </c>
       <c r="C413">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="D413">
-        <v>1825110</v>
+        <v>1831110</v>
       </c>
       <c r="E413" t="s">
         <v>25</v>
@@ -14411,10 +14411,10 @@
         <v>11</v>
       </c>
       <c r="C417">
-        <v>4217</v>
+        <v>4225</v>
       </c>
       <c r="D417">
-        <v>5809824</v>
+        <v>5818924</v>
       </c>
       <c r="E417" t="s">
         <v>25</v>
@@ -14443,10 +14443,10 @@
         <v>11</v>
       </c>
       <c r="C418">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D418">
-        <v>1242085</v>
+        <v>1245085</v>
       </c>
       <c r="E418" t="s">
         <v>25</v>
@@ -14475,10 +14475,10 @@
         <v>11</v>
       </c>
       <c r="C419">
-        <v>2197</v>
+        <v>2202</v>
       </c>
       <c r="D419">
-        <v>3252186</v>
+        <v>3259686</v>
       </c>
       <c r="E419" t="s">
         <v>25</v>
@@ -14507,10 +14507,10 @@
         <v>11</v>
       </c>
       <c r="C420">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D420">
-        <v>1070256</v>
+        <v>1074756</v>
       </c>
       <c r="E420" t="s">
         <v>25</v>
@@ -14539,10 +14539,10 @@
         <v>11</v>
       </c>
       <c r="C421">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D421">
-        <v>324381</v>
+        <v>325881</v>
       </c>
       <c r="E421" t="s">
         <v>25</v>
@@ -14571,10 +14571,10 @@
         <v>11</v>
       </c>
       <c r="C422">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D422">
-        <v>60000</v>
+        <v>61500</v>
       </c>
       <c r="E422" t="s">
         <v>25</v>
@@ -14603,10 +14603,10 @@
         <v>11</v>
       </c>
       <c r="C423">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D423">
-        <v>1389011</v>
+        <v>1390921</v>
       </c>
       <c r="E423" t="s">
         <v>25</v>
@@ -14635,10 +14635,10 @@
         <v>11</v>
       </c>
       <c r="C424">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="D424">
-        <v>2611642</v>
+        <v>2616318</v>
       </c>
       <c r="E424" t="s">
         <v>25</v>
@@ -14667,10 +14667,10 @@
         <v>11</v>
       </c>
       <c r="C425">
-        <v>3416</v>
+        <v>3422</v>
       </c>
       <c r="D425">
-        <v>5034199</v>
+        <v>5043199</v>
       </c>
       <c r="E425" t="s">
         <v>25</v>
@@ -14699,10 +14699,10 @@
         <v>11</v>
       </c>
       <c r="C426">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D426">
-        <v>1544546</v>
+        <v>1546046</v>
       </c>
       <c r="E426" t="s">
         <v>25</v>
@@ -14731,10 +14731,10 @@
         <v>11</v>
       </c>
       <c r="C427">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D427">
-        <v>370846</v>
+        <v>372346</v>
       </c>
       <c r="E427" t="s">
         <v>25</v>
@@ -14827,10 +14827,10 @@
         <v>11</v>
       </c>
       <c r="C430">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D430">
-        <v>1325457</v>
+        <v>1326957</v>
       </c>
       <c r="E430" t="s">
         <v>25</v>
@@ -14859,10 +14859,10 @@
         <v>11</v>
       </c>
       <c r="C431">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D431">
-        <v>1558289</v>
+        <v>1559789</v>
       </c>
       <c r="E431" t="s">
         <v>25</v>
@@ -14891,10 +14891,10 @@
         <v>11</v>
       </c>
       <c r="C432">
-        <v>2359</v>
+        <v>2364</v>
       </c>
       <c r="D432">
-        <v>3483396</v>
+        <v>3489662</v>
       </c>
       <c r="E432" t="s">
         <v>25</v>
@@ -14923,10 +14923,10 @@
         <v>11</v>
       </c>
       <c r="C433">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D433">
-        <v>1210977</v>
+        <v>1213492</v>
       </c>
       <c r="E433" t="s">
         <v>25</v>
@@ -15051,10 +15051,10 @@
         <v>11</v>
       </c>
       <c r="C437">
-        <v>2344</v>
+        <v>2350</v>
       </c>
       <c r="D437">
-        <v>3398709</v>
+        <v>3406809</v>
       </c>
       <c r="E437" t="s">
         <v>25</v>
@@ -15083,10 +15083,10 @@
         <v>11</v>
       </c>
       <c r="C438">
-        <v>6225</v>
+        <v>6244</v>
       </c>
       <c r="D438">
-        <v>9177482</v>
+        <v>9205673</v>
       </c>
       <c r="E438" t="s">
         <v>25</v>
@@ -15115,10 +15115,10 @@
         <v>11</v>
       </c>
       <c r="C439">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="D439">
-        <v>3065755</v>
+        <v>3071755</v>
       </c>
       <c r="E439" t="s">
         <v>25</v>
@@ -15147,10 +15147,10 @@
         <v>11</v>
       </c>
       <c r="C440">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D440">
-        <v>793144</v>
+        <v>794644</v>
       </c>
       <c r="E440" t="s">
         <v>25</v>
@@ -15243,10 +15243,10 @@
         <v>11</v>
       </c>
       <c r="C443">
-        <v>2299</v>
+        <v>2305</v>
       </c>
       <c r="D443">
-        <v>3148264</v>
+        <v>3155530</v>
       </c>
       <c r="E443" t="s">
         <v>25</v>
@@ -15275,10 +15275,10 @@
         <v>11</v>
       </c>
       <c r="C444">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D444">
-        <v>1134864</v>
+        <v>1137864</v>
       </c>
       <c r="E444" t="s">
         <v>25</v>
@@ -15307,10 +15307,10 @@
         <v>11</v>
       </c>
       <c r="C445">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="D445">
-        <v>3462188</v>
+        <v>3465188</v>
       </c>
       <c r="E445" t="s">
         <v>25</v>
@@ -15339,10 +15339,10 @@
         <v>11</v>
       </c>
       <c r="C446">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D446">
-        <v>1156715</v>
+        <v>1161215</v>
       </c>
       <c r="E446" t="s">
         <v>25</v>
@@ -15467,10 +15467,10 @@
         <v>11</v>
       </c>
       <c r="C450">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="D450">
-        <v>1108546</v>
+        <v>1117126</v>
       </c>
       <c r="E450" t="s">
         <v>25</v>
@@ -15531,10 +15531,10 @@
         <v>11</v>
       </c>
       <c r="C452">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="D452">
-        <v>1700576</v>
+        <v>1706576</v>
       </c>
       <c r="E452" t="s">
         <v>26</v>
@@ -15563,10 +15563,10 @@
         <v>11</v>
       </c>
       <c r="C453">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D453">
-        <v>605515</v>
+        <v>610015</v>
       </c>
       <c r="E453" t="s">
         <v>26</v>
@@ -15659,10 +15659,10 @@
         <v>11</v>
       </c>
       <c r="C456">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D456">
-        <v>696406</v>
+        <v>699406</v>
       </c>
       <c r="E456" t="s">
         <v>26</v>
@@ -15691,10 +15691,10 @@
         <v>11</v>
       </c>
       <c r="C457">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="D457">
-        <v>2492755</v>
+        <v>2498580</v>
       </c>
       <c r="E457" t="s">
         <v>26</v>
@@ -15723,10 +15723,10 @@
         <v>11</v>
       </c>
       <c r="C458">
-        <v>3302</v>
+        <v>3309</v>
       </c>
       <c r="D458">
-        <v>4865871</v>
+        <v>4876371</v>
       </c>
       <c r="E458" t="s">
         <v>26</v>
@@ -15755,10 +15755,10 @@
         <v>11</v>
       </c>
       <c r="C459">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D459">
-        <v>1492818</v>
+        <v>1494318</v>
       </c>
       <c r="E459" t="s">
         <v>26</v>
@@ -15883,10 +15883,10 @@
         <v>11</v>
       </c>
       <c r="C463">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="D463">
-        <v>1558187</v>
+        <v>1562051</v>
       </c>
       <c r="E463" t="s">
         <v>26</v>
@@ -15947,10 +15947,10 @@
         <v>11</v>
       </c>
       <c r="C465">
-        <v>2380</v>
+        <v>2386</v>
       </c>
       <c r="D465">
-        <v>3506482</v>
+        <v>3515482</v>
       </c>
       <c r="E465" t="s">
         <v>26</v>
@@ -16043,10 +16043,10 @@
         <v>11</v>
       </c>
       <c r="C468">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D468">
-        <v>40500</v>
+        <v>42000</v>
       </c>
       <c r="E468" t="s">
         <v>26</v>
@@ -16171,10 +16171,10 @@
         <v>11</v>
       </c>
       <c r="C472">
-        <v>6770</v>
+        <v>6776</v>
       </c>
       <c r="D472">
-        <v>9976499</v>
+        <v>9983927</v>
       </c>
       <c r="E472" t="s">
         <v>26</v>
@@ -16203,10 +16203,10 @@
         <v>11</v>
       </c>
       <c r="C473">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="D473">
-        <v>2890323</v>
+        <v>2894823</v>
       </c>
       <c r="E473" t="s">
         <v>26</v>
@@ -16235,10 +16235,10 @@
         <v>11</v>
       </c>
       <c r="C474">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D474">
-        <v>630844</v>
+        <v>633844</v>
       </c>
       <c r="E474" t="s">
         <v>26</v>
@@ -16299,10 +16299,10 @@
         <v>11</v>
       </c>
       <c r="C476">
-        <v>2528</v>
+        <v>2531</v>
       </c>
       <c r="D476">
-        <v>3418901</v>
+        <v>3423401</v>
       </c>
       <c r="E476" t="s">
         <v>26</v>
@@ -16331,10 +16331,10 @@
         <v>11</v>
       </c>
       <c r="C477">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D477">
-        <v>934286</v>
+        <v>938786</v>
       </c>
       <c r="E477" t="s">
         <v>26</v>
@@ -16363,10 +16363,10 @@
         <v>11</v>
       </c>
       <c r="C478">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="D478">
-        <v>2149328</v>
+        <v>2152328</v>
       </c>
       <c r="E478" t="s">
         <v>26</v>
@@ -16395,10 +16395,10 @@
         <v>11</v>
       </c>
       <c r="C479">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D479">
-        <v>692418</v>
+        <v>694281</v>
       </c>
       <c r="E479" t="s">
         <v>26</v>
@@ -16491,10 +16491,10 @@
         <v>11</v>
       </c>
       <c r="C482">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D482">
-        <v>1028891</v>
+        <v>1030217</v>
       </c>
       <c r="E482" t="s">
         <v>26</v>
@@ -16523,10 +16523,10 @@
         <v>11</v>
       </c>
       <c r="C483">
-        <v>3951</v>
+        <v>3958</v>
       </c>
       <c r="D483">
-        <v>5762307</v>
+        <v>5771886</v>
       </c>
       <c r="E483" t="s">
         <v>26</v>
@@ -16555,10 +16555,10 @@
         <v>11</v>
       </c>
       <c r="C484">
-        <v>9716</v>
+        <v>9740</v>
       </c>
       <c r="D484">
-        <v>14355435</v>
+        <v>14391435</v>
       </c>
       <c r="E484" t="s">
         <v>26</v>
@@ -16587,10 +16587,10 @@
         <v>11</v>
       </c>
       <c r="C485">
-        <v>3436</v>
+        <v>3443</v>
       </c>
       <c r="D485">
-        <v>5128693</v>
+        <v>5139193</v>
       </c>
       <c r="E485" t="s">
         <v>26</v>
@@ -16619,10 +16619,10 @@
         <v>11</v>
       </c>
       <c r="C486">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="D486">
-        <v>1511327</v>
+        <v>1515827</v>
       </c>
       <c r="E486" t="s">
         <v>26</v>
@@ -16715,10 +16715,10 @@
         <v>11</v>
       </c>
       <c r="C489">
-        <v>3840</v>
+        <v>3848</v>
       </c>
       <c r="D489">
-        <v>5231185</v>
+        <v>5239507</v>
       </c>
       <c r="E489" t="s">
         <v>26</v>
@@ -16747,10 +16747,10 @@
         <v>11</v>
       </c>
       <c r="C490">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D490">
-        <v>1176193</v>
+        <v>1180904</v>
       </c>
       <c r="E490" t="s">
         <v>26</v>
@@ -16779,10 +16779,10 @@
         <v>11</v>
       </c>
       <c r="C491">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="D491">
-        <v>3038449</v>
+        <v>3042949</v>
       </c>
       <c r="E491" t="s">
         <v>26</v>
@@ -16843,10 +16843,10 @@
         <v>11</v>
       </c>
       <c r="C493">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D493">
-        <v>233494</v>
+        <v>234994</v>
       </c>
       <c r="E493" t="s">
         <v>26</v>
@@ -16907,10 +16907,10 @@
         <v>11</v>
       </c>
       <c r="C495">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D495">
-        <v>1494236</v>
+        <v>1498736</v>
       </c>
       <c r="E495" t="s">
         <v>26</v>
@@ -16939,10 +16939,10 @@
         <v>11</v>
       </c>
       <c r="C496">
-        <v>5285</v>
+        <v>5291</v>
       </c>
       <c r="D496">
-        <v>7685833</v>
+        <v>7694832</v>
       </c>
       <c r="E496" t="s">
         <v>26</v>
@@ -16971,10 +16971,10 @@
         <v>11</v>
       </c>
       <c r="C497">
-        <v>11908</v>
+        <v>11927</v>
       </c>
       <c r="D497">
-        <v>17541421</v>
+        <v>17567265</v>
       </c>
       <c r="E497" t="s">
         <v>26</v>
@@ -17003,10 +17003,10 @@
         <v>11</v>
       </c>
       <c r="C498">
-        <v>3642</v>
+        <v>3653</v>
       </c>
       <c r="D498">
-        <v>5436536</v>
+        <v>5453036</v>
       </c>
       <c r="E498" t="s">
         <v>26</v>
@@ -17131,10 +17131,10 @@
         <v>11</v>
       </c>
       <c r="C502">
-        <v>3794</v>
+        <v>3798</v>
       </c>
       <c r="D502">
-        <v>5141626</v>
+        <v>5147417</v>
       </c>
       <c r="E502" t="s">
         <v>26</v>
@@ -17163,10 +17163,10 @@
         <v>11</v>
       </c>
       <c r="C503">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D503">
-        <v>1154294</v>
+        <v>1155794</v>
       </c>
       <c r="E503" t="s">
         <v>26</v>
@@ -17195,10 +17195,10 @@
         <v>11</v>
       </c>
       <c r="C504">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="D504">
-        <v>2173107</v>
+        <v>2177607</v>
       </c>
       <c r="E504" t="s">
         <v>26</v>
@@ -17323,10 +17323,10 @@
         <v>11</v>
       </c>
       <c r="C508">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="D508">
-        <v>995796</v>
+        <v>1001796</v>
       </c>
       <c r="E508" t="s">
         <v>26</v>
@@ -17387,10 +17387,10 @@
         <v>11</v>
       </c>
       <c r="C510">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D510">
-        <v>962551</v>
+        <v>965551</v>
       </c>
       <c r="E510" t="s">
         <v>26</v>
@@ -17515,10 +17515,10 @@
         <v>11</v>
       </c>
       <c r="C514">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D514">
-        <v>403740</v>
+        <v>405240</v>
       </c>
       <c r="E514" t="s">
         <v>26</v>
@@ -17547,10 +17547,10 @@
         <v>11</v>
       </c>
       <c r="C515">
-        <v>2426</v>
+        <v>2430</v>
       </c>
       <c r="D515">
-        <v>3530706</v>
+        <v>3536706</v>
       </c>
       <c r="E515" t="s">
         <v>26</v>
@@ -17579,10 +17579,10 @@
         <v>11</v>
       </c>
       <c r="C516">
-        <v>4407</v>
+        <v>4414</v>
       </c>
       <c r="D516">
-        <v>6461976</v>
+        <v>6471544</v>
       </c>
       <c r="E516" t="s">
         <v>26</v>
@@ -17611,10 +17611,10 @@
         <v>11</v>
       </c>
       <c r="C517">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="D517">
-        <v>2049740</v>
+        <v>2054240</v>
       </c>
       <c r="E517" t="s">
         <v>26</v>
@@ -17643,10 +17643,10 @@
         <v>11</v>
       </c>
       <c r="C518">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D518">
-        <v>542224</v>
+        <v>543724</v>
       </c>
       <c r="E518" t="s">
         <v>26</v>
@@ -17707,10 +17707,10 @@
         <v>11</v>
       </c>
       <c r="C520">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="D520">
-        <v>2219992</v>
+        <v>2221716</v>
       </c>
       <c r="E520" t="s">
         <v>26</v>
@@ -17739,10 +17739,10 @@
         <v>11</v>
       </c>
       <c r="C521">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D521">
-        <v>1579220</v>
+        <v>1580720</v>
       </c>
       <c r="E521" t="s">
         <v>26</v>
@@ -17771,10 +17771,10 @@
         <v>11</v>
       </c>
       <c r="C522">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="D522">
-        <v>4173100</v>
+        <v>4177600</v>
       </c>
       <c r="E522" t="s">
         <v>26</v>
@@ -17803,10 +17803,10 @@
         <v>11</v>
       </c>
       <c r="C523">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D523">
-        <v>1220403</v>
+        <v>1223403</v>
       </c>
       <c r="E523" t="s">
         <v>26</v>
@@ -17899,10 +17899,10 @@
         <v>11</v>
       </c>
       <c r="C526">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="D526">
-        <v>1528568</v>
+        <v>1531021</v>
       </c>
       <c r="E526" t="s">
         <v>26</v>
@@ -17963,10 +17963,10 @@
         <v>11</v>
       </c>
       <c r="C528">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="D528">
-        <v>2663467</v>
+        <v>2667967</v>
       </c>
       <c r="E528" t="s">
         <v>26</v>
@@ -17995,10 +17995,10 @@
         <v>11</v>
       </c>
       <c r="C529">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D529">
-        <v>803146</v>
+        <v>806146</v>
       </c>
       <c r="E529" t="s">
         <v>26</v>
@@ -18027,10 +18027,10 @@
         <v>11</v>
       </c>
       <c r="C530">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D530">
-        <v>226500</v>
+        <v>228000</v>
       </c>
       <c r="E530" t="s">
         <v>26</v>
@@ -18123,10 +18123,10 @@
         <v>11</v>
       </c>
       <c r="C533">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="D533">
-        <v>1030975</v>
+        <v>1035475</v>
       </c>
       <c r="E533" t="s">
         <v>26</v>
@@ -18155,10 +18155,10 @@
         <v>11</v>
       </c>
       <c r="C534">
-        <v>3322</v>
+        <v>3327</v>
       </c>
       <c r="D534">
-        <v>4864042</v>
+        <v>4870856</v>
       </c>
       <c r="E534" t="s">
         <v>27</v>
@@ -18187,10 +18187,10 @@
         <v>11</v>
       </c>
       <c r="C535">
-        <v>8396</v>
+        <v>8413</v>
       </c>
       <c r="D535">
-        <v>12440838</v>
+        <v>12466338</v>
       </c>
       <c r="E535" t="s">
         <v>27</v>
@@ -18219,10 +18219,10 @@
         <v>11</v>
       </c>
       <c r="C536">
-        <v>3089</v>
+        <v>3092</v>
       </c>
       <c r="D536">
-        <v>4614778</v>
+        <v>4619278</v>
       </c>
       <c r="E536" t="s">
         <v>27</v>
@@ -18283,10 +18283,10 @@
         <v>11</v>
       </c>
       <c r="C538">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D538">
-        <v>179728</v>
+        <v>181762</v>
       </c>
       <c r="E538" t="s">
         <v>27</v>
@@ -18347,10 +18347,10 @@
         <v>11</v>
       </c>
       <c r="C540">
-        <v>2713</v>
+        <v>2718</v>
       </c>
       <c r="D540">
-        <v>3692609</v>
+        <v>3700109</v>
       </c>
       <c r="E540" t="s">
         <v>27</v>
@@ -18379,10 +18379,10 @@
         <v>11</v>
       </c>
       <c r="C541">
-        <v>1506</v>
+        <v>1511</v>
       </c>
       <c r="D541">
-        <v>2203113</v>
+        <v>2209172</v>
       </c>
       <c r="E541" t="s">
         <v>27</v>
@@ -18411,10 +18411,10 @@
         <v>11</v>
       </c>
       <c r="C542">
-        <v>4811</v>
+        <v>4817</v>
       </c>
       <c r="D542">
-        <v>7123842</v>
+        <v>7132412</v>
       </c>
       <c r="E542" t="s">
         <v>27</v>
@@ -18443,10 +18443,10 @@
         <v>11</v>
       </c>
       <c r="C543">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="D543">
-        <v>2312504</v>
+        <v>2318504</v>
       </c>
       <c r="E543" t="s">
         <v>27</v>
@@ -18475,10 +18475,10 @@
         <v>11</v>
       </c>
       <c r="C544">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D544">
-        <v>589592</v>
+        <v>591092</v>
       </c>
       <c r="E544" t="s">
         <v>27</v>
@@ -18571,10 +18571,10 @@
         <v>11</v>
       </c>
       <c r="C547">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D547">
-        <v>2048436</v>
+        <v>2049936</v>
       </c>
       <c r="E547" t="s">
         <v>27</v>
@@ -18635,10 +18635,10 @@
         <v>11</v>
       </c>
       <c r="C549">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="D549">
-        <v>2554538</v>
+        <v>2559038</v>
       </c>
       <c r="E549" t="s">
         <v>27</v>
@@ -18667,10 +18667,10 @@
         <v>11</v>
       </c>
       <c r="C550">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D550">
-        <v>807498</v>
+        <v>811998</v>
       </c>
       <c r="E550" t="s">
         <v>27</v>
@@ -18827,10 +18827,10 @@
         <v>11</v>
       </c>
       <c r="C555">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D555">
-        <v>1496757</v>
+        <v>1499757</v>
       </c>
       <c r="E555" t="s">
         <v>27</v>
@@ -18859,10 +18859,10 @@
         <v>11</v>
       </c>
       <c r="C556">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="D556">
-        <v>4202004</v>
+        <v>4203504</v>
       </c>
       <c r="E556" t="s">
         <v>27</v>
@@ -18891,10 +18891,10 @@
         <v>11</v>
       </c>
       <c r="C557">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D557">
-        <v>1400647</v>
+        <v>1403647</v>
       </c>
       <c r="E557" t="s">
         <v>27</v>
@@ -18923,10 +18923,10 @@
         <v>11</v>
       </c>
       <c r="C558">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D558">
-        <v>338199</v>
+        <v>339699</v>
       </c>
       <c r="E558" t="s">
         <v>27</v>
@@ -18987,10 +18987,10 @@
         <v>11</v>
       </c>
       <c r="C560">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D560">
-        <v>1205647</v>
+        <v>1208647</v>
       </c>
       <c r="E560" t="s">
         <v>27</v>
@@ -19019,10 +19019,10 @@
         <v>11</v>
       </c>
       <c r="C561">
-        <v>2100</v>
+        <v>2105</v>
       </c>
       <c r="D561">
-        <v>3057333</v>
+        <v>3064020</v>
       </c>
       <c r="E561" t="s">
         <v>27</v>
@@ -19051,10 +19051,10 @@
         <v>11</v>
       </c>
       <c r="C562">
-        <v>4473</v>
+        <v>4479</v>
       </c>
       <c r="D562">
-        <v>6607852</v>
+        <v>6616786</v>
       </c>
       <c r="E562" t="s">
         <v>27</v>
@@ -19083,10 +19083,10 @@
         <v>11</v>
       </c>
       <c r="C563">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="D563">
-        <v>2382887</v>
+        <v>2384387</v>
       </c>
       <c r="E563" t="s">
         <v>27</v>
@@ -19211,10 +19211,10 @@
         <v>11</v>
       </c>
       <c r="C567">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="D567">
-        <v>1863340</v>
+        <v>1866163</v>
       </c>
       <c r="E567" t="s">
         <v>27</v>
@@ -19243,10 +19243,10 @@
         <v>11</v>
       </c>
       <c r="C568">
-        <v>5196</v>
+        <v>5206</v>
       </c>
       <c r="D568">
-        <v>7578982</v>
+        <v>7592767</v>
       </c>
       <c r="E568" t="s">
         <v>28</v>
@@ -19275,10 +19275,10 @@
         <v>11</v>
       </c>
       <c r="C569">
-        <v>13128</v>
+        <v>13164</v>
       </c>
       <c r="D569">
-        <v>19403695</v>
+        <v>19454946</v>
       </c>
       <c r="E569" t="s">
         <v>28</v>
@@ -19307,10 +19307,10 @@
         <v>11</v>
       </c>
       <c r="C570">
-        <v>3991</v>
+        <v>4000</v>
       </c>
       <c r="D570">
-        <v>5964021</v>
+        <v>5977521</v>
       </c>
       <c r="E570" t="s">
         <v>28</v>
@@ -19339,10 +19339,10 @@
         <v>11</v>
       </c>
       <c r="C571">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="D571">
-        <v>1610407</v>
+        <v>1617907</v>
       </c>
       <c r="E571" t="s">
         <v>28</v>
@@ -19435,10 +19435,10 @@
         <v>11</v>
       </c>
       <c r="C574">
-        <v>4567</v>
+        <v>4575</v>
       </c>
       <c r="D574">
-        <v>6336717</v>
+        <v>6347523</v>
       </c>
       <c r="E574" t="s">
         <v>28</v>
@@ -19467,10 +19467,10 @@
         <v>11</v>
       </c>
       <c r="C575">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D575">
-        <v>1344152</v>
+        <v>1347152</v>
       </c>
       <c r="E575" t="s">
         <v>28</v>
@@ -19499,10 +19499,10 @@
         <v>11</v>
       </c>
       <c r="C576">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="D576">
-        <v>2667336</v>
+        <v>2670336</v>
       </c>
       <c r="E576" t="s">
         <v>28</v>
@@ -19531,10 +19531,10 @@
         <v>11</v>
       </c>
       <c r="C577">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D577">
-        <v>798659</v>
+        <v>800159</v>
       </c>
       <c r="E577" t="s">
         <v>28</v>
@@ -19563,10 +19563,10 @@
         <v>11</v>
       </c>
       <c r="C578">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D578">
-        <v>146669</v>
+        <v>148169</v>
       </c>
       <c r="E578" t="s">
         <v>28</v>
@@ -19627,10 +19627,10 @@
         <v>11</v>
       </c>
       <c r="C580">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D580">
-        <v>1014445</v>
+        <v>1015945</v>
       </c>
       <c r="E580" t="s">
         <v>28</v>
@@ -19659,10 +19659,10 @@
         <v>11</v>
       </c>
       <c r="C581">
-        <v>6600</v>
+        <v>6608</v>
       </c>
       <c r="D581">
-        <v>9660528</v>
+        <v>9672528</v>
       </c>
       <c r="E581" t="s">
         <v>28</v>
@@ -19691,10 +19691,10 @@
         <v>11</v>
       </c>
       <c r="C582">
-        <v>18556</v>
+        <v>18593</v>
       </c>
       <c r="D582">
-        <v>27424453</v>
+        <v>27478822</v>
       </c>
       <c r="E582" t="s">
         <v>28</v>
@@ -19723,10 +19723,10 @@
         <v>11</v>
       </c>
       <c r="C583">
-        <v>5869</v>
+        <v>5884</v>
       </c>
       <c r="D583">
-        <v>8772959</v>
+        <v>8795368</v>
       </c>
       <c r="E583" t="s">
         <v>28</v>
@@ -19755,10 +19755,10 @@
         <v>11</v>
       </c>
       <c r="C584">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="D584">
-        <v>2218828</v>
+        <v>2224828</v>
       </c>
       <c r="E584" t="s">
         <v>28</v>
@@ -19883,10 +19883,10 @@
         <v>11</v>
       </c>
       <c r="C588">
-        <v>5988</v>
+        <v>5996</v>
       </c>
       <c r="D588">
-        <v>8225263</v>
+        <v>8235881</v>
       </c>
       <c r="E588" t="s">
         <v>28</v>
@@ -19915,10 +19915,10 @@
         <v>11</v>
       </c>
       <c r="C589">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="D589">
-        <v>1129478</v>
+        <v>1133978</v>
       </c>
       <c r="E589" t="s">
         <v>28</v>
@@ -19947,10 +19947,10 @@
         <v>11</v>
       </c>
       <c r="C590">
-        <v>1780</v>
+        <v>1785</v>
       </c>
       <c r="D590">
-        <v>2616250</v>
+        <v>2623750</v>
       </c>
       <c r="E590" t="s">
         <v>28</v>
@@ -20011,10 +20011,10 @@
         <v>11</v>
       </c>
       <c r="C592">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D592">
-        <v>289061</v>
+        <v>290561</v>
       </c>
       <c r="E592" t="s">
         <v>28</v>
@@ -20043,10 +20043,10 @@
         <v>11</v>
       </c>
       <c r="C593">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D593">
-        <v>87000</v>
+        <v>88500</v>
       </c>
       <c r="E593" t="s">
         <v>28</v>
@@ -20139,10 +20139,10 @@
         <v>11</v>
       </c>
       <c r="C596">
-        <v>5613</v>
+        <v>5626</v>
       </c>
       <c r="D596">
-        <v>8088328</v>
+        <v>8107316</v>
       </c>
       <c r="E596" t="s">
         <v>28</v>
@@ -20171,10 +20171,10 @@
         <v>11</v>
       </c>
       <c r="C597">
-        <v>11395</v>
+        <v>11420</v>
       </c>
       <c r="D597">
-        <v>16741953</v>
+        <v>16774405</v>
       </c>
       <c r="E597" t="s">
         <v>28</v>
@@ -20203,10 +20203,10 @@
         <v>11</v>
       </c>
       <c r="C598">
-        <v>3152</v>
+        <v>3160</v>
       </c>
       <c r="D598">
-        <v>4704347</v>
+        <v>4716347</v>
       </c>
       <c r="E598" t="s">
         <v>28</v>
@@ -20235,10 +20235,10 @@
         <v>11</v>
       </c>
       <c r="C599">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D599">
-        <v>1089438</v>
+        <v>1090938</v>
       </c>
       <c r="E599" t="s">
         <v>28</v>
@@ -20267,10 +20267,10 @@
         <v>11</v>
       </c>
       <c r="C600">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D600">
-        <v>165000</v>
+        <v>166500</v>
       </c>
       <c r="E600" t="s">
         <v>28</v>
@@ -20331,10 +20331,10 @@
         <v>11</v>
       </c>
       <c r="C602">
-        <v>3635</v>
+        <v>3648</v>
       </c>
       <c r="D602">
-        <v>4997336</v>
+        <v>5015954</v>
       </c>
       <c r="E602" t="s">
         <v>28</v>
@@ -20363,10 +20363,10 @@
         <v>11</v>
       </c>
       <c r="C603">
-        <v>2369</v>
+        <v>2372</v>
       </c>
       <c r="D603">
-        <v>3438509</v>
+        <v>3443009</v>
       </c>
       <c r="E603" t="s">
         <v>28</v>
@@ -20395,10 +20395,10 @@
         <v>11</v>
       </c>
       <c r="C604">
-        <v>6279</v>
+        <v>6292</v>
       </c>
       <c r="D604">
-        <v>9258690</v>
+        <v>9278190</v>
       </c>
       <c r="E604" t="s">
         <v>28</v>
@@ -20427,10 +20427,10 @@
         <v>11</v>
       </c>
       <c r="C605">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="D605">
-        <v>2574762</v>
+        <v>2576262</v>
       </c>
       <c r="E605" t="s">
         <v>28</v>
@@ -20555,10 +20555,10 @@
         <v>11</v>
       </c>
       <c r="C609">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="D609">
-        <v>2680721</v>
+        <v>2685221</v>
       </c>
       <c r="E609" t="s">
         <v>28</v>
@@ -20587,10 +20587,10 @@
         <v>11</v>
       </c>
       <c r="C610">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="D610">
-        <v>3188736</v>
+        <v>3191736</v>
       </c>
       <c r="E610" t="s">
         <v>29</v>
@@ -20619,10 +20619,10 @@
         <v>11</v>
       </c>
       <c r="C611">
-        <v>6604</v>
+        <v>6624</v>
       </c>
       <c r="D611">
-        <v>9805739</v>
+        <v>9835739</v>
       </c>
       <c r="E611" t="s">
         <v>29</v>
@@ -20683,10 +20683,10 @@
         <v>11</v>
       </c>
       <c r="C613">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D613">
-        <v>1112310</v>
+        <v>1116810</v>
       </c>
       <c r="E613" t="s">
         <v>29</v>
@@ -20779,10 +20779,10 @@
         <v>11</v>
       </c>
       <c r="C616">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="D616">
-        <v>2967167</v>
+        <v>2970167</v>
       </c>
       <c r="E616" t="s">
         <v>29</v>
@@ -20811,10 +20811,10 @@
         <v>11</v>
       </c>
       <c r="C617">
-        <v>3643</v>
+        <v>3651</v>
       </c>
       <c r="D617">
-        <v>5351588</v>
+        <v>5363539</v>
       </c>
       <c r="E617" t="s">
         <v>29</v>
@@ -20843,10 +20843,10 @@
         <v>11</v>
       </c>
       <c r="C618">
-        <v>9473</v>
+        <v>9490</v>
       </c>
       <c r="D618">
-        <v>14021851</v>
+        <v>14046724</v>
       </c>
       <c r="E618" t="s">
         <v>29</v>
@@ -20875,10 +20875,10 @@
         <v>11</v>
       </c>
       <c r="C619">
-        <v>4394</v>
+        <v>4399</v>
       </c>
       <c r="D619">
-        <v>6574033</v>
+        <v>6581533</v>
       </c>
       <c r="E619" t="s">
         <v>29</v>
@@ -20907,10 +20907,10 @@
         <v>11</v>
       </c>
       <c r="C620">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="D620">
-        <v>1970554</v>
+        <v>1975054</v>
       </c>
       <c r="E620" t="s">
         <v>29</v>
@@ -21003,10 +21003,10 @@
         <v>11</v>
       </c>
       <c r="C623">
-        <v>3296</v>
+        <v>3309</v>
       </c>
       <c r="D623">
-        <v>4619385</v>
+        <v>4637481</v>
       </c>
       <c r="E623" t="s">
         <v>29</v>
@@ -21035,10 +21035,10 @@
         <v>11</v>
       </c>
       <c r="C624">
-        <v>10509</v>
+        <v>10535</v>
       </c>
       <c r="D624">
-        <v>15358815</v>
+        <v>15396013</v>
       </c>
       <c r="E624" t="s">
         <v>29</v>
@@ -21067,10 +21067,10 @@
         <v>11</v>
       </c>
       <c r="C625">
-        <v>30539</v>
+        <v>30600</v>
       </c>
       <c r="D625">
-        <v>45256237</v>
+        <v>45344628</v>
       </c>
       <c r="E625" t="s">
         <v>29</v>
@@ -21099,10 +21099,10 @@
         <v>11</v>
       </c>
       <c r="C626">
-        <v>14358</v>
+        <v>14392</v>
       </c>
       <c r="D626">
-        <v>21488695</v>
+        <v>21538952</v>
       </c>
       <c r="E626" t="s">
         <v>29</v>
@@ -21131,10 +21131,10 @@
         <v>11</v>
       </c>
       <c r="C627">
-        <v>5030</v>
+        <v>5045</v>
       </c>
       <c r="D627">
-        <v>7536644</v>
+        <v>7559038</v>
       </c>
       <c r="E627" t="s">
         <v>29</v>
@@ -21163,10 +21163,10 @@
         <v>11</v>
       </c>
       <c r="C628">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="D628">
-        <v>1632813</v>
+        <v>1640313</v>
       </c>
       <c r="E628" t="s">
         <v>29</v>
@@ -21259,10 +21259,10 @@
         <v>11</v>
       </c>
       <c r="C631">
-        <v>10229</v>
+        <v>10250</v>
       </c>
       <c r="D631">
-        <v>14264009</v>
+        <v>14292613</v>
       </c>
       <c r="E631" t="s">
         <v>29</v>
@@ -21291,10 +21291,10 @@
         <v>11</v>
       </c>
       <c r="C632">
-        <v>2942</v>
+        <v>2948</v>
       </c>
       <c r="D632">
-        <v>4300652</v>
+        <v>4309652</v>
       </c>
       <c r="E632" t="s">
         <v>29</v>
@@ -21323,10 +21323,10 @@
         <v>11</v>
       </c>
       <c r="C633">
-        <v>11074</v>
+        <v>11102</v>
       </c>
       <c r="D633">
-        <v>16392868</v>
+        <v>16434775</v>
       </c>
       <c r="E633" t="s">
         <v>29</v>
@@ -21355,10 +21355,10 @@
         <v>11</v>
       </c>
       <c r="C634">
-        <v>5375</v>
+        <v>5383</v>
       </c>
       <c r="D634">
-        <v>8026857</v>
+        <v>8038857</v>
       </c>
       <c r="E634" t="s">
         <v>29</v>
@@ -21387,10 +21387,10 @@
         <v>11</v>
       </c>
       <c r="C635">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="D635">
-        <v>2279381</v>
+        <v>2282381</v>
       </c>
       <c r="E635" t="s">
         <v>29</v>
@@ -21483,10 +21483,10 @@
         <v>11</v>
       </c>
       <c r="C638">
-        <v>3063</v>
+        <v>3070</v>
       </c>
       <c r="D638">
-        <v>4266580</v>
+        <v>4275947</v>
       </c>
       <c r="E638" t="s">
         <v>29</v>
@@ -21515,10 +21515,10 @@
         <v>11</v>
       </c>
       <c r="C639">
-        <v>2677</v>
+        <v>2683</v>
       </c>
       <c r="D639">
-        <v>3913639</v>
+        <v>3921589</v>
       </c>
       <c r="E639" t="s">
         <v>29</v>
@@ -21547,10 +21547,10 @@
         <v>11</v>
       </c>
       <c r="C640">
-        <v>8003</v>
+        <v>8027</v>
       </c>
       <c r="D640">
-        <v>11852291</v>
+        <v>11887296</v>
       </c>
       <c r="E640" t="s">
         <v>29</v>
@@ -21579,10 +21579,10 @@
         <v>11</v>
       </c>
       <c r="C641">
-        <v>3107</v>
+        <v>3111</v>
       </c>
       <c r="D641">
-        <v>4631503</v>
+        <v>4637503</v>
       </c>
       <c r="E641" t="s">
         <v>29</v>
@@ -21611,10 +21611,10 @@
         <v>11</v>
       </c>
       <c r="C642">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D642">
-        <v>1353000</v>
+        <v>1356000</v>
       </c>
       <c r="E642" t="s">
         <v>29</v>
@@ -21707,10 +21707,10 @@
         <v>11</v>
       </c>
       <c r="C645">
-        <v>2563</v>
+        <v>2569</v>
       </c>
       <c r="D645">
-        <v>3556059</v>
+        <v>3562516</v>
       </c>
       <c r="E645" t="s">
         <v>29</v>
@@ -21739,10 +21739,10 @@
         <v>11</v>
       </c>
       <c r="C646">
-        <v>2161</v>
+        <v>2166</v>
       </c>
       <c r="D646">
-        <v>3174542</v>
+        <v>3181242</v>
       </c>
       <c r="E646" t="s">
         <v>29</v>
@@ -21771,10 +21771,10 @@
         <v>11</v>
       </c>
       <c r="C647">
-        <v>7111</v>
+        <v>7131</v>
       </c>
       <c r="D647">
-        <v>10534330</v>
+        <v>10564275</v>
       </c>
       <c r="E647" t="s">
         <v>29</v>
@@ -21803,10 +21803,10 @@
         <v>11</v>
       </c>
       <c r="C648">
-        <v>3061</v>
+        <v>3068</v>
       </c>
       <c r="D648">
-        <v>4569581</v>
+        <v>4580081</v>
       </c>
       <c r="E648" t="s">
         <v>29</v>
@@ -21835,10 +21835,10 @@
         <v>11</v>
       </c>
       <c r="C649">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="D649">
-        <v>1269916</v>
+        <v>1280416</v>
       </c>
       <c r="E649" t="s">
         <v>29</v>
@@ -21867,10 +21867,10 @@
         <v>11</v>
       </c>
       <c r="C650">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D650">
-        <v>252900</v>
+        <v>254400</v>
       </c>
       <c r="E650" t="s">
         <v>29</v>
@@ -21931,10 +21931,10 @@
         <v>11</v>
       </c>
       <c r="C652">
-        <v>2258</v>
+        <v>2266</v>
       </c>
       <c r="D652">
-        <v>3129573</v>
+        <v>3141573</v>
       </c>
       <c r="E652" t="s">
         <v>29</v>
@@ -21963,10 +21963,10 @@
         <v>11</v>
       </c>
       <c r="C653">
-        <v>2785</v>
+        <v>2790</v>
       </c>
       <c r="D653">
-        <v>4090510</v>
+        <v>4098010</v>
       </c>
       <c r="E653" t="s">
         <v>29</v>
@@ -21995,10 +21995,10 @@
         <v>11</v>
       </c>
       <c r="C654">
-        <v>8504</v>
+        <v>8536</v>
       </c>
       <c r="D654">
-        <v>12590532</v>
+        <v>12636818</v>
       </c>
       <c r="E654" t="s">
         <v>29</v>
@@ -22027,10 +22027,10 @@
         <v>11</v>
       </c>
       <c r="C655">
-        <v>3598</v>
+        <v>3605</v>
       </c>
       <c r="D655">
-        <v>5375538</v>
+        <v>5386038</v>
       </c>
       <c r="E655" t="s">
         <v>29</v>
@@ -22059,10 +22059,10 @@
         <v>11</v>
       </c>
       <c r="C656">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="D656">
-        <v>1494606</v>
+        <v>1505106</v>
       </c>
       <c r="E656" t="s">
         <v>29</v>
@@ -22155,10 +22155,10 @@
         <v>11</v>
       </c>
       <c r="C659">
-        <v>2900</v>
+        <v>2904</v>
       </c>
       <c r="D659">
-        <v>4067573</v>
+        <v>4073573</v>
       </c>
       <c r="E659" t="s">
         <v>29</v>
@@ -22187,10 +22187,10 @@
         <v>11</v>
       </c>
       <c r="C660">
-        <v>2573</v>
+        <v>2581</v>
       </c>
       <c r="D660">
-        <v>3777306</v>
+        <v>3788991</v>
       </c>
       <c r="E660" t="s">
         <v>29</v>
@@ -22219,10 +22219,10 @@
         <v>11</v>
       </c>
       <c r="C661">
-        <v>7323</v>
+        <v>7336</v>
       </c>
       <c r="D661">
-        <v>10839535</v>
+        <v>10858911</v>
       </c>
       <c r="E661" t="s">
         <v>29</v>
@@ -22251,10 +22251,10 @@
         <v>11</v>
       </c>
       <c r="C662">
-        <v>2839</v>
+        <v>2848</v>
       </c>
       <c r="D662">
-        <v>4240074</v>
+        <v>4253574</v>
       </c>
       <c r="E662" t="s">
         <v>29</v>
@@ -22283,10 +22283,10 @@
         <v>11</v>
       </c>
       <c r="C663">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D663">
-        <v>1322946</v>
+        <v>1324446</v>
       </c>
       <c r="E663" t="s">
         <v>29</v>
@@ -22379,10 +22379,10 @@
         <v>11</v>
       </c>
       <c r="C666">
-        <v>2557</v>
+        <v>2561</v>
       </c>
       <c r="D666">
-        <v>3549035</v>
+        <v>3555035</v>
       </c>
       <c r="E666" t="s">
         <v>29</v>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -1163,10 +1163,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>3774</v>
+        <v>3787</v>
       </c>
       <c r="D3">
-        <v>5593328</v>
+        <v>5611658</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1195,10 +1195,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="D4">
-        <v>2007479</v>
+        <v>2013479</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1291,10 +1291,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D7">
-        <v>163135</v>
+        <v>164548</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1323,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D8">
-        <v>1086844</v>
+        <v>1089844</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1355,10 +1355,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2369</v>
+        <v>2378</v>
       </c>
       <c r="D9">
-        <v>3494103</v>
+        <v>3507603</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1483,10 +1483,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="D13">
-        <v>1462203</v>
+        <v>1465203</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1515,10 +1515,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="D14">
-        <v>2173283</v>
+        <v>2177783</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1547,10 +1547,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>2755</v>
+        <v>2764</v>
       </c>
       <c r="D15">
-        <v>4052865</v>
+        <v>4063057</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1579,10 +1579,10 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D16">
-        <v>1113164</v>
+        <v>1114664</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1675,10 +1675,10 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D19">
-        <v>1530823</v>
+        <v>1533113</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1707,10 +1707,10 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D20">
-        <v>591475</v>
+        <v>596351</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1739,10 +1739,10 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>1240</v>
+        <v>1247</v>
       </c>
       <c r="D21">
-        <v>1823416</v>
+        <v>1833189</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1771,10 +1771,10 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D22">
-        <v>507202</v>
+        <v>508702</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1803,10 +1803,10 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23">
-        <v>128782</v>
+        <v>130282</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1867,10 +1867,10 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="D25">
-        <v>1200916</v>
+        <v>1207971</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1899,10 +1899,10 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="D26">
-        <v>2892159</v>
+        <v>2897385</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1931,10 +1931,10 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>4299</v>
+        <v>4303</v>
       </c>
       <c r="D27">
-        <v>6362896</v>
+        <v>6368896</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -2059,10 +2059,10 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="D31">
-        <v>2081640</v>
+        <v>2084640</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2091,10 +2091,10 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D32">
-        <v>1147917</v>
+        <v>1150917</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2123,10 +2123,10 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="D33">
-        <v>2729182</v>
+        <v>2733808</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D34">
-        <v>754966</v>
+        <v>756466</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2283,10 +2283,10 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="D38">
-        <v>1155210</v>
+        <v>1161609</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2315,10 +2315,10 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>2496</v>
+        <v>2505</v>
       </c>
       <c r="D39">
-        <v>3662134</v>
+        <v>3675023</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2347,10 +2347,10 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>5823</v>
+        <v>5840</v>
       </c>
       <c r="D40">
-        <v>8641105</v>
+        <v>8664882</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2379,10 +2379,10 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="D41">
-        <v>3413410</v>
+        <v>3417910</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -2411,10 +2411,10 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D42">
-        <v>1046998</v>
+        <v>1048498</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -2507,10 +2507,10 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>3184</v>
+        <v>3204</v>
       </c>
       <c r="D45">
-        <v>4446228</v>
+        <v>4471171</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2539,10 +2539,10 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>3806</v>
+        <v>3820</v>
       </c>
       <c r="D46">
-        <v>5558077</v>
+        <v>5578872</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -2571,10 +2571,10 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>9128</v>
+        <v>9150</v>
       </c>
       <c r="D47">
-        <v>13537304</v>
+        <v>13568603</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -2603,10 +2603,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>3082</v>
+        <v>3090</v>
       </c>
       <c r="D48">
-        <v>4605252</v>
+        <v>4616473</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2635,10 +2635,10 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D49">
-        <v>1165370</v>
+        <v>1168370</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -2763,10 +2763,10 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>3645</v>
+        <v>3664</v>
       </c>
       <c r="D53">
-        <v>5077616</v>
+        <v>5102281</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2795,10 +2795,10 @@
         <v>11</v>
       </c>
       <c r="C54">
-        <v>2060</v>
+        <v>2066</v>
       </c>
       <c r="D54">
-        <v>3005550</v>
+        <v>3013179</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -2827,10 +2827,10 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>5286</v>
+        <v>5293</v>
       </c>
       <c r="D55">
-        <v>7816119</v>
+        <v>7825875</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2859,10 +2859,10 @@
         <v>11</v>
       </c>
       <c r="C56">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="D56">
-        <v>2451149</v>
+        <v>2455649</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -2955,10 +2955,10 @@
         <v>11</v>
       </c>
       <c r="C59">
-        <v>2211</v>
+        <v>2215</v>
       </c>
       <c r="D59">
-        <v>2934056</v>
+        <v>2938706</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -3019,10 +3019,10 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>4585</v>
+        <v>4595</v>
       </c>
       <c r="D61">
-        <v>6771478</v>
+        <v>6785777</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3051,10 +3051,10 @@
         <v>11</v>
       </c>
       <c r="C62">
-        <v>1526</v>
+        <v>1531</v>
       </c>
       <c r="D62">
-        <v>2271859</v>
+        <v>2279359</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3115,10 +3115,10 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D64">
-        <v>93986</v>
+        <v>95486</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3179,10 +3179,10 @@
         <v>11</v>
       </c>
       <c r="C66">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="D66">
-        <v>2538474</v>
+        <v>2544317</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3211,10 +3211,10 @@
         <v>11</v>
       </c>
       <c r="C67">
-        <v>5761</v>
+        <v>5778</v>
       </c>
       <c r="D67">
-        <v>8430406</v>
+        <v>8455256</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3243,10 +3243,10 @@
         <v>11</v>
       </c>
       <c r="C68">
-        <v>14645</v>
+        <v>14696</v>
       </c>
       <c r="D68">
-        <v>21687413</v>
+        <v>21762719</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3275,10 +3275,10 @@
         <v>11</v>
       </c>
       <c r="C69">
-        <v>5122</v>
+        <v>5138</v>
       </c>
       <c r="D69">
-        <v>7649155</v>
+        <v>7673155</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3435,10 +3435,10 @@
         <v>11</v>
       </c>
       <c r="C74">
-        <v>4656</v>
+        <v>4674</v>
       </c>
       <c r="D74">
-        <v>6540595</v>
+        <v>6563415</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -3467,10 +3467,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>1751</v>
+        <v>1756</v>
       </c>
       <c r="D75">
-        <v>2564068</v>
+        <v>2568982</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3499,10 +3499,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>4305</v>
+        <v>4314</v>
       </c>
       <c r="D76">
-        <v>6384708</v>
+        <v>6397748</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3531,10 +3531,10 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>1852</v>
+        <v>1861</v>
       </c>
       <c r="D77">
-        <v>2763400</v>
+        <v>2776900</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3595,10 +3595,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D79">
-        <v>277905</v>
+        <v>279405</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3659,10 +3659,10 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>4284</v>
+        <v>4296</v>
       </c>
       <c r="D81">
-        <v>6112754</v>
+        <v>6127124</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -3691,10 +3691,10 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="D82">
-        <v>1802431</v>
+        <v>1808431</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
@@ -3723,10 +3723,10 @@
         <v>11</v>
       </c>
       <c r="C83">
-        <v>3330</v>
+        <v>3332</v>
       </c>
       <c r="D83">
-        <v>4922073</v>
+        <v>4924939</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
@@ -3755,10 +3755,10 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="D84">
-        <v>1718698</v>
+        <v>1726198</v>
       </c>
       <c r="E84" t="s">
         <v>13</v>
@@ -3819,10 +3819,10 @@
         <v>11</v>
       </c>
       <c r="C86">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D86">
-        <v>73500</v>
+        <v>75000</v>
       </c>
       <c r="E86" t="s">
         <v>13</v>
@@ -3883,10 +3883,10 @@
         <v>11</v>
       </c>
       <c r="C88">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="D88">
-        <v>1691758</v>
+        <v>1694758</v>
       </c>
       <c r="E88" t="s">
         <v>13</v>
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="C89">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D89">
-        <v>1635756</v>
+        <v>1637256</v>
       </c>
       <c r="E89" t="s">
         <v>13</v>
@@ -3947,10 +3947,10 @@
         <v>11</v>
       </c>
       <c r="C90">
-        <v>3114</v>
+        <v>3120</v>
       </c>
       <c r="D90">
-        <v>4614376</v>
+        <v>4623376</v>
       </c>
       <c r="E90" t="s">
         <v>13</v>
@@ -3979,10 +3979,10 @@
         <v>11</v>
       </c>
       <c r="C91">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D91">
-        <v>1550822</v>
+        <v>1553822</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -4107,10 +4107,10 @@
         <v>11</v>
       </c>
       <c r="C95">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D95">
-        <v>1363648</v>
+        <v>1367333</v>
       </c>
       <c r="E95" t="s">
         <v>13</v>
@@ -4139,10 +4139,10 @@
         <v>11</v>
       </c>
       <c r="C96">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D96">
-        <v>669694</v>
+        <v>671194</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
@@ -4235,10 +4235,10 @@
         <v>11</v>
       </c>
       <c r="C99">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D99">
-        <v>141000</v>
+        <v>144000</v>
       </c>
       <c r="E99" t="s">
         <v>13</v>
@@ -4299,10 +4299,10 @@
         <v>11</v>
       </c>
       <c r="C101">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D101">
-        <v>715922</v>
+        <v>716487</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -4363,10 +4363,10 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="D103">
-        <v>2690952</v>
+        <v>2702452</v>
       </c>
       <c r="E103" t="s">
         <v>13</v>
@@ -4395,10 +4395,10 @@
         <v>11</v>
       </c>
       <c r="C104">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D104">
-        <v>776019</v>
+        <v>779019</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
@@ -4491,10 +4491,10 @@
         <v>11</v>
       </c>
       <c r="C107">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D107">
-        <v>799157</v>
+        <v>801981</v>
       </c>
       <c r="E107" t="s">
         <v>13</v>
@@ -4555,10 +4555,10 @@
         <v>11</v>
       </c>
       <c r="C109">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="D109">
-        <v>1943040</v>
+        <v>1948443</v>
       </c>
       <c r="E109" t="s">
         <v>13</v>
@@ -4715,10 +4715,10 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="D114">
-        <v>1846309</v>
+        <v>1852309</v>
       </c>
       <c r="E114" t="s">
         <v>13</v>
@@ -4747,10 +4747,10 @@
         <v>11</v>
       </c>
       <c r="C115">
-        <v>3900</v>
+        <v>3912</v>
       </c>
       <c r="D115">
-        <v>5764587</v>
+        <v>5781142</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -4779,10 +4779,10 @@
         <v>11</v>
       </c>
       <c r="C116">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="D116">
-        <v>1690596</v>
+        <v>1695096</v>
       </c>
       <c r="E116" t="s">
         <v>13</v>
@@ -4811,10 +4811,10 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D117">
-        <v>355826</v>
+        <v>357292</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
@@ -4875,10 +4875,10 @@
         <v>11</v>
       </c>
       <c r="C119">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="D119">
-        <v>2078193</v>
+        <v>2084193</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
@@ -4939,10 +4939,10 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D121">
-        <v>1134361</v>
+        <v>1137361</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -4971,10 +4971,10 @@
         <v>11</v>
       </c>
       <c r="C122">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D122">
-        <v>399575</v>
+        <v>401075</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -5099,10 +5099,10 @@
         <v>11</v>
       </c>
       <c r="C126">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D126">
-        <v>1056326</v>
+        <v>1060169</v>
       </c>
       <c r="E126" t="s">
         <v>13</v>
@@ -5131,10 +5131,10 @@
         <v>11</v>
       </c>
       <c r="C127">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="D127">
-        <v>3217132</v>
+        <v>3223132</v>
       </c>
       <c r="E127" t="s">
         <v>13</v>
@@ -5163,10 +5163,10 @@
         <v>11</v>
       </c>
       <c r="C128">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D128">
-        <v>923819</v>
+        <v>926819</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
@@ -5259,10 +5259,10 @@
         <v>11</v>
       </c>
       <c r="C131">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D131">
-        <v>963194</v>
+        <v>964244</v>
       </c>
       <c r="E131" t="s">
         <v>13</v>
@@ -5291,10 +5291,10 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="D132">
-        <v>2496150</v>
+        <v>2497650</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -5323,10 +5323,10 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>4119</v>
+        <v>4125</v>
       </c>
       <c r="D133">
-        <v>6072737</v>
+        <v>6081737</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
@@ -5355,10 +5355,10 @@
         <v>11</v>
       </c>
       <c r="C134">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D134">
-        <v>1657151</v>
+        <v>1658651</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -5483,10 +5483,10 @@
         <v>11</v>
       </c>
       <c r="C138">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="D138">
-        <v>2005847</v>
+        <v>2010347</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -5515,10 +5515,10 @@
         <v>11</v>
       </c>
       <c r="C139">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="D139">
-        <v>3457803</v>
+        <v>3458470</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -5547,10 +5547,10 @@
         <v>11</v>
       </c>
       <c r="C140">
-        <v>5591</v>
+        <v>5603</v>
       </c>
       <c r="D140">
-        <v>8271855</v>
+        <v>8288716</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
@@ -5579,10 +5579,10 @@
         <v>11</v>
       </c>
       <c r="C141">
-        <v>1938</v>
+        <v>1947</v>
       </c>
       <c r="D141">
-        <v>2898012</v>
+        <v>2909553</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
@@ -5611,10 +5611,10 @@
         <v>11</v>
       </c>
       <c r="C142">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D142">
-        <v>654011</v>
+        <v>655511</v>
       </c>
       <c r="E142" t="s">
         <v>14</v>
@@ -5707,10 +5707,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>2060</v>
+        <v>2071</v>
       </c>
       <c r="D145">
-        <v>2805545</v>
+        <v>2818793</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -5739,10 +5739,10 @@
         <v>11</v>
       </c>
       <c r="C146">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="D146">
-        <v>3222968</v>
+        <v>3227468</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
@@ -5771,10 +5771,10 @@
         <v>11</v>
       </c>
       <c r="C147">
-        <v>6446</v>
+        <v>6456</v>
       </c>
       <c r="D147">
-        <v>9572041</v>
+        <v>9587041</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -5931,10 +5931,10 @@
         <v>11</v>
       </c>
       <c r="C152">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="D152">
-        <v>2758481</v>
+        <v>2762228</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
@@ -5963,10 +5963,10 @@
         <v>11</v>
       </c>
       <c r="C153">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="D153">
-        <v>3510363</v>
+        <v>3511863</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
@@ -5995,10 +5995,10 @@
         <v>11</v>
       </c>
       <c r="C154">
-        <v>5427</v>
+        <v>5437</v>
       </c>
       <c r="D154">
-        <v>8025837</v>
+        <v>8039714</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -6155,10 +6155,10 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="D159">
-        <v>2616885</v>
+        <v>2619885</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
@@ -6187,10 +6187,10 @@
         <v>11</v>
       </c>
       <c r="C160">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D160">
-        <v>784781</v>
+        <v>786281</v>
       </c>
       <c r="E160" t="s">
         <v>15</v>
@@ -6219,10 +6219,10 @@
         <v>11</v>
       </c>
       <c r="C161">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="D161">
-        <v>2477714</v>
+        <v>2479214</v>
       </c>
       <c r="E161" t="s">
         <v>15</v>
@@ -6379,10 +6379,10 @@
         <v>11</v>
       </c>
       <c r="C166">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="D166">
-        <v>1125326</v>
+        <v>1129826</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -6411,10 +6411,10 @@
         <v>11</v>
       </c>
       <c r="C167">
-        <v>2430</v>
+        <v>2437</v>
       </c>
       <c r="D167">
-        <v>3603259</v>
+        <v>3613759</v>
       </c>
       <c r="E167" t="s">
         <v>15</v>
@@ -6443,10 +6443,10 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D168">
-        <v>1217281</v>
+        <v>1221781</v>
       </c>
       <c r="E168" t="s">
         <v>15</v>
@@ -6475,10 +6475,10 @@
         <v>11</v>
       </c>
       <c r="C169">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D169">
-        <v>292500</v>
+        <v>294000</v>
       </c>
       <c r="E169" t="s">
         <v>15</v>
@@ -6539,10 +6539,10 @@
         <v>11</v>
       </c>
       <c r="C171">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="D171">
-        <v>983109</v>
+        <v>986451</v>
       </c>
       <c r="E171" t="s">
         <v>15</v>
@@ -6571,10 +6571,10 @@
         <v>11</v>
       </c>
       <c r="C172">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D172">
-        <v>521864</v>
+        <v>523364</v>
       </c>
       <c r="E172" t="s">
         <v>15</v>
@@ -6603,10 +6603,10 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D173">
-        <v>1931264</v>
+        <v>1932764</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -6635,10 +6635,10 @@
         <v>11</v>
       </c>
       <c r="C174">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D174">
-        <v>684681</v>
+        <v>686181</v>
       </c>
       <c r="E174" t="s">
         <v>15</v>
@@ -6731,10 +6731,10 @@
         <v>11</v>
       </c>
       <c r="C177">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D177">
-        <v>674917</v>
+        <v>677917</v>
       </c>
       <c r="E177" t="s">
         <v>15</v>
@@ -6763,10 +6763,10 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>1379</v>
+        <v>1386</v>
       </c>
       <c r="D178">
-        <v>2005729</v>
+        <v>2014948</v>
       </c>
       <c r="E178" t="s">
         <v>15</v>
@@ -6795,10 +6795,10 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <v>3820</v>
+        <v>3829</v>
       </c>
       <c r="D179">
-        <v>5645164</v>
+        <v>5657756</v>
       </c>
       <c r="E179" t="s">
         <v>15</v>
@@ -6827,10 +6827,10 @@
         <v>11</v>
       </c>
       <c r="C180">
-        <v>1275</v>
+        <v>1280</v>
       </c>
       <c r="D180">
-        <v>1905880</v>
+        <v>1913380</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -6955,10 +6955,10 @@
         <v>11</v>
       </c>
       <c r="C184">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="D184">
-        <v>1804025</v>
+        <v>1809088</v>
       </c>
       <c r="E184" t="s">
         <v>15</v>
@@ -6987,10 +6987,10 @@
         <v>11</v>
       </c>
       <c r="C185">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D185">
-        <v>936971</v>
+        <v>938471</v>
       </c>
       <c r="E185" t="s">
         <v>15</v>
@@ -7019,10 +7019,10 @@
         <v>11</v>
       </c>
       <c r="C186">
-        <v>2140</v>
+        <v>2144</v>
       </c>
       <c r="D186">
-        <v>3168236</v>
+        <v>3173822</v>
       </c>
       <c r="E186" t="s">
         <v>15</v>
@@ -7051,10 +7051,10 @@
         <v>11</v>
       </c>
       <c r="C187">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D187">
-        <v>1075515</v>
+        <v>1077015</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -7147,10 +7147,10 @@
         <v>11</v>
       </c>
       <c r="C190">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D190">
-        <v>1003921</v>
+        <v>1006921</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
@@ -7179,10 +7179,10 @@
         <v>11</v>
       </c>
       <c r="C191">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="D191">
-        <v>1809963</v>
+        <v>1812963</v>
       </c>
       <c r="E191" t="s">
         <v>15</v>
@@ -7211,10 +7211,10 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>3830</v>
+        <v>3833</v>
       </c>
       <c r="D192">
-        <v>5676704</v>
+        <v>5681204</v>
       </c>
       <c r="E192" t="s">
         <v>15</v>
@@ -7243,10 +7243,10 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="D193">
-        <v>2042821</v>
+        <v>2045821</v>
       </c>
       <c r="E193" t="s">
         <v>15</v>
@@ -7275,10 +7275,10 @@
         <v>11</v>
       </c>
       <c r="C194">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D194">
-        <v>471000</v>
+        <v>472500</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -7371,10 +7371,10 @@
         <v>11</v>
       </c>
       <c r="C197">
-        <v>1180</v>
+        <v>1189</v>
       </c>
       <c r="D197">
-        <v>1580272</v>
+        <v>1593637</v>
       </c>
       <c r="E197" t="s">
         <v>15</v>
@@ -7403,10 +7403,10 @@
         <v>11</v>
       </c>
       <c r="C198">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D198">
-        <v>753885</v>
+        <v>755385</v>
       </c>
       <c r="E198" t="s">
         <v>16</v>
@@ -7435,10 +7435,10 @@
         <v>11</v>
       </c>
       <c r="C199">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D199">
-        <v>3073019</v>
+        <v>3074519</v>
       </c>
       <c r="E199" t="s">
         <v>16</v>
@@ -7499,10 +7499,10 @@
         <v>11</v>
       </c>
       <c r="C201">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D201">
-        <v>438711</v>
+        <v>440211</v>
       </c>
       <c r="E201" t="s">
         <v>16</v>
@@ -7595,10 +7595,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D204">
-        <v>1756918</v>
+        <v>1758418</v>
       </c>
       <c r="E204" t="s">
         <v>16</v>
@@ -7627,10 +7627,10 @@
         <v>11</v>
       </c>
       <c r="C205">
-        <v>2502</v>
+        <v>2509</v>
       </c>
       <c r="D205">
-        <v>3672155</v>
+        <v>3681235</v>
       </c>
       <c r="E205" t="s">
         <v>16</v>
@@ -7659,10 +7659,10 @@
         <v>11</v>
       </c>
       <c r="C206">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="D206">
-        <v>1144969</v>
+        <v>1150541</v>
       </c>
       <c r="E206" t="s">
         <v>16</v>
@@ -7755,10 +7755,10 @@
         <v>11</v>
       </c>
       <c r="C209">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D209">
-        <v>1293583</v>
+        <v>1295083</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -7787,10 +7787,10 @@
         <v>11</v>
       </c>
       <c r="C210">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D210">
-        <v>691255</v>
+        <v>692755</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -7819,10 +7819,10 @@
         <v>11</v>
       </c>
       <c r="C211">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="D211">
-        <v>2190629</v>
+        <v>2198129</v>
       </c>
       <c r="E211" t="s">
         <v>17</v>
@@ -7883,10 +7883,10 @@
         <v>11</v>
       </c>
       <c r="C213">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D213">
-        <v>208500</v>
+        <v>210000</v>
       </c>
       <c r="E213" t="s">
         <v>17</v>
@@ -7947,10 +7947,10 @@
         <v>11</v>
       </c>
       <c r="C215">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D215">
-        <v>802015</v>
+        <v>802438</v>
       </c>
       <c r="E215" t="s">
         <v>17</v>
@@ -7979,10 +7979,10 @@
         <v>11</v>
       </c>
       <c r="C216">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D216">
-        <v>891294</v>
+        <v>895719</v>
       </c>
       <c r="E216" t="s">
         <v>17</v>
@@ -8011,10 +8011,10 @@
         <v>11</v>
       </c>
       <c r="C217">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="D217">
-        <v>2599032</v>
+        <v>2603532</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -8043,10 +8043,10 @@
         <v>11</v>
       </c>
       <c r="C218">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D218">
-        <v>852259</v>
+        <v>853759</v>
       </c>
       <c r="E218" t="s">
         <v>17</v>
@@ -8139,10 +8139,10 @@
         <v>11</v>
       </c>
       <c r="C221">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D221">
-        <v>824108</v>
+        <v>827108</v>
       </c>
       <c r="E221" t="s">
         <v>17</v>
@@ -8171,10 +8171,10 @@
         <v>11</v>
       </c>
       <c r="C222">
-        <v>2435</v>
+        <v>2446</v>
       </c>
       <c r="D222">
-        <v>3556718</v>
+        <v>3572669</v>
       </c>
       <c r="E222" t="s">
         <v>17</v>
@@ -8203,10 +8203,10 @@
         <v>11</v>
       </c>
       <c r="C223">
-        <v>8201</v>
+        <v>8227</v>
       </c>
       <c r="D223">
-        <v>12141590</v>
+        <v>12177053</v>
       </c>
       <c r="E223" t="s">
         <v>17</v>
@@ -8235,10 +8235,10 @@
         <v>11</v>
       </c>
       <c r="C224">
-        <v>3165</v>
+        <v>3176</v>
       </c>
       <c r="D224">
-        <v>4732967</v>
+        <v>4749467</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -8267,10 +8267,10 @@
         <v>11</v>
       </c>
       <c r="C225">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="D225">
-        <v>1324862</v>
+        <v>1330862</v>
       </c>
       <c r="E225" t="s">
         <v>17</v>
@@ -8299,10 +8299,10 @@
         <v>11</v>
       </c>
       <c r="C226">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D226">
-        <v>254878</v>
+        <v>256378</v>
       </c>
       <c r="E226" t="s">
         <v>17</v>
@@ -8363,10 +8363,10 @@
         <v>11</v>
       </c>
       <c r="C228">
-        <v>2088</v>
+        <v>2096</v>
       </c>
       <c r="D228">
-        <v>2891346</v>
+        <v>2901210</v>
       </c>
       <c r="E228" t="s">
         <v>17</v>
@@ -8395,10 +8395,10 @@
         <v>11</v>
       </c>
       <c r="C229">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="D229">
-        <v>2515446</v>
+        <v>2524019</v>
       </c>
       <c r="E229" t="s">
         <v>17</v>
@@ -8427,10 +8427,10 @@
         <v>11</v>
       </c>
       <c r="C230">
-        <v>5232</v>
+        <v>5245</v>
       </c>
       <c r="D230">
-        <v>7735742</v>
+        <v>7752084</v>
       </c>
       <c r="E230" t="s">
         <v>17</v>
@@ -8459,10 +8459,10 @@
         <v>11</v>
       </c>
       <c r="C231">
-        <v>2126</v>
+        <v>2132</v>
       </c>
       <c r="D231">
-        <v>3171438</v>
+        <v>3180438</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -8491,10 +8491,10 @@
         <v>11</v>
       </c>
       <c r="C232">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D232">
-        <v>808295</v>
+        <v>809795</v>
       </c>
       <c r="E232" t="s">
         <v>17</v>
@@ -8587,10 +8587,10 @@
         <v>11</v>
       </c>
       <c r="C235">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="D235">
-        <v>1747927</v>
+        <v>1753069</v>
       </c>
       <c r="E235" t="s">
         <v>17</v>
@@ -8619,10 +8619,10 @@
         <v>11</v>
       </c>
       <c r="C236">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D236">
-        <v>489719</v>
+        <v>491219</v>
       </c>
       <c r="E236" t="s">
         <v>17</v>
@@ -8651,10 +8651,10 @@
         <v>11</v>
       </c>
       <c r="C237">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D237">
-        <v>1405222</v>
+        <v>1406379</v>
       </c>
       <c r="E237" t="s">
         <v>17</v>
@@ -8683,10 +8683,10 @@
         <v>11</v>
       </c>
       <c r="C238">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D238">
-        <v>436312</v>
+        <v>437812</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -8747,10 +8747,10 @@
         <v>11</v>
       </c>
       <c r="C240">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D240">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="E240" t="s">
         <v>17</v>
@@ -8779,10 +8779,10 @@
         <v>11</v>
       </c>
       <c r="C241">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D241">
-        <v>501290</v>
+        <v>502790</v>
       </c>
       <c r="E241" t="s">
         <v>17</v>
@@ -8811,10 +8811,10 @@
         <v>11</v>
       </c>
       <c r="C242">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="D242">
-        <v>1650617</v>
+        <v>1656617</v>
       </c>
       <c r="E242" t="s">
         <v>17</v>
@@ -8843,10 +8843,10 @@
         <v>11</v>
       </c>
       <c r="C243">
-        <v>3272</v>
+        <v>3281</v>
       </c>
       <c r="D243">
-        <v>4850853</v>
+        <v>4863188</v>
       </c>
       <c r="E243" t="s">
         <v>17</v>
@@ -8875,10 +8875,10 @@
         <v>11</v>
       </c>
       <c r="C244">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="D244">
-        <v>1752622</v>
+        <v>1757122</v>
       </c>
       <c r="E244" t="s">
         <v>17</v>
@@ -9003,10 +9003,10 @@
         <v>11</v>
       </c>
       <c r="C248">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="D248">
-        <v>1528771</v>
+        <v>1530818</v>
       </c>
       <c r="E248" t="s">
         <v>17</v>
@@ -9035,10 +9035,10 @@
         <v>11</v>
       </c>
       <c r="C249">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="D249">
-        <v>1812224</v>
+        <v>1814314</v>
       </c>
       <c r="E249" t="s">
         <v>17</v>
@@ -9067,10 +9067,10 @@
         <v>11</v>
       </c>
       <c r="C250">
-        <v>3794</v>
+        <v>3805</v>
       </c>
       <c r="D250">
-        <v>5615699</v>
+        <v>5632199</v>
       </c>
       <c r="E250" t="s">
         <v>17</v>
@@ -9099,10 +9099,10 @@
         <v>11</v>
       </c>
       <c r="C251">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="D251">
-        <v>1942655</v>
+        <v>1948881</v>
       </c>
       <c r="E251" t="s">
         <v>17</v>
@@ -9131,10 +9131,10 @@
         <v>11</v>
       </c>
       <c r="C252">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D252">
-        <v>498282</v>
+        <v>502782</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -9163,10 +9163,10 @@
         <v>11</v>
       </c>
       <c r="C253">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D253">
-        <v>121500</v>
+        <v>123000</v>
       </c>
       <c r="E253" t="s">
         <v>17</v>
@@ -9227,10 +9227,10 @@
         <v>11</v>
       </c>
       <c r="C255">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D255">
-        <v>1913596</v>
+        <v>1914076</v>
       </c>
       <c r="E255" t="s">
         <v>17</v>
@@ -9259,10 +9259,10 @@
         <v>11</v>
       </c>
       <c r="C256">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D256">
-        <v>492040</v>
+        <v>492475</v>
       </c>
       <c r="E256" t="s">
         <v>17</v>
@@ -9291,10 +9291,10 @@
         <v>11</v>
       </c>
       <c r="C257">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="D257">
-        <v>1413781</v>
+        <v>1418281</v>
       </c>
       <c r="E257" t="s">
         <v>17</v>
@@ -9451,10 +9451,10 @@
         <v>11</v>
       </c>
       <c r="C262">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="D262">
-        <v>2557705</v>
+        <v>2560555</v>
       </c>
       <c r="E262" t="s">
         <v>17</v>
@@ -9483,10 +9483,10 @@
         <v>11</v>
       </c>
       <c r="C263">
-        <v>5865</v>
+        <v>5880</v>
       </c>
       <c r="D263">
-        <v>8664562</v>
+        <v>8685190</v>
       </c>
       <c r="E263" t="s">
         <v>17</v>
@@ -9547,10 +9547,10 @@
         <v>11</v>
       </c>
       <c r="C265">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D265">
-        <v>1113000</v>
+        <v>1114500</v>
       </c>
       <c r="E265" t="s">
         <v>17</v>
@@ -9611,10 +9611,10 @@
         <v>11</v>
       </c>
       <c r="C267">
-        <v>1517</v>
+        <v>1523</v>
       </c>
       <c r="D267">
-        <v>2078791</v>
+        <v>2087480</v>
       </c>
       <c r="E267" t="s">
         <v>17</v>
@@ -9643,10 +9643,10 @@
         <v>11</v>
       </c>
       <c r="C268">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="D268">
-        <v>1526066</v>
+        <v>1533566</v>
       </c>
       <c r="E268" t="s">
         <v>17</v>
@@ -9675,10 +9675,10 @@
         <v>11</v>
       </c>
       <c r="C269">
-        <v>2698</v>
+        <v>2706</v>
       </c>
       <c r="D269">
-        <v>3990657</v>
+        <v>4001219</v>
       </c>
       <c r="E269" t="s">
         <v>17</v>
@@ -9707,10 +9707,10 @@
         <v>11</v>
       </c>
       <c r="C270">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="D270">
-        <v>1287993</v>
+        <v>1292493</v>
       </c>
       <c r="E270" t="s">
         <v>17</v>
@@ -9739,10 +9739,10 @@
         <v>11</v>
       </c>
       <c r="C271">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D271">
-        <v>334463</v>
+        <v>338963</v>
       </c>
       <c r="E271" t="s">
         <v>17</v>
@@ -9835,10 +9835,10 @@
         <v>11</v>
       </c>
       <c r="C274">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="D274">
-        <v>1397094</v>
+        <v>1400732</v>
       </c>
       <c r="E274" t="s">
         <v>17</v>
@@ -9867,10 +9867,10 @@
         <v>11</v>
       </c>
       <c r="C275">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D275">
-        <v>1459698</v>
+        <v>1467198</v>
       </c>
       <c r="E275" t="s">
         <v>18</v>
@@ -9899,10 +9899,10 @@
         <v>11</v>
       </c>
       <c r="C276">
-        <v>3771</v>
+        <v>3787</v>
       </c>
       <c r="D276">
-        <v>5561650</v>
+        <v>5584834</v>
       </c>
       <c r="E276" t="s">
         <v>18</v>
@@ -9931,10 +9931,10 @@
         <v>11</v>
       </c>
       <c r="C277">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="D277">
-        <v>2101964</v>
+        <v>2106464</v>
       </c>
       <c r="E277" t="s">
         <v>18</v>
@@ -9963,10 +9963,10 @@
         <v>11</v>
       </c>
       <c r="C278">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D278">
-        <v>651500</v>
+        <v>654500</v>
       </c>
       <c r="E278" t="s">
         <v>18</v>
@@ -10027,10 +10027,10 @@
         <v>11</v>
       </c>
       <c r="C280">
-        <v>2483</v>
+        <v>2503</v>
       </c>
       <c r="D280">
-        <v>3454196</v>
+        <v>3482429</v>
       </c>
       <c r="E280" t="s">
         <v>18</v>
@@ -10091,10 +10091,10 @@
         <v>11</v>
       </c>
       <c r="C282">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="D282">
-        <v>1418992</v>
+        <v>1426244</v>
       </c>
       <c r="E282" t="s">
         <v>19</v>
@@ -10251,10 +10251,10 @@
         <v>11</v>
       </c>
       <c r="C287">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D287">
-        <v>665125</v>
+        <v>666625</v>
       </c>
       <c r="E287" t="s">
         <v>19</v>
@@ -10315,10 +10315,10 @@
         <v>11</v>
       </c>
       <c r="C289">
-        <v>2450</v>
+        <v>2460</v>
       </c>
       <c r="D289">
-        <v>3629234</v>
+        <v>3644234</v>
       </c>
       <c r="E289" t="s">
         <v>20</v>
@@ -10347,10 +10347,10 @@
         <v>11</v>
       </c>
       <c r="C290">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D290">
-        <v>1373209</v>
+        <v>1376209</v>
       </c>
       <c r="E290" t="s">
         <v>20</v>
@@ -10379,10 +10379,10 @@
         <v>11</v>
       </c>
       <c r="C291">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D291">
-        <v>342701</v>
+        <v>344201</v>
       </c>
       <c r="E291" t="s">
         <v>20</v>
@@ -10507,10 +10507,10 @@
         <v>11</v>
       </c>
       <c r="C295">
-        <v>4515</v>
+        <v>4518</v>
       </c>
       <c r="D295">
-        <v>6539780</v>
+        <v>6543116</v>
       </c>
       <c r="E295" t="s">
         <v>20</v>
@@ -10539,10 +10539,10 @@
         <v>11</v>
       </c>
       <c r="C296">
-        <v>13342</v>
+        <v>13359</v>
       </c>
       <c r="D296">
-        <v>19670311</v>
+        <v>19692541</v>
       </c>
       <c r="E296" t="s">
         <v>20</v>
@@ -10571,10 +10571,10 @@
         <v>11</v>
       </c>
       <c r="C297">
-        <v>4696</v>
+        <v>4700</v>
       </c>
       <c r="D297">
-        <v>7021384</v>
+        <v>7027384</v>
       </c>
       <c r="E297" t="s">
         <v>20</v>
@@ -10603,10 +10603,10 @@
         <v>11</v>
       </c>
       <c r="C298">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="D298">
-        <v>2037662</v>
+        <v>2042162</v>
       </c>
       <c r="E298" t="s">
         <v>20</v>
@@ -10699,10 +10699,10 @@
         <v>11</v>
       </c>
       <c r="C301">
-        <v>4030</v>
+        <v>4043</v>
       </c>
       <c r="D301">
-        <v>5404047</v>
+        <v>5423422</v>
       </c>
       <c r="E301" t="s">
         <v>20</v>
@@ -10731,10 +10731,10 @@
         <v>11</v>
       </c>
       <c r="C302">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="D302">
-        <v>1998658</v>
+        <v>2003158</v>
       </c>
       <c r="E302" t="s">
         <v>20</v>
@@ -10763,10 +10763,10 @@
         <v>11</v>
       </c>
       <c r="C303">
-        <v>4371</v>
+        <v>4383</v>
       </c>
       <c r="D303">
-        <v>6462943</v>
+        <v>6479947</v>
       </c>
       <c r="E303" t="s">
         <v>20</v>
@@ -10795,10 +10795,10 @@
         <v>11</v>
       </c>
       <c r="C304">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="D304">
-        <v>2330133</v>
+        <v>2334633</v>
       </c>
       <c r="E304" t="s">
         <v>20</v>
@@ -10923,10 +10923,10 @@
         <v>11</v>
       </c>
       <c r="C308">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D308">
-        <v>1833481</v>
+        <v>1835299</v>
       </c>
       <c r="E308" t="s">
         <v>20</v>
@@ -10955,10 +10955,10 @@
         <v>11</v>
       </c>
       <c r="C309">
-        <v>2404</v>
+        <v>2408</v>
       </c>
       <c r="D309">
-        <v>3488930</v>
+        <v>3493196</v>
       </c>
       <c r="E309" t="s">
         <v>20</v>
@@ -10987,10 +10987,10 @@
         <v>11</v>
       </c>
       <c r="C310">
-        <v>7589</v>
+        <v>7603</v>
       </c>
       <c r="D310">
-        <v>11179556</v>
+        <v>11196595</v>
       </c>
       <c r="E310" t="s">
         <v>20</v>
@@ -11019,10 +11019,10 @@
         <v>11</v>
       </c>
       <c r="C311">
-        <v>2416</v>
+        <v>2421</v>
       </c>
       <c r="D311">
-        <v>3607258</v>
+        <v>3613658</v>
       </c>
       <c r="E311" t="s">
         <v>20</v>
@@ -11051,10 +11051,10 @@
         <v>11</v>
       </c>
       <c r="C312">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D312">
-        <v>1070204</v>
+        <v>1071704</v>
       </c>
       <c r="E312" t="s">
         <v>20</v>
@@ -11147,10 +11147,10 @@
         <v>11</v>
       </c>
       <c r="C315">
-        <v>2551</v>
+        <v>2555</v>
       </c>
       <c r="D315">
-        <v>3375929</v>
+        <v>3381478</v>
       </c>
       <c r="E315" t="s">
         <v>20</v>
@@ -11179,10 +11179,10 @@
         <v>11</v>
       </c>
       <c r="C316">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D316">
-        <v>1457291</v>
+        <v>1458791</v>
       </c>
       <c r="E316" t="s">
         <v>20</v>
@@ -11211,10 +11211,10 @@
         <v>11</v>
       </c>
       <c r="C317">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="D317">
-        <v>4266308</v>
+        <v>4269308</v>
       </c>
       <c r="E317" t="s">
         <v>20</v>
@@ -11243,10 +11243,10 @@
         <v>11</v>
       </c>
       <c r="C318">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D318">
-        <v>1599771</v>
+        <v>1602771</v>
       </c>
       <c r="E318" t="s">
         <v>20</v>
@@ -11307,10 +11307,10 @@
         <v>11</v>
       </c>
       <c r="C320">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D320">
-        <v>87000</v>
+        <v>88500</v>
       </c>
       <c r="E320" t="s">
         <v>20</v>
@@ -11339,10 +11339,10 @@
         <v>11</v>
       </c>
       <c r="C321">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D321">
-        <v>1462352</v>
+        <v>1464589</v>
       </c>
       <c r="E321" t="s">
         <v>20</v>
@@ -11371,10 +11371,10 @@
         <v>11</v>
       </c>
       <c r="C322">
-        <v>2732</v>
+        <v>2746</v>
       </c>
       <c r="D322">
-        <v>3987958</v>
+        <v>4005992</v>
       </c>
       <c r="E322" t="s">
         <v>21</v>
@@ -11403,10 +11403,10 @@
         <v>11</v>
       </c>
       <c r="C323">
-        <v>7432</v>
+        <v>7449</v>
       </c>
       <c r="D323">
-        <v>10967662</v>
+        <v>10989910</v>
       </c>
       <c r="E323" t="s">
         <v>21</v>
@@ -11435,10 +11435,10 @@
         <v>11</v>
       </c>
       <c r="C324">
-        <v>2636</v>
+        <v>2641</v>
       </c>
       <c r="D324">
-        <v>3938483</v>
+        <v>3945983</v>
       </c>
       <c r="E324" t="s">
         <v>21</v>
@@ -11467,10 +11467,10 @@
         <v>11</v>
       </c>
       <c r="C325">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D325">
-        <v>1298549</v>
+        <v>1300049</v>
       </c>
       <c r="E325" t="s">
         <v>21</v>
@@ -11563,10 +11563,10 @@
         <v>11</v>
       </c>
       <c r="C328">
-        <v>2891</v>
+        <v>2903</v>
       </c>
       <c r="D328">
-        <v>3939174</v>
+        <v>3956945</v>
       </c>
       <c r="E328" t="s">
         <v>21</v>
@@ -11595,10 +11595,10 @@
         <v>11</v>
       </c>
       <c r="C329">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="D329">
-        <v>1267893</v>
+        <v>1278393</v>
       </c>
       <c r="E329" t="s">
         <v>22</v>
@@ -11627,10 +11627,10 @@
         <v>11</v>
       </c>
       <c r="C330">
-        <v>3006</v>
+        <v>3015</v>
       </c>
       <c r="D330">
-        <v>4442841</v>
+        <v>4453499</v>
       </c>
       <c r="E330" t="s">
         <v>22</v>
@@ -11659,10 +11659,10 @@
         <v>11</v>
       </c>
       <c r="C331">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="D331">
-        <v>1789439</v>
+        <v>1796939</v>
       </c>
       <c r="E331" t="s">
         <v>22</v>
@@ -11723,10 +11723,10 @@
         <v>11</v>
       </c>
       <c r="C333">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D333">
-        <v>125569</v>
+        <v>127069</v>
       </c>
       <c r="E333" t="s">
         <v>22</v>
@@ -11787,10 +11787,10 @@
         <v>11</v>
       </c>
       <c r="C335">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="D335">
-        <v>2404346</v>
+        <v>2413902</v>
       </c>
       <c r="E335" t="s">
         <v>22</v>
@@ -11851,10 +11851,10 @@
         <v>11</v>
       </c>
       <c r="C337">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D337">
-        <v>160110</v>
+        <v>163110</v>
       </c>
       <c r="E337" t="s">
         <v>23</v>
@@ -11979,10 +11979,10 @@
         <v>11</v>
       </c>
       <c r="C341">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="D341">
-        <v>2961871</v>
+        <v>2967871</v>
       </c>
       <c r="E341" t="s">
         <v>24</v>
@@ -12011,10 +12011,10 @@
         <v>11</v>
       </c>
       <c r="C342">
-        <v>5077</v>
+        <v>5086</v>
       </c>
       <c r="D342">
-        <v>7498835</v>
+        <v>7511744</v>
       </c>
       <c r="E342" t="s">
         <v>24</v>
@@ -12043,10 +12043,10 @@
         <v>11</v>
       </c>
       <c r="C343">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="D343">
-        <v>2485371</v>
+        <v>2494371</v>
       </c>
       <c r="E343" t="s">
         <v>24</v>
@@ -12075,10 +12075,10 @@
         <v>11</v>
       </c>
       <c r="C344">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D344">
-        <v>715645</v>
+        <v>717145</v>
       </c>
       <c r="E344" t="s">
         <v>24</v>
@@ -12171,10 +12171,10 @@
         <v>11</v>
       </c>
       <c r="C347">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="D347">
-        <v>2070214</v>
+        <v>2074083</v>
       </c>
       <c r="E347" t="s">
         <v>24</v>
@@ -12203,10 +12203,10 @@
         <v>11</v>
       </c>
       <c r="C348">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D348">
-        <v>1669678</v>
+        <v>1671178</v>
       </c>
       <c r="E348" t="s">
         <v>24</v>
@@ -12235,10 +12235,10 @@
         <v>11</v>
       </c>
       <c r="C349">
-        <v>3421</v>
+        <v>3427</v>
       </c>
       <c r="D349">
-        <v>5062122</v>
+        <v>5070226</v>
       </c>
       <c r="E349" t="s">
         <v>24</v>
@@ -12267,10 +12267,10 @@
         <v>11</v>
       </c>
       <c r="C350">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D350">
-        <v>1675566</v>
+        <v>1677066</v>
       </c>
       <c r="E350" t="s">
         <v>24</v>
@@ -12299,10 +12299,10 @@
         <v>11</v>
       </c>
       <c r="C351">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D351">
-        <v>439042</v>
+        <v>440542</v>
       </c>
       <c r="E351" t="s">
         <v>24</v>
@@ -12395,10 +12395,10 @@
         <v>11</v>
       </c>
       <c r="C354">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="D354">
-        <v>1437511</v>
+        <v>1442011</v>
       </c>
       <c r="E354" t="s">
         <v>24</v>
@@ -12427,10 +12427,10 @@
         <v>11</v>
       </c>
       <c r="C355">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="D355">
-        <v>1902547</v>
+        <v>1907639</v>
       </c>
       <c r="E355" t="s">
         <v>24</v>
@@ -12459,10 +12459,10 @@
         <v>11</v>
       </c>
       <c r="C356">
-        <v>3437</v>
+        <v>3440</v>
       </c>
       <c r="D356">
-        <v>5091270</v>
+        <v>5095073</v>
       </c>
       <c r="E356" t="s">
         <v>24</v>
@@ -12491,10 +12491,10 @@
         <v>11</v>
       </c>
       <c r="C357">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D357">
-        <v>1569843</v>
+        <v>1572015</v>
       </c>
       <c r="E357" t="s">
         <v>24</v>
@@ -12523,10 +12523,10 @@
         <v>11</v>
       </c>
       <c r="C358">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D358">
-        <v>418799</v>
+        <v>420299</v>
       </c>
       <c r="E358" t="s">
         <v>24</v>
@@ -12587,10 +12587,10 @@
         <v>11</v>
       </c>
       <c r="C360">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="D360">
-        <v>1441680</v>
+        <v>1444680</v>
       </c>
       <c r="E360" t="s">
         <v>24</v>
@@ -12651,10 +12651,10 @@
         <v>11</v>
       </c>
       <c r="C362">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="D362">
-        <v>2746704</v>
+        <v>2749704</v>
       </c>
       <c r="E362" t="s">
         <v>24</v>
@@ -12683,10 +12683,10 @@
         <v>11</v>
       </c>
       <c r="C363">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D363">
-        <v>763701</v>
+        <v>765201</v>
       </c>
       <c r="E363" t="s">
         <v>24</v>
@@ -12811,10 +12811,10 @@
         <v>11</v>
       </c>
       <c r="C367">
-        <v>1972</v>
+        <v>1977</v>
       </c>
       <c r="D367">
-        <v>2888267</v>
+        <v>2895625</v>
       </c>
       <c r="E367" t="s">
         <v>24</v>
@@ -12843,10 +12843,10 @@
         <v>11</v>
       </c>
       <c r="C368">
-        <v>6537</v>
+        <v>6551</v>
       </c>
       <c r="D368">
-        <v>9675052</v>
+        <v>9696052</v>
       </c>
       <c r="E368" t="s">
         <v>24</v>
@@ -12875,10 +12875,10 @@
         <v>11</v>
       </c>
       <c r="C369">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c r="D369">
-        <v>3496234</v>
+        <v>3499234</v>
       </c>
       <c r="E369" t="s">
         <v>24</v>
@@ -12907,10 +12907,10 @@
         <v>11</v>
       </c>
       <c r="C370">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D370">
-        <v>881285</v>
+        <v>884285</v>
       </c>
       <c r="E370" t="s">
         <v>24</v>
@@ -13003,10 +13003,10 @@
         <v>11</v>
       </c>
       <c r="C373">
-        <v>1955</v>
+        <v>1962</v>
       </c>
       <c r="D373">
-        <v>2623209</v>
+        <v>2630427</v>
       </c>
       <c r="E373" t="s">
         <v>24</v>
@@ -13035,10 +13035,10 @@
         <v>11</v>
       </c>
       <c r="C374">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D374">
-        <v>1141147</v>
+        <v>1142647</v>
       </c>
       <c r="E374" t="s">
         <v>25</v>
@@ -13067,10 +13067,10 @@
         <v>11</v>
       </c>
       <c r="C375">
-        <v>2229</v>
+        <v>2233</v>
       </c>
       <c r="D375">
-        <v>3285025</v>
+        <v>3291025</v>
       </c>
       <c r="E375" t="s">
         <v>25</v>
@@ -13131,10 +13131,10 @@
         <v>11</v>
       </c>
       <c r="C377">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D377">
-        <v>330911</v>
+        <v>332411</v>
       </c>
       <c r="E377" t="s">
         <v>25</v>
@@ -13227,10 +13227,10 @@
         <v>11</v>
       </c>
       <c r="C380">
-        <v>2816</v>
+        <v>2820</v>
       </c>
       <c r="D380">
-        <v>4093592</v>
+        <v>4099165</v>
       </c>
       <c r="E380" t="s">
         <v>25</v>
@@ -13259,10 +13259,10 @@
         <v>11</v>
       </c>
       <c r="C381">
-        <v>5718</v>
+        <v>5725</v>
       </c>
       <c r="D381">
-        <v>8452825</v>
+        <v>8462678</v>
       </c>
       <c r="E381" t="s">
         <v>25</v>
@@ -13291,10 +13291,10 @@
         <v>11</v>
       </c>
       <c r="C382">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="D382">
-        <v>2509407</v>
+        <v>2512407</v>
       </c>
       <c r="E382" t="s">
         <v>25</v>
@@ -13419,10 +13419,10 @@
         <v>11</v>
       </c>
       <c r="C386">
-        <v>1818</v>
+        <v>1828</v>
       </c>
       <c r="D386">
-        <v>2465958</v>
+        <v>2479298</v>
       </c>
       <c r="E386" t="s">
         <v>25</v>
@@ -13451,10 +13451,10 @@
         <v>11</v>
       </c>
       <c r="C387">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D387">
-        <v>1011222</v>
+        <v>1012722</v>
       </c>
       <c r="E387" t="s">
         <v>25</v>
@@ -13483,10 +13483,10 @@
         <v>11</v>
       </c>
       <c r="C388">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D388">
-        <v>2674627</v>
+        <v>2676127</v>
       </c>
       <c r="E388" t="s">
         <v>25</v>
@@ -13515,10 +13515,10 @@
         <v>11</v>
       </c>
       <c r="C389">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D389">
-        <v>781628</v>
+        <v>786128</v>
       </c>
       <c r="E389" t="s">
         <v>25</v>
@@ -13611,10 +13611,10 @@
         <v>11</v>
       </c>
       <c r="C392">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D392">
-        <v>1168522</v>
+        <v>1170022</v>
       </c>
       <c r="E392" t="s">
         <v>25</v>
@@ -13643,10 +13643,10 @@
         <v>11</v>
       </c>
       <c r="C393">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D393">
-        <v>335228</v>
+        <v>336728</v>
       </c>
       <c r="E393" t="s">
         <v>25</v>
@@ -13675,10 +13675,10 @@
         <v>11</v>
       </c>
       <c r="C394">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D394">
-        <v>1001913</v>
+        <v>1003413</v>
       </c>
       <c r="E394" t="s">
         <v>25</v>
@@ -13707,10 +13707,10 @@
         <v>11</v>
       </c>
       <c r="C395">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D395">
-        <v>329346</v>
+        <v>330846</v>
       </c>
       <c r="E395" t="s">
         <v>25</v>
@@ -13835,10 +13835,10 @@
         <v>11</v>
       </c>
       <c r="C399">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D399">
-        <v>902973</v>
+        <v>905973</v>
       </c>
       <c r="E399" t="s">
         <v>25</v>
@@ -13867,10 +13867,10 @@
         <v>11</v>
       </c>
       <c r="C400">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D400">
-        <v>2986209</v>
+        <v>2987709</v>
       </c>
       <c r="E400" t="s">
         <v>25</v>
@@ -13899,10 +13899,10 @@
         <v>11</v>
       </c>
       <c r="C401">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D401">
-        <v>1003481</v>
+        <v>1006481</v>
       </c>
       <c r="E401" t="s">
         <v>25</v>
@@ -13931,10 +13931,10 @@
         <v>11</v>
       </c>
       <c r="C402">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D402">
-        <v>238500</v>
+        <v>240000</v>
       </c>
       <c r="E402" t="s">
         <v>25</v>
@@ -14027,10 +14027,10 @@
         <v>11</v>
       </c>
       <c r="C405">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="D405">
-        <v>2443535</v>
+        <v>2451035</v>
       </c>
       <c r="E405" t="s">
         <v>25</v>
@@ -14059,10 +14059,10 @@
         <v>11</v>
       </c>
       <c r="C406">
-        <v>3635</v>
+        <v>3641</v>
       </c>
       <c r="D406">
-        <v>5354322</v>
+        <v>5361568</v>
       </c>
       <c r="E406" t="s">
         <v>25</v>
@@ -14091,10 +14091,10 @@
         <v>11</v>
       </c>
       <c r="C407">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="D407">
-        <v>1503264</v>
+        <v>1510764</v>
       </c>
       <c r="E407" t="s">
         <v>25</v>
@@ -14187,10 +14187,10 @@
         <v>11</v>
       </c>
       <c r="C410">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="D410">
-        <v>2087261</v>
+        <v>2091680</v>
       </c>
       <c r="E410" t="s">
         <v>25</v>
@@ -14219,10 +14219,10 @@
         <v>11</v>
       </c>
       <c r="C411">
-        <v>5670</v>
+        <v>5678</v>
       </c>
       <c r="D411">
-        <v>8266267</v>
+        <v>8278267</v>
       </c>
       <c r="E411" t="s">
         <v>25</v>
@@ -14251,10 +14251,10 @@
         <v>11</v>
       </c>
       <c r="C412">
-        <v>12329</v>
+        <v>12356</v>
       </c>
       <c r="D412">
-        <v>18167654</v>
+        <v>18205086</v>
       </c>
       <c r="E412" t="s">
         <v>25</v>
@@ -14283,10 +14283,10 @@
         <v>11</v>
       </c>
       <c r="C413">
-        <v>4176</v>
+        <v>4186</v>
       </c>
       <c r="D413">
-        <v>6231956</v>
+        <v>6246956</v>
       </c>
       <c r="E413" t="s">
         <v>25</v>
@@ -14315,10 +14315,10 @@
         <v>11</v>
       </c>
       <c r="C414">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D414">
-        <v>1843566</v>
+        <v>1845066</v>
       </c>
       <c r="E414" t="s">
         <v>25</v>
@@ -14347,10 +14347,10 @@
         <v>11</v>
       </c>
       <c r="C415">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D415">
-        <v>354000</v>
+        <v>358500</v>
       </c>
       <c r="E415" t="s">
         <v>25</v>
@@ -14443,10 +14443,10 @@
         <v>11</v>
       </c>
       <c r="C418">
-        <v>4243</v>
+        <v>4258</v>
       </c>
       <c r="D418">
-        <v>5843130</v>
+        <v>5861601</v>
       </c>
       <c r="E418" t="s">
         <v>25</v>
@@ -14475,10 +14475,10 @@
         <v>11</v>
       </c>
       <c r="C419">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D419">
-        <v>1247183</v>
+        <v>1249666</v>
       </c>
       <c r="E419" t="s">
         <v>25</v>
@@ -14507,10 +14507,10 @@
         <v>11</v>
       </c>
       <c r="C420">
-        <v>2213</v>
+        <v>2217</v>
       </c>
       <c r="D420">
-        <v>3275175</v>
+        <v>3281164</v>
       </c>
       <c r="E420" t="s">
         <v>25</v>
@@ -14635,10 +14635,10 @@
         <v>11</v>
       </c>
       <c r="C424">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="D424">
-        <v>1396431</v>
+        <v>1400233</v>
       </c>
       <c r="E424" t="s">
         <v>25</v>
@@ -14667,10 +14667,10 @@
         <v>11</v>
       </c>
       <c r="C425">
-        <v>1821</v>
+        <v>1826</v>
       </c>
       <c r="D425">
-        <v>2626492</v>
+        <v>2633992</v>
       </c>
       <c r="E425" t="s">
         <v>25</v>
@@ -14699,10 +14699,10 @@
         <v>11</v>
       </c>
       <c r="C426">
-        <v>3440</v>
+        <v>3449</v>
       </c>
       <c r="D426">
-        <v>5070199</v>
+        <v>5082420</v>
       </c>
       <c r="E426" t="s">
         <v>25</v>
@@ -14731,10 +14731,10 @@
         <v>11</v>
       </c>
       <c r="C427">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="D427">
-        <v>1553546</v>
+        <v>1556546</v>
       </c>
       <c r="E427" t="s">
         <v>25</v>
@@ -14763,10 +14763,10 @@
         <v>11</v>
       </c>
       <c r="C428">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D428">
-        <v>379846</v>
+        <v>381346</v>
       </c>
       <c r="E428" t="s">
         <v>25</v>
@@ -14859,10 +14859,10 @@
         <v>11</v>
       </c>
       <c r="C431">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="D431">
-        <v>1337844</v>
+        <v>1341353</v>
       </c>
       <c r="E431" t="s">
         <v>25</v>
@@ -14923,10 +14923,10 @@
         <v>11</v>
       </c>
       <c r="C433">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="D433">
-        <v>3509162</v>
+        <v>3513662</v>
       </c>
       <c r="E433" t="s">
         <v>25</v>
@@ -14955,10 +14955,10 @@
         <v>11</v>
       </c>
       <c r="C434">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D434">
-        <v>1214992</v>
+        <v>1216492</v>
       </c>
       <c r="E434" t="s">
         <v>25</v>
@@ -14987,10 +14987,10 @@
         <v>11</v>
       </c>
       <c r="C435">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D435">
-        <v>282000</v>
+        <v>283500</v>
       </c>
       <c r="E435" t="s">
         <v>25</v>
@@ -15051,10 +15051,10 @@
         <v>11</v>
       </c>
       <c r="C437">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D437">
-        <v>1369227</v>
+        <v>1369714</v>
       </c>
       <c r="E437" t="s">
         <v>25</v>
@@ -15083,10 +15083,10 @@
         <v>11</v>
       </c>
       <c r="C438">
-        <v>2364</v>
+        <v>2368</v>
       </c>
       <c r="D438">
-        <v>3427188</v>
+        <v>3433188</v>
       </c>
       <c r="E438" t="s">
         <v>25</v>
@@ -15115,10 +15115,10 @@
         <v>11</v>
       </c>
       <c r="C439">
-        <v>6283</v>
+        <v>6299</v>
       </c>
       <c r="D439">
-        <v>9261072</v>
+        <v>9285072</v>
       </c>
       <c r="E439" t="s">
         <v>25</v>
@@ -15147,10 +15147,10 @@
         <v>11</v>
       </c>
       <c r="C440">
-        <v>2082</v>
+        <v>2089</v>
       </c>
       <c r="D440">
-        <v>3104755</v>
+        <v>3115255</v>
       </c>
       <c r="E440" t="s">
         <v>25</v>
@@ -15179,10 +15179,10 @@
         <v>11</v>
       </c>
       <c r="C441">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D441">
-        <v>799144</v>
+        <v>802144</v>
       </c>
       <c r="E441" t="s">
         <v>25</v>
@@ -15275,10 +15275,10 @@
         <v>11</v>
       </c>
       <c r="C444">
-        <v>2317</v>
+        <v>2323</v>
       </c>
       <c r="D444">
-        <v>3169535</v>
+        <v>3177661</v>
       </c>
       <c r="E444" t="s">
         <v>25</v>
@@ -15339,10 +15339,10 @@
         <v>11</v>
       </c>
       <c r="C446">
-        <v>2362</v>
+        <v>2367</v>
       </c>
       <c r="D446">
-        <v>3488523</v>
+        <v>3496023</v>
       </c>
       <c r="E446" t="s">
         <v>25</v>
@@ -15371,10 +15371,10 @@
         <v>11</v>
       </c>
       <c r="C447">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D447">
-        <v>1164358</v>
+        <v>1165858</v>
       </c>
       <c r="E447" t="s">
         <v>25</v>
@@ -15499,10 +15499,10 @@
         <v>11</v>
       </c>
       <c r="C451">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D451">
-        <v>1124825</v>
+        <v>1127825</v>
       </c>
       <c r="E451" t="s">
         <v>25</v>
@@ -15563,10 +15563,10 @@
         <v>11</v>
       </c>
       <c r="C453">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D453">
-        <v>1709576</v>
+        <v>1711076</v>
       </c>
       <c r="E453" t="s">
         <v>26</v>
@@ -15595,10 +15595,10 @@
         <v>11</v>
       </c>
       <c r="C454">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D454">
-        <v>614515</v>
+        <v>616015</v>
       </c>
       <c r="E454" t="s">
         <v>26</v>
@@ -15691,10 +15691,10 @@
         <v>11</v>
       </c>
       <c r="C457">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D457">
-        <v>702335</v>
+        <v>703835</v>
       </c>
       <c r="E457" t="s">
         <v>26</v>
@@ -15723,10 +15723,10 @@
         <v>11</v>
       </c>
       <c r="C458">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="D458">
-        <v>2509106</v>
+        <v>2510212</v>
       </c>
       <c r="E458" t="s">
         <v>26</v>
@@ -15755,10 +15755,10 @@
         <v>11</v>
       </c>
       <c r="C459">
-        <v>3323</v>
+        <v>3328</v>
       </c>
       <c r="D459">
-        <v>4895080</v>
+        <v>4900151</v>
       </c>
       <c r="E459" t="s">
         <v>26</v>
@@ -15787,10 +15787,10 @@
         <v>11</v>
       </c>
       <c r="C460">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="D460">
-        <v>1501818</v>
+        <v>1506318</v>
       </c>
       <c r="E460" t="s">
         <v>26</v>
@@ -15915,10 +15915,10 @@
         <v>11</v>
       </c>
       <c r="C464">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="D464">
-        <v>1562051</v>
+        <v>1568051</v>
       </c>
       <c r="E464" t="s">
         <v>26</v>
@@ -15947,10 +15947,10 @@
         <v>11</v>
       </c>
       <c r="C465">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="D465">
-        <v>1569485</v>
+        <v>1573985</v>
       </c>
       <c r="E465" t="s">
         <v>26</v>
@@ -15979,10 +15979,10 @@
         <v>11</v>
       </c>
       <c r="C466">
-        <v>2394</v>
+        <v>2402</v>
       </c>
       <c r="D466">
-        <v>3526782</v>
+        <v>3538782</v>
       </c>
       <c r="E466" t="s">
         <v>26</v>
@@ -16011,10 +16011,10 @@
         <v>11</v>
       </c>
       <c r="C467">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D467">
-        <v>1053590</v>
+        <v>1056590</v>
       </c>
       <c r="E467" t="s">
         <v>26</v>
@@ -16139,10 +16139,10 @@
         <v>11</v>
       </c>
       <c r="C471">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="D471">
-        <v>1638874</v>
+        <v>1643649</v>
       </c>
       <c r="E471" t="s">
         <v>26</v>
@@ -16171,10 +16171,10 @@
         <v>11</v>
       </c>
       <c r="C472">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="D472">
-        <v>4106733</v>
+        <v>4110756</v>
       </c>
       <c r="E472" t="s">
         <v>26</v>
@@ -16203,10 +16203,10 @@
         <v>11</v>
       </c>
       <c r="C473">
-        <v>6795</v>
+        <v>6805</v>
       </c>
       <c r="D473">
-        <v>10012427</v>
+        <v>10027427</v>
       </c>
       <c r="E473" t="s">
         <v>26</v>
@@ -16235,10 +16235,10 @@
         <v>11</v>
       </c>
       <c r="C474">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="D474">
-        <v>2903823</v>
+        <v>2905323</v>
       </c>
       <c r="E474" t="s">
         <v>26</v>
@@ -16267,10 +16267,10 @@
         <v>11</v>
       </c>
       <c r="C475">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D475">
-        <v>636844</v>
+        <v>638344</v>
       </c>
       <c r="E475" t="s">
         <v>26</v>
@@ -16331,10 +16331,10 @@
         <v>11</v>
       </c>
       <c r="C477">
-        <v>2540</v>
+        <v>2543</v>
       </c>
       <c r="D477">
-        <v>3436901</v>
+        <v>3440401</v>
       </c>
       <c r="E477" t="s">
         <v>26</v>
@@ -16363,10 +16363,10 @@
         <v>11</v>
       </c>
       <c r="C478">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D478">
-        <v>938786</v>
+        <v>940286</v>
       </c>
       <c r="E478" t="s">
         <v>26</v>
@@ -16395,10 +16395,10 @@
         <v>11</v>
       </c>
       <c r="C479">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="D479">
-        <v>2169098</v>
+        <v>2172098</v>
       </c>
       <c r="E479" t="s">
         <v>26</v>
@@ -16523,10 +16523,10 @@
         <v>11</v>
       </c>
       <c r="C483">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D483">
-        <v>1033217</v>
+        <v>1033621</v>
       </c>
       <c r="E483" t="s">
         <v>26</v>
@@ -16555,10 +16555,10 @@
         <v>11</v>
       </c>
       <c r="C484">
-        <v>3968</v>
+        <v>3978</v>
       </c>
       <c r="D484">
-        <v>5786226</v>
+        <v>5801226</v>
       </c>
       <c r="E484" t="s">
         <v>26</v>
@@ -16587,10 +16587,10 @@
         <v>11</v>
       </c>
       <c r="C485">
-        <v>9785</v>
+        <v>9810</v>
       </c>
       <c r="D485">
-        <v>14457867</v>
+        <v>14494326</v>
       </c>
       <c r="E485" t="s">
         <v>26</v>
@@ -16619,10 +16619,10 @@
         <v>11</v>
       </c>
       <c r="C486">
-        <v>3468</v>
+        <v>3473</v>
       </c>
       <c r="D486">
-        <v>5175802</v>
+        <v>5183302</v>
       </c>
       <c r="E486" t="s">
         <v>26</v>
@@ -16651,10 +16651,10 @@
         <v>11</v>
       </c>
       <c r="C487">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D487">
-        <v>1524514</v>
+        <v>1526014</v>
       </c>
       <c r="E487" t="s">
         <v>26</v>
@@ -16747,10 +16747,10 @@
         <v>11</v>
       </c>
       <c r="C490">
-        <v>3863</v>
+        <v>3873</v>
       </c>
       <c r="D490">
-        <v>5258143</v>
+        <v>5272639</v>
       </c>
       <c r="E490" t="s">
         <v>26</v>
@@ -16779,10 +16779,10 @@
         <v>11</v>
       </c>
       <c r="C491">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D491">
-        <v>1190290</v>
+        <v>1191790</v>
       </c>
       <c r="E491" t="s">
         <v>26</v>
@@ -16811,10 +16811,10 @@
         <v>11</v>
       </c>
       <c r="C492">
-        <v>2072</v>
+        <v>2079</v>
       </c>
       <c r="D492">
-        <v>3051321</v>
+        <v>3059167</v>
       </c>
       <c r="E492" t="s">
         <v>26</v>
@@ -16843,10 +16843,10 @@
         <v>11</v>
       </c>
       <c r="C493">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D493">
-        <v>1004024</v>
+        <v>1005524</v>
       </c>
       <c r="E493" t="s">
         <v>26</v>
@@ -16907,10 +16907,10 @@
         <v>11</v>
       </c>
       <c r="C495">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D495">
-        <v>46500</v>
+        <v>48000</v>
       </c>
       <c r="E495" t="s">
         <v>26</v>
@@ -16939,10 +16939,10 @@
         <v>11</v>
       </c>
       <c r="C496">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D496">
-        <v>1503580</v>
+        <v>1505080</v>
       </c>
       <c r="E496" t="s">
         <v>26</v>
@@ -16971,10 +16971,10 @@
         <v>11</v>
       </c>
       <c r="C497">
-        <v>5307</v>
+        <v>5309</v>
       </c>
       <c r="D497">
-        <v>7717386</v>
+        <v>7720386</v>
       </c>
       <c r="E497" t="s">
         <v>26</v>
@@ -17003,10 +17003,10 @@
         <v>11</v>
       </c>
       <c r="C498">
-        <v>11971</v>
+        <v>11982</v>
       </c>
       <c r="D498">
-        <v>17631500</v>
+        <v>17647315</v>
       </c>
       <c r="E498" t="s">
         <v>26</v>
@@ -17035,10 +17035,10 @@
         <v>11</v>
       </c>
       <c r="C499">
-        <v>3668</v>
+        <v>3675</v>
       </c>
       <c r="D499">
-        <v>5474337</v>
+        <v>5483076</v>
       </c>
       <c r="E499" t="s">
         <v>26</v>
@@ -17067,10 +17067,10 @@
         <v>11</v>
       </c>
       <c r="C500">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D500">
-        <v>1369338</v>
+        <v>1370838</v>
       </c>
       <c r="E500" t="s">
         <v>26</v>
@@ -17163,10 +17163,10 @@
         <v>11</v>
       </c>
       <c r="C503">
-        <v>3814</v>
+        <v>3821</v>
       </c>
       <c r="D503">
-        <v>5165441</v>
+        <v>5174469</v>
       </c>
       <c r="E503" t="s">
         <v>26</v>
@@ -17195,10 +17195,10 @@
         <v>11</v>
       </c>
       <c r="C504">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="D504">
-        <v>1157294</v>
+        <v>1163294</v>
       </c>
       <c r="E504" t="s">
         <v>26</v>
@@ -17259,10 +17259,10 @@
         <v>11</v>
       </c>
       <c r="C506">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D506">
-        <v>611218</v>
+        <v>615718</v>
       </c>
       <c r="E506" t="s">
         <v>26</v>
@@ -17355,10 +17355,10 @@
         <v>11</v>
       </c>
       <c r="C509">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D509">
-        <v>1006190</v>
+        <v>1008530</v>
       </c>
       <c r="E509" t="s">
         <v>26</v>
@@ -17387,10 +17387,10 @@
         <v>11</v>
       </c>
       <c r="C510">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D510">
-        <v>624303</v>
+        <v>625803</v>
       </c>
       <c r="E510" t="s">
         <v>26</v>
@@ -17419,10 +17419,10 @@
         <v>11</v>
       </c>
       <c r="C511">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D511">
-        <v>967051</v>
+        <v>970051</v>
       </c>
       <c r="E511" t="s">
         <v>26</v>
@@ -17547,10 +17547,10 @@
         <v>11</v>
       </c>
       <c r="C515">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D515">
-        <v>405240</v>
+        <v>410379</v>
       </c>
       <c r="E515" t="s">
         <v>26</v>
@@ -17579,10 +17579,10 @@
         <v>11</v>
       </c>
       <c r="C516">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="D516">
-        <v>3560706</v>
+        <v>3562510</v>
       </c>
       <c r="E516" t="s">
         <v>26</v>
@@ -17611,10 +17611,10 @@
         <v>11</v>
       </c>
       <c r="C517">
-        <v>4427</v>
+        <v>4433</v>
       </c>
       <c r="D517">
-        <v>6491044</v>
+        <v>6500044</v>
       </c>
       <c r="E517" t="s">
         <v>26</v>
@@ -17643,10 +17643,10 @@
         <v>11</v>
       </c>
       <c r="C518">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D518">
-        <v>2069240</v>
+        <v>2070740</v>
       </c>
       <c r="E518" t="s">
         <v>26</v>
@@ -17675,10 +17675,10 @@
         <v>11</v>
       </c>
       <c r="C519">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D519">
-        <v>548224</v>
+        <v>549724</v>
       </c>
       <c r="E519" t="s">
         <v>26</v>
@@ -17739,10 +17739,10 @@
         <v>11</v>
       </c>
       <c r="C521">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="D521">
-        <v>2229696</v>
+        <v>2236438</v>
       </c>
       <c r="E521" t="s">
         <v>26</v>
@@ -17803,10 +17803,10 @@
         <v>11</v>
       </c>
       <c r="C523">
-        <v>2834</v>
+        <v>2839</v>
       </c>
       <c r="D523">
-        <v>4191666</v>
+        <v>4198711</v>
       </c>
       <c r="E523" t="s">
         <v>26</v>
@@ -17931,10 +17931,10 @@
         <v>11</v>
       </c>
       <c r="C527">
-        <v>1135</v>
+        <v>1140</v>
       </c>
       <c r="D527">
-        <v>1535521</v>
+        <v>1539951</v>
       </c>
       <c r="E527" t="s">
         <v>26</v>
@@ -17963,10 +17963,10 @@
         <v>11</v>
       </c>
       <c r="C528">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="D528">
-        <v>1044955</v>
+        <v>1053955</v>
       </c>
       <c r="E528" t="s">
         <v>26</v>
@@ -17995,10 +17995,10 @@
         <v>11</v>
       </c>
       <c r="C529">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="D529">
-        <v>2680969</v>
+        <v>2684508</v>
       </c>
       <c r="E529" t="s">
         <v>26</v>
@@ -18027,10 +18027,10 @@
         <v>11</v>
       </c>
       <c r="C530">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D530">
-        <v>816646</v>
+        <v>819646</v>
       </c>
       <c r="E530" t="s">
         <v>26</v>
@@ -18155,10 +18155,10 @@
         <v>11</v>
       </c>
       <c r="C534">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="D534">
-        <v>1041854</v>
+        <v>1048801</v>
       </c>
       <c r="E534" t="s">
         <v>26</v>
@@ -18187,10 +18187,10 @@
         <v>11</v>
       </c>
       <c r="C535">
-        <v>3334</v>
+        <v>3337</v>
       </c>
       <c r="D535">
-        <v>4881106</v>
+        <v>4885606</v>
       </c>
       <c r="E535" t="s">
         <v>27</v>
@@ -18219,10 +18219,10 @@
         <v>11</v>
       </c>
       <c r="C536">
-        <v>8450</v>
+        <v>8464</v>
       </c>
       <c r="D536">
-        <v>12519405</v>
+        <v>12539161</v>
       </c>
       <c r="E536" t="s">
         <v>27</v>
@@ -18251,10 +18251,10 @@
         <v>11</v>
       </c>
       <c r="C537">
-        <v>3105</v>
+        <v>3113</v>
       </c>
       <c r="D537">
-        <v>4638778</v>
+        <v>4650778</v>
       </c>
       <c r="E537" t="s">
         <v>27</v>
@@ -18283,10 +18283,10 @@
         <v>11</v>
       </c>
       <c r="C538">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D538">
-        <v>1145845</v>
+        <v>1146920</v>
       </c>
       <c r="E538" t="s">
         <v>27</v>
@@ -18379,10 +18379,10 @@
         <v>11</v>
       </c>
       <c r="C541">
-        <v>2725</v>
+        <v>2735</v>
       </c>
       <c r="D541">
-        <v>3708166</v>
+        <v>3722094</v>
       </c>
       <c r="E541" t="s">
         <v>27</v>
@@ -18411,10 +18411,10 @@
         <v>11</v>
       </c>
       <c r="C542">
-        <v>1514</v>
+        <v>1522</v>
       </c>
       <c r="D542">
-        <v>2213672</v>
+        <v>2223915</v>
       </c>
       <c r="E542" t="s">
         <v>27</v>
@@ -18443,10 +18443,10 @@
         <v>11</v>
       </c>
       <c r="C543">
-        <v>4840</v>
+        <v>4849</v>
       </c>
       <c r="D543">
-        <v>7164030</v>
+        <v>7177530</v>
       </c>
       <c r="E543" t="s">
         <v>27</v>
@@ -18475,10 +18475,10 @@
         <v>11</v>
       </c>
       <c r="C544">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="D544">
-        <v>2326704</v>
+        <v>2334204</v>
       </c>
       <c r="E544" t="s">
         <v>27</v>
@@ -18507,10 +18507,10 @@
         <v>11</v>
       </c>
       <c r="C545">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D545">
-        <v>592592</v>
+        <v>594092</v>
       </c>
       <c r="E545" t="s">
         <v>27</v>
@@ -18603,10 +18603,10 @@
         <v>11</v>
       </c>
       <c r="C548">
-        <v>1498</v>
+        <v>1506</v>
       </c>
       <c r="D548">
-        <v>2056971</v>
+        <v>2067733</v>
       </c>
       <c r="E548" t="s">
         <v>27</v>
@@ -18635,10 +18635,10 @@
         <v>11</v>
       </c>
       <c r="C549">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D549">
-        <v>927216</v>
+        <v>928716</v>
       </c>
       <c r="E549" t="s">
         <v>27</v>
@@ -18667,10 +18667,10 @@
         <v>11</v>
       </c>
       <c r="C550">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D550">
-        <v>2568038</v>
+        <v>2569538</v>
       </c>
       <c r="E550" t="s">
         <v>27</v>
@@ -18827,10 +18827,10 @@
         <v>11</v>
       </c>
       <c r="C555">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D555">
-        <v>729865</v>
+        <v>731365</v>
       </c>
       <c r="E555" t="s">
         <v>27</v>
@@ -18859,10 +18859,10 @@
         <v>11</v>
       </c>
       <c r="C556">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D556">
-        <v>1507382</v>
+        <v>1510382</v>
       </c>
       <c r="E556" t="s">
         <v>27</v>
@@ -18891,10 +18891,10 @@
         <v>11</v>
       </c>
       <c r="C557">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="D557">
-        <v>4228398</v>
+        <v>4229058</v>
       </c>
       <c r="E557" t="s">
         <v>27</v>
@@ -18923,10 +18923,10 @@
         <v>11</v>
       </c>
       <c r="C558">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="D558">
-        <v>1412450</v>
+        <v>1419950</v>
       </c>
       <c r="E558" t="s">
         <v>27</v>
@@ -19019,10 +19019,10 @@
         <v>11</v>
       </c>
       <c r="C561">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D561">
-        <v>1211147</v>
+        <v>1214147</v>
       </c>
       <c r="E561" t="s">
         <v>27</v>
@@ -19083,10 +19083,10 @@
         <v>11</v>
       </c>
       <c r="C563">
-        <v>4486</v>
+        <v>4496</v>
       </c>
       <c r="D563">
-        <v>6627286</v>
+        <v>6642286</v>
       </c>
       <c r="E563" t="s">
         <v>27</v>
@@ -19115,10 +19115,10 @@
         <v>11</v>
       </c>
       <c r="C564">
-        <v>1610</v>
+        <v>1617</v>
       </c>
       <c r="D564">
-        <v>2401698</v>
+        <v>2412198</v>
       </c>
       <c r="E564" t="s">
         <v>27</v>
@@ -19147,10 +19147,10 @@
         <v>11</v>
       </c>
       <c r="C565">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D565">
-        <v>529040</v>
+        <v>530540</v>
       </c>
       <c r="E565" t="s">
         <v>27</v>
@@ -19243,10 +19243,10 @@
         <v>11</v>
       </c>
       <c r="C568">
-        <v>1364</v>
+        <v>1372</v>
       </c>
       <c r="D568">
-        <v>1874472</v>
+        <v>1883397</v>
       </c>
       <c r="E568" t="s">
         <v>27</v>
@@ -19275,10 +19275,10 @@
         <v>11</v>
       </c>
       <c r="C569">
-        <v>5235</v>
+        <v>5250</v>
       </c>
       <c r="D569">
-        <v>7631030</v>
+        <v>7651622</v>
       </c>
       <c r="E569" t="s">
         <v>28</v>
@@ -19307,10 +19307,10 @@
         <v>11</v>
       </c>
       <c r="C570">
-        <v>13223</v>
+        <v>13247</v>
       </c>
       <c r="D570">
-        <v>19541527</v>
+        <v>19577527</v>
       </c>
       <c r="E570" t="s">
         <v>28</v>
@@ -19339,10 +19339,10 @@
         <v>11</v>
       </c>
       <c r="C571">
-        <v>4030</v>
+        <v>4034</v>
       </c>
       <c r="D571">
-        <v>6022521</v>
+        <v>6028521</v>
       </c>
       <c r="E571" t="s">
         <v>28</v>
@@ -19371,10 +19371,10 @@
         <v>11</v>
       </c>
       <c r="C572">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="D572">
-        <v>1634407</v>
+        <v>1641907</v>
       </c>
       <c r="E572" t="s">
         <v>28</v>
@@ -19467,10 +19467,10 @@
         <v>11</v>
       </c>
       <c r="C575">
-        <v>4596</v>
+        <v>4606</v>
       </c>
       <c r="D575">
-        <v>6371309</v>
+        <v>6383268</v>
       </c>
       <c r="E575" t="s">
         <v>28</v>
@@ -19531,10 +19531,10 @@
         <v>11</v>
       </c>
       <c r="C577">
-        <v>1835</v>
+        <v>1839</v>
       </c>
       <c r="D577">
-        <v>2692902</v>
+        <v>2698902</v>
       </c>
       <c r="E577" t="s">
         <v>28</v>
@@ -19563,10 +19563,10 @@
         <v>11</v>
       </c>
       <c r="C578">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D578">
-        <v>809159</v>
+        <v>810659</v>
       </c>
       <c r="E578" t="s">
         <v>28</v>
@@ -19595,10 +19595,10 @@
         <v>11</v>
       </c>
       <c r="C579">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D579">
-        <v>151169</v>
+        <v>152669</v>
       </c>
       <c r="E579" t="s">
         <v>28</v>
@@ -19659,10 +19659,10 @@
         <v>11</v>
       </c>
       <c r="C581">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="D581">
-        <v>1020631</v>
+        <v>1025131</v>
       </c>
       <c r="E581" t="s">
         <v>28</v>
@@ -19691,10 +19691,10 @@
         <v>11</v>
       </c>
       <c r="C582">
-        <v>6632</v>
+        <v>6646</v>
       </c>
       <c r="D582">
-        <v>9705966</v>
+        <v>9725709</v>
       </c>
       <c r="E582" t="s">
         <v>28</v>
@@ -19723,10 +19723,10 @@
         <v>11</v>
       </c>
       <c r="C583">
-        <v>18678</v>
+        <v>18710</v>
       </c>
       <c r="D583">
-        <v>27602459</v>
+        <v>27648787</v>
       </c>
       <c r="E583" t="s">
         <v>28</v>
@@ -19755,10 +19755,10 @@
         <v>11</v>
       </c>
       <c r="C584">
-        <v>5923</v>
+        <v>5940</v>
       </c>
       <c r="D584">
-        <v>8852376</v>
+        <v>8877876</v>
       </c>
       <c r="E584" t="s">
         <v>28</v>
@@ -19787,10 +19787,10 @@
         <v>11</v>
       </c>
       <c r="C585">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="D585">
-        <v>2233828</v>
+        <v>2239828</v>
       </c>
       <c r="E585" t="s">
         <v>28</v>
@@ -19819,10 +19819,10 @@
         <v>11</v>
       </c>
       <c r="C586">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D586">
-        <v>476254</v>
+        <v>477754</v>
       </c>
       <c r="E586" t="s">
         <v>28</v>
@@ -19915,10 +19915,10 @@
         <v>11</v>
       </c>
       <c r="C589">
-        <v>6025</v>
+        <v>6035</v>
       </c>
       <c r="D589">
-        <v>8276039</v>
+        <v>8291039</v>
       </c>
       <c r="E589" t="s">
         <v>28</v>
@@ -19979,10 +19979,10 @@
         <v>11</v>
       </c>
       <c r="C591">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="D591">
-        <v>2638750</v>
+        <v>2643250</v>
       </c>
       <c r="E591" t="s">
         <v>28</v>
@@ -20139,10 +20139,10 @@
         <v>11</v>
       </c>
       <c r="C596">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="D596">
-        <v>1864982</v>
+        <v>1870982</v>
       </c>
       <c r="E596" t="s">
         <v>28</v>
@@ -20171,10 +20171,10 @@
         <v>11</v>
       </c>
       <c r="C597">
-        <v>5639</v>
+        <v>5648</v>
       </c>
       <c r="D597">
-        <v>8125906</v>
+        <v>8138170</v>
       </c>
       <c r="E597" t="s">
         <v>28</v>
@@ -20203,10 +20203,10 @@
         <v>11</v>
       </c>
       <c r="C598">
-        <v>11475</v>
+        <v>11494</v>
       </c>
       <c r="D598">
-        <v>16852443</v>
+        <v>16877819</v>
       </c>
       <c r="E598" t="s">
         <v>28</v>
@@ -20235,10 +20235,10 @@
         <v>11</v>
       </c>
       <c r="C599">
-        <v>3176</v>
+        <v>3184</v>
       </c>
       <c r="D599">
-        <v>4740347</v>
+        <v>4752347</v>
       </c>
       <c r="E599" t="s">
         <v>28</v>
@@ -20363,10 +20363,10 @@
         <v>11</v>
       </c>
       <c r="C603">
-        <v>3659</v>
+        <v>3668</v>
       </c>
       <c r="D603">
-        <v>5030331</v>
+        <v>5039107</v>
       </c>
       <c r="E603" t="s">
         <v>28</v>
@@ -20395,10 +20395,10 @@
         <v>11</v>
       </c>
       <c r="C604">
-        <v>2384</v>
+        <v>2390</v>
       </c>
       <c r="D604">
-        <v>3460974</v>
+        <v>3469974</v>
       </c>
       <c r="E604" t="s">
         <v>28</v>
@@ -20427,10 +20427,10 @@
         <v>11</v>
       </c>
       <c r="C605">
-        <v>6325</v>
+        <v>6333</v>
       </c>
       <c r="D605">
-        <v>9323951</v>
+        <v>9335569</v>
       </c>
       <c r="E605" t="s">
         <v>28</v>
@@ -20459,10 +20459,10 @@
         <v>11</v>
       </c>
       <c r="C606">
-        <v>1735</v>
+        <v>1740</v>
       </c>
       <c r="D606">
-        <v>2589762</v>
+        <v>2597262</v>
       </c>
       <c r="E606" t="s">
         <v>28</v>
@@ -20491,10 +20491,10 @@
         <v>11</v>
       </c>
       <c r="C607">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D607">
-        <v>569094</v>
+        <v>570594</v>
       </c>
       <c r="E607" t="s">
         <v>28</v>
@@ -20587,10 +20587,10 @@
         <v>11</v>
       </c>
       <c r="C610">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D610">
-        <v>2701873</v>
+        <v>2705038</v>
       </c>
       <c r="E610" t="s">
         <v>28</v>
@@ -20619,10 +20619,10 @@
         <v>11</v>
       </c>
       <c r="C611">
-        <v>2179</v>
+        <v>2187</v>
       </c>
       <c r="D611">
-        <v>3197131</v>
+        <v>3208355</v>
       </c>
       <c r="E611" t="s">
         <v>29</v>
@@ -20651,10 +20651,10 @@
         <v>11</v>
       </c>
       <c r="C612">
-        <v>6669</v>
+        <v>6690</v>
       </c>
       <c r="D612">
-        <v>9903239</v>
+        <v>9934514</v>
       </c>
       <c r="E612" t="s">
         <v>29</v>
@@ -20683,10 +20683,10 @@
         <v>11</v>
       </c>
       <c r="C613">
-        <v>2639</v>
+        <v>2649</v>
       </c>
       <c r="D613">
-        <v>3941435</v>
+        <v>3956435</v>
       </c>
       <c r="E613" t="s">
         <v>29</v>
@@ -20715,10 +20715,10 @@
         <v>11</v>
       </c>
       <c r="C614">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D614">
-        <v>1124310</v>
+        <v>1127310</v>
       </c>
       <c r="E614" t="s">
         <v>29</v>
@@ -20811,10 +20811,10 @@
         <v>11</v>
       </c>
       <c r="C617">
-        <v>2136</v>
+        <v>2141</v>
       </c>
       <c r="D617">
-        <v>2996288</v>
+        <v>3003234</v>
       </c>
       <c r="E617" t="s">
         <v>29</v>
@@ -20843,10 +20843,10 @@
         <v>11</v>
       </c>
       <c r="C618">
-        <v>3677</v>
+        <v>3686</v>
       </c>
       <c r="D618">
-        <v>5401223</v>
+        <v>5414723</v>
       </c>
       <c r="E618" t="s">
         <v>29</v>
@@ -20875,10 +20875,10 @@
         <v>11</v>
       </c>
       <c r="C619">
-        <v>9548</v>
+        <v>9572</v>
       </c>
       <c r="D619">
-        <v>14131633</v>
+        <v>14166880</v>
       </c>
       <c r="E619" t="s">
         <v>29</v>
@@ -20907,10 +20907,10 @@
         <v>11</v>
       </c>
       <c r="C620">
-        <v>4425</v>
+        <v>4434</v>
       </c>
       <c r="D620">
-        <v>6620533</v>
+        <v>6634033</v>
       </c>
       <c r="E620" t="s">
         <v>29</v>
@@ -20939,10 +20939,10 @@
         <v>11</v>
       </c>
       <c r="C621">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D621">
-        <v>1984054</v>
+        <v>1985554</v>
       </c>
       <c r="E621" t="s">
         <v>29</v>
@@ -20971,10 +20971,10 @@
         <v>11</v>
       </c>
       <c r="C622">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D622">
-        <v>391500</v>
+        <v>393000</v>
       </c>
       <c r="E622" t="s">
         <v>29</v>
@@ -21035,10 +21035,10 @@
         <v>11</v>
       </c>
       <c r="C624">
-        <v>3325</v>
+        <v>3335</v>
       </c>
       <c r="D624">
-        <v>4658493</v>
+        <v>4672514</v>
       </c>
       <c r="E624" t="s">
         <v>29</v>
@@ -21067,10 +21067,10 @@
         <v>11</v>
       </c>
       <c r="C625">
-        <v>10601</v>
+        <v>10630</v>
       </c>
       <c r="D625">
-        <v>15491768</v>
+        <v>15531743</v>
       </c>
       <c r="E625" t="s">
         <v>29</v>
@@ -21099,10 +21099,10 @@
         <v>11</v>
       </c>
       <c r="C626">
-        <v>30795</v>
+        <v>30865</v>
       </c>
       <c r="D626">
-        <v>45630171</v>
+        <v>45730622</v>
       </c>
       <c r="E626" t="s">
         <v>29</v>
@@ -21131,10 +21131,10 @@
         <v>11</v>
       </c>
       <c r="C627">
-        <v>14498</v>
+        <v>14537</v>
       </c>
       <c r="D627">
-        <v>21694064</v>
+        <v>21750202</v>
       </c>
       <c r="E627" t="s">
         <v>29</v>
@@ -21163,10 +21163,10 @@
         <v>11</v>
       </c>
       <c r="C628">
-        <v>5088</v>
+        <v>5097</v>
       </c>
       <c r="D628">
-        <v>7623538</v>
+        <v>7637038</v>
       </c>
       <c r="E628" t="s">
         <v>29</v>
@@ -21291,10 +21291,10 @@
         <v>11</v>
       </c>
       <c r="C632">
-        <v>10306</v>
+        <v>10352</v>
       </c>
       <c r="D632">
-        <v>14363923</v>
+        <v>14421789</v>
       </c>
       <c r="E632" t="s">
         <v>29</v>
@@ -21323,10 +21323,10 @@
         <v>11</v>
       </c>
       <c r="C633">
-        <v>2974</v>
+        <v>2981</v>
       </c>
       <c r="D633">
-        <v>4348402</v>
+        <v>4358403</v>
       </c>
       <c r="E633" t="s">
         <v>29</v>
@@ -21355,10 +21355,10 @@
         <v>11</v>
       </c>
       <c r="C634">
-        <v>11163</v>
+        <v>11203</v>
       </c>
       <c r="D634">
-        <v>16524149</v>
+        <v>16583477</v>
       </c>
       <c r="E634" t="s">
         <v>29</v>
@@ -21387,10 +21387,10 @@
         <v>11</v>
       </c>
       <c r="C635">
-        <v>5422</v>
+        <v>5448</v>
       </c>
       <c r="D635">
-        <v>8097357</v>
+        <v>8136357</v>
       </c>
       <c r="E635" t="s">
         <v>29</v>
@@ -21419,10 +21419,10 @@
         <v>11</v>
       </c>
       <c r="C636">
-        <v>1538</v>
+        <v>1547</v>
       </c>
       <c r="D636">
-        <v>2302592</v>
+        <v>2316092</v>
       </c>
       <c r="E636" t="s">
         <v>29</v>
@@ -21451,10 +21451,10 @@
         <v>11</v>
       </c>
       <c r="C637">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D637">
-        <v>507945</v>
+        <v>510945</v>
       </c>
       <c r="E637" t="s">
         <v>29</v>
@@ -21515,10 +21515,10 @@
         <v>11</v>
       </c>
       <c r="C639">
-        <v>3079</v>
+        <v>3086</v>
       </c>
       <c r="D639">
-        <v>4287999</v>
+        <v>4298044</v>
       </c>
       <c r="E639" t="s">
         <v>29</v>
@@ -21547,10 +21547,10 @@
         <v>11</v>
       </c>
       <c r="C640">
-        <v>2696</v>
+        <v>2704</v>
       </c>
       <c r="D640">
-        <v>3941089</v>
+        <v>3953089</v>
       </c>
       <c r="E640" t="s">
         <v>29</v>
@@ -21579,10 +21579,10 @@
         <v>11</v>
       </c>
       <c r="C641">
-        <v>8087</v>
+        <v>8113</v>
       </c>
       <c r="D641">
-        <v>11974821</v>
+        <v>12013067</v>
       </c>
       <c r="E641" t="s">
         <v>29</v>
@@ -21611,10 +21611,10 @@
         <v>11</v>
       </c>
       <c r="C642">
-        <v>3135</v>
+        <v>3148</v>
       </c>
       <c r="D642">
-        <v>4673274</v>
+        <v>4692086</v>
       </c>
       <c r="E642" t="s">
         <v>29</v>
@@ -21643,10 +21643,10 @@
         <v>11</v>
       </c>
       <c r="C643">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D643">
-        <v>1365000</v>
+        <v>1368000</v>
       </c>
       <c r="E643" t="s">
         <v>29</v>
@@ -21739,10 +21739,10 @@
         <v>11</v>
       </c>
       <c r="C646">
-        <v>2585</v>
+        <v>2602</v>
       </c>
       <c r="D646">
-        <v>3584254</v>
+        <v>3607835</v>
       </c>
       <c r="E646" t="s">
         <v>29</v>
@@ -21771,10 +21771,10 @@
         <v>11</v>
       </c>
       <c r="C647">
-        <v>2185</v>
+        <v>2195</v>
       </c>
       <c r="D647">
-        <v>3208159</v>
+        <v>3222340</v>
       </c>
       <c r="E647" t="s">
         <v>29</v>
@@ -21803,10 +21803,10 @@
         <v>11</v>
       </c>
       <c r="C648">
-        <v>7171</v>
+        <v>7199</v>
       </c>
       <c r="D648">
-        <v>10622282</v>
+        <v>10662150</v>
       </c>
       <c r="E648" t="s">
         <v>29</v>
@@ -21835,10 +21835,10 @@
         <v>11</v>
       </c>
       <c r="C649">
-        <v>3093</v>
+        <v>3095</v>
       </c>
       <c r="D649">
-        <v>4617581</v>
+        <v>4620581</v>
       </c>
       <c r="E649" t="s">
         <v>29</v>
@@ -21867,10 +21867,10 @@
         <v>11</v>
       </c>
       <c r="C650">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="D650">
-        <v>1290916</v>
+        <v>1299916</v>
       </c>
       <c r="E650" t="s">
         <v>29</v>
@@ -21963,10 +21963,10 @@
         <v>11</v>
       </c>
       <c r="C653">
-        <v>2276</v>
+        <v>2282</v>
       </c>
       <c r="D653">
-        <v>3156288</v>
+        <v>3165288</v>
       </c>
       <c r="E653" t="s">
         <v>29</v>
@@ -21995,10 +21995,10 @@
         <v>11</v>
       </c>
       <c r="C654">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="D654">
-        <v>4140402</v>
+        <v>4144902</v>
       </c>
       <c r="E654" t="s">
         <v>29</v>
@@ -22027,10 +22027,10 @@
         <v>11</v>
       </c>
       <c r="C655">
-        <v>8600</v>
+        <v>8625</v>
       </c>
       <c r="D655">
-        <v>12730440</v>
+        <v>12767940</v>
       </c>
       <c r="E655" t="s">
         <v>29</v>
@@ -22059,10 +22059,10 @@
         <v>11</v>
       </c>
       <c r="C656">
-        <v>3627</v>
+        <v>3639</v>
       </c>
       <c r="D656">
-        <v>5419038</v>
+        <v>5437023</v>
       </c>
       <c r="E656" t="s">
         <v>29</v>
@@ -22091,10 +22091,10 @@
         <v>11</v>
       </c>
       <c r="C657">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D657">
-        <v>1515606</v>
+        <v>1520106</v>
       </c>
       <c r="E657" t="s">
         <v>29</v>
@@ -22123,10 +22123,10 @@
         <v>11</v>
       </c>
       <c r="C658">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D658">
-        <v>316500</v>
+        <v>321000</v>
       </c>
       <c r="E658" t="s">
         <v>29</v>
@@ -22187,10 +22187,10 @@
         <v>11</v>
       </c>
       <c r="C660">
-        <v>2920</v>
+        <v>2929</v>
       </c>
       <c r="D660">
-        <v>4092412</v>
+        <v>4102234</v>
       </c>
       <c r="E660" t="s">
         <v>29</v>
@@ -22219,10 +22219,10 @@
         <v>11</v>
       </c>
       <c r="C661">
-        <v>2597</v>
+        <v>2603</v>
       </c>
       <c r="D661">
-        <v>3811487</v>
+        <v>3820487</v>
       </c>
       <c r="E661" t="s">
         <v>29</v>
@@ -22251,10 +22251,10 @@
         <v>11</v>
       </c>
       <c r="C662">
-        <v>7371</v>
+        <v>7391</v>
       </c>
       <c r="D662">
-        <v>10908888</v>
+        <v>10938888</v>
       </c>
       <c r="E662" t="s">
         <v>29</v>
@@ -22283,10 +22283,10 @@
         <v>11</v>
       </c>
       <c r="C663">
-        <v>2868</v>
+        <v>2874</v>
       </c>
       <c r="D663">
-        <v>4282690</v>
+        <v>4291690</v>
       </c>
       <c r="E663" t="s">
         <v>29</v>
@@ -22315,10 +22315,10 @@
         <v>11</v>
       </c>
       <c r="C664">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D664">
-        <v>1334946</v>
+        <v>1337946</v>
       </c>
       <c r="E664" t="s">
         <v>29</v>
@@ -22347,10 +22347,10 @@
         <v>11</v>
       </c>
       <c r="C665">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D665">
-        <v>243950</v>
+        <v>245450</v>
       </c>
       <c r="E665" t="s">
         <v>29</v>
@@ -22411,10 +22411,10 @@
         <v>11</v>
       </c>
       <c r="C667">
-        <v>2577</v>
+        <v>2583</v>
       </c>
       <c r="D667">
-        <v>3578048</v>
+        <v>3584608</v>
       </c>
       <c r="E667" t="s">
         <v>29</v>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -1131,10 +1131,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="D2">
-        <v>1221778</v>
+        <v>1229278</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1163,10 +1163,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>3787</v>
+        <v>3818</v>
       </c>
       <c r="D3">
-        <v>5611658</v>
+        <v>5657620</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1195,10 +1195,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1348</v>
+        <v>1357</v>
       </c>
       <c r="D4">
-        <v>2013479</v>
+        <v>2026979</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1227,10 +1227,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D5">
-        <v>501000</v>
+        <v>507000</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1291,10 +1291,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D7">
-        <v>164548</v>
+        <v>167646</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1323,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="D8">
-        <v>1089844</v>
+        <v>1098622</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1355,10 +1355,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2378</v>
+        <v>2414</v>
       </c>
       <c r="D9">
-        <v>3507603</v>
+        <v>3557242</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1387,10 +1387,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="D10">
-        <v>927720</v>
+        <v>946383</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1451,10 +1451,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>37500</v>
+        <v>39000</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1483,10 +1483,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1100</v>
+        <v>1109</v>
       </c>
       <c r="D13">
-        <v>1465203</v>
+        <v>1475671</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1515,10 +1515,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>1500</v>
+        <v>1510</v>
       </c>
       <c r="D14">
-        <v>2177783</v>
+        <v>2192783</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1547,10 +1547,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>2764</v>
+        <v>2784</v>
       </c>
       <c r="D15">
-        <v>4063057</v>
+        <v>4092225</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1579,10 +1579,10 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="D16">
-        <v>1114664</v>
+        <v>1131164</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1611,10 +1611,10 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D17">
-        <v>225976</v>
+        <v>228976</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1675,10 +1675,10 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="D19">
-        <v>1533113</v>
+        <v>1543347</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1707,10 +1707,10 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D20">
-        <v>596351</v>
+        <v>600696</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1739,10 +1739,10 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="D21">
-        <v>1833189</v>
+        <v>1843557</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1771,10 +1771,10 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D22">
-        <v>508702</v>
+        <v>520702</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1835,10 +1835,10 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -1867,10 +1867,10 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>880</v>
+        <v>906</v>
       </c>
       <c r="D25">
-        <v>1207971</v>
+        <v>1244659</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1899,10 +1899,10 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>1991</v>
+        <v>2014</v>
       </c>
       <c r="D26">
-        <v>2897385</v>
+        <v>2928264</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1931,10 +1931,10 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>4303</v>
+        <v>4337</v>
       </c>
       <c r="D27">
-        <v>6368896</v>
+        <v>6419450</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -1963,10 +1963,10 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>1313</v>
+        <v>1326</v>
       </c>
       <c r="D28">
-        <v>1952832</v>
+        <v>1972332</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -1995,10 +1995,10 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D29">
-        <v>454016</v>
+        <v>461516</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -2027,10 +2027,10 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30">
-        <v>91500</v>
+        <v>93000</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -2059,10 +2059,10 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>1589</v>
+        <v>1602</v>
       </c>
       <c r="D31">
-        <v>2084640</v>
+        <v>2099434</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2091,10 +2091,10 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="D32">
-        <v>1150917</v>
+        <v>1157777</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2123,10 +2123,10 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>1856</v>
+        <v>1872</v>
       </c>
       <c r="D33">
-        <v>2733808</v>
+        <v>2756840</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D34">
-        <v>756466</v>
+        <v>762466</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -2187,10 +2187,10 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35">
-        <v>175890</v>
+        <v>177390</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2283,10 +2283,10 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="D38">
-        <v>1161609</v>
+        <v>1173010</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2315,10 +2315,10 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>2505</v>
+        <v>2535</v>
       </c>
       <c r="D39">
-        <v>3675023</v>
+        <v>3715951</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2347,10 +2347,10 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>5840</v>
+        <v>5925</v>
       </c>
       <c r="D40">
-        <v>8664882</v>
+        <v>8787325</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2379,10 +2379,10 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>2293</v>
+        <v>2335</v>
       </c>
       <c r="D41">
-        <v>3417910</v>
+        <v>3479759</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -2411,10 +2411,10 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="D42">
-        <v>1048498</v>
+        <v>1073998</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -2443,10 +2443,10 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D43">
-        <v>266306</v>
+        <v>269306</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -2507,10 +2507,10 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>3204</v>
+        <v>3247</v>
       </c>
       <c r="D45">
-        <v>4471171</v>
+        <v>4525593</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2539,10 +2539,10 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>3820</v>
+        <v>3847</v>
       </c>
       <c r="D46">
-        <v>5578872</v>
+        <v>5618832</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -2571,10 +2571,10 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>9150</v>
+        <v>9241</v>
       </c>
       <c r="D47">
-        <v>13568603</v>
+        <v>13696695</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -2603,10 +2603,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>3090</v>
+        <v>3126</v>
       </c>
       <c r="D48">
-        <v>4616473</v>
+        <v>4669015</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2635,10 +2635,10 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="D49">
-        <v>1168370</v>
+        <v>1183703</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -2667,10 +2667,10 @@
         <v>11</v>
       </c>
       <c r="C50">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50">
-        <v>216000</v>
+        <v>217500</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -2763,10 +2763,10 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>3664</v>
+        <v>3690</v>
       </c>
       <c r="D53">
-        <v>5102281</v>
+        <v>5139856</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2795,10 +2795,10 @@
         <v>11</v>
       </c>
       <c r="C54">
-        <v>2066</v>
+        <v>2088</v>
       </c>
       <c r="D54">
-        <v>3013179</v>
+        <v>3044248</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -2827,10 +2827,10 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>5293</v>
+        <v>5349</v>
       </c>
       <c r="D55">
-        <v>7825875</v>
+        <v>7906736</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2859,10 +2859,10 @@
         <v>11</v>
       </c>
       <c r="C56">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="D56">
-        <v>2455649</v>
+        <v>2485649</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -2891,10 +2891,10 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D57">
-        <v>566393</v>
+        <v>577439</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -2923,10 +2923,10 @@
         <v>11</v>
       </c>
       <c r="C58">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D58">
-        <v>102000</v>
+        <v>106500</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -2955,10 +2955,10 @@
         <v>11</v>
       </c>
       <c r="C59">
-        <v>2215</v>
+        <v>2236</v>
       </c>
       <c r="D59">
-        <v>2938706</v>
+        <v>2962751</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -2987,10 +2987,10 @@
         <v>11</v>
       </c>
       <c r="C60">
-        <v>1671</v>
+        <v>1686</v>
       </c>
       <c r="D60">
-        <v>2426197</v>
+        <v>2447050</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -3019,10 +3019,10 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>4595</v>
+        <v>4630</v>
       </c>
       <c r="D61">
-        <v>6785777</v>
+        <v>6834686</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3051,10 +3051,10 @@
         <v>11</v>
       </c>
       <c r="C62">
-        <v>1531</v>
+        <v>1555</v>
       </c>
       <c r="D62">
-        <v>2279359</v>
+        <v>2314023</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3083,10 +3083,10 @@
         <v>11</v>
       </c>
       <c r="C63">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D63">
-        <v>611560</v>
+        <v>616060</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -3115,10 +3115,10 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D64">
-        <v>95486</v>
+        <v>98486</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3179,10 +3179,10 @@
         <v>11</v>
       </c>
       <c r="C66">
-        <v>1886</v>
+        <v>1902</v>
       </c>
       <c r="D66">
-        <v>2544317</v>
+        <v>2565900</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3211,10 +3211,10 @@
         <v>11</v>
       </c>
       <c r="C67">
-        <v>5778</v>
+        <v>5830</v>
       </c>
       <c r="D67">
-        <v>8455256</v>
+        <v>8530826</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3243,10 +3243,10 @@
         <v>11</v>
       </c>
       <c r="C68">
-        <v>14696</v>
+        <v>14816</v>
       </c>
       <c r="D68">
-        <v>21762719</v>
+        <v>21936171</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -3275,10 +3275,10 @@
         <v>11</v>
       </c>
       <c r="C69">
-        <v>5138</v>
+        <v>5177</v>
       </c>
       <c r="D69">
-        <v>7673155</v>
+        <v>7727521</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3307,10 +3307,10 @@
         <v>11</v>
       </c>
       <c r="C70">
-        <v>1307</v>
+        <v>1317</v>
       </c>
       <c r="D70">
-        <v>1952631</v>
+        <v>1967631</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3339,10 +3339,10 @@
         <v>11</v>
       </c>
       <c r="C71">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D71">
-        <v>363000</v>
+        <v>367500</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
@@ -3435,10 +3435,10 @@
         <v>11</v>
       </c>
       <c r="C74">
-        <v>4674</v>
+        <v>4712</v>
       </c>
       <c r="D74">
-        <v>6563415</v>
+        <v>6614423</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -3467,10 +3467,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>1756</v>
+        <v>1772</v>
       </c>
       <c r="D75">
-        <v>2568982</v>
+        <v>2592172</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3499,10 +3499,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>4314</v>
+        <v>4363</v>
       </c>
       <c r="D76">
-        <v>6397748</v>
+        <v>6467872</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -3531,10 +3531,10 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>1861</v>
+        <v>1881</v>
       </c>
       <c r="D77">
-        <v>2776900</v>
+        <v>2806900</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3563,10 +3563,10 @@
         <v>11</v>
       </c>
       <c r="C78">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="D78">
-        <v>1002593</v>
+        <v>1009491</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -3595,10 +3595,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D79">
-        <v>279405</v>
+        <v>283905</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3627,10 +3627,10 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -3659,10 +3659,10 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>4296</v>
+        <v>4327</v>
       </c>
       <c r="D81">
-        <v>6127124</v>
+        <v>6169902</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -3691,10 +3691,10 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>1233</v>
+        <v>1242</v>
       </c>
       <c r="D82">
-        <v>1808431</v>
+        <v>1821931</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
@@ -3723,10 +3723,10 @@
         <v>11</v>
       </c>
       <c r="C83">
-        <v>3332</v>
+        <v>3363</v>
       </c>
       <c r="D83">
-        <v>4924939</v>
+        <v>4970719</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
@@ -3755,10 +3755,10 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>1155</v>
+        <v>1170</v>
       </c>
       <c r="D84">
-        <v>1726198</v>
+        <v>1747887</v>
       </c>
       <c r="E84" t="s">
         <v>13</v>
@@ -3787,10 +3787,10 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D85">
-        <v>427500</v>
+        <v>438568</v>
       </c>
       <c r="E85" t="s">
         <v>13</v>
@@ -3883,10 +3883,10 @@
         <v>11</v>
       </c>
       <c r="C88">
-        <v>1263</v>
+        <v>1276</v>
       </c>
       <c r="D88">
-        <v>1694758</v>
+        <v>1711712</v>
       </c>
       <c r="E88" t="s">
         <v>13</v>
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="C89">
-        <v>1118</v>
+        <v>1127</v>
       </c>
       <c r="D89">
-        <v>1637256</v>
+        <v>1647642</v>
       </c>
       <c r="E89" t="s">
         <v>13</v>
@@ -3947,10 +3947,10 @@
         <v>11</v>
       </c>
       <c r="C90">
-        <v>3120</v>
+        <v>3145</v>
       </c>
       <c r="D90">
-        <v>4623376</v>
+        <v>4659075</v>
       </c>
       <c r="E90" t="s">
         <v>13</v>
@@ -3979,10 +3979,10 @@
         <v>11</v>
       </c>
       <c r="C91">
-        <v>1040</v>
+        <v>1053</v>
       </c>
       <c r="D91">
-        <v>1553822</v>
+        <v>1571491</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -4011,10 +4011,10 @@
         <v>11</v>
       </c>
       <c r="C92">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D92">
-        <v>398919</v>
+        <v>401919</v>
       </c>
       <c r="E92" t="s">
         <v>13</v>
@@ -4043,10 +4043,10 @@
         <v>11</v>
       </c>
       <c r="C93">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D93">
-        <v>79500</v>
+        <v>82500</v>
       </c>
       <c r="E93" t="s">
         <v>13</v>
@@ -4107,10 +4107,10 @@
         <v>11</v>
       </c>
       <c r="C95">
-        <v>992</v>
+        <v>1006</v>
       </c>
       <c r="D95">
-        <v>1367333</v>
+        <v>1385913</v>
       </c>
       <c r="E95" t="s">
         <v>13</v>
@@ -4139,10 +4139,10 @@
         <v>11</v>
       </c>
       <c r="C96">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D96">
-        <v>671194</v>
+        <v>673572</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
@@ -4171,10 +4171,10 @@
         <v>11</v>
       </c>
       <c r="C97">
-        <v>1214</v>
+        <v>1225</v>
       </c>
       <c r="D97">
-        <v>1797038</v>
+        <v>1812184</v>
       </c>
       <c r="E97" t="s">
         <v>13</v>
@@ -4203,10 +4203,10 @@
         <v>11</v>
       </c>
       <c r="C98">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D98">
-        <v>541774</v>
+        <v>552274</v>
       </c>
       <c r="E98" t="s">
         <v>13</v>
@@ -4235,10 +4235,10 @@
         <v>11</v>
       </c>
       <c r="C99">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D99">
-        <v>144000</v>
+        <v>147000</v>
       </c>
       <c r="E99" t="s">
         <v>13</v>
@@ -4299,10 +4299,10 @@
         <v>11</v>
       </c>
       <c r="C101">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D101">
-        <v>716487</v>
+        <v>721469</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -4331,10 +4331,10 @@
         <v>11</v>
       </c>
       <c r="C102">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="D102">
-        <v>1068824</v>
+        <v>1074824</v>
       </c>
       <c r="E102" t="s">
         <v>13</v>
@@ -4363,10 +4363,10 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>1827</v>
+        <v>1852</v>
       </c>
       <c r="D103">
-        <v>2702452</v>
+        <v>2738862</v>
       </c>
       <c r="E103" t="s">
         <v>13</v>
@@ -4395,10 +4395,10 @@
         <v>11</v>
       </c>
       <c r="C104">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="D104">
-        <v>779019</v>
+        <v>788601</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
@@ -4427,10 +4427,10 @@
         <v>11</v>
       </c>
       <c r="C105">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D105">
-        <v>190884</v>
+        <v>193884</v>
       </c>
       <c r="E105" t="s">
         <v>13</v>
@@ -4491,10 +4491,10 @@
         <v>11</v>
       </c>
       <c r="C107">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="D107">
-        <v>801981</v>
+        <v>813621</v>
       </c>
       <c r="E107" t="s">
         <v>13</v>
@@ -4523,10 +4523,10 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D108">
-        <v>665466</v>
+        <v>669966</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -4555,10 +4555,10 @@
         <v>11</v>
       </c>
       <c r="C109">
-        <v>1329</v>
+        <v>1335</v>
       </c>
       <c r="D109">
-        <v>1948443</v>
+        <v>1956996</v>
       </c>
       <c r="E109" t="s">
         <v>13</v>
@@ -4587,10 +4587,10 @@
         <v>11</v>
       </c>
       <c r="C110">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="D110">
-        <v>601360</v>
+        <v>614860</v>
       </c>
       <c r="E110" t="s">
         <v>13</v>
@@ -4619,10 +4619,10 @@
         <v>11</v>
       </c>
       <c r="C111">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D111">
-        <v>118500</v>
+        <v>120000</v>
       </c>
       <c r="E111" t="s">
         <v>13</v>
@@ -4683,10 +4683,10 @@
         <v>11</v>
       </c>
       <c r="C113">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D113">
-        <v>744270</v>
+        <v>754965</v>
       </c>
       <c r="E113" t="s">
         <v>13</v>
@@ -4715,10 +4715,10 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="D114">
-        <v>1852309</v>
+        <v>1861129</v>
       </c>
       <c r="E114" t="s">
         <v>13</v>
@@ -4747,10 +4747,10 @@
         <v>11</v>
       </c>
       <c r="C115">
-        <v>3912</v>
+        <v>3950</v>
       </c>
       <c r="D115">
-        <v>5781142</v>
+        <v>5831491</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -4779,10 +4779,10 @@
         <v>11</v>
       </c>
       <c r="C116">
-        <v>1133</v>
+        <v>1146</v>
       </c>
       <c r="D116">
-        <v>1695096</v>
+        <v>1713664</v>
       </c>
       <c r="E116" t="s">
         <v>13</v>
@@ -4811,10 +4811,10 @@
         <v>11</v>
       </c>
       <c r="C117">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D117">
-        <v>357292</v>
+        <v>360748</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
@@ -4843,10 +4843,10 @@
         <v>11</v>
       </c>
       <c r="C118">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D118">
-        <v>49500</v>
+        <v>51000</v>
       </c>
       <c r="E118" t="s">
         <v>13</v>
@@ -4875,10 +4875,10 @@
         <v>11</v>
       </c>
       <c r="C119">
-        <v>1517</v>
+        <v>1531</v>
       </c>
       <c r="D119">
-        <v>2084193</v>
+        <v>2101871</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
@@ -4939,10 +4939,10 @@
         <v>11</v>
       </c>
       <c r="C121">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D121">
-        <v>1137361</v>
+        <v>1143011</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -4971,10 +4971,10 @@
         <v>11</v>
       </c>
       <c r="C122">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D122">
-        <v>401075</v>
+        <v>402575</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -5003,10 +5003,10 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D123">
-        <v>87000</v>
+        <v>88500</v>
       </c>
       <c r="E123" t="s">
         <v>13</v>
@@ -5067,10 +5067,10 @@
         <v>11</v>
       </c>
       <c r="C125">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D125">
-        <v>318348</v>
+        <v>319473</v>
       </c>
       <c r="E125" t="s">
         <v>13</v>
@@ -5099,10 +5099,10 @@
         <v>11</v>
       </c>
       <c r="C126">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="D126">
-        <v>1060169</v>
+        <v>1067669</v>
       </c>
       <c r="E126" t="s">
         <v>13</v>
@@ -5131,10 +5131,10 @@
         <v>11</v>
       </c>
       <c r="C127">
-        <v>2176</v>
+        <v>2197</v>
       </c>
       <c r="D127">
-        <v>3223132</v>
+        <v>3253184</v>
       </c>
       <c r="E127" t="s">
         <v>13</v>
@@ -5163,10 +5163,10 @@
         <v>11</v>
       </c>
       <c r="C128">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D128">
-        <v>926819</v>
+        <v>935819</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
@@ -5195,10 +5195,10 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D129">
-        <v>228000</v>
+        <v>231000</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -5259,10 +5259,10 @@
         <v>11</v>
       </c>
       <c r="C131">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="D131">
-        <v>964244</v>
+        <v>973344</v>
       </c>
       <c r="E131" t="s">
         <v>13</v>
@@ -5291,10 +5291,10 @@
         <v>11</v>
       </c>
       <c r="C132">
-        <v>1714</v>
+        <v>1728</v>
       </c>
       <c r="D132">
-        <v>2497650</v>
+        <v>2514726</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -5323,10 +5323,10 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>4125</v>
+        <v>4153</v>
       </c>
       <c r="D133">
-        <v>6081737</v>
+        <v>6120572</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
@@ -5355,10 +5355,10 @@
         <v>11</v>
       </c>
       <c r="C134">
-        <v>1111</v>
+        <v>1124</v>
       </c>
       <c r="D134">
-        <v>1658651</v>
+        <v>1677433</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -5387,10 +5387,10 @@
         <v>11</v>
       </c>
       <c r="C135">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D135">
-        <v>383761</v>
+        <v>385261</v>
       </c>
       <c r="E135" t="s">
         <v>14</v>
@@ -5483,10 +5483,10 @@
         <v>11</v>
       </c>
       <c r="C138">
-        <v>1496</v>
+        <v>1510</v>
       </c>
       <c r="D138">
-        <v>2010347</v>
+        <v>2030240</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -5515,10 +5515,10 @@
         <v>11</v>
       </c>
       <c r="C139">
-        <v>2368</v>
+        <v>2384</v>
       </c>
       <c r="D139">
-        <v>3458470</v>
+        <v>3480324</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -5547,10 +5547,10 @@
         <v>11</v>
       </c>
       <c r="C140">
-        <v>5603</v>
+        <v>5654</v>
       </c>
       <c r="D140">
-        <v>8288716</v>
+        <v>8362201</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
@@ -5579,10 +5579,10 @@
         <v>11</v>
       </c>
       <c r="C141">
-        <v>1947</v>
+        <v>1965</v>
       </c>
       <c r="D141">
-        <v>2909553</v>
+        <v>2935347</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
@@ -5611,10 +5611,10 @@
         <v>11</v>
       </c>
       <c r="C142">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D142">
-        <v>655511</v>
+        <v>660011</v>
       </c>
       <c r="E142" t="s">
         <v>14</v>
@@ -5643,10 +5643,10 @@
         <v>11</v>
       </c>
       <c r="C143">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D143">
-        <v>110624</v>
+        <v>115124</v>
       </c>
       <c r="E143" t="s">
         <v>14</v>
@@ -5707,10 +5707,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>2071</v>
+        <v>2081</v>
       </c>
       <c r="D145">
-        <v>2818793</v>
+        <v>2830847</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -5739,10 +5739,10 @@
         <v>11</v>
       </c>
       <c r="C146">
-        <v>2210</v>
+        <v>2223</v>
       </c>
       <c r="D146">
-        <v>3227468</v>
+        <v>3244567</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
@@ -5771,10 +5771,10 @@
         <v>11</v>
       </c>
       <c r="C147">
-        <v>6456</v>
+        <v>6511</v>
       </c>
       <c r="D147">
-        <v>9587041</v>
+        <v>9664392</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -5803,10 +5803,10 @@
         <v>11</v>
       </c>
       <c r="C148">
-        <v>2125</v>
+        <v>2141</v>
       </c>
       <c r="D148">
-        <v>3174556</v>
+        <v>3197599</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -5835,10 +5835,10 @@
         <v>11</v>
       </c>
       <c r="C149">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="D149">
-        <v>834664</v>
+        <v>848164</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
@@ -5867,10 +5867,10 @@
         <v>11</v>
       </c>
       <c r="C150">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D150">
-        <v>147000</v>
+        <v>148500</v>
       </c>
       <c r="E150" t="s">
         <v>14</v>
@@ -5931,10 +5931,10 @@
         <v>11</v>
       </c>
       <c r="C152">
-        <v>2001</v>
+        <v>2026</v>
       </c>
       <c r="D152">
-        <v>2762228</v>
+        <v>2796805</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
@@ -5963,10 +5963,10 @@
         <v>11</v>
       </c>
       <c r="C153">
-        <v>2418</v>
+        <v>2431</v>
       </c>
       <c r="D153">
-        <v>3511863</v>
+        <v>3526713</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
@@ -5995,10 +5995,10 @@
         <v>11</v>
       </c>
       <c r="C154">
-        <v>5437</v>
+        <v>5478</v>
       </c>
       <c r="D154">
-        <v>8039714</v>
+        <v>8093350</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -6027,10 +6027,10 @@
         <v>11</v>
       </c>
       <c r="C155">
-        <v>1691</v>
+        <v>1713</v>
       </c>
       <c r="D155">
-        <v>2526647</v>
+        <v>2559082</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
@@ -6059,10 +6059,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="D156">
-        <v>595866</v>
+        <v>615232</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
@@ -6155,10 +6155,10 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>1904</v>
+        <v>1920</v>
       </c>
       <c r="D159">
-        <v>2619885</v>
+        <v>2639587</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
@@ -6187,10 +6187,10 @@
         <v>11</v>
       </c>
       <c r="C160">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="D160">
-        <v>786281</v>
+        <v>796781</v>
       </c>
       <c r="E160" t="s">
         <v>15</v>
@@ -6219,10 +6219,10 @@
         <v>11</v>
       </c>
       <c r="C161">
-        <v>1682</v>
+        <v>1698</v>
       </c>
       <c r="D161">
-        <v>2479214</v>
+        <v>2503194</v>
       </c>
       <c r="E161" t="s">
         <v>15</v>
@@ -6251,10 +6251,10 @@
         <v>11</v>
       </c>
       <c r="C162">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="D162">
-        <v>815254</v>
+        <v>824254</v>
       </c>
       <c r="E162" t="s">
         <v>15</v>
@@ -6283,10 +6283,10 @@
         <v>11</v>
       </c>
       <c r="C163">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D163">
-        <v>231000</v>
+        <v>232500</v>
       </c>
       <c r="E163" t="s">
         <v>15</v>
@@ -6347,10 +6347,10 @@
         <v>11</v>
       </c>
       <c r="C165">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="D165">
-        <v>1022189</v>
+        <v>1035624</v>
       </c>
       <c r="E165" t="s">
         <v>15</v>
@@ -6379,10 +6379,10 @@
         <v>11</v>
       </c>
       <c r="C166">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="D166">
-        <v>1129826</v>
+        <v>1134326</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
@@ -6411,10 +6411,10 @@
         <v>11</v>
       </c>
       <c r="C167">
-        <v>2437</v>
+        <v>2453</v>
       </c>
       <c r="D167">
-        <v>3613759</v>
+        <v>3637717</v>
       </c>
       <c r="E167" t="s">
         <v>15</v>
@@ -6443,10 +6443,10 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="D168">
-        <v>1221781</v>
+        <v>1239781</v>
       </c>
       <c r="E168" t="s">
         <v>15</v>
@@ -6475,10 +6475,10 @@
         <v>11</v>
       </c>
       <c r="C169">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D169">
-        <v>294000</v>
+        <v>297000</v>
       </c>
       <c r="E169" t="s">
         <v>15</v>
@@ -6539,10 +6539,10 @@
         <v>11</v>
       </c>
       <c r="C171">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="D171">
-        <v>986451</v>
+        <v>996951</v>
       </c>
       <c r="E171" t="s">
         <v>15</v>
@@ -6603,10 +6603,10 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <v>1312</v>
+        <v>1319</v>
       </c>
       <c r="D173">
-        <v>1932764</v>
+        <v>1943264</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
@@ -6635,10 +6635,10 @@
         <v>11</v>
       </c>
       <c r="C174">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D174">
-        <v>686181</v>
+        <v>687681</v>
       </c>
       <c r="E174" t="s">
         <v>15</v>
@@ -6667,10 +6667,10 @@
         <v>11</v>
       </c>
       <c r="C175">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D175">
-        <v>156000</v>
+        <v>159000</v>
       </c>
       <c r="E175" t="s">
         <v>15</v>
@@ -6731,10 +6731,10 @@
         <v>11</v>
       </c>
       <c r="C177">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="D177">
-        <v>677917</v>
+        <v>687429</v>
       </c>
       <c r="E177" t="s">
         <v>15</v>
@@ -6763,10 +6763,10 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>1386</v>
+        <v>1396</v>
       </c>
       <c r="D178">
-        <v>2014948</v>
+        <v>2026567</v>
       </c>
       <c r="E178" t="s">
         <v>15</v>
@@ -6795,10 +6795,10 @@
         <v>11</v>
       </c>
       <c r="C179">
-        <v>3829</v>
+        <v>3863</v>
       </c>
       <c r="D179">
-        <v>5657756</v>
+        <v>5706268</v>
       </c>
       <c r="E179" t="s">
         <v>15</v>
@@ -6827,10 +6827,10 @@
         <v>11</v>
       </c>
       <c r="C180">
-        <v>1280</v>
+        <v>1288</v>
       </c>
       <c r="D180">
-        <v>1913380</v>
+        <v>1923917</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -6859,10 +6859,10 @@
         <v>11</v>
       </c>
       <c r="C181">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D181">
-        <v>504000</v>
+        <v>510000</v>
       </c>
       <c r="E181" t="s">
         <v>15</v>
@@ -6891,10 +6891,10 @@
         <v>11</v>
       </c>
       <c r="C182">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D182">
-        <v>79500</v>
+        <v>81000</v>
       </c>
       <c r="E182" t="s">
         <v>15</v>
@@ -6955,10 +6955,10 @@
         <v>11</v>
       </c>
       <c r="C184">
-        <v>1334</v>
+        <v>1346</v>
       </c>
       <c r="D184">
-        <v>1809088</v>
+        <v>1825871</v>
       </c>
       <c r="E184" t="s">
         <v>15</v>
@@ -6987,10 +6987,10 @@
         <v>11</v>
       </c>
       <c r="C185">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D185">
-        <v>938471</v>
+        <v>947214</v>
       </c>
       <c r="E185" t="s">
         <v>15</v>
@@ -7019,10 +7019,10 @@
         <v>11</v>
       </c>
       <c r="C186">
-        <v>2144</v>
+        <v>2164</v>
       </c>
       <c r="D186">
-        <v>3173822</v>
+        <v>3202172</v>
       </c>
       <c r="E186" t="s">
         <v>15</v>
@@ -7051,10 +7051,10 @@
         <v>11</v>
       </c>
       <c r="C187">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="D187">
-        <v>1077015</v>
+        <v>1086015</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
@@ -7083,10 +7083,10 @@
         <v>11</v>
       </c>
       <c r="C188">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D188">
-        <v>216991</v>
+        <v>218491</v>
       </c>
       <c r="E188" t="s">
         <v>15</v>
@@ -7147,10 +7147,10 @@
         <v>11</v>
       </c>
       <c r="C190">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="D190">
-        <v>1006921</v>
+        <v>1017368</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
@@ -7179,10 +7179,10 @@
         <v>11</v>
       </c>
       <c r="C191">
-        <v>1238</v>
+        <v>1244</v>
       </c>
       <c r="D191">
-        <v>1812963</v>
+        <v>1821631</v>
       </c>
       <c r="E191" t="s">
         <v>15</v>
@@ -7211,10 +7211,10 @@
         <v>11</v>
       </c>
       <c r="C192">
-        <v>3833</v>
+        <v>3863</v>
       </c>
       <c r="D192">
-        <v>5681204</v>
+        <v>5722591</v>
       </c>
       <c r="E192" t="s">
         <v>15</v>
@@ -7243,10 +7243,10 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <v>1367</v>
+        <v>1382</v>
       </c>
       <c r="D193">
-        <v>2045821</v>
+        <v>2068321</v>
       </c>
       <c r="E193" t="s">
         <v>15</v>
@@ -7275,10 +7275,10 @@
         <v>11</v>
       </c>
       <c r="C194">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D194">
-        <v>472500</v>
+        <v>477846</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
@@ -7371,10 +7371,10 @@
         <v>11</v>
       </c>
       <c r="C197">
-        <v>1189</v>
+        <v>1203</v>
       </c>
       <c r="D197">
-        <v>1593637</v>
+        <v>1610874</v>
       </c>
       <c r="E197" t="s">
         <v>15</v>
@@ -7403,10 +7403,10 @@
         <v>11</v>
       </c>
       <c r="C198">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D198">
-        <v>755385</v>
+        <v>758385</v>
       </c>
       <c r="E198" t="s">
         <v>16</v>
@@ -7435,10 +7435,10 @@
         <v>11</v>
       </c>
       <c r="C199">
-        <v>2091</v>
+        <v>2108</v>
       </c>
       <c r="D199">
-        <v>3074519</v>
+        <v>3099889</v>
       </c>
       <c r="E199" t="s">
         <v>16</v>
@@ -7467,10 +7467,10 @@
         <v>11</v>
       </c>
       <c r="C200">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="D200">
-        <v>1636310</v>
+        <v>1646810</v>
       </c>
       <c r="E200" t="s">
         <v>16</v>
@@ -7499,10 +7499,10 @@
         <v>11</v>
       </c>
       <c r="C201">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D201">
-        <v>440211</v>
+        <v>449211</v>
       </c>
       <c r="E201" t="s">
         <v>16</v>
@@ -7563,10 +7563,10 @@
         <v>11</v>
       </c>
       <c r="C203">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D203">
-        <v>312865</v>
+        <v>315865</v>
       </c>
       <c r="E203" t="s">
         <v>16</v>
@@ -7595,10 +7595,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>1218</v>
+        <v>1228</v>
       </c>
       <c r="D204">
-        <v>1758418</v>
+        <v>1772534</v>
       </c>
       <c r="E204" t="s">
         <v>16</v>
@@ -7627,10 +7627,10 @@
         <v>11</v>
       </c>
       <c r="C205">
-        <v>2509</v>
+        <v>2534</v>
       </c>
       <c r="D205">
-        <v>3681235</v>
+        <v>3715702</v>
       </c>
       <c r="E205" t="s">
         <v>16</v>
@@ -7659,10 +7659,10 @@
         <v>11</v>
       </c>
       <c r="C206">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="D206">
-        <v>1150541</v>
+        <v>1161041</v>
       </c>
       <c r="E206" t="s">
         <v>16</v>
@@ -7691,10 +7691,10 @@
         <v>11</v>
       </c>
       <c r="C207">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D207">
-        <v>286830</v>
+        <v>289830</v>
       </c>
       <c r="E207" t="s">
         <v>16</v>
@@ -7755,10 +7755,10 @@
         <v>11</v>
       </c>
       <c r="C209">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="D209">
-        <v>1295083</v>
+        <v>1312007</v>
       </c>
       <c r="E209" t="s">
         <v>16</v>
@@ -7787,10 +7787,10 @@
         <v>11</v>
       </c>
       <c r="C210">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D210">
-        <v>692755</v>
+        <v>697255</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
@@ -7819,10 +7819,10 @@
         <v>11</v>
       </c>
       <c r="C211">
-        <v>1493</v>
+        <v>1511</v>
       </c>
       <c r="D211">
-        <v>2198129</v>
+        <v>2222588</v>
       </c>
       <c r="E211" t="s">
         <v>17</v>
@@ -7851,10 +7851,10 @@
         <v>11</v>
       </c>
       <c r="C212">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D212">
-        <v>701668</v>
+        <v>704701</v>
       </c>
       <c r="E212" t="s">
         <v>17</v>
@@ -7883,10 +7883,10 @@
         <v>11</v>
       </c>
       <c r="C213">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D213">
-        <v>210000</v>
+        <v>213000</v>
       </c>
       <c r="E213" t="s">
         <v>17</v>
@@ -7947,10 +7947,10 @@
         <v>11</v>
       </c>
       <c r="C215">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="D215">
-        <v>802438</v>
+        <v>808318</v>
       </c>
       <c r="E215" t="s">
         <v>17</v>
@@ -7979,10 +7979,10 @@
         <v>11</v>
       </c>
       <c r="C216">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="D216">
-        <v>895719</v>
+        <v>902521</v>
       </c>
       <c r="E216" t="s">
         <v>17</v>
@@ -8011,10 +8011,10 @@
         <v>11</v>
       </c>
       <c r="C217">
-        <v>1769</v>
+        <v>1785</v>
       </c>
       <c r="D217">
-        <v>2603532</v>
+        <v>2625452</v>
       </c>
       <c r="E217" t="s">
         <v>17</v>
@@ -8043,10 +8043,10 @@
         <v>11</v>
       </c>
       <c r="C218">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D218">
-        <v>853759</v>
+        <v>858259</v>
       </c>
       <c r="E218" t="s">
         <v>17</v>
@@ -8075,10 +8075,10 @@
         <v>11</v>
       </c>
       <c r="C219">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D219">
-        <v>208500</v>
+        <v>210000</v>
       </c>
       <c r="E219" t="s">
         <v>17</v>
@@ -8139,10 +8139,10 @@
         <v>11</v>
       </c>
       <c r="C221">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="D221">
-        <v>827108</v>
+        <v>836832</v>
       </c>
       <c r="E221" t="s">
         <v>17</v>
@@ -8171,10 +8171,10 @@
         <v>11</v>
       </c>
       <c r="C222">
-        <v>2446</v>
+        <v>2467</v>
       </c>
       <c r="D222">
-        <v>3572669</v>
+        <v>3602152</v>
       </c>
       <c r="E222" t="s">
         <v>17</v>
@@ -8203,10 +8203,10 @@
         <v>11</v>
       </c>
       <c r="C223">
-        <v>8227</v>
+        <v>8316</v>
       </c>
       <c r="D223">
-        <v>12177053</v>
+        <v>12304949</v>
       </c>
       <c r="E223" t="s">
         <v>17</v>
@@ -8235,10 +8235,10 @@
         <v>11</v>
       </c>
       <c r="C224">
-        <v>3176</v>
+        <v>3206</v>
       </c>
       <c r="D224">
-        <v>4749467</v>
+        <v>4792373</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -8267,10 +8267,10 @@
         <v>11</v>
       </c>
       <c r="C225">
-        <v>890</v>
+        <v>906</v>
       </c>
       <c r="D225">
-        <v>1330862</v>
+        <v>1354044</v>
       </c>
       <c r="E225" t="s">
         <v>17</v>
@@ -8299,10 +8299,10 @@
         <v>11</v>
       </c>
       <c r="C226">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D226">
-        <v>256378</v>
+        <v>262378</v>
       </c>
       <c r="E226" t="s">
         <v>17</v>
@@ -8363,10 +8363,10 @@
         <v>11</v>
       </c>
       <c r="C228">
-        <v>2096</v>
+        <v>2117</v>
       </c>
       <c r="D228">
-        <v>2901210</v>
+        <v>2929889</v>
       </c>
       <c r="E228" t="s">
         <v>17</v>
@@ -8395,10 +8395,10 @@
         <v>11</v>
       </c>
       <c r="C229">
-        <v>1731</v>
+        <v>1740</v>
       </c>
       <c r="D229">
-        <v>2524019</v>
+        <v>2537372</v>
       </c>
       <c r="E229" t="s">
         <v>17</v>
@@ -8427,10 +8427,10 @@
         <v>11</v>
       </c>
       <c r="C230">
-        <v>5245</v>
+        <v>5315</v>
       </c>
       <c r="D230">
-        <v>7752084</v>
+        <v>7850887</v>
       </c>
       <c r="E230" t="s">
         <v>17</v>
@@ -8459,10 +8459,10 @@
         <v>11</v>
       </c>
       <c r="C231">
-        <v>2132</v>
+        <v>2157</v>
       </c>
       <c r="D231">
-        <v>3180438</v>
+        <v>3215651</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
@@ -8491,10 +8491,10 @@
         <v>11</v>
       </c>
       <c r="C232">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D232">
-        <v>809795</v>
+        <v>818795</v>
       </c>
       <c r="E232" t="s">
         <v>17</v>
@@ -8587,10 +8587,10 @@
         <v>11</v>
       </c>
       <c r="C235">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="D235">
-        <v>1753069</v>
+        <v>1769342</v>
       </c>
       <c r="E235" t="s">
         <v>17</v>
@@ -8619,10 +8619,10 @@
         <v>11</v>
       </c>
       <c r="C236">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D236">
-        <v>491219</v>
+        <v>494219</v>
       </c>
       <c r="E236" t="s">
         <v>17</v>
@@ -8651,10 +8651,10 @@
         <v>11</v>
       </c>
       <c r="C237">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="D237">
-        <v>1406379</v>
+        <v>1420177</v>
       </c>
       <c r="E237" t="s">
         <v>17</v>
@@ -8683,10 +8683,10 @@
         <v>11</v>
       </c>
       <c r="C238">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D238">
-        <v>437812</v>
+        <v>446812</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
@@ -8715,10 +8715,10 @@
         <v>11</v>
       </c>
       <c r="C239">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D239">
-        <v>138000</v>
+        <v>142500</v>
       </c>
       <c r="E239" t="s">
         <v>17</v>
@@ -8747,10 +8747,10 @@
         <v>11</v>
       </c>
       <c r="C240">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D240">
-        <v>27000</v>
+        <v>27017</v>
       </c>
       <c r="E240" t="s">
         <v>17</v>
@@ -8779,10 +8779,10 @@
         <v>11</v>
       </c>
       <c r="C241">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D241">
-        <v>502790</v>
+        <v>508508</v>
       </c>
       <c r="E241" t="s">
         <v>17</v>
@@ -8811,10 +8811,10 @@
         <v>11</v>
       </c>
       <c r="C242">
-        <v>1134</v>
+        <v>1141</v>
       </c>
       <c r="D242">
-        <v>1656617</v>
+        <v>1666379</v>
       </c>
       <c r="E242" t="s">
         <v>17</v>
@@ -8843,10 +8843,10 @@
         <v>11</v>
       </c>
       <c r="C243">
-        <v>3281</v>
+        <v>3306</v>
       </c>
       <c r="D243">
-        <v>4863188</v>
+        <v>4900624</v>
       </c>
       <c r="E243" t="s">
         <v>17</v>
@@ -8875,10 +8875,10 @@
         <v>11</v>
       </c>
       <c r="C244">
-        <v>1181</v>
+        <v>1196</v>
       </c>
       <c r="D244">
-        <v>1757122</v>
+        <v>1779622</v>
       </c>
       <c r="E244" t="s">
         <v>17</v>
@@ -8907,10 +8907,10 @@
         <v>11</v>
       </c>
       <c r="C245">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D245">
-        <v>518618</v>
+        <v>521618</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
@@ -8939,10 +8939,10 @@
         <v>11</v>
       </c>
       <c r="C246">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D246">
-        <v>69000</v>
+        <v>72000</v>
       </c>
       <c r="E246" t="s">
         <v>17</v>
@@ -9003,10 +9003,10 @@
         <v>11</v>
       </c>
       <c r="C248">
-        <v>1143</v>
+        <v>1154</v>
       </c>
       <c r="D248">
-        <v>1530818</v>
+        <v>1543573</v>
       </c>
       <c r="E248" t="s">
         <v>17</v>
@@ -9035,10 +9035,10 @@
         <v>11</v>
       </c>
       <c r="C249">
-        <v>1232</v>
+        <v>1241</v>
       </c>
       <c r="D249">
-        <v>1814314</v>
+        <v>1827814</v>
       </c>
       <c r="E249" t="s">
         <v>17</v>
@@ -9067,10 +9067,10 @@
         <v>11</v>
       </c>
       <c r="C250">
-        <v>3805</v>
+        <v>3838</v>
       </c>
       <c r="D250">
-        <v>5632199</v>
+        <v>5678353</v>
       </c>
       <c r="E250" t="s">
         <v>17</v>
@@ -9099,10 +9099,10 @@
         <v>11</v>
       </c>
       <c r="C251">
-        <v>1305</v>
+        <v>1314</v>
       </c>
       <c r="D251">
-        <v>1948881</v>
+        <v>1962187</v>
       </c>
       <c r="E251" t="s">
         <v>17</v>
@@ -9131,10 +9131,10 @@
         <v>11</v>
       </c>
       <c r="C252">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D252">
-        <v>502782</v>
+        <v>505782</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -9163,10 +9163,10 @@
         <v>11</v>
       </c>
       <c r="C253">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D253">
-        <v>123000</v>
+        <v>124500</v>
       </c>
       <c r="E253" t="s">
         <v>17</v>
@@ -9227,10 +9227,10 @@
         <v>11</v>
       </c>
       <c r="C255">
-        <v>1392</v>
+        <v>1405</v>
       </c>
       <c r="D255">
-        <v>1914076</v>
+        <v>1926392</v>
       </c>
       <c r="E255" t="s">
         <v>17</v>
@@ -9259,10 +9259,10 @@
         <v>11</v>
       </c>
       <c r="C256">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D256">
-        <v>492475</v>
+        <v>501175</v>
       </c>
       <c r="E256" t="s">
         <v>17</v>
@@ -9291,10 +9291,10 @@
         <v>11</v>
       </c>
       <c r="C257">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="D257">
-        <v>1418281</v>
+        <v>1427227</v>
       </c>
       <c r="E257" t="s">
         <v>17</v>
@@ -9323,10 +9323,10 @@
         <v>11</v>
       </c>
       <c r="C258">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D258">
-        <v>437588</v>
+        <v>440588</v>
       </c>
       <c r="E258" t="s">
         <v>17</v>
@@ -9355,10 +9355,10 @@
         <v>11</v>
       </c>
       <c r="C259">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D259">
-        <v>116396</v>
+        <v>119396</v>
       </c>
       <c r="E259" t="s">
         <v>17</v>
@@ -9387,10 +9387,10 @@
         <v>11</v>
       </c>
       <c r="C260">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D260">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="E260" t="s">
         <v>17</v>
@@ -9419,10 +9419,10 @@
         <v>11</v>
       </c>
       <c r="C261">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D261">
-        <v>486157</v>
+        <v>492318</v>
       </c>
       <c r="E261" t="s">
         <v>17</v>
@@ -9451,10 +9451,10 @@
         <v>11</v>
       </c>
       <c r="C262">
-        <v>1757</v>
+        <v>1782</v>
       </c>
       <c r="D262">
-        <v>2560555</v>
+        <v>2596181</v>
       </c>
       <c r="E262" t="s">
         <v>17</v>
@@ -9483,10 +9483,10 @@
         <v>11</v>
       </c>
       <c r="C263">
-        <v>5880</v>
+        <v>5941</v>
       </c>
       <c r="D263">
-        <v>8685190</v>
+        <v>8768320</v>
       </c>
       <c r="E263" t="s">
         <v>17</v>
@@ -9515,10 +9515,10 @@
         <v>11</v>
       </c>
       <c r="C264">
-        <v>2455</v>
+        <v>2471</v>
       </c>
       <c r="D264">
-        <v>3674449</v>
+        <v>3698449</v>
       </c>
       <c r="E264" t="s">
         <v>17</v>
@@ -9547,10 +9547,10 @@
         <v>11</v>
       </c>
       <c r="C265">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="D265">
-        <v>1114500</v>
+        <v>1125000</v>
       </c>
       <c r="E265" t="s">
         <v>17</v>
@@ -9611,10 +9611,10 @@
         <v>11</v>
       </c>
       <c r="C267">
-        <v>1523</v>
+        <v>1541</v>
       </c>
       <c r="D267">
-        <v>2087480</v>
+        <v>2110148</v>
       </c>
       <c r="E267" t="s">
         <v>17</v>
@@ -9643,10 +9643,10 @@
         <v>11</v>
       </c>
       <c r="C268">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="D268">
-        <v>1533566</v>
+        <v>1542566</v>
       </c>
       <c r="E268" t="s">
         <v>17</v>
@@ -9675,10 +9675,10 @@
         <v>11</v>
       </c>
       <c r="C269">
-        <v>2706</v>
+        <v>2730</v>
       </c>
       <c r="D269">
-        <v>4001219</v>
+        <v>4036319</v>
       </c>
       <c r="E269" t="s">
         <v>17</v>
@@ -9707,10 +9707,10 @@
         <v>11</v>
       </c>
       <c r="C270">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="D270">
-        <v>1292493</v>
+        <v>1305993</v>
       </c>
       <c r="E270" t="s">
         <v>17</v>
@@ -9739,10 +9739,10 @@
         <v>11</v>
       </c>
       <c r="C271">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D271">
-        <v>338963</v>
+        <v>340463</v>
       </c>
       <c r="E271" t="s">
         <v>17</v>
@@ -9771,10 +9771,10 @@
         <v>11</v>
       </c>
       <c r="C272">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D272">
-        <v>54000</v>
+        <v>58500</v>
       </c>
       <c r="E272" t="s">
         <v>17</v>
@@ -9835,10 +9835,10 @@
         <v>11</v>
       </c>
       <c r="C274">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="D274">
-        <v>1400732</v>
+        <v>1410671</v>
       </c>
       <c r="E274" t="s">
         <v>17</v>
@@ -9867,10 +9867,10 @@
         <v>11</v>
       </c>
       <c r="C275">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D275">
-        <v>1467198</v>
+        <v>1470198</v>
       </c>
       <c r="E275" t="s">
         <v>18</v>
@@ -9899,10 +9899,10 @@
         <v>11</v>
       </c>
       <c r="C276">
-        <v>3787</v>
+        <v>3808</v>
       </c>
       <c r="D276">
-        <v>5584834</v>
+        <v>5613489</v>
       </c>
       <c r="E276" t="s">
         <v>18</v>
@@ -9931,10 +9931,10 @@
         <v>11</v>
       </c>
       <c r="C277">
-        <v>1409</v>
+        <v>1419</v>
       </c>
       <c r="D277">
-        <v>2106464</v>
+        <v>2121464</v>
       </c>
       <c r="E277" t="s">
         <v>18</v>
@@ -9963,10 +9963,10 @@
         <v>11</v>
       </c>
       <c r="C278">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D278">
-        <v>654500</v>
+        <v>656000</v>
       </c>
       <c r="E278" t="s">
         <v>18</v>
@@ -10027,10 +10027,10 @@
         <v>11</v>
       </c>
       <c r="C280">
-        <v>2503</v>
+        <v>2533</v>
       </c>
       <c r="D280">
-        <v>3482429</v>
+        <v>3521757</v>
       </c>
       <c r="E280" t="s">
         <v>18</v>
@@ -10059,10 +10059,10 @@
         <v>11</v>
       </c>
       <c r="C281">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D281">
-        <v>517784</v>
+        <v>526784</v>
       </c>
       <c r="E281" t="s">
         <v>19</v>
@@ -10091,10 +10091,10 @@
         <v>11</v>
       </c>
       <c r="C282">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="D282">
-        <v>1426244</v>
+        <v>1436744</v>
       </c>
       <c r="E282" t="s">
         <v>19</v>
@@ -10123,10 +10123,10 @@
         <v>11</v>
       </c>
       <c r="C283">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D283">
-        <v>588572</v>
+        <v>593072</v>
       </c>
       <c r="E283" t="s">
         <v>19</v>
@@ -10251,10 +10251,10 @@
         <v>11</v>
       </c>
       <c r="C287">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D287">
-        <v>666625</v>
+        <v>675625</v>
       </c>
       <c r="E287" t="s">
         <v>19</v>
@@ -10283,10 +10283,10 @@
         <v>11</v>
       </c>
       <c r="C288">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="D288">
-        <v>1126875</v>
+        <v>1134907</v>
       </c>
       <c r="E288" t="s">
         <v>20</v>
@@ -10315,10 +10315,10 @@
         <v>11</v>
       </c>
       <c r="C289">
-        <v>2460</v>
+        <v>2479</v>
       </c>
       <c r="D289">
-        <v>3644234</v>
+        <v>3671974</v>
       </c>
       <c r="E289" t="s">
         <v>20</v>
@@ -10347,10 +10347,10 @@
         <v>11</v>
       </c>
       <c r="C290">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="D290">
-        <v>1376209</v>
+        <v>1392950</v>
       </c>
       <c r="E290" t="s">
         <v>20</v>
@@ -10379,10 +10379,10 @@
         <v>11</v>
       </c>
       <c r="C291">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D291">
-        <v>344201</v>
+        <v>348701</v>
       </c>
       <c r="E291" t="s">
         <v>20</v>
@@ -10475,10 +10475,10 @@
         <v>11</v>
       </c>
       <c r="C294">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="D294">
-        <v>1263911</v>
+        <v>1274094</v>
       </c>
       <c r="E294" t="s">
         <v>20</v>
@@ -10507,10 +10507,10 @@
         <v>11</v>
       </c>
       <c r="C295">
-        <v>4518</v>
+        <v>4547</v>
       </c>
       <c r="D295">
-        <v>6543116</v>
+        <v>6586160</v>
       </c>
       <c r="E295" t="s">
         <v>20</v>
@@ -10539,10 +10539,10 @@
         <v>11</v>
       </c>
       <c r="C296">
-        <v>13359</v>
+        <v>13479</v>
       </c>
       <c r="D296">
-        <v>19692541</v>
+        <v>19867694</v>
       </c>
       <c r="E296" t="s">
         <v>20</v>
@@ -10571,10 +10571,10 @@
         <v>11</v>
       </c>
       <c r="C297">
-        <v>4700</v>
+        <v>4755</v>
       </c>
       <c r="D297">
-        <v>7027384</v>
+        <v>7107546</v>
       </c>
       <c r="E297" t="s">
         <v>20</v>
@@ -10603,10 +10603,10 @@
         <v>11</v>
       </c>
       <c r="C298">
-        <v>1364</v>
+        <v>1380</v>
       </c>
       <c r="D298">
-        <v>2042162</v>
+        <v>2066162</v>
       </c>
       <c r="E298" t="s">
         <v>20</v>
@@ -10635,10 +10635,10 @@
         <v>11</v>
       </c>
       <c r="C299">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D299">
-        <v>383702</v>
+        <v>389702</v>
       </c>
       <c r="E299" t="s">
         <v>20</v>
@@ -10699,10 +10699,10 @@
         <v>11</v>
       </c>
       <c r="C301">
-        <v>4043</v>
+        <v>4073</v>
       </c>
       <c r="D301">
-        <v>5423422</v>
+        <v>5463911</v>
       </c>
       <c r="E301" t="s">
         <v>20</v>
@@ -10731,10 +10731,10 @@
         <v>11</v>
       </c>
       <c r="C302">
-        <v>1362</v>
+        <v>1379</v>
       </c>
       <c r="D302">
-        <v>2003158</v>
+        <v>2027934</v>
       </c>
       <c r="E302" t="s">
         <v>20</v>
@@ -10763,10 +10763,10 @@
         <v>11</v>
       </c>
       <c r="C303">
-        <v>4383</v>
+        <v>4417</v>
       </c>
       <c r="D303">
-        <v>6479947</v>
+        <v>6528533</v>
       </c>
       <c r="E303" t="s">
         <v>20</v>
@@ -10795,10 +10795,10 @@
         <v>11</v>
       </c>
       <c r="C304">
-        <v>1560</v>
+        <v>1575</v>
       </c>
       <c r="D304">
-        <v>2334633</v>
+        <v>2357133</v>
       </c>
       <c r="E304" t="s">
         <v>20</v>
@@ -10827,10 +10827,10 @@
         <v>11</v>
       </c>
       <c r="C305">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D305">
-        <v>586500</v>
+        <v>594000</v>
       </c>
       <c r="E305" t="s">
         <v>20</v>
@@ -10859,10 +10859,10 @@
         <v>11</v>
       </c>
       <c r="C306">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D306">
-        <v>108792</v>
+        <v>111792</v>
       </c>
       <c r="E306" t="s">
         <v>20</v>
@@ -10923,10 +10923,10 @@
         <v>11</v>
       </c>
       <c r="C308">
-        <v>1328</v>
+        <v>1341</v>
       </c>
       <c r="D308">
-        <v>1835299</v>
+        <v>1850753</v>
       </c>
       <c r="E308" t="s">
         <v>20</v>
@@ -10955,10 +10955,10 @@
         <v>11</v>
       </c>
       <c r="C309">
-        <v>2408</v>
+        <v>2419</v>
       </c>
       <c r="D309">
-        <v>3493196</v>
+        <v>3508954</v>
       </c>
       <c r="E309" t="s">
         <v>20</v>
@@ -10987,10 +10987,10 @@
         <v>11</v>
       </c>
       <c r="C310">
-        <v>7603</v>
+        <v>7644</v>
       </c>
       <c r="D310">
-        <v>11196595</v>
+        <v>11256845</v>
       </c>
       <c r="E310" t="s">
         <v>20</v>
@@ -11019,10 +11019,10 @@
         <v>11</v>
       </c>
       <c r="C311">
-        <v>2421</v>
+        <v>2439</v>
       </c>
       <c r="D311">
-        <v>3613658</v>
+        <v>3640658</v>
       </c>
       <c r="E311" t="s">
         <v>20</v>
@@ -11051,10 +11051,10 @@
         <v>11</v>
       </c>
       <c r="C312">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="D312">
-        <v>1071704</v>
+        <v>1082204</v>
       </c>
       <c r="E312" t="s">
         <v>20</v>
@@ -11083,10 +11083,10 @@
         <v>11</v>
       </c>
       <c r="C313">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D313">
-        <v>163500</v>
+        <v>168000</v>
       </c>
       <c r="E313" t="s">
         <v>20</v>
@@ -11147,10 +11147,10 @@
         <v>11</v>
       </c>
       <c r="C315">
-        <v>2555</v>
+        <v>2567</v>
       </c>
       <c r="D315">
-        <v>3381478</v>
+        <v>3396841</v>
       </c>
       <c r="E315" t="s">
         <v>20</v>
@@ -11179,10 +11179,10 @@
         <v>11</v>
       </c>
       <c r="C316">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="D316">
-        <v>1458791</v>
+        <v>1470791</v>
       </c>
       <c r="E316" t="s">
         <v>20</v>
@@ -11211,10 +11211,10 @@
         <v>11</v>
       </c>
       <c r="C317">
-        <v>2890</v>
+        <v>2913</v>
       </c>
       <c r="D317">
-        <v>4269308</v>
+        <v>4300968</v>
       </c>
       <c r="E317" t="s">
         <v>20</v>
@@ -11243,10 +11243,10 @@
         <v>11</v>
       </c>
       <c r="C318">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="D318">
-        <v>1602771</v>
+        <v>1620771</v>
       </c>
       <c r="E318" t="s">
         <v>20</v>
@@ -11275,10 +11275,10 @@
         <v>11</v>
       </c>
       <c r="C319">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D319">
-        <v>385571</v>
+        <v>387093</v>
       </c>
       <c r="E319" t="s">
         <v>20</v>
@@ -11339,10 +11339,10 @@
         <v>11</v>
       </c>
       <c r="C321">
-        <v>1108</v>
+        <v>1119</v>
       </c>
       <c r="D321">
-        <v>1464589</v>
+        <v>1475728</v>
       </c>
       <c r="E321" t="s">
         <v>20</v>
@@ -11371,10 +11371,10 @@
         <v>11</v>
       </c>
       <c r="C322">
-        <v>2746</v>
+        <v>2774</v>
       </c>
       <c r="D322">
-        <v>4005992</v>
+        <v>4045452</v>
       </c>
       <c r="E322" t="s">
         <v>21</v>
@@ -11403,10 +11403,10 @@
         <v>11</v>
       </c>
       <c r="C323">
-        <v>7449</v>
+        <v>7509</v>
       </c>
       <c r="D323">
-        <v>10989910</v>
+        <v>11073769</v>
       </c>
       <c r="E323" t="s">
         <v>21</v>
@@ -11435,10 +11435,10 @@
         <v>11</v>
       </c>
       <c r="C324">
-        <v>2641</v>
+        <v>2660</v>
       </c>
       <c r="D324">
-        <v>3945983</v>
+        <v>3974483</v>
       </c>
       <c r="E324" t="s">
         <v>21</v>
@@ -11467,10 +11467,10 @@
         <v>11</v>
       </c>
       <c r="C325">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="D325">
-        <v>1300049</v>
+        <v>1315049</v>
       </c>
       <c r="E325" t="s">
         <v>21</v>
@@ -11499,10 +11499,10 @@
         <v>11</v>
       </c>
       <c r="C326">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D326">
-        <v>259612</v>
+        <v>261112</v>
       </c>
       <c r="E326" t="s">
         <v>21</v>
@@ -11563,10 +11563,10 @@
         <v>11</v>
       </c>
       <c r="C328">
-        <v>2903</v>
+        <v>2950</v>
       </c>
       <c r="D328">
-        <v>3956945</v>
+        <v>4016747</v>
       </c>
       <c r="E328" t="s">
         <v>21</v>
@@ -11595,10 +11595,10 @@
         <v>11</v>
       </c>
       <c r="C329">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="D329">
-        <v>1278393</v>
+        <v>1284391</v>
       </c>
       <c r="E329" t="s">
         <v>22</v>
@@ -11627,10 +11627,10 @@
         <v>11</v>
       </c>
       <c r="C330">
-        <v>3015</v>
+        <v>3031</v>
       </c>
       <c r="D330">
-        <v>4453499</v>
+        <v>4476858</v>
       </c>
       <c r="E330" t="s">
         <v>22</v>
@@ -11659,10 +11659,10 @@
         <v>11</v>
       </c>
       <c r="C331">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="D331">
-        <v>1796939</v>
+        <v>1805939</v>
       </c>
       <c r="E331" t="s">
         <v>22</v>
@@ -11691,10 +11691,10 @@
         <v>11</v>
       </c>
       <c r="C332">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D332">
-        <v>619500</v>
+        <v>627000</v>
       </c>
       <c r="E332" t="s">
         <v>22</v>
@@ -11787,10 +11787,10 @@
         <v>11</v>
       </c>
       <c r="C335">
-        <v>1797</v>
+        <v>1810</v>
       </c>
       <c r="D335">
-        <v>2413902</v>
+        <v>2432059</v>
       </c>
       <c r="E335" t="s">
         <v>22</v>
@@ -11819,10 +11819,10 @@
         <v>11</v>
       </c>
       <c r="C336">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D336">
-        <v>459689</v>
+        <v>462689</v>
       </c>
       <c r="E336" t="s">
         <v>23</v>
@@ -11851,10 +11851,10 @@
         <v>11</v>
       </c>
       <c r="C337">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D337">
-        <v>163110</v>
+        <v>164610</v>
       </c>
       <c r="E337" t="s">
         <v>23</v>
@@ -11915,10 +11915,10 @@
         <v>11</v>
       </c>
       <c r="C339">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D339">
-        <v>22500</v>
+        <v>25500</v>
       </c>
       <c r="E339" t="s">
         <v>23</v>
@@ -11979,10 +11979,10 @@
         <v>11</v>
       </c>
       <c r="C341">
-        <v>2038</v>
+        <v>2052</v>
       </c>
       <c r="D341">
-        <v>2967871</v>
+        <v>2987980</v>
       </c>
       <c r="E341" t="s">
         <v>24</v>
@@ -12011,10 +12011,10 @@
         <v>11</v>
       </c>
       <c r="C342">
-        <v>5086</v>
+        <v>5122</v>
       </c>
       <c r="D342">
-        <v>7511744</v>
+        <v>7563903</v>
       </c>
       <c r="E342" t="s">
         <v>24</v>
@@ -12043,10 +12043,10 @@
         <v>11</v>
       </c>
       <c r="C343">
-        <v>1668</v>
+        <v>1683</v>
       </c>
       <c r="D343">
-        <v>2494371</v>
+        <v>2514964</v>
       </c>
       <c r="E343" t="s">
         <v>24</v>
@@ -12075,10 +12075,10 @@
         <v>11</v>
       </c>
       <c r="C344">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D344">
-        <v>717145</v>
+        <v>718645</v>
       </c>
       <c r="E344" t="s">
         <v>24</v>
@@ -12107,10 +12107,10 @@
         <v>11</v>
       </c>
       <c r="C345">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D345">
-        <v>115500</v>
+        <v>121500</v>
       </c>
       <c r="E345" t="s">
         <v>24</v>
@@ -12171,10 +12171,10 @@
         <v>11</v>
       </c>
       <c r="C347">
-        <v>1533</v>
+        <v>1543</v>
       </c>
       <c r="D347">
-        <v>2074083</v>
+        <v>2085054</v>
       </c>
       <c r="E347" t="s">
         <v>24</v>
@@ -12203,10 +12203,10 @@
         <v>11</v>
       </c>
       <c r="C348">
-        <v>1144</v>
+        <v>1154</v>
       </c>
       <c r="D348">
-        <v>1671178</v>
+        <v>1686178</v>
       </c>
       <c r="E348" t="s">
         <v>24</v>
@@ -12235,10 +12235,10 @@
         <v>11</v>
       </c>
       <c r="C349">
-        <v>3427</v>
+        <v>3449</v>
       </c>
       <c r="D349">
-        <v>5070226</v>
+        <v>5103156</v>
       </c>
       <c r="E349" t="s">
         <v>24</v>
@@ -12267,10 +12267,10 @@
         <v>11</v>
       </c>
       <c r="C350">
-        <v>1124</v>
+        <v>1135</v>
       </c>
       <c r="D350">
-        <v>1677066</v>
+        <v>1693566</v>
       </c>
       <c r="E350" t="s">
         <v>24</v>
@@ -12299,10 +12299,10 @@
         <v>11</v>
       </c>
       <c r="C351">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D351">
-        <v>440542</v>
+        <v>442042</v>
       </c>
       <c r="E351" t="s">
         <v>24</v>
@@ -12395,10 +12395,10 @@
         <v>11</v>
       </c>
       <c r="C354">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="D354">
-        <v>1442011</v>
+        <v>1447297</v>
       </c>
       <c r="E354" t="s">
         <v>24</v>
@@ -12427,10 +12427,10 @@
         <v>11</v>
       </c>
       <c r="C355">
-        <v>1301</v>
+        <v>1309</v>
       </c>
       <c r="D355">
-        <v>1907639</v>
+        <v>1919639</v>
       </c>
       <c r="E355" t="s">
         <v>24</v>
@@ -12459,10 +12459,10 @@
         <v>11</v>
       </c>
       <c r="C356">
-        <v>3440</v>
+        <v>3466</v>
       </c>
       <c r="D356">
-        <v>5095073</v>
+        <v>5131691</v>
       </c>
       <c r="E356" t="s">
         <v>24</v>
@@ -12491,10 +12491,10 @@
         <v>11</v>
       </c>
       <c r="C357">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="D357">
-        <v>1572015</v>
+        <v>1589357</v>
       </c>
       <c r="E357" t="s">
         <v>24</v>
@@ -12523,10 +12523,10 @@
         <v>11</v>
       </c>
       <c r="C358">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D358">
-        <v>420299</v>
+        <v>426299</v>
       </c>
       <c r="E358" t="s">
         <v>24</v>
@@ -12555,10 +12555,10 @@
         <v>11</v>
       </c>
       <c r="C359">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D359">
-        <v>42000</v>
+        <v>43500</v>
       </c>
       <c r="E359" t="s">
         <v>24</v>
@@ -12587,10 +12587,10 @@
         <v>11</v>
       </c>
       <c r="C360">
-        <v>1074</v>
+        <v>1084</v>
       </c>
       <c r="D360">
-        <v>1444680</v>
+        <v>1453597</v>
       </c>
       <c r="E360" t="s">
         <v>24</v>
@@ -12619,10 +12619,10 @@
         <v>11</v>
       </c>
       <c r="C361">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D361">
-        <v>910736</v>
+        <v>913736</v>
       </c>
       <c r="E361" t="s">
         <v>24</v>
@@ -12651,10 +12651,10 @@
         <v>11</v>
       </c>
       <c r="C362">
-        <v>1859</v>
+        <v>1874</v>
       </c>
       <c r="D362">
-        <v>2749704</v>
+        <v>2771674</v>
       </c>
       <c r="E362" t="s">
         <v>24</v>
@@ -12683,10 +12683,10 @@
         <v>11</v>
       </c>
       <c r="C363">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D363">
-        <v>765201</v>
+        <v>774201</v>
       </c>
       <c r="E363" t="s">
         <v>24</v>
@@ -12779,10 +12779,10 @@
         <v>11</v>
       </c>
       <c r="C366">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D366">
-        <v>978915</v>
+        <v>980415</v>
       </c>
       <c r="E366" t="s">
         <v>24</v>
@@ -12811,10 +12811,10 @@
         <v>11</v>
       </c>
       <c r="C367">
-        <v>1977</v>
+        <v>1992</v>
       </c>
       <c r="D367">
-        <v>2895625</v>
+        <v>2917521</v>
       </c>
       <c r="E367" t="s">
         <v>24</v>
@@ -12843,10 +12843,10 @@
         <v>11</v>
       </c>
       <c r="C368">
-        <v>6551</v>
+        <v>6601</v>
       </c>
       <c r="D368">
-        <v>9696052</v>
+        <v>9770815</v>
       </c>
       <c r="E368" t="s">
         <v>24</v>
@@ -12875,10 +12875,10 @@
         <v>11</v>
       </c>
       <c r="C369">
-        <v>2339</v>
+        <v>2355</v>
       </c>
       <c r="D369">
-        <v>3499234</v>
+        <v>3523234</v>
       </c>
       <c r="E369" t="s">
         <v>24</v>
@@ -12907,10 +12907,10 @@
         <v>11</v>
       </c>
       <c r="C370">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="D370">
-        <v>884285</v>
+        <v>903785</v>
       </c>
       <c r="E370" t="s">
         <v>24</v>
@@ -12971,10 +12971,10 @@
         <v>11</v>
       </c>
       <c r="C372">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D372">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="E372" t="s">
         <v>24</v>
@@ -13003,10 +13003,10 @@
         <v>11</v>
       </c>
       <c r="C373">
-        <v>1962</v>
+        <v>1984</v>
       </c>
       <c r="D373">
-        <v>2630427</v>
+        <v>2654798</v>
       </c>
       <c r="E373" t="s">
         <v>24</v>
@@ -13035,10 +13035,10 @@
         <v>11</v>
       </c>
       <c r="C374">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D374">
-        <v>1142647</v>
+        <v>1145647</v>
       </c>
       <c r="E374" t="s">
         <v>25</v>
@@ -13067,10 +13067,10 @@
         <v>11</v>
       </c>
       <c r="C375">
-        <v>2233</v>
+        <v>2250</v>
       </c>
       <c r="D375">
-        <v>3291025</v>
+        <v>3315318</v>
       </c>
       <c r="E375" t="s">
         <v>25</v>
@@ -13099,10 +13099,10 @@
         <v>11</v>
       </c>
       <c r="C376">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="D376">
-        <v>1077992</v>
+        <v>1085492</v>
       </c>
       <c r="E376" t="s">
         <v>25</v>
@@ -13131,10 +13131,10 @@
         <v>11</v>
       </c>
       <c r="C377">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D377">
-        <v>332411</v>
+        <v>335411</v>
       </c>
       <c r="E377" t="s">
         <v>25</v>
@@ -13195,10 +13195,10 @@
         <v>11</v>
       </c>
       <c r="C379">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="D379">
-        <v>1195468</v>
+        <v>1203688</v>
       </c>
       <c r="E379" t="s">
         <v>25</v>
@@ -13227,10 +13227,10 @@
         <v>11</v>
       </c>
       <c r="C380">
-        <v>2820</v>
+        <v>2829</v>
       </c>
       <c r="D380">
-        <v>4099165</v>
+        <v>4111482</v>
       </c>
       <c r="E380" t="s">
         <v>25</v>
@@ -13259,10 +13259,10 @@
         <v>11</v>
       </c>
       <c r="C381">
-        <v>5725</v>
+        <v>5769</v>
       </c>
       <c r="D381">
-        <v>8462678</v>
+        <v>8525319</v>
       </c>
       <c r="E381" t="s">
         <v>25</v>
@@ -13291,10 +13291,10 @@
         <v>11</v>
       </c>
       <c r="C382">
-        <v>1680</v>
+        <v>1693</v>
       </c>
       <c r="D382">
-        <v>2512407</v>
+        <v>2530907</v>
       </c>
       <c r="E382" t="s">
         <v>25</v>
@@ -13323,10 +13323,10 @@
         <v>11</v>
       </c>
       <c r="C383">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D383">
-        <v>615585</v>
+        <v>624783</v>
       </c>
       <c r="E383" t="s">
         <v>25</v>
@@ -13355,10 +13355,10 @@
         <v>11</v>
       </c>
       <c r="C384">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D384">
-        <v>89928</v>
+        <v>91428</v>
       </c>
       <c r="E384" t="s">
         <v>25</v>
@@ -13419,10 +13419,10 @@
         <v>11</v>
       </c>
       <c r="C386">
-        <v>1828</v>
+        <v>1835</v>
       </c>
       <c r="D386">
-        <v>2479298</v>
+        <v>2488233</v>
       </c>
       <c r="E386" t="s">
         <v>25</v>
@@ -13451,10 +13451,10 @@
         <v>11</v>
       </c>
       <c r="C387">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="D387">
-        <v>1012722</v>
+        <v>1017222</v>
       </c>
       <c r="E387" t="s">
         <v>25</v>
@@ -13483,10 +13483,10 @@
         <v>11</v>
       </c>
       <c r="C388">
-        <v>1818</v>
+        <v>1836</v>
       </c>
       <c r="D388">
-        <v>2676127</v>
+        <v>2703127</v>
       </c>
       <c r="E388" t="s">
         <v>25</v>
@@ -13547,10 +13547,10 @@
         <v>11</v>
       </c>
       <c r="C390">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D390">
-        <v>219557</v>
+        <v>221057</v>
       </c>
       <c r="E390" t="s">
         <v>25</v>
@@ -13611,10 +13611,10 @@
         <v>11</v>
       </c>
       <c r="C392">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="D392">
-        <v>1170022</v>
+        <v>1185944</v>
       </c>
       <c r="E392" t="s">
         <v>25</v>
@@ -13675,10 +13675,10 @@
         <v>11</v>
       </c>
       <c r="C394">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="D394">
-        <v>1003413</v>
+        <v>1010813</v>
       </c>
       <c r="E394" t="s">
         <v>25</v>
@@ -13707,10 +13707,10 @@
         <v>11</v>
       </c>
       <c r="C395">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D395">
-        <v>330846</v>
+        <v>339846</v>
       </c>
       <c r="E395" t="s">
         <v>25</v>
@@ -13803,10 +13803,10 @@
         <v>11</v>
       </c>
       <c r="C398">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D398">
-        <v>488891</v>
+        <v>491891</v>
       </c>
       <c r="E398" t="s">
         <v>25</v>
@@ -13835,10 +13835,10 @@
         <v>11</v>
       </c>
       <c r="C399">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D399">
-        <v>905973</v>
+        <v>910473</v>
       </c>
       <c r="E399" t="s">
         <v>25</v>
@@ -13867,10 +13867,10 @@
         <v>11</v>
       </c>
       <c r="C400">
-        <v>2014</v>
+        <v>2032</v>
       </c>
       <c r="D400">
-        <v>2987709</v>
+        <v>3014709</v>
       </c>
       <c r="E400" t="s">
         <v>25</v>
@@ -13899,10 +13899,10 @@
         <v>11</v>
       </c>
       <c r="C401">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="D401">
-        <v>1006481</v>
+        <v>1016981</v>
       </c>
       <c r="E401" t="s">
         <v>25</v>
@@ -13931,10 +13931,10 @@
         <v>11</v>
       </c>
       <c r="C402">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D402">
-        <v>240000</v>
+        <v>243000</v>
       </c>
       <c r="E402" t="s">
         <v>25</v>
@@ -13995,10 +13995,10 @@
         <v>11</v>
       </c>
       <c r="C404">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="D404">
-        <v>905264</v>
+        <v>916121</v>
       </c>
       <c r="E404" t="s">
         <v>25</v>
@@ -14027,10 +14027,10 @@
         <v>11</v>
       </c>
       <c r="C405">
-        <v>1705</v>
+        <v>1719</v>
       </c>
       <c r="D405">
-        <v>2451035</v>
+        <v>2471337</v>
       </c>
       <c r="E405" t="s">
         <v>25</v>
@@ -14059,10 +14059,10 @@
         <v>11</v>
       </c>
       <c r="C406">
-        <v>3641</v>
+        <v>3659</v>
       </c>
       <c r="D406">
-        <v>5361568</v>
+        <v>5387597</v>
       </c>
       <c r="E406" t="s">
         <v>25</v>
@@ -14091,10 +14091,10 @@
         <v>11</v>
       </c>
       <c r="C407">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="D407">
-        <v>1510764</v>
+        <v>1532918</v>
       </c>
       <c r="E407" t="s">
         <v>25</v>
@@ -14123,10 +14123,10 @@
         <v>11</v>
       </c>
       <c r="C408">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D408">
-        <v>363636</v>
+        <v>374136</v>
       </c>
       <c r="E408" t="s">
         <v>25</v>
@@ -14187,10 +14187,10 @@
         <v>11</v>
       </c>
       <c r="C410">
-        <v>1575</v>
+        <v>1585</v>
       </c>
       <c r="D410">
-        <v>2091680</v>
+        <v>2105454</v>
       </c>
       <c r="E410" t="s">
         <v>25</v>
@@ -14219,10 +14219,10 @@
         <v>11</v>
       </c>
       <c r="C411">
-        <v>5678</v>
+        <v>5726</v>
       </c>
       <c r="D411">
-        <v>8278267</v>
+        <v>8348376</v>
       </c>
       <c r="E411" t="s">
         <v>25</v>
@@ -14251,10 +14251,10 @@
         <v>11</v>
       </c>
       <c r="C412">
-        <v>12356</v>
+        <v>12460</v>
       </c>
       <c r="D412">
-        <v>18205086</v>
+        <v>18355640</v>
       </c>
       <c r="E412" t="s">
         <v>25</v>
@@ -14283,10 +14283,10 @@
         <v>11</v>
       </c>
       <c r="C413">
-        <v>4186</v>
+        <v>4224</v>
       </c>
       <c r="D413">
-        <v>6246956</v>
+        <v>6301543</v>
       </c>
       <c r="E413" t="s">
         <v>25</v>
@@ -14315,10 +14315,10 @@
         <v>11</v>
       </c>
       <c r="C414">
-        <v>1233</v>
+        <v>1249</v>
       </c>
       <c r="D414">
-        <v>1845066</v>
+        <v>1869066</v>
       </c>
       <c r="E414" t="s">
         <v>25</v>
@@ -14347,10 +14347,10 @@
         <v>11</v>
       </c>
       <c r="C415">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D415">
-        <v>358500</v>
+        <v>360000</v>
       </c>
       <c r="E415" t="s">
         <v>25</v>
@@ -14443,10 +14443,10 @@
         <v>11</v>
       </c>
       <c r="C418">
-        <v>4258</v>
+        <v>4291</v>
       </c>
       <c r="D418">
-        <v>5861601</v>
+        <v>5908564</v>
       </c>
       <c r="E418" t="s">
         <v>25</v>
@@ -14475,10 +14475,10 @@
         <v>11</v>
       </c>
       <c r="C419">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="D419">
-        <v>1249666</v>
+        <v>1261666</v>
       </c>
       <c r="E419" t="s">
         <v>25</v>
@@ -14507,10 +14507,10 @@
         <v>11</v>
       </c>
       <c r="C420">
-        <v>2217</v>
+        <v>2237</v>
       </c>
       <c r="D420">
-        <v>3281164</v>
+        <v>3310007</v>
       </c>
       <c r="E420" t="s">
         <v>25</v>
@@ -14539,10 +14539,10 @@
         <v>11</v>
       </c>
       <c r="C421">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="D421">
-        <v>1079256</v>
+        <v>1093261</v>
       </c>
       <c r="E421" t="s">
         <v>25</v>
@@ -14571,10 +14571,10 @@
         <v>11</v>
       </c>
       <c r="C422">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D422">
-        <v>330381</v>
+        <v>337881</v>
       </c>
       <c r="E422" t="s">
         <v>25</v>
@@ -14635,10 +14635,10 @@
         <v>11</v>
       </c>
       <c r="C424">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="D424">
-        <v>1400233</v>
+        <v>1409949</v>
       </c>
       <c r="E424" t="s">
         <v>25</v>
@@ -14667,10 +14667,10 @@
         <v>11</v>
       </c>
       <c r="C425">
-        <v>1826</v>
+        <v>1839</v>
       </c>
       <c r="D425">
-        <v>2633992</v>
+        <v>2652985</v>
       </c>
       <c r="E425" t="s">
         <v>25</v>
@@ -14699,10 +14699,10 @@
         <v>11</v>
       </c>
       <c r="C426">
-        <v>3449</v>
+        <v>3480</v>
       </c>
       <c r="D426">
-        <v>5082420</v>
+        <v>5125625</v>
       </c>
       <c r="E426" t="s">
         <v>25</v>
@@ -14731,10 +14731,10 @@
         <v>11</v>
       </c>
       <c r="C427">
-        <v>1044</v>
+        <v>1060</v>
       </c>
       <c r="D427">
-        <v>1556546</v>
+        <v>1580546</v>
       </c>
       <c r="E427" t="s">
         <v>25</v>
@@ -14763,10 +14763,10 @@
         <v>11</v>
       </c>
       <c r="C428">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D428">
-        <v>381346</v>
+        <v>384346</v>
       </c>
       <c r="E428" t="s">
         <v>25</v>
@@ -14859,10 +14859,10 @@
         <v>11</v>
       </c>
       <c r="C431">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="D431">
-        <v>1341353</v>
+        <v>1350275</v>
       </c>
       <c r="E431" t="s">
         <v>25</v>
@@ -14891,10 +14891,10 @@
         <v>11</v>
       </c>
       <c r="C432">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="D432">
-        <v>1561289</v>
+        <v>1567289</v>
       </c>
       <c r="E432" t="s">
         <v>25</v>
@@ -14923,10 +14923,10 @@
         <v>11</v>
       </c>
       <c r="C433">
-        <v>2380</v>
+        <v>2405</v>
       </c>
       <c r="D433">
-        <v>3513662</v>
+        <v>3547181</v>
       </c>
       <c r="E433" t="s">
         <v>25</v>
@@ -14955,10 +14955,10 @@
         <v>11</v>
       </c>
       <c r="C434">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="D434">
-        <v>1216492</v>
+        <v>1223992</v>
       </c>
       <c r="E434" t="s">
         <v>25</v>
@@ -14987,10 +14987,10 @@
         <v>11</v>
       </c>
       <c r="C435">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D435">
-        <v>283500</v>
+        <v>289500</v>
       </c>
       <c r="E435" t="s">
         <v>25</v>
@@ -15051,10 +15051,10 @@
         <v>11</v>
       </c>
       <c r="C437">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="D437">
-        <v>1369714</v>
+        <v>1378106</v>
       </c>
       <c r="E437" t="s">
         <v>25</v>
@@ -15083,10 +15083,10 @@
         <v>11</v>
       </c>
       <c r="C438">
-        <v>2368</v>
+        <v>2392</v>
       </c>
       <c r="D438">
-        <v>3433188</v>
+        <v>3467980</v>
       </c>
       <c r="E438" t="s">
         <v>25</v>
@@ -15115,10 +15115,10 @@
         <v>11</v>
       </c>
       <c r="C439">
-        <v>6299</v>
+        <v>6364</v>
       </c>
       <c r="D439">
-        <v>9285072</v>
+        <v>9377386</v>
       </c>
       <c r="E439" t="s">
         <v>25</v>
@@ -15147,10 +15147,10 @@
         <v>11</v>
       </c>
       <c r="C440">
-        <v>2089</v>
+        <v>2108</v>
       </c>
       <c r="D440">
-        <v>3115255</v>
+        <v>3141974</v>
       </c>
       <c r="E440" t="s">
         <v>25</v>
@@ -15179,10 +15179,10 @@
         <v>11</v>
       </c>
       <c r="C441">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D441">
-        <v>802144</v>
+        <v>810514</v>
       </c>
       <c r="E441" t="s">
         <v>25</v>
@@ -15275,10 +15275,10 @@
         <v>11</v>
       </c>
       <c r="C444">
-        <v>2323</v>
+        <v>2339</v>
       </c>
       <c r="D444">
-        <v>3177661</v>
+        <v>3198335</v>
       </c>
       <c r="E444" t="s">
         <v>25</v>
@@ -15307,10 +15307,10 @@
         <v>11</v>
       </c>
       <c r="C445">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="D445">
-        <v>1137864</v>
+        <v>1143018</v>
       </c>
       <c r="E445" t="s">
         <v>25</v>
@@ -15339,10 +15339,10 @@
         <v>11</v>
       </c>
       <c r="C446">
-        <v>2367</v>
+        <v>2380</v>
       </c>
       <c r="D446">
-        <v>3496023</v>
+        <v>3514103</v>
       </c>
       <c r="E446" t="s">
         <v>25</v>
@@ -15371,10 +15371,10 @@
         <v>11</v>
       </c>
       <c r="C447">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="D447">
-        <v>1165858</v>
+        <v>1182358</v>
       </c>
       <c r="E447" t="s">
         <v>25</v>
@@ -15403,10 +15403,10 @@
         <v>11</v>
       </c>
       <c r="C448">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D448">
-        <v>329714</v>
+        <v>331214</v>
       </c>
       <c r="E448" t="s">
         <v>25</v>
@@ -15499,10 +15499,10 @@
         <v>11</v>
       </c>
       <c r="C451">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="D451">
-        <v>1127825</v>
+        <v>1138490</v>
       </c>
       <c r="E451" t="s">
         <v>25</v>
@@ -15531,10 +15531,10 @@
         <v>11</v>
       </c>
       <c r="C452">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D452">
-        <v>471277</v>
+        <v>472777</v>
       </c>
       <c r="E452" t="s">
         <v>26</v>
@@ -15563,10 +15563,10 @@
         <v>11</v>
       </c>
       <c r="C453">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="D453">
-        <v>1711076</v>
+        <v>1724576</v>
       </c>
       <c r="E453" t="s">
         <v>26</v>
@@ -15595,10 +15595,10 @@
         <v>11</v>
       </c>
       <c r="C454">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D454">
-        <v>616015</v>
+        <v>619015</v>
       </c>
       <c r="E454" t="s">
         <v>26</v>
@@ -15627,10 +15627,10 @@
         <v>11</v>
       </c>
       <c r="C455">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D455">
-        <v>155445</v>
+        <v>156945</v>
       </c>
       <c r="E455" t="s">
         <v>26</v>
@@ -15691,10 +15691,10 @@
         <v>11</v>
       </c>
       <c r="C457">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D457">
-        <v>703835</v>
+        <v>708335</v>
       </c>
       <c r="E457" t="s">
         <v>26</v>
@@ -15723,10 +15723,10 @@
         <v>11</v>
       </c>
       <c r="C458">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="D458">
-        <v>2510212</v>
+        <v>2515239</v>
       </c>
       <c r="E458" t="s">
         <v>26</v>
@@ -15755,10 +15755,10 @@
         <v>11</v>
       </c>
       <c r="C459">
-        <v>3328</v>
+        <v>3355</v>
       </c>
       <c r="D459">
-        <v>4900151</v>
+        <v>4939707</v>
       </c>
       <c r="E459" t="s">
         <v>26</v>
@@ -15787,10 +15787,10 @@
         <v>11</v>
       </c>
       <c r="C460">
-        <v>1010</v>
+        <v>1023</v>
       </c>
       <c r="D460">
-        <v>1506318</v>
+        <v>1525003</v>
       </c>
       <c r="E460" t="s">
         <v>26</v>
@@ -15819,10 +15819,10 @@
         <v>11</v>
       </c>
       <c r="C461">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D461">
-        <v>395514</v>
+        <v>401514</v>
       </c>
       <c r="E461" t="s">
         <v>26</v>
@@ -15851,10 +15851,10 @@
         <v>11</v>
       </c>
       <c r="C462">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D462">
-        <v>52500</v>
+        <v>54000</v>
       </c>
       <c r="E462" t="s">
         <v>26</v>
@@ -15915,10 +15915,10 @@
         <v>11</v>
       </c>
       <c r="C464">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="D464">
-        <v>1568051</v>
+        <v>1584066</v>
       </c>
       <c r="E464" t="s">
         <v>26</v>
@@ -15947,10 +15947,10 @@
         <v>11</v>
       </c>
       <c r="C465">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="D465">
-        <v>1573985</v>
+        <v>1587608</v>
       </c>
       <c r="E465" t="s">
         <v>26</v>
@@ -15979,10 +15979,10 @@
         <v>11</v>
       </c>
       <c r="C466">
-        <v>2402</v>
+        <v>2438</v>
       </c>
       <c r="D466">
-        <v>3538782</v>
+        <v>3590169</v>
       </c>
       <c r="E466" t="s">
         <v>26</v>
@@ -16011,10 +16011,10 @@
         <v>11</v>
       </c>
       <c r="C467">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="D467">
-        <v>1056590</v>
+        <v>1077134</v>
       </c>
       <c r="E467" t="s">
         <v>26</v>
@@ -16043,10 +16043,10 @@
         <v>11</v>
       </c>
       <c r="C468">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D468">
-        <v>274781</v>
+        <v>280781</v>
       </c>
       <c r="E468" t="s">
         <v>26</v>
@@ -16075,10 +16075,10 @@
         <v>11</v>
       </c>
       <c r="C469">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D469">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="E469" t="s">
         <v>26</v>
@@ -16107,10 +16107,10 @@
         <v>11</v>
       </c>
       <c r="C470">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D470">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="E470" t="s">
         <v>26</v>
@@ -16139,10 +16139,10 @@
         <v>11</v>
       </c>
       <c r="C471">
-        <v>1215</v>
+        <v>1231</v>
       </c>
       <c r="D471">
-        <v>1643649</v>
+        <v>1666760</v>
       </c>
       <c r="E471" t="s">
         <v>26</v>
@@ -16171,10 +16171,10 @@
         <v>11</v>
       </c>
       <c r="C472">
-        <v>2823</v>
+        <v>2842</v>
       </c>
       <c r="D472">
-        <v>4110756</v>
+        <v>4136804</v>
       </c>
       <c r="E472" t="s">
         <v>26</v>
@@ -16203,10 +16203,10 @@
         <v>11</v>
       </c>
       <c r="C473">
-        <v>6805</v>
+        <v>6859</v>
       </c>
       <c r="D473">
-        <v>10027427</v>
+        <v>10106018</v>
       </c>
       <c r="E473" t="s">
         <v>26</v>
@@ -16235,10 +16235,10 @@
         <v>11</v>
       </c>
       <c r="C474">
-        <v>1950</v>
+        <v>1966</v>
       </c>
       <c r="D474">
-        <v>2905323</v>
+        <v>2928726</v>
       </c>
       <c r="E474" t="s">
         <v>26</v>
@@ -16267,10 +16267,10 @@
         <v>11</v>
       </c>
       <c r="C475">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D475">
-        <v>638344</v>
+        <v>647344</v>
       </c>
       <c r="E475" t="s">
         <v>26</v>
@@ -16299,10 +16299,10 @@
         <v>11</v>
       </c>
       <c r="C476">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D476">
-        <v>94500</v>
+        <v>97500</v>
       </c>
       <c r="E476" t="s">
         <v>26</v>
@@ -16331,10 +16331,10 @@
         <v>11</v>
       </c>
       <c r="C477">
-        <v>2543</v>
+        <v>2563</v>
       </c>
       <c r="D477">
-        <v>3440401</v>
+        <v>3466982</v>
       </c>
       <c r="E477" t="s">
         <v>26</v>
@@ -16363,10 +16363,10 @@
         <v>11</v>
       </c>
       <c r="C478">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D478">
-        <v>940286</v>
+        <v>946286</v>
       </c>
       <c r="E478" t="s">
         <v>26</v>
@@ -16395,10 +16395,10 @@
         <v>11</v>
       </c>
       <c r="C479">
-        <v>1480</v>
+        <v>1495</v>
       </c>
       <c r="D479">
-        <v>2172098</v>
+        <v>2192491</v>
       </c>
       <c r="E479" t="s">
         <v>26</v>
@@ -16427,10 +16427,10 @@
         <v>11</v>
       </c>
       <c r="C480">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D480">
-        <v>700281</v>
+        <v>708488</v>
       </c>
       <c r="E480" t="s">
         <v>26</v>
@@ -16523,10 +16523,10 @@
         <v>11</v>
       </c>
       <c r="C483">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="D483">
-        <v>1033621</v>
+        <v>1045182</v>
       </c>
       <c r="E483" t="s">
         <v>26</v>
@@ -16555,10 +16555,10 @@
         <v>11</v>
       </c>
       <c r="C484">
-        <v>3978</v>
+        <v>4012</v>
       </c>
       <c r="D484">
-        <v>5801226</v>
+        <v>5850625</v>
       </c>
       <c r="E484" t="s">
         <v>26</v>
@@ -16587,10 +16587,10 @@
         <v>11</v>
       </c>
       <c r="C485">
-        <v>9810</v>
+        <v>9910</v>
       </c>
       <c r="D485">
-        <v>14494326</v>
+        <v>14636210</v>
       </c>
       <c r="E485" t="s">
         <v>26</v>
@@ -16619,10 +16619,10 @@
         <v>11</v>
       </c>
       <c r="C486">
-        <v>3473</v>
+        <v>3509</v>
       </c>
       <c r="D486">
-        <v>5183302</v>
+        <v>5233958</v>
       </c>
       <c r="E486" t="s">
         <v>26</v>
@@ -16651,10 +16651,10 @@
         <v>11</v>
       </c>
       <c r="C487">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="D487">
-        <v>1526014</v>
+        <v>1539514</v>
       </c>
       <c r="E487" t="s">
         <v>26</v>
@@ -16683,10 +16683,10 @@
         <v>11</v>
       </c>
       <c r="C488">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D488">
-        <v>268500</v>
+        <v>273000</v>
       </c>
       <c r="E488" t="s">
         <v>26</v>
@@ -16747,10 +16747,10 @@
         <v>11</v>
       </c>
       <c r="C490">
-        <v>3873</v>
+        <v>3920</v>
       </c>
       <c r="D490">
-        <v>5272639</v>
+        <v>5338554</v>
       </c>
       <c r="E490" t="s">
         <v>26</v>
@@ -16779,10 +16779,10 @@
         <v>11</v>
       </c>
       <c r="C491">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="D491">
-        <v>1191790</v>
+        <v>1203054</v>
       </c>
       <c r="E491" t="s">
         <v>26</v>
@@ -16811,10 +16811,10 @@
         <v>11</v>
       </c>
       <c r="C492">
-        <v>2079</v>
+        <v>2095</v>
       </c>
       <c r="D492">
-        <v>3059167</v>
+        <v>3081017</v>
       </c>
       <c r="E492" t="s">
         <v>26</v>
@@ -16843,10 +16843,10 @@
         <v>11</v>
       </c>
       <c r="C493">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="D493">
-        <v>1005524</v>
+        <v>1014524</v>
       </c>
       <c r="E493" t="s">
         <v>26</v>
@@ -16907,10 +16907,10 @@
         <v>11</v>
       </c>
       <c r="C495">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D495">
-        <v>48000</v>
+        <v>51000</v>
       </c>
       <c r="E495" t="s">
         <v>26</v>
@@ -16939,10 +16939,10 @@
         <v>11</v>
       </c>
       <c r="C496">
-        <v>1110</v>
+        <v>1120</v>
       </c>
       <c r="D496">
-        <v>1505080</v>
+        <v>1517213</v>
       </c>
       <c r="E496" t="s">
         <v>26</v>
@@ -16971,10 +16971,10 @@
         <v>11</v>
       </c>
       <c r="C497">
-        <v>5309</v>
+        <v>5356</v>
       </c>
       <c r="D497">
-        <v>7720386</v>
+        <v>7783497</v>
       </c>
       <c r="E497" t="s">
         <v>26</v>
@@ -17003,10 +17003,10 @@
         <v>11</v>
       </c>
       <c r="C498">
-        <v>11982</v>
+        <v>12073</v>
       </c>
       <c r="D498">
-        <v>17647315</v>
+        <v>17780791</v>
       </c>
       <c r="E498" t="s">
         <v>26</v>
@@ -17035,10 +17035,10 @@
         <v>11</v>
       </c>
       <c r="C499">
-        <v>3675</v>
+        <v>3702</v>
       </c>
       <c r="D499">
-        <v>5483076</v>
+        <v>5522798</v>
       </c>
       <c r="E499" t="s">
         <v>26</v>
@@ -17067,10 +17067,10 @@
         <v>11</v>
       </c>
       <c r="C500">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="D500">
-        <v>1370838</v>
+        <v>1385838</v>
       </c>
       <c r="E500" t="s">
         <v>26</v>
@@ -17163,10 +17163,10 @@
         <v>11</v>
       </c>
       <c r="C503">
-        <v>3821</v>
+        <v>3851</v>
       </c>
       <c r="D503">
-        <v>5174469</v>
+        <v>5212753</v>
       </c>
       <c r="E503" t="s">
         <v>26</v>
@@ -17195,10 +17195,10 @@
         <v>11</v>
       </c>
       <c r="C504">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D504">
-        <v>1163294</v>
+        <v>1166740</v>
       </c>
       <c r="E504" t="s">
         <v>26</v>
@@ -17227,10 +17227,10 @@
         <v>11</v>
       </c>
       <c r="C505">
-        <v>1479</v>
+        <v>1490</v>
       </c>
       <c r="D505">
-        <v>2186607</v>
+        <v>2201876</v>
       </c>
       <c r="E505" t="s">
         <v>26</v>
@@ -17259,10 +17259,10 @@
         <v>11</v>
       </c>
       <c r="C506">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D506">
-        <v>615718</v>
+        <v>617218</v>
       </c>
       <c r="E506" t="s">
         <v>26</v>
@@ -17291,10 +17291,10 @@
         <v>11</v>
       </c>
       <c r="C507">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D507">
-        <v>160335</v>
+        <v>161835</v>
       </c>
       <c r="E507" t="s">
         <v>26</v>
@@ -17355,10 +17355,10 @@
         <v>11</v>
       </c>
       <c r="C509">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="D509">
-        <v>1008530</v>
+        <v>1018190</v>
       </c>
       <c r="E509" t="s">
         <v>26</v>
@@ -17387,10 +17387,10 @@
         <v>11</v>
       </c>
       <c r="C510">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D510">
-        <v>625803</v>
+        <v>627303</v>
       </c>
       <c r="E510" t="s">
         <v>26</v>
@@ -17419,10 +17419,10 @@
         <v>11</v>
       </c>
       <c r="C511">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="D511">
-        <v>970051</v>
+        <v>978551</v>
       </c>
       <c r="E511" t="s">
         <v>26</v>
@@ -17451,10 +17451,10 @@
         <v>11</v>
       </c>
       <c r="C512">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D512">
-        <v>290123</v>
+        <v>300623</v>
       </c>
       <c r="E512" t="s">
         <v>26</v>
@@ -17547,10 +17547,10 @@
         <v>11</v>
       </c>
       <c r="C515">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D515">
-        <v>410379</v>
+        <v>424317</v>
       </c>
       <c r="E515" t="s">
         <v>26</v>
@@ -17579,10 +17579,10 @@
         <v>11</v>
       </c>
       <c r="C516">
-        <v>2448</v>
+        <v>2473</v>
       </c>
       <c r="D516">
-        <v>3562510</v>
+        <v>3597051</v>
       </c>
       <c r="E516" t="s">
         <v>26</v>
@@ -17611,10 +17611,10 @@
         <v>11</v>
       </c>
       <c r="C517">
-        <v>4433</v>
+        <v>4466</v>
       </c>
       <c r="D517">
-        <v>6500044</v>
+        <v>6549544</v>
       </c>
       <c r="E517" t="s">
         <v>26</v>
@@ -17643,10 +17643,10 @@
         <v>11</v>
       </c>
       <c r="C518">
-        <v>1386</v>
+        <v>1405</v>
       </c>
       <c r="D518">
-        <v>2070740</v>
+        <v>2096548</v>
       </c>
       <c r="E518" t="s">
         <v>26</v>
@@ -17675,10 +17675,10 @@
         <v>11</v>
       </c>
       <c r="C519">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D519">
-        <v>549724</v>
+        <v>557224</v>
       </c>
       <c r="E519" t="s">
         <v>26</v>
@@ -17707,10 +17707,10 @@
         <v>11</v>
       </c>
       <c r="C520">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D520">
-        <v>99000</v>
+        <v>100500</v>
       </c>
       <c r="E520" t="s">
         <v>26</v>
@@ -17739,10 +17739,10 @@
         <v>11</v>
       </c>
       <c r="C521">
-        <v>1663</v>
+        <v>1674</v>
       </c>
       <c r="D521">
-        <v>2236438</v>
+        <v>2249820</v>
       </c>
       <c r="E521" t="s">
         <v>26</v>
@@ -17771,10 +17771,10 @@
         <v>11</v>
       </c>
       <c r="C522">
-        <v>1089</v>
+        <v>1098</v>
       </c>
       <c r="D522">
-        <v>1588220</v>
+        <v>1601720</v>
       </c>
       <c r="E522" t="s">
         <v>26</v>
@@ -17803,10 +17803,10 @@
         <v>11</v>
       </c>
       <c r="C523">
-        <v>2839</v>
+        <v>2868</v>
       </c>
       <c r="D523">
-        <v>4198711</v>
+        <v>4239521</v>
       </c>
       <c r="E523" t="s">
         <v>26</v>
@@ -17835,10 +17835,10 @@
         <v>11</v>
       </c>
       <c r="C524">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="D524">
-        <v>1229403</v>
+        <v>1245057</v>
       </c>
       <c r="E524" t="s">
         <v>26</v>
@@ -17867,10 +17867,10 @@
         <v>11</v>
       </c>
       <c r="C525">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D525">
-        <v>262300</v>
+        <v>269800</v>
       </c>
       <c r="E525" t="s">
         <v>26</v>
@@ -17931,10 +17931,10 @@
         <v>11</v>
       </c>
       <c r="C527">
-        <v>1140</v>
+        <v>1151</v>
       </c>
       <c r="D527">
-        <v>1539951</v>
+        <v>1554846</v>
       </c>
       <c r="E527" t="s">
         <v>26</v>
@@ -17963,10 +17963,10 @@
         <v>11</v>
       </c>
       <c r="C528">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="D528">
-        <v>1053955</v>
+        <v>1063217</v>
       </c>
       <c r="E528" t="s">
         <v>26</v>
@@ -17995,10 +17995,10 @@
         <v>11</v>
       </c>
       <c r="C529">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="D529">
-        <v>2684508</v>
+        <v>2695173</v>
       </c>
       <c r="E529" t="s">
         <v>26</v>
@@ -18027,10 +18027,10 @@
         <v>11</v>
       </c>
       <c r="C530">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="D530">
-        <v>819646</v>
+        <v>828156</v>
       </c>
       <c r="E530" t="s">
         <v>26</v>
@@ -18059,10 +18059,10 @@
         <v>11</v>
       </c>
       <c r="C531">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D531">
-        <v>228000</v>
+        <v>232500</v>
       </c>
       <c r="E531" t="s">
         <v>26</v>
@@ -18155,10 +18155,10 @@
         <v>11</v>
       </c>
       <c r="C534">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="D534">
-        <v>1048801</v>
+        <v>1058205</v>
       </c>
       <c r="E534" t="s">
         <v>26</v>
@@ -18187,10 +18187,10 @@
         <v>11</v>
       </c>
       <c r="C535">
-        <v>3337</v>
+        <v>3358</v>
       </c>
       <c r="D535">
-        <v>4885606</v>
+        <v>4916606</v>
       </c>
       <c r="E535" t="s">
         <v>27</v>
@@ -18219,10 +18219,10 @@
         <v>11</v>
       </c>
       <c r="C536">
-        <v>8464</v>
+        <v>8533</v>
       </c>
       <c r="D536">
-        <v>12539161</v>
+        <v>12641039</v>
       </c>
       <c r="E536" t="s">
         <v>27</v>
@@ -18251,10 +18251,10 @@
         <v>11</v>
       </c>
       <c r="C537">
-        <v>3113</v>
+        <v>3145</v>
       </c>
       <c r="D537">
-        <v>4650778</v>
+        <v>4698778</v>
       </c>
       <c r="E537" t="s">
         <v>27</v>
@@ -18283,10 +18283,10 @@
         <v>11</v>
       </c>
       <c r="C538">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="D538">
-        <v>1146920</v>
+        <v>1167920</v>
       </c>
       <c r="E538" t="s">
         <v>27</v>
@@ -18315,10 +18315,10 @@
         <v>11</v>
       </c>
       <c r="C539">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D539">
-        <v>181762</v>
+        <v>186262</v>
       </c>
       <c r="E539" t="s">
         <v>27</v>
@@ -18379,10 +18379,10 @@
         <v>11</v>
       </c>
       <c r="C541">
-        <v>2735</v>
+        <v>2756</v>
       </c>
       <c r="D541">
-        <v>3722094</v>
+        <v>3750470</v>
       </c>
       <c r="E541" t="s">
         <v>27</v>
@@ -18411,10 +18411,10 @@
         <v>11</v>
       </c>
       <c r="C542">
-        <v>1522</v>
+        <v>1531</v>
       </c>
       <c r="D542">
-        <v>2223915</v>
+        <v>2236021</v>
       </c>
       <c r="E542" t="s">
         <v>27</v>
@@ -18443,10 +18443,10 @@
         <v>11</v>
       </c>
       <c r="C543">
-        <v>4849</v>
+        <v>4887</v>
       </c>
       <c r="D543">
-        <v>7177530</v>
+        <v>7229347</v>
       </c>
       <c r="E543" t="s">
         <v>27</v>
@@ -18475,10 +18475,10 @@
         <v>11</v>
       </c>
       <c r="C544">
-        <v>1566</v>
+        <v>1577</v>
       </c>
       <c r="D544">
-        <v>2334204</v>
+        <v>2350055</v>
       </c>
       <c r="E544" t="s">
         <v>27</v>
@@ -18507,10 +18507,10 @@
         <v>11</v>
       </c>
       <c r="C545">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D545">
-        <v>594092</v>
+        <v>597092</v>
       </c>
       <c r="E545" t="s">
         <v>27</v>
@@ -18603,10 +18603,10 @@
         <v>11</v>
       </c>
       <c r="C548">
-        <v>1506</v>
+        <v>1513</v>
       </c>
       <c r="D548">
-        <v>2067733</v>
+        <v>2078233</v>
       </c>
       <c r="E548" t="s">
         <v>27</v>
@@ -18635,10 +18635,10 @@
         <v>11</v>
       </c>
       <c r="C549">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="D549">
-        <v>928716</v>
+        <v>936216</v>
       </c>
       <c r="E549" t="s">
         <v>27</v>
@@ -18667,10 +18667,10 @@
         <v>11</v>
       </c>
       <c r="C550">
-        <v>1739</v>
+        <v>1755</v>
       </c>
       <c r="D550">
-        <v>2569538</v>
+        <v>2592834</v>
       </c>
       <c r="E550" t="s">
         <v>27</v>
@@ -18699,10 +18699,10 @@
         <v>11</v>
       </c>
       <c r="C551">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D551">
-        <v>817998</v>
+        <v>829998</v>
       </c>
       <c r="E551" t="s">
         <v>27</v>
@@ -18731,10 +18731,10 @@
         <v>11</v>
       </c>
       <c r="C552">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D552">
-        <v>208418</v>
+        <v>214418</v>
       </c>
       <c r="E552" t="s">
         <v>27</v>
@@ -18827,10 +18827,10 @@
         <v>11</v>
       </c>
       <c r="C555">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="D555">
-        <v>731365</v>
+        <v>743525</v>
       </c>
       <c r="E555" t="s">
         <v>27</v>
@@ -18859,10 +18859,10 @@
         <v>11</v>
       </c>
       <c r="C556">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="D556">
-        <v>1510382</v>
+        <v>1521628</v>
       </c>
       <c r="E556" t="s">
         <v>27</v>
@@ -18891,10 +18891,10 @@
         <v>11</v>
       </c>
       <c r="C557">
-        <v>2857</v>
+        <v>2881</v>
       </c>
       <c r="D557">
-        <v>4229058</v>
+        <v>4260623</v>
       </c>
       <c r="E557" t="s">
         <v>27</v>
@@ -18923,10 +18923,10 @@
         <v>11</v>
       </c>
       <c r="C558">
-        <v>952</v>
+        <v>966</v>
       </c>
       <c r="D558">
-        <v>1419950</v>
+        <v>1439194</v>
       </c>
       <c r="E558" t="s">
         <v>27</v>
@@ -18955,10 +18955,10 @@
         <v>11</v>
       </c>
       <c r="C559">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D559">
-        <v>339699</v>
+        <v>341965</v>
       </c>
       <c r="E559" t="s">
         <v>27</v>
@@ -18987,10 +18987,10 @@
         <v>11</v>
       </c>
       <c r="C560">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D560">
-        <v>61500</v>
+        <v>63000</v>
       </c>
       <c r="E560" t="s">
         <v>27</v>
@@ -19019,10 +19019,10 @@
         <v>11</v>
       </c>
       <c r="C561">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="D561">
-        <v>1214147</v>
+        <v>1225699</v>
       </c>
       <c r="E561" t="s">
         <v>27</v>
@@ -19051,10 +19051,10 @@
         <v>11</v>
       </c>
       <c r="C562">
-        <v>2112</v>
+        <v>2127</v>
       </c>
       <c r="D562">
-        <v>3074520</v>
+        <v>3095714</v>
       </c>
       <c r="E562" t="s">
         <v>27</v>
@@ -19083,10 +19083,10 @@
         <v>11</v>
       </c>
       <c r="C563">
-        <v>4496</v>
+        <v>4521</v>
       </c>
       <c r="D563">
-        <v>6642286</v>
+        <v>6675312</v>
       </c>
       <c r="E563" t="s">
         <v>27</v>
@@ -19115,10 +19115,10 @@
         <v>11</v>
       </c>
       <c r="C564">
-        <v>1617</v>
+        <v>1630</v>
       </c>
       <c r="D564">
-        <v>2412198</v>
+        <v>2431698</v>
       </c>
       <c r="E564" t="s">
         <v>27</v>
@@ -19147,10 +19147,10 @@
         <v>11</v>
       </c>
       <c r="C565">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D565">
-        <v>530540</v>
+        <v>540206</v>
       </c>
       <c r="E565" t="s">
         <v>27</v>
@@ -19243,10 +19243,10 @@
         <v>11</v>
       </c>
       <c r="C568">
-        <v>1372</v>
+        <v>1388</v>
       </c>
       <c r="D568">
-        <v>1883397</v>
+        <v>1904485</v>
       </c>
       <c r="E568" t="s">
         <v>27</v>
@@ -19275,10 +19275,10 @@
         <v>11</v>
       </c>
       <c r="C569">
-        <v>5250</v>
+        <v>5294</v>
       </c>
       <c r="D569">
-        <v>7651622</v>
+        <v>7715030</v>
       </c>
       <c r="E569" t="s">
         <v>28</v>
@@ -19307,10 +19307,10 @@
         <v>11</v>
       </c>
       <c r="C570">
-        <v>13247</v>
+        <v>13357</v>
       </c>
       <c r="D570">
-        <v>19577527</v>
+        <v>19734935</v>
       </c>
       <c r="E570" t="s">
         <v>28</v>
@@ -19339,10 +19339,10 @@
         <v>11</v>
       </c>
       <c r="C571">
-        <v>4034</v>
+        <v>4071</v>
       </c>
       <c r="D571">
-        <v>6028521</v>
+        <v>6082814</v>
       </c>
       <c r="E571" t="s">
         <v>28</v>
@@ -19371,10 +19371,10 @@
         <v>11</v>
       </c>
       <c r="C572">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="D572">
-        <v>1641907</v>
+        <v>1659907</v>
       </c>
       <c r="E572" t="s">
         <v>28</v>
@@ -19403,10 +19403,10 @@
         <v>11</v>
       </c>
       <c r="C573">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D573">
-        <v>330458</v>
+        <v>334958</v>
       </c>
       <c r="E573" t="s">
         <v>28</v>
@@ -19467,10 +19467,10 @@
         <v>11</v>
       </c>
       <c r="C575">
-        <v>4606</v>
+        <v>4646</v>
       </c>
       <c r="D575">
-        <v>6383268</v>
+        <v>6434467</v>
       </c>
       <c r="E575" t="s">
         <v>28</v>
@@ -19499,10 +19499,10 @@
         <v>11</v>
       </c>
       <c r="C576">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="D576">
-        <v>1349595</v>
+        <v>1360095</v>
       </c>
       <c r="E576" t="s">
         <v>28</v>
@@ -19531,10 +19531,10 @@
         <v>11</v>
       </c>
       <c r="C577">
-        <v>1839</v>
+        <v>1860</v>
       </c>
       <c r="D577">
-        <v>2698902</v>
+        <v>2730402</v>
       </c>
       <c r="E577" t="s">
         <v>28</v>
@@ -19563,10 +19563,10 @@
         <v>11</v>
       </c>
       <c r="C578">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="D578">
-        <v>810659</v>
+        <v>822659</v>
       </c>
       <c r="E578" t="s">
         <v>28</v>
@@ -19595,10 +19595,10 @@
         <v>11</v>
       </c>
       <c r="C579">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D579">
-        <v>152669</v>
+        <v>157169</v>
       </c>
       <c r="E579" t="s">
         <v>28</v>
@@ -19659,10 +19659,10 @@
         <v>11</v>
       </c>
       <c r="C581">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="D581">
-        <v>1025131</v>
+        <v>1031310</v>
       </c>
       <c r="E581" t="s">
         <v>28</v>
@@ -19691,10 +19691,10 @@
         <v>11</v>
       </c>
       <c r="C582">
-        <v>6646</v>
+        <v>6698</v>
       </c>
       <c r="D582">
-        <v>9725709</v>
+        <v>9800652</v>
       </c>
       <c r="E582" t="s">
         <v>28</v>
@@ -19723,10 +19723,10 @@
         <v>11</v>
       </c>
       <c r="C583">
-        <v>18710</v>
+        <v>18856</v>
       </c>
       <c r="D583">
-        <v>27648787</v>
+        <v>27852732</v>
       </c>
       <c r="E583" t="s">
         <v>28</v>
@@ -19755,10 +19755,10 @@
         <v>11</v>
       </c>
       <c r="C584">
-        <v>5940</v>
+        <v>5990</v>
       </c>
       <c r="D584">
-        <v>8877876</v>
+        <v>8948704</v>
       </c>
       <c r="E584" t="s">
         <v>28</v>
@@ -19787,10 +19787,10 @@
         <v>11</v>
       </c>
       <c r="C585">
-        <v>1497</v>
+        <v>1511</v>
       </c>
       <c r="D585">
-        <v>2239828</v>
+        <v>2260828</v>
       </c>
       <c r="E585" t="s">
         <v>28</v>
@@ -19819,10 +19819,10 @@
         <v>11</v>
       </c>
       <c r="C586">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D586">
-        <v>477754</v>
+        <v>479254</v>
       </c>
       <c r="E586" t="s">
         <v>28</v>
@@ -19915,10 +19915,10 @@
         <v>11</v>
       </c>
       <c r="C589">
-        <v>6035</v>
+        <v>6075</v>
       </c>
       <c r="D589">
-        <v>8291039</v>
+        <v>8344310</v>
       </c>
       <c r="E589" t="s">
         <v>28</v>
@@ -19947,10 +19947,10 @@
         <v>11</v>
       </c>
       <c r="C590">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="D590">
-        <v>1144292</v>
+        <v>1153955</v>
       </c>
       <c r="E590" t="s">
         <v>28</v>
@@ -19979,10 +19979,10 @@
         <v>11</v>
       </c>
       <c r="C591">
-        <v>1798</v>
+        <v>1810</v>
       </c>
       <c r="D591">
-        <v>2643250</v>
+        <v>2657872</v>
       </c>
       <c r="E591" t="s">
         <v>28</v>
@@ -20011,10 +20011,10 @@
         <v>11</v>
       </c>
       <c r="C592">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="D592">
-        <v>1006115</v>
+        <v>1024746</v>
       </c>
       <c r="E592" t="s">
         <v>28</v>
@@ -20043,10 +20043,10 @@
         <v>11</v>
       </c>
       <c r="C593">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D593">
-        <v>290561</v>
+        <v>292061</v>
       </c>
       <c r="E593" t="s">
         <v>28</v>
@@ -20139,10 +20139,10 @@
         <v>11</v>
       </c>
       <c r="C596">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="D596">
-        <v>1870982</v>
+        <v>1879401</v>
       </c>
       <c r="E596" t="s">
         <v>28</v>
@@ -20171,10 +20171,10 @@
         <v>11</v>
       </c>
       <c r="C597">
-        <v>5648</v>
+        <v>5695</v>
       </c>
       <c r="D597">
-        <v>8138170</v>
+        <v>8205169</v>
       </c>
       <c r="E597" t="s">
         <v>28</v>
@@ -20203,10 +20203,10 @@
         <v>11</v>
       </c>
       <c r="C598">
-        <v>11494</v>
+        <v>11578</v>
       </c>
       <c r="D598">
-        <v>16877819</v>
+        <v>16999223</v>
       </c>
       <c r="E598" t="s">
         <v>28</v>
@@ -20235,10 +20235,10 @@
         <v>11</v>
       </c>
       <c r="C599">
-        <v>3184</v>
+        <v>3217</v>
       </c>
       <c r="D599">
-        <v>4752347</v>
+        <v>4800989</v>
       </c>
       <c r="E599" t="s">
         <v>28</v>
@@ -20267,10 +20267,10 @@
         <v>11</v>
       </c>
       <c r="C600">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="D600">
-        <v>1095438</v>
+        <v>1110438</v>
       </c>
       <c r="E600" t="s">
         <v>28</v>
@@ -20363,10 +20363,10 @@
         <v>11</v>
       </c>
       <c r="C603">
-        <v>3668</v>
+        <v>3693</v>
       </c>
       <c r="D603">
-        <v>5039107</v>
+        <v>5070253</v>
       </c>
       <c r="E603" t="s">
         <v>28</v>
@@ -20395,10 +20395,10 @@
         <v>11</v>
       </c>
       <c r="C604">
-        <v>2390</v>
+        <v>2410</v>
       </c>
       <c r="D604">
-        <v>3469974</v>
+        <v>3498793</v>
       </c>
       <c r="E604" t="s">
         <v>28</v>
@@ -20427,10 +20427,10 @@
         <v>11</v>
       </c>
       <c r="C605">
-        <v>6333</v>
+        <v>6383</v>
       </c>
       <c r="D605">
-        <v>9335569</v>
+        <v>9407804</v>
       </c>
       <c r="E605" t="s">
         <v>28</v>
@@ -20459,10 +20459,10 @@
         <v>11</v>
       </c>
       <c r="C606">
-        <v>1740</v>
+        <v>1757</v>
       </c>
       <c r="D606">
-        <v>2597262</v>
+        <v>2621528</v>
       </c>
       <c r="E606" t="s">
         <v>28</v>
@@ -20491,10 +20491,10 @@
         <v>11</v>
       </c>
       <c r="C607">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D607">
-        <v>570594</v>
+        <v>575094</v>
       </c>
       <c r="E607" t="s">
         <v>28</v>
@@ -20587,10 +20587,10 @@
         <v>11</v>
       </c>
       <c r="C610">
-        <v>2019</v>
+        <v>2034</v>
       </c>
       <c r="D610">
-        <v>2705038</v>
+        <v>2726770</v>
       </c>
       <c r="E610" t="s">
         <v>28</v>
@@ -20619,10 +20619,10 @@
         <v>11</v>
       </c>
       <c r="C611">
-        <v>2187</v>
+        <v>2199</v>
       </c>
       <c r="D611">
-        <v>3208355</v>
+        <v>3226355</v>
       </c>
       <c r="E611" t="s">
         <v>29</v>
@@ -20651,10 +20651,10 @@
         <v>11</v>
       </c>
       <c r="C612">
-        <v>6690</v>
+        <v>6754</v>
       </c>
       <c r="D612">
-        <v>9934514</v>
+        <v>10027429</v>
       </c>
       <c r="E612" t="s">
         <v>29</v>
@@ -20683,10 +20683,10 @@
         <v>11</v>
       </c>
       <c r="C613">
-        <v>2649</v>
+        <v>2678</v>
       </c>
       <c r="D613">
-        <v>3956435</v>
+        <v>3998935</v>
       </c>
       <c r="E613" t="s">
         <v>29</v>
@@ -20715,10 +20715,10 @@
         <v>11</v>
       </c>
       <c r="C614">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="D614">
-        <v>1127310</v>
+        <v>1145310</v>
       </c>
       <c r="E614" t="s">
         <v>29</v>
@@ -20747,10 +20747,10 @@
         <v>11</v>
       </c>
       <c r="C615">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D615">
-        <v>173801</v>
+        <v>179801</v>
       </c>
       <c r="E615" t="s">
         <v>29</v>
@@ -20811,10 +20811,10 @@
         <v>11</v>
       </c>
       <c r="C617">
-        <v>2141</v>
+        <v>2162</v>
       </c>
       <c r="D617">
-        <v>3003234</v>
+        <v>3031324</v>
       </c>
       <c r="E617" t="s">
         <v>29</v>
@@ -20843,10 +20843,10 @@
         <v>11</v>
       </c>
       <c r="C618">
-        <v>3686</v>
+        <v>3719</v>
       </c>
       <c r="D618">
-        <v>5414723</v>
+        <v>5461296</v>
       </c>
       <c r="E618" t="s">
         <v>29</v>
@@ -20875,10 +20875,10 @@
         <v>11</v>
       </c>
       <c r="C619">
-        <v>9572</v>
+        <v>9673</v>
       </c>
       <c r="D619">
-        <v>14166880</v>
+        <v>14313306</v>
       </c>
       <c r="E619" t="s">
         <v>29</v>
@@ -20907,10 +20907,10 @@
         <v>11</v>
       </c>
       <c r="C620">
-        <v>4434</v>
+        <v>4463</v>
       </c>
       <c r="D620">
-        <v>6634033</v>
+        <v>6677533</v>
       </c>
       <c r="E620" t="s">
         <v>29</v>
@@ -20939,10 +20939,10 @@
         <v>11</v>
       </c>
       <c r="C621">
-        <v>1326</v>
+        <v>1332</v>
       </c>
       <c r="D621">
-        <v>1985554</v>
+        <v>1994554</v>
       </c>
       <c r="E621" t="s">
         <v>29</v>
@@ -20971,10 +20971,10 @@
         <v>11</v>
       </c>
       <c r="C622">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D622">
-        <v>393000</v>
+        <v>402181</v>
       </c>
       <c r="E622" t="s">
         <v>29</v>
@@ -21035,10 +21035,10 @@
         <v>11</v>
       </c>
       <c r="C624">
-        <v>3335</v>
+        <v>3365</v>
       </c>
       <c r="D624">
-        <v>4672514</v>
+        <v>4709290</v>
       </c>
       <c r="E624" t="s">
         <v>29</v>
@@ -21067,10 +21067,10 @@
         <v>11</v>
       </c>
       <c r="C625">
-        <v>10630</v>
+        <v>10717</v>
       </c>
       <c r="D625">
-        <v>15531743</v>
+        <v>15653914</v>
       </c>
       <c r="E625" t="s">
         <v>29</v>
@@ -21099,10 +21099,10 @@
         <v>11</v>
       </c>
       <c r="C626">
-        <v>30865</v>
+        <v>31127</v>
       </c>
       <c r="D626">
-        <v>45730622</v>
+        <v>46115313</v>
       </c>
       <c r="E626" t="s">
         <v>29</v>
@@ -21131,10 +21131,10 @@
         <v>11</v>
       </c>
       <c r="C627">
-        <v>14537</v>
+        <v>14650</v>
       </c>
       <c r="D627">
-        <v>21750202</v>
+        <v>21917623</v>
       </c>
       <c r="E627" t="s">
         <v>29</v>
@@ -21163,10 +21163,10 @@
         <v>11</v>
       </c>
       <c r="C628">
-        <v>5097</v>
+        <v>5125</v>
       </c>
       <c r="D628">
-        <v>7637038</v>
+        <v>7678658</v>
       </c>
       <c r="E628" t="s">
         <v>29</v>
@@ -21195,10 +21195,10 @@
         <v>11</v>
       </c>
       <c r="C629">
-        <v>1112</v>
+        <v>1119</v>
       </c>
       <c r="D629">
-        <v>1666659</v>
+        <v>1677159</v>
       </c>
       <c r="E629" t="s">
         <v>29</v>
@@ -21291,10 +21291,10 @@
         <v>11</v>
       </c>
       <c r="C632">
-        <v>10352</v>
+        <v>10430</v>
       </c>
       <c r="D632">
-        <v>14421789</v>
+        <v>14523787</v>
       </c>
       <c r="E632" t="s">
         <v>29</v>
@@ -21323,10 +21323,10 @@
         <v>11</v>
       </c>
       <c r="C633">
-        <v>2981</v>
+        <v>3017</v>
       </c>
       <c r="D633">
-        <v>4358403</v>
+        <v>4411200</v>
       </c>
       <c r="E633" t="s">
         <v>29</v>
@@ -21355,10 +21355,10 @@
         <v>11</v>
       </c>
       <c r="C634">
-        <v>11203</v>
+        <v>11309</v>
       </c>
       <c r="D634">
-        <v>16583477</v>
+        <v>16739947</v>
       </c>
       <c r="E634" t="s">
         <v>29</v>
@@ -21387,10 +21387,10 @@
         <v>11</v>
       </c>
       <c r="C635">
-        <v>5448</v>
+        <v>5500</v>
       </c>
       <c r="D635">
-        <v>8136357</v>
+        <v>8213506</v>
       </c>
       <c r="E635" t="s">
         <v>29</v>
@@ -21419,10 +21419,10 @@
         <v>11</v>
       </c>
       <c r="C636">
-        <v>1547</v>
+        <v>1562</v>
       </c>
       <c r="D636">
-        <v>2316092</v>
+        <v>2338592</v>
       </c>
       <c r="E636" t="s">
         <v>29</v>
@@ -21451,10 +21451,10 @@
         <v>11</v>
       </c>
       <c r="C637">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="D637">
-        <v>510945</v>
+        <v>528515</v>
       </c>
       <c r="E637" t="s">
         <v>29</v>
@@ -21515,10 +21515,10 @@
         <v>11</v>
       </c>
       <c r="C639">
-        <v>3086</v>
+        <v>3116</v>
       </c>
       <c r="D639">
-        <v>4298044</v>
+        <v>4332875</v>
       </c>
       <c r="E639" t="s">
         <v>29</v>
@@ -21547,10 +21547,10 @@
         <v>11</v>
       </c>
       <c r="C640">
-        <v>2704</v>
+        <v>2718</v>
       </c>
       <c r="D640">
-        <v>3953089</v>
+        <v>3974089</v>
       </c>
       <c r="E640" t="s">
         <v>29</v>
@@ -21579,10 +21579,10 @@
         <v>11</v>
       </c>
       <c r="C641">
-        <v>8113</v>
+        <v>8184</v>
       </c>
       <c r="D641">
-        <v>12013067</v>
+        <v>12116427</v>
       </c>
       <c r="E641" t="s">
         <v>29</v>
@@ -21611,10 +21611,10 @@
         <v>11</v>
       </c>
       <c r="C642">
-        <v>3148</v>
+        <v>3179</v>
       </c>
       <c r="D642">
-        <v>4692086</v>
+        <v>4737176</v>
       </c>
       <c r="E642" t="s">
         <v>29</v>
@@ -21643,10 +21643,10 @@
         <v>11</v>
       </c>
       <c r="C643">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="D643">
-        <v>1368000</v>
+        <v>1381500</v>
       </c>
       <c r="E643" t="s">
         <v>29</v>
@@ -21675,10 +21675,10 @@
         <v>11</v>
       </c>
       <c r="C644">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D644">
-        <v>225000</v>
+        <v>228000</v>
       </c>
       <c r="E644" t="s">
         <v>29</v>
@@ -21707,10 +21707,10 @@
         <v>11</v>
       </c>
       <c r="C645">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D645">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="E645" t="s">
         <v>29</v>
@@ -21739,10 +21739,10 @@
         <v>11</v>
       </c>
       <c r="C646">
-        <v>2602</v>
+        <v>2623</v>
       </c>
       <c r="D646">
-        <v>3607835</v>
+        <v>3636238</v>
       </c>
       <c r="E646" t="s">
         <v>29</v>
@@ -21771,10 +21771,10 @@
         <v>11</v>
       </c>
       <c r="C647">
-        <v>2195</v>
+        <v>2215</v>
       </c>
       <c r="D647">
-        <v>3222340</v>
+        <v>3249465</v>
       </c>
       <c r="E647" t="s">
         <v>29</v>
@@ -21803,10 +21803,10 @@
         <v>11</v>
       </c>
       <c r="C648">
-        <v>7199</v>
+        <v>7261</v>
       </c>
       <c r="D648">
-        <v>10662150</v>
+        <v>10752126</v>
       </c>
       <c r="E648" t="s">
         <v>29</v>
@@ -21835,10 +21835,10 @@
         <v>11</v>
       </c>
       <c r="C649">
-        <v>3095</v>
+        <v>3128</v>
       </c>
       <c r="D649">
-        <v>4620581</v>
+        <v>4668715</v>
       </c>
       <c r="E649" t="s">
         <v>29</v>
@@ -21867,10 +21867,10 @@
         <v>11</v>
       </c>
       <c r="C650">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="D650">
-        <v>1299916</v>
+        <v>1310416</v>
       </c>
       <c r="E650" t="s">
         <v>29</v>
@@ -21899,10 +21899,10 @@
         <v>11</v>
       </c>
       <c r="C651">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D651">
-        <v>257400</v>
+        <v>264900</v>
       </c>
       <c r="E651" t="s">
         <v>29</v>
@@ -21963,10 +21963,10 @@
         <v>11</v>
       </c>
       <c r="C653">
-        <v>2282</v>
+        <v>2296</v>
       </c>
       <c r="D653">
-        <v>3165288</v>
+        <v>3184259</v>
       </c>
       <c r="E653" t="s">
         <v>29</v>
@@ -21995,10 +21995,10 @@
         <v>11</v>
       </c>
       <c r="C654">
-        <v>2823</v>
+        <v>2850</v>
       </c>
       <c r="D654">
-        <v>4144902</v>
+        <v>4182755</v>
       </c>
       <c r="E654" t="s">
         <v>29</v>
@@ -22027,10 +22027,10 @@
         <v>11</v>
       </c>
       <c r="C655">
-        <v>8625</v>
+        <v>8702</v>
       </c>
       <c r="D655">
-        <v>12767940</v>
+        <v>12879582</v>
       </c>
       <c r="E655" t="s">
         <v>29</v>
@@ -22059,10 +22059,10 @@
         <v>11</v>
       </c>
       <c r="C656">
-        <v>3639</v>
+        <v>3672</v>
       </c>
       <c r="D656">
-        <v>5437023</v>
+        <v>5486523</v>
       </c>
       <c r="E656" t="s">
         <v>29</v>
@@ -22091,10 +22091,10 @@
         <v>11</v>
       </c>
       <c r="C657">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="D657">
-        <v>1520106</v>
+        <v>1526106</v>
       </c>
       <c r="E657" t="s">
         <v>29</v>
@@ -22123,10 +22123,10 @@
         <v>11</v>
       </c>
       <c r="C658">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D658">
-        <v>321000</v>
+        <v>324000</v>
       </c>
       <c r="E658" t="s">
         <v>29</v>
@@ -22187,10 +22187,10 @@
         <v>11</v>
       </c>
       <c r="C660">
-        <v>2929</v>
+        <v>2958</v>
       </c>
       <c r="D660">
-        <v>4102234</v>
+        <v>4138336</v>
       </c>
       <c r="E660" t="s">
         <v>29</v>
@@ -22219,10 +22219,10 @@
         <v>11</v>
       </c>
       <c r="C661">
-        <v>2603</v>
+        <v>2625</v>
       </c>
       <c r="D661">
-        <v>3820487</v>
+        <v>3852037</v>
       </c>
       <c r="E661" t="s">
         <v>29</v>
@@ -22251,10 +22251,10 @@
         <v>11</v>
       </c>
       <c r="C662">
-        <v>7391</v>
+        <v>7459</v>
       </c>
       <c r="D662">
-        <v>10938888</v>
+        <v>11039841</v>
       </c>
       <c r="E662" t="s">
         <v>29</v>
@@ -22283,10 +22283,10 @@
         <v>11</v>
       </c>
       <c r="C663">
-        <v>2874</v>
+        <v>2899</v>
       </c>
       <c r="D663">
-        <v>4291690</v>
+        <v>4329190</v>
       </c>
       <c r="E663" t="s">
         <v>29</v>
@@ -22315,10 +22315,10 @@
         <v>11</v>
       </c>
       <c r="C664">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="D664">
-        <v>1337946</v>
+        <v>1351381</v>
       </c>
       <c r="E664" t="s">
         <v>29</v>
@@ -22347,10 +22347,10 @@
         <v>11</v>
       </c>
       <c r="C665">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D665">
-        <v>245450</v>
+        <v>251450</v>
       </c>
       <c r="E665" t="s">
         <v>29</v>
@@ -22411,10 +22411,10 @@
         <v>11</v>
       </c>
       <c r="C667">
-        <v>2583</v>
+        <v>2610</v>
       </c>
       <c r="D667">
-        <v>3584608</v>
+        <v>3620719</v>
       </c>
       <c r="E667" t="s">
         <v>29</v>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5393</v>
+        <v>5397</v>
       </c>
       <c r="D3" t="n">
-        <v>7927163</v>
+        <v>7933163</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1923</v>
+        <v>1929</v>
       </c>
       <c r="D4" t="n">
-        <v>2857563</v>
+        <v>2866563</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D5" t="n">
-        <v>724722</v>
+        <v>729222</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D8" t="n">
-        <v>685556</v>
+        <v>688556</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3319</v>
+        <v>3321</v>
       </c>
       <c r="D10" t="n">
-        <v>4861428</v>
+        <v>4863758</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D11" t="n">
-        <v>1289379</v>
+        <v>1290879</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="D14" t="n">
-        <v>2280151</v>
+        <v>2289992</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="D15" t="n">
-        <v>3363270</v>
+        <v>3366270</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3928</v>
+        <v>3931</v>
       </c>
       <c r="D16" t="n">
-        <v>5743950</v>
+        <v>5748450</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D17" t="n">
-        <v>1607878</v>
+        <v>1610878</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="D22" t="n">
-        <v>2643226</v>
+        <v>2645733</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="D28" t="n">
-        <v>4278498</v>
+        <v>4279998</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6042</v>
+        <v>6043</v>
       </c>
       <c r="D29" t="n">
-        <v>8859775</v>
+        <v>8861275</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="D30" t="n">
-        <v>2784329</v>
+        <v>2788829</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="D34" t="n">
-        <v>2994499</v>
+        <v>2995999</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="D36" t="n">
-        <v>3854239</v>
+        <v>3855739</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3659</v>
+        <v>3663</v>
       </c>
       <c r="D42" t="n">
-        <v>5326260</v>
+        <v>5332260</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8338</v>
+        <v>8340</v>
       </c>
       <c r="D43" t="n">
-        <v>12242620</v>
+        <v>12245418</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3375</v>
+        <v>3381</v>
       </c>
       <c r="D44" t="n">
-        <v>5002133</v>
+        <v>5009883</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D46" t="n">
-        <v>408037</v>
+        <v>409537</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4625</v>
+        <v>4629</v>
       </c>
       <c r="D48" t="n">
-        <v>6338856</v>
+        <v>6342846</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5435</v>
+        <v>5439</v>
       </c>
       <c r="D49" t="n">
-        <v>7878627</v>
+        <v>7882406</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>12852</v>
+        <v>12864</v>
       </c>
       <c r="D50" t="n">
-        <v>18920333</v>
+        <v>18936821</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="D51" t="n">
-        <v>6467213</v>
+        <v>6470213</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D52" t="n">
-        <v>1715623</v>
+        <v>1717123</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D53" t="n">
-        <v>344403</v>
+        <v>347403</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5234</v>
+        <v>5238</v>
       </c>
       <c r="D56" t="n">
-        <v>7191551</v>
+        <v>7197146</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7393</v>
+        <v>7396</v>
       </c>
       <c r="D58" t="n">
-        <v>10848770</v>
+        <v>10853270</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="D59" t="n">
-        <v>3465995</v>
+        <v>3467495</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D60" t="n">
-        <v>872075</v>
+        <v>877979</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D61" t="n">
-        <v>201019</v>
+        <v>205207</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3358,10 +3358,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="D63" t="n">
-        <v>4151557</v>
+        <v>4153007</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="D64" t="n">
-        <v>3548080</v>
+        <v>3551398</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6582</v>
+        <v>6592</v>
       </c>
       <c r="D65" t="n">
-        <v>9636303</v>
+        <v>9649984</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="D66" t="n">
-        <v>3282733</v>
+        <v>3285733</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3694,10 +3694,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="D70" t="n">
-        <v>3683708</v>
+        <v>3684501</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8379</v>
+        <v>8391</v>
       </c>
       <c r="D71" t="n">
-        <v>12171153</v>
+        <v>12187036</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>20925</v>
+        <v>20956</v>
       </c>
       <c r="D72" t="n">
-        <v>30774554</v>
+        <v>30819626</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7276</v>
+        <v>7281</v>
       </c>
       <c r="D73" t="n">
-        <v>10808203</v>
+        <v>10815703</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="D74" t="n">
-        <v>2984225</v>
+        <v>2990585</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6894</v>
+        <v>6896</v>
       </c>
       <c r="D79" t="n">
-        <v>9514789</v>
+        <v>9517789</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="D80" t="n">
-        <v>3662752</v>
+        <v>3664252</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5984</v>
+        <v>5985</v>
       </c>
       <c r="D81" t="n">
-        <v>8779845</v>
+        <v>8781345</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2649</v>
+        <v>2654</v>
       </c>
       <c r="D82" t="n">
-        <v>3926313</v>
+        <v>3933813</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="D83" t="n">
-        <v>1381497</v>
+        <v>1387497</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6082</v>
+        <v>6085</v>
       </c>
       <c r="D86" t="n">
-        <v>8569693</v>
+        <v>8572953</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4625</v>
+        <v>4632</v>
       </c>
       <c r="D88" t="n">
-        <v>6798478</v>
+        <v>6808978</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D90" t="n">
-        <v>659075</v>
+        <v>663575</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4290</v>
+        <v>4297</v>
       </c>
       <c r="D95" t="n">
-        <v>6303049</v>
+        <v>6313249</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D101" t="n">
-        <v>1969969</v>
+        <v>1971469</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D102" t="n">
-        <v>947306</v>
+        <v>948806</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="D103" t="n">
-        <v>2466623</v>
+        <v>2468123</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5518,10 +5518,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D108" t="n">
-        <v>1498103</v>
+        <v>1499603</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="D109" t="n">
-        <v>3736130</v>
+        <v>3737630</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D110" t="n">
-        <v>1115101</v>
+        <v>1118557</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D115" t="n">
-        <v>965420</v>
+        <v>966920</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D116" t="n">
-        <v>2673023</v>
+        <v>2674523</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D121" t="n">
-        <v>2632413</v>
+        <v>2633913</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>5429</v>
+        <v>5433</v>
       </c>
       <c r="D122" t="n">
-        <v>7960626</v>
+        <v>7966179</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="D123" t="n">
-        <v>2425884</v>
+        <v>2427384</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D124" t="n">
-        <v>503965</v>
+        <v>508465</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="D126" t="n">
-        <v>3058517</v>
+        <v>3063017</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D129" t="n">
-        <v>572627</v>
+        <v>575627</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5742</v>
+        <v>5747</v>
       </c>
       <c r="D141" t="n">
-        <v>8414151</v>
+        <v>8421651</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="D142" t="n">
-        <v>2375109</v>
+        <v>2376609</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="D146" t="n">
-        <v>2939188</v>
+        <v>2940688</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3395</v>
+        <v>3397</v>
       </c>
       <c r="D147" t="n">
-        <v>4898508</v>
+        <v>4901508</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7791</v>
+        <v>7800</v>
       </c>
       <c r="D148" t="n">
-        <v>11420099</v>
+        <v>11433599</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2746</v>
+        <v>2750</v>
       </c>
       <c r="D149" t="n">
-        <v>4076170</v>
+        <v>4082170</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D150" t="n">
-        <v>959826</v>
+        <v>962826</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2962</v>
+        <v>2965</v>
       </c>
       <c r="D153" t="n">
-        <v>3969138</v>
+        <v>3971546</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>8954</v>
+        <v>8960</v>
       </c>
       <c r="D155" t="n">
-        <v>13218526</v>
+        <v>13226626</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="D156" t="n">
-        <v>4391412</v>
+        <v>4392912</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D157" t="n">
-        <v>1288475</v>
+        <v>1289975</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2946</v>
+        <v>2952</v>
       </c>
       <c r="D160" t="n">
-        <v>4003143</v>
+        <v>4005401</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="D161" t="n">
-        <v>5014449</v>
+        <v>5015949</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>7475</v>
+        <v>7479</v>
       </c>
       <c r="D162" t="n">
-        <v>10973720</v>
+        <v>10979720</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2436</v>
+        <v>2441</v>
       </c>
       <c r="D163" t="n">
-        <v>3626731</v>
+        <v>3634231</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D168" t="n">
-        <v>1134506</v>
+        <v>1137090</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2365</v>
+        <v>2369</v>
       </c>
       <c r="D169" t="n">
-        <v>3468331</v>
+        <v>3473653</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D174" t="n">
-        <v>1461939</v>
+        <v>1463439</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3314</v>
+        <v>3316</v>
       </c>
       <c r="D176" t="n">
-        <v>4891166</v>
+        <v>4894166</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="D181" t="n">
-        <v>1414712</v>
+        <v>1419998</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="D183" t="n">
-        <v>2636061</v>
+        <v>2637561</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D184" t="n">
-        <v>933638</v>
+        <v>935138</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>5419</v>
+        <v>5423</v>
       </c>
       <c r="D189" t="n">
-        <v>7940823</v>
+        <v>7946293</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="D190" t="n">
-        <v>2817933</v>
+        <v>2819433</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D191" t="n">
-        <v>734124</v>
+        <v>735624</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="D194" t="n">
-        <v>2645260</v>
+        <v>2648760</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="D195" t="n">
-        <v>2553775</v>
+        <v>2555275</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>5317</v>
+        <v>5322</v>
       </c>
       <c r="D196" t="n">
-        <v>7828448</v>
+        <v>7834768</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="D197" t="n">
-        <v>2933430</v>
+        <v>2934930</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D198" t="n">
-        <v>685675</v>
+        <v>685875</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1757</v>
+        <v>1761</v>
       </c>
       <c r="D201" t="n">
-        <v>2315245</v>
+        <v>2320398</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2997</v>
+        <v>2999</v>
       </c>
       <c r="D203" t="n">
-        <v>4411074</v>
+        <v>4414074</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D207" t="n">
-        <v>1411495</v>
+        <v>1412995</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3273</v>
+        <v>3275</v>
       </c>
       <c r="D209" t="n">
-        <v>4785042</v>
+        <v>4788042</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D213" t="n">
-        <v>850360</v>
+        <v>855664</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="D214" t="n">
-        <v>2814310</v>
+        <v>2818810</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3712</v>
+        <v>3714</v>
       </c>
       <c r="D215" t="n">
-        <v>5422805</v>
+        <v>5425805</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D216" t="n">
-        <v>1716542</v>
+        <v>1719542</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D219" t="n">
-        <v>2045164</v>
+        <v>2046664</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="D221" t="n">
-        <v>3089471</v>
+        <v>3092471</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D222" t="n">
-        <v>1024630</v>
+        <v>1026130</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D223" t="n">
-        <v>307928</v>
+        <v>309428</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D225" t="n">
-        <v>1135398</v>
+        <v>1136898</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D228" t="n">
-        <v>1162340</v>
+        <v>1166840</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D231" t="n">
-        <v>1164674</v>
+        <v>1165546</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3622</v>
+        <v>3629</v>
       </c>
       <c r="D232" t="n">
-        <v>5252214</v>
+        <v>5258626</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>11650</v>
+        <v>11661</v>
       </c>
       <c r="D233" t="n">
-        <v>17105910</v>
+        <v>17121606</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="D235" t="n">
-        <v>2047290</v>
+        <v>2051790</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D243" t="n">
-        <v>60017</v>
+        <v>61517</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="D246" t="n">
-        <v>3601530</v>
+        <v>3604530</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>7417</v>
+        <v>7426</v>
       </c>
       <c r="D247" t="n">
-        <v>10895054</v>
+        <v>10906651</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D250" t="n">
-        <v>274230</v>
+        <v>277230</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="D254" t="n">
-        <v>2539759</v>
+        <v>2541259</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="D255" t="n">
-        <v>2407409</v>
+        <v>2408909</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>4676</v>
+        <v>4678</v>
       </c>
       <c r="D256" t="n">
-        <v>6887086</v>
+        <v>6890086</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="D262" t="n">
-        <v>2538979</v>
+        <v>2541088</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>5259</v>
+        <v>5261</v>
       </c>
       <c r="D263" t="n">
-        <v>7738587</v>
+        <v>7740742</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="D264" t="n">
-        <v>2727653</v>
+        <v>2732153</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="D268" t="n">
-        <v>2748399</v>
+        <v>2751399</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D270" t="n">
-        <v>1946311</v>
+        <v>1947811</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="D275" t="n">
-        <v>3578799</v>
+        <v>3581799</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>8153</v>
+        <v>8156</v>
       </c>
       <c r="D276" t="n">
-        <v>11953722</v>
+        <v>11958222</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>3400</v>
+        <v>3402</v>
       </c>
       <c r="D277" t="n">
-        <v>5058914</v>
+        <v>5061914</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D279" t="n">
-        <v>217656</v>
+        <v>219156</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2236</v>
+        <v>2240</v>
       </c>
       <c r="D281" t="n">
-        <v>2993986</v>
+        <v>2999986</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3718</v>
+        <v>3721</v>
       </c>
       <c r="D283" t="n">
-        <v>5466462</v>
+        <v>5470962</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13966,10 +13966,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D284" t="n">
-        <v>1829289</v>
+        <v>1830789</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14158,10 +14158,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1520</v>
+        <v>1527</v>
       </c>
       <c r="D288" t="n">
-        <v>2006543</v>
+        <v>2017043</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="D289" t="n">
-        <v>2425133</v>
+        <v>2431133</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>5933</v>
+        <v>5947</v>
       </c>
       <c r="D290" t="n">
-        <v>8735326</v>
+        <v>8756326</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="D291" t="n">
-        <v>3108370</v>
+        <v>3111370</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D292" t="n">
-        <v>1010805</v>
+        <v>1012305</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>5376</v>
+        <v>5408</v>
       </c>
       <c r="D295" t="n">
-        <v>7428230</v>
+        <v>7473915</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D296" t="n">
-        <v>993340</v>
+        <v>994840</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1706</v>
+        <v>1722</v>
       </c>
       <c r="D297" t="n">
-        <v>2527414</v>
+        <v>2551414</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="D298" t="n">
-        <v>1023219</v>
+        <v>1032219</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14782,10 +14782,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D301" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="D302" t="n">
-        <v>1412214</v>
+        <v>1419265</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D303" t="n">
-        <v>1559184</v>
+        <v>1560684</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>3403</v>
+        <v>3408</v>
       </c>
       <c r="D304" t="n">
-        <v>4992428</v>
+        <v>4999928</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D305" t="n">
-        <v>1889919</v>
+        <v>1891419</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>6459</v>
+        <v>6467</v>
       </c>
       <c r="D310" t="n">
-        <v>9324163</v>
+        <v>9336163</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>18511</v>
+        <v>18522</v>
       </c>
       <c r="D311" t="n">
-        <v>27104234</v>
+        <v>27120734</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>6596</v>
+        <v>6603</v>
       </c>
       <c r="D312" t="n">
-        <v>9820207</v>
+        <v>9830707</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="D313" t="n">
-        <v>2955752</v>
+        <v>2964752</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D314" t="n">
-        <v>611470</v>
+        <v>614470</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>5789</v>
+        <v>5792</v>
       </c>
       <c r="D316" t="n">
-        <v>7657551</v>
+        <v>7662051</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6085</v>
+        <v>6089</v>
       </c>
       <c r="D318" t="n">
-        <v>8941729</v>
+        <v>8947729</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="D319" t="n">
-        <v>3224670</v>
+        <v>3230670</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D320" t="n">
-        <v>857699</v>
+        <v>862199</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>3365</v>
+        <v>3369</v>
       </c>
       <c r="D324" t="n">
-        <v>4846735</v>
+        <v>4851603</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>10266</v>
+        <v>10270</v>
       </c>
       <c r="D325" t="n">
-        <v>15017413</v>
+        <v>15022045</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="D326" t="n">
-        <v>4981201</v>
+        <v>4982701</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D327" t="n">
-        <v>1527373</v>
+        <v>1528873</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3586</v>
+        <v>3588</v>
       </c>
       <c r="D331" t="n">
-        <v>4695205</v>
+        <v>4695907</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D332" t="n">
-        <v>2051014</v>
+        <v>2051944</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>4018</v>
+        <v>4032</v>
       </c>
       <c r="D333" t="n">
-        <v>5876785</v>
+        <v>5892216</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16606,10 +16606,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>3257</v>
+        <v>3264</v>
       </c>
       <c r="D339" t="n">
-        <v>4755476</v>
+        <v>4765976</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>9574</v>
+        <v>9586</v>
       </c>
       <c r="D340" t="n">
-        <v>14135639</v>
+        <v>14153539</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16702,10 +16702,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3734</v>
+        <v>3738</v>
       </c>
       <c r="D341" t="n">
-        <v>5560427</v>
+        <v>5566427</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="D342" t="n">
-        <v>1635679</v>
+        <v>1643179</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3159</v>
+        <v>3163</v>
       </c>
       <c r="D345" t="n">
-        <v>4393370</v>
+        <v>4398080</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>5644</v>
+        <v>5650</v>
       </c>
       <c r="D346" t="n">
-        <v>8236184</v>
+        <v>8245184</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14069</v>
+        <v>14086</v>
       </c>
       <c r="D347" t="n">
-        <v>20731229</v>
+        <v>20756729</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17038,10 +17038,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>6379</v>
+        <v>6381</v>
       </c>
       <c r="D348" t="n">
-        <v>9517284</v>
+        <v>9520040</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="D349" t="n">
-        <v>2901872</v>
+        <v>2904872</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>5092</v>
+        <v>5099</v>
       </c>
       <c r="D352" t="n">
-        <v>6989017</v>
+        <v>6997881</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>16572</v>
+        <v>16589</v>
       </c>
       <c r="D353" t="n">
-        <v>24074669</v>
+        <v>24095916</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>46192</v>
+        <v>46251</v>
       </c>
       <c r="D354" t="n">
-        <v>68132097</v>
+        <v>68219834</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>21571</v>
+        <v>21598</v>
       </c>
       <c r="D355" t="n">
-        <v>32198919</v>
+        <v>32237016</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>7659</v>
+        <v>7681</v>
       </c>
       <c r="D356" t="n">
-        <v>11455277</v>
+        <v>11486983</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17470,10 +17470,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="D357" t="n">
-        <v>2693416</v>
+        <v>2705416</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>16276</v>
+        <v>16298</v>
       </c>
       <c r="D362" t="n">
-        <v>22220258</v>
+        <v>22244837</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>3941</v>
+        <v>3945</v>
       </c>
       <c r="D363" t="n">
-        <v>5742240</v>
+        <v>5748240</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>11442</v>
+        <v>11447</v>
       </c>
       <c r="D364" t="n">
-        <v>16839819</v>
+        <v>16847319</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17854,10 +17854,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>4363</v>
+        <v>4368</v>
       </c>
       <c r="D365" t="n">
-        <v>6480544</v>
+        <v>6488044</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>3889</v>
+        <v>3897</v>
       </c>
       <c r="D369" t="n">
-        <v>5331821</v>
+        <v>5341764</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>4696</v>
+        <v>4700</v>
       </c>
       <c r="D370" t="n">
-        <v>6834129</v>
+        <v>6840129</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>17137</v>
+        <v>17157</v>
       </c>
       <c r="D371" t="n">
-        <v>25259571</v>
+        <v>25289413</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>8226</v>
+        <v>8238</v>
       </c>
       <c r="D372" t="n">
-        <v>12267894</v>
+        <v>12285625</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="D373" t="n">
-        <v>3455388</v>
+        <v>3458388</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D374" t="n">
-        <v>835595</v>
+        <v>838595</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>4818</v>
+        <v>4822</v>
       </c>
       <c r="D376" t="n">
-        <v>6541263</v>
+        <v>6546794</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>4279</v>
+        <v>4293</v>
       </c>
       <c r="D377" t="n">
-        <v>6238536</v>
+        <v>6259276</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>12575</v>
+        <v>12596</v>
       </c>
       <c r="D378" t="n">
-        <v>18525957</v>
+        <v>18556757</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>5267</v>
+        <v>5278</v>
       </c>
       <c r="D379" t="n">
-        <v>7852744</v>
+        <v>7868529</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="D380" t="n">
-        <v>2254742</v>
+        <v>2259242</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D381" t="n">
-        <v>520606</v>
+        <v>526606</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4410</v>
+        <v>4414</v>
       </c>
       <c r="D383" t="n">
-        <v>6060733</v>
+        <v>6064408</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>10524</v>
+        <v>10540</v>
       </c>
       <c r="D385" t="n">
-        <v>15530123</v>
+        <v>15554123</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4488</v>
+        <v>4497</v>
       </c>
       <c r="D386" t="n">
-        <v>6675272</v>
+        <v>6688772</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D387" t="n">
-        <v>1908116</v>
+        <v>1909616</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3469</v>
+        <v>3473</v>
       </c>
       <c r="D390" t="n">
-        <v>4711422</v>
+        <v>4714324</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="D391" t="n">
-        <v>5529840</v>
+        <v>5531340</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>10417</v>
+        <v>10433</v>
       </c>
       <c r="D392" t="n">
-        <v>15356336</v>
+        <v>15380336</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>4026</v>
+        <v>4029</v>
       </c>
       <c r="D393" t="n">
-        <v>5992762</v>
+        <v>5997262</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D395" t="n">
-        <v>375560</v>
+        <v>377060</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3788</v>
+        <v>3790</v>
       </c>
       <c r="D397" t="n">
-        <v>5208068</v>
+        <v>5211068</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>4073</v>
+        <v>4077</v>
       </c>
       <c r="D398" t="n">
-        <v>5908860</v>
+        <v>5913759</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>10560</v>
+        <v>10570</v>
       </c>
       <c r="D399" t="n">
-        <v>15522740</v>
+        <v>15537460</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>3616</v>
+        <v>3622</v>
       </c>
       <c r="D400" t="n">
-        <v>5391196</v>
+        <v>5399081</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="D401" t="n">
-        <v>1877091</v>
+        <v>1886091</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D402" t="n">
-        <v>382112</v>
+        <v>383612</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>4736</v>
+        <v>4742</v>
       </c>
       <c r="D405" t="n">
-        <v>6389537</v>
+        <v>6398037</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="D406" t="n">
-        <v>1988490</v>
+        <v>1991490</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>4568</v>
+        <v>4571</v>
       </c>
       <c r="D407" t="n">
-        <v>6731495</v>
+        <v>6735995</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="D408" t="n">
-        <v>2642616</v>
+        <v>2647116</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D409" t="n">
-        <v>927641</v>
+        <v>932141</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>3021</v>
+        <v>3028</v>
       </c>
       <c r="D413" t="n">
-        <v>4010297</v>
+        <v>4020458</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D415" t="n">
-        <v>389765</v>
+        <v>392765</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D416" t="n">
-        <v>135000</v>
+        <v>138000</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2876</v>
+        <v>2880</v>
       </c>
       <c r="D419" t="n">
-        <v>4177184</v>
+        <v>4183184</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>6970</v>
+        <v>6975</v>
       </c>
       <c r="D420" t="n">
-        <v>10236232</v>
+        <v>10243732</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="D421" t="n">
-        <v>3430795</v>
+        <v>3432295</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D422" t="n">
-        <v>1003142</v>
+        <v>1004642</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="D425" t="n">
-        <v>2990632</v>
+        <v>2992132</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="D426" t="n">
-        <v>2345314</v>
+        <v>2348314</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>4691</v>
+        <v>4692</v>
       </c>
       <c r="D427" t="n">
-        <v>6886253</v>
+        <v>6887160</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="D432" t="n">
-        <v>2084116</v>
+        <v>2087116</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D433" t="n">
-        <v>2637479</v>
+        <v>2637850</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>4607</v>
+        <v>4610</v>
       </c>
       <c r="D434" t="n">
-        <v>6773691</v>
+        <v>6778191</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D435" t="n">
-        <v>2176161</v>
+        <v>2177661</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21262,10 +21262,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D436" t="n">
-        <v>593663</v>
+        <v>595163</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>2529</v>
+        <v>2532</v>
       </c>
       <c r="D440" t="n">
-        <v>3713457</v>
+        <v>3717957</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="D445" t="n">
-        <v>4126927</v>
+        <v>4129927</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>8897</v>
+        <v>8909</v>
       </c>
       <c r="D446" t="n">
-        <v>13108445</v>
+        <v>13126328</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>3237</v>
+        <v>3241</v>
       </c>
       <c r="D447" t="n">
-        <v>4812008</v>
+        <v>4818008</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2786</v>
+        <v>2789</v>
       </c>
       <c r="D451" t="n">
-        <v>3657044</v>
+        <v>3661544</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22078,10 +22078,10 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3083</v>
+        <v>3089</v>
       </c>
       <c r="D453" t="n">
-        <v>4513715</v>
+        <v>4521546</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D455" t="n">
-        <v>444911</v>
+        <v>446411</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D458" t="n">
-        <v>1633932</v>
+        <v>1634612</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>4113</v>
+        <v>4115</v>
       </c>
       <c r="D459" t="n">
-        <v>5965873</v>
+        <v>5967513</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>7854</v>
+        <v>7858</v>
       </c>
       <c r="D460" t="n">
-        <v>11531162</v>
+        <v>11534822</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D462" t="n">
-        <v>855155</v>
+        <v>856655</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="D465" t="n">
-        <v>3481390</v>
+        <v>3482890</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D466" t="n">
-        <v>1421317</v>
+        <v>1424317</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>2491</v>
+        <v>2494</v>
       </c>
       <c r="D467" t="n">
-        <v>3645714</v>
+        <v>3650214</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D468" t="n">
-        <v>1105755</v>
+        <v>1106257</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="D471" t="n">
-        <v>1694594</v>
+        <v>1699297</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D473" t="n">
-        <v>1449489</v>
+        <v>1453989</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D477" t="n">
-        <v>717074</v>
+        <v>718574</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="D479" t="n">
-        <v>4019945</v>
+        <v>4022945</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D483" t="n">
-        <v>1288819</v>
+        <v>1290319</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2546</v>
+        <v>2550</v>
       </c>
       <c r="D484" t="n">
-        <v>3649969</v>
+        <v>3655969</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>5018</v>
+        <v>5022</v>
       </c>
       <c r="D485" t="n">
-        <v>7353845</v>
+        <v>7358865</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D486" t="n">
-        <v>2119741</v>
+        <v>2121241</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="D490" t="n">
-        <v>2934875</v>
+        <v>2937106</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>8193</v>
+        <v>8198</v>
       </c>
       <c r="D491" t="n">
-        <v>11880048</v>
+        <v>11886781</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>17293</v>
+        <v>17301</v>
       </c>
       <c r="D492" t="n">
-        <v>25340041</v>
+        <v>25350484</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>5901</v>
+        <v>5907</v>
       </c>
       <c r="D493" t="n">
-        <v>8783861</v>
+        <v>8792861</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D495" t="n">
-        <v>535115</v>
+        <v>536615</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>6176</v>
+        <v>6182</v>
       </c>
       <c r="D499" t="n">
-        <v>8390284</v>
+        <v>8399044</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D500" t="n">
-        <v>1746256</v>
+        <v>1749256</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D502" t="n">
-        <v>1495241</v>
+        <v>1498241</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24478,10 +24478,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D503" t="n">
-        <v>490432</v>
+        <v>491932</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D506" t="n">
-        <v>1952892</v>
+        <v>1954392</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="D507" t="n">
-        <v>3890233</v>
+        <v>3891139</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>4713</v>
+        <v>4716</v>
       </c>
       <c r="D508" t="n">
-        <v>6902103</v>
+        <v>6906603</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D510" t="n">
-        <v>544628</v>
+        <v>545373</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="D513" t="n">
-        <v>2003257</v>
+        <v>2008357</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="D514" t="n">
-        <v>2156168</v>
+        <v>2159168</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>3256</v>
+        <v>3258</v>
       </c>
       <c r="D515" t="n">
-        <v>4761378</v>
+        <v>4764378</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="D519" t="n">
-        <v>1869166</v>
+        <v>1872166</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>3469</v>
+        <v>3471</v>
       </c>
       <c r="D520" t="n">
-        <v>4992294</v>
+        <v>4994334</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>8693</v>
+        <v>8699</v>
       </c>
       <c r="D521" t="n">
-        <v>12714592</v>
+        <v>12723592</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>2924</v>
+        <v>2927</v>
       </c>
       <c r="D522" t="n">
-        <v>4342240</v>
+        <v>4346740</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="D528" t="n">
-        <v>1553097</v>
+        <v>1557597</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>3203</v>
+        <v>3207</v>
       </c>
       <c r="D529" t="n">
-        <v>4683196</v>
+        <v>4689196</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D530" t="n">
-        <v>1596578</v>
+        <v>1598078</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D534" t="n">
-        <v>1567948</v>
+        <v>1569838</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D535" t="n">
-        <v>667918</v>
+        <v>669467</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D536" t="n">
-        <v>2432647</v>
+        <v>2437147</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26302,10 +26302,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D541" t="n">
-        <v>1007713</v>
+        <v>1009658</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="D542" t="n">
-        <v>3693025</v>
+        <v>3694837</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>4728</v>
+        <v>4734</v>
       </c>
       <c r="D543" t="n">
-        <v>6926112</v>
+        <v>6933930</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D544" t="n">
-        <v>2157609</v>
+        <v>2159109</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D545" t="n">
-        <v>584278</v>
+        <v>587278</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="D548" t="n">
-        <v>2263075</v>
+        <v>2264575</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26686,10 +26686,10 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="D549" t="n">
-        <v>2333259</v>
+        <v>2334759</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="D550" t="n">
-        <v>5044344</v>
+        <v>5045844</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D555" t="n">
-        <v>2463219</v>
+        <v>2464719</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>4085</v>
+        <v>4086</v>
       </c>
       <c r="D556" t="n">
-        <v>5920387</v>
+        <v>5921887</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>9666</v>
+        <v>9675</v>
       </c>
       <c r="D557" t="n">
-        <v>14143654</v>
+        <v>14156142</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D560" t="n">
-        <v>150740</v>
+        <v>152240</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3739</v>
+        <v>3740</v>
       </c>
       <c r="D561" t="n">
-        <v>4982011</v>
+        <v>4983511</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="D563" t="n">
-        <v>3101533</v>
+        <v>3107533</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D564" t="n">
-        <v>950513</v>
+        <v>953513</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>5770</v>
+        <v>5774</v>
       </c>
       <c r="D568" t="n">
-        <v>8346321</v>
+        <v>8351438</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>14028</v>
+        <v>14039</v>
       </c>
       <c r="D569" t="n">
-        <v>20583068</v>
+        <v>20598818</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="D570" t="n">
-        <v>7385973</v>
+        <v>7387473</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D571" t="n">
-        <v>2245328</v>
+        <v>2246828</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D572" t="n">
-        <v>418585</v>
+        <v>423085</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>5641</v>
+        <v>5646</v>
       </c>
       <c r="D575" t="n">
-        <v>7561706</v>
+        <v>7568845</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>2971</v>
+        <v>2976</v>
       </c>
       <c r="D577" t="n">
-        <v>4314292</v>
+        <v>4321792</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D578" t="n">
-        <v>1452080</v>
+        <v>1453580</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>7940</v>
+        <v>7945</v>
       </c>
       <c r="D582" t="n">
-        <v>11516554</v>
+        <v>11524054</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>17043</v>
+        <v>17059</v>
       </c>
       <c r="D583" t="n">
-        <v>24995563</v>
+        <v>25019563</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>5195</v>
+        <v>5198</v>
       </c>
       <c r="D584" t="n">
-        <v>7726982</v>
+        <v>7731482</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D586" t="n">
-        <v>352043</v>
+        <v>353543</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>5577</v>
+        <v>5582</v>
       </c>
       <c r="D588" t="n">
-        <v>7478066</v>
+        <v>7485566</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="D589" t="n">
-        <v>1716528</v>
+        <v>1718441</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D595" t="n">
-        <v>1498572</v>
+        <v>1500384</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D597" t="n">
-        <v>1441555</v>
+        <v>1443215</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="D601" t="n">
-        <v>852611</v>
+        <v>863111</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>3694</v>
+        <v>3698</v>
       </c>
       <c r="D602" t="n">
-        <v>5360714</v>
+        <v>5366214</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>6263</v>
+        <v>6267</v>
       </c>
       <c r="D603" t="n">
-        <v>9123613</v>
+        <v>9128533</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="D604" t="n">
-        <v>2898850</v>
+        <v>2900350</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29374,10 +29374,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D605" t="n">
-        <v>790092</v>
+        <v>791592</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="D608" t="n">
-        <v>3210007</v>
+        <v>3211507</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29566,10 +29566,10 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D609" t="n">
-        <v>2278794</v>
+        <v>2280294</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>3935</v>
+        <v>3937</v>
       </c>
       <c r="D610" t="n">
-        <v>5779762</v>
+        <v>5782762</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="D611" t="n">
-        <v>1740511</v>
+        <v>1743511</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="D614" t="n">
-        <v>2206852</v>
+        <v>2208352</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D615" t="n">
-        <v>1524730</v>
+        <v>1526230</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>2552</v>
+        <v>2557</v>
       </c>
       <c r="D616" t="n">
-        <v>3740339</v>
+        <v>3745525</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D621" t="n">
-        <v>1515456</v>
+        <v>1516956</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>4824</v>
+        <v>4826</v>
       </c>
       <c r="D622" t="n">
-        <v>6989745</v>
+        <v>6992340</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>11667</v>
+        <v>11673</v>
       </c>
       <c r="D623" t="n">
-        <v>17186655</v>
+        <v>17195655</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>4402</v>
+        <v>4407</v>
       </c>
       <c r="D624" t="n">
-        <v>6534953</v>
+        <v>6542453</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D625" t="n">
-        <v>1720857</v>
+        <v>1722357</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30382,10 +30382,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D626" t="n">
-        <v>303262</v>
+        <v>304762</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30478,10 +30478,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>3976</v>
+        <v>3980</v>
       </c>
       <c r="D628" t="n">
-        <v>5338315</v>
+        <v>5343143</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30526,10 +30526,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="D629" t="n">
-        <v>3094953</v>
+        <v>3096453</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D632" t="n">
-        <v>872060</v>
+        <v>873560</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D633" t="n">
-        <v>129274</v>
+        <v>130774</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="D636" t="n">
-        <v>2903121</v>
+        <v>2904621</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D643" t="n">
-        <v>1045899</v>
+        <v>1046164</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>3914</v>
+        <v>3917</v>
       </c>
       <c r="D645" t="n">
-        <v>5757160</v>
+        <v>5761002</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D650" t="n">
-        <v>1677096</v>
+        <v>1678596</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31582,10 +31582,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="D651" t="n">
-        <v>4386740</v>
+        <v>4388240</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>6085</v>
+        <v>6090</v>
       </c>
       <c r="D652" t="n">
-        <v>8917583</v>
+        <v>8923038</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="D653" t="n">
-        <v>3335689</v>
+        <v>3337189</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>1919</v>
+        <v>1922</v>
       </c>
       <c r="D658" t="n">
-        <v>2588148</v>
+        <v>2590173</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c r="D660" t="n">
-        <v>3903380</v>
+        <v>3906380</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32254,10 +32254,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D665" t="n">
-        <v>1490498</v>
+        <v>1490948</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>7822</v>
+        <v>7824</v>
       </c>
       <c r="D666" t="n">
-        <v>11335503</v>
+        <v>11338503</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32350,10 +32350,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>18993</v>
+        <v>19006</v>
       </c>
       <c r="D667" t="n">
-        <v>27898879</v>
+        <v>27918379</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>5743</v>
+        <v>5747</v>
       </c>
       <c r="D668" t="n">
-        <v>8548311</v>
+        <v>8554311</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="D669" t="n">
-        <v>2411287</v>
+        <v>2415787</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D670" t="n">
-        <v>530606</v>
+        <v>533606</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>6849</v>
+        <v>6857</v>
       </c>
       <c r="D672" t="n">
-        <v>9342875</v>
+        <v>9354656</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>9743</v>
+        <v>9751</v>
       </c>
       <c r="D673" t="n">
-        <v>14153123</v>
+        <v>14165123</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>26501</v>
+        <v>26533</v>
       </c>
       <c r="D674" t="n">
-        <v>38933542</v>
+        <v>38981542</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>8407</v>
+        <v>8413</v>
       </c>
       <c r="D675" t="n">
-        <v>12523657</v>
+        <v>12532655</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="D676" t="n">
-        <v>3316602</v>
+        <v>3318102</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>8794</v>
+        <v>8796</v>
       </c>
       <c r="D680" t="n">
-        <v>11929564</v>
+        <v>11932307</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>2522</v>
+        <v>2530</v>
       </c>
       <c r="D682" t="n">
-        <v>3680090</v>
+        <v>3692060</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D683" t="n">
-        <v>1417669</v>
+        <v>1419169</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D684" t="n">
-        <v>409061</v>
+        <v>410561</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>8359</v>
+        <v>8368</v>
       </c>
       <c r="D688" t="n">
-        <v>11991433</v>
+        <v>12001823</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>16077</v>
+        <v>16088</v>
       </c>
       <c r="D689" t="n">
-        <v>23470932</v>
+        <v>23487432</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D691" t="n">
-        <v>1591876</v>
+        <v>1593376</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>5340</v>
+        <v>5350</v>
       </c>
       <c r="D695" t="n">
-        <v>7238415</v>
+        <v>7250442</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>3494</v>
+        <v>3496</v>
       </c>
       <c r="D696" t="n">
-        <v>5047656</v>
+        <v>5050656</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>8976</v>
+        <v>8986</v>
       </c>
       <c r="D697" t="n">
-        <v>13160671</v>
+        <v>13173231</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="D698" t="n">
-        <v>3669299</v>
+        <v>3670931</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D699" t="n">
-        <v>809277</v>
+        <v>810777</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>2985</v>
+        <v>2990</v>
       </c>
       <c r="D702" t="n">
-        <v>3957602</v>
+        <v>3963762</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5397</v>
+        <v>5402</v>
       </c>
       <c r="D3" t="n">
-        <v>7933163</v>
+        <v>7940663</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1929</v>
+        <v>1937</v>
       </c>
       <c r="D4" t="n">
-        <v>2866563</v>
+        <v>2877000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" t="n">
-        <v>138934</v>
+        <v>140434</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="D10" t="n">
-        <v>4863758</v>
+        <v>4864034</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D11" t="n">
-        <v>1290879</v>
+        <v>1292379</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D12" t="n">
-        <v>327671</v>
+        <v>329171</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="D14" t="n">
-        <v>2289992</v>
+        <v>2292992</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="D15" t="n">
-        <v>3366270</v>
+        <v>3370770</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="D16" t="n">
-        <v>5748450</v>
+        <v>5749950</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D17" t="n">
-        <v>1610878</v>
+        <v>1613878</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="D20" t="n">
-        <v>2218564</v>
+        <v>2221228</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="D22" t="n">
-        <v>2645733</v>
+        <v>2647233</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="D27" t="n">
-        <v>2619078</v>
+        <v>2625078</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2961</v>
+        <v>2963</v>
       </c>
       <c r="D28" t="n">
-        <v>4279998</v>
+        <v>4282998</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6043</v>
+        <v>6048</v>
       </c>
       <c r="D29" t="n">
-        <v>8861275</v>
+        <v>8868775</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="D30" t="n">
-        <v>2788829</v>
+        <v>2790329</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D31" t="n">
-        <v>679404</v>
+        <v>683904</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="D36" t="n">
-        <v>3855739</v>
+        <v>3857239</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8340</v>
+        <v>8349</v>
       </c>
       <c r="D43" t="n">
-        <v>12245418</v>
+        <v>12256923</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3381</v>
+        <v>3385</v>
       </c>
       <c r="D44" t="n">
-        <v>5009883</v>
+        <v>5015354</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D46" t="n">
-        <v>409537</v>
+        <v>412537</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4629</v>
+        <v>4632</v>
       </c>
       <c r="D48" t="n">
-        <v>6342846</v>
+        <v>6345484</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5439</v>
+        <v>5440</v>
       </c>
       <c r="D49" t="n">
-        <v>7882406</v>
+        <v>7883906</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>12864</v>
+        <v>12874</v>
       </c>
       <c r="D50" t="n">
-        <v>18936821</v>
+        <v>18951821</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4363</v>
+        <v>4368</v>
       </c>
       <c r="D51" t="n">
-        <v>6470213</v>
+        <v>6477713</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D52" t="n">
-        <v>1717123</v>
+        <v>1719195</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5238</v>
+        <v>5241</v>
       </c>
       <c r="D56" t="n">
-        <v>7197146</v>
+        <v>7201646</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2944</v>
+        <v>2947</v>
       </c>
       <c r="D57" t="n">
-        <v>4257209</v>
+        <v>4261452</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7396</v>
+        <v>7405</v>
       </c>
       <c r="D58" t="n">
-        <v>10853270</v>
+        <v>10866770</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="D59" t="n">
-        <v>3467495</v>
+        <v>3468995</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D61" t="n">
-        <v>205207</v>
+        <v>206761</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3358,10 +3358,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3172</v>
+        <v>3174</v>
       </c>
       <c r="D63" t="n">
-        <v>4153007</v>
+        <v>4154857</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="D64" t="n">
-        <v>3551398</v>
+        <v>3552898</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6592</v>
+        <v>6594</v>
       </c>
       <c r="D65" t="n">
-        <v>9649984</v>
+        <v>9652984</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="D66" t="n">
-        <v>3285733</v>
+        <v>3290233</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D67" t="n">
-        <v>912121</v>
+        <v>913621</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D68" t="n">
-        <v>149486</v>
+        <v>150986</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3694,10 +3694,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D70" t="n">
-        <v>3684501</v>
+        <v>3686553</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8391</v>
+        <v>8394</v>
       </c>
       <c r="D71" t="n">
-        <v>12187036</v>
+        <v>12191381</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>20956</v>
+        <v>20977</v>
       </c>
       <c r="D72" t="n">
-        <v>30819626</v>
+        <v>30848649</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7281</v>
+        <v>7291</v>
       </c>
       <c r="D73" t="n">
-        <v>10815703</v>
+        <v>10830703</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D74" t="n">
-        <v>2990585</v>
+        <v>2992085</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D76" t="n">
-        <v>33820</v>
+        <v>35320</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6896</v>
+        <v>6897</v>
       </c>
       <c r="D79" t="n">
-        <v>9517789</v>
+        <v>9518081</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2522</v>
+        <v>2525</v>
       </c>
       <c r="D80" t="n">
-        <v>3664252</v>
+        <v>3667401</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5985</v>
+        <v>5993</v>
       </c>
       <c r="D81" t="n">
-        <v>8781345</v>
+        <v>8791895</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="D82" t="n">
-        <v>3933813</v>
+        <v>3936813</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="D83" t="n">
-        <v>1387497</v>
+        <v>1393497</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6085</v>
+        <v>6093</v>
       </c>
       <c r="D86" t="n">
-        <v>8572953</v>
+        <v>8582104</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4632</v>
+        <v>4636</v>
       </c>
       <c r="D88" t="n">
-        <v>6808978</v>
+        <v>6813532</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D90" t="n">
-        <v>663575</v>
+        <v>665075</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="D93" t="n">
-        <v>2433782</v>
+        <v>2435282</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="D94" t="n">
-        <v>2276124</v>
+        <v>2280624</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4297</v>
+        <v>4304</v>
       </c>
       <c r="D95" t="n">
-        <v>6313249</v>
+        <v>6322977</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="D96" t="n">
-        <v>2162808</v>
+        <v>2167308</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="D101" t="n">
-        <v>1971469</v>
+        <v>1973701</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D102" t="n">
-        <v>948806</v>
+        <v>950306</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D104" t="n">
-        <v>756690</v>
+        <v>758190</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="D109" t="n">
-        <v>3737630</v>
+        <v>3739130</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D110" t="n">
-        <v>1118557</v>
+        <v>1121557</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D115" t="n">
-        <v>966920</v>
+        <v>969920</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -6094,10 +6094,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D120" t="n">
-        <v>1082521</v>
+        <v>1084021</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="D121" t="n">
-        <v>2633913</v>
+        <v>2638413</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>5433</v>
+        <v>5437</v>
       </c>
       <c r="D122" t="n">
-        <v>7966179</v>
+        <v>7972179</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1629</v>
+        <v>1634</v>
       </c>
       <c r="D123" t="n">
-        <v>2427384</v>
+        <v>2434284</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="D126" t="n">
-        <v>3063017</v>
+        <v>3066017</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D128" t="n">
-        <v>1553806</v>
+        <v>1556806</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D129" t="n">
-        <v>575627</v>
+        <v>577127</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D130" t="n">
-        <v>125049</v>
+        <v>128049</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="D134" t="n">
-        <v>4534379</v>
+        <v>4535170</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="D140" t="n">
-        <v>3569766</v>
+        <v>3572766</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5747</v>
+        <v>5749</v>
       </c>
       <c r="D141" t="n">
-        <v>8421651</v>
+        <v>8424651</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D143" t="n">
-        <v>558750</v>
+        <v>561750</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3397</v>
+        <v>3399</v>
       </c>
       <c r="D147" t="n">
-        <v>4901508</v>
+        <v>4904508</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7800</v>
+        <v>7806</v>
       </c>
       <c r="D148" t="n">
-        <v>11433599</v>
+        <v>11441444</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D150" t="n">
-        <v>962826</v>
+        <v>965826</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3167</v>
+        <v>3171</v>
       </c>
       <c r="D154" t="n">
-        <v>4594546</v>
+        <v>4600299</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>8960</v>
+        <v>8968</v>
       </c>
       <c r="D155" t="n">
-        <v>13226626</v>
+        <v>13238626</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D157" t="n">
-        <v>1289975</v>
+        <v>1292975</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D158" t="n">
-        <v>248674</v>
+        <v>250174</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2952</v>
+        <v>2957</v>
       </c>
       <c r="D160" t="n">
-        <v>4005401</v>
+        <v>4011638</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3482</v>
+        <v>3485</v>
       </c>
       <c r="D161" t="n">
-        <v>5015949</v>
+        <v>5020449</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>7479</v>
+        <v>7484</v>
       </c>
       <c r="D162" t="n">
-        <v>10979720</v>
+        <v>10987220</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="D163" t="n">
-        <v>3634231</v>
+        <v>3636119</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2782</v>
+        <v>2788</v>
       </c>
       <c r="D167" t="n">
-        <v>3754160</v>
+        <v>3758856</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D168" t="n">
-        <v>1137090</v>
+        <v>1138590</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2369</v>
+        <v>2373</v>
       </c>
       <c r="D169" t="n">
-        <v>3473653</v>
+        <v>3479653</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D170" t="n">
-        <v>1157181</v>
+        <v>1158681</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D171" t="n">
-        <v>333000</v>
+        <v>334500</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="D183" t="n">
-        <v>2637561</v>
+        <v>2642061</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="D188" t="n">
-        <v>2931873</v>
+        <v>2933373</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>5423</v>
+        <v>5425</v>
       </c>
       <c r="D189" t="n">
-        <v>7946293</v>
+        <v>7949293</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="D194" t="n">
-        <v>2648760</v>
+        <v>2650260</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="D195" t="n">
-        <v>2555275</v>
+        <v>2556775</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>5322</v>
+        <v>5325</v>
       </c>
       <c r="D196" t="n">
-        <v>7834768</v>
+        <v>7838145</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="D197" t="n">
-        <v>2934930</v>
+        <v>2937930</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D202" t="n">
-        <v>1357534</v>
+        <v>1359164</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="D203" t="n">
-        <v>4414074</v>
+        <v>4415574</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D205" t="n">
-        <v>301577</v>
+        <v>303077</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D206" t="n">
-        <v>67500</v>
+        <v>69000</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="D207" t="n">
-        <v>1412995</v>
+        <v>1418035</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10318,10 +10318,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D208" t="n">
-        <v>1186100</v>
+        <v>1187526</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3275</v>
+        <v>3280</v>
       </c>
       <c r="D209" t="n">
-        <v>4788042</v>
+        <v>4795542</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="D210" t="n">
-        <v>2474981</v>
+        <v>2479481</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D212" t="n">
-        <v>117000</v>
+        <v>118500</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3714</v>
+        <v>3716</v>
       </c>
       <c r="D215" t="n">
-        <v>5425805</v>
+        <v>5428805</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1510</v>
+        <v>1516</v>
       </c>
       <c r="D219" t="n">
-        <v>2046664</v>
+        <v>2054002</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10894,10 +10894,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D220" t="n">
-        <v>989020</v>
+        <v>990520</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="D221" t="n">
-        <v>3092471</v>
+        <v>3093971</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D226" t="n">
-        <v>1272606</v>
+        <v>1274106</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3629</v>
+        <v>3631</v>
       </c>
       <c r="D232" t="n">
-        <v>5258626</v>
+        <v>5261626</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>11661</v>
+        <v>11670</v>
       </c>
       <c r="D233" t="n">
-        <v>17121606</v>
+        <v>17132192</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>4536</v>
+        <v>4538</v>
       </c>
       <c r="D234" t="n">
-        <v>6733653</v>
+        <v>6736653</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D236" t="n">
-        <v>433154</v>
+        <v>438189</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3143</v>
+        <v>3151</v>
       </c>
       <c r="D238" t="n">
-        <v>4276404</v>
+        <v>4286204</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="D240" t="n">
-        <v>1913289</v>
+        <v>1916289</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>2492</v>
+        <v>2498</v>
       </c>
       <c r="D246" t="n">
-        <v>3604530</v>
+        <v>3613530</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>7426</v>
+        <v>7431</v>
       </c>
       <c r="D247" t="n">
-        <v>10906651</v>
+        <v>10912741</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>3023</v>
+        <v>3026</v>
       </c>
       <c r="D248" t="n">
-        <v>4491146</v>
+        <v>4494614</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D249" t="n">
-        <v>1211559</v>
+        <v>1213059</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="D254" t="n">
-        <v>2541259</v>
+        <v>2541499</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="D255" t="n">
-        <v>2408909</v>
+        <v>2409372</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>4678</v>
+        <v>4681</v>
       </c>
       <c r="D256" t="n">
-        <v>6890086</v>
+        <v>6894586</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12718,10 +12718,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D258" t="n">
-        <v>755539</v>
+        <v>758539</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D259" t="n">
-        <v>103500</v>
+        <v>105000</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="D261" t="n">
-        <v>2372336</v>
+        <v>2377826</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1736</v>
+        <v>1741</v>
       </c>
       <c r="D262" t="n">
-        <v>2541088</v>
+        <v>2548588</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>5261</v>
+        <v>5262</v>
       </c>
       <c r="D263" t="n">
-        <v>7740742</v>
+        <v>7742242</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="D264" t="n">
-        <v>2732153</v>
+        <v>2735153</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="D268" t="n">
-        <v>2751399</v>
+        <v>2752067</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="D270" t="n">
-        <v>1947811</v>
+        <v>1952311</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="D275" t="n">
-        <v>3581799</v>
+        <v>3586299</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>8156</v>
+        <v>8163</v>
       </c>
       <c r="D276" t="n">
-        <v>11958222</v>
+        <v>11967857</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>3402</v>
+        <v>3404</v>
       </c>
       <c r="D277" t="n">
-        <v>5061914</v>
+        <v>5064914</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2240</v>
+        <v>2246</v>
       </c>
       <c r="D281" t="n">
-        <v>2999986</v>
+        <v>3008986</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D282" t="n">
-        <v>2155381</v>
+        <v>2156881</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3721</v>
+        <v>3724</v>
       </c>
       <c r="D283" t="n">
-        <v>5470962</v>
+        <v>5475462</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D285" t="n">
-        <v>526621</v>
+        <v>529621</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14062,10 +14062,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D286" t="n">
-        <v>93917</v>
+        <v>95417</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>5947</v>
+        <v>5962</v>
       </c>
       <c r="D290" t="n">
-        <v>8756326</v>
+        <v>8778326</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="D291" t="n">
-        <v>3111370</v>
+        <v>3115750</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>5408</v>
+        <v>5452</v>
       </c>
       <c r="D295" t="n">
-        <v>7473915</v>
+        <v>7532638</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="D296" t="n">
-        <v>994840</v>
+        <v>1003840</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1722</v>
+        <v>1740</v>
       </c>
       <c r="D297" t="n">
-        <v>2551414</v>
+        <v>2578414</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D298" t="n">
-        <v>1032219</v>
+        <v>1036719</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D299" t="n">
-        <v>347758</v>
+        <v>356758</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D300" t="n">
-        <v>70500</v>
+        <v>73500</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D302" t="n">
-        <v>1419265</v>
+        <v>1428265</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D303" t="n">
-        <v>1560684</v>
+        <v>1562184</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>3408</v>
+        <v>3411</v>
       </c>
       <c r="D304" t="n">
-        <v>4999928</v>
+        <v>5004405</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="D305" t="n">
-        <v>1891419</v>
+        <v>1896198</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="D309" t="n">
-        <v>1781690</v>
+        <v>1784341</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>6467</v>
+        <v>6474</v>
       </c>
       <c r="D310" t="n">
-        <v>9336163</v>
+        <v>9345696</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>18522</v>
+        <v>18530</v>
       </c>
       <c r="D311" t="n">
-        <v>27120734</v>
+        <v>27131634</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>6603</v>
+        <v>6604</v>
       </c>
       <c r="D312" t="n">
-        <v>9830707</v>
+        <v>9832207</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="D313" t="n">
-        <v>2964752</v>
+        <v>2969252</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>5792</v>
+        <v>5803</v>
       </c>
       <c r="D316" t="n">
-        <v>7662051</v>
+        <v>7674133</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6089</v>
+        <v>6093</v>
       </c>
       <c r="D318" t="n">
-        <v>8947729</v>
+        <v>8953729</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="D319" t="n">
-        <v>3230670</v>
+        <v>3236519</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15838,10 +15838,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="D323" t="n">
-        <v>2544214</v>
+        <v>2545714</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>3369</v>
+        <v>3373</v>
       </c>
       <c r="D324" t="n">
-        <v>4851603</v>
+        <v>4855908</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>10270</v>
+        <v>10276</v>
       </c>
       <c r="D325" t="n">
-        <v>15022045</v>
+        <v>15029843</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="D326" t="n">
-        <v>4982701</v>
+        <v>4984201</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D328" t="n">
-        <v>235892</v>
+        <v>238892</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3588</v>
+        <v>3591</v>
       </c>
       <c r="D331" t="n">
-        <v>4695907</v>
+        <v>4700407</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D332" t="n">
-        <v>2051944</v>
+        <v>2053444</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>4032</v>
+        <v>4035</v>
       </c>
       <c r="D333" t="n">
-        <v>5892216</v>
+        <v>5896716</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16558,10 +16558,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="D338" t="n">
-        <v>2067477</v>
+        <v>2069987</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -16606,10 +16606,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="D339" t="n">
-        <v>4765976</v>
+        <v>4767476</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>9586</v>
+        <v>9591</v>
       </c>
       <c r="D340" t="n">
-        <v>14153539</v>
+        <v>14161039</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16702,10 +16702,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="D341" t="n">
-        <v>5566427</v>
+        <v>5567927</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D342" t="n">
-        <v>1643179</v>
+        <v>1644679</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D343" t="n">
-        <v>284801</v>
+        <v>286301</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3163</v>
+        <v>3166</v>
       </c>
       <c r="D345" t="n">
-        <v>4398080</v>
+        <v>4402580</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>5650</v>
+        <v>5653</v>
       </c>
       <c r="D346" t="n">
-        <v>8245184</v>
+        <v>8249684</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14086</v>
+        <v>14102</v>
       </c>
       <c r="D347" t="n">
-        <v>20756729</v>
+        <v>20779254</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17038,10 +17038,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>6381</v>
+        <v>6388</v>
       </c>
       <c r="D348" t="n">
-        <v>9520040</v>
+        <v>9530540</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="D349" t="n">
-        <v>2904872</v>
+        <v>2907872</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D350" t="n">
-        <v>613542</v>
+        <v>615042</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>5099</v>
+        <v>5105</v>
       </c>
       <c r="D352" t="n">
-        <v>6997881</v>
+        <v>7006631</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>16589</v>
+        <v>16618</v>
       </c>
       <c r="D353" t="n">
-        <v>24095916</v>
+        <v>24137012</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>46251</v>
+        <v>46309</v>
       </c>
       <c r="D354" t="n">
-        <v>68219834</v>
+        <v>68299418</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>21598</v>
+        <v>21620</v>
       </c>
       <c r="D355" t="n">
-        <v>32237016</v>
+        <v>32267530</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>7681</v>
+        <v>7692</v>
       </c>
       <c r="D356" t="n">
-        <v>11486983</v>
+        <v>11503483</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17470,10 +17470,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="D357" t="n">
-        <v>2705416</v>
+        <v>2717416</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>16298</v>
+        <v>16321</v>
       </c>
       <c r="D362" t="n">
-        <v>22244837</v>
+        <v>22274455</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>3945</v>
+        <v>3951</v>
       </c>
       <c r="D363" t="n">
-        <v>5748240</v>
+        <v>5755510</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>11447</v>
+        <v>11450</v>
       </c>
       <c r="D364" t="n">
-        <v>16847319</v>
+        <v>16850328</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17854,10 +17854,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>4368</v>
+        <v>4376</v>
       </c>
       <c r="D365" t="n">
-        <v>6488044</v>
+        <v>6498827</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="D366" t="n">
-        <v>1994610</v>
+        <v>1999608</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>3897</v>
+        <v>3903</v>
       </c>
       <c r="D369" t="n">
-        <v>5341764</v>
+        <v>5349664</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>4700</v>
+        <v>4706</v>
       </c>
       <c r="D370" t="n">
-        <v>6840129</v>
+        <v>6848214</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>17157</v>
+        <v>17189</v>
       </c>
       <c r="D371" t="n">
-        <v>25289413</v>
+        <v>25336611</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>8238</v>
+        <v>8244</v>
       </c>
       <c r="D372" t="n">
-        <v>12285625</v>
+        <v>12294625</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2313</v>
+        <v>2317</v>
       </c>
       <c r="D373" t="n">
-        <v>3458388</v>
+        <v>3464388</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D374" t="n">
-        <v>838595</v>
+        <v>843095</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>4822</v>
+        <v>4827</v>
       </c>
       <c r="D376" t="n">
-        <v>6546794</v>
+        <v>6551409</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="D377" t="n">
-        <v>6259276</v>
+        <v>6260776</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>12596</v>
+        <v>12617</v>
       </c>
       <c r="D378" t="n">
-        <v>18556757</v>
+        <v>18586792</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>5278</v>
+        <v>5290</v>
       </c>
       <c r="D379" t="n">
-        <v>7868529</v>
+        <v>7886107</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D380" t="n">
-        <v>2259242</v>
+        <v>2260742</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D381" t="n">
-        <v>526606</v>
+        <v>531106</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4414</v>
+        <v>4420</v>
       </c>
       <c r="D383" t="n">
-        <v>6064408</v>
+        <v>6072511</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3250</v>
+        <v>3259</v>
       </c>
       <c r="D384" t="n">
-        <v>4742988</v>
+        <v>4755714</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>10540</v>
+        <v>10551</v>
       </c>
       <c r="D385" t="n">
-        <v>15554123</v>
+        <v>15568589</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4497</v>
+        <v>4501</v>
       </c>
       <c r="D386" t="n">
-        <v>6688772</v>
+        <v>6694772</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3473</v>
+        <v>3478</v>
       </c>
       <c r="D390" t="n">
-        <v>4714324</v>
+        <v>4719923</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>3792</v>
+        <v>3797</v>
       </c>
       <c r="D391" t="n">
-        <v>5531340</v>
+        <v>5535778</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>10433</v>
+        <v>10443</v>
       </c>
       <c r="D392" t="n">
-        <v>15380336</v>
+        <v>15392725</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>4029</v>
+        <v>4039</v>
       </c>
       <c r="D393" t="n">
-        <v>5997262</v>
+        <v>6011355</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D394" t="n">
-        <v>1895184</v>
+        <v>1896684</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3790</v>
+        <v>3794</v>
       </c>
       <c r="D397" t="n">
-        <v>5211068</v>
+        <v>5217068</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="D398" t="n">
-        <v>5913759</v>
+        <v>5915259</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>10570</v>
+        <v>10578</v>
       </c>
       <c r="D399" t="n">
-        <v>15537460</v>
+        <v>15549460</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="D400" t="n">
-        <v>5399081</v>
+        <v>5400581</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D402" t="n">
-        <v>383612</v>
+        <v>386612</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>4742</v>
+        <v>4747</v>
       </c>
       <c r="D405" t="n">
-        <v>6398037</v>
+        <v>6405537</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="D406" t="n">
-        <v>1991490</v>
+        <v>2000490</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>4571</v>
+        <v>4580</v>
       </c>
       <c r="D407" t="n">
-        <v>6735995</v>
+        <v>6749465</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="D408" t="n">
-        <v>2647116</v>
+        <v>2648616</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D409" t="n">
-        <v>932141</v>
+        <v>935141</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D410" t="n">
-        <v>227569</v>
+        <v>232069</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>3028</v>
+        <v>3035</v>
       </c>
       <c r="D413" t="n">
-        <v>4020458</v>
+        <v>4030233</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D414" t="n">
-        <v>763464</v>
+        <v>766464</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D415" t="n">
-        <v>392765</v>
+        <v>394265</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="D419" t="n">
-        <v>4183184</v>
+        <v>4183874</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>6975</v>
+        <v>6977</v>
       </c>
       <c r="D420" t="n">
-        <v>10243732</v>
+        <v>10246732</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="D421" t="n">
-        <v>3432295</v>
+        <v>3435295</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D423" t="n">
-        <v>181890</v>
+        <v>184890</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="D425" t="n">
-        <v>2992132</v>
+        <v>2993632</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="D426" t="n">
-        <v>2348314</v>
+        <v>2354314</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>4692</v>
+        <v>4696</v>
       </c>
       <c r="D427" t="n">
-        <v>6887160</v>
+        <v>6893160</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="D428" t="n">
-        <v>2309842</v>
+        <v>2314342</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D429" t="n">
-        <v>585188</v>
+        <v>594188</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="D432" t="n">
-        <v>2087116</v>
+        <v>2088616</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="D433" t="n">
-        <v>2637850</v>
+        <v>2643632</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>4610</v>
+        <v>4619</v>
       </c>
       <c r="D434" t="n">
-        <v>6778191</v>
+        <v>6790780</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1521</v>
+        <v>1526</v>
       </c>
       <c r="D438" t="n">
-        <v>2009026</v>
+        <v>2015897</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D439" t="n">
-        <v>1264459</v>
+        <v>1265959</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="D440" t="n">
-        <v>3717957</v>
+        <v>3719457</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D441" t="n">
-        <v>1089670</v>
+        <v>1091170</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D444" t="n">
-        <v>1361857</v>
+        <v>1363357</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2838</v>
+        <v>2844</v>
       </c>
       <c r="D445" t="n">
-        <v>4129927</v>
+        <v>4138927</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>8909</v>
+        <v>8920</v>
       </c>
       <c r="D446" t="n">
-        <v>13126328</v>
+        <v>13142592</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>3241</v>
+        <v>3243</v>
       </c>
       <c r="D447" t="n">
-        <v>4818008</v>
+        <v>4821008</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21838,10 +21838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D448" t="n">
-        <v>1312340</v>
+        <v>1315340</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="D452" t="n">
-        <v>1630695</v>
+        <v>1633695</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22078,10 +22078,10 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3089</v>
+        <v>3096</v>
       </c>
       <c r="D453" t="n">
-        <v>4521546</v>
+        <v>4531040</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D456" t="n">
-        <v>69000</v>
+        <v>70500</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D458" t="n">
-        <v>1634612</v>
+        <v>1635407</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>4115</v>
+        <v>4118</v>
       </c>
       <c r="D459" t="n">
-        <v>5967513</v>
+        <v>5972013</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>7858</v>
+        <v>7861</v>
       </c>
       <c r="D460" t="n">
-        <v>11534822</v>
+        <v>11536981</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>2318</v>
+        <v>2321</v>
       </c>
       <c r="D461" t="n">
-        <v>3447990</v>
+        <v>3452490</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>2600</v>
+        <v>2604</v>
       </c>
       <c r="D465" t="n">
-        <v>3482890</v>
+        <v>3485704</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D466" t="n">
-        <v>1424317</v>
+        <v>1425817</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="D467" t="n">
-        <v>3650214</v>
+        <v>3651714</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D468" t="n">
-        <v>1106257</v>
+        <v>1106759</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22894,10 +22894,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D470" t="n">
-        <v>43500</v>
+        <v>45000</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D471" t="n">
-        <v>1699297</v>
+        <v>1700797</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D473" t="n">
-        <v>1453989</v>
+        <v>1455489</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D477" t="n">
-        <v>718574</v>
+        <v>721574</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D478" t="n">
-        <v>1264059</v>
+        <v>1265559</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="D479" t="n">
-        <v>4022945</v>
+        <v>4024445</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D483" t="n">
-        <v>1290319</v>
+        <v>1291819</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="D484" t="n">
-        <v>3655969</v>
+        <v>3657469</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>5022</v>
+        <v>5026</v>
       </c>
       <c r="D485" t="n">
-        <v>7358865</v>
+        <v>7364865</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D486" t="n">
-        <v>2121241</v>
+        <v>2122741</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D487" t="n">
-        <v>527859</v>
+        <v>529359</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2236</v>
+        <v>2239</v>
       </c>
       <c r="D490" t="n">
-        <v>2937106</v>
+        <v>2940586</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>8198</v>
+        <v>8203</v>
       </c>
       <c r="D491" t="n">
-        <v>11886781</v>
+        <v>11892618</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>17301</v>
+        <v>17315</v>
       </c>
       <c r="D492" t="n">
-        <v>25350484</v>
+        <v>25371306</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>5907</v>
+        <v>5922</v>
       </c>
       <c r="D493" t="n">
-        <v>8792861</v>
+        <v>8812851</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="D494" t="n">
-        <v>2731199</v>
+        <v>2735699</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D495" t="n">
-        <v>536615</v>
+        <v>538115</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>6182</v>
+        <v>6187</v>
       </c>
       <c r="D499" t="n">
-        <v>8399044</v>
+        <v>8405766</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24382,10 +24382,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>3069</v>
+        <v>3076</v>
       </c>
       <c r="D501" t="n">
-        <v>4507194</v>
+        <v>4515876</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D502" t="n">
-        <v>1498241</v>
+        <v>1499741</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24478,10 +24478,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D503" t="n">
-        <v>491932</v>
+        <v>494932</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="D506" t="n">
-        <v>1954392</v>
+        <v>1954814</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>4716</v>
+        <v>4718</v>
       </c>
       <c r="D508" t="n">
-        <v>6906603</v>
+        <v>6909603</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D509" t="n">
-        <v>2151182</v>
+        <v>2152682</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>3258</v>
+        <v>3260</v>
       </c>
       <c r="D515" t="n">
-        <v>4764378</v>
+        <v>4766926</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D516" t="n">
-        <v>1654535</v>
+        <v>1656035</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>3471</v>
+        <v>3475</v>
       </c>
       <c r="D520" t="n">
-        <v>4994334</v>
+        <v>4999224</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>8699</v>
+        <v>8706</v>
       </c>
       <c r="D521" t="n">
-        <v>12723592</v>
+        <v>12733108</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D523" t="n">
-        <v>1204194</v>
+        <v>1208694</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D524" t="n">
-        <v>169200</v>
+        <v>170700</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>3410</v>
+        <v>3418</v>
       </c>
       <c r="D527" t="n">
-        <v>4596256</v>
+        <v>4606930</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D528" t="n">
-        <v>1557597</v>
+        <v>1559097</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>3207</v>
+        <v>3210</v>
       </c>
       <c r="D529" t="n">
-        <v>4689196</v>
+        <v>4693014</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D530" t="n">
-        <v>1598078</v>
+        <v>1598454</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -26302,10 +26302,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D541" t="n">
-        <v>1009658</v>
+        <v>1011158</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="D542" t="n">
-        <v>3694837</v>
+        <v>3696218</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>3447</v>
+        <v>3453</v>
       </c>
       <c r="D550" t="n">
-        <v>5045844</v>
+        <v>5053839</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D551" t="n">
-        <v>1510537</v>
+        <v>1512037</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>4086</v>
+        <v>4093</v>
       </c>
       <c r="D556" t="n">
-        <v>5921887</v>
+        <v>5931421</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>9675</v>
+        <v>9685</v>
       </c>
       <c r="D557" t="n">
-        <v>14156142</v>
+        <v>14171142</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="D558" t="n">
-        <v>4068358</v>
+        <v>4069858</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3740</v>
+        <v>3743</v>
       </c>
       <c r="D561" t="n">
-        <v>4983511</v>
+        <v>4986511</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D562" t="n">
-        <v>1338009</v>
+        <v>1339509</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="D563" t="n">
-        <v>3107533</v>
+        <v>3111808</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D564" t="n">
-        <v>953513</v>
+        <v>955385</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D567" t="n">
-        <v>1509381</v>
+        <v>1511463</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>5774</v>
+        <v>5780</v>
       </c>
       <c r="D568" t="n">
-        <v>8351438</v>
+        <v>8360438</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>14039</v>
+        <v>14053</v>
       </c>
       <c r="D569" t="n">
-        <v>20598818</v>
+        <v>20619018</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>4971</v>
+        <v>4980</v>
       </c>
       <c r="D570" t="n">
-        <v>7387473</v>
+        <v>7400973</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="D571" t="n">
-        <v>2246828</v>
+        <v>2252828</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D572" t="n">
-        <v>423085</v>
+        <v>426085</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>5646</v>
+        <v>5650</v>
       </c>
       <c r="D575" t="n">
-        <v>7568845</v>
+        <v>7574845</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="D576" t="n">
-        <v>1797868</v>
+        <v>1802368</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>2976</v>
+        <v>2978</v>
       </c>
       <c r="D577" t="n">
-        <v>4321792</v>
+        <v>4324792</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D578" t="n">
-        <v>1453580</v>
+        <v>1455080</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28222,10 +28222,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="D581" t="n">
-        <v>2188164</v>
+        <v>2195664</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>7945</v>
+        <v>7946</v>
       </c>
       <c r="D582" t="n">
-        <v>11524054</v>
+        <v>11525304</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>17059</v>
+        <v>17069</v>
       </c>
       <c r="D583" t="n">
-        <v>25019563</v>
+        <v>25033251</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>5198</v>
+        <v>5199</v>
       </c>
       <c r="D584" t="n">
-        <v>7731482</v>
+        <v>7732982</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="D585" t="n">
-        <v>1953452</v>
+        <v>1956452</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>5582</v>
+        <v>5587</v>
       </c>
       <c r="D588" t="n">
-        <v>7485566</v>
+        <v>7490842</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="D589" t="n">
-        <v>1718441</v>
+        <v>1721441</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>2123</v>
+        <v>2128</v>
       </c>
       <c r="D590" t="n">
-        <v>3115376</v>
+        <v>3121645</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D591" t="n">
-        <v>916703</v>
+        <v>919703</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="D595" t="n">
-        <v>1500384</v>
+        <v>1506384</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D597" t="n">
-        <v>1443215</v>
+        <v>1446465</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D598" t="n">
-        <v>434691</v>
+        <v>436191</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="D601" t="n">
-        <v>863111</v>
+        <v>873611</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="D602" t="n">
-        <v>5366214</v>
+        <v>5367714</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>6267</v>
+        <v>6271</v>
       </c>
       <c r="D603" t="n">
-        <v>9128533</v>
+        <v>9134247</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="D604" t="n">
-        <v>2900350</v>
+        <v>2903350</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="D608" t="n">
-        <v>3211507</v>
+        <v>3213973</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>3937</v>
+        <v>3938</v>
       </c>
       <c r="D610" t="n">
-        <v>5782762</v>
+        <v>5783167</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1666</v>
+        <v>1672</v>
       </c>
       <c r="D614" t="n">
-        <v>2208352</v>
+        <v>2213836</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="D616" t="n">
-        <v>3745525</v>
+        <v>3746225</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D617" t="n">
-        <v>1142034</v>
+        <v>1145034</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>4826</v>
+        <v>4836</v>
       </c>
       <c r="D622" t="n">
-        <v>6992340</v>
+        <v>7007296</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>11673</v>
+        <v>11684</v>
       </c>
       <c r="D623" t="n">
-        <v>17195655</v>
+        <v>17208224</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>4407</v>
+        <v>4408</v>
       </c>
       <c r="D624" t="n">
-        <v>6542453</v>
+        <v>6543953</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30478,10 +30478,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>3980</v>
+        <v>3984</v>
       </c>
       <c r="D628" t="n">
-        <v>5343143</v>
+        <v>5347313</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30526,10 +30526,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="D629" t="n">
-        <v>3096453</v>
+        <v>3100953</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>2186</v>
+        <v>2193</v>
       </c>
       <c r="D631" t="n">
-        <v>3247744</v>
+        <v>3255850</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D632" t="n">
-        <v>873560</v>
+        <v>875060</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="D636" t="n">
-        <v>2904621</v>
+        <v>2905021</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -30910,10 +30910,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D637" t="n">
-        <v>1269306</v>
+        <v>1270806</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D639" t="n">
-        <v>1133064</v>
+        <v>1134564</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D644" t="n">
-        <v>2060582</v>
+        <v>2062082</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31342,10 +31342,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D646" t="n">
-        <v>1964134</v>
+        <v>1965634</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D650" t="n">
-        <v>1678596</v>
+        <v>1680096</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31582,10 +31582,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>3020</v>
+        <v>3024</v>
       </c>
       <c r="D651" t="n">
-        <v>4388240</v>
+        <v>4394040</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>6090</v>
+        <v>6093</v>
       </c>
       <c r="D652" t="n">
-        <v>8923038</v>
+        <v>8927248</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="D653" t="n">
-        <v>3337189</v>
+        <v>3341689</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D654" t="n">
-        <v>748749</v>
+        <v>750249</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D655" t="n">
-        <v>87954</v>
+        <v>89454</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="D658" t="n">
-        <v>2590173</v>
+        <v>2590357</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="D659" t="n">
-        <v>2069759</v>
+        <v>2074259</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="D660" t="n">
-        <v>3906380</v>
+        <v>3907879</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>7824</v>
+        <v>7836</v>
       </c>
       <c r="D666" t="n">
-        <v>11338503</v>
+        <v>11356503</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32350,10 +32350,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>19006</v>
+        <v>19028</v>
       </c>
       <c r="D667" t="n">
-        <v>27918379</v>
+        <v>27948902</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>5747</v>
+        <v>5750</v>
       </c>
       <c r="D668" t="n">
-        <v>8554311</v>
+        <v>8558811</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D669" t="n">
-        <v>2415787</v>
+        <v>2418787</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D670" t="n">
-        <v>533606</v>
+        <v>539606</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>6857</v>
+        <v>6860</v>
       </c>
       <c r="D672" t="n">
-        <v>9354656</v>
+        <v>9359156</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>9751</v>
+        <v>9768</v>
       </c>
       <c r="D673" t="n">
-        <v>14165123</v>
+        <v>14190190</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>26533</v>
+        <v>26552</v>
       </c>
       <c r="D674" t="n">
-        <v>38981542</v>
+        <v>39010042</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>8413</v>
+        <v>8426</v>
       </c>
       <c r="D675" t="n">
-        <v>12532655</v>
+        <v>12552155</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>2223</v>
+        <v>2228</v>
       </c>
       <c r="D676" t="n">
-        <v>3318102</v>
+        <v>3325602</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32830,10 +32830,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D677" t="n">
-        <v>727197</v>
+        <v>729221</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>8796</v>
+        <v>8804</v>
       </c>
       <c r="D680" t="n">
-        <v>11932307</v>
+        <v>11941110</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="D682" t="n">
-        <v>3692060</v>
+        <v>3693560</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33310,10 +33310,10 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="D687" t="n">
-        <v>2594586</v>
+        <v>2595495</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>8368</v>
+        <v>8375</v>
       </c>
       <c r="D688" t="n">
-        <v>12001823</v>
+        <v>12012323</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>16088</v>
+        <v>16103</v>
       </c>
       <c r="D689" t="n">
-        <v>23487432</v>
+        <v>23507301</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>4497</v>
+        <v>4502</v>
       </c>
       <c r="D690" t="n">
-        <v>6682175</v>
+        <v>6689030</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>5350</v>
+        <v>5353</v>
       </c>
       <c r="D695" t="n">
-        <v>7250442</v>
+        <v>7254126</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>3496</v>
+        <v>3501</v>
       </c>
       <c r="D696" t="n">
-        <v>5050656</v>
+        <v>5057956</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>8986</v>
+        <v>8998</v>
       </c>
       <c r="D697" t="n">
-        <v>13173231</v>
+        <v>13188932</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="D698" t="n">
-        <v>3670931</v>
+        <v>3676931</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="D702" t="n">
-        <v>3963762</v>
+        <v>3966978</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D8" t="n">
-        <v>688556</v>
+        <v>691556</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D11" t="n">
-        <v>1292379</v>
+        <v>1293786</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D14" t="n">
-        <v>2292992</v>
+        <v>2294236</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2327</v>
+        <v>2331</v>
       </c>
       <c r="D15" t="n">
-        <v>3370770</v>
+        <v>3376770</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3932</v>
+        <v>3934</v>
       </c>
       <c r="D16" t="n">
-        <v>5749950</v>
+        <v>5752950</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D18" t="n">
-        <v>325604</v>
+        <v>327104</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="D22" t="n">
-        <v>2647233</v>
+        <v>2651842</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6048</v>
+        <v>6053</v>
       </c>
       <c r="D29" t="n">
-        <v>8868775</v>
+        <v>8876275</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D30" t="n">
-        <v>2790329</v>
+        <v>2791829</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D31" t="n">
-        <v>683904</v>
+        <v>686904</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="D36" t="n">
-        <v>3857239</v>
+        <v>3858739</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D37" t="n">
-        <v>1101317</v>
+        <v>1102817</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="D41" t="n">
-        <v>1720358</v>
+        <v>1723358</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8349</v>
+        <v>8353</v>
       </c>
       <c r="D43" t="n">
-        <v>12256923</v>
+        <v>12262923</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="D44" t="n">
-        <v>5015354</v>
+        <v>5016854</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D46" t="n">
-        <v>412537</v>
+        <v>414037</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4632</v>
+        <v>4633</v>
       </c>
       <c r="D48" t="n">
-        <v>6345484</v>
+        <v>6346984</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5440</v>
+        <v>5444</v>
       </c>
       <c r="D49" t="n">
-        <v>7883906</v>
+        <v>7889906</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>12874</v>
+        <v>12885</v>
       </c>
       <c r="D50" t="n">
-        <v>18951821</v>
+        <v>18968321</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="D51" t="n">
-        <v>6477713</v>
+        <v>6479213</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D52" t="n">
-        <v>1719195</v>
+        <v>1722195</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5241</v>
+        <v>5248</v>
       </c>
       <c r="D56" t="n">
-        <v>7201646</v>
+        <v>7211597</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2947</v>
+        <v>2949</v>
       </c>
       <c r="D57" t="n">
-        <v>4261452</v>
+        <v>4264452</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7405</v>
+        <v>7408</v>
       </c>
       <c r="D58" t="n">
-        <v>10866770</v>
+        <v>10871265</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="D59" t="n">
-        <v>3468995</v>
+        <v>3470495</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D61" t="n">
-        <v>206761</v>
+        <v>208261</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="D64" t="n">
-        <v>3552898</v>
+        <v>3555598</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6594</v>
+        <v>6595</v>
       </c>
       <c r="D65" t="n">
-        <v>9652984</v>
+        <v>9654484</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="D66" t="n">
-        <v>3290233</v>
+        <v>3291733</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D68" t="n">
-        <v>150986</v>
+        <v>152486</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8394</v>
+        <v>8398</v>
       </c>
       <c r="D71" t="n">
-        <v>12191381</v>
+        <v>12196659</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>20977</v>
+        <v>20983</v>
       </c>
       <c r="D72" t="n">
-        <v>30848649</v>
+        <v>30855622</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7291</v>
+        <v>7294</v>
       </c>
       <c r="D73" t="n">
-        <v>10830703</v>
+        <v>10835203</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D75" t="n">
-        <v>579983</v>
+        <v>582983</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6897</v>
+        <v>6903</v>
       </c>
       <c r="D79" t="n">
-        <v>9518081</v>
+        <v>9526671</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="D80" t="n">
-        <v>3667401</v>
+        <v>3670401</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5993</v>
+        <v>5995</v>
       </c>
       <c r="D81" t="n">
-        <v>8791895</v>
+        <v>8794743</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="D82" t="n">
-        <v>3936813</v>
+        <v>3938313</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6093</v>
+        <v>6097</v>
       </c>
       <c r="D86" t="n">
-        <v>8582104</v>
+        <v>8586781</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="D87" t="n">
-        <v>2607184</v>
+        <v>2610184</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4636</v>
+        <v>4638</v>
       </c>
       <c r="D88" t="n">
-        <v>6813532</v>
+        <v>6816532</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="D89" t="n">
-        <v>2431936</v>
+        <v>2434936</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4304</v>
+        <v>4306</v>
       </c>
       <c r="D95" t="n">
-        <v>6322977</v>
+        <v>6325427</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -5518,10 +5518,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D108" t="n">
-        <v>1499603</v>
+        <v>1501103</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="D109" t="n">
-        <v>3739130</v>
+        <v>3741538</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D112" t="n">
-        <v>48455</v>
+        <v>49955</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D114" t="n">
-        <v>1187311</v>
+        <v>1188605</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="D116" t="n">
-        <v>2674523</v>
+        <v>2676023</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="D121" t="n">
-        <v>2638413</v>
+        <v>2639013</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>5437</v>
+        <v>5440</v>
       </c>
       <c r="D122" t="n">
-        <v>7972179</v>
+        <v>7976679</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="D126" t="n">
-        <v>3066017</v>
+        <v>3067517</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="D140" t="n">
-        <v>3572766</v>
+        <v>3575766</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7806</v>
+        <v>7809</v>
       </c>
       <c r="D148" t="n">
-        <v>11441444</v>
+        <v>11444915</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="D149" t="n">
-        <v>4082170</v>
+        <v>4083670</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D150" t="n">
-        <v>965826</v>
+        <v>967326</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="D153" t="n">
-        <v>3971546</v>
+        <v>3973046</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="D154" t="n">
-        <v>4600299</v>
+        <v>4601799</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>8968</v>
+        <v>8974</v>
       </c>
       <c r="D155" t="n">
-        <v>13238626</v>
+        <v>13247626</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2957</v>
+        <v>2963</v>
       </c>
       <c r="D160" t="n">
-        <v>4011638</v>
+        <v>4014333</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3485</v>
+        <v>3487</v>
       </c>
       <c r="D161" t="n">
-        <v>5020449</v>
+        <v>5023449</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>7484</v>
+        <v>7485</v>
       </c>
       <c r="D162" t="n">
-        <v>10987220</v>
+        <v>10988720</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D164" t="n">
-        <v>850212</v>
+        <v>851712</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="D167" t="n">
-        <v>3758856</v>
+        <v>3760356</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2373</v>
+        <v>2375</v>
       </c>
       <c r="D169" t="n">
-        <v>3479653</v>
+        <v>3482653</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D172" t="n">
-        <v>49721</v>
+        <v>51221</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="D176" t="n">
-        <v>4894166</v>
+        <v>4895666</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D185" t="n">
-        <v>242990</v>
+        <v>245990</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>5325</v>
+        <v>5327</v>
       </c>
       <c r="D196" t="n">
-        <v>7838145</v>
+        <v>7841145</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="D197" t="n">
-        <v>2937930</v>
+        <v>2939430</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D198" t="n">
-        <v>685875</v>
+        <v>687375</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="D201" t="n">
-        <v>2320398</v>
+        <v>2321898</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="D203" t="n">
-        <v>4415574</v>
+        <v>4417074</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D207" t="n">
-        <v>1418035</v>
+        <v>1419535</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10318,10 +10318,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D208" t="n">
-        <v>1187526</v>
+        <v>1189026</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3280</v>
+        <v>3282</v>
       </c>
       <c r="D209" t="n">
-        <v>4795542</v>
+        <v>4798542</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="D210" t="n">
-        <v>2479481</v>
+        <v>2482481</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3716</v>
+        <v>3718</v>
       </c>
       <c r="D215" t="n">
-        <v>5428805</v>
+        <v>5431805</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D219" t="n">
-        <v>2054002</v>
+        <v>2055502</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="D221" t="n">
-        <v>3093971</v>
+        <v>3095471</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="D226" t="n">
-        <v>1274106</v>
+        <v>1278784</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D228" t="n">
-        <v>1166840</v>
+        <v>1168340</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3631</v>
+        <v>3633</v>
       </c>
       <c r="D232" t="n">
-        <v>5261626</v>
+        <v>5264626</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>11670</v>
+        <v>11676</v>
       </c>
       <c r="D233" t="n">
-        <v>17132192</v>
+        <v>17141192</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>4538</v>
+        <v>4540</v>
       </c>
       <c r="D234" t="n">
-        <v>6736653</v>
+        <v>6739653</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D235" t="n">
-        <v>2051790</v>
+        <v>2053290</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3151</v>
+        <v>3154</v>
       </c>
       <c r="D238" t="n">
-        <v>4286204</v>
+        <v>4289444</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>3026</v>
+        <v>3030</v>
       </c>
       <c r="D248" t="n">
-        <v>4494614</v>
+        <v>4500614</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="D254" t="n">
-        <v>2541499</v>
+        <v>2542104</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="D264" t="n">
-        <v>2735153</v>
+        <v>2736653</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="D268" t="n">
-        <v>2752067</v>
+        <v>2752548</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>2476</v>
+        <v>2479</v>
       </c>
       <c r="D275" t="n">
-        <v>3586299</v>
+        <v>3590799</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>8163</v>
+        <v>8168</v>
       </c>
       <c r="D276" t="n">
-        <v>11967857</v>
+        <v>11975357</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="D281" t="n">
-        <v>3008986</v>
+        <v>3010043</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -14158,10 +14158,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="D288" t="n">
-        <v>2017043</v>
+        <v>2020043</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1675</v>
+        <v>1682</v>
       </c>
       <c r="D289" t="n">
-        <v>2431133</v>
+        <v>2440833</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>5962</v>
+        <v>5976</v>
       </c>
       <c r="D290" t="n">
-        <v>8778326</v>
+        <v>8799326</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="D291" t="n">
-        <v>3115750</v>
+        <v>3121750</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="D292" t="n">
-        <v>1012305</v>
+        <v>1019805</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D293" t="n">
-        <v>222611</v>
+        <v>227111</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>5452</v>
+        <v>5483</v>
       </c>
       <c r="D295" t="n">
-        <v>7532638</v>
+        <v>7572623</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="D296" t="n">
-        <v>1003840</v>
+        <v>1011340</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="D297" t="n">
-        <v>2578414</v>
+        <v>2582914</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D300" t="n">
-        <v>73500</v>
+        <v>76500</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D302" t="n">
-        <v>1428265</v>
+        <v>1429765</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>3411</v>
+        <v>3413</v>
       </c>
       <c r="D304" t="n">
-        <v>5004405</v>
+        <v>5007405</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="D309" t="n">
-        <v>1784341</v>
+        <v>1787341</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>6474</v>
+        <v>6475</v>
       </c>
       <c r="D310" t="n">
-        <v>9345696</v>
+        <v>9347196</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>18530</v>
+        <v>18536</v>
       </c>
       <c r="D311" t="n">
-        <v>27131634</v>
+        <v>27139517</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>6604</v>
+        <v>6605</v>
       </c>
       <c r="D312" t="n">
-        <v>9832207</v>
+        <v>9833707</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D314" t="n">
-        <v>614470</v>
+        <v>615970</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>5803</v>
+        <v>5805</v>
       </c>
       <c r="D316" t="n">
-        <v>7674133</v>
+        <v>7677133</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="D317" t="n">
-        <v>2849712</v>
+        <v>2851212</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6093</v>
+        <v>6098</v>
       </c>
       <c r="D318" t="n">
-        <v>8953729</v>
+        <v>8961229</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="D319" t="n">
-        <v>3236519</v>
+        <v>3241019</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>10276</v>
+        <v>10277</v>
       </c>
       <c r="D325" t="n">
-        <v>15029843</v>
+        <v>15031343</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="D327" t="n">
-        <v>1528873</v>
+        <v>1534873</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D328" t="n">
-        <v>238892</v>
+        <v>240392</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16558,10 +16558,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D338" t="n">
-        <v>2069987</v>
+        <v>2071487</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>9591</v>
+        <v>9598</v>
       </c>
       <c r="D340" t="n">
-        <v>14161039</v>
+        <v>14171539</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16702,10 +16702,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3739</v>
+        <v>3741</v>
       </c>
       <c r="D341" t="n">
-        <v>5567927</v>
+        <v>5570927</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D342" t="n">
-        <v>1644679</v>
+        <v>1649179</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D343" t="n">
-        <v>286301</v>
+        <v>289301</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>5653</v>
+        <v>5660</v>
       </c>
       <c r="D346" t="n">
-        <v>8249684</v>
+        <v>8258478</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14102</v>
+        <v>14109</v>
       </c>
       <c r="D347" t="n">
-        <v>20779254</v>
+        <v>20787451</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17038,10 +17038,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>6388</v>
+        <v>6391</v>
       </c>
       <c r="D348" t="n">
-        <v>9530540</v>
+        <v>9535040</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="D349" t="n">
-        <v>2907872</v>
+        <v>2909372</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>5105</v>
+        <v>5111</v>
       </c>
       <c r="D352" t="n">
-        <v>7006631</v>
+        <v>7013012</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>16618</v>
+        <v>16622</v>
       </c>
       <c r="D353" t="n">
-        <v>24137012</v>
+        <v>24141283</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>46309</v>
+        <v>46343</v>
       </c>
       <c r="D354" t="n">
-        <v>68299418</v>
+        <v>68349427</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>21620</v>
+        <v>21639</v>
       </c>
       <c r="D355" t="n">
-        <v>32267530</v>
+        <v>32294246</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>7692</v>
+        <v>7702</v>
       </c>
       <c r="D356" t="n">
-        <v>11503483</v>
+        <v>11518483</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17470,10 +17470,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1817</v>
+        <v>1822</v>
       </c>
       <c r="D357" t="n">
-        <v>2717416</v>
+        <v>2724916</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>16321</v>
+        <v>16330</v>
       </c>
       <c r="D362" t="n">
-        <v>22274455</v>
+        <v>22285736</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>3951</v>
+        <v>3954</v>
       </c>
       <c r="D363" t="n">
-        <v>5755510</v>
+        <v>5759910</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>11450</v>
+        <v>11457</v>
       </c>
       <c r="D364" t="n">
-        <v>16850328</v>
+        <v>16860828</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17854,10 +17854,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>4376</v>
+        <v>4378</v>
       </c>
       <c r="D365" t="n">
-        <v>6498827</v>
+        <v>6501827</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D367" t="n">
-        <v>357000</v>
+        <v>358500</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="D369" t="n">
-        <v>5349664</v>
+        <v>5351164</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>4706</v>
+        <v>4715</v>
       </c>
       <c r="D370" t="n">
-        <v>6848214</v>
+        <v>6861714</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>17189</v>
+        <v>17207</v>
       </c>
       <c r="D371" t="n">
-        <v>25336611</v>
+        <v>25363611</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>8244</v>
+        <v>8249</v>
       </c>
       <c r="D372" t="n">
-        <v>12294625</v>
+        <v>12302125</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="D373" t="n">
-        <v>3464388</v>
+        <v>3467388</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D374" t="n">
-        <v>843095</v>
+        <v>844595</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>4827</v>
+        <v>4834</v>
       </c>
       <c r="D376" t="n">
-        <v>6551409</v>
+        <v>6560775</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="D377" t="n">
-        <v>6260776</v>
+        <v>6262276</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>12617</v>
+        <v>12626</v>
       </c>
       <c r="D378" t="n">
-        <v>18586792</v>
+        <v>18600292</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>5290</v>
+        <v>5294</v>
       </c>
       <c r="D379" t="n">
-        <v>7886107</v>
+        <v>7892107</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="D380" t="n">
-        <v>2260742</v>
+        <v>2265242</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4420</v>
+        <v>4423</v>
       </c>
       <c r="D383" t="n">
-        <v>6072511</v>
+        <v>6077011</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3259</v>
+        <v>3261</v>
       </c>
       <c r="D384" t="n">
-        <v>4755714</v>
+        <v>4758714</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>10551</v>
+        <v>10563</v>
       </c>
       <c r="D385" t="n">
-        <v>15568589</v>
+        <v>15586589</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4501</v>
+        <v>4511</v>
       </c>
       <c r="D386" t="n">
-        <v>6694772</v>
+        <v>6709772</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="D387" t="n">
-        <v>1909616</v>
+        <v>1914116</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D388" t="n">
-        <v>416100</v>
+        <v>417600</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="D390" t="n">
-        <v>4719923</v>
+        <v>4721423</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>3797</v>
+        <v>3802</v>
       </c>
       <c r="D391" t="n">
-        <v>5535778</v>
+        <v>5543278</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>10443</v>
+        <v>10446</v>
       </c>
       <c r="D392" t="n">
-        <v>15392725</v>
+        <v>15397225</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>4039</v>
+        <v>4041</v>
       </c>
       <c r="D393" t="n">
-        <v>6011355</v>
+        <v>6014355</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3794</v>
+        <v>3795</v>
       </c>
       <c r="D397" t="n">
-        <v>5217068</v>
+        <v>5218568</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>4078</v>
+        <v>4082</v>
       </c>
       <c r="D398" t="n">
-        <v>5915259</v>
+        <v>5920669</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>10578</v>
+        <v>10585</v>
       </c>
       <c r="D399" t="n">
-        <v>15549460</v>
+        <v>15559960</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="D400" t="n">
-        <v>5400581</v>
+        <v>5402081</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D406" t="n">
-        <v>2000490</v>
+        <v>2001990</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>4580</v>
+        <v>4588</v>
       </c>
       <c r="D407" t="n">
-        <v>6749465</v>
+        <v>6761465</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="D408" t="n">
-        <v>2648616</v>
+        <v>2651616</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>3035</v>
+        <v>3041</v>
       </c>
       <c r="D413" t="n">
-        <v>4030233</v>
+        <v>4037232</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D414" t="n">
-        <v>766464</v>
+        <v>770964</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D415" t="n">
-        <v>394265</v>
+        <v>397265</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="D419" t="n">
-        <v>4183874</v>
+        <v>4185374</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>6977</v>
+        <v>6978</v>
       </c>
       <c r="D420" t="n">
-        <v>10246732</v>
+        <v>10248232</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D422" t="n">
-        <v>1004642</v>
+        <v>1006142</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D423" t="n">
-        <v>184890</v>
+        <v>186390</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="D425" t="n">
-        <v>2993632</v>
+        <v>2994303</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>4619</v>
+        <v>4622</v>
       </c>
       <c r="D434" t="n">
-        <v>6790780</v>
+        <v>6795020</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="D438" t="n">
-        <v>2015897</v>
+        <v>2020397</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D439" t="n">
-        <v>1265959</v>
+        <v>1267459</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="D440" t="n">
-        <v>3719457</v>
+        <v>3720957</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="D445" t="n">
-        <v>4138927</v>
+        <v>4143079</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>8920</v>
+        <v>8926</v>
       </c>
       <c r="D446" t="n">
-        <v>13142592</v>
+        <v>13151592</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="D451" t="n">
-        <v>3661544</v>
+        <v>3663044</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>7861</v>
+        <v>7862</v>
       </c>
       <c r="D460" t="n">
-        <v>11536981</v>
+        <v>11538481</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>2604</v>
+        <v>2607</v>
       </c>
       <c r="D465" t="n">
-        <v>3485704</v>
+        <v>3490202</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D471" t="n">
-        <v>1700797</v>
+        <v>1702279</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="D478" t="n">
-        <v>1265559</v>
+        <v>1269459</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="D479" t="n">
-        <v>4024445</v>
+        <v>4025945</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D481" t="n">
-        <v>347281</v>
+        <v>351781</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2551</v>
+        <v>2555</v>
       </c>
       <c r="D484" t="n">
-        <v>3657469</v>
+        <v>3661535</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>5026</v>
+        <v>5028</v>
       </c>
       <c r="D485" t="n">
-        <v>7364865</v>
+        <v>7365285</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>8203</v>
+        <v>8205</v>
       </c>
       <c r="D491" t="n">
-        <v>11892618</v>
+        <v>11894323</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>17315</v>
+        <v>17321</v>
       </c>
       <c r="D492" t="n">
-        <v>25371306</v>
+        <v>25379256</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>5922</v>
+        <v>5926</v>
       </c>
       <c r="D493" t="n">
-        <v>8812851</v>
+        <v>8818139</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="D494" t="n">
-        <v>2735699</v>
+        <v>2737199</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D495" t="n">
-        <v>538115</v>
+        <v>539615</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>6187</v>
+        <v>6195</v>
       </c>
       <c r="D499" t="n">
-        <v>8405766</v>
+        <v>8417297</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D502" t="n">
-        <v>1499741</v>
+        <v>1501241</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24574,10 +24574,10 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D505" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="D507" t="n">
-        <v>3891139</v>
+        <v>3892639</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>4718</v>
+        <v>4719</v>
       </c>
       <c r="D508" t="n">
-        <v>6909603</v>
+        <v>6910116</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D510" t="n">
-        <v>545373</v>
+        <v>546873</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D514" t="n">
-        <v>2159168</v>
+        <v>2160668</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="D515" t="n">
-        <v>4766926</v>
+        <v>4768426</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="D519" t="n">
-        <v>1872166</v>
+        <v>1875166</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>8706</v>
+        <v>8709</v>
       </c>
       <c r="D521" t="n">
-        <v>12733108</v>
+        <v>12737608</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>2927</v>
+        <v>2930</v>
       </c>
       <c r="D522" t="n">
-        <v>4346740</v>
+        <v>4351240</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>3418</v>
+        <v>3421</v>
       </c>
       <c r="D527" t="n">
-        <v>4606930</v>
+        <v>4608450</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D528" t="n">
-        <v>1559097</v>
+        <v>1560367</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>3210</v>
+        <v>3215</v>
       </c>
       <c r="D529" t="n">
-        <v>4693014</v>
+        <v>4700514</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D530" t="n">
-        <v>1598454</v>
+        <v>1598854</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -26302,10 +26302,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D541" t="n">
-        <v>1011158</v>
+        <v>1011598</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D544" t="n">
-        <v>2159109</v>
+        <v>2162109</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="D548" t="n">
-        <v>2264575</v>
+        <v>2269040</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26686,10 +26686,10 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D549" t="n">
-        <v>2334759</v>
+        <v>2336259</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>3453</v>
+        <v>3458</v>
       </c>
       <c r="D550" t="n">
-        <v>5053839</v>
+        <v>5060040</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D552" t="n">
-        <v>414072</v>
+        <v>415582</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="D555" t="n">
-        <v>2464719</v>
+        <v>2466219</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>9685</v>
+        <v>9687</v>
       </c>
       <c r="D557" t="n">
-        <v>14171142</v>
+        <v>14173272</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="D558" t="n">
-        <v>4069858</v>
+        <v>4071058</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D559" t="n">
-        <v>932031</v>
+        <v>935031</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3743</v>
+        <v>3745</v>
       </c>
       <c r="D561" t="n">
-        <v>4986511</v>
+        <v>4987614</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="D563" t="n">
-        <v>3111808</v>
+        <v>3114808</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D566" t="n">
-        <v>54472</v>
+        <v>57472</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>5780</v>
+        <v>5783</v>
       </c>
       <c r="D568" t="n">
-        <v>8360438</v>
+        <v>8363904</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>14053</v>
+        <v>14059</v>
       </c>
       <c r="D569" t="n">
-        <v>20619018</v>
+        <v>20628018</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>4980</v>
+        <v>4984</v>
       </c>
       <c r="D570" t="n">
-        <v>7400973</v>
+        <v>7406973</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D572" t="n">
-        <v>426085</v>
+        <v>429085</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>5650</v>
+        <v>5658</v>
       </c>
       <c r="D575" t="n">
-        <v>7574845</v>
+        <v>7586375</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>2978</v>
+        <v>2981</v>
       </c>
       <c r="D577" t="n">
-        <v>4324792</v>
+        <v>4329292</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D579" t="n">
-        <v>359134</v>
+        <v>360634</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>7946</v>
+        <v>7949</v>
       </c>
       <c r="D582" t="n">
-        <v>11525304</v>
+        <v>11529804</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>17069</v>
+        <v>17075</v>
       </c>
       <c r="D583" t="n">
-        <v>25033251</v>
+        <v>25042251</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D586" t="n">
-        <v>353543</v>
+        <v>355325</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>5587</v>
+        <v>5588</v>
       </c>
       <c r="D588" t="n">
-        <v>7490842</v>
+        <v>7492342</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="D590" t="n">
-        <v>3121645</v>
+        <v>3123145</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D596" t="n">
-        <v>935155</v>
+        <v>936655</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D601" t="n">
-        <v>873611</v>
+        <v>875111</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="D602" t="n">
-        <v>5367714</v>
+        <v>5369214</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="D604" t="n">
-        <v>2903350</v>
+        <v>2906350</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="D614" t="n">
-        <v>2213836</v>
+        <v>2216188</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D621" t="n">
-        <v>1516956</v>
+        <v>1518456</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>4836</v>
+        <v>4839</v>
       </c>
       <c r="D622" t="n">
-        <v>7007296</v>
+        <v>7011796</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>11684</v>
+        <v>11694</v>
       </c>
       <c r="D623" t="n">
-        <v>17208224</v>
+        <v>17223124</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="D624" t="n">
-        <v>6543953</v>
+        <v>6545453</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30526,10 +30526,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="D629" t="n">
-        <v>3100953</v>
+        <v>3103953</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>6605</v>
+        <v>6607</v>
       </c>
       <c r="D630" t="n">
-        <v>9713114</v>
+        <v>9715464</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -31582,10 +31582,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D651" t="n">
-        <v>4394040</v>
+        <v>4395540</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>6093</v>
+        <v>6095</v>
       </c>
       <c r="D652" t="n">
-        <v>8927248</v>
+        <v>8930248</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="D653" t="n">
-        <v>3341689</v>
+        <v>3343189</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="D658" t="n">
-        <v>2590357</v>
+        <v>2594237</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D659" t="n">
-        <v>2074259</v>
+        <v>2075759</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32254,10 +32254,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D665" t="n">
-        <v>1490948</v>
+        <v>1492061</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>7836</v>
+        <v>7846</v>
       </c>
       <c r="D666" t="n">
-        <v>11356503</v>
+        <v>11371503</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32350,10 +32350,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>19028</v>
+        <v>19040</v>
       </c>
       <c r="D667" t="n">
-        <v>27948902</v>
+        <v>27966902</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>5750</v>
+        <v>5752</v>
       </c>
       <c r="D668" t="n">
-        <v>8558811</v>
+        <v>8561811</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="D669" t="n">
-        <v>2418787</v>
+        <v>2420287</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D670" t="n">
-        <v>539606</v>
+        <v>540286</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>6860</v>
+        <v>6869</v>
       </c>
       <c r="D672" t="n">
-        <v>9359156</v>
+        <v>9372400</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>9768</v>
+        <v>9773</v>
       </c>
       <c r="D673" t="n">
-        <v>14190190</v>
+        <v>14197690</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>26552</v>
+        <v>26562</v>
       </c>
       <c r="D674" t="n">
-        <v>39010042</v>
+        <v>39023278</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>8426</v>
+        <v>8430</v>
       </c>
       <c r="D675" t="n">
-        <v>12552155</v>
+        <v>12558155</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>2228</v>
+        <v>2232</v>
       </c>
       <c r="D676" t="n">
-        <v>3325602</v>
+        <v>3331602</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32830,10 +32830,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D677" t="n">
-        <v>729221</v>
+        <v>730721</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>8804</v>
+        <v>8809</v>
       </c>
       <c r="D680" t="n">
-        <v>11941110</v>
+        <v>11948610</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>2531</v>
+        <v>2536</v>
       </c>
       <c r="D682" t="n">
-        <v>3693560</v>
+        <v>3701060</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D683" t="n">
-        <v>1419169</v>
+        <v>1420669</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33310,10 +33310,10 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="D687" t="n">
-        <v>2595495</v>
+        <v>2596383</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>8375</v>
+        <v>8379</v>
       </c>
       <c r="D688" t="n">
-        <v>12012323</v>
+        <v>12017913</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>16103</v>
+        <v>16107</v>
       </c>
       <c r="D689" t="n">
-        <v>23507301</v>
+        <v>23512390</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>5353</v>
+        <v>5355</v>
       </c>
       <c r="D695" t="n">
-        <v>7254126</v>
+        <v>7257126</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>3501</v>
+        <v>3504</v>
       </c>
       <c r="D696" t="n">
-        <v>5057956</v>
+        <v>5061443</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>8998</v>
+        <v>9002</v>
       </c>
       <c r="D697" t="n">
-        <v>13188932</v>
+        <v>13194202</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>2993</v>
+        <v>2998</v>
       </c>
       <c r="D702" t="n">
-        <v>3966978</v>
+        <v>3973023</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="D2" t="n">
-        <v>1752304</v>
+        <v>1761127</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5402</v>
+        <v>5436</v>
       </c>
       <c r="D3" t="n">
-        <v>7940663</v>
+        <v>7990101</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1937</v>
+        <v>1957</v>
       </c>
       <c r="D4" t="n">
-        <v>2877000</v>
+        <v>2906250</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D5" t="n">
-        <v>729222</v>
+        <v>730722</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n">
-        <v>140434</v>
+        <v>144934</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="D8" t="n">
-        <v>691556</v>
+        <v>715462</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="D9" t="n">
-        <v>1582374</v>
+        <v>1598874</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3322</v>
+        <v>3362</v>
       </c>
       <c r="D10" t="n">
-        <v>4864034</v>
+        <v>4923920</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="D11" t="n">
-        <v>1293786</v>
+        <v>1307286</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D12" t="n">
-        <v>329171</v>
+        <v>332171</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1745</v>
+        <v>1758</v>
       </c>
       <c r="D14" t="n">
-        <v>2294236</v>
+        <v>2308628</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2331</v>
+        <v>2368</v>
       </c>
       <c r="D15" t="n">
-        <v>3376770</v>
+        <v>3431513</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3934</v>
+        <v>3968</v>
       </c>
       <c r="D16" t="n">
-        <v>5752950</v>
+        <v>5802446</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="D17" t="n">
-        <v>1613878</v>
+        <v>1621378</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D18" t="n">
-        <v>327104</v>
+        <v>333104</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
-        <v>46500</v>
+        <v>51000</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1666</v>
+        <v>1685</v>
       </c>
       <c r="D20" t="n">
-        <v>2221228</v>
+        <v>2246034</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="D21" t="n">
-        <v>905914</v>
+        <v>913614</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1827</v>
+        <v>1839</v>
       </c>
       <c r="D22" t="n">
-        <v>2651842</v>
+        <v>2669842</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D23" t="n">
-        <v>719187</v>
+        <v>729687</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1887</v>
+        <v>1899</v>
       </c>
       <c r="D27" t="n">
-        <v>2625078</v>
+        <v>2640578</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2963</v>
+        <v>2989</v>
       </c>
       <c r="D28" t="n">
-        <v>4282998</v>
+        <v>4319790</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6053</v>
+        <v>6091</v>
       </c>
       <c r="D29" t="n">
-        <v>8876275</v>
+        <v>8929938</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1883</v>
+        <v>1899</v>
       </c>
       <c r="D30" t="n">
-        <v>2791829</v>
+        <v>2814189</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D31" t="n">
-        <v>686904</v>
+        <v>689904</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2335</v>
+        <v>2360</v>
       </c>
       <c r="D34" t="n">
-        <v>2995999</v>
+        <v>3029255</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1146</v>
+        <v>1158</v>
       </c>
       <c r="D35" t="n">
-        <v>1643808</v>
+        <v>1661808</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2646</v>
+        <v>2663</v>
       </c>
       <c r="D36" t="n">
-        <v>3858739</v>
+        <v>3882725</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D37" t="n">
-        <v>1102817</v>
+        <v>1107317</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D38" t="n">
-        <v>264192</v>
+        <v>270192</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D39" t="n">
-        <v>39196</v>
+        <v>42196</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1272</v>
+        <v>1283</v>
       </c>
       <c r="D41" t="n">
-        <v>1723358</v>
+        <v>1738814</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3663</v>
+        <v>3690</v>
       </c>
       <c r="D42" t="n">
-        <v>5332260</v>
+        <v>5370088</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8353</v>
+        <v>8413</v>
       </c>
       <c r="D43" t="n">
-        <v>12262923</v>
+        <v>12350337</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3386</v>
+        <v>3411</v>
       </c>
       <c r="D44" t="n">
-        <v>5016854</v>
+        <v>5051173</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1049</v>
+        <v>1058</v>
       </c>
       <c r="D45" t="n">
-        <v>1564285</v>
+        <v>1577785</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D46" t="n">
-        <v>414037</v>
+        <v>421537</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4633</v>
+        <v>4677</v>
       </c>
       <c r="D48" t="n">
-        <v>6346984</v>
+        <v>6406703</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5444</v>
+        <v>5501</v>
       </c>
       <c r="D49" t="n">
-        <v>7889906</v>
+        <v>7971014</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>12885</v>
+        <v>12968</v>
       </c>
       <c r="D50" t="n">
-        <v>18968321</v>
+        <v>19086782</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4369</v>
+        <v>4396</v>
       </c>
       <c r="D51" t="n">
-        <v>6479213</v>
+        <v>6519713</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1160</v>
+        <v>1173</v>
       </c>
       <c r="D52" t="n">
-        <v>1722195</v>
+        <v>1741695</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D53" t="n">
-        <v>347403</v>
+        <v>348903</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D54" t="n">
-        <v>26000</v>
+        <v>30500</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5248</v>
+        <v>5316</v>
       </c>
       <c r="D56" t="n">
-        <v>7211597</v>
+        <v>7303121</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2949</v>
+        <v>2983</v>
       </c>
       <c r="D57" t="n">
-        <v>4264452</v>
+        <v>4315452</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7408</v>
+        <v>7449</v>
       </c>
       <c r="D58" t="n">
-        <v>10871265</v>
+        <v>10930706</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2349</v>
+        <v>2362</v>
       </c>
       <c r="D59" t="n">
-        <v>3470495</v>
+        <v>3489995</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="D60" t="n">
-        <v>877979</v>
+        <v>889979</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D61" t="n">
-        <v>208261</v>
+        <v>212761</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3358,10 +3358,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3174</v>
+        <v>3202</v>
       </c>
       <c r="D63" t="n">
-        <v>4154857</v>
+        <v>4189490</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2468</v>
+        <v>2488</v>
       </c>
       <c r="D64" t="n">
-        <v>3555598</v>
+        <v>3583974</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6595</v>
+        <v>6660</v>
       </c>
       <c r="D65" t="n">
-        <v>9654484</v>
+        <v>9750281</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2223</v>
+        <v>2246</v>
       </c>
       <c r="D66" t="n">
-        <v>3291733</v>
+        <v>3325459</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D67" t="n">
-        <v>913621</v>
+        <v>919621</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D68" t="n">
-        <v>152486</v>
+        <v>153986</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3694,10 +3694,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2784</v>
+        <v>2817</v>
       </c>
       <c r="D70" t="n">
-        <v>3686553</v>
+        <v>3733615</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8398</v>
+        <v>8492</v>
       </c>
       <c r="D71" t="n">
-        <v>12196659</v>
+        <v>12330094</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>20983</v>
+        <v>21176</v>
       </c>
       <c r="D72" t="n">
-        <v>30855622</v>
+        <v>31139382</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7294</v>
+        <v>7339</v>
       </c>
       <c r="D73" t="n">
-        <v>10835203</v>
+        <v>10902703</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="D74" t="n">
-        <v>2992085</v>
+        <v>3022085</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D75" t="n">
-        <v>582983</v>
+        <v>587483</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6903</v>
+        <v>6995</v>
       </c>
       <c r="D79" t="n">
-        <v>9526671</v>
+        <v>9652368</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2527</v>
+        <v>2561</v>
       </c>
       <c r="D80" t="n">
-        <v>3670401</v>
+        <v>3719745</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5995</v>
+        <v>6045</v>
       </c>
       <c r="D81" t="n">
-        <v>8794743</v>
+        <v>8868680</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2657</v>
+        <v>2676</v>
       </c>
       <c r="D82" t="n">
-        <v>3938313</v>
+        <v>3963965</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="D83" t="n">
-        <v>1393497</v>
+        <v>1399497</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6097</v>
+        <v>6142</v>
       </c>
       <c r="D86" t="n">
-        <v>8586781</v>
+        <v>8648590</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1796</v>
+        <v>1818</v>
       </c>
       <c r="D87" t="n">
-        <v>2610184</v>
+        <v>2642237</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4638</v>
+        <v>4676</v>
       </c>
       <c r="D88" t="n">
-        <v>6816532</v>
+        <v>6872692</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1636</v>
+        <v>1647</v>
       </c>
       <c r="D89" t="n">
-        <v>2434936</v>
+        <v>2451436</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D90" t="n">
-        <v>665075</v>
+        <v>669575</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D91" t="n">
-        <v>105675</v>
+        <v>107175</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1847</v>
+        <v>1869</v>
       </c>
       <c r="D93" t="n">
-        <v>2435282</v>
+        <v>2460754</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1575</v>
+        <v>1591</v>
       </c>
       <c r="D94" t="n">
-        <v>2280624</v>
+        <v>2303691</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4306</v>
+        <v>4329</v>
       </c>
       <c r="D95" t="n">
-        <v>6325427</v>
+        <v>6358811</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1462</v>
+        <v>1470</v>
       </c>
       <c r="D96" t="n">
-        <v>2167308</v>
+        <v>2179308</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D97" t="n">
-        <v>620018</v>
+        <v>624518</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D98" t="n">
-        <v>134399</v>
+        <v>141899</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1457</v>
+        <v>1468</v>
       </c>
       <c r="D101" t="n">
-        <v>1973701</v>
+        <v>1986258</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="D102" t="n">
-        <v>950306</v>
+        <v>959910</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1677</v>
+        <v>1687</v>
       </c>
       <c r="D103" t="n">
-        <v>2468123</v>
+        <v>2482808</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D104" t="n">
-        <v>758190</v>
+        <v>765690</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D105" t="n">
-        <v>223500</v>
+        <v>226500</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5470,10 +5470,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="D107" t="n">
-        <v>1035812</v>
+        <v>1048475</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5518,10 +5518,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="D108" t="n">
-        <v>1501103</v>
+        <v>1511603</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2553</v>
+        <v>2570</v>
       </c>
       <c r="D109" t="n">
-        <v>3741538</v>
+        <v>3767038</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="D110" t="n">
-        <v>1121557</v>
+        <v>1129057</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D111" t="n">
-        <v>293237</v>
+        <v>297737</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="D114" t="n">
-        <v>1188605</v>
+        <v>1199988</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="D115" t="n">
-        <v>969920</v>
+        <v>982817</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1835</v>
+        <v>1842</v>
       </c>
       <c r="D116" t="n">
-        <v>2676023</v>
+        <v>2685533</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5950,10 +5950,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D117" t="n">
-        <v>840955</v>
+        <v>843336</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D118" t="n">
-        <v>165068</v>
+        <v>168068</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6046,10 +6046,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D119" t="n">
-        <v>49834</v>
+        <v>51334</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -6094,10 +6094,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="D120" t="n">
-        <v>1084021</v>
+        <v>1091521</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1823</v>
+        <v>1852</v>
       </c>
       <c r="D121" t="n">
-        <v>2639013</v>
+        <v>2675598</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>5440</v>
+        <v>5497</v>
       </c>
       <c r="D122" t="n">
-        <v>7976679</v>
+        <v>8060347</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1634</v>
+        <v>1647</v>
       </c>
       <c r="D123" t="n">
-        <v>2434284</v>
+        <v>2453784</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D124" t="n">
-        <v>508465</v>
+        <v>514465</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D125" t="n">
-        <v>75034</v>
+        <v>79534</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2272</v>
+        <v>2287</v>
       </c>
       <c r="D126" t="n">
-        <v>3067517</v>
+        <v>3088571</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D127" t="n">
-        <v>561034</v>
+        <v>564828</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="D128" t="n">
-        <v>1556806</v>
+        <v>1573306</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D129" t="n">
-        <v>577127</v>
+        <v>579552</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D130" t="n">
-        <v>128049</v>
+        <v>129549</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D132" t="n">
-        <v>435156</v>
+        <v>436856</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="D133" t="n">
-        <v>1475046</v>
+        <v>1496852</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3086</v>
+        <v>3119</v>
       </c>
       <c r="D134" t="n">
-        <v>4535170</v>
+        <v>4582897</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="D135" t="n">
-        <v>1319093</v>
+        <v>1332593</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D136" t="n">
-        <v>354064</v>
+        <v>361564</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1071</v>
+        <v>1082</v>
       </c>
       <c r="D139" t="n">
-        <v>1408192</v>
+        <v>1423316</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2471</v>
+        <v>2493</v>
       </c>
       <c r="D140" t="n">
-        <v>3575766</v>
+        <v>3608251</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5749</v>
+        <v>5794</v>
       </c>
       <c r="D141" t="n">
-        <v>8424651</v>
+        <v>8487206</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1598</v>
+        <v>1609</v>
       </c>
       <c r="D142" t="n">
-        <v>2376609</v>
+        <v>2392089</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D143" t="n">
-        <v>561750</v>
+        <v>566250</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2229</v>
+        <v>2252</v>
       </c>
       <c r="D146" t="n">
-        <v>2940688</v>
+        <v>2970399</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3399</v>
+        <v>3430</v>
       </c>
       <c r="D147" t="n">
-        <v>4904508</v>
+        <v>4950358</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7809</v>
+        <v>7872</v>
       </c>
       <c r="D148" t="n">
-        <v>11444915</v>
+        <v>11538103</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2751</v>
+        <v>2770</v>
       </c>
       <c r="D149" t="n">
-        <v>4083670</v>
+        <v>4111631</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D150" t="n">
-        <v>967326</v>
+        <v>970326</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D151" t="n">
-        <v>201514</v>
+        <v>209014</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2966</v>
+        <v>2987</v>
       </c>
       <c r="D153" t="n">
-        <v>3973046</v>
+        <v>4002552</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3172</v>
+        <v>3215</v>
       </c>
       <c r="D154" t="n">
-        <v>4601799</v>
+        <v>4662155</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>8974</v>
+        <v>9059</v>
       </c>
       <c r="D155" t="n">
-        <v>13247626</v>
+        <v>13373105</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2950</v>
+        <v>2975</v>
       </c>
       <c r="D156" t="n">
-        <v>4392912</v>
+        <v>4430412</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="D157" t="n">
-        <v>1292975</v>
+        <v>1301975</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D158" t="n">
-        <v>250174</v>
+        <v>259174</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2963</v>
+        <v>2994</v>
       </c>
       <c r="D160" t="n">
-        <v>4014333</v>
+        <v>4050634</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3487</v>
+        <v>3519</v>
       </c>
       <c r="D161" t="n">
-        <v>5023449</v>
+        <v>5069574</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>7485</v>
+        <v>7553</v>
       </c>
       <c r="D162" t="n">
-        <v>10988720</v>
+        <v>11087640</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2443</v>
+        <v>2455</v>
       </c>
       <c r="D163" t="n">
-        <v>3636119</v>
+        <v>3654119</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D164" t="n">
-        <v>851712</v>
+        <v>854712</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D166" t="n">
-        <v>17852</v>
+        <v>19352</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2789</v>
+        <v>2814</v>
       </c>
       <c r="D167" t="n">
-        <v>3760356</v>
+        <v>3792117</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="D168" t="n">
-        <v>1138590</v>
+        <v>1149090</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2375</v>
+        <v>2395</v>
       </c>
       <c r="D169" t="n">
-        <v>3482653</v>
+        <v>3508361</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="D170" t="n">
-        <v>1158681</v>
+        <v>1169181</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D171" t="n">
-        <v>334500</v>
+        <v>339000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1124</v>
+        <v>1139</v>
       </c>
       <c r="D174" t="n">
-        <v>1463439</v>
+        <v>1481765</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1064</v>
+        <v>1076</v>
       </c>
       <c r="D175" t="n">
-        <v>1558434</v>
+        <v>1575011</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3317</v>
+        <v>3342</v>
       </c>
       <c r="D176" t="n">
-        <v>4895666</v>
+        <v>4929611</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1122</v>
+        <v>1131</v>
       </c>
       <c r="D177" t="n">
-        <v>1668807</v>
+        <v>1682307</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D178" t="n">
-        <v>413420</v>
+        <v>417920</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D179" t="n">
-        <v>42000</v>
+        <v>43500</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D180" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1056</v>
+        <v>1067</v>
       </c>
       <c r="D181" t="n">
-        <v>1419998</v>
+        <v>1435676</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D182" t="n">
-        <v>785787</v>
+        <v>794787</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="D183" t="n">
-        <v>2642061</v>
+        <v>2654053</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D184" t="n">
-        <v>935138</v>
+        <v>938138</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D185" t="n">
-        <v>245990</v>
+        <v>248990</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9310,10 +9310,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="D187" t="n">
-        <v>987511</v>
+        <v>1001451</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2039</v>
+        <v>2065</v>
       </c>
       <c r="D188" t="n">
-        <v>2933373</v>
+        <v>2968370</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>5425</v>
+        <v>5464</v>
       </c>
       <c r="D189" t="n">
-        <v>7949293</v>
+        <v>8006152</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1892</v>
+        <v>1913</v>
       </c>
       <c r="D190" t="n">
-        <v>2819433</v>
+        <v>2849991</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D191" t="n">
-        <v>735624</v>
+        <v>740124</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1968</v>
+        <v>1997</v>
       </c>
       <c r="D194" t="n">
-        <v>2650260</v>
+        <v>2689833</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1753</v>
+        <v>1775</v>
       </c>
       <c r="D195" t="n">
-        <v>2556775</v>
+        <v>2589775</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>5327</v>
+        <v>5370</v>
       </c>
       <c r="D196" t="n">
-        <v>7841145</v>
+        <v>7904677</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1974</v>
+        <v>1990</v>
       </c>
       <c r="D197" t="n">
-        <v>2939430</v>
+        <v>2963430</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D198" t="n">
-        <v>687375</v>
+        <v>693375</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D199" t="n">
-        <v>108000</v>
+        <v>109500</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1762</v>
+        <v>1787</v>
       </c>
       <c r="D201" t="n">
-        <v>2321898</v>
+        <v>2353382</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="D202" t="n">
-        <v>1359164</v>
+        <v>1372664</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3001</v>
+        <v>3028</v>
       </c>
       <c r="D203" t="n">
-        <v>4417074</v>
+        <v>4453935</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="D204" t="n">
-        <v>1479162</v>
+        <v>1489662</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D205" t="n">
-        <v>303077</v>
+        <v>307577</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D206" t="n">
-        <v>69000</v>
+        <v>70500</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1050</v>
+        <v>1063</v>
       </c>
       <c r="D207" t="n">
-        <v>1419535</v>
+        <v>1436251</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10318,10 +10318,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="D208" t="n">
-        <v>1189026</v>
+        <v>1213841</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3282</v>
+        <v>3333</v>
       </c>
       <c r="D209" t="n">
-        <v>4798542</v>
+        <v>4873505</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1678</v>
+        <v>1708</v>
       </c>
       <c r="D210" t="n">
-        <v>2482481</v>
+        <v>2526746</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D211" t="n">
-        <v>691349</v>
+        <v>697349</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="D213" t="n">
-        <v>855664</v>
+        <v>872472</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1949</v>
+        <v>1984</v>
       </c>
       <c r="D214" t="n">
-        <v>2818810</v>
+        <v>2869740</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3718</v>
+        <v>3762</v>
       </c>
       <c r="D215" t="n">
-        <v>5431805</v>
+        <v>5496644</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="D216" t="n">
-        <v>1719542</v>
+        <v>1727042</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1517</v>
+        <v>1534</v>
       </c>
       <c r="D219" t="n">
-        <v>2055502</v>
+        <v>2079642</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10894,10 +10894,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="D220" t="n">
-        <v>990520</v>
+        <v>995020</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2126</v>
+        <v>2144</v>
       </c>
       <c r="D221" t="n">
-        <v>3095471</v>
+        <v>3122471</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D222" t="n">
-        <v>1026130</v>
+        <v>1027630</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="D225" t="n">
-        <v>1136898</v>
+        <v>1147702</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="D226" t="n">
-        <v>1278784</v>
+        <v>1290784</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2508</v>
+        <v>2521</v>
       </c>
       <c r="D227" t="n">
-        <v>3660782</v>
+        <v>3679861</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="D228" t="n">
-        <v>1168340</v>
+        <v>1174340</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D229" t="n">
-        <v>313556</v>
+        <v>315056</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="D231" t="n">
-        <v>1165546</v>
+        <v>1176521</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3633</v>
+        <v>3666</v>
       </c>
       <c r="D232" t="n">
-        <v>5264626</v>
+        <v>5312308</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>11676</v>
+        <v>11753</v>
       </c>
       <c r="D233" t="n">
-        <v>17141192</v>
+        <v>17254454</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>4540</v>
+        <v>4570</v>
       </c>
       <c r="D234" t="n">
-        <v>6739653</v>
+        <v>6783451</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1380</v>
+        <v>1389</v>
       </c>
       <c r="D235" t="n">
-        <v>2053290</v>
+        <v>2065556</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D236" t="n">
-        <v>438189</v>
+        <v>444189</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3154</v>
+        <v>3192</v>
       </c>
       <c r="D238" t="n">
-        <v>4289444</v>
+        <v>4339196</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D239" t="n">
-        <v>703512</v>
+        <v>708524</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1314</v>
+        <v>1319</v>
       </c>
       <c r="D240" t="n">
-        <v>1916289</v>
+        <v>1922864</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D241" t="n">
-        <v>621800</v>
+        <v>626300</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D243" t="n">
-        <v>61517</v>
+        <v>63017</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12094,10 +12094,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D245" t="n">
-        <v>705299</v>
+        <v>712738</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>2498</v>
+        <v>2527</v>
       </c>
       <c r="D246" t="n">
-        <v>3613530</v>
+        <v>3655640</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>7431</v>
+        <v>7479</v>
       </c>
       <c r="D247" t="n">
-        <v>10912741</v>
+        <v>10980966</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>3030</v>
+        <v>3044</v>
       </c>
       <c r="D248" t="n">
-        <v>4500614</v>
+        <v>4521614</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D249" t="n">
-        <v>1213059</v>
+        <v>1215437</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D250" t="n">
-        <v>277230</v>
+        <v>284730</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1924</v>
+        <v>1943</v>
       </c>
       <c r="D254" t="n">
-        <v>2542104</v>
+        <v>2568158</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1659</v>
+        <v>1677</v>
       </c>
       <c r="D255" t="n">
-        <v>2409372</v>
+        <v>2436372</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>4681</v>
+        <v>4719</v>
       </c>
       <c r="D256" t="n">
-        <v>6894586</v>
+        <v>6950477</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1717</v>
+        <v>1734</v>
       </c>
       <c r="D257" t="n">
-        <v>2549810</v>
+        <v>2575310</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12718,10 +12718,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D258" t="n">
-        <v>758539</v>
+        <v>766039</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D259" t="n">
-        <v>105000</v>
+        <v>112500</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1808</v>
+        <v>1823</v>
       </c>
       <c r="D261" t="n">
-        <v>2377826</v>
+        <v>2397451</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1741</v>
+        <v>1762</v>
       </c>
       <c r="D262" t="n">
-        <v>2548588</v>
+        <v>2577516</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>5262</v>
+        <v>5306</v>
       </c>
       <c r="D263" t="n">
-        <v>7742242</v>
+        <v>7805751</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1843</v>
+        <v>1848</v>
       </c>
       <c r="D264" t="n">
-        <v>2736653</v>
+        <v>2744153</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D265" t="n">
-        <v>707732</v>
+        <v>709232</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2034</v>
+        <v>2059</v>
       </c>
       <c r="D268" t="n">
-        <v>2752548</v>
+        <v>2785620</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13246,10 +13246,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D269" t="n">
-        <v>684439</v>
+        <v>690439</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1341</v>
+        <v>1351</v>
       </c>
       <c r="D270" t="n">
-        <v>1952311</v>
+        <v>1966943</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D271" t="n">
-        <v>604420</v>
+        <v>605920</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D274" t="n">
-        <v>715728</v>
+        <v>725240</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>2479</v>
+        <v>2504</v>
       </c>
       <c r="D275" t="n">
-        <v>3590799</v>
+        <v>3626496</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>8168</v>
+        <v>8215</v>
       </c>
       <c r="D276" t="n">
-        <v>11975357</v>
+        <v>12043872</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>3404</v>
+        <v>3411</v>
       </c>
       <c r="D277" t="n">
-        <v>5064914</v>
+        <v>5075414</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D278" t="n">
-        <v>1567159</v>
+        <v>1573159</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2247</v>
+        <v>2267</v>
       </c>
       <c r="D281" t="n">
-        <v>3010043</v>
+        <v>3030428</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1504</v>
+        <v>1522</v>
       </c>
       <c r="D282" t="n">
-        <v>2156881</v>
+        <v>2183743</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3724</v>
+        <v>3766</v>
       </c>
       <c r="D283" t="n">
-        <v>5475462</v>
+        <v>5536702</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13966,10 +13966,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1232</v>
+        <v>1239</v>
       </c>
       <c r="D284" t="n">
-        <v>1830789</v>
+        <v>1841289</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D285" t="n">
-        <v>529621</v>
+        <v>536153</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14110,10 +14110,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D287" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14158,10 +14158,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1529</v>
+        <v>1557</v>
       </c>
       <c r="D288" t="n">
-        <v>2020043</v>
+        <v>2056288</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1682</v>
+        <v>1731</v>
       </c>
       <c r="D289" t="n">
-        <v>2440833</v>
+        <v>2513982</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>5976</v>
+        <v>6137</v>
       </c>
       <c r="D290" t="n">
-        <v>8799326</v>
+        <v>9033194</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2090</v>
+        <v>2120</v>
       </c>
       <c r="D291" t="n">
-        <v>3121750</v>
+        <v>3166750</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="D292" t="n">
-        <v>1019805</v>
+        <v>1042305</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D293" t="n">
-        <v>227111</v>
+        <v>239111</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>5483</v>
+        <v>5628</v>
       </c>
       <c r="D295" t="n">
-        <v>7572623</v>
+        <v>7772522</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="D296" t="n">
-        <v>1011340</v>
+        <v>1046540</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1743</v>
+        <v>1819</v>
       </c>
       <c r="D297" t="n">
-        <v>2582914</v>
+        <v>2696626</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>695</v>
+        <v>733</v>
       </c>
       <c r="D298" t="n">
-        <v>1036719</v>
+        <v>1091953</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D299" t="n">
-        <v>356758</v>
+        <v>379258</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D300" t="n">
-        <v>76500</v>
+        <v>81000</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14782,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D301" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1008</v>
+        <v>1058</v>
       </c>
       <c r="D302" t="n">
-        <v>1429765</v>
+        <v>1501861</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1088</v>
+        <v>1102</v>
       </c>
       <c r="D303" t="n">
-        <v>1562184</v>
+        <v>1582524</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>3413</v>
+        <v>3447</v>
       </c>
       <c r="D304" t="n">
-        <v>5007405</v>
+        <v>5057064</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1279</v>
+        <v>1287</v>
       </c>
       <c r="D305" t="n">
-        <v>1896198</v>
+        <v>1908198</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D306" t="n">
-        <v>474005</v>
+        <v>478505</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D307" t="n">
-        <v>59937</v>
+        <v>61437</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1339</v>
+        <v>1349</v>
       </c>
       <c r="D309" t="n">
-        <v>1787341</v>
+        <v>1798102</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>6475</v>
+        <v>6545</v>
       </c>
       <c r="D310" t="n">
-        <v>9347196</v>
+        <v>9447477</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>18536</v>
+        <v>18671</v>
       </c>
       <c r="D311" t="n">
-        <v>27139517</v>
+        <v>27335596</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>6605</v>
+        <v>6647</v>
       </c>
       <c r="D312" t="n">
-        <v>9833707</v>
+        <v>9896107</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1989</v>
+        <v>2013</v>
       </c>
       <c r="D313" t="n">
-        <v>2969252</v>
+        <v>3004175</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D314" t="n">
-        <v>615970</v>
+        <v>624970</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>5805</v>
+        <v>5866</v>
       </c>
       <c r="D316" t="n">
-        <v>7677133</v>
+        <v>7755017</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>1947</v>
+        <v>1963</v>
       </c>
       <c r="D317" t="n">
-        <v>2851212</v>
+        <v>2872413</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6098</v>
+        <v>6159</v>
       </c>
       <c r="D318" t="n">
-        <v>8961229</v>
+        <v>9047812</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2177</v>
+        <v>2198</v>
       </c>
       <c r="D319" t="n">
-        <v>3241019</v>
+        <v>3271629</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D320" t="n">
-        <v>862199</v>
+        <v>866699</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D321" t="n">
-        <v>170974</v>
+        <v>173974</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15838,10 +15838,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1865</v>
+        <v>1886</v>
       </c>
       <c r="D323" t="n">
-        <v>2545714</v>
+        <v>2574213</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>3373</v>
+        <v>3407</v>
       </c>
       <c r="D324" t="n">
-        <v>4855908</v>
+        <v>4904937</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>10277</v>
+        <v>10345</v>
       </c>
       <c r="D325" t="n">
-        <v>15031343</v>
+        <v>15130245</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3360</v>
+        <v>3373</v>
       </c>
       <c r="D326" t="n">
-        <v>4984201</v>
+        <v>5003431</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1032</v>
+        <v>1041</v>
       </c>
       <c r="D327" t="n">
-        <v>1534873</v>
+        <v>1546873</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D328" t="n">
-        <v>240392</v>
+        <v>242215</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16126,10 +16126,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D329" t="n">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3591</v>
+        <v>3608</v>
       </c>
       <c r="D331" t="n">
-        <v>4700407</v>
+        <v>4720980</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1414</v>
+        <v>1425</v>
       </c>
       <c r="D332" t="n">
-        <v>2053444</v>
+        <v>2069944</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>4035</v>
+        <v>4056</v>
       </c>
       <c r="D333" t="n">
-        <v>5896716</v>
+        <v>5926802</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16366,10 +16366,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1529</v>
+        <v>1538</v>
       </c>
       <c r="D334" t="n">
-        <v>2275250</v>
+        <v>2288750</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D335" t="n">
-        <v>563464</v>
+        <v>572464</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D336" t="n">
-        <v>147000</v>
+        <v>150000</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16558,10 +16558,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1584</v>
+        <v>1602</v>
       </c>
       <c r="D338" t="n">
-        <v>2071487</v>
+        <v>2094855</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -16606,10 +16606,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>3265</v>
+        <v>3328</v>
       </c>
       <c r="D339" t="n">
-        <v>4767476</v>
+        <v>4858899</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>9598</v>
+        <v>9726</v>
       </c>
       <c r="D340" t="n">
-        <v>14171539</v>
+        <v>14358357</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16702,10 +16702,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3741</v>
+        <v>3776</v>
       </c>
       <c r="D341" t="n">
-        <v>5570927</v>
+        <v>5623301</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1105</v>
+        <v>1116</v>
       </c>
       <c r="D342" t="n">
-        <v>1649179</v>
+        <v>1665679</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D343" t="n">
-        <v>289301</v>
+        <v>290801</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3166</v>
+        <v>3214</v>
       </c>
       <c r="D345" t="n">
-        <v>4402580</v>
+        <v>4468768</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>5660</v>
+        <v>5824</v>
       </c>
       <c r="D346" t="n">
-        <v>8258478</v>
+        <v>8499155</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14109</v>
+        <v>14420</v>
       </c>
       <c r="D347" t="n">
-        <v>20787451</v>
+        <v>21250269</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17038,10 +17038,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>6391</v>
+        <v>6469</v>
       </c>
       <c r="D348" t="n">
-        <v>9535040</v>
+        <v>9650999</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1949</v>
+        <v>1961</v>
       </c>
       <c r="D349" t="n">
-        <v>2909372</v>
+        <v>2927372</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D350" t="n">
-        <v>615042</v>
+        <v>625542</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D351" t="n">
-        <v>31003</v>
+        <v>35503</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>5111</v>
+        <v>5225</v>
       </c>
       <c r="D352" t="n">
-        <v>7013012</v>
+        <v>7165921</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>16622</v>
+        <v>17004</v>
       </c>
       <c r="D353" t="n">
-        <v>24141283</v>
+        <v>24701996</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>46343</v>
+        <v>47147</v>
       </c>
       <c r="D354" t="n">
-        <v>68349427</v>
+        <v>69536086</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>21639</v>
+        <v>21980</v>
       </c>
       <c r="D355" t="n">
-        <v>32294246</v>
+        <v>32804289</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>7702</v>
+        <v>7827</v>
       </c>
       <c r="D356" t="n">
-        <v>11518483</v>
+        <v>11705983</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17470,10 +17470,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1822</v>
+        <v>1869</v>
       </c>
       <c r="D357" t="n">
-        <v>2724916</v>
+        <v>2795416</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D358" t="n">
-        <v>142500</v>
+        <v>147000</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D359" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>16330</v>
+        <v>16712</v>
       </c>
       <c r="D362" t="n">
-        <v>22285736</v>
+        <v>22803556</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>3954</v>
+        <v>4036</v>
       </c>
       <c r="D363" t="n">
-        <v>5759910</v>
+        <v>5880797</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>11457</v>
+        <v>11603</v>
       </c>
       <c r="D364" t="n">
-        <v>16860828</v>
+        <v>17074659</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17854,10 +17854,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>4378</v>
+        <v>4411</v>
       </c>
       <c r="D365" t="n">
-        <v>6501827</v>
+        <v>6550441</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>1339</v>
+        <v>1350</v>
       </c>
       <c r="D366" t="n">
-        <v>1999608</v>
+        <v>2016108</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D367" t="n">
-        <v>358500</v>
+        <v>361500</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>3904</v>
+        <v>4016</v>
       </c>
       <c r="D369" t="n">
-        <v>5351164</v>
+        <v>5500765</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>4715</v>
+        <v>4879</v>
       </c>
       <c r="D370" t="n">
-        <v>6861714</v>
+        <v>7103475</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>17207</v>
+        <v>17535</v>
       </c>
       <c r="D371" t="n">
-        <v>25363611</v>
+        <v>25846482</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>8249</v>
+        <v>8324</v>
       </c>
       <c r="D372" t="n">
-        <v>12302125</v>
+        <v>12414625</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2319</v>
+        <v>2340</v>
       </c>
       <c r="D373" t="n">
-        <v>3467388</v>
+        <v>3498888</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="D374" t="n">
-        <v>844595</v>
+        <v>861095</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>4834</v>
+        <v>4996</v>
       </c>
       <c r="D376" t="n">
-        <v>6560775</v>
+        <v>6777331</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>4295</v>
+        <v>4399</v>
       </c>
       <c r="D377" t="n">
-        <v>6262276</v>
+        <v>6411821</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>12626</v>
+        <v>12856</v>
       </c>
       <c r="D378" t="n">
-        <v>18600292</v>
+        <v>18937285</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>5294</v>
+        <v>5357</v>
       </c>
       <c r="D379" t="n">
-        <v>7892107</v>
+        <v>7984019</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1517</v>
+        <v>1539</v>
       </c>
       <c r="D380" t="n">
-        <v>2265242</v>
+        <v>2297089</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D381" t="n">
-        <v>531106</v>
+        <v>540106</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D382" t="n">
-        <v>25758</v>
+        <v>31758</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4423</v>
+        <v>4548</v>
       </c>
       <c r="D383" t="n">
-        <v>6077011</v>
+        <v>6247633</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3261</v>
+        <v>3338</v>
       </c>
       <c r="D384" t="n">
-        <v>4758714</v>
+        <v>4871619</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>10563</v>
+        <v>10754</v>
       </c>
       <c r="D385" t="n">
-        <v>15586589</v>
+        <v>15869974</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4511</v>
+        <v>4557</v>
       </c>
       <c r="D386" t="n">
-        <v>6709772</v>
+        <v>6778772</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1282</v>
+        <v>1296</v>
       </c>
       <c r="D387" t="n">
-        <v>1914116</v>
+        <v>1935116</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D388" t="n">
-        <v>417600</v>
+        <v>426600</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3479</v>
+        <v>3568</v>
       </c>
       <c r="D390" t="n">
-        <v>4721423</v>
+        <v>4840684</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>3802</v>
+        <v>3869</v>
       </c>
       <c r="D391" t="n">
-        <v>5543278</v>
+        <v>5641017</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>10446</v>
+        <v>10589</v>
       </c>
       <c r="D392" t="n">
-        <v>15397225</v>
+        <v>15609383</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>4041</v>
+        <v>4071</v>
       </c>
       <c r="D393" t="n">
-        <v>6014355</v>
+        <v>6059355</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1269</v>
+        <v>1282</v>
       </c>
       <c r="D394" t="n">
-        <v>1896684</v>
+        <v>1916184</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D395" t="n">
-        <v>377060</v>
+        <v>380060</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3795</v>
+        <v>3856</v>
       </c>
       <c r="D397" t="n">
-        <v>5218568</v>
+        <v>5298368</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>4082</v>
+        <v>4170</v>
       </c>
       <c r="D398" t="n">
-        <v>5920669</v>
+        <v>6047631</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>10585</v>
+        <v>10740</v>
       </c>
       <c r="D399" t="n">
-        <v>15559960</v>
+        <v>15786309</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>3624</v>
+        <v>3667</v>
       </c>
       <c r="D400" t="n">
-        <v>5402081</v>
+        <v>5465993</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1261</v>
+        <v>1274</v>
       </c>
       <c r="D401" t="n">
-        <v>1886091</v>
+        <v>1904913</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D402" t="n">
-        <v>386612</v>
+        <v>393512</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>4747</v>
+        <v>4838</v>
       </c>
       <c r="D405" t="n">
-        <v>6405537</v>
+        <v>6523494</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>1385</v>
+        <v>1426</v>
       </c>
       <c r="D406" t="n">
-        <v>2001990</v>
+        <v>2062583</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>4588</v>
+        <v>4684</v>
       </c>
       <c r="D407" t="n">
-        <v>6761465</v>
+        <v>6901416</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1778</v>
+        <v>1803</v>
       </c>
       <c r="D408" t="n">
-        <v>2651616</v>
+        <v>2688403</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="D409" t="n">
-        <v>935141</v>
+        <v>960641</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D410" t="n">
-        <v>232069</v>
+        <v>237613</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D412" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>3041</v>
+        <v>3106</v>
       </c>
       <c r="D413" t="n">
-        <v>4037232</v>
+        <v>4121729</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="D414" t="n">
-        <v>770964</v>
+        <v>788964</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D415" t="n">
-        <v>397265</v>
+        <v>412165</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D416" t="n">
-        <v>138000</v>
+        <v>139500</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D417" t="n">
-        <v>55500</v>
+        <v>57000</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20398,10 +20398,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D418" t="n">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2882</v>
+        <v>2917</v>
       </c>
       <c r="D419" t="n">
-        <v>4185374</v>
+        <v>4233883</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>6978</v>
+        <v>7041</v>
       </c>
       <c r="D420" t="n">
-        <v>10248232</v>
+        <v>10338394</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>2305</v>
+        <v>2321</v>
       </c>
       <c r="D421" t="n">
-        <v>3435295</v>
+        <v>3459295</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="D422" t="n">
-        <v>1006142</v>
+        <v>1013642</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D423" t="n">
-        <v>186390</v>
+        <v>190890</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>2240</v>
+        <v>2262</v>
       </c>
       <c r="D425" t="n">
-        <v>2994303</v>
+        <v>3023308</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1620</v>
+        <v>1643</v>
       </c>
       <c r="D426" t="n">
-        <v>2354314</v>
+        <v>2388744</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>4696</v>
+        <v>4726</v>
       </c>
       <c r="D427" t="n">
-        <v>6893160</v>
+        <v>6937071</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>1554</v>
+        <v>1562</v>
       </c>
       <c r="D428" t="n">
-        <v>2314342</v>
+        <v>2326342</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D429" t="n">
-        <v>594188</v>
+        <v>601688</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>1586</v>
+        <v>1610</v>
       </c>
       <c r="D432" t="n">
-        <v>2088616</v>
+        <v>2121245</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1824</v>
+        <v>1849</v>
       </c>
       <c r="D433" t="n">
-        <v>2643632</v>
+        <v>2678572</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>4622</v>
+        <v>4656</v>
       </c>
       <c r="D434" t="n">
-        <v>6795020</v>
+        <v>6841714</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1468</v>
+        <v>1478</v>
       </c>
       <c r="D435" t="n">
-        <v>2177661</v>
+        <v>2192661</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21262,10 +21262,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D436" t="n">
-        <v>595163</v>
+        <v>599663</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1529</v>
+        <v>1542</v>
       </c>
       <c r="D438" t="n">
-        <v>2020397</v>
+        <v>2035571</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="D439" t="n">
-        <v>1267459</v>
+        <v>1279048</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>2534</v>
+        <v>2549</v>
       </c>
       <c r="D440" t="n">
-        <v>3720957</v>
+        <v>3742541</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="D441" t="n">
-        <v>1091170</v>
+        <v>1097329</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="D444" t="n">
-        <v>1363357</v>
+        <v>1380215</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2847</v>
+        <v>2881</v>
       </c>
       <c r="D445" t="n">
-        <v>4143079</v>
+        <v>4193747</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>8926</v>
+        <v>9012</v>
       </c>
       <c r="D446" t="n">
-        <v>13151592</v>
+        <v>13276530</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>3243</v>
+        <v>3263</v>
       </c>
       <c r="D447" t="n">
-        <v>4821008</v>
+        <v>4849921</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21838,10 +21838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D448" t="n">
-        <v>1315340</v>
+        <v>1324340</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D449" t="n">
-        <v>272810</v>
+        <v>275810</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2790</v>
+        <v>2816</v>
       </c>
       <c r="D451" t="n">
-        <v>3663044</v>
+        <v>3698588</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>1135</v>
+        <v>1151</v>
       </c>
       <c r="D452" t="n">
-        <v>1633695</v>
+        <v>1656275</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22078,10 +22078,10 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3096</v>
+        <v>3125</v>
       </c>
       <c r="D453" t="n">
-        <v>4531040</v>
+        <v>4574540</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="D454" t="n">
-        <v>1499974</v>
+        <v>1504474</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D455" t="n">
-        <v>446411</v>
+        <v>453911</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1279</v>
+        <v>1293</v>
       </c>
       <c r="D458" t="n">
-        <v>1635407</v>
+        <v>1649514</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>4118</v>
+        <v>4181</v>
       </c>
       <c r="D459" t="n">
-        <v>5972013</v>
+        <v>6058619</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>7862</v>
+        <v>7911</v>
       </c>
       <c r="D460" t="n">
-        <v>11538481</v>
+        <v>11609914</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>2321</v>
+        <v>2334</v>
       </c>
       <c r="D461" t="n">
-        <v>3452490</v>
+        <v>3471990</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D462" t="n">
-        <v>856655</v>
+        <v>861155</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D463" t="n">
-        <v>138639</v>
+        <v>140139</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>2607</v>
+        <v>2643</v>
       </c>
       <c r="D465" t="n">
-        <v>3490202</v>
+        <v>3540989</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>987</v>
+        <v>1002</v>
       </c>
       <c r="D466" t="n">
-        <v>1425817</v>
+        <v>1447607</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>2495</v>
+        <v>2505</v>
       </c>
       <c r="D467" t="n">
-        <v>3651714</v>
+        <v>3665997</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="D468" t="n">
-        <v>1106759</v>
+        <v>1114259</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D469" t="n">
-        <v>314057</v>
+        <v>315557</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>1273</v>
+        <v>1287</v>
       </c>
       <c r="D471" t="n">
-        <v>1702279</v>
+        <v>1722054</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -22990,10 +22990,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D472" t="n">
-        <v>496456</v>
+        <v>500956</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D473" t="n">
-        <v>1455489</v>
+        <v>1461621</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D474" t="n">
-        <v>495078</v>
+        <v>498078</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D477" t="n">
-        <v>721574</v>
+        <v>725781</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="D478" t="n">
-        <v>1269459</v>
+        <v>1278459</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>2731</v>
+        <v>2747</v>
       </c>
       <c r="D479" t="n">
-        <v>4025945</v>
+        <v>4049945</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="D480" t="n">
-        <v>1385293</v>
+        <v>1389793</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D481" t="n">
-        <v>351781</v>
+        <v>354781</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D482" t="n">
-        <v>94500</v>
+        <v>96000</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="D483" t="n">
-        <v>1291819</v>
+        <v>1307475</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2555</v>
+        <v>2602</v>
       </c>
       <c r="D484" t="n">
-        <v>3661535</v>
+        <v>3728215</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>5028</v>
+        <v>5072</v>
       </c>
       <c r="D485" t="n">
-        <v>7365285</v>
+        <v>7431285</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>1430</v>
+        <v>1438</v>
       </c>
       <c r="D486" t="n">
-        <v>2122741</v>
+        <v>2134336</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D487" t="n">
-        <v>529359</v>
+        <v>536347</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D488" t="n">
-        <v>91940</v>
+        <v>93440</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2239</v>
+        <v>2268</v>
       </c>
       <c r="D490" t="n">
-        <v>2940586</v>
+        <v>2977066</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>8205</v>
+        <v>8318</v>
       </c>
       <c r="D491" t="n">
-        <v>11894323</v>
+        <v>12058444</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>17321</v>
+        <v>17473</v>
       </c>
       <c r="D492" t="n">
-        <v>25379256</v>
+        <v>25601566</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>5926</v>
+        <v>5975</v>
       </c>
       <c r="D493" t="n">
-        <v>8818139</v>
+        <v>8890927</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>1835</v>
+        <v>1850</v>
       </c>
       <c r="D494" t="n">
-        <v>2737199</v>
+        <v>2759215</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D495" t="n">
-        <v>539615</v>
+        <v>545615</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>6195</v>
+        <v>6292</v>
       </c>
       <c r="D499" t="n">
-        <v>8417297</v>
+        <v>8541990</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>1214</v>
+        <v>1222</v>
       </c>
       <c r="D500" t="n">
-        <v>1749256</v>
+        <v>1759719</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24382,10 +24382,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>3076</v>
+        <v>3108</v>
       </c>
       <c r="D501" t="n">
-        <v>4515876</v>
+        <v>4561194</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1008</v>
+        <v>1017</v>
       </c>
       <c r="D502" t="n">
-        <v>1501241</v>
+        <v>1514741</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24478,10 +24478,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D503" t="n">
-        <v>494932</v>
+        <v>497932</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D504" t="n">
-        <v>93000</v>
+        <v>94500</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>1475</v>
+        <v>1486</v>
       </c>
       <c r="D506" t="n">
-        <v>1954814</v>
+        <v>1968327</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>2709</v>
+        <v>2734</v>
       </c>
       <c r="D507" t="n">
-        <v>3892639</v>
+        <v>3929334</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>4719</v>
+        <v>4766</v>
       </c>
       <c r="D508" t="n">
-        <v>6910116</v>
+        <v>6980616</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1448</v>
+        <v>1463</v>
       </c>
       <c r="D509" t="n">
-        <v>2152682</v>
+        <v>2175182</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D510" t="n">
-        <v>546873</v>
+        <v>551373</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D512" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>1512</v>
+        <v>1533</v>
       </c>
       <c r="D513" t="n">
-        <v>2008357</v>
+        <v>2034416</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>1498</v>
+        <v>1519</v>
       </c>
       <c r="D514" t="n">
-        <v>2160668</v>
+        <v>2189170</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>3261</v>
+        <v>3286</v>
       </c>
       <c r="D515" t="n">
-        <v>4768426</v>
+        <v>4805101</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1116</v>
+        <v>1123</v>
       </c>
       <c r="D516" t="n">
-        <v>1656035</v>
+        <v>1666535</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25150,10 +25150,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D517" t="n">
-        <v>394582</v>
+        <v>398675</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D518" t="n">
-        <v>79500</v>
+        <v>81000</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>1384</v>
+        <v>1397</v>
       </c>
       <c r="D519" t="n">
-        <v>1875166</v>
+        <v>1891080</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>3475</v>
+        <v>3518</v>
       </c>
       <c r="D520" t="n">
-        <v>4999224</v>
+        <v>5062045</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>8709</v>
+        <v>8778</v>
       </c>
       <c r="D521" t="n">
-        <v>12737608</v>
+        <v>12835406</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>2930</v>
+        <v>2954</v>
       </c>
       <c r="D522" t="n">
-        <v>4351240</v>
+        <v>4386610</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="D523" t="n">
-        <v>1208694</v>
+        <v>1219194</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>3421</v>
+        <v>3462</v>
       </c>
       <c r="D527" t="n">
-        <v>4608450</v>
+        <v>4659497</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>1087</v>
+        <v>1101</v>
       </c>
       <c r="D528" t="n">
-        <v>1560367</v>
+        <v>1580277</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>3215</v>
+        <v>3244</v>
       </c>
       <c r="D529" t="n">
-        <v>4700514</v>
+        <v>4743063</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1076</v>
+        <v>1088</v>
       </c>
       <c r="D530" t="n">
-        <v>1598854</v>
+        <v>1616854</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D531" t="n">
-        <v>489353</v>
+        <v>495353</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1164</v>
+        <v>1178</v>
       </c>
       <c r="D534" t="n">
-        <v>1569838</v>
+        <v>1586990</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D535" t="n">
-        <v>669467</v>
+        <v>675467</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1671</v>
+        <v>1688</v>
       </c>
       <c r="D536" t="n">
-        <v>2437147</v>
+        <v>2461968</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D537" t="n">
-        <v>878741</v>
+        <v>884906</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D538" t="n">
-        <v>243130</v>
+        <v>247630</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26302,10 +26302,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="D541" t="n">
-        <v>1011598</v>
+        <v>1021905</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>2574</v>
+        <v>2610</v>
       </c>
       <c r="D542" t="n">
-        <v>3696218</v>
+        <v>3749090</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>4734</v>
+        <v>4783</v>
       </c>
       <c r="D543" t="n">
-        <v>6933930</v>
+        <v>7005424</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>1453</v>
+        <v>1463</v>
       </c>
       <c r="D544" t="n">
-        <v>2162109</v>
+        <v>2176329</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D545" t="n">
-        <v>587278</v>
+        <v>590278</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D546" t="n">
-        <v>92455</v>
+        <v>95455</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>1721</v>
+        <v>1741</v>
       </c>
       <c r="D548" t="n">
-        <v>2269040</v>
+        <v>2295331</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26686,10 +26686,10 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>1630</v>
+        <v>1650</v>
       </c>
       <c r="D549" t="n">
-        <v>2336259</v>
+        <v>2366090</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>3458</v>
+        <v>3488</v>
       </c>
       <c r="D550" t="n">
-        <v>5060040</v>
+        <v>5104255</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="D551" t="n">
-        <v>1512037</v>
+        <v>1524037</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D552" t="n">
-        <v>415582</v>
+        <v>421582</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>1845</v>
+        <v>1860</v>
       </c>
       <c r="D555" t="n">
-        <v>2466219</v>
+        <v>2482763</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>4093</v>
+        <v>4150</v>
       </c>
       <c r="D556" t="n">
-        <v>5931421</v>
+        <v>6012953</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>9687</v>
+        <v>9766</v>
       </c>
       <c r="D557" t="n">
-        <v>14173272</v>
+        <v>14286913</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>2744</v>
+        <v>2764</v>
       </c>
       <c r="D558" t="n">
-        <v>4071058</v>
+        <v>4101058</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="D559" t="n">
-        <v>935031</v>
+        <v>942738</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D560" t="n">
-        <v>152240</v>
+        <v>153740</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3745</v>
+        <v>3789</v>
       </c>
       <c r="D561" t="n">
-        <v>4987614</v>
+        <v>5044019</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="D562" t="n">
-        <v>1339509</v>
+        <v>1354209</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>2134</v>
+        <v>2159</v>
       </c>
       <c r="D563" t="n">
-        <v>3114808</v>
+        <v>3150533</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D564" t="n">
-        <v>955385</v>
+        <v>961385</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>1147</v>
+        <v>1157</v>
       </c>
       <c r="D567" t="n">
-        <v>1511463</v>
+        <v>1522430</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>5783</v>
+        <v>5852</v>
       </c>
       <c r="D568" t="n">
-        <v>8363904</v>
+        <v>8465142</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>14059</v>
+        <v>14181</v>
       </c>
       <c r="D569" t="n">
-        <v>20628018</v>
+        <v>20805410</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>4984</v>
+        <v>5016</v>
       </c>
       <c r="D570" t="n">
-        <v>7406973</v>
+        <v>7454973</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>1511</v>
+        <v>1526</v>
       </c>
       <c r="D571" t="n">
-        <v>2252828</v>
+        <v>2275328</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D572" t="n">
-        <v>429085</v>
+        <v>433054</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>5658</v>
+        <v>5717</v>
       </c>
       <c r="D575" t="n">
-        <v>7586375</v>
+        <v>7665400</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>1274</v>
+        <v>1308</v>
       </c>
       <c r="D576" t="n">
-        <v>1802368</v>
+        <v>1851990</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>2981</v>
+        <v>3015</v>
       </c>
       <c r="D577" t="n">
-        <v>4329292</v>
+        <v>4377654</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>982</v>
+        <v>997</v>
       </c>
       <c r="D578" t="n">
-        <v>1455080</v>
+        <v>1477580</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D579" t="n">
-        <v>360634</v>
+        <v>365134</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D580" t="n">
-        <v>84334</v>
+        <v>85834</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28222,10 +28222,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1637</v>
+        <v>1663</v>
       </c>
       <c r="D581" t="n">
-        <v>2195664</v>
+        <v>2232366</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>7949</v>
+        <v>8048</v>
       </c>
       <c r="D582" t="n">
-        <v>11529804</v>
+        <v>11674732</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>17075</v>
+        <v>17242</v>
       </c>
       <c r="D583" t="n">
-        <v>25042251</v>
+        <v>25284570</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>5199</v>
+        <v>5226</v>
       </c>
       <c r="D584" t="n">
-        <v>7732982</v>
+        <v>7773482</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>1318</v>
+        <v>1325</v>
       </c>
       <c r="D585" t="n">
-        <v>1956452</v>
+        <v>1966952</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D586" t="n">
-        <v>355325</v>
+        <v>357951</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>5588</v>
+        <v>5645</v>
       </c>
       <c r="D588" t="n">
-        <v>7492342</v>
+        <v>7564136</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>1194</v>
+        <v>1207</v>
       </c>
       <c r="D589" t="n">
-        <v>1721441</v>
+        <v>1740941</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>2129</v>
+        <v>2146</v>
       </c>
       <c r="D590" t="n">
-        <v>3123145</v>
+        <v>3148512</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D591" t="n">
-        <v>919703</v>
+        <v>922703</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D592" t="n">
-        <v>217335</v>
+        <v>218835</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D593" t="n">
-        <v>19798</v>
+        <v>21298</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="D595" t="n">
-        <v>1506384</v>
+        <v>1516667</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D596" t="n">
-        <v>936655</v>
+        <v>945655</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D597" t="n">
-        <v>1446465</v>
+        <v>1453496</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D598" t="n">
-        <v>436191</v>
+        <v>437691</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="D601" t="n">
-        <v>875111</v>
+        <v>886250</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>3700</v>
+        <v>3760</v>
       </c>
       <c r="D602" t="n">
-        <v>5369214</v>
+        <v>5457555</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>6271</v>
+        <v>6328</v>
       </c>
       <c r="D603" t="n">
-        <v>9134247</v>
+        <v>9219354</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>1954</v>
+        <v>1965</v>
       </c>
       <c r="D604" t="n">
-        <v>2906350</v>
+        <v>2922395</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29374,10 +29374,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D605" t="n">
-        <v>791592</v>
+        <v>793092</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D606" t="n">
-        <v>153000</v>
+        <v>154500</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>2411</v>
+        <v>2436</v>
       </c>
       <c r="D608" t="n">
-        <v>3213973</v>
+        <v>3248323</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29566,10 +29566,10 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>1575</v>
+        <v>1587</v>
       </c>
       <c r="D609" t="n">
-        <v>2280294</v>
+        <v>2297505</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>3938</v>
+        <v>3973</v>
       </c>
       <c r="D610" t="n">
-        <v>5783167</v>
+        <v>5834477</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="D611" t="n">
-        <v>1743511</v>
+        <v>1751011</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D612" t="n">
-        <v>420318</v>
+        <v>424818</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D613" t="n">
-        <v>65842</v>
+        <v>67342</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1674</v>
+        <v>1686</v>
       </c>
       <c r="D614" t="n">
-        <v>2216188</v>
+        <v>2230030</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="D615" t="n">
-        <v>1526230</v>
+        <v>1541621</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>2558</v>
+        <v>2574</v>
       </c>
       <c r="D616" t="n">
-        <v>3746225</v>
+        <v>3770225</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="D617" t="n">
-        <v>1145034</v>
+        <v>1152534</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D618" t="n">
-        <v>309791</v>
+        <v>311291</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>1156</v>
+        <v>1168</v>
       </c>
       <c r="D621" t="n">
-        <v>1518456</v>
+        <v>1534700</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>4839</v>
+        <v>4909</v>
       </c>
       <c r="D622" t="n">
-        <v>7011796</v>
+        <v>7115242</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>11694</v>
+        <v>11796</v>
       </c>
       <c r="D623" t="n">
-        <v>17223124</v>
+        <v>17374583</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>4409</v>
+        <v>4444</v>
       </c>
       <c r="D624" t="n">
-        <v>6545453</v>
+        <v>6597897</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="D625" t="n">
-        <v>1722357</v>
+        <v>1734357</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30382,10 +30382,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D626" t="n">
-        <v>304762</v>
+        <v>307762</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30478,10 +30478,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>3984</v>
+        <v>4019</v>
       </c>
       <c r="D628" t="n">
-        <v>5347313</v>
+        <v>5393006</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30526,10 +30526,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>2150</v>
+        <v>2174</v>
       </c>
       <c r="D629" t="n">
-        <v>3103953</v>
+        <v>3137668</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>6607</v>
+        <v>6647</v>
       </c>
       <c r="D630" t="n">
-        <v>9715464</v>
+        <v>9774412</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>2193</v>
+        <v>2207</v>
       </c>
       <c r="D631" t="n">
-        <v>3255850</v>
+        <v>3276850</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D632" t="n">
-        <v>875060</v>
+        <v>876560</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D633" t="n">
-        <v>130774</v>
+        <v>135274</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>2145</v>
+        <v>2160</v>
       </c>
       <c r="D636" t="n">
-        <v>2905021</v>
+        <v>2925839</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -30910,10 +30910,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D637" t="n">
-        <v>1270806</v>
+        <v>1275039</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -30958,10 +30958,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>2356</v>
+        <v>2365</v>
       </c>
       <c r="D638" t="n">
-        <v>3449577</v>
+        <v>3462038</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="D639" t="n">
-        <v>1134564</v>
+        <v>1143564</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D640" t="n">
-        <v>286462</v>
+        <v>287962</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31102,10 +31102,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D641" t="n">
-        <v>34500</v>
+        <v>36000</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="D643" t="n">
-        <v>1046164</v>
+        <v>1050867</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>1428</v>
+        <v>1444</v>
       </c>
       <c r="D644" t="n">
-        <v>2062082</v>
+        <v>2084843</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>3917</v>
+        <v>3949</v>
       </c>
       <c r="D645" t="n">
-        <v>5761002</v>
+        <v>5808776</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31342,10 +31342,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>1323</v>
+        <v>1330</v>
       </c>
       <c r="D646" t="n">
-        <v>1965634</v>
+        <v>1975844</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31390,10 +31390,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D647" t="n">
-        <v>480663</v>
+        <v>483663</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>1286</v>
+        <v>1300</v>
       </c>
       <c r="D650" t="n">
-        <v>1680096</v>
+        <v>1700184</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31582,10 +31582,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>3025</v>
+        <v>3067</v>
       </c>
       <c r="D651" t="n">
-        <v>4395540</v>
+        <v>4457437</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>6095</v>
+        <v>6146</v>
       </c>
       <c r="D652" t="n">
-        <v>8930248</v>
+        <v>9002943</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>2246</v>
+        <v>2262</v>
       </c>
       <c r="D653" t="n">
-        <v>3343189</v>
+        <v>3367189</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>1927</v>
+        <v>1953</v>
       </c>
       <c r="D658" t="n">
-        <v>2594237</v>
+        <v>2625139</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>1438</v>
+        <v>1450</v>
       </c>
       <c r="D659" t="n">
-        <v>2075759</v>
+        <v>2092088</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>2675</v>
+        <v>2702</v>
       </c>
       <c r="D660" t="n">
-        <v>3907879</v>
+        <v>3946787</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="D661" t="n">
-        <v>1170057</v>
+        <v>1180557</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32254,10 +32254,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>1125</v>
+        <v>1141</v>
       </c>
       <c r="D665" t="n">
-        <v>1492061</v>
+        <v>1511851</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>7846</v>
+        <v>7983</v>
       </c>
       <c r="D666" t="n">
-        <v>11371503</v>
+        <v>11572878</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32350,10 +32350,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>19040</v>
+        <v>19267</v>
       </c>
       <c r="D667" t="n">
-        <v>27966902</v>
+        <v>28299735</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>5752</v>
+        <v>5817</v>
       </c>
       <c r="D668" t="n">
-        <v>8561811</v>
+        <v>8655262</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>1621</v>
+        <v>1640</v>
       </c>
       <c r="D669" t="n">
-        <v>2420287</v>
+        <v>2448787</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="D670" t="n">
-        <v>540286</v>
+        <v>556786</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>6869</v>
+        <v>6980</v>
       </c>
       <c r="D672" t="n">
-        <v>9372400</v>
+        <v>9523303</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>9773</v>
+        <v>9877</v>
       </c>
       <c r="D673" t="n">
-        <v>14197690</v>
+        <v>14351514</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>26562</v>
+        <v>26791</v>
       </c>
       <c r="D674" t="n">
-        <v>39023278</v>
+        <v>39359817</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>8430</v>
+        <v>8475</v>
       </c>
       <c r="D675" t="n">
-        <v>12558155</v>
+        <v>12624620</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>2232</v>
+        <v>2252</v>
       </c>
       <c r="D676" t="n">
-        <v>3331602</v>
+        <v>3361602</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32830,10 +32830,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D677" t="n">
-        <v>730721</v>
+        <v>738221</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D678" t="n">
-        <v>34500</v>
+        <v>36000</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>8809</v>
+        <v>8890</v>
       </c>
       <c r="D680" t="n">
-        <v>11948610</v>
+        <v>12059956</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>1188</v>
+        <v>1202</v>
       </c>
       <c r="D681" t="n">
-        <v>1709034</v>
+        <v>1729305</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>2536</v>
+        <v>2558</v>
       </c>
       <c r="D682" t="n">
-        <v>3701060</v>
+        <v>3734060</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="D683" t="n">
-        <v>1420669</v>
+        <v>1429001</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D684" t="n">
-        <v>410561</v>
+        <v>416561</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33310,10 +33310,10 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>1878</v>
+        <v>1905</v>
       </c>
       <c r="D687" t="n">
-        <v>2596383</v>
+        <v>2630485</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>8379</v>
+        <v>8489</v>
       </c>
       <c r="D688" t="n">
-        <v>12017913</v>
+        <v>12173572</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>16107</v>
+        <v>16238</v>
       </c>
       <c r="D689" t="n">
-        <v>23512390</v>
+        <v>23705901</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>4502</v>
+        <v>4525</v>
       </c>
       <c r="D690" t="n">
-        <v>6689030</v>
+        <v>6723140</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="D691" t="n">
-        <v>1593376</v>
+        <v>1608376</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33550,10 +33550,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D692" t="n">
-        <v>265151</v>
+        <v>268151</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>5355</v>
+        <v>5404</v>
       </c>
       <c r="D695" t="n">
-        <v>7257126</v>
+        <v>7318354</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>3504</v>
+        <v>3556</v>
       </c>
       <c r="D696" t="n">
-        <v>5061443</v>
+        <v>5139443</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>9002</v>
+        <v>9082</v>
       </c>
       <c r="D697" t="n">
-        <v>13194202</v>
+        <v>13313680</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>2474</v>
+        <v>2491</v>
       </c>
       <c r="D698" t="n">
-        <v>3676931</v>
+        <v>3701644</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D699" t="n">
-        <v>810777</v>
+        <v>817251</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D700" t="n">
-        <v>198000</v>
+        <v>199500</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>2998</v>
+        <v>3024</v>
       </c>
       <c r="D702" t="n">
-        <v>3973023</v>
+        <v>4003704</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="D2" t="n">
-        <v>1797548</v>
+        <v>1800548</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5557</v>
+        <v>5576</v>
       </c>
       <c r="D3" t="n">
-        <v>8166046</v>
+        <v>8193896</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="D4" t="n">
-        <v>2946750</v>
+        <v>2954032</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D8" t="n">
-        <v>760836</v>
+        <v>768223</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="D9" t="n">
-        <v>1647375</v>
+        <v>1656375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3436</v>
+        <v>3454</v>
       </c>
       <c r="D10" t="n">
-        <v>5025915</v>
+        <v>5050311</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="D11" t="n">
-        <v>1319839</v>
+        <v>1327564</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D12" t="n">
-        <v>342671</v>
+        <v>344171</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1801</v>
+        <v>1817</v>
       </c>
       <c r="D14" t="n">
-        <v>2365485</v>
+        <v>2384654</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2442</v>
+        <v>2458</v>
       </c>
       <c r="D15" t="n">
-        <v>3532329</v>
+        <v>3556329</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4053</v>
+        <v>4072</v>
       </c>
       <c r="D16" t="n">
-        <v>5925161</v>
+        <v>5951957</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1116</v>
+        <v>1123</v>
       </c>
       <c r="D17" t="n">
-        <v>1656327</v>
+        <v>1666827</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D18" t="n">
-        <v>346604</v>
+        <v>348104</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>51000</v>
+        <v>52500</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1714</v>
+        <v>1721</v>
       </c>
       <c r="D21" t="n">
-        <v>2284680</v>
+        <v>2289699</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D22" t="n">
-        <v>928220</v>
+        <v>931719</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="D23" t="n">
-        <v>2723921</v>
+        <v>2729921</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1486,10 +1486,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D24" t="n">
-        <v>746187</v>
+        <v>749738</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" t="n">
-        <v>30186</v>
+        <v>31686</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1928</v>
+        <v>1937</v>
       </c>
       <c r="D28" t="n">
-        <v>2680490</v>
+        <v>2693842</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3059</v>
+        <v>3071</v>
       </c>
       <c r="D29" t="n">
-        <v>4422212</v>
+        <v>4440212</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6219</v>
+        <v>6241</v>
       </c>
       <c r="D30" t="n">
-        <v>9116173</v>
+        <v>9148961</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1926</v>
+        <v>1933</v>
       </c>
       <c r="D31" t="n">
-        <v>2854689</v>
+        <v>2865189</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D32" t="n">
-        <v>700404</v>
+        <v>701904</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2408</v>
+        <v>2419</v>
       </c>
       <c r="D35" t="n">
-        <v>3092224</v>
+        <v>3106165</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1194</v>
+        <v>1199</v>
       </c>
       <c r="D36" t="n">
-        <v>1710494</v>
+        <v>1717994</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2709</v>
+        <v>2716</v>
       </c>
       <c r="D37" t="n">
-        <v>3947075</v>
+        <v>3956366</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D38" t="n">
-        <v>1125317</v>
+        <v>1126817</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="D42" t="n">
-        <v>1766756</v>
+        <v>1770810</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3795</v>
+        <v>3817</v>
       </c>
       <c r="D43" t="n">
-        <v>5523834</v>
+        <v>5553116</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8587</v>
+        <v>8612</v>
       </c>
       <c r="D44" t="n">
-        <v>12602271</v>
+        <v>12639771</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3497</v>
+        <v>3515</v>
       </c>
       <c r="D45" t="n">
-        <v>5175618</v>
+        <v>5202618</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="D46" t="n">
-        <v>1627285</v>
+        <v>1631785</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D47" t="n">
-        <v>441037</v>
+        <v>451537</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
-        <v>39910</v>
+        <v>41410</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4780</v>
+        <v>4809</v>
       </c>
       <c r="D49" t="n">
-        <v>6545847</v>
+        <v>6584978</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5615</v>
+        <v>5638</v>
       </c>
       <c r="D50" t="n">
-        <v>8133264</v>
+        <v>8165399</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>13178</v>
+        <v>13227</v>
       </c>
       <c r="D51" t="n">
-        <v>19384101</v>
+        <v>19456725</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4473</v>
+        <v>4492</v>
       </c>
       <c r="D52" t="n">
-        <v>6631608</v>
+        <v>6659323</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="D53" t="n">
-        <v>1785195</v>
+        <v>1789695</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D54" t="n">
-        <v>363903</v>
+        <v>368366</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5410</v>
+        <v>5434</v>
       </c>
       <c r="D57" t="n">
-        <v>7423855</v>
+        <v>7454030</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3065</v>
+        <v>3076</v>
       </c>
       <c r="D58" t="n">
-        <v>4430610</v>
+        <v>4443128</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7580</v>
+        <v>7605</v>
       </c>
       <c r="D59" t="n">
-        <v>11122052</v>
+        <v>11157165</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2404</v>
+        <v>2412</v>
       </c>
       <c r="D60" t="n">
-        <v>3551030</v>
+        <v>3561580</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D61" t="n">
-        <v>911701</v>
+        <v>916201</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D62" t="n">
-        <v>220261</v>
+        <v>221761</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3249</v>
+        <v>3261</v>
       </c>
       <c r="D64" t="n">
-        <v>4249247</v>
+        <v>4262944</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2576</v>
+        <v>2584</v>
       </c>
       <c r="D65" t="n">
-        <v>3704166</v>
+        <v>3715806</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6793</v>
+        <v>6818</v>
       </c>
       <c r="D66" t="n">
-        <v>9939444</v>
+        <v>9975476</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2299</v>
+        <v>2307</v>
       </c>
       <c r="D67" t="n">
-        <v>3403776</v>
+        <v>3414853</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="D68" t="n">
-        <v>939698</v>
+        <v>947198</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2887</v>
+        <v>2902</v>
       </c>
       <c r="D71" t="n">
-        <v>3825466</v>
+        <v>3842818</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8690</v>
+        <v>8744</v>
       </c>
       <c r="D72" t="n">
-        <v>12616134</v>
+        <v>12695326</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>21611</v>
+        <v>21737</v>
       </c>
       <c r="D73" t="n">
-        <v>31778319</v>
+        <v>31955678</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7472</v>
+        <v>7500</v>
       </c>
       <c r="D74" t="n">
-        <v>11099712</v>
+        <v>11141712</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2074</v>
+        <v>2086</v>
       </c>
       <c r="D75" t="n">
-        <v>3086743</v>
+        <v>3104743</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D76" t="n">
-        <v>597983</v>
+        <v>612983</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7162</v>
+        <v>7185</v>
       </c>
       <c r="D80" t="n">
-        <v>9865388</v>
+        <v>9897179</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2624</v>
+        <v>2637</v>
       </c>
       <c r="D81" t="n">
-        <v>3810111</v>
+        <v>3829611</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6159</v>
+        <v>6188</v>
       </c>
       <c r="D82" t="n">
-        <v>9033740</v>
+        <v>9075001</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2743</v>
+        <v>2752</v>
       </c>
       <c r="D83" t="n">
-        <v>4064465</v>
+        <v>4077965</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="D84" t="n">
-        <v>1438198</v>
+        <v>1447198</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D85" t="n">
-        <v>415775</v>
+        <v>420275</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6219</v>
+        <v>6237</v>
       </c>
       <c r="D87" t="n">
-        <v>8756600</v>
+        <v>8781564</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1854</v>
+        <v>1860</v>
       </c>
       <c r="D88" t="n">
-        <v>2695775</v>
+        <v>2703697</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4758</v>
+        <v>4774</v>
       </c>
       <c r="D89" t="n">
-        <v>6992351</v>
+        <v>7014772</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="D90" t="n">
-        <v>2496801</v>
+        <v>2508801</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D91" t="n">
-        <v>690509</v>
+        <v>692009</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D92" t="n">
-        <v>116175</v>
+        <v>117675</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1906</v>
+        <v>1911</v>
       </c>
       <c r="D94" t="n">
-        <v>2510847</v>
+        <v>2517447</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1629</v>
+        <v>1640</v>
       </c>
       <c r="D95" t="n">
-        <v>2356118</v>
+        <v>2372618</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4392</v>
+        <v>4407</v>
       </c>
       <c r="D96" t="n">
-        <v>6448716</v>
+        <v>6471216</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1502</v>
+        <v>1512</v>
       </c>
       <c r="D97" t="n">
-        <v>2226654</v>
+        <v>2241277</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D98" t="n">
-        <v>639518</v>
+        <v>645518</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1492</v>
+        <v>1499</v>
       </c>
       <c r="D102" t="n">
-        <v>2019029</v>
+        <v>2028417</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D103" t="n">
-        <v>977712</v>
+        <v>980902</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="D104" t="n">
-        <v>2514880</v>
+        <v>2519380</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D105" t="n">
-        <v>776190</v>
+        <v>779190</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D106" t="n">
-        <v>238500</v>
+        <v>240000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5518,10 +5518,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="D108" t="n">
-        <v>1074286</v>
+        <v>1078076</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="D109" t="n">
-        <v>1533503</v>
+        <v>1542306</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2604</v>
+        <v>2616</v>
       </c>
       <c r="D110" t="n">
-        <v>3817459</v>
+        <v>3834501</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="D111" t="n">
-        <v>1145557</v>
+        <v>1151557</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D113" t="n">
-        <v>49955</v>
+        <v>51455</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="D115" t="n">
-        <v>1218400</v>
+        <v>1225970</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D116" t="n">
-        <v>1006606</v>
+        <v>1010748</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5950,10 +5950,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1865</v>
+        <v>1874</v>
       </c>
       <c r="D117" t="n">
-        <v>2718950</v>
+        <v>2732450</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D118" t="n">
-        <v>855765</v>
+        <v>858765</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D121" t="n">
-        <v>1118935</v>
+        <v>1121935</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="D122" t="n">
-        <v>2745428</v>
+        <v>2752928</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5576</v>
+        <v>5595</v>
       </c>
       <c r="D123" t="n">
-        <v>8175321</v>
+        <v>8203612</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1682</v>
+        <v>1688</v>
       </c>
       <c r="D124" t="n">
-        <v>2506284</v>
+        <v>2515284</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2337</v>
+        <v>2354</v>
       </c>
       <c r="D127" t="n">
-        <v>3159258</v>
+        <v>3178221</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D128" t="n">
-        <v>574820</v>
+        <v>576320</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D129" t="n">
-        <v>1602685</v>
+        <v>1605035</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D130" t="n">
-        <v>596052</v>
+        <v>600552</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D133" t="n">
-        <v>439592</v>
+        <v>441092</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="D134" t="n">
-        <v>1538846</v>
+        <v>1543346</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3168</v>
+        <v>3177</v>
       </c>
       <c r="D135" t="n">
-        <v>4653726</v>
+        <v>4667226</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D136" t="n">
-        <v>1350593</v>
+        <v>1352093</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D137" t="n">
-        <v>375064</v>
+        <v>376564</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D140" t="n">
-        <v>1439163</v>
+        <v>1440663</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2563</v>
+        <v>2575</v>
       </c>
       <c r="D141" t="n">
-        <v>3709452</v>
+        <v>3725680</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5900</v>
+        <v>5917</v>
       </c>
       <c r="D142" t="n">
-        <v>8639520</v>
+        <v>8665020</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="D143" t="n">
-        <v>2438430</v>
+        <v>2445930</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2288</v>
+        <v>2301</v>
       </c>
       <c r="D147" t="n">
-        <v>3012898</v>
+        <v>3025753</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3496</v>
+        <v>3517</v>
       </c>
       <c r="D148" t="n">
-        <v>5042861</v>
+        <v>5073250</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>8011</v>
+        <v>8042</v>
       </c>
       <c r="D149" t="n">
-        <v>11738927</v>
+        <v>11783554</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2804</v>
+        <v>2814</v>
       </c>
       <c r="D150" t="n">
-        <v>4161631</v>
+        <v>4176631</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="D151" t="n">
-        <v>995826</v>
+        <v>1004826</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3036</v>
+        <v>3057</v>
       </c>
       <c r="D154" t="n">
-        <v>4065744</v>
+        <v>4086685</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3290</v>
+        <v>3300</v>
       </c>
       <c r="D155" t="n">
-        <v>4770403</v>
+        <v>4784403</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>9196</v>
+        <v>9232</v>
       </c>
       <c r="D156" t="n">
-        <v>13573670</v>
+        <v>13624982</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3032</v>
+        <v>3041</v>
       </c>
       <c r="D157" t="n">
-        <v>4515335</v>
+        <v>4528105</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="D158" t="n">
-        <v>1336475</v>
+        <v>1342475</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D159" t="n">
-        <v>269674</v>
+        <v>275674</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3049</v>
+        <v>3066</v>
       </c>
       <c r="D161" t="n">
-        <v>4120248</v>
+        <v>4144480</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3595</v>
+        <v>3616</v>
       </c>
       <c r="D162" t="n">
-        <v>5177055</v>
+        <v>5208555</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7673</v>
+        <v>7703</v>
       </c>
       <c r="D163" t="n">
-        <v>11257206</v>
+        <v>11298300</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2498</v>
+        <v>2507</v>
       </c>
       <c r="D164" t="n">
-        <v>3717799</v>
+        <v>3731299</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D165" t="n">
-        <v>875712</v>
+        <v>878712</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D166" t="n">
-        <v>132157</v>
+        <v>133657</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D167" t="n">
-        <v>22352</v>
+        <v>25352</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2870</v>
+        <v>2887</v>
       </c>
       <c r="D168" t="n">
-        <v>3863715</v>
+        <v>3885362</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D169" t="n">
-        <v>1169239</v>
+        <v>1173739</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2429</v>
+        <v>2444</v>
       </c>
       <c r="D170" t="n">
-        <v>3558390</v>
+        <v>3578380</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="D171" t="n">
-        <v>1185681</v>
+        <v>1197681</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D172" t="n">
-        <v>345000</v>
+        <v>349500</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D173" t="n">
-        <v>52721</v>
+        <v>55721</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="D175" t="n">
-        <v>1504840</v>
+        <v>1510012</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="D176" t="n">
-        <v>1595981</v>
+        <v>1603481</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3405</v>
+        <v>3419</v>
       </c>
       <c r="D177" t="n">
-        <v>5021921</v>
+        <v>5041653</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="D178" t="n">
-        <v>1694307</v>
+        <v>1697307</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D182" t="n">
-        <v>1453534</v>
+        <v>1454244</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D183" t="n">
-        <v>815076</v>
+        <v>816576</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1862</v>
+        <v>1868</v>
       </c>
       <c r="D184" t="n">
-        <v>2715885</v>
+        <v>2724484</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D185" t="n">
-        <v>953138</v>
+        <v>956138</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9310,10 +9310,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D187" t="n">
-        <v>63194</v>
+        <v>67694</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D188" t="n">
-        <v>1026484</v>
+        <v>1029894</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2107</v>
+        <v>2120</v>
       </c>
       <c r="D189" t="n">
-        <v>3028686</v>
+        <v>3047388</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>5561</v>
+        <v>5590</v>
       </c>
       <c r="D190" t="n">
-        <v>8146912</v>
+        <v>8187392</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="D191" t="n">
-        <v>2906904</v>
+        <v>2911404</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9550,10 +9550,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D192" t="n">
-        <v>759524</v>
+        <v>768524</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D193" t="n">
-        <v>126000</v>
+        <v>127500</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2041</v>
+        <v>2055</v>
       </c>
       <c r="D195" t="n">
-        <v>2749787</v>
+        <v>2766300</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5465</v>
+        <v>5484</v>
       </c>
       <c r="D197" t="n">
-        <v>8040259</v>
+        <v>8067995</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2019</v>
+        <v>2027</v>
       </c>
       <c r="D198" t="n">
-        <v>3004564</v>
+        <v>3015821</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D199" t="n">
-        <v>700875</v>
+        <v>705375</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D200" t="n">
-        <v>121500</v>
+        <v>123000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="D202" t="n">
-        <v>2398016</v>
+        <v>2407531</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="D203" t="n">
-        <v>1407950</v>
+        <v>1416950</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3079</v>
+        <v>3096</v>
       </c>
       <c r="D204" t="n">
-        <v>4526590</v>
+        <v>4551714</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="D205" t="n">
-        <v>1521162</v>
+        <v>1527162</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D206" t="n">
-        <v>316735</v>
+        <v>321235</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D207" t="n">
-        <v>76500</v>
+        <v>81000</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D209" t="n">
-        <v>1457961</v>
+        <v>1460961</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="D210" t="n">
-        <v>1280706</v>
+        <v>1292186</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3487</v>
+        <v>3511</v>
       </c>
       <c r="D211" t="n">
-        <v>5094979</v>
+        <v>5130979</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1776</v>
+        <v>1791</v>
       </c>
       <c r="D212" t="n">
-        <v>2628746</v>
+        <v>2651246</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D213" t="n">
-        <v>719849</v>
+        <v>721349</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="D215" t="n">
-        <v>917172</v>
+        <v>935772</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2107</v>
+        <v>2140</v>
       </c>
       <c r="D216" t="n">
-        <v>3045446</v>
+        <v>3094923</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3895</v>
+        <v>3924</v>
       </c>
       <c r="D217" t="n">
-        <v>5691550</v>
+        <v>5734062</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1198</v>
+        <v>1207</v>
       </c>
       <c r="D218" t="n">
-        <v>1776542</v>
+        <v>1790042</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D219" t="n">
-        <v>454914</v>
+        <v>456414</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="D221" t="n">
-        <v>2152605</v>
+        <v>2161185</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="D222" t="n">
-        <v>1015902</v>
+        <v>1021902</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2179</v>
+        <v>2193</v>
       </c>
       <c r="D223" t="n">
-        <v>3168993</v>
+        <v>3189993</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D224" t="n">
-        <v>1047130</v>
+        <v>1051630</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D225" t="n">
-        <v>315428</v>
+        <v>319928</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="D227" t="n">
-        <v>1174510</v>
+        <v>1187737</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="D228" t="n">
-        <v>1318785</v>
+        <v>1328255</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2569</v>
+        <v>2576</v>
       </c>
       <c r="D229" t="n">
-        <v>3748684</v>
+        <v>3759184</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D230" t="n">
-        <v>1199840</v>
+        <v>1202940</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D232" t="n">
-        <v>65127</v>
+        <v>66627</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="D233" t="n">
-        <v>1202981</v>
+        <v>1210262</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3772</v>
+        <v>3793</v>
       </c>
       <c r="D234" t="n">
-        <v>5458495</v>
+        <v>5488790</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>11964</v>
+        <v>12005</v>
       </c>
       <c r="D235" t="n">
-        <v>17561702</v>
+        <v>17620547</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4640</v>
+        <v>4661</v>
       </c>
       <c r="D236" t="n">
-        <v>6886986</v>
+        <v>6917869</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11710,10 +11710,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1417</v>
+        <v>1425</v>
       </c>
       <c r="D237" t="n">
-        <v>2106306</v>
+        <v>2117976</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D238" t="n">
-        <v>454262</v>
+        <v>455762</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D239" t="n">
-        <v>34500</v>
+        <v>36000</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3275</v>
+        <v>3293</v>
       </c>
       <c r="D240" t="n">
-        <v>4450084</v>
+        <v>4473936</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D241" t="n">
-        <v>723524</v>
+        <v>729992</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1341</v>
+        <v>1352</v>
       </c>
       <c r="D242" t="n">
-        <v>1955453</v>
+        <v>1970855</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D243" t="n">
-        <v>638300</v>
+        <v>644300</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D247" t="n">
-        <v>728443</v>
+        <v>731443</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2575</v>
+        <v>2585</v>
       </c>
       <c r="D248" t="n">
-        <v>3724670</v>
+        <v>3739623</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>7632</v>
+        <v>7661</v>
       </c>
       <c r="D249" t="n">
-        <v>11203867</v>
+        <v>11245265</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3099</v>
+        <v>3114</v>
       </c>
       <c r="D250" t="n">
-        <v>4602833</v>
+        <v>4625333</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="D251" t="n">
-        <v>1248572</v>
+        <v>1256072</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D252" t="n">
-        <v>301230</v>
+        <v>304230</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1978</v>
+        <v>1988</v>
       </c>
       <c r="D256" t="n">
-        <v>2606672</v>
+        <v>2620063</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="D257" t="n">
-        <v>2512363</v>
+        <v>2515975</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12718,10 +12718,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4816</v>
+        <v>4826</v>
       </c>
       <c r="D258" t="n">
-        <v>7091019</v>
+        <v>7104843</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1752</v>
+        <v>1759</v>
       </c>
       <c r="D259" t="n">
-        <v>2602310</v>
+        <v>2612810</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12814,10 +12814,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D260" t="n">
-        <v>776539</v>
+        <v>782539</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D261" t="n">
-        <v>118500</v>
+        <v>120000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1859</v>
+        <v>1865</v>
       </c>
       <c r="D263" t="n">
-        <v>2441906</v>
+        <v>2448286</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1777</v>
+        <v>1786</v>
       </c>
       <c r="D264" t="n">
-        <v>2599616</v>
+        <v>2613116</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>5392</v>
+        <v>5404</v>
       </c>
       <c r="D265" t="n">
-        <v>7930021</v>
+        <v>7946764</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13102,10 +13102,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1868</v>
+        <v>1880</v>
       </c>
       <c r="D266" t="n">
-        <v>2772966</v>
+        <v>2790966</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D267" t="n">
-        <v>727232</v>
+        <v>728732</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D268" t="n">
-        <v>220583</v>
+        <v>222083</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2108</v>
+        <v>2115</v>
       </c>
       <c r="D270" t="n">
-        <v>2845315</v>
+        <v>2851786</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D271" t="n">
-        <v>698932</v>
+        <v>703432</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13390,10 +13390,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="D272" t="n">
-        <v>2001474</v>
+        <v>2007474</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D273" t="n">
-        <v>626670</v>
+        <v>629585</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D276" t="n">
-        <v>752495</v>
+        <v>756911</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2564</v>
+        <v>2572</v>
       </c>
       <c r="D277" t="n">
-        <v>3713541</v>
+        <v>3725391</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>8346</v>
+        <v>8373</v>
       </c>
       <c r="D278" t="n">
-        <v>12236760</v>
+        <v>12273697</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3459</v>
+        <v>3466</v>
       </c>
       <c r="D279" t="n">
-        <v>5144944</v>
+        <v>5155444</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="D280" t="n">
-        <v>1594159</v>
+        <v>1598659</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2311</v>
+        <v>2325</v>
       </c>
       <c r="D283" t="n">
-        <v>3091307</v>
+        <v>3109694</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13966,10 +13966,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1552</v>
+        <v>1561</v>
       </c>
       <c r="D284" t="n">
-        <v>2228593</v>
+        <v>2242018</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3838</v>
+        <v>3855</v>
       </c>
       <c r="D285" t="n">
-        <v>5640380</v>
+        <v>5664569</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14062,10 +14062,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1256</v>
+        <v>1264</v>
       </c>
       <c r="D286" t="n">
-        <v>1866637</v>
+        <v>1876830</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="D290" t="n">
-        <v>2105978</v>
+        <v>2111658</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1800</v>
+        <v>1839</v>
       </c>
       <c r="D291" t="n">
-        <v>2612214</v>
+        <v>2670175</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>6312</v>
+        <v>6389</v>
       </c>
       <c r="D292" t="n">
-        <v>9288408</v>
+        <v>9400983</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2185</v>
+        <v>2211</v>
       </c>
       <c r="D293" t="n">
-        <v>3263350</v>
+        <v>3301958</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="D294" t="n">
-        <v>1064805</v>
+        <v>1072305</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D295" t="n">
-        <v>242833</v>
+        <v>250333</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>5879</v>
+        <v>6013</v>
       </c>
       <c r="D297" t="n">
-        <v>8114927</v>
+        <v>8295737</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="D298" t="n">
-        <v>1113990</v>
+        <v>1139425</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1945</v>
+        <v>2000</v>
       </c>
       <c r="D299" t="n">
-        <v>2885326</v>
+        <v>2967826</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="D300" t="n">
-        <v>1184953</v>
+        <v>1211953</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14782,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D301" t="n">
-        <v>395758</v>
+        <v>406258</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D302" t="n">
-        <v>91500</v>
+        <v>97500</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1122</v>
+        <v>1171</v>
       </c>
       <c r="D304" t="n">
-        <v>1589709</v>
+        <v>1658558</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1129</v>
+        <v>1138</v>
       </c>
       <c r="D305" t="n">
-        <v>1622319</v>
+        <v>1634606</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="D306" t="n">
-        <v>5113091</v>
+        <v>5117591</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D307" t="n">
-        <v>1937540</v>
+        <v>1939040</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D308" t="n">
-        <v>481505</v>
+        <v>483005</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D309" t="n">
-        <v>67437</v>
+        <v>71937</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D310" t="n">
-        <v>12000</v>
+        <v>12141</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1379</v>
+        <v>1386</v>
       </c>
       <c r="D311" t="n">
-        <v>1836002</v>
+        <v>1846502</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>6706</v>
+        <v>6743</v>
       </c>
       <c r="D312" t="n">
-        <v>9679213</v>
+        <v>9731794</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>19001</v>
+        <v>19090</v>
       </c>
       <c r="D313" t="n">
-        <v>27818898</v>
+        <v>27947024</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>6754</v>
+        <v>6788</v>
       </c>
       <c r="D314" t="n">
-        <v>10054285</v>
+        <v>10103959</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2046</v>
+        <v>2054</v>
       </c>
       <c r="D315" t="n">
-        <v>3053519</v>
+        <v>3065519</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D316" t="n">
-        <v>644470</v>
+        <v>647470</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>5978</v>
+        <v>6009</v>
       </c>
       <c r="D318" t="n">
-        <v>7894734</v>
+        <v>7928048</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="D319" t="n">
-        <v>2942331</v>
+        <v>2961682</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>6283</v>
+        <v>6311</v>
       </c>
       <c r="D320" t="n">
-        <v>9226719</v>
+        <v>9267657</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2221</v>
+        <v>2228</v>
       </c>
       <c r="D321" t="n">
-        <v>3306129</v>
+        <v>3316629</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D322" t="n">
-        <v>881699</v>
+        <v>884699</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15838,10 +15838,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D323" t="n">
-        <v>176974</v>
+        <v>179974</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1914</v>
+        <v>1919</v>
       </c>
       <c r="D325" t="n">
-        <v>2607897</v>
+        <v>2615014</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3472</v>
+        <v>3489</v>
       </c>
       <c r="D326" t="n">
-        <v>4998562</v>
+        <v>5022285</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>10525</v>
+        <v>10559</v>
       </c>
       <c r="D327" t="n">
-        <v>15386347</v>
+        <v>15436805</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3426</v>
+        <v>3438</v>
       </c>
       <c r="D328" t="n">
-        <v>5082665</v>
+        <v>5100665</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16126,10 +16126,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="D329" t="n">
-        <v>1578373</v>
+        <v>1582873</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3672</v>
+        <v>3683</v>
       </c>
       <c r="D333" t="n">
-        <v>4797057</v>
+        <v>4811791</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16366,10 +16366,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1469</v>
+        <v>1478</v>
       </c>
       <c r="D334" t="n">
-        <v>2131860</v>
+        <v>2142012</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>4126</v>
+        <v>4136</v>
       </c>
       <c r="D335" t="n">
-        <v>6029345</v>
+        <v>6044345</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="D336" t="n">
-        <v>2316113</v>
+        <v>2322113</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D337" t="n">
-        <v>581464</v>
+        <v>582964</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="D340" t="n">
-        <v>2125926</v>
+        <v>2126977</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16702,10 +16702,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3433</v>
+        <v>3457</v>
       </c>
       <c r="D341" t="n">
-        <v>5011437</v>
+        <v>5044935</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>9949</v>
+        <v>9994</v>
       </c>
       <c r="D342" t="n">
-        <v>14683909</v>
+        <v>14751409</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3851</v>
+        <v>3869</v>
       </c>
       <c r="D343" t="n">
-        <v>5735801</v>
+        <v>5761699</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D344" t="n">
-        <v>1700179</v>
+        <v>1701679</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D345" t="n">
-        <v>298301</v>
+        <v>299801</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -17038,10 +17038,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>3305</v>
+        <v>3322</v>
       </c>
       <c r="D348" t="n">
-        <v>4592667</v>
+        <v>4615823</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>6026</v>
+        <v>6068</v>
       </c>
       <c r="D349" t="n">
-        <v>8788070</v>
+        <v>8850090</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>14840</v>
+        <v>14924</v>
       </c>
       <c r="D350" t="n">
-        <v>21865000</v>
+        <v>21989011</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>6647</v>
+        <v>6678</v>
       </c>
       <c r="D351" t="n">
-        <v>9913680</v>
+        <v>9960180</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2000</v>
+        <v>2019</v>
       </c>
       <c r="D352" t="n">
-        <v>2985872</v>
+        <v>3014372</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D353" t="n">
-        <v>650081</v>
+        <v>662081</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>5403</v>
+        <v>5434</v>
       </c>
       <c r="D355" t="n">
-        <v>7399781</v>
+        <v>7443584</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>17562</v>
+        <v>17704</v>
       </c>
       <c r="D356" t="n">
-        <v>25520156</v>
+        <v>25724086</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17470,10 +17470,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>48729</v>
+        <v>49067</v>
       </c>
       <c r="D357" t="n">
-        <v>71851949</v>
+        <v>72350520</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>22743</v>
+        <v>22921</v>
       </c>
       <c r="D358" t="n">
-        <v>33943353</v>
+        <v>34209991</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>8113</v>
+        <v>8193</v>
       </c>
       <c r="D359" t="n">
-        <v>12133877</v>
+        <v>12252587</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1962</v>
+        <v>1993</v>
       </c>
       <c r="D360" t="n">
-        <v>2934272</v>
+        <v>2980772</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D361" t="n">
-        <v>151500</v>
+        <v>156000</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17854,10 +17854,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>17317</v>
+        <v>17471</v>
       </c>
       <c r="D365" t="n">
-        <v>23594031</v>
+        <v>23794019</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4159</v>
+        <v>4183</v>
       </c>
       <c r="D366" t="n">
-        <v>6056420</v>
+        <v>6092330</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>11840</v>
+        <v>11910</v>
       </c>
       <c r="D367" t="n">
-        <v>17420802</v>
+        <v>17519574</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>4490</v>
+        <v>4505</v>
       </c>
       <c r="D368" t="n">
-        <v>6667048</v>
+        <v>6689548</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>1377</v>
+        <v>1384</v>
       </c>
       <c r="D369" t="n">
-        <v>2056608</v>
+        <v>2066397</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D370" t="n">
-        <v>386507</v>
+        <v>388007</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>4153</v>
+        <v>4178</v>
       </c>
       <c r="D372" t="n">
-        <v>5688356</v>
+        <v>5725343</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>5090</v>
+        <v>5129</v>
       </c>
       <c r="D373" t="n">
-        <v>7412672</v>
+        <v>7469665</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>18053</v>
+        <v>18184</v>
       </c>
       <c r="D374" t="n">
-        <v>26601631</v>
+        <v>26794513</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>8498</v>
+        <v>8541</v>
       </c>
       <c r="D375" t="n">
-        <v>12675325</v>
+        <v>12739825</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2379</v>
+        <v>2393</v>
       </c>
       <c r="D376" t="n">
-        <v>3557306</v>
+        <v>3578306</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D377" t="n">
-        <v>886595</v>
+        <v>891095</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D378" t="n">
-        <v>37500</v>
+        <v>43500</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>5218</v>
+        <v>5268</v>
       </c>
       <c r="D379" t="n">
-        <v>7070163</v>
+        <v>7140217</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>4541</v>
+        <v>4573</v>
       </c>
       <c r="D380" t="n">
-        <v>6619746</v>
+        <v>6665020</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>13249</v>
+        <v>13310</v>
       </c>
       <c r="D381" t="n">
-        <v>19515105</v>
+        <v>19606098</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>5502</v>
+        <v>5535</v>
       </c>
       <c r="D382" t="n">
-        <v>8199231</v>
+        <v>8245294</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="D383" t="n">
-        <v>2352622</v>
+        <v>2357122</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D384" t="n">
-        <v>552106</v>
+        <v>553606</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D385" t="n">
-        <v>34758</v>
+        <v>36258</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4719</v>
+        <v>4764</v>
       </c>
       <c r="D386" t="n">
-        <v>6472187</v>
+        <v>6533919</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>3456</v>
+        <v>3485</v>
       </c>
       <c r="D387" t="n">
-        <v>5045811</v>
+        <v>5087268</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>11030</v>
+        <v>11093</v>
       </c>
       <c r="D388" t="n">
-        <v>16276680</v>
+        <v>16370274</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4659</v>
+        <v>4690</v>
       </c>
       <c r="D389" t="n">
-        <v>6930828</v>
+        <v>6976808</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1332</v>
+        <v>1345</v>
       </c>
       <c r="D390" t="n">
-        <v>1988932</v>
+        <v>2008432</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3707</v>
+        <v>3734</v>
       </c>
       <c r="D393" t="n">
-        <v>5019216</v>
+        <v>5051287</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>3966</v>
+        <v>3981</v>
       </c>
       <c r="D394" t="n">
-        <v>5779836</v>
+        <v>5801065</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>10803</v>
+        <v>10844</v>
       </c>
       <c r="D395" t="n">
-        <v>15922234</v>
+        <v>15981670</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19342,10 +19342,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>4152</v>
+        <v>4167</v>
       </c>
       <c r="D396" t="n">
-        <v>6180268</v>
+        <v>6202768</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1310</v>
+        <v>1316</v>
       </c>
       <c r="D397" t="n">
-        <v>1958184</v>
+        <v>1967184</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D398" t="n">
-        <v>398060</v>
+        <v>402010</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>3944</v>
+        <v>3962</v>
       </c>
       <c r="D400" t="n">
-        <v>5415189</v>
+        <v>5439064</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>4338</v>
+        <v>4363</v>
       </c>
       <c r="D401" t="n">
-        <v>6290302</v>
+        <v>6326271</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>11023</v>
+        <v>11082</v>
       </c>
       <c r="D402" t="n">
-        <v>16198651</v>
+        <v>16286094</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>3752</v>
+        <v>3765</v>
       </c>
       <c r="D403" t="n">
-        <v>5592187</v>
+        <v>5610915</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D404" t="n">
-        <v>1949989</v>
+        <v>1954489</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D405" t="n">
-        <v>411512</v>
+        <v>414512</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>5031</v>
+        <v>5063</v>
       </c>
       <c r="D408" t="n">
-        <v>6781899</v>
+        <v>6823393</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1460</v>
+        <v>1479</v>
       </c>
       <c r="D409" t="n">
-        <v>2111280</v>
+        <v>2137783</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>4816</v>
+        <v>4853</v>
       </c>
       <c r="D410" t="n">
-        <v>7094906</v>
+        <v>7148054</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1836</v>
+        <v>1855</v>
       </c>
       <c r="D411" t="n">
-        <v>2735899</v>
+        <v>2763999</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="D412" t="n">
-        <v>978641</v>
+        <v>985960</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D413" t="n">
-        <v>246613</v>
+        <v>251113</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>3223</v>
+        <v>3266</v>
       </c>
       <c r="D416" t="n">
-        <v>4276971</v>
+        <v>4333166</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="D417" t="n">
-        <v>827964</v>
+        <v>841464</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20398,10 +20398,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D418" t="n">
-        <v>457130</v>
+        <v>472130</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D419" t="n">
-        <v>165000</v>
+        <v>168000</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2972</v>
+        <v>2990</v>
       </c>
       <c r="D422" t="n">
-        <v>4315556</v>
+        <v>4340086</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>7182</v>
+        <v>7207</v>
       </c>
       <c r="D423" t="n">
-        <v>10540993</v>
+        <v>10577268</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="D424" t="n">
-        <v>3532795</v>
+        <v>3547494</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D425" t="n">
-        <v>1031642</v>
+        <v>1034642</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D426" t="n">
-        <v>201390</v>
+        <v>202890</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2313</v>
+        <v>2330</v>
       </c>
       <c r="D428" t="n">
-        <v>3090762</v>
+        <v>3111686</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>1672</v>
+        <v>1679</v>
       </c>
       <c r="D429" t="n">
-        <v>2431112</v>
+        <v>2441612</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>4788</v>
+        <v>4798</v>
       </c>
       <c r="D430" t="n">
-        <v>7029488</v>
+        <v>7043423</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21022,10 +21022,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="D431" t="n">
-        <v>2348842</v>
+        <v>2353342</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D432" t="n">
-        <v>607688</v>
+        <v>612188</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1633</v>
+        <v>1640</v>
       </c>
       <c r="D435" t="n">
-        <v>2150412</v>
+        <v>2158933</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21262,10 +21262,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1890</v>
+        <v>1900</v>
       </c>
       <c r="D436" t="n">
-        <v>2737364</v>
+        <v>2752044</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21310,10 +21310,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>4734</v>
+        <v>4754</v>
       </c>
       <c r="D437" t="n">
-        <v>6955432</v>
+        <v>6984480</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="D438" t="n">
-        <v>2232360</v>
+        <v>2238360</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D439" t="n">
-        <v>614663</v>
+        <v>617663</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D440" t="n">
-        <v>77049</v>
+        <v>78549</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1574</v>
+        <v>1583</v>
       </c>
       <c r="D441" t="n">
-        <v>2076782</v>
+        <v>2089666</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="D442" t="n">
-        <v>1312890</v>
+        <v>1317390</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>2596</v>
+        <v>2610</v>
       </c>
       <c r="D443" t="n">
-        <v>3810759</v>
+        <v>3830917</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="D444" t="n">
-        <v>1121862</v>
+        <v>1131567</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D445" t="n">
-        <v>263077</v>
+        <v>264577</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="D447" t="n">
-        <v>1402560</v>
+        <v>1407900</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21838,10 +21838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>2936</v>
+        <v>2948</v>
       </c>
       <c r="D448" t="n">
-        <v>4272858</v>
+        <v>4290758</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>9116</v>
+        <v>9141</v>
       </c>
       <c r="D449" t="n">
-        <v>13427448</v>
+        <v>13464338</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21934,10 +21934,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>3314</v>
+        <v>3322</v>
       </c>
       <c r="D450" t="n">
-        <v>4925294</v>
+        <v>4937294</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="D451" t="n">
-        <v>1343679</v>
+        <v>1350237</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D452" t="n">
-        <v>283310</v>
+        <v>284810</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2869</v>
+        <v>2884</v>
       </c>
       <c r="D454" t="n">
-        <v>3755351</v>
+        <v>3776715</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="D455" t="n">
-        <v>1687899</v>
+        <v>1698399</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>3174</v>
+        <v>3180</v>
       </c>
       <c r="D456" t="n">
-        <v>4643376</v>
+        <v>4651642</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22270,10 +22270,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="D457" t="n">
-        <v>1527244</v>
+        <v>1534744</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D458" t="n">
-        <v>461411</v>
+        <v>467411</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="D461" t="n">
-        <v>1677820</v>
+        <v>1683539</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>4271</v>
+        <v>4286</v>
       </c>
       <c r="D462" t="n">
-        <v>6187683</v>
+        <v>6209257</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>8035</v>
+        <v>8057</v>
       </c>
       <c r="D463" t="n">
-        <v>11789166</v>
+        <v>11822166</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>2352</v>
+        <v>2366</v>
       </c>
       <c r="D464" t="n">
-        <v>3497989</v>
+        <v>3518989</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D465" t="n">
-        <v>885353</v>
+        <v>889853</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>2682</v>
+        <v>2691</v>
       </c>
       <c r="D468" t="n">
-        <v>3587707</v>
+        <v>3601057</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D469" t="n">
-        <v>1469630</v>
+        <v>1473907</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22894,10 +22894,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>2545</v>
+        <v>2556</v>
       </c>
       <c r="D470" t="n">
-        <v>3723955</v>
+        <v>3739373</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D471" t="n">
-        <v>1127855</v>
+        <v>1129355</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1314</v>
+        <v>1323</v>
       </c>
       <c r="D474" t="n">
-        <v>1759098</v>
+        <v>1766327</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D475" t="n">
-        <v>511315</v>
+        <v>512815</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23182,10 +23182,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="D476" t="n">
-        <v>1493206</v>
+        <v>1500706</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D477" t="n">
-        <v>507078</v>
+        <v>513078</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D480" t="n">
-        <v>739948</v>
+        <v>745125</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D481" t="n">
-        <v>1309911</v>
+        <v>1312911</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>2800</v>
+        <v>2811</v>
       </c>
       <c r="D482" t="n">
-        <v>4126582</v>
+        <v>4142651</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="D483" t="n">
-        <v>1416293</v>
+        <v>1422293</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D484" t="n">
-        <v>362281</v>
+        <v>368281</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="D486" t="n">
-        <v>1338332</v>
+        <v>1346968</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>2676</v>
+        <v>2698</v>
       </c>
       <c r="D487" t="n">
-        <v>3835569</v>
+        <v>3865940</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>5177</v>
+        <v>5194</v>
       </c>
       <c r="D488" t="n">
-        <v>7586771</v>
+        <v>7610148</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1472</v>
+        <v>1480</v>
       </c>
       <c r="D489" t="n">
-        <v>2185163</v>
+        <v>2197163</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D490" t="n">
-        <v>540847</v>
+        <v>545347</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D491" t="n">
-        <v>99880</v>
+        <v>101380</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>2314</v>
+        <v>2322</v>
       </c>
       <c r="D493" t="n">
-        <v>3032968</v>
+        <v>3044968</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>8506</v>
+        <v>8551</v>
       </c>
       <c r="D494" t="n">
-        <v>12330554</v>
+        <v>12394700</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>17799</v>
+        <v>17856</v>
       </c>
       <c r="D495" t="n">
-        <v>26074789</v>
+        <v>26157064</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24142,10 +24142,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>6076</v>
+        <v>6093</v>
       </c>
       <c r="D496" t="n">
-        <v>9041955</v>
+        <v>9067455</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>1877</v>
+        <v>1889</v>
       </c>
       <c r="D497" t="n">
-        <v>2797772</v>
+        <v>2815772</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D498" t="n">
-        <v>566615</v>
+        <v>569615</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>6392</v>
+        <v>6418</v>
       </c>
       <c r="D502" t="n">
-        <v>8671425</v>
+        <v>8706850</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24478,10 +24478,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="D503" t="n">
-        <v>1785491</v>
+        <v>1789991</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>3156</v>
+        <v>3165</v>
       </c>
       <c r="D504" t="n">
-        <v>4631574</v>
+        <v>4644556</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D506" t="n">
-        <v>505432</v>
+        <v>506932</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1510</v>
+        <v>1522</v>
       </c>
       <c r="D509" t="n">
-        <v>1999591</v>
+        <v>2015593</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>2807</v>
+        <v>2819</v>
       </c>
       <c r="D510" t="n">
-        <v>4032713</v>
+        <v>4049245</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>4843</v>
+        <v>4866</v>
       </c>
       <c r="D511" t="n">
-        <v>7089023</v>
+        <v>7122145</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1487</v>
+        <v>1492</v>
       </c>
       <c r="D512" t="n">
-        <v>2211182</v>
+        <v>2218682</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D514" t="n">
-        <v>109599</v>
+        <v>111099</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1563</v>
+        <v>1579</v>
       </c>
       <c r="D516" t="n">
-        <v>2074482</v>
+        <v>2092147</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25150,10 +25150,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="D517" t="n">
-        <v>2245970</v>
+        <v>2253669</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>3345</v>
+        <v>3362</v>
       </c>
       <c r="D518" t="n">
-        <v>4891507</v>
+        <v>4916812</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="D519" t="n">
-        <v>1699535</v>
+        <v>1705535</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1421</v>
+        <v>1433</v>
       </c>
       <c r="D522" t="n">
-        <v>1923295</v>
+        <v>1938975</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>3595</v>
+        <v>3611</v>
       </c>
       <c r="D523" t="n">
-        <v>5174499</v>
+        <v>5196231</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>8954</v>
+        <v>8983</v>
       </c>
       <c r="D524" t="n">
-        <v>13090880</v>
+        <v>13134380</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>3022</v>
+        <v>3029</v>
       </c>
       <c r="D525" t="n">
-        <v>4486195</v>
+        <v>4496695</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25582,10 +25582,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D526" t="n">
-        <v>1240194</v>
+        <v>1241694</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>3526</v>
+        <v>3540</v>
       </c>
       <c r="D530" t="n">
-        <v>4747552</v>
+        <v>4765766</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1132</v>
+        <v>1144</v>
       </c>
       <c r="D531" t="n">
-        <v>1625388</v>
+        <v>1642451</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>3328</v>
+        <v>3335</v>
       </c>
       <c r="D532" t="n">
-        <v>4854258</v>
+        <v>4864758</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D534" t="n">
-        <v>503280</v>
+        <v>513420</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D537" t="n">
-        <v>1623159</v>
+        <v>1625739</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D538" t="n">
-        <v>691783</v>
+        <v>694783</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26206,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1722</v>
+        <v>1728</v>
       </c>
       <c r="D539" t="n">
-        <v>2512003</v>
+        <v>2521003</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26254,10 +26254,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D540" t="n">
-        <v>898406</v>
+        <v>904406</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
@@ -26302,10 +26302,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D541" t="n">
-        <v>250630</v>
+        <v>252130</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="D544" t="n">
-        <v>1045468</v>
+        <v>1054393</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>2681</v>
+        <v>2703</v>
       </c>
       <c r="D545" t="n">
-        <v>3851636</v>
+        <v>3881567</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>4900</v>
+        <v>4923</v>
       </c>
       <c r="D546" t="n">
-        <v>7177223</v>
+        <v>7211723</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>1493</v>
+        <v>1500</v>
       </c>
       <c r="D547" t="n">
-        <v>2221266</v>
+        <v>2231178</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D548" t="n">
-        <v>609778</v>
+        <v>614278</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>1796</v>
+        <v>1807</v>
       </c>
       <c r="D551" t="n">
-        <v>2368563</v>
+        <v>2382568</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1697</v>
+        <v>1710</v>
       </c>
       <c r="D552" t="n">
-        <v>2433627</v>
+        <v>2452527</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>3536</v>
+        <v>3553</v>
       </c>
       <c r="D553" t="n">
-        <v>5171717</v>
+        <v>5197217</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="D554" t="n">
-        <v>1549537</v>
+        <v>1557037</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D555" t="n">
-        <v>429082</v>
+        <v>432952</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D556" t="n">
-        <v>94500</v>
+        <v>97500</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>1900</v>
+        <v>1906</v>
       </c>
       <c r="D558" t="n">
-        <v>2532205</v>
+        <v>2539113</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>4262</v>
+        <v>4294</v>
       </c>
       <c r="D559" t="n">
-        <v>6166987</v>
+        <v>6210595</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>9962</v>
+        <v>10011</v>
       </c>
       <c r="D560" t="n">
-        <v>14573908</v>
+        <v>14643099</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>2800</v>
+        <v>2810</v>
       </c>
       <c r="D561" t="n">
-        <v>4153877</v>
+        <v>4168877</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D562" t="n">
-        <v>971238</v>
+        <v>976476</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D563" t="n">
-        <v>164240</v>
+        <v>167240</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>3888</v>
+        <v>3909</v>
       </c>
       <c r="D564" t="n">
-        <v>5168609</v>
+        <v>5195265</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="D565" t="n">
-        <v>1404866</v>
+        <v>1416866</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2212</v>
+        <v>2223</v>
       </c>
       <c r="D566" t="n">
-        <v>3221788</v>
+        <v>3238288</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D567" t="n">
-        <v>986195</v>
+        <v>989195</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D568" t="n">
-        <v>243945</v>
+        <v>245445</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="D570" t="n">
-        <v>1563391</v>
+        <v>1565901</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>5985</v>
+        <v>6015</v>
       </c>
       <c r="D571" t="n">
-        <v>8656537</v>
+        <v>8699790</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>14468</v>
+        <v>14526</v>
       </c>
       <c r="D572" t="n">
-        <v>21223045</v>
+        <v>21307848</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>5103</v>
+        <v>5126</v>
       </c>
       <c r="D573" t="n">
-        <v>7584091</v>
+        <v>7618591</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27886,10 +27886,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="D574" t="n">
-        <v>2329868</v>
+        <v>2335868</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D575" t="n">
-        <v>445227</v>
+        <v>446727</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>5845</v>
+        <v>5887</v>
       </c>
       <c r="D578" t="n">
-        <v>7832325</v>
+        <v>7882203</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>1372</v>
+        <v>1383</v>
       </c>
       <c r="D579" t="n">
-        <v>1940528</v>
+        <v>1955464</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>3091</v>
+        <v>3114</v>
       </c>
       <c r="D580" t="n">
-        <v>4485070</v>
+        <v>4515032</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28222,10 +28222,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="D581" t="n">
-        <v>1512508</v>
+        <v>1527508</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D582" t="n">
-        <v>377922</v>
+        <v>382422</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1706</v>
+        <v>1720</v>
       </c>
       <c r="D584" t="n">
-        <v>2291659</v>
+        <v>2309008</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>8271</v>
+        <v>8317</v>
       </c>
       <c r="D585" t="n">
-        <v>11999334</v>
+        <v>12065698</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>17628</v>
+        <v>17703</v>
       </c>
       <c r="D586" t="n">
-        <v>25845028</v>
+        <v>25950384</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28510,10 +28510,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>5325</v>
+        <v>5338</v>
       </c>
       <c r="D587" t="n">
-        <v>7921144</v>
+        <v>7940644</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>1357</v>
+        <v>1367</v>
       </c>
       <c r="D588" t="n">
-        <v>2014892</v>
+        <v>2029236</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>5769</v>
+        <v>5800</v>
       </c>
       <c r="D591" t="n">
-        <v>7721156</v>
+        <v>7758978</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1240</v>
+        <v>1257</v>
       </c>
       <c r="D592" t="n">
-        <v>1789180</v>
+        <v>1809774</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>2203</v>
+        <v>2227</v>
       </c>
       <c r="D593" t="n">
-        <v>3230165</v>
+        <v>3262815</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D594" t="n">
-        <v>939203</v>
+        <v>945203</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D595" t="n">
-        <v>222083</v>
+        <v>224145</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="D598" t="n">
-        <v>1543480</v>
+        <v>1549844</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D599" t="n">
-        <v>975105</v>
+        <v>980415</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29134,10 +29134,10 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="D600" t="n">
-        <v>1489496</v>
+        <v>1496996</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D601" t="n">
-        <v>442981</v>
+        <v>445981</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="D604" t="n">
-        <v>935820</v>
+        <v>960450</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29374,10 +29374,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>3864</v>
+        <v>3890</v>
       </c>
       <c r="D605" t="n">
-        <v>5607300</v>
+        <v>5642862</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>6427</v>
+        <v>6456</v>
       </c>
       <c r="D606" t="n">
-        <v>9364764</v>
+        <v>9405740</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="D607" t="n">
-        <v>2963588</v>
+        <v>2975588</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D608" t="n">
-        <v>805092</v>
+        <v>809592</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>2503</v>
+        <v>2520</v>
       </c>
       <c r="D611" t="n">
-        <v>3333676</v>
+        <v>3354750</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>1621</v>
+        <v>1627</v>
       </c>
       <c r="D612" t="n">
-        <v>2347745</v>
+        <v>2354645</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>4019</v>
+        <v>4038</v>
       </c>
       <c r="D613" t="n">
-        <v>5902184</v>
+        <v>5929662</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="D614" t="n">
-        <v>1781411</v>
+        <v>1788911</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D615" t="n">
-        <v>426318</v>
+        <v>430818</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D616" t="n">
-        <v>76342</v>
+        <v>78434</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="D617" t="n">
-        <v>2266430</v>
+        <v>2275509</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="D618" t="n">
-        <v>1577328</v>
+        <v>1582014</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30046,10 +30046,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>2611</v>
+        <v>2616</v>
       </c>
       <c r="D619" t="n">
-        <v>3824975</v>
+        <v>3832475</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="D620" t="n">
-        <v>1169034</v>
+        <v>1175034</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1187</v>
+        <v>1194</v>
       </c>
       <c r="D624" t="n">
-        <v>1560327</v>
+        <v>1570197</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>5025</v>
+        <v>5046</v>
       </c>
       <c r="D625" t="n">
-        <v>7285086</v>
+        <v>7316584</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30382,10 +30382,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>12004</v>
+        <v>12048</v>
       </c>
       <c r="D626" t="n">
-        <v>17671851</v>
+        <v>17736589</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30430,10 +30430,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>4511</v>
+        <v>4534</v>
       </c>
       <c r="D627" t="n">
-        <v>6695686</v>
+        <v>6730186</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -30478,10 +30478,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>1196</v>
+        <v>1204</v>
       </c>
       <c r="D628" t="n">
-        <v>1785357</v>
+        <v>1797357</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>4098</v>
+        <v>4113</v>
       </c>
       <c r="D631" t="n">
-        <v>5490794</v>
+        <v>5507014</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>2213</v>
+        <v>2221</v>
       </c>
       <c r="D632" t="n">
-        <v>3192218</v>
+        <v>3204126</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>6737</v>
+        <v>6760</v>
       </c>
       <c r="D633" t="n">
-        <v>9907059</v>
+        <v>9941299</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>2235</v>
+        <v>2242</v>
       </c>
       <c r="D634" t="n">
-        <v>3318050</v>
+        <v>3328550</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30814,10 +30814,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D635" t="n">
-        <v>900560</v>
+        <v>905060</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>2200</v>
+        <v>2208</v>
       </c>
       <c r="D639" t="n">
-        <v>2976976</v>
+        <v>2988976</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="D640" t="n">
-        <v>1301013</v>
+        <v>1308513</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31102,10 +31102,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>2398</v>
+        <v>2411</v>
       </c>
       <c r="D641" t="n">
-        <v>3511538</v>
+        <v>3531038</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D642" t="n">
-        <v>1169290</v>
+        <v>1172290</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D643" t="n">
-        <v>302962</v>
+        <v>304462</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31342,10 +31342,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="D646" t="n">
-        <v>1073014</v>
+        <v>1079627</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31390,10 +31390,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>1489</v>
+        <v>1499</v>
       </c>
       <c r="D647" t="n">
-        <v>2147704</v>
+        <v>2161034</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -31438,10 +31438,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>4016</v>
+        <v>4028</v>
       </c>
       <c r="D648" t="n">
-        <v>5905449</v>
+        <v>5923449</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31486,10 +31486,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="D649" t="n">
-        <v>2008844</v>
+        <v>2013344</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D650" t="n">
-        <v>501663</v>
+        <v>503163</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31582,10 +31582,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D651" t="n">
-        <v>96000</v>
+        <v>97500</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>1334</v>
+        <v>1340</v>
       </c>
       <c r="D653" t="n">
-        <v>1737823</v>
+        <v>1746701</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>3139</v>
+        <v>3156</v>
       </c>
       <c r="D654" t="n">
-        <v>4561143</v>
+        <v>4585363</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>6251</v>
+        <v>6271</v>
       </c>
       <c r="D655" t="n">
-        <v>9154313</v>
+        <v>9183147</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31822,10 +31822,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>2298</v>
+        <v>2303</v>
       </c>
       <c r="D656" t="n">
-        <v>3421189</v>
+        <v>3428689</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -31870,10 +31870,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D657" t="n">
-        <v>768039</v>
+        <v>771039</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D658" t="n">
-        <v>89454</v>
+        <v>90954</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="D661" t="n">
-        <v>2674497</v>
+        <v>2687859</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>1489</v>
+        <v>1495</v>
       </c>
       <c r="D662" t="n">
-        <v>2149890</v>
+        <v>2158890</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>2758</v>
+        <v>2772</v>
       </c>
       <c r="D663" t="n">
-        <v>4030364</v>
+        <v>4049426</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="D664" t="n">
-        <v>1212057</v>
+        <v>1219557</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32254,10 +32254,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D665" t="n">
-        <v>257245</v>
+        <v>258745</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>1175</v>
+        <v>1182</v>
       </c>
       <c r="D668" t="n">
-        <v>1559095</v>
+        <v>1566701</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>8236</v>
+        <v>8295</v>
       </c>
       <c r="D669" t="n">
-        <v>11938935</v>
+        <v>12020983</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>19821</v>
+        <v>19921</v>
       </c>
       <c r="D670" t="n">
-        <v>29099949</v>
+        <v>29247031</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32542,10 +32542,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>5946</v>
+        <v>5973</v>
       </c>
       <c r="D671" t="n">
-        <v>8846755</v>
+        <v>8886055</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>1699</v>
+        <v>1710</v>
       </c>
       <c r="D672" t="n">
-        <v>2537287</v>
+        <v>2553374</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D673" t="n">
-        <v>575460</v>
+        <v>578460</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D674" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>7163</v>
+        <v>7212</v>
       </c>
       <c r="D675" t="n">
-        <v>9760775</v>
+        <v>9823821</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>10131</v>
+        <v>10186</v>
       </c>
       <c r="D676" t="n">
-        <v>14722271</v>
+        <v>14798479</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32830,10 +32830,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>27272</v>
+        <v>27397</v>
       </c>
       <c r="D677" t="n">
-        <v>40060676</v>
+        <v>40242748</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>8616</v>
+        <v>8665</v>
       </c>
       <c r="D678" t="n">
-        <v>12833737</v>
+        <v>12907237</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32926,10 +32926,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>2312</v>
+        <v>2325</v>
       </c>
       <c r="D679" t="n">
-        <v>3450279</v>
+        <v>3469779</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D680" t="n">
-        <v>779960</v>
+        <v>784460</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>9081</v>
+        <v>9140</v>
       </c>
       <c r="D683" t="n">
-        <v>12305962</v>
+        <v>12379988</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>1245</v>
+        <v>1255</v>
       </c>
       <c r="D684" t="n">
-        <v>1791482</v>
+        <v>1806439</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>2613</v>
+        <v>2630</v>
       </c>
       <c r="D685" t="n">
-        <v>3815003</v>
+        <v>3840503</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33262,10 +33262,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="D686" t="n">
-        <v>1470538</v>
+        <v>1478038</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33310,10 +33310,10 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D687" t="n">
-        <v>425561</v>
+        <v>430061</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>1952</v>
+        <v>1962</v>
       </c>
       <c r="D690" t="n">
-        <v>2694828</v>
+        <v>2709778</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>8714</v>
+        <v>8766</v>
       </c>
       <c r="D691" t="n">
-        <v>12492200</v>
+        <v>12566716</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33550,10 +33550,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>16522</v>
+        <v>16577</v>
       </c>
       <c r="D692" t="n">
-        <v>24113389</v>
+        <v>24193105</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>4588</v>
+        <v>4607</v>
       </c>
       <c r="D693" t="n">
-        <v>6815475</v>
+        <v>6843975</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33646,10 +33646,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="D694" t="n">
-        <v>1636876</v>
+        <v>1647376</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D695" t="n">
-        <v>275651</v>
+        <v>277151</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>5503</v>
+        <v>5533</v>
       </c>
       <c r="D698" t="n">
-        <v>7447919</v>
+        <v>7487305</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>3649</v>
+        <v>3676</v>
       </c>
       <c r="D699" t="n">
-        <v>5272584</v>
+        <v>5310124</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>9264</v>
+        <v>9295</v>
       </c>
       <c r="D700" t="n">
-        <v>13581003</v>
+        <v>13626979</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -33982,10 +33982,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>2543</v>
+        <v>2559</v>
       </c>
       <c r="D701" t="n">
-        <v>3778063</v>
+        <v>3802063</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D702" t="n">
-        <v>833751</v>
+        <v>835251</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34078,10 +34078,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D703" t="n">
-        <v>207000</v>
+        <v>208500</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3082</v>
+        <v>3099</v>
       </c>
       <c r="D705" t="n">
-        <v>4071455</v>
+        <v>4092427</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="D2" t="n">
-        <v>1800548</v>
+        <v>1806548</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5576</v>
+        <v>5608</v>
       </c>
       <c r="D3" t="n">
-        <v>8193896</v>
+        <v>8239266</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="D4" t="n">
-        <v>2954032</v>
+        <v>2957032</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" t="n">
-        <v>147444</v>
+        <v>150444</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="D8" t="n">
-        <v>768223</v>
+        <v>785287</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1144</v>
+        <v>1156</v>
       </c>
       <c r="D9" t="n">
-        <v>1656375</v>
+        <v>1667055</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3454</v>
+        <v>3470</v>
       </c>
       <c r="D10" t="n">
-        <v>5050311</v>
+        <v>5073487</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D11" t="n">
-        <v>1327564</v>
+        <v>1330564</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1817</v>
+        <v>1841</v>
       </c>
       <c r="D14" t="n">
-        <v>2384654</v>
+        <v>2417200</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2458</v>
+        <v>2480</v>
       </c>
       <c r="D15" t="n">
-        <v>3556329</v>
+        <v>3588529</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4072</v>
+        <v>4090</v>
       </c>
       <c r="D16" t="n">
-        <v>5951957</v>
+        <v>5977375</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="D17" t="n">
-        <v>1666827</v>
+        <v>1672827</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1721</v>
+        <v>1727</v>
       </c>
       <c r="D21" t="n">
-        <v>2289699</v>
+        <v>2298699</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1880</v>
+        <v>1888</v>
       </c>
       <c r="D23" t="n">
-        <v>2729921</v>
+        <v>2741791</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1486,10 +1486,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D24" t="n">
-        <v>749738</v>
+        <v>752738</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1937</v>
+        <v>1947</v>
       </c>
       <c r="D28" t="n">
-        <v>2693842</v>
+        <v>2708160</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3071</v>
+        <v>3095</v>
       </c>
       <c r="D29" t="n">
-        <v>4440212</v>
+        <v>4475082</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6241</v>
+        <v>6273</v>
       </c>
       <c r="D30" t="n">
-        <v>9148961</v>
+        <v>9191801</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1933</v>
+        <v>1943</v>
       </c>
       <c r="D31" t="n">
-        <v>2865189</v>
+        <v>2877749</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D32" t="n">
-        <v>701904</v>
+        <v>707904</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D33" t="n">
-        <v>150373</v>
+        <v>156373</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2419</v>
+        <v>2435</v>
       </c>
       <c r="D35" t="n">
-        <v>3106165</v>
+        <v>3128365</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="D36" t="n">
-        <v>1717994</v>
+        <v>1723274</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2716</v>
+        <v>2724</v>
       </c>
       <c r="D37" t="n">
-        <v>3956366</v>
+        <v>3968366</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="D38" t="n">
-        <v>1126817</v>
+        <v>1132817</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D42" t="n">
-        <v>1770810</v>
+        <v>1771552</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3817</v>
+        <v>3839</v>
       </c>
       <c r="D43" t="n">
-        <v>5553116</v>
+        <v>5585796</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8612</v>
+        <v>8654</v>
       </c>
       <c r="D44" t="n">
-        <v>12639771</v>
+        <v>12698467</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3515</v>
+        <v>3533</v>
       </c>
       <c r="D45" t="n">
-        <v>5202618</v>
+        <v>5229618</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="D46" t="n">
-        <v>1631785</v>
+        <v>1640785</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D47" t="n">
-        <v>451537</v>
+        <v>463537</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>41410</v>
+        <v>44410</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4809</v>
+        <v>4859</v>
       </c>
       <c r="D49" t="n">
-        <v>6584978</v>
+        <v>6654470</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5638</v>
+        <v>5682</v>
       </c>
       <c r="D50" t="n">
-        <v>8165399</v>
+        <v>8229885</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>13227</v>
+        <v>13299</v>
       </c>
       <c r="D51" t="n">
-        <v>19456725</v>
+        <v>19563507</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4492</v>
+        <v>4516</v>
       </c>
       <c r="D52" t="n">
-        <v>6659323</v>
+        <v>6695323</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="D53" t="n">
-        <v>1789695</v>
+        <v>1795695</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D54" t="n">
-        <v>368366</v>
+        <v>371366</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5434</v>
+        <v>5492</v>
       </c>
       <c r="D57" t="n">
-        <v>7454030</v>
+        <v>7526952</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3076</v>
+        <v>3096</v>
       </c>
       <c r="D58" t="n">
-        <v>4443128</v>
+        <v>4468456</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7605</v>
+        <v>7635</v>
       </c>
       <c r="D59" t="n">
-        <v>11157165</v>
+        <v>11202165</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2412</v>
+        <v>2418</v>
       </c>
       <c r="D60" t="n">
-        <v>3561580</v>
+        <v>3570580</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D61" t="n">
-        <v>916201</v>
+        <v>922201</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D62" t="n">
-        <v>221761</v>
+        <v>223717</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3261</v>
+        <v>3281</v>
       </c>
       <c r="D64" t="n">
-        <v>4262944</v>
+        <v>4288486</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2584</v>
+        <v>2598</v>
       </c>
       <c r="D65" t="n">
-        <v>3715806</v>
+        <v>3736806</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6818</v>
+        <v>6874</v>
       </c>
       <c r="D66" t="n">
-        <v>9975476</v>
+        <v>10059476</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2307</v>
+        <v>2321</v>
       </c>
       <c r="D67" t="n">
-        <v>3414853</v>
+        <v>3435853</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D68" t="n">
-        <v>947198</v>
+        <v>950198</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D69" t="n">
-        <v>156986</v>
+        <v>159986</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2902</v>
+        <v>2920</v>
       </c>
       <c r="D71" t="n">
-        <v>3842818</v>
+        <v>3866932</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8744</v>
+        <v>8808</v>
       </c>
       <c r="D72" t="n">
-        <v>12695326</v>
+        <v>12788242</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>21737</v>
+        <v>21851</v>
       </c>
       <c r="D73" t="n">
-        <v>31955678</v>
+        <v>32120632</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7500</v>
+        <v>7556</v>
       </c>
       <c r="D74" t="n">
-        <v>11141712</v>
+        <v>11222782</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2086</v>
+        <v>2094</v>
       </c>
       <c r="D75" t="n">
-        <v>3104743</v>
+        <v>3116743</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D76" t="n">
-        <v>612983</v>
+        <v>621983</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7185</v>
+        <v>7261</v>
       </c>
       <c r="D80" t="n">
-        <v>9897179</v>
+        <v>10000041</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2637</v>
+        <v>2657</v>
       </c>
       <c r="D81" t="n">
-        <v>3829611</v>
+        <v>3858195</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6188</v>
+        <v>6212</v>
       </c>
       <c r="D82" t="n">
-        <v>9075001</v>
+        <v>9106749</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2752</v>
+        <v>2768</v>
       </c>
       <c r="D83" t="n">
-        <v>4077965</v>
+        <v>4101965</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="D84" t="n">
-        <v>1447198</v>
+        <v>1456198</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D85" t="n">
-        <v>420275</v>
+        <v>423275</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6237</v>
+        <v>6281</v>
       </c>
       <c r="D87" t="n">
-        <v>8781564</v>
+        <v>8837162</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="D88" t="n">
-        <v>2703697</v>
+        <v>2713553</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4774</v>
+        <v>4796</v>
       </c>
       <c r="D89" t="n">
-        <v>7014772</v>
+        <v>7047682</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1686</v>
+        <v>1698</v>
       </c>
       <c r="D90" t="n">
-        <v>2508801</v>
+        <v>2521099</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D91" t="n">
-        <v>692009</v>
+        <v>695009</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D92" t="n">
-        <v>117675</v>
+        <v>120675</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1911</v>
+        <v>1931</v>
       </c>
       <c r="D94" t="n">
-        <v>2517447</v>
+        <v>2543535</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1640</v>
+        <v>1650</v>
       </c>
       <c r="D95" t="n">
-        <v>2372618</v>
+        <v>2387618</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4407</v>
+        <v>4435</v>
       </c>
       <c r="D96" t="n">
-        <v>6471216</v>
+        <v>6511482</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1512</v>
+        <v>1520</v>
       </c>
       <c r="D97" t="n">
-        <v>2241277</v>
+        <v>2253277</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D98" t="n">
-        <v>645518</v>
+        <v>654518</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D99" t="n">
-        <v>143399</v>
+        <v>152399</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1499</v>
+        <v>1509</v>
       </c>
       <c r="D102" t="n">
-        <v>2028417</v>
+        <v>2040743</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D103" t="n">
-        <v>980902</v>
+        <v>983902</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1712</v>
+        <v>1718</v>
       </c>
       <c r="D104" t="n">
-        <v>2519380</v>
+        <v>2528380</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5518,10 +5518,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="D108" t="n">
-        <v>1078076</v>
+        <v>1086968</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D109" t="n">
-        <v>1542306</v>
+        <v>1545306</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2616</v>
+        <v>2628</v>
       </c>
       <c r="D110" t="n">
-        <v>3834501</v>
+        <v>3852501</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="D115" t="n">
-        <v>1225970</v>
+        <v>1234970</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="D116" t="n">
-        <v>1010748</v>
+        <v>1016748</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5950,10 +5950,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1874</v>
+        <v>1888</v>
       </c>
       <c r="D117" t="n">
-        <v>2732450</v>
+        <v>2753450</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D118" t="n">
-        <v>858765</v>
+        <v>870765</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="D121" t="n">
-        <v>1121935</v>
+        <v>1125601</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1904</v>
+        <v>1918</v>
       </c>
       <c r="D122" t="n">
-        <v>2752928</v>
+        <v>2773308</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5595</v>
+        <v>5615</v>
       </c>
       <c r="D123" t="n">
-        <v>8203612</v>
+        <v>8230990</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="D124" t="n">
-        <v>2515284</v>
+        <v>2521284</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2354</v>
+        <v>2358</v>
       </c>
       <c r="D127" t="n">
-        <v>3178221</v>
+        <v>3184221</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D128" t="n">
-        <v>576320</v>
+        <v>579472</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="D129" t="n">
-        <v>1605035</v>
+        <v>1619363</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D130" t="n">
-        <v>600552</v>
+        <v>603552</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="D134" t="n">
-        <v>1543346</v>
+        <v>1552346</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3177</v>
+        <v>3189</v>
       </c>
       <c r="D135" t="n">
-        <v>4667226</v>
+        <v>4685226</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="D136" t="n">
-        <v>1352093</v>
+        <v>1364093</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D137" t="n">
-        <v>376564</v>
+        <v>382564</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="D140" t="n">
-        <v>1440663</v>
+        <v>1452455</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2575</v>
+        <v>2589</v>
       </c>
       <c r="D141" t="n">
-        <v>3725680</v>
+        <v>3746564</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5917</v>
+        <v>5947</v>
       </c>
       <c r="D142" t="n">
-        <v>8665020</v>
+        <v>8708636</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="D143" t="n">
-        <v>2445930</v>
+        <v>2448930</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2301</v>
+        <v>2315</v>
       </c>
       <c r="D147" t="n">
-        <v>3025753</v>
+        <v>3043933</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3517</v>
+        <v>3547</v>
       </c>
       <c r="D148" t="n">
-        <v>5073250</v>
+        <v>5113430</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>8042</v>
+        <v>8100</v>
       </c>
       <c r="D149" t="n">
-        <v>11783554</v>
+        <v>11860472</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2814</v>
+        <v>2834</v>
       </c>
       <c r="D150" t="n">
-        <v>4176631</v>
+        <v>4206163</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="D151" t="n">
-        <v>1004826</v>
+        <v>1013826</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D152" t="n">
-        <v>216514</v>
+        <v>222008</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3057</v>
+        <v>3073</v>
       </c>
       <c r="D154" t="n">
-        <v>4086685</v>
+        <v>4105917</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3300</v>
+        <v>3318</v>
       </c>
       <c r="D155" t="n">
-        <v>4784403</v>
+        <v>4809917</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>9232</v>
+        <v>9276</v>
       </c>
       <c r="D156" t="n">
-        <v>13624982</v>
+        <v>13688382</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3041</v>
+        <v>3055</v>
       </c>
       <c r="D157" t="n">
-        <v>4528105</v>
+        <v>4549105</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D158" t="n">
-        <v>1342475</v>
+        <v>1345475</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D159" t="n">
-        <v>275674</v>
+        <v>278674</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D160" t="n">
-        <v>10101</v>
+        <v>13101</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3066</v>
+        <v>3094</v>
       </c>
       <c r="D161" t="n">
-        <v>4144480</v>
+        <v>4179876</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3616</v>
+        <v>3636</v>
       </c>
       <c r="D162" t="n">
-        <v>5208555</v>
+        <v>5236933</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7703</v>
+        <v>7727</v>
       </c>
       <c r="D163" t="n">
-        <v>11298300</v>
+        <v>11334300</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2507</v>
+        <v>2517</v>
       </c>
       <c r="D164" t="n">
-        <v>3731299</v>
+        <v>3746299</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2887</v>
+        <v>2913</v>
       </c>
       <c r="D168" t="n">
-        <v>3885362</v>
+        <v>3919340</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="D169" t="n">
-        <v>1173739</v>
+        <v>1185739</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2444</v>
+        <v>2472</v>
       </c>
       <c r="D170" t="n">
-        <v>3578380</v>
+        <v>3620126</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="D171" t="n">
-        <v>1197681</v>
+        <v>1218681</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D172" t="n">
-        <v>349500</v>
+        <v>352500</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1162</v>
+        <v>1174</v>
       </c>
       <c r="D175" t="n">
-        <v>1510012</v>
+        <v>1527728</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="D176" t="n">
-        <v>1603481</v>
+        <v>1612481</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3419</v>
+        <v>3435</v>
       </c>
       <c r="D177" t="n">
-        <v>5041653</v>
+        <v>5063953</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="D178" t="n">
-        <v>1697307</v>
+        <v>1700307</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D179" t="n">
-        <v>428420</v>
+        <v>434420</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D180" t="n">
-        <v>45000</v>
+        <v>54000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="D182" t="n">
-        <v>1454244</v>
+        <v>1463244</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1868</v>
+        <v>1874</v>
       </c>
       <c r="D184" t="n">
-        <v>2724484</v>
+        <v>2728030</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="D188" t="n">
-        <v>1029894</v>
+        <v>1046878</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2120</v>
+        <v>2142</v>
       </c>
       <c r="D189" t="n">
-        <v>3047388</v>
+        <v>3076428</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>5590</v>
+        <v>5630</v>
       </c>
       <c r="D190" t="n">
-        <v>8187392</v>
+        <v>8246840</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="D191" t="n">
-        <v>2911404</v>
+        <v>2917404</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9550,10 +9550,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D192" t="n">
-        <v>768524</v>
+        <v>780524</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2055</v>
+        <v>2077</v>
       </c>
       <c r="D195" t="n">
-        <v>2766300</v>
+        <v>2792170</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1811</v>
+        <v>1823</v>
       </c>
       <c r="D196" t="n">
-        <v>2641182</v>
+        <v>2656184</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5484</v>
+        <v>5524</v>
       </c>
       <c r="D197" t="n">
-        <v>8067995</v>
+        <v>8127745</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2027</v>
+        <v>2033</v>
       </c>
       <c r="D198" t="n">
-        <v>3015821</v>
+        <v>3022403</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D199" t="n">
-        <v>705375</v>
+        <v>714375</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D200" t="n">
-        <v>123000</v>
+        <v>126000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1833</v>
+        <v>1855</v>
       </c>
       <c r="D202" t="n">
-        <v>2407531</v>
+        <v>2425957</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3096</v>
+        <v>3112</v>
       </c>
       <c r="D204" t="n">
-        <v>4551714</v>
+        <v>4575714</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D205" t="n">
-        <v>1527162</v>
+        <v>1530162</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D207" t="n">
-        <v>81000</v>
+        <v>87000</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="D209" t="n">
-        <v>1460961</v>
+        <v>1468781</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="D210" t="n">
-        <v>1292186</v>
+        <v>1319086</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3511</v>
+        <v>3535</v>
       </c>
       <c r="D211" t="n">
-        <v>5130979</v>
+        <v>5166979</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1791</v>
+        <v>1803</v>
       </c>
       <c r="D212" t="n">
-        <v>2651246</v>
+        <v>2669246</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D214" t="n">
-        <v>135428</v>
+        <v>138428</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="D215" t="n">
-        <v>935772</v>
+        <v>948960</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2140</v>
+        <v>2168</v>
       </c>
       <c r="D216" t="n">
-        <v>3094923</v>
+        <v>3136723</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3924</v>
+        <v>3950</v>
       </c>
       <c r="D217" t="n">
-        <v>5734062</v>
+        <v>5770358</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1207</v>
+        <v>1215</v>
       </c>
       <c r="D218" t="n">
-        <v>1790042</v>
+        <v>1802042</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D219" t="n">
-        <v>456414</v>
+        <v>459414</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1592</v>
+        <v>1604</v>
       </c>
       <c r="D221" t="n">
-        <v>2161185</v>
+        <v>2178857</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="D222" t="n">
-        <v>1021902</v>
+        <v>1027902</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2193</v>
+        <v>2209</v>
       </c>
       <c r="D223" t="n">
-        <v>3189993</v>
+        <v>3213993</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="D227" t="n">
-        <v>1187737</v>
+        <v>1192737</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D228" t="n">
-        <v>1328255</v>
+        <v>1331255</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2576</v>
+        <v>2592</v>
       </c>
       <c r="D229" t="n">
-        <v>3759184</v>
+        <v>3781836</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D230" t="n">
-        <v>1202940</v>
+        <v>1208940</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D231" t="n">
-        <v>324056</v>
+        <v>327056</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="D233" t="n">
-        <v>1210262</v>
+        <v>1214536</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3793</v>
+        <v>3825</v>
       </c>
       <c r="D234" t="n">
-        <v>5488790</v>
+        <v>5536506</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>12005</v>
+        <v>12051</v>
       </c>
       <c r="D235" t="n">
-        <v>17620547</v>
+        <v>17687353</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4661</v>
+        <v>4679</v>
       </c>
       <c r="D236" t="n">
-        <v>6917869</v>
+        <v>6944515</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11710,10 +11710,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="D237" t="n">
-        <v>2117976</v>
+        <v>2121886</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3293</v>
+        <v>3313</v>
       </c>
       <c r="D240" t="n">
-        <v>4473936</v>
+        <v>4500894</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="D242" t="n">
-        <v>1970855</v>
+        <v>1973855</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D247" t="n">
-        <v>731443</v>
+        <v>739953</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2585</v>
+        <v>2605</v>
       </c>
       <c r="D248" t="n">
-        <v>3739623</v>
+        <v>3769623</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>7661</v>
+        <v>7697</v>
       </c>
       <c r="D249" t="n">
-        <v>11245265</v>
+        <v>11297013</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3114</v>
+        <v>3122</v>
       </c>
       <c r="D250" t="n">
-        <v>4625333</v>
+        <v>4637333</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D251" t="n">
-        <v>1256072</v>
+        <v>1259072</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D252" t="n">
-        <v>304230</v>
+        <v>307230</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1988</v>
+        <v>2000</v>
       </c>
       <c r="D256" t="n">
-        <v>2620063</v>
+        <v>2632819</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="D257" t="n">
-        <v>2515975</v>
+        <v>2527975</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12718,10 +12718,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4826</v>
+        <v>4832</v>
       </c>
       <c r="D258" t="n">
-        <v>7104843</v>
+        <v>7113643</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1759</v>
+        <v>1765</v>
       </c>
       <c r="D259" t="n">
-        <v>2612810</v>
+        <v>2621810</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12814,10 +12814,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D260" t="n">
-        <v>782539</v>
+        <v>785539</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1865</v>
+        <v>1877</v>
       </c>
       <c r="D263" t="n">
-        <v>2448286</v>
+        <v>2461698</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1786</v>
+        <v>1810</v>
       </c>
       <c r="D264" t="n">
-        <v>2613116</v>
+        <v>2649116</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>5404</v>
+        <v>5448</v>
       </c>
       <c r="D265" t="n">
-        <v>7946764</v>
+        <v>8012764</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13102,10 +13102,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1880</v>
+        <v>1894</v>
       </c>
       <c r="D266" t="n">
-        <v>2790966</v>
+        <v>2811966</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2115</v>
+        <v>2135</v>
       </c>
       <c r="D270" t="n">
-        <v>2851786</v>
+        <v>2881060</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D271" t="n">
-        <v>703432</v>
+        <v>709432</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13390,10 +13390,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1379</v>
+        <v>1385</v>
       </c>
       <c r="D272" t="n">
-        <v>2007474</v>
+        <v>2015504</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D273" t="n">
-        <v>629585</v>
+        <v>632585</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D274" t="n">
-        <v>175290</v>
+        <v>178290</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D275" t="n">
-        <v>40500</v>
+        <v>43500</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D276" t="n">
-        <v>756911</v>
+        <v>764671</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2572</v>
+        <v>2580</v>
       </c>
       <c r="D277" t="n">
-        <v>3725391</v>
+        <v>3737391</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>8373</v>
+        <v>8403</v>
       </c>
       <c r="D278" t="n">
-        <v>12273697</v>
+        <v>12318697</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3466</v>
+        <v>3472</v>
       </c>
       <c r="D279" t="n">
-        <v>5155444</v>
+        <v>5164444</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="D280" t="n">
-        <v>1598659</v>
+        <v>1604659</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D281" t="n">
-        <v>223656</v>
+        <v>226656</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2325</v>
+        <v>2333</v>
       </c>
       <c r="D283" t="n">
-        <v>3109694</v>
+        <v>3120000</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13966,10 +13966,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1561</v>
+        <v>1569</v>
       </c>
       <c r="D284" t="n">
-        <v>2242018</v>
+        <v>2254018</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3855</v>
+        <v>3873</v>
       </c>
       <c r="D285" t="n">
-        <v>5664569</v>
+        <v>5689807</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14062,10 +14062,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="D286" t="n">
-        <v>1876830</v>
+        <v>1879830</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14110,10 +14110,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D287" t="n">
-        <v>558032</v>
+        <v>561032</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1598</v>
+        <v>1616</v>
       </c>
       <c r="D290" t="n">
-        <v>2111658</v>
+        <v>2135106</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1839</v>
+        <v>1889</v>
       </c>
       <c r="D291" t="n">
-        <v>2670175</v>
+        <v>2740705</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>6389</v>
+        <v>6511</v>
       </c>
       <c r="D292" t="n">
-        <v>9400983</v>
+        <v>9577473</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2211</v>
+        <v>2253</v>
       </c>
       <c r="D293" t="n">
-        <v>3301958</v>
+        <v>3364690</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="D294" t="n">
-        <v>1072305</v>
+        <v>1096305</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D295" t="n">
-        <v>250333</v>
+        <v>253333</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>6013</v>
+        <v>6191</v>
       </c>
       <c r="D297" t="n">
-        <v>8295737</v>
+        <v>8521785</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>778</v>
+        <v>842</v>
       </c>
       <c r="D298" t="n">
-        <v>1139425</v>
+        <v>1233743</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2000</v>
+        <v>2036</v>
       </c>
       <c r="D299" t="n">
-        <v>2967826</v>
+        <v>3021826</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>813</v>
+        <v>833</v>
       </c>
       <c r="D300" t="n">
-        <v>1211953</v>
+        <v>1240337</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14782,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="D301" t="n">
-        <v>406258</v>
+        <v>436258</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D302" t="n">
-        <v>97500</v>
+        <v>109500</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1171</v>
+        <v>1209</v>
       </c>
       <c r="D304" t="n">
-        <v>1658558</v>
+        <v>1707230</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="D305" t="n">
-        <v>1634606</v>
+        <v>1641616</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3488</v>
+        <v>3506</v>
       </c>
       <c r="D306" t="n">
-        <v>5117591</v>
+        <v>5144591</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="D307" t="n">
-        <v>1939040</v>
+        <v>1945040</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D309" t="n">
-        <v>71937</v>
+        <v>74937</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="D311" t="n">
-        <v>1846502</v>
+        <v>1852502</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>6743</v>
+        <v>6803</v>
       </c>
       <c r="D312" t="n">
-        <v>9731794</v>
+        <v>9819008</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>19090</v>
+        <v>19174</v>
       </c>
       <c r="D313" t="n">
-        <v>27947024</v>
+        <v>28069006</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>6788</v>
+        <v>6814</v>
       </c>
       <c r="D314" t="n">
-        <v>10103959</v>
+        <v>10142959</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2054</v>
+        <v>2076</v>
       </c>
       <c r="D315" t="n">
-        <v>3065519</v>
+        <v>3098519</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="D316" t="n">
-        <v>647470</v>
+        <v>659470</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6009</v>
+        <v>6051</v>
       </c>
       <c r="D318" t="n">
-        <v>7928048</v>
+        <v>7973462</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2023</v>
+        <v>2039</v>
       </c>
       <c r="D319" t="n">
-        <v>2961682</v>
+        <v>2983620</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>6311</v>
+        <v>6339</v>
       </c>
       <c r="D320" t="n">
-        <v>9267657</v>
+        <v>9307397</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2228</v>
+        <v>2246</v>
       </c>
       <c r="D321" t="n">
-        <v>3316629</v>
+        <v>3343629</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D322" t="n">
-        <v>884699</v>
+        <v>893699</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15838,10 +15838,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D323" t="n">
-        <v>179974</v>
+        <v>182974</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1919</v>
+        <v>1937</v>
       </c>
       <c r="D325" t="n">
-        <v>2615014</v>
+        <v>2641380</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3489</v>
+        <v>3507</v>
       </c>
       <c r="D326" t="n">
-        <v>5022285</v>
+        <v>5045575</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>10559</v>
+        <v>10593</v>
       </c>
       <c r="D327" t="n">
-        <v>15436805</v>
+        <v>15487487</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3438</v>
+        <v>3446</v>
       </c>
       <c r="D328" t="n">
-        <v>5100665</v>
+        <v>5112665</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16174,10 +16174,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D330" t="n">
-        <v>254215</v>
+        <v>257215</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3683</v>
+        <v>3715</v>
       </c>
       <c r="D333" t="n">
-        <v>4811791</v>
+        <v>4846259</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16366,10 +16366,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1478</v>
+        <v>1484</v>
       </c>
       <c r="D334" t="n">
-        <v>2142012</v>
+        <v>2151012</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>4136</v>
+        <v>4162</v>
       </c>
       <c r="D335" t="n">
-        <v>6044345</v>
+        <v>6082295</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="D336" t="n">
-        <v>2322113</v>
+        <v>2331113</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D337" t="n">
-        <v>582964</v>
+        <v>585964</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>1631</v>
+        <v>1637</v>
       </c>
       <c r="D340" t="n">
-        <v>2126977</v>
+        <v>2133951</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16702,10 +16702,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3457</v>
+        <v>3499</v>
       </c>
       <c r="D341" t="n">
-        <v>5044935</v>
+        <v>5107149</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>9994</v>
+        <v>10084</v>
       </c>
       <c r="D342" t="n">
-        <v>14751409</v>
+        <v>14881145</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3869</v>
+        <v>3903</v>
       </c>
       <c r="D343" t="n">
-        <v>5761699</v>
+        <v>5812699</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="D344" t="n">
-        <v>1701679</v>
+        <v>1710679</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D345" t="n">
-        <v>299801</v>
+        <v>305801</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -17038,10 +17038,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>3322</v>
+        <v>3370</v>
       </c>
       <c r="D348" t="n">
-        <v>4615823</v>
+        <v>4681451</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>6068</v>
+        <v>6124</v>
       </c>
       <c r="D349" t="n">
-        <v>8850090</v>
+        <v>8928606</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>14924</v>
+        <v>15068</v>
       </c>
       <c r="D350" t="n">
-        <v>21989011</v>
+        <v>22199189</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>6678</v>
+        <v>6744</v>
       </c>
       <c r="D351" t="n">
-        <v>9960180</v>
+        <v>10059180</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2019</v>
+        <v>2037</v>
       </c>
       <c r="D352" t="n">
-        <v>3014372</v>
+        <v>3041372</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="D353" t="n">
-        <v>662081</v>
+        <v>686081</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>5434</v>
+        <v>5524</v>
       </c>
       <c r="D355" t="n">
-        <v>7443584</v>
+        <v>7552512</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>17704</v>
+        <v>17936</v>
       </c>
       <c r="D356" t="n">
-        <v>25724086</v>
+        <v>26055726</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17470,10 +17470,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>49067</v>
+        <v>49647</v>
       </c>
       <c r="D357" t="n">
-        <v>72350520</v>
+        <v>73204622</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>22921</v>
+        <v>23185</v>
       </c>
       <c r="D358" t="n">
-        <v>34209991</v>
+        <v>34605651</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>8193</v>
+        <v>8297</v>
       </c>
       <c r="D359" t="n">
-        <v>12252587</v>
+        <v>12408587</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="D360" t="n">
-        <v>2980772</v>
+        <v>3022772</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17854,10 +17854,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>17471</v>
+        <v>17713</v>
       </c>
       <c r="D365" t="n">
-        <v>23794019</v>
+        <v>24100983</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4183</v>
+        <v>4211</v>
       </c>
       <c r="D366" t="n">
-        <v>6092330</v>
+        <v>6130856</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>11910</v>
+        <v>12000</v>
       </c>
       <c r="D367" t="n">
-        <v>17519574</v>
+        <v>17652286</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>4505</v>
+        <v>4531</v>
       </c>
       <c r="D368" t="n">
-        <v>6689548</v>
+        <v>6726892</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>1384</v>
+        <v>1400</v>
       </c>
       <c r="D369" t="n">
-        <v>2066397</v>
+        <v>2090275</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D370" t="n">
-        <v>388007</v>
+        <v>391007</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>4178</v>
+        <v>4242</v>
       </c>
       <c r="D372" t="n">
-        <v>5725343</v>
+        <v>5803487</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>5129</v>
+        <v>5209</v>
       </c>
       <c r="D373" t="n">
-        <v>7469665</v>
+        <v>7583193</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>18184</v>
+        <v>18426</v>
       </c>
       <c r="D374" t="n">
-        <v>26794513</v>
+        <v>27146935</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>8541</v>
+        <v>8611</v>
       </c>
       <c r="D375" t="n">
-        <v>12739825</v>
+        <v>12840327</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2393</v>
+        <v>2417</v>
       </c>
       <c r="D376" t="n">
-        <v>3578306</v>
+        <v>3614306</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="D377" t="n">
-        <v>891095</v>
+        <v>903095</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>5268</v>
+        <v>5376</v>
       </c>
       <c r="D379" t="n">
-        <v>7140217</v>
+        <v>7273521</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>4573</v>
+        <v>4651</v>
       </c>
       <c r="D380" t="n">
-        <v>6665020</v>
+        <v>6781844</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>13310</v>
+        <v>13468</v>
       </c>
       <c r="D381" t="n">
-        <v>19606098</v>
+        <v>19834638</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>5535</v>
+        <v>5567</v>
       </c>
       <c r="D382" t="n">
-        <v>8245294</v>
+        <v>8293294</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1580</v>
+        <v>1588</v>
       </c>
       <c r="D383" t="n">
-        <v>2357122</v>
+        <v>2369122</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D384" t="n">
-        <v>553606</v>
+        <v>556606</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4764</v>
+        <v>4856</v>
       </c>
       <c r="D386" t="n">
-        <v>6533919</v>
+        <v>6632929</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>3485</v>
+        <v>3535</v>
       </c>
       <c r="D387" t="n">
-        <v>5087268</v>
+        <v>5159938</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>11093</v>
+        <v>11199</v>
       </c>
       <c r="D388" t="n">
-        <v>16370274</v>
+        <v>16525134</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4690</v>
+        <v>4726</v>
       </c>
       <c r="D389" t="n">
-        <v>6976808</v>
+        <v>7030808</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1345</v>
+        <v>1355</v>
       </c>
       <c r="D390" t="n">
-        <v>2008432</v>
+        <v>2021162</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D391" t="n">
-        <v>434100</v>
+        <v>437100</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3734</v>
+        <v>3788</v>
       </c>
       <c r="D393" t="n">
-        <v>5051287</v>
+        <v>5122239</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>3981</v>
+        <v>4039</v>
       </c>
       <c r="D394" t="n">
-        <v>5801065</v>
+        <v>5887905</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>10844</v>
+        <v>10926</v>
       </c>
       <c r="D395" t="n">
-        <v>15981670</v>
+        <v>16101362</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19342,10 +19342,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>4167</v>
+        <v>4213</v>
       </c>
       <c r="D396" t="n">
-        <v>6202768</v>
+        <v>6268816</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1316</v>
+        <v>1324</v>
       </c>
       <c r="D397" t="n">
-        <v>1967184</v>
+        <v>1978456</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D398" t="n">
-        <v>402010</v>
+        <v>411010</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>3962</v>
+        <v>4006</v>
       </c>
       <c r="D400" t="n">
-        <v>5439064</v>
+        <v>5492688</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>4363</v>
+        <v>4415</v>
       </c>
       <c r="D401" t="n">
-        <v>6326271</v>
+        <v>6398185</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>11082</v>
+        <v>11158</v>
       </c>
       <c r="D402" t="n">
-        <v>16286094</v>
+        <v>16398798</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>3765</v>
+        <v>3779</v>
       </c>
       <c r="D403" t="n">
-        <v>5610915</v>
+        <v>5631915</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>1308</v>
+        <v>1316</v>
       </c>
       <c r="D404" t="n">
-        <v>1954489</v>
+        <v>1966489</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>5063</v>
+        <v>5151</v>
       </c>
       <c r="D408" t="n">
-        <v>6823393</v>
+        <v>6933713</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1479</v>
+        <v>1495</v>
       </c>
       <c r="D409" t="n">
-        <v>2137783</v>
+        <v>2161041</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>4853</v>
+        <v>4917</v>
       </c>
       <c r="D410" t="n">
-        <v>7148054</v>
+        <v>7243114</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1855</v>
+        <v>1873</v>
       </c>
       <c r="D411" t="n">
-        <v>2763999</v>
+        <v>2790999</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D412" t="n">
-        <v>985960</v>
+        <v>988960</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>3266</v>
+        <v>3338</v>
       </c>
       <c r="D416" t="n">
-        <v>4333166</v>
+        <v>4432876</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D417" t="n">
-        <v>841464</v>
+        <v>844464</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20398,10 +20398,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D418" t="n">
-        <v>472130</v>
+        <v>487130</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D419" t="n">
-        <v>168000</v>
+        <v>171000</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2990</v>
+        <v>3002</v>
       </c>
       <c r="D422" t="n">
-        <v>4340086</v>
+        <v>4358086</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>7207</v>
+        <v>7245</v>
       </c>
       <c r="D423" t="n">
-        <v>10577268</v>
+        <v>10634268</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2380</v>
+        <v>2394</v>
       </c>
       <c r="D424" t="n">
-        <v>3547494</v>
+        <v>3568494</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D425" t="n">
-        <v>1034642</v>
+        <v>1040642</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D426" t="n">
-        <v>202890</v>
+        <v>205890</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2330</v>
+        <v>2344</v>
       </c>
       <c r="D428" t="n">
-        <v>3111686</v>
+        <v>3129502</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="D429" t="n">
-        <v>2441612</v>
+        <v>2447612</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>4798</v>
+        <v>4820</v>
       </c>
       <c r="D430" t="n">
-        <v>7043423</v>
+        <v>7074925</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21022,10 +21022,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="D431" t="n">
-        <v>2353342</v>
+        <v>2356342</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1640</v>
+        <v>1654</v>
       </c>
       <c r="D435" t="n">
-        <v>2158933</v>
+        <v>2177949</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21262,10 +21262,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1900</v>
+        <v>1914</v>
       </c>
       <c r="D436" t="n">
-        <v>2752044</v>
+        <v>2773044</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21310,10 +21310,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>4754</v>
+        <v>4776</v>
       </c>
       <c r="D437" t="n">
-        <v>6984480</v>
+        <v>7015440</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1509</v>
+        <v>1517</v>
       </c>
       <c r="D438" t="n">
-        <v>2238360</v>
+        <v>2250360</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D439" t="n">
-        <v>617663</v>
+        <v>632663</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1583</v>
+        <v>1595</v>
       </c>
       <c r="D441" t="n">
-        <v>2089666</v>
+        <v>2103902</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="D442" t="n">
-        <v>1317390</v>
+        <v>1323390</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>2610</v>
+        <v>2618</v>
       </c>
       <c r="D443" t="n">
-        <v>3830917</v>
+        <v>3841071</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D444" t="n">
-        <v>1131567</v>
+        <v>1134567</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="D447" t="n">
-        <v>1407900</v>
+        <v>1416900</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21838,10 +21838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>2948</v>
+        <v>2968</v>
       </c>
       <c r="D448" t="n">
-        <v>4290758</v>
+        <v>4320758</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>9141</v>
+        <v>9181</v>
       </c>
       <c r="D449" t="n">
-        <v>13464338</v>
+        <v>13521642</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21934,10 +21934,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>3322</v>
+        <v>3334</v>
       </c>
       <c r="D450" t="n">
-        <v>4937294</v>
+        <v>4954494</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="D451" t="n">
-        <v>1350237</v>
+        <v>1359237</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D452" t="n">
-        <v>284810</v>
+        <v>290810</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2884</v>
+        <v>2912</v>
       </c>
       <c r="D454" t="n">
-        <v>3776715</v>
+        <v>3812107</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>1181</v>
+        <v>1189</v>
       </c>
       <c r="D455" t="n">
-        <v>1698399</v>
+        <v>1708759</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>3180</v>
+        <v>3192</v>
       </c>
       <c r="D456" t="n">
-        <v>4651642</v>
+        <v>4669642</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22270,10 +22270,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="D457" t="n">
-        <v>1534744</v>
+        <v>1543744</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="D461" t="n">
-        <v>1683539</v>
+        <v>1688317</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>4286</v>
+        <v>4314</v>
       </c>
       <c r="D462" t="n">
-        <v>6209257</v>
+        <v>6247435</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>8057</v>
+        <v>8089</v>
       </c>
       <c r="D463" t="n">
-        <v>11822166</v>
+        <v>11867966</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>2366</v>
+        <v>2374</v>
       </c>
       <c r="D464" t="n">
-        <v>3518989</v>
+        <v>3530989</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="D465" t="n">
-        <v>889853</v>
+        <v>901853</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D467" t="n">
-        <v>7856</v>
+        <v>10856</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>2691</v>
+        <v>2709</v>
       </c>
       <c r="D468" t="n">
-        <v>3601057</v>
+        <v>3619241</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="D469" t="n">
-        <v>1473907</v>
+        <v>1482907</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22894,10 +22894,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>2556</v>
+        <v>2562</v>
       </c>
       <c r="D470" t="n">
-        <v>3739373</v>
+        <v>3746737</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D471" t="n">
-        <v>1129355</v>
+        <v>1132355</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D473" t="n">
-        <v>46500</v>
+        <v>49500</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1323</v>
+        <v>1331</v>
       </c>
       <c r="D474" t="n">
-        <v>1766327</v>
+        <v>1778327</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D475" t="n">
-        <v>512815</v>
+        <v>515815</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23182,10 +23182,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D476" t="n">
-        <v>1500706</v>
+        <v>1503706</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D478" t="n">
-        <v>86965</v>
+        <v>89965</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D480" t="n">
-        <v>745125</v>
+        <v>753309</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="D481" t="n">
-        <v>1312911</v>
+        <v>1320599</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>2811</v>
+        <v>2817</v>
       </c>
       <c r="D482" t="n">
-        <v>4142651</v>
+        <v>4151651</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D483" t="n">
-        <v>1422293</v>
+        <v>1425293</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="D486" t="n">
-        <v>1346968</v>
+        <v>1354418</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>2698</v>
+        <v>2718</v>
       </c>
       <c r="D487" t="n">
-        <v>3865940</v>
+        <v>3890870</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>5194</v>
+        <v>5208</v>
       </c>
       <c r="D488" t="n">
-        <v>7610148</v>
+        <v>7631148</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="D489" t="n">
-        <v>2197163</v>
+        <v>2203163</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>2322</v>
+        <v>2336</v>
       </c>
       <c r="D493" t="n">
-        <v>3044968</v>
+        <v>3065280</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>8551</v>
+        <v>8593</v>
       </c>
       <c r="D494" t="n">
-        <v>12394700</v>
+        <v>12456510</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>17856</v>
+        <v>17942</v>
       </c>
       <c r="D495" t="n">
-        <v>26157064</v>
+        <v>26273504</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24142,10 +24142,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>6093</v>
+        <v>6117</v>
       </c>
       <c r="D496" t="n">
-        <v>9067455</v>
+        <v>9103455</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>1889</v>
+        <v>1897</v>
       </c>
       <c r="D497" t="n">
-        <v>2815772</v>
+        <v>2827772</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D498" t="n">
-        <v>569615</v>
+        <v>572615</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>6418</v>
+        <v>6456</v>
       </c>
       <c r="D502" t="n">
-        <v>8706850</v>
+        <v>8748076</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24478,10 +24478,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="D503" t="n">
-        <v>1789991</v>
+        <v>1810853</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>3165</v>
+        <v>3177</v>
       </c>
       <c r="D504" t="n">
-        <v>4644556</v>
+        <v>4658866</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D506" t="n">
-        <v>506932</v>
+        <v>509932</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1522</v>
+        <v>1532</v>
       </c>
       <c r="D509" t="n">
-        <v>2015593</v>
+        <v>2026341</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>2819</v>
+        <v>2851</v>
       </c>
       <c r="D510" t="n">
-        <v>4049245</v>
+        <v>4096033</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>4866</v>
+        <v>4878</v>
       </c>
       <c r="D511" t="n">
-        <v>7122145</v>
+        <v>7140145</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="D512" t="n">
-        <v>2218682</v>
+        <v>2221682</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D513" t="n">
-        <v>561873</v>
+        <v>576873</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D514" t="n">
-        <v>111099</v>
+        <v>114099</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1579</v>
+        <v>1589</v>
       </c>
       <c r="D516" t="n">
-        <v>2092147</v>
+        <v>2104203</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25150,10 +25150,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1564</v>
+        <v>1576</v>
       </c>
       <c r="D517" t="n">
-        <v>2253669</v>
+        <v>2271669</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>3362</v>
+        <v>3372</v>
       </c>
       <c r="D518" t="n">
-        <v>4916812</v>
+        <v>4931812</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="D519" t="n">
-        <v>1705535</v>
+        <v>1714535</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1433</v>
+        <v>1443</v>
       </c>
       <c r="D522" t="n">
-        <v>1938975</v>
+        <v>1951407</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>3611</v>
+        <v>3639</v>
       </c>
       <c r="D523" t="n">
-        <v>5196231</v>
+        <v>5236999</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>8983</v>
+        <v>9029</v>
       </c>
       <c r="D524" t="n">
-        <v>13134380</v>
+        <v>13202158</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>3029</v>
+        <v>3037</v>
       </c>
       <c r="D525" t="n">
-        <v>4496695</v>
+        <v>4508695</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25582,10 +25582,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="D526" t="n">
-        <v>1241694</v>
+        <v>1247694</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>3540</v>
+        <v>3556</v>
       </c>
       <c r="D530" t="n">
-        <v>4765766</v>
+        <v>4788850</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="D531" t="n">
-        <v>1642451</v>
+        <v>1649577</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>3335</v>
+        <v>3361</v>
       </c>
       <c r="D532" t="n">
-        <v>4864758</v>
+        <v>4899354</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="D533" t="n">
-        <v>1649421</v>
+        <v>1655421</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="D537" t="n">
-        <v>1625739</v>
+        <v>1635129</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D538" t="n">
-        <v>694783</v>
+        <v>697783</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26206,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="D539" t="n">
-        <v>2521003</v>
+        <v>2524003</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>2703</v>
+        <v>2725</v>
       </c>
       <c r="D545" t="n">
-        <v>3881567</v>
+        <v>3914567</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>4923</v>
+        <v>4957</v>
       </c>
       <c r="D546" t="n">
-        <v>7211723</v>
+        <v>7255879</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>1500</v>
+        <v>1510</v>
       </c>
       <c r="D547" t="n">
-        <v>2231178</v>
+        <v>2244126</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>1807</v>
+        <v>1821</v>
       </c>
       <c r="D551" t="n">
-        <v>2382568</v>
+        <v>2402164</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1710</v>
+        <v>1716</v>
       </c>
       <c r="D552" t="n">
-        <v>2452527</v>
+        <v>2458415</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>3553</v>
+        <v>3579</v>
       </c>
       <c r="D553" t="n">
-        <v>5197217</v>
+        <v>5235879</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="D554" t="n">
-        <v>1557037</v>
+        <v>1564841</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>1906</v>
+        <v>1928</v>
       </c>
       <c r="D558" t="n">
-        <v>2539113</v>
+        <v>2558313</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>4294</v>
+        <v>4312</v>
       </c>
       <c r="D559" t="n">
-        <v>6210595</v>
+        <v>6237595</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>10011</v>
+        <v>10071</v>
       </c>
       <c r="D560" t="n">
-        <v>14643099</v>
+        <v>14729217</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>2810</v>
+        <v>2822</v>
       </c>
       <c r="D561" t="n">
-        <v>4168877</v>
+        <v>4186877</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D562" t="n">
-        <v>976476</v>
+        <v>979476</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>3909</v>
+        <v>3929</v>
       </c>
       <c r="D564" t="n">
-        <v>5195265</v>
+        <v>5215309</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="D565" t="n">
-        <v>1416866</v>
+        <v>1422866</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2223</v>
+        <v>2231</v>
       </c>
       <c r="D566" t="n">
-        <v>3238288</v>
+        <v>3250288</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D567" t="n">
-        <v>989195</v>
+        <v>992195</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="D570" t="n">
-        <v>1565901</v>
+        <v>1571901</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>6015</v>
+        <v>6071</v>
       </c>
       <c r="D571" t="n">
-        <v>8699790</v>
+        <v>8779270</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>14526</v>
+        <v>14626</v>
       </c>
       <c r="D572" t="n">
-        <v>21307848</v>
+        <v>21450300</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>5126</v>
+        <v>5148</v>
       </c>
       <c r="D573" t="n">
-        <v>7618591</v>
+        <v>7651591</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27886,10 +27886,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="D574" t="n">
-        <v>2335868</v>
+        <v>2341020</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>5887</v>
+        <v>5929</v>
       </c>
       <c r="D578" t="n">
-        <v>7882203</v>
+        <v>7936317</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>1383</v>
+        <v>1401</v>
       </c>
       <c r="D579" t="n">
-        <v>1955464</v>
+        <v>1979682</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>3114</v>
+        <v>3150</v>
       </c>
       <c r="D580" t="n">
-        <v>4515032</v>
+        <v>4568032</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28222,10 +28222,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1031</v>
+        <v>1045</v>
       </c>
       <c r="D581" t="n">
-        <v>1527508</v>
+        <v>1548508</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D582" t="n">
-        <v>382422</v>
+        <v>391422</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="D584" t="n">
-        <v>2309008</v>
+        <v>2338408</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>8317</v>
+        <v>8375</v>
       </c>
       <c r="D585" t="n">
-        <v>12065698</v>
+        <v>12146512</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>17703</v>
+        <v>17785</v>
       </c>
       <c r="D586" t="n">
-        <v>25950384</v>
+        <v>26072764</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28510,10 +28510,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>5338</v>
+        <v>5364</v>
       </c>
       <c r="D587" t="n">
-        <v>7940644</v>
+        <v>7979644</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="D588" t="n">
-        <v>2029236</v>
+        <v>2035236</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>5800</v>
+        <v>5838</v>
       </c>
       <c r="D591" t="n">
-        <v>7758978</v>
+        <v>7803492</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1257</v>
+        <v>1267</v>
       </c>
       <c r="D592" t="n">
-        <v>1809774</v>
+        <v>1822262</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>2227</v>
+        <v>2237</v>
       </c>
       <c r="D593" t="n">
-        <v>3262815</v>
+        <v>3277815</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D594" t="n">
-        <v>945203</v>
+        <v>948203</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D596" t="n">
-        <v>21298</v>
+        <v>24298</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="D598" t="n">
-        <v>1549844</v>
+        <v>1559636</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D599" t="n">
-        <v>980415</v>
+        <v>983415</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29134,10 +29134,10 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="D600" t="n">
-        <v>1496996</v>
+        <v>1505142</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D601" t="n">
-        <v>445981</v>
+        <v>448981</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="D604" t="n">
-        <v>960450</v>
+        <v>1001722</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29374,10 +29374,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>3890</v>
+        <v>3928</v>
       </c>
       <c r="D605" t="n">
-        <v>5642862</v>
+        <v>5698166</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>6456</v>
+        <v>6486</v>
       </c>
       <c r="D606" t="n">
-        <v>9405740</v>
+        <v>9448936</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="D607" t="n">
-        <v>2975588</v>
+        <v>2984588</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D608" t="n">
-        <v>809592</v>
+        <v>815592</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>2520</v>
+        <v>2548</v>
       </c>
       <c r="D611" t="n">
-        <v>3354750</v>
+        <v>3392480</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>1627</v>
+        <v>1641</v>
       </c>
       <c r="D612" t="n">
-        <v>2354645</v>
+        <v>2375645</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>4038</v>
+        <v>4064</v>
       </c>
       <c r="D613" t="n">
-        <v>5929662</v>
+        <v>5968662</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1211</v>
+        <v>1225</v>
       </c>
       <c r="D614" t="n">
-        <v>1788911</v>
+        <v>1809911</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D615" t="n">
-        <v>430818</v>
+        <v>433818</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="D617" t="n">
-        <v>2275509</v>
+        <v>2286259</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1098</v>
+        <v>1108</v>
       </c>
       <c r="D618" t="n">
-        <v>1582014</v>
+        <v>1597014</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30046,10 +30046,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="D619" t="n">
-        <v>3832475</v>
+        <v>3847475</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="D620" t="n">
-        <v>1175034</v>
+        <v>1196034</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D622" t="n">
-        <v>54000</v>
+        <v>57000</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="D624" t="n">
-        <v>1570197</v>
+        <v>1579197</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>5046</v>
+        <v>5094</v>
       </c>
       <c r="D625" t="n">
-        <v>7316584</v>
+        <v>7388584</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30382,10 +30382,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>12048</v>
+        <v>12098</v>
       </c>
       <c r="D626" t="n">
-        <v>17736589</v>
+        <v>17808887</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30430,10 +30430,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>4534</v>
+        <v>4548</v>
       </c>
       <c r="D627" t="n">
-        <v>6730186</v>
+        <v>6751186</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -30478,10 +30478,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>1204</v>
+        <v>1212</v>
       </c>
       <c r="D628" t="n">
-        <v>1797357</v>
+        <v>1809357</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30526,10 +30526,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D629" t="n">
-        <v>313762</v>
+        <v>316762</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>4113</v>
+        <v>4129</v>
       </c>
       <c r="D631" t="n">
-        <v>5507014</v>
+        <v>5524562</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="D632" t="n">
-        <v>3204126</v>
+        <v>3209648</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>6760</v>
+        <v>6798</v>
       </c>
       <c r="D633" t="n">
-        <v>9941299</v>
+        <v>9997859</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>2242</v>
+        <v>2254</v>
       </c>
       <c r="D634" t="n">
-        <v>3328550</v>
+        <v>3346550</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30814,10 +30814,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D635" t="n">
-        <v>905060</v>
+        <v>911060</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D636" t="n">
-        <v>145774</v>
+        <v>151774</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>2208</v>
+        <v>2216</v>
       </c>
       <c r="D639" t="n">
-        <v>2988976</v>
+        <v>2996730</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="D640" t="n">
-        <v>1308513</v>
+        <v>1314513</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31102,10 +31102,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>2411</v>
+        <v>2423</v>
       </c>
       <c r="D641" t="n">
-        <v>3531038</v>
+        <v>3549038</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31342,10 +31342,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="D646" t="n">
-        <v>1079627</v>
+        <v>1088627</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31390,10 +31390,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>1499</v>
+        <v>1507</v>
       </c>
       <c r="D647" t="n">
-        <v>2161034</v>
+        <v>2173028</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -31438,10 +31438,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>4028</v>
+        <v>4050</v>
       </c>
       <c r="D648" t="n">
-        <v>5923449</v>
+        <v>5956449</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31486,10 +31486,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="D649" t="n">
-        <v>2013344</v>
+        <v>2019344</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D650" t="n">
-        <v>503163</v>
+        <v>509163</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>1340</v>
+        <v>1350</v>
       </c>
       <c r="D653" t="n">
-        <v>1746701</v>
+        <v>1758107</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>3156</v>
+        <v>3168</v>
       </c>
       <c r="D654" t="n">
-        <v>4585363</v>
+        <v>4602243</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>6271</v>
+        <v>6293</v>
       </c>
       <c r="D655" t="n">
-        <v>9183147</v>
+        <v>9216147</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31822,10 +31822,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>2303</v>
+        <v>2317</v>
       </c>
       <c r="D656" t="n">
-        <v>3428689</v>
+        <v>3449689</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -31870,10 +31870,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D657" t="n">
-        <v>771039</v>
+        <v>774039</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>2006</v>
+        <v>2028</v>
       </c>
       <c r="D661" t="n">
-        <v>2687859</v>
+        <v>2711275</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>1495</v>
+        <v>1515</v>
       </c>
       <c r="D662" t="n">
-        <v>2158890</v>
+        <v>2187390</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>2772</v>
+        <v>2792</v>
       </c>
       <c r="D663" t="n">
-        <v>4049426</v>
+        <v>4072880</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>1182</v>
+        <v>1192</v>
       </c>
       <c r="D668" t="n">
-        <v>1566701</v>
+        <v>1579681</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>8295</v>
+        <v>8377</v>
       </c>
       <c r="D669" t="n">
-        <v>12020983</v>
+        <v>12135887</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>19921</v>
+        <v>20057</v>
       </c>
       <c r="D670" t="n">
-        <v>29247031</v>
+        <v>29439911</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32542,10 +32542,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>5973</v>
+        <v>6001</v>
       </c>
       <c r="D671" t="n">
-        <v>8886055</v>
+        <v>8928055</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>1710</v>
+        <v>1724</v>
       </c>
       <c r="D672" t="n">
-        <v>2553374</v>
+        <v>2574374</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>7212</v>
+        <v>7276</v>
       </c>
       <c r="D675" t="n">
-        <v>9823821</v>
+        <v>9905239</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>10186</v>
+        <v>10262</v>
       </c>
       <c r="D676" t="n">
-        <v>14798479</v>
+        <v>14905189</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32830,10 +32830,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>27397</v>
+        <v>27563</v>
       </c>
       <c r="D677" t="n">
-        <v>40242748</v>
+        <v>40488958</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>8665</v>
+        <v>8701</v>
       </c>
       <c r="D678" t="n">
-        <v>12907237</v>
+        <v>12961237</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32926,10 +32926,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>2325</v>
+        <v>2337</v>
       </c>
       <c r="D679" t="n">
-        <v>3469779</v>
+        <v>3487779</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>9140</v>
+        <v>9188</v>
       </c>
       <c r="D683" t="n">
-        <v>12379988</v>
+        <v>12429478</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="D684" t="n">
-        <v>1806439</v>
+        <v>1812439</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>2630</v>
+        <v>2650</v>
       </c>
       <c r="D685" t="n">
-        <v>3840503</v>
+        <v>3870503</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33262,10 +33262,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="D686" t="n">
-        <v>1478038</v>
+        <v>1484038</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D688" t="n">
-        <v>127528</v>
+        <v>134714</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>1962</v>
+        <v>1978</v>
       </c>
       <c r="D690" t="n">
-        <v>2709778</v>
+        <v>2729374</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>8766</v>
+        <v>8828</v>
       </c>
       <c r="D691" t="n">
-        <v>12566716</v>
+        <v>12658104</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33550,10 +33550,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>16577</v>
+        <v>16649</v>
       </c>
       <c r="D692" t="n">
-        <v>24193105</v>
+        <v>24294449</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>4607</v>
+        <v>4627</v>
       </c>
       <c r="D693" t="n">
-        <v>6843975</v>
+        <v>6873975</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33646,10 +33646,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D694" t="n">
-        <v>1647376</v>
+        <v>1650376</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>5533</v>
+        <v>5571</v>
       </c>
       <c r="D698" t="n">
-        <v>7487305</v>
+        <v>7530661</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>3676</v>
+        <v>3700</v>
       </c>
       <c r="D699" t="n">
-        <v>5310124</v>
+        <v>5343126</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>9295</v>
+        <v>9337</v>
       </c>
       <c r="D700" t="n">
-        <v>13626979</v>
+        <v>13686189</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -33982,10 +33982,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>2559</v>
+        <v>2571</v>
       </c>
       <c r="D701" t="n">
-        <v>3802063</v>
+        <v>3818503</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D702" t="n">
-        <v>835251</v>
+        <v>844251</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3099</v>
+        <v>3111</v>
       </c>
       <c r="D705" t="n">
-        <v>4092427</v>
+        <v>4108779</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,10 +498,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D2" t="n">
-        <v>1806548</v>
+        <v>1803548</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +546,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5608</v>
+        <v>5592</v>
       </c>
       <c r="D3" t="n">
-        <v>8239266</v>
+        <v>8216581</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +594,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D4" t="n">
-        <v>2957032</v>
+        <v>2955532</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -622,10 +690,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" t="n">
-        <v>150444</v>
+        <v>148944</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +786,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D8" t="n">
-        <v>785287</v>
+        <v>776755</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +834,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="D9" t="n">
-        <v>1667055</v>
+        <v>1661715</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -814,10 +882,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3470</v>
+        <v>3462</v>
       </c>
       <c r="D10" t="n">
-        <v>5073487</v>
+        <v>5061899</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -862,10 +930,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D11" t="n">
-        <v>1330564</v>
+        <v>1329064</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1006,10 +1074,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1841</v>
+        <v>1829</v>
       </c>
       <c r="D14" t="n">
-        <v>2417200</v>
+        <v>2400927</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1054,10 +1122,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2480</v>
+        <v>2469</v>
       </c>
       <c r="D15" t="n">
-        <v>3588529</v>
+        <v>3572429</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1170,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4090</v>
+        <v>4081</v>
       </c>
       <c r="D16" t="n">
-        <v>5977375</v>
+        <v>5964666</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1150,10 +1218,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D17" t="n">
-        <v>1672827</v>
+        <v>1669827</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1342,10 +1410,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="D21" t="n">
-        <v>2298699</v>
+        <v>2294199</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1438,10 +1506,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="D23" t="n">
-        <v>2741791</v>
+        <v>2735856</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1486,10 +1554,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D24" t="n">
-        <v>752738</v>
+        <v>751238</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1678,10 +1746,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="D28" t="n">
-        <v>2708160</v>
+        <v>2701001</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1794,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3095</v>
+        <v>3083</v>
       </c>
       <c r="D29" t="n">
-        <v>4475082</v>
+        <v>4457647</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1842,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6273</v>
+        <v>6257</v>
       </c>
       <c r="D30" t="n">
-        <v>9191801</v>
+        <v>9170381</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1890,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="D31" t="n">
-        <v>2877749</v>
+        <v>2871469</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1938,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D32" t="n">
-        <v>707904</v>
+        <v>704904</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1918,10 +1986,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" t="n">
-        <v>156373</v>
+        <v>153373</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2014,10 +2082,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2435</v>
+        <v>2427</v>
       </c>
       <c r="D35" t="n">
-        <v>3128365</v>
+        <v>3117265</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2062,10 +2130,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D36" t="n">
-        <v>1723274</v>
+        <v>1720634</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2178,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2724</v>
+        <v>2720</v>
       </c>
       <c r="D37" t="n">
-        <v>3968366</v>
+        <v>3962366</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2158,10 +2226,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D38" t="n">
-        <v>1132817</v>
+        <v>1129817</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2350,10 +2418,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D42" t="n">
-        <v>1771552</v>
+        <v>1771181</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2398,10 +2466,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3839</v>
+        <v>3828</v>
       </c>
       <c r="D43" t="n">
-        <v>5585796</v>
+        <v>5569456</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2446,10 +2514,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8654</v>
+        <v>8633</v>
       </c>
       <c r="D44" t="n">
-        <v>12698467</v>
+        <v>12669119</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2494,10 +2562,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3533</v>
+        <v>3524</v>
       </c>
       <c r="D45" t="n">
-        <v>5229618</v>
+        <v>5216118</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2542,10 +2610,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D46" t="n">
-        <v>1640785</v>
+        <v>1636285</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2590,10 +2658,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D47" t="n">
-        <v>463537</v>
+        <v>457537</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2638,10 +2706,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
-        <v>44410</v>
+        <v>42910</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2686,10 +2754,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4859</v>
+        <v>4834</v>
       </c>
       <c r="D49" t="n">
-        <v>6654470</v>
+        <v>6619724</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2734,10 +2802,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5682</v>
+        <v>5660</v>
       </c>
       <c r="D50" t="n">
-        <v>8229885</v>
+        <v>8197642</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2850,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>13299</v>
+        <v>13263</v>
       </c>
       <c r="D51" t="n">
-        <v>19563507</v>
+        <v>19510116</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2898,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4516</v>
+        <v>4504</v>
       </c>
       <c r="D52" t="n">
-        <v>6695323</v>
+        <v>6677323</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2946,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D53" t="n">
-        <v>1795695</v>
+        <v>1792695</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2926,10 +2994,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D54" t="n">
-        <v>371366</v>
+        <v>369866</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3070,10 +3138,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5492</v>
+        <v>5463</v>
       </c>
       <c r="D57" t="n">
-        <v>7526952</v>
+        <v>7490491</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3118,10 +3186,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3096</v>
+        <v>3086</v>
       </c>
       <c r="D58" t="n">
-        <v>4468456</v>
+        <v>4455792</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3234,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7635</v>
+        <v>7620</v>
       </c>
       <c r="D59" t="n">
-        <v>11202165</v>
+        <v>11179665</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3282,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="D60" t="n">
-        <v>3570580</v>
+        <v>3566080</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3330,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D61" t="n">
-        <v>922201</v>
+        <v>919201</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3310,10 +3378,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D62" t="n">
-        <v>223717</v>
+        <v>222739</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3406,10 +3474,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3281</v>
+        <v>3271</v>
       </c>
       <c r="D64" t="n">
-        <v>4288486</v>
+        <v>4275715</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3454,10 +3522,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2598</v>
+        <v>2591</v>
       </c>
       <c r="D65" t="n">
-        <v>3736806</v>
+        <v>3726306</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3570,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6874</v>
+        <v>6846</v>
       </c>
       <c r="D66" t="n">
-        <v>10059476</v>
+        <v>10017476</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3618,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2321</v>
+        <v>2314</v>
       </c>
       <c r="D67" t="n">
-        <v>3435853</v>
+        <v>3425353</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3598,10 +3666,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D68" t="n">
-        <v>950198</v>
+        <v>948698</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3646,10 +3714,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D69" t="n">
-        <v>159986</v>
+        <v>158486</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3742,10 +3810,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2920</v>
+        <v>2911</v>
       </c>
       <c r="D71" t="n">
-        <v>3866932</v>
+        <v>3854875</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3790,10 +3858,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8808</v>
+        <v>8776</v>
       </c>
       <c r="D72" t="n">
-        <v>12788242</v>
+        <v>12741784</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3906,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>21851</v>
+        <v>21794</v>
       </c>
       <c r="D73" t="n">
-        <v>32120632</v>
+        <v>32038155</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3954,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7556</v>
+        <v>7528</v>
       </c>
       <c r="D74" t="n">
-        <v>11222782</v>
+        <v>11182247</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3934,10 +4002,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="D75" t="n">
-        <v>3116743</v>
+        <v>3110743</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3982,10 +4050,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D76" t="n">
-        <v>621983</v>
+        <v>617483</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4174,10 +4242,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7261</v>
+        <v>7223</v>
       </c>
       <c r="D80" t="n">
-        <v>10000041</v>
+        <v>9948610</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4222,10 +4290,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="D81" t="n">
-        <v>3858195</v>
+        <v>3843903</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4270,10 +4338,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6212</v>
+        <v>6200</v>
       </c>
       <c r="D82" t="n">
-        <v>9106749</v>
+        <v>9090875</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4386,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2768</v>
+        <v>2760</v>
       </c>
       <c r="D83" t="n">
-        <v>4101965</v>
+        <v>4089965</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4434,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D84" t="n">
-        <v>1456198</v>
+        <v>1451698</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4482,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D85" t="n">
-        <v>423275</v>
+        <v>421775</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4510,10 +4578,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6281</v>
+        <v>6259</v>
       </c>
       <c r="D87" t="n">
-        <v>8837162</v>
+        <v>8809363</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4558,10 +4626,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="D88" t="n">
-        <v>2713553</v>
+        <v>2708625</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4606,10 +4674,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4796</v>
+        <v>4785</v>
       </c>
       <c r="D89" t="n">
-        <v>7047682</v>
+        <v>7031227</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4654,10 +4722,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="D90" t="n">
-        <v>2521099</v>
+        <v>2514950</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4702,10 +4770,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D91" t="n">
-        <v>695009</v>
+        <v>693509</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4818,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D92" t="n">
-        <v>120675</v>
+        <v>119175</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4846,10 +4914,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1931</v>
+        <v>1921</v>
       </c>
       <c r="D94" t="n">
-        <v>2543535</v>
+        <v>2530491</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4894,10 +4962,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="D95" t="n">
-        <v>2387618</v>
+        <v>2380118</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4942,10 +5010,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4435</v>
+        <v>4421</v>
       </c>
       <c r="D96" t="n">
-        <v>6511482</v>
+        <v>6491349</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4990,10 +5058,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="D97" t="n">
-        <v>2253277</v>
+        <v>2247277</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5038,10 +5106,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D98" t="n">
-        <v>654518</v>
+        <v>650018</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5086,10 +5154,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D99" t="n">
-        <v>152399</v>
+        <v>147899</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5230,10 +5298,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="D102" t="n">
-        <v>2040743</v>
+        <v>2034580</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5278,10 +5346,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D103" t="n">
-        <v>983902</v>
+        <v>982402</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5394,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="D104" t="n">
-        <v>2528380</v>
+        <v>2523880</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5518,10 +5586,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D108" t="n">
-        <v>1086968</v>
+        <v>1082522</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5634,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D109" t="n">
-        <v>1545306</v>
+        <v>1543806</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5614,10 +5682,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2628</v>
+        <v>2622</v>
       </c>
       <c r="D110" t="n">
-        <v>3852501</v>
+        <v>3843501</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5854,10 +5922,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D115" t="n">
-        <v>1234970</v>
+        <v>1230470</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5902,10 +5970,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D116" t="n">
-        <v>1016748</v>
+        <v>1013748</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5950,10 +6018,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1888</v>
+        <v>1881</v>
       </c>
       <c r="D117" t="n">
-        <v>2753450</v>
+        <v>2742950</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5998,10 +6066,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D118" t="n">
-        <v>870765</v>
+        <v>864765</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6142,10 +6210,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D121" t="n">
-        <v>1125601</v>
+        <v>1123768</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6258,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1918</v>
+        <v>1911</v>
       </c>
       <c r="D122" t="n">
-        <v>2773308</v>
+        <v>2763118</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6306,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5615</v>
+        <v>5605</v>
       </c>
       <c r="D123" t="n">
-        <v>8230990</v>
+        <v>8217301</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6354,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D124" t="n">
-        <v>2521284</v>
+        <v>2518284</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6430,10 +6498,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="D127" t="n">
-        <v>3184221</v>
+        <v>3181221</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6478,10 +6546,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D128" t="n">
-        <v>579472</v>
+        <v>577896</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6526,10 +6594,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="D129" t="n">
-        <v>1619363</v>
+        <v>1612199</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6642,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D130" t="n">
-        <v>603552</v>
+        <v>602052</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6766,10 +6834,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D134" t="n">
-        <v>1552346</v>
+        <v>1547846</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6814,10 +6882,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3189</v>
+        <v>3183</v>
       </c>
       <c r="D135" t="n">
-        <v>4685226</v>
+        <v>4676226</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6862,10 +6930,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D136" t="n">
-        <v>1364093</v>
+        <v>1358093</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6910,10 +6978,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D137" t="n">
-        <v>382564</v>
+        <v>379564</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7054,10 +7122,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D140" t="n">
-        <v>1452455</v>
+        <v>1446559</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7170,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2589</v>
+        <v>2582</v>
       </c>
       <c r="D141" t="n">
-        <v>3746564</v>
+        <v>3736122</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7150,10 +7218,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5947</v>
+        <v>5932</v>
       </c>
       <c r="D142" t="n">
-        <v>8708636</v>
+        <v>8686828</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7198,10 +7266,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D143" t="n">
-        <v>2448930</v>
+        <v>2447430</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7390,10 +7458,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2315</v>
+        <v>2308</v>
       </c>
       <c r="D147" t="n">
-        <v>3043933</v>
+        <v>3034843</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7438,10 +7506,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3547</v>
+        <v>3532</v>
       </c>
       <c r="D148" t="n">
-        <v>5113430</v>
+        <v>5093340</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7486,10 +7554,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>8100</v>
+        <v>8071</v>
       </c>
       <c r="D149" t="n">
-        <v>11860472</v>
+        <v>11822013</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7534,10 +7602,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2834</v>
+        <v>2824</v>
       </c>
       <c r="D150" t="n">
-        <v>4206163</v>
+        <v>4191397</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7582,10 +7650,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D151" t="n">
-        <v>1013826</v>
+        <v>1009326</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7630,10 +7698,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D152" t="n">
-        <v>222008</v>
+        <v>219261</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7726,10 +7794,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3073</v>
+        <v>3065</v>
       </c>
       <c r="D154" t="n">
-        <v>4105917</v>
+        <v>4096301</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7842,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3318</v>
+        <v>3309</v>
       </c>
       <c r="D155" t="n">
-        <v>4809917</v>
+        <v>4797160</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7822,10 +7890,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>9276</v>
+        <v>9254</v>
       </c>
       <c r="D156" t="n">
-        <v>13688382</v>
+        <v>13656682</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7938,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3055</v>
+        <v>3048</v>
       </c>
       <c r="D157" t="n">
-        <v>4549105</v>
+        <v>4538605</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7986,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D158" t="n">
-        <v>1345475</v>
+        <v>1343975</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -7966,10 +8034,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D159" t="n">
-        <v>278674</v>
+        <v>277174</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8014,10 +8082,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D160" t="n">
-        <v>13101</v>
+        <v>11601</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8062,10 +8130,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3094</v>
+        <v>3080</v>
       </c>
       <c r="D161" t="n">
-        <v>4179876</v>
+        <v>4162178</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8178,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3636</v>
+        <v>3626</v>
       </c>
       <c r="D162" t="n">
-        <v>5236933</v>
+        <v>5222744</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8226,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7727</v>
+        <v>7715</v>
       </c>
       <c r="D163" t="n">
-        <v>11334300</v>
+        <v>11316300</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8274,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2517</v>
+        <v>2512</v>
       </c>
       <c r="D164" t="n">
-        <v>3746299</v>
+        <v>3738799</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8398,10 +8466,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2913</v>
+        <v>2900</v>
       </c>
       <c r="D168" t="n">
-        <v>3919340</v>
+        <v>3902351</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8514,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D169" t="n">
-        <v>1185739</v>
+        <v>1179739</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8494,10 +8562,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2472</v>
+        <v>2458</v>
       </c>
       <c r="D170" t="n">
-        <v>3620126</v>
+        <v>3599253</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8542,10 +8610,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D171" t="n">
-        <v>1218681</v>
+        <v>1208181</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8590,10 +8658,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D172" t="n">
-        <v>352500</v>
+        <v>351000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8734,10 +8802,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="D175" t="n">
-        <v>1527728</v>
+        <v>1518870</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8782,10 +8850,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D176" t="n">
-        <v>1612481</v>
+        <v>1607981</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -8830,10 +8898,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3435</v>
+        <v>3427</v>
       </c>
       <c r="D177" t="n">
-        <v>5063953</v>
+        <v>5052803</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -8878,10 +8946,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D178" t="n">
-        <v>1700307</v>
+        <v>1698807</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8926,10 +8994,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D179" t="n">
-        <v>434420</v>
+        <v>431420</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8974,10 +9042,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D180" t="n">
-        <v>54000</v>
+        <v>49500</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9070,10 +9138,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D182" t="n">
-        <v>1463244</v>
+        <v>1458744</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9166,10 +9234,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="D184" t="n">
-        <v>2728030</v>
+        <v>2726257</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9358,10 +9426,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D188" t="n">
-        <v>1046878</v>
+        <v>1038386</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9406,10 +9474,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2142</v>
+        <v>2131</v>
       </c>
       <c r="D189" t="n">
-        <v>3076428</v>
+        <v>3061908</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9454,10 +9522,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>5630</v>
+        <v>5610</v>
       </c>
       <c r="D190" t="n">
-        <v>8246840</v>
+        <v>8217116</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9502,10 +9570,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="D191" t="n">
-        <v>2917404</v>
+        <v>2914404</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9550,10 +9618,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D192" t="n">
-        <v>780524</v>
+        <v>774524</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9694,10 +9762,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2077</v>
+        <v>2066</v>
       </c>
       <c r="D195" t="n">
-        <v>2792170</v>
+        <v>2779235</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9810,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="D196" t="n">
-        <v>2656184</v>
+        <v>2648683</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9790,10 +9858,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5524</v>
+        <v>5504</v>
       </c>
       <c r="D197" t="n">
-        <v>8127745</v>
+        <v>8097870</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9838,10 +9906,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="D198" t="n">
-        <v>3022403</v>
+        <v>3019112</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9954,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D199" t="n">
-        <v>714375</v>
+        <v>709875</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9934,10 +10002,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D200" t="n">
-        <v>126000</v>
+        <v>124500</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -10030,10 +10098,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1855</v>
+        <v>1844</v>
       </c>
       <c r="D202" t="n">
-        <v>2425957</v>
+        <v>2416744</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10126,10 +10194,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3112</v>
+        <v>3104</v>
       </c>
       <c r="D204" t="n">
-        <v>4575714</v>
+        <v>4563714</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10174,10 +10242,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D205" t="n">
-        <v>1530162</v>
+        <v>1528662</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10270,10 +10338,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D207" t="n">
-        <v>87000</v>
+        <v>84000</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10366,10 +10434,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D209" t="n">
-        <v>1468781</v>
+        <v>1464871</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10482,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="D210" t="n">
-        <v>1319086</v>
+        <v>1305636</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10530,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3535</v>
+        <v>3523</v>
       </c>
       <c r="D211" t="n">
-        <v>5166979</v>
+        <v>5148979</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10578,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="D212" t="n">
-        <v>2669246</v>
+        <v>2660246</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10606,10 +10674,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D214" t="n">
-        <v>138428</v>
+        <v>136928</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10722,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D215" t="n">
-        <v>948960</v>
+        <v>942366</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10702,10 +10770,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2168</v>
+        <v>2154</v>
       </c>
       <c r="D216" t="n">
-        <v>3136723</v>
+        <v>3115823</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10750,10 +10818,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3950</v>
+        <v>3937</v>
       </c>
       <c r="D217" t="n">
-        <v>5770358</v>
+        <v>5752210</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10798,10 +10866,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="D218" t="n">
-        <v>1802042</v>
+        <v>1796042</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10846,10 +10914,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D219" t="n">
-        <v>459414</v>
+        <v>457914</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10942,10 +11010,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="D221" t="n">
-        <v>2178857</v>
+        <v>2170021</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +11058,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D222" t="n">
-        <v>1027902</v>
+        <v>1024902</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11106,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2209</v>
+        <v>2201</v>
       </c>
       <c r="D223" t="n">
-        <v>3213993</v>
+        <v>3201993</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11230,10 +11298,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D227" t="n">
-        <v>1192737</v>
+        <v>1190237</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11346,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D228" t="n">
-        <v>1331255</v>
+        <v>1329755</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11326,10 +11394,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="D229" t="n">
-        <v>3781836</v>
+        <v>3770510</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11374,10 +11442,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D230" t="n">
-        <v>1208940</v>
+        <v>1205940</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11422,10 +11490,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D231" t="n">
-        <v>327056</v>
+        <v>325556</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11518,10 +11586,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D233" t="n">
-        <v>1214536</v>
+        <v>1212399</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11634,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3825</v>
+        <v>3809</v>
       </c>
       <c r="D234" t="n">
-        <v>5536506</v>
+        <v>5512648</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11682,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>12051</v>
+        <v>12028</v>
       </c>
       <c r="D235" t="n">
-        <v>17687353</v>
+        <v>17653950</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11662,10 +11730,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4679</v>
+        <v>4670</v>
       </c>
       <c r="D236" t="n">
-        <v>6944515</v>
+        <v>6931192</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11710,10 +11778,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D237" t="n">
-        <v>2121886</v>
+        <v>2119931</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -11854,10 +11922,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3313</v>
+        <v>3303</v>
       </c>
       <c r="D240" t="n">
-        <v>4500894</v>
+        <v>4487415</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11950,10 +12018,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D242" t="n">
-        <v>1973855</v>
+        <v>1972355</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -12190,10 +12258,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D247" t="n">
-        <v>739953</v>
+        <v>735698</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12238,10 +12306,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="D248" t="n">
-        <v>3769623</v>
+        <v>3754623</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12286,10 +12354,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>7697</v>
+        <v>7679</v>
       </c>
       <c r="D249" t="n">
-        <v>11297013</v>
+        <v>11271139</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12334,10 +12402,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="D250" t="n">
-        <v>4637333</v>
+        <v>4631333</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12382,10 +12450,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D251" t="n">
-        <v>1259072</v>
+        <v>1257572</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12430,10 +12498,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D252" t="n">
-        <v>307230</v>
+        <v>305730</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12622,10 +12690,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="D256" t="n">
-        <v>2632819</v>
+        <v>2626441</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12738,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="D257" t="n">
-        <v>2527975</v>
+        <v>2521975</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12718,10 +12786,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4832</v>
+        <v>4829</v>
       </c>
       <c r="D258" t="n">
-        <v>7113643</v>
+        <v>7109243</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12766,10 +12834,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D259" t="n">
-        <v>2621810</v>
+        <v>2617310</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12814,10 +12882,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D260" t="n">
-        <v>785539</v>
+        <v>784039</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12958,10 +13026,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="D263" t="n">
-        <v>2461698</v>
+        <v>2454992</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13006,10 +13074,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1810</v>
+        <v>1798</v>
       </c>
       <c r="D264" t="n">
-        <v>2649116</v>
+        <v>2631116</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13054,10 +13122,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>5448</v>
+        <v>5426</v>
       </c>
       <c r="D265" t="n">
-        <v>8012764</v>
+        <v>7979764</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13102,10 +13170,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1894</v>
+        <v>1887</v>
       </c>
       <c r="D266" t="n">
-        <v>2811966</v>
+        <v>2801466</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -13294,10 +13362,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D270" t="n">
-        <v>2881060</v>
+        <v>2866423</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13342,10 +13410,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D271" t="n">
-        <v>709432</v>
+        <v>706432</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13390,10 +13458,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="D272" t="n">
-        <v>2015504</v>
+        <v>2011489</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -13438,10 +13506,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D273" t="n">
-        <v>632585</v>
+        <v>631085</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13486,10 +13554,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D274" t="n">
-        <v>178290</v>
+        <v>176790</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13534,10 +13602,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D275" t="n">
-        <v>43500</v>
+        <v>42000</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13582,10 +13650,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D276" t="n">
-        <v>764671</v>
+        <v>760791</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13698,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="D277" t="n">
-        <v>3737391</v>
+        <v>3731391</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13746,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>8403</v>
+        <v>8388</v>
       </c>
       <c r="D278" t="n">
-        <v>12318697</v>
+        <v>12296197</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13726,10 +13794,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3472</v>
+        <v>3469</v>
       </c>
       <c r="D279" t="n">
-        <v>5164444</v>
+        <v>5159944</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13774,10 +13842,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D280" t="n">
-        <v>1604659</v>
+        <v>1601659</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13822,10 +13890,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D281" t="n">
-        <v>226656</v>
+        <v>225156</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13918,10 +13986,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="D283" t="n">
-        <v>3120000</v>
+        <v>3114847</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13966,10 +14034,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="D284" t="n">
-        <v>2254018</v>
+        <v>2248018</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14014,10 +14082,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3873</v>
+        <v>3864</v>
       </c>
       <c r="D285" t="n">
-        <v>5689807</v>
+        <v>5677188</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14062,10 +14130,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D286" t="n">
-        <v>1879830</v>
+        <v>1878330</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14110,10 +14178,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D287" t="n">
-        <v>561032</v>
+        <v>559532</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14254,10 +14322,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="D290" t="n">
-        <v>2135106</v>
+        <v>2123382</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14370,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1889</v>
+        <v>1864</v>
       </c>
       <c r="D291" t="n">
-        <v>2740705</v>
+        <v>2705440</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14418,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>6511</v>
+        <v>6450</v>
       </c>
       <c r="D292" t="n">
-        <v>9577473</v>
+        <v>9489228</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14466,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2253</v>
+        <v>2232</v>
       </c>
       <c r="D293" t="n">
-        <v>3364690</v>
+        <v>3333324</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14514,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="D294" t="n">
-        <v>1096305</v>
+        <v>1084305</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14494,10 +14562,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D295" t="n">
-        <v>253333</v>
+        <v>251833</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14590,10 +14658,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>6191</v>
+        <v>6102</v>
       </c>
       <c r="D297" t="n">
-        <v>8521785</v>
+        <v>8408761</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14706,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>842</v>
+        <v>810</v>
       </c>
       <c r="D298" t="n">
-        <v>1233743</v>
+        <v>1186584</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14754,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2036</v>
+        <v>2018</v>
       </c>
       <c r="D299" t="n">
-        <v>3021826</v>
+        <v>2994826</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14802,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="D300" t="n">
-        <v>1240337</v>
+        <v>1226145</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14850,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D301" t="n">
-        <v>436258</v>
+        <v>421258</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14830,10 +14898,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D302" t="n">
-        <v>109500</v>
+        <v>103500</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14926,10 +14994,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1209</v>
+        <v>1190</v>
       </c>
       <c r="D304" t="n">
-        <v>1707230</v>
+        <v>1682894</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +15042,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D305" t="n">
-        <v>1641616</v>
+        <v>1638111</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15090,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3506</v>
+        <v>3497</v>
       </c>
       <c r="D306" t="n">
-        <v>5144591</v>
+        <v>5131091</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15138,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D307" t="n">
-        <v>1945040</v>
+        <v>1942040</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15166,10 +15234,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D309" t="n">
-        <v>74937</v>
+        <v>73437</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15262,10 +15330,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="D311" t="n">
-        <v>1852502</v>
+        <v>1849502</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15310,10 +15378,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>6803</v>
+        <v>6773</v>
       </c>
       <c r="D312" t="n">
-        <v>9819008</v>
+        <v>9775401</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15358,10 +15426,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>19174</v>
+        <v>19132</v>
       </c>
       <c r="D313" t="n">
-        <v>28069006</v>
+        <v>28008015</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15474,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>6814</v>
+        <v>6801</v>
       </c>
       <c r="D314" t="n">
-        <v>10142959</v>
+        <v>10123459</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15454,10 +15522,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2076</v>
+        <v>2065</v>
       </c>
       <c r="D315" t="n">
-        <v>3098519</v>
+        <v>3082019</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15570,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D316" t="n">
-        <v>659470</v>
+        <v>653470</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15598,10 +15666,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6051</v>
+        <v>6030</v>
       </c>
       <c r="D318" t="n">
-        <v>7973462</v>
+        <v>7950755</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15714,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2039</v>
+        <v>2031</v>
       </c>
       <c r="D319" t="n">
-        <v>2983620</v>
+        <v>2972651</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15762,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>6339</v>
+        <v>6325</v>
       </c>
       <c r="D320" t="n">
-        <v>9307397</v>
+        <v>9287527</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15810,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2246</v>
+        <v>2237</v>
       </c>
       <c r="D321" t="n">
-        <v>3343629</v>
+        <v>3330129</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15790,10 +15858,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D322" t="n">
-        <v>893699</v>
+        <v>889199</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15838,10 +15906,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D323" t="n">
-        <v>182974</v>
+        <v>181474</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -15934,10 +16002,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1937</v>
+        <v>1928</v>
       </c>
       <c r="D325" t="n">
-        <v>2641380</v>
+        <v>2628197</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -15982,10 +16050,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3507</v>
+        <v>3498</v>
       </c>
       <c r="D326" t="n">
-        <v>5045575</v>
+        <v>5033930</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16030,10 +16098,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>10593</v>
+        <v>10576</v>
       </c>
       <c r="D327" t="n">
-        <v>15487487</v>
+        <v>15462146</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16146,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3446</v>
+        <v>3442</v>
       </c>
       <c r="D328" t="n">
-        <v>5112665</v>
+        <v>5106665</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16174,10 +16242,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D330" t="n">
-        <v>257215</v>
+        <v>255715</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16318,10 +16386,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3715</v>
+        <v>3699</v>
       </c>
       <c r="D333" t="n">
-        <v>4846259</v>
+        <v>4829025</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16366,10 +16434,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="D334" t="n">
-        <v>2151012</v>
+        <v>2146512</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16482,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>4162</v>
+        <v>4149</v>
       </c>
       <c r="D335" t="n">
-        <v>6082295</v>
+        <v>6063320</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16530,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="D336" t="n">
-        <v>2331113</v>
+        <v>2326613</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16578,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D337" t="n">
-        <v>585964</v>
+        <v>584464</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16654,10 +16722,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D340" t="n">
-        <v>2133951</v>
+        <v>2130464</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16702,10 +16770,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3499</v>
+        <v>3478</v>
       </c>
       <c r="D341" t="n">
-        <v>5107149</v>
+        <v>5076042</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16750,10 +16818,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>10084</v>
+        <v>10039</v>
       </c>
       <c r="D342" t="n">
-        <v>14881145</v>
+        <v>14816277</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16866,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3903</v>
+        <v>3886</v>
       </c>
       <c r="D343" t="n">
-        <v>5812699</v>
+        <v>5787199</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16846,10 +16914,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D344" t="n">
-        <v>1710679</v>
+        <v>1706179</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16962,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D345" t="n">
-        <v>305801</v>
+        <v>302801</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -17038,10 +17106,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>3370</v>
+        <v>3346</v>
       </c>
       <c r="D348" t="n">
-        <v>4681451</v>
+        <v>4648637</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -17086,10 +17154,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>6124</v>
+        <v>6096</v>
       </c>
       <c r="D349" t="n">
-        <v>8928606</v>
+        <v>8889348</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17202,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>15068</v>
+        <v>14996</v>
       </c>
       <c r="D350" t="n">
-        <v>22199189</v>
+        <v>22094100</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17250,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>6744</v>
+        <v>6711</v>
       </c>
       <c r="D351" t="n">
-        <v>10059180</v>
+        <v>10009680</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17298,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2037</v>
+        <v>2028</v>
       </c>
       <c r="D352" t="n">
-        <v>3041372</v>
+        <v>3027872</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17346,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D353" t="n">
-        <v>686081</v>
+        <v>674081</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17374,10 +17442,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>5524</v>
+        <v>5479</v>
       </c>
       <c r="D355" t="n">
-        <v>7552512</v>
+        <v>7498048</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17422,10 +17490,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>17936</v>
+        <v>17820</v>
       </c>
       <c r="D356" t="n">
-        <v>26055726</v>
+        <v>25889906</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17470,10 +17538,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>49647</v>
+        <v>49357</v>
       </c>
       <c r="D357" t="n">
-        <v>73204622</v>
+        <v>72777571</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17518,10 +17586,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>23185</v>
+        <v>23053</v>
       </c>
       <c r="D358" t="n">
-        <v>34605651</v>
+        <v>34407821</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17634,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>8297</v>
+        <v>8245</v>
       </c>
       <c r="D359" t="n">
-        <v>12408587</v>
+        <v>12330587</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17614,10 +17682,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="D360" t="n">
-        <v>3022772</v>
+        <v>3001772</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17854,10 +17922,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>17713</v>
+        <v>17592</v>
       </c>
       <c r="D365" t="n">
-        <v>24100983</v>
+        <v>23947501</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -17902,10 +17970,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4211</v>
+        <v>4197</v>
       </c>
       <c r="D366" t="n">
-        <v>6130856</v>
+        <v>6111593</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +18018,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>12000</v>
+        <v>11955</v>
       </c>
       <c r="D367" t="n">
-        <v>17652286</v>
+        <v>17585930</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +18066,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>4531</v>
+        <v>4518</v>
       </c>
       <c r="D368" t="n">
-        <v>6726892</v>
+        <v>6708220</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18114,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="D369" t="n">
-        <v>2090275</v>
+        <v>2078336</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18094,10 +18162,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D370" t="n">
-        <v>391007</v>
+        <v>389507</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18190,10 +18258,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>4242</v>
+        <v>4210</v>
       </c>
       <c r="D372" t="n">
-        <v>5803487</v>
+        <v>5764415</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18306,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>5209</v>
+        <v>5169</v>
       </c>
       <c r="D373" t="n">
-        <v>7583193</v>
+        <v>7526429</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18286,10 +18354,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>18426</v>
+        <v>18305</v>
       </c>
       <c r="D374" t="n">
-        <v>27146935</v>
+        <v>26970724</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18334,10 +18402,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>8611</v>
+        <v>8576</v>
       </c>
       <c r="D375" t="n">
-        <v>12840327</v>
+        <v>12790076</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18450,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2417</v>
+        <v>2405</v>
       </c>
       <c r="D376" t="n">
-        <v>3614306</v>
+        <v>3596306</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18498,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D377" t="n">
-        <v>903095</v>
+        <v>897095</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18526,10 +18594,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>5376</v>
+        <v>5322</v>
       </c>
       <c r="D379" t="n">
-        <v>7273521</v>
+        <v>7206869</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18574,10 +18642,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>4651</v>
+        <v>4612</v>
       </c>
       <c r="D380" t="n">
-        <v>6781844</v>
+        <v>6723432</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18622,10 +18690,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>13468</v>
+        <v>13389</v>
       </c>
       <c r="D381" t="n">
-        <v>19834638</v>
+        <v>19720368</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18670,10 +18738,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>5567</v>
+        <v>5551</v>
       </c>
       <c r="D382" t="n">
-        <v>8293294</v>
+        <v>8269294</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18786,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="D383" t="n">
-        <v>2369122</v>
+        <v>2363122</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18834,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D384" t="n">
-        <v>556606</v>
+        <v>555106</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18862,10 +18930,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4856</v>
+        <v>4810</v>
       </c>
       <c r="D386" t="n">
-        <v>6632929</v>
+        <v>6583424</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18978,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>3535</v>
+        <v>3510</v>
       </c>
       <c r="D387" t="n">
-        <v>5159938</v>
+        <v>5123603</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -18958,10 +19026,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>11199</v>
+        <v>11146</v>
       </c>
       <c r="D388" t="n">
-        <v>16525134</v>
+        <v>16447704</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19006,10 +19074,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4726</v>
+        <v>4708</v>
       </c>
       <c r="D389" t="n">
-        <v>7030808</v>
+        <v>7003808</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19122,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="D390" t="n">
-        <v>2021162</v>
+        <v>2014797</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19170,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D391" t="n">
-        <v>437100</v>
+        <v>435600</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19198,10 +19266,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3788</v>
+        <v>3761</v>
       </c>
       <c r="D393" t="n">
-        <v>5122239</v>
+        <v>5086763</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19246,10 +19314,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>4039</v>
+        <v>4010</v>
       </c>
       <c r="D394" t="n">
-        <v>5887905</v>
+        <v>5844485</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19294,10 +19362,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>10926</v>
+        <v>10885</v>
       </c>
       <c r="D395" t="n">
-        <v>16101362</v>
+        <v>16041516</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19342,10 +19410,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>4213</v>
+        <v>4190</v>
       </c>
       <c r="D396" t="n">
-        <v>6268816</v>
+        <v>6235792</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -19390,10 +19458,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="D397" t="n">
-        <v>1978456</v>
+        <v>1972820</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19506,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D398" t="n">
-        <v>411010</v>
+        <v>406510</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19534,10 +19602,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>4006</v>
+        <v>3984</v>
       </c>
       <c r="D400" t="n">
-        <v>5492688</v>
+        <v>5465876</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19582,10 +19650,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>4415</v>
+        <v>4389</v>
       </c>
       <c r="D401" t="n">
-        <v>6398185</v>
+        <v>6362228</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19630,10 +19698,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>11158</v>
+        <v>11120</v>
       </c>
       <c r="D402" t="n">
-        <v>16398798</v>
+        <v>16342446</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19678,10 +19746,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>3779</v>
+        <v>3772</v>
       </c>
       <c r="D403" t="n">
-        <v>5631915</v>
+        <v>5621415</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19726,10 +19794,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="D404" t="n">
-        <v>1966489</v>
+        <v>1960489</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19918,10 +19986,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>5151</v>
+        <v>5107</v>
       </c>
       <c r="D408" t="n">
-        <v>6933713</v>
+        <v>6878553</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -19966,10 +20034,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="D409" t="n">
-        <v>2161041</v>
+        <v>2149412</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20014,10 +20082,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>4917</v>
+        <v>4885</v>
       </c>
       <c r="D410" t="n">
-        <v>7243114</v>
+        <v>7195584</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20062,10 +20130,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1873</v>
+        <v>1864</v>
       </c>
       <c r="D411" t="n">
-        <v>2790999</v>
+        <v>2777499</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20110,10 +20178,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D412" t="n">
-        <v>988960</v>
+        <v>987460</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20302,10 +20370,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>3338</v>
+        <v>3302</v>
       </c>
       <c r="D416" t="n">
-        <v>4432876</v>
+        <v>4383021</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20418,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D417" t="n">
-        <v>844464</v>
+        <v>842964</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20398,10 +20466,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D418" t="n">
-        <v>487130</v>
+        <v>479630</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20446,10 +20514,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D419" t="n">
-        <v>171000</v>
+        <v>169500</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20590,10 +20658,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3002</v>
+        <v>2996</v>
       </c>
       <c r="D422" t="n">
-        <v>4358086</v>
+        <v>4349086</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20638,10 +20706,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>7245</v>
+        <v>7226</v>
       </c>
       <c r="D423" t="n">
-        <v>10634268</v>
+        <v>10605768</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20686,10 +20754,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2394</v>
+        <v>2387</v>
       </c>
       <c r="D424" t="n">
-        <v>3568494</v>
+        <v>3557994</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20734,10 +20802,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D425" t="n">
-        <v>1040642</v>
+        <v>1037642</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20782,10 +20850,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D426" t="n">
-        <v>205890</v>
+        <v>204390</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20878,10 +20946,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2344</v>
+        <v>2337</v>
       </c>
       <c r="D428" t="n">
-        <v>3129502</v>
+        <v>3120594</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20926,10 +20994,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="D429" t="n">
-        <v>2447612</v>
+        <v>2444612</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -20974,10 +21042,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>4820</v>
+        <v>4809</v>
       </c>
       <c r="D430" t="n">
-        <v>7074925</v>
+        <v>7059174</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21022,10 +21090,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D431" t="n">
-        <v>2356342</v>
+        <v>2354842</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21214,10 +21282,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="D435" t="n">
-        <v>2177949</v>
+        <v>2168441</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21262,10 +21330,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="D436" t="n">
-        <v>2773044</v>
+        <v>2762544</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21310,10 +21378,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>4776</v>
+        <v>4765</v>
       </c>
       <c r="D437" t="n">
-        <v>7015440</v>
+        <v>6999960</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -21358,10 +21426,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="D438" t="n">
-        <v>2250360</v>
+        <v>2244360</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21406,10 +21474,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D439" t="n">
-        <v>632663</v>
+        <v>625163</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21502,10 +21570,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="D441" t="n">
-        <v>2103902</v>
+        <v>2096784</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21550,10 +21618,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D442" t="n">
-        <v>1323390</v>
+        <v>1320390</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21598,10 +21666,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>2618</v>
+        <v>2614</v>
       </c>
       <c r="D443" t="n">
-        <v>3841071</v>
+        <v>3835994</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21646,10 +21714,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D444" t="n">
-        <v>1134567</v>
+        <v>1133067</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21790,10 +21858,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D447" t="n">
-        <v>1416900</v>
+        <v>1412400</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21838,10 +21906,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>2968</v>
+        <v>2958</v>
       </c>
       <c r="D448" t="n">
-        <v>4320758</v>
+        <v>4305758</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -21886,10 +21954,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>9181</v>
+        <v>9161</v>
       </c>
       <c r="D449" t="n">
-        <v>13521642</v>
+        <v>13492990</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21934,10 +22002,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>3334</v>
+        <v>3328</v>
       </c>
       <c r="D450" t="n">
-        <v>4954494</v>
+        <v>4945894</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -21982,10 +22050,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D451" t="n">
-        <v>1359237</v>
+        <v>1354737</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22030,10 +22098,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D452" t="n">
-        <v>290810</v>
+        <v>287810</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22126,10 +22194,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2912</v>
+        <v>2898</v>
       </c>
       <c r="D454" t="n">
-        <v>3812107</v>
+        <v>3794411</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22242,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="D455" t="n">
-        <v>1708759</v>
+        <v>1703579</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22222,10 +22290,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>3192</v>
+        <v>3186</v>
       </c>
       <c r="D456" t="n">
-        <v>4669642</v>
+        <v>4660642</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22270,10 +22338,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D457" t="n">
-        <v>1543744</v>
+        <v>1539244</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22462,10 +22530,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D461" t="n">
-        <v>1688317</v>
+        <v>1685928</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22578,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>4314</v>
+        <v>4300</v>
       </c>
       <c r="D462" t="n">
-        <v>6247435</v>
+        <v>6228346</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22626,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>8089</v>
+        <v>8073</v>
       </c>
       <c r="D463" t="n">
-        <v>11867966</v>
+        <v>11845066</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22606,10 +22674,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="D464" t="n">
-        <v>3530989</v>
+        <v>3524989</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22654,10 +22722,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D465" t="n">
-        <v>901853</v>
+        <v>895853</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22750,10 +22818,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D467" t="n">
-        <v>10856</v>
+        <v>9356</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22798,10 +22866,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>2709</v>
+        <v>2700</v>
       </c>
       <c r="D468" t="n">
-        <v>3619241</v>
+        <v>3610149</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22846,10 +22914,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D469" t="n">
-        <v>1482907</v>
+        <v>1478407</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22894,10 +22962,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="D470" t="n">
-        <v>3746737</v>
+        <v>3743055</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -22942,10 +23010,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D471" t="n">
-        <v>1132355</v>
+        <v>1130855</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -23038,10 +23106,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D473" t="n">
-        <v>49500</v>
+        <v>48000</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23154,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="D474" t="n">
-        <v>1778327</v>
+        <v>1772327</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23134,10 +23202,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D475" t="n">
-        <v>515815</v>
+        <v>514315</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23182,10 +23250,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D476" t="n">
-        <v>1503706</v>
+        <v>1502206</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23278,10 +23346,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D478" t="n">
-        <v>89965</v>
+        <v>88465</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23374,10 +23442,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D480" t="n">
-        <v>753309</v>
+        <v>749217</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23490,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D481" t="n">
-        <v>1320599</v>
+        <v>1316755</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23538,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="D482" t="n">
-        <v>4151651</v>
+        <v>4147151</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23586,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D483" t="n">
-        <v>1425293</v>
+        <v>1423793</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23662,10 +23730,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D486" t="n">
-        <v>1354418</v>
+        <v>1350693</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23710,10 +23778,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>2718</v>
+        <v>2708</v>
       </c>
       <c r="D487" t="n">
-        <v>3890870</v>
+        <v>3878405</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23826,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>5208</v>
+        <v>5201</v>
       </c>
       <c r="D488" t="n">
-        <v>7631148</v>
+        <v>7620648</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23806,10 +23874,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="D489" t="n">
-        <v>2203163</v>
+        <v>2200163</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -23998,10 +24066,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>2336</v>
+        <v>2329</v>
       </c>
       <c r="D493" t="n">
-        <v>3065280</v>
+        <v>3055124</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24114,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>8593</v>
+        <v>8572</v>
       </c>
       <c r="D494" t="n">
-        <v>12456510</v>
+        <v>12425605</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24094,10 +24162,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>17942</v>
+        <v>17899</v>
       </c>
       <c r="D495" t="n">
-        <v>26273504</v>
+        <v>26215284</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24142,10 +24210,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>6117</v>
+        <v>6105</v>
       </c>
       <c r="D496" t="n">
-        <v>9103455</v>
+        <v>9085455</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -24190,10 +24258,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="D497" t="n">
-        <v>2827772</v>
+        <v>2821772</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24238,10 +24306,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D498" t="n">
-        <v>572615</v>
+        <v>571115</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24430,10 +24498,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>6456</v>
+        <v>6437</v>
       </c>
       <c r="D502" t="n">
-        <v>8748076</v>
+        <v>8727463</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24478,10 +24546,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="D503" t="n">
-        <v>1810853</v>
+        <v>1800422</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -24526,10 +24594,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>3177</v>
+        <v>3171</v>
       </c>
       <c r="D504" t="n">
-        <v>4658866</v>
+        <v>4651711</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24622,10 +24690,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D506" t="n">
-        <v>509932</v>
+        <v>508432</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24766,10 +24834,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="D509" t="n">
-        <v>2026341</v>
+        <v>2020967</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24882,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>2851</v>
+        <v>2835</v>
       </c>
       <c r="D510" t="n">
-        <v>4096033</v>
+        <v>4072639</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24862,10 +24930,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>4878</v>
+        <v>4872</v>
       </c>
       <c r="D511" t="n">
-        <v>7140145</v>
+        <v>7131145</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24910,10 +24978,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D512" t="n">
-        <v>2221682</v>
+        <v>2220182</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -24958,10 +25026,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D513" t="n">
-        <v>576873</v>
+        <v>569373</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25006,10 +25074,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D514" t="n">
-        <v>114099</v>
+        <v>112599</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25102,10 +25170,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="D516" t="n">
-        <v>2104203</v>
+        <v>2098175</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25150,10 +25218,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="D517" t="n">
-        <v>2271669</v>
+        <v>2262669</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25198,10 +25266,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>3372</v>
+        <v>3367</v>
       </c>
       <c r="D518" t="n">
-        <v>4931812</v>
+        <v>4924312</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25246,10 +25314,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D519" t="n">
-        <v>1714535</v>
+        <v>1710035</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25390,10 +25458,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="D522" t="n">
-        <v>1951407</v>
+        <v>1945191</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25438,10 +25506,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>3639</v>
+        <v>3625</v>
       </c>
       <c r="D523" t="n">
-        <v>5236999</v>
+        <v>5216615</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25486,10 +25554,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>9029</v>
+        <v>9006</v>
       </c>
       <c r="D524" t="n">
-        <v>13202158</v>
+        <v>13168269</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25534,10 +25602,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>3037</v>
+        <v>3033</v>
       </c>
       <c r="D525" t="n">
-        <v>4508695</v>
+        <v>4502695</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25582,10 +25650,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D526" t="n">
-        <v>1247694</v>
+        <v>1244694</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25774,10 +25842,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>3556</v>
+        <v>3548</v>
       </c>
       <c r="D530" t="n">
-        <v>4788850</v>
+        <v>4777308</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25890,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D531" t="n">
-        <v>1649577</v>
+        <v>1646014</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25870,10 +25938,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>3361</v>
+        <v>3348</v>
       </c>
       <c r="D532" t="n">
-        <v>4899354</v>
+        <v>4882056</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -25918,10 +25986,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D533" t="n">
-        <v>1655421</v>
+        <v>1652421</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -26110,10 +26178,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D537" t="n">
-        <v>1635129</v>
+        <v>1630434</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26158,10 +26226,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D538" t="n">
-        <v>697783</v>
+        <v>696283</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26274,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D539" t="n">
-        <v>2524003</v>
+        <v>2522503</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26494,10 +26562,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>2725</v>
+        <v>2714</v>
       </c>
       <c r="D545" t="n">
-        <v>3914567</v>
+        <v>3898067</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26610,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>4957</v>
+        <v>4940</v>
       </c>
       <c r="D546" t="n">
-        <v>7255879</v>
+        <v>7233801</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26590,10 +26658,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="D547" t="n">
-        <v>2244126</v>
+        <v>2237652</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26782,10 +26850,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="D551" t="n">
-        <v>2402164</v>
+        <v>2392366</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26830,10 +26898,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="D552" t="n">
-        <v>2458415</v>
+        <v>2455471</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26878,10 +26946,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>3579</v>
+        <v>3566</v>
       </c>
       <c r="D553" t="n">
-        <v>5235879</v>
+        <v>5216548</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26926,10 +26994,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D554" t="n">
-        <v>1564841</v>
+        <v>1560939</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -27118,10 +27186,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>1928</v>
+        <v>1917</v>
       </c>
       <c r="D558" t="n">
-        <v>2558313</v>
+        <v>2548713</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27166,10 +27234,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>4312</v>
+        <v>4303</v>
       </c>
       <c r="D559" t="n">
-        <v>6237595</v>
+        <v>6224095</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27214,10 +27282,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>10071</v>
+        <v>10041</v>
       </c>
       <c r="D560" t="n">
-        <v>14729217</v>
+        <v>14686158</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27262,10 +27330,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>2822</v>
+        <v>2816</v>
       </c>
       <c r="D561" t="n">
-        <v>4186877</v>
+        <v>4177877</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27310,10 +27378,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D562" t="n">
-        <v>979476</v>
+        <v>977976</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27406,10 +27474,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>3929</v>
+        <v>3919</v>
       </c>
       <c r="D564" t="n">
-        <v>5215309</v>
+        <v>5205287</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27454,10 +27522,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D565" t="n">
-        <v>1422866</v>
+        <v>1419866</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27502,10 +27570,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="D566" t="n">
-        <v>3250288</v>
+        <v>3244288</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27550,10 +27618,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D567" t="n">
-        <v>992195</v>
+        <v>990695</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27694,10 +27762,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D570" t="n">
-        <v>1571901</v>
+        <v>1568901</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27810,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>6071</v>
+        <v>6043</v>
       </c>
       <c r="D571" t="n">
-        <v>8779270</v>
+        <v>8739530</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27858,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>14626</v>
+        <v>14576</v>
       </c>
       <c r="D572" t="n">
-        <v>21450300</v>
+        <v>21379074</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27838,10 +27906,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>5148</v>
+        <v>5137</v>
       </c>
       <c r="D573" t="n">
-        <v>7651591</v>
+        <v>7635091</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27886,10 +27954,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="D574" t="n">
-        <v>2341020</v>
+        <v>2338444</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -28078,10 +28146,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>5929</v>
+        <v>5908</v>
       </c>
       <c r="D578" t="n">
-        <v>7936317</v>
+        <v>7909260</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28126,10 +28194,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="D579" t="n">
-        <v>1979682</v>
+        <v>1967573</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28174,10 +28242,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>3150</v>
+        <v>3132</v>
       </c>
       <c r="D580" t="n">
-        <v>4568032</v>
+        <v>4541532</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28222,10 +28290,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="D581" t="n">
-        <v>1548508</v>
+        <v>1538008</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28270,10 +28338,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D582" t="n">
-        <v>391422</v>
+        <v>386922</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28366,10 +28434,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="D584" t="n">
-        <v>2338408</v>
+        <v>2323708</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28414,10 +28482,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>8375</v>
+        <v>8346</v>
       </c>
       <c r="D585" t="n">
-        <v>12146512</v>
+        <v>12106105</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28462,10 +28530,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>17785</v>
+        <v>17744</v>
       </c>
       <c r="D586" t="n">
-        <v>26072764</v>
+        <v>26011574</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28510,10 +28578,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>5364</v>
+        <v>5351</v>
       </c>
       <c r="D587" t="n">
-        <v>7979644</v>
+        <v>7960144</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28558,10 +28626,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="D588" t="n">
-        <v>2035236</v>
+        <v>2032236</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28702,10 +28770,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>5838</v>
+        <v>5819</v>
       </c>
       <c r="D591" t="n">
-        <v>7803492</v>
+        <v>7781235</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28818,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="D592" t="n">
-        <v>1822262</v>
+        <v>1816018</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28798,10 +28866,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>2237</v>
+        <v>2232</v>
       </c>
       <c r="D593" t="n">
-        <v>3277815</v>
+        <v>3270315</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28846,10 +28914,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D594" t="n">
-        <v>948203</v>
+        <v>946703</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28942,10 +29010,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D596" t="n">
-        <v>24298</v>
+        <v>22798</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -29038,10 +29106,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="D598" t="n">
-        <v>1559636</v>
+        <v>1554740</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29086,10 +29154,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D599" t="n">
-        <v>983415</v>
+        <v>981915</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29134,10 +29202,10 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D600" t="n">
-        <v>1505142</v>
+        <v>1501069</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -29182,10 +29250,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D601" t="n">
-        <v>448981</v>
+        <v>447481</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29326,10 +29394,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="D604" t="n">
-        <v>1001722</v>
+        <v>981086</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29374,10 +29442,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>3928</v>
+        <v>3909</v>
       </c>
       <c r="D605" t="n">
-        <v>5698166</v>
+        <v>5670514</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29422,10 +29490,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>6486</v>
+        <v>6471</v>
       </c>
       <c r="D606" t="n">
-        <v>9448936</v>
+        <v>9427338</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29470,10 +29538,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D607" t="n">
-        <v>2984588</v>
+        <v>2980088</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29518,10 +29586,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D608" t="n">
-        <v>815592</v>
+        <v>812592</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29662,10 +29730,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>2548</v>
+        <v>2534</v>
       </c>
       <c r="D611" t="n">
-        <v>3392480</v>
+        <v>3373615</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29710,10 +29778,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="D612" t="n">
-        <v>2375645</v>
+        <v>2365145</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29826,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>4064</v>
+        <v>4051</v>
       </c>
       <c r="D613" t="n">
-        <v>5968662</v>
+        <v>5949162</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29806,10 +29874,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="D614" t="n">
-        <v>1809911</v>
+        <v>1799411</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29854,10 +29922,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D615" t="n">
-        <v>433818</v>
+        <v>432318</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29950,10 +30018,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="D617" t="n">
-        <v>2286259</v>
+        <v>2280884</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -29998,10 +30066,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="D618" t="n">
-        <v>1597014</v>
+        <v>1589514</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30046,10 +30114,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>2626</v>
+        <v>2621</v>
       </c>
       <c r="D619" t="n">
-        <v>3847475</v>
+        <v>3839975</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30094,10 +30162,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D620" t="n">
-        <v>1196034</v>
+        <v>1185534</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30190,10 +30258,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D622" t="n">
-        <v>57000</v>
+        <v>55500</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30286,10 +30354,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D624" t="n">
-        <v>1579197</v>
+        <v>1574697</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30402,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>5094</v>
+        <v>5070</v>
       </c>
       <c r="D625" t="n">
-        <v>7388584</v>
+        <v>7352584</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30382,10 +30450,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>12098</v>
+        <v>12073</v>
       </c>
       <c r="D626" t="n">
-        <v>17808887</v>
+        <v>17772738</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30430,10 +30498,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>4548</v>
+        <v>4541</v>
       </c>
       <c r="D627" t="n">
-        <v>6751186</v>
+        <v>6740686</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -30478,10 +30546,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="D628" t="n">
-        <v>1809357</v>
+        <v>1803357</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30526,10 +30594,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D629" t="n">
-        <v>316762</v>
+        <v>315262</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30622,10 +30690,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>4129</v>
+        <v>4121</v>
       </c>
       <c r="D631" t="n">
-        <v>5524562</v>
+        <v>5515788</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30738,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="D632" t="n">
-        <v>3209648</v>
+        <v>3206887</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30786,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>6798</v>
+        <v>6779</v>
       </c>
       <c r="D633" t="n">
-        <v>9997859</v>
+        <v>9969579</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30766,10 +30834,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>2254</v>
+        <v>2248</v>
       </c>
       <c r="D634" t="n">
-        <v>3346550</v>
+        <v>3337550</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30814,10 +30882,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D635" t="n">
-        <v>911060</v>
+        <v>908060</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -30862,10 +30930,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D636" t="n">
-        <v>151774</v>
+        <v>148774</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -31006,10 +31074,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="D639" t="n">
-        <v>2996730</v>
+        <v>2992853</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31054,10 +31122,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D640" t="n">
-        <v>1314513</v>
+        <v>1311513</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31102,10 +31170,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="D641" t="n">
-        <v>3549038</v>
+        <v>3540038</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31342,10 +31410,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D646" t="n">
-        <v>1088627</v>
+        <v>1084127</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31390,10 +31458,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="D647" t="n">
-        <v>2173028</v>
+        <v>2167031</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -31438,10 +31506,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>4050</v>
+        <v>4039</v>
       </c>
       <c r="D648" t="n">
-        <v>5956449</v>
+        <v>5939949</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31486,10 +31554,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="D649" t="n">
-        <v>2019344</v>
+        <v>2016344</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31534,10 +31602,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D650" t="n">
-        <v>509163</v>
+        <v>506163</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31678,10 +31746,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="D653" t="n">
-        <v>1758107</v>
+        <v>1752404</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31794,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>3168</v>
+        <v>3162</v>
       </c>
       <c r="D654" t="n">
-        <v>4602243</v>
+        <v>4593803</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31842,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>6293</v>
+        <v>6282</v>
       </c>
       <c r="D655" t="n">
-        <v>9216147</v>
+        <v>9199647</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31822,10 +31890,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>2317</v>
+        <v>2310</v>
       </c>
       <c r="D656" t="n">
-        <v>3449689</v>
+        <v>3439189</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -31870,10 +31938,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D657" t="n">
-        <v>774039</v>
+        <v>772539</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -32062,10 +32130,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>2028</v>
+        <v>2017</v>
       </c>
       <c r="D661" t="n">
-        <v>2711275</v>
+        <v>2699567</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32110,10 +32178,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>1515</v>
+        <v>1505</v>
       </c>
       <c r="D662" t="n">
-        <v>2187390</v>
+        <v>2173140</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32158,10 +32226,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>2792</v>
+        <v>2782</v>
       </c>
       <c r="D663" t="n">
-        <v>4072880</v>
+        <v>4061153</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32398,10 +32466,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="D668" t="n">
-        <v>1579681</v>
+        <v>1573191</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32514,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>8377</v>
+        <v>8336</v>
       </c>
       <c r="D669" t="n">
-        <v>12135887</v>
+        <v>12078435</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32562,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>20057</v>
+        <v>19989</v>
       </c>
       <c r="D670" t="n">
-        <v>29439911</v>
+        <v>29343471</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32542,10 +32610,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>6001</v>
+        <v>5987</v>
       </c>
       <c r="D671" t="n">
-        <v>8928055</v>
+        <v>8907055</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32590,10 +32658,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="D672" t="n">
-        <v>2574374</v>
+        <v>2563874</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32734,10 +32802,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>7276</v>
+        <v>7244</v>
       </c>
       <c r="D675" t="n">
-        <v>9905239</v>
+        <v>9864530</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32850,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>10262</v>
+        <v>10224</v>
       </c>
       <c r="D676" t="n">
-        <v>14905189</v>
+        <v>14851834</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32830,10 +32898,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>27563</v>
+        <v>27480</v>
       </c>
       <c r="D677" t="n">
-        <v>40488958</v>
+        <v>40365853</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32946,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>8701</v>
+        <v>8683</v>
       </c>
       <c r="D678" t="n">
-        <v>12961237</v>
+        <v>12934237</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32926,10 +32994,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>2337</v>
+        <v>2331</v>
       </c>
       <c r="D679" t="n">
-        <v>3487779</v>
+        <v>3478779</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -33118,10 +33186,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>9188</v>
+        <v>9164</v>
       </c>
       <c r="D683" t="n">
-        <v>12429478</v>
+        <v>12404733</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33166,10 +33234,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D684" t="n">
-        <v>1812439</v>
+        <v>1809439</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33214,10 +33282,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="D685" t="n">
-        <v>3870503</v>
+        <v>3855503</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33262,10 +33330,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D686" t="n">
-        <v>1484038</v>
+        <v>1481038</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33358,10 +33426,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D688" t="n">
-        <v>134714</v>
+        <v>131121</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33454,10 +33522,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="D690" t="n">
-        <v>2729374</v>
+        <v>2719576</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33502,10 +33570,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>8828</v>
+        <v>8797</v>
       </c>
       <c r="D691" t="n">
-        <v>12658104</v>
+        <v>12612410</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33550,10 +33618,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>16649</v>
+        <v>16613</v>
       </c>
       <c r="D692" t="n">
-        <v>24294449</v>
+        <v>24243777</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33598,10 +33666,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>4627</v>
+        <v>4617</v>
       </c>
       <c r="D693" t="n">
-        <v>6873975</v>
+        <v>6858975</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33646,10 +33714,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D694" t="n">
-        <v>1650376</v>
+        <v>1648876</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -33838,10 +33906,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>5571</v>
+        <v>5552</v>
       </c>
       <c r="D698" t="n">
-        <v>7530661</v>
+        <v>7508983</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33886,10 +33954,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>3700</v>
+        <v>3688</v>
       </c>
       <c r="D699" t="n">
-        <v>5343126</v>
+        <v>5326625</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33934,10 +34002,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>9337</v>
+        <v>9316</v>
       </c>
       <c r="D700" t="n">
-        <v>13686189</v>
+        <v>13656584</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -33982,10 +34050,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>2571</v>
+        <v>2565</v>
       </c>
       <c r="D701" t="n">
-        <v>3818503</v>
+        <v>3810283</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34030,10 +34098,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D702" t="n">
-        <v>844251</v>
+        <v>839751</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34174,10 +34242,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3111</v>
+        <v>3105</v>
       </c>
       <c r="D705" t="n">
-        <v>4108779</v>
+        <v>4100603</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D2" t="n">
-        <v>1831262</v>
+        <v>1833087</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5635</v>
+        <v>5655</v>
       </c>
       <c r="D3" t="n">
-        <v>8279322</v>
+        <v>8307065</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D4" t="n">
-        <v>2980532</v>
+        <v>2985032</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D5" t="n">
-        <v>759222</v>
+        <v>760722</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n">
-        <v>151944</v>
+        <v>153444</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D8" t="n">
-        <v>791141</v>
+        <v>794141</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="D9" t="n">
-        <v>1676300</v>
+        <v>1684377</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3490</v>
+        <v>3505</v>
       </c>
       <c r="D10" t="n">
-        <v>5102617</v>
+        <v>5125037</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="D11" t="n">
-        <v>1335822</v>
+        <v>1344822</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1862</v>
+        <v>1873</v>
       </c>
       <c r="D14" t="n">
-        <v>2444991</v>
+        <v>2459693</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2498</v>
+        <v>2510</v>
       </c>
       <c r="D15" t="n">
-        <v>3615362</v>
+        <v>3631841</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4123</v>
+        <v>4135</v>
       </c>
       <c r="D16" t="n">
-        <v>6023976</v>
+        <v>6041888</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="D17" t="n">
-        <v>1681827</v>
+        <v>1692327</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D18" t="n">
-        <v>349604</v>
+        <v>351104</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1736</v>
+        <v>1742</v>
       </c>
       <c r="D21" t="n">
-        <v>2308321</v>
+        <v>2317052</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="D23" t="n">
-        <v>2741938</v>
+        <v>2746874</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D25" t="n">
-        <v>197763</v>
+        <v>199263</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1965</v>
+        <v>1988</v>
       </c>
       <c r="D28" t="n">
-        <v>2734694</v>
+        <v>2765104</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3116</v>
+        <v>3126</v>
       </c>
       <c r="D29" t="n">
-        <v>4507147</v>
+        <v>4521825</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6301</v>
+        <v>6316</v>
       </c>
       <c r="D30" t="n">
-        <v>9233054</v>
+        <v>9251993</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="D31" t="n">
-        <v>2889469</v>
+        <v>2893969</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D32" t="n">
-        <v>713904</v>
+        <v>718404</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" t="n">
-        <v>156373</v>
+        <v>157549</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2456</v>
+        <v>2466</v>
       </c>
       <c r="D35" t="n">
-        <v>3150915</v>
+        <v>3163818</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1204</v>
+        <v>1213</v>
       </c>
       <c r="D36" t="n">
-        <v>1725134</v>
+        <v>1738634</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2735</v>
+        <v>2741</v>
       </c>
       <c r="D37" t="n">
-        <v>3982680</v>
+        <v>3991680</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D38" t="n">
-        <v>1134317</v>
+        <v>1135082</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D39" t="n">
-        <v>277692</v>
+        <v>279192</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1322</v>
+        <v>1330</v>
       </c>
       <c r="D42" t="n">
-        <v>1788110</v>
+        <v>1800110</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3875</v>
+        <v>3890</v>
       </c>
       <c r="D43" t="n">
-        <v>5637635</v>
+        <v>5658192</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8716</v>
+        <v>8749</v>
       </c>
       <c r="D44" t="n">
-        <v>12789923</v>
+        <v>12837322</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3556</v>
+        <v>3573</v>
       </c>
       <c r="D45" t="n">
-        <v>5263193</v>
+        <v>5287159</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="D46" t="n">
-        <v>1652785</v>
+        <v>1657285</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D47" t="n">
-        <v>471037</v>
+        <v>472537</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4868</v>
+        <v>4891</v>
       </c>
       <c r="D49" t="n">
-        <v>6665629</v>
+        <v>6696124</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5716</v>
+        <v>5738</v>
       </c>
       <c r="D50" t="n">
-        <v>8278647</v>
+        <v>8310284</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>13363</v>
+        <v>13407</v>
       </c>
       <c r="D51" t="n">
-        <v>19657947</v>
+        <v>19720596</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4539</v>
+        <v>4557</v>
       </c>
       <c r="D52" t="n">
-        <v>6726558</v>
+        <v>6753558</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="D53" t="n">
-        <v>1815195</v>
+        <v>1824195</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D54" t="n">
-        <v>371366</v>
+        <v>372866</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5512</v>
+        <v>5530</v>
       </c>
       <c r="D57" t="n">
-        <v>7553972</v>
+        <v>7577566</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3109</v>
+        <v>3113</v>
       </c>
       <c r="D58" t="n">
-        <v>4488305</v>
+        <v>4494084</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7683</v>
+        <v>7714</v>
       </c>
       <c r="D59" t="n">
-        <v>11267483</v>
+        <v>11310747</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2445</v>
+        <v>2456</v>
       </c>
       <c r="D60" t="n">
-        <v>3608352</v>
+        <v>3620130</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D61" t="n">
-        <v>924601</v>
+        <v>926677</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3297</v>
+        <v>3313</v>
       </c>
       <c r="D64" t="n">
-        <v>4308380</v>
+        <v>4324402</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2618</v>
+        <v>2634</v>
       </c>
       <c r="D65" t="n">
-        <v>3766288</v>
+        <v>3790245</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6904</v>
+        <v>6933</v>
       </c>
       <c r="D66" t="n">
-        <v>10101201</v>
+        <v>10143622</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="D67" t="n">
-        <v>3444380</v>
+        <v>3477380</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D68" t="n">
-        <v>959198</v>
+        <v>960698</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D69" t="n">
-        <v>174986</v>
+        <v>182486</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2938</v>
+        <v>2953</v>
       </c>
       <c r="D71" t="n">
-        <v>3885317</v>
+        <v>3905586</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8871</v>
+        <v>8932</v>
       </c>
       <c r="D72" t="n">
-        <v>12881059</v>
+        <v>12965803</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>21987</v>
+        <v>22073</v>
       </c>
       <c r="D73" t="n">
-        <v>32312150</v>
+        <v>32438486</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7578</v>
+        <v>7602</v>
       </c>
       <c r="D74" t="n">
-        <v>11253755</v>
+        <v>11289755</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2125</v>
+        <v>2133</v>
       </c>
       <c r="D75" t="n">
-        <v>3162372</v>
+        <v>3174372</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D76" t="n">
-        <v>633983</v>
+        <v>639983</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>35320</v>
+        <v>36820</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7291</v>
+        <v>7322</v>
       </c>
       <c r="D80" t="n">
-        <v>10034731</v>
+        <v>10078825</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2667</v>
+        <v>2682</v>
       </c>
       <c r="D81" t="n">
-        <v>3872734</v>
+        <v>3895234</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6255</v>
+        <v>6294</v>
       </c>
       <c r="D82" t="n">
-        <v>9168487</v>
+        <v>9221145</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2800</v>
+        <v>2817</v>
       </c>
       <c r="D83" t="n">
-        <v>4149003</v>
+        <v>4173644</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>992</v>
+        <v>1005</v>
       </c>
       <c r="D84" t="n">
-        <v>1469698</v>
+        <v>1487993</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D85" t="n">
-        <v>433775</v>
+        <v>435275</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6315</v>
+        <v>6336</v>
       </c>
       <c r="D87" t="n">
-        <v>8878314</v>
+        <v>8906399</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="D88" t="n">
-        <v>2730412</v>
+        <v>2736412</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4818</v>
+        <v>4831</v>
       </c>
       <c r="D89" t="n">
-        <v>7077885</v>
+        <v>7096717</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1701</v>
+        <v>1707</v>
       </c>
       <c r="D90" t="n">
-        <v>2528450</v>
+        <v>2537450</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D91" t="n">
-        <v>693509</v>
+        <v>699508</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D92" t="n">
-        <v>119175</v>
+        <v>122175</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1938</v>
+        <v>1953</v>
       </c>
       <c r="D94" t="n">
-        <v>2549579</v>
+        <v>2570347</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1659</v>
+        <v>1666</v>
       </c>
       <c r="D95" t="n">
-        <v>2398992</v>
+        <v>2408756</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4450</v>
+        <v>4460</v>
       </c>
       <c r="D96" t="n">
-        <v>6531846</v>
+        <v>6546483</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="D97" t="n">
-        <v>2278677</v>
+        <v>2287677</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1512</v>
+        <v>1518</v>
       </c>
       <c r="D102" t="n">
-        <v>2045522</v>
+        <v>2053295</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D103" t="n">
-        <v>988922</v>
+        <v>990422</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="D104" t="n">
-        <v>2549380</v>
+        <v>2555068</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5518,10 +5518,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D108" t="n">
-        <v>1087022</v>
+        <v>1091988</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="D109" t="n">
-        <v>1552806</v>
+        <v>1558806</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2639</v>
+        <v>2646</v>
       </c>
       <c r="D110" t="n">
-        <v>3869001</v>
+        <v>3879501</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D111" t="n">
-        <v>1159264</v>
+        <v>1162264</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D112" t="n">
-        <v>306737</v>
+        <v>308237</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D113" t="n">
-        <v>51455</v>
+        <v>52955</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="D115" t="n">
-        <v>1243971</v>
+        <v>1259035</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D116" t="n">
-        <v>1022748</v>
+        <v>1024248</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5950,10 +5950,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="D117" t="n">
-        <v>2763950</v>
+        <v>2771450</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="D121" t="n">
-        <v>1129147</v>
+        <v>1138930</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1920</v>
+        <v>1926</v>
       </c>
       <c r="D122" t="n">
-        <v>2776618</v>
+        <v>2785618</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5643</v>
+        <v>5654</v>
       </c>
       <c r="D123" t="n">
-        <v>8271137</v>
+        <v>8286932</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1699</v>
+        <v>1714</v>
       </c>
       <c r="D124" t="n">
-        <v>2531541</v>
+        <v>2553019</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2391</v>
+        <v>2403</v>
       </c>
       <c r="D127" t="n">
-        <v>3226366</v>
+        <v>3242537</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D128" t="n">
-        <v>582396</v>
+        <v>583896</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="D129" t="n">
-        <v>1622801</v>
+        <v>1628801</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D133" t="n">
-        <v>444092</v>
+        <v>447092</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="D134" t="n">
-        <v>1552346</v>
+        <v>1563302</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3204</v>
+        <v>3217</v>
       </c>
       <c r="D135" t="n">
-        <v>4702964</v>
+        <v>4721664</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="D136" t="n">
-        <v>1369124</v>
+        <v>1375124</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D137" t="n">
-        <v>381064</v>
+        <v>382564</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D138" t="n">
-        <v>37680</v>
+        <v>39180</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="D140" t="n">
-        <v>1461524</v>
+        <v>1464136</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2602</v>
+        <v>2608</v>
       </c>
       <c r="D141" t="n">
-        <v>3765345</v>
+        <v>3773474</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5970</v>
+        <v>5989</v>
       </c>
       <c r="D142" t="n">
-        <v>8741103</v>
+        <v>8769603</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="D143" t="n">
-        <v>2466625</v>
+        <v>2468125</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D145" t="n">
-        <v>67500</v>
+        <v>69000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2335</v>
+        <v>2340</v>
       </c>
       <c r="D147" t="n">
-        <v>3071168</v>
+        <v>3077466</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3564</v>
+        <v>3573</v>
       </c>
       <c r="D148" t="n">
-        <v>5138361</v>
+        <v>5151733</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>8119</v>
+        <v>8140</v>
       </c>
       <c r="D149" t="n">
-        <v>11889361</v>
+        <v>11914845</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2843</v>
+        <v>2849</v>
       </c>
       <c r="D150" t="n">
-        <v>4219897</v>
+        <v>4228766</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D151" t="n">
-        <v>1016826</v>
+        <v>1018326</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D152" t="n">
-        <v>223761</v>
+        <v>225261</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3083</v>
+        <v>3088</v>
       </c>
       <c r="D154" t="n">
-        <v>4119871</v>
+        <v>4126571</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3328</v>
+        <v>3342</v>
       </c>
       <c r="D155" t="n">
-        <v>4825660</v>
+        <v>4846660</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>9311</v>
+        <v>9335</v>
       </c>
       <c r="D156" t="n">
-        <v>13738396</v>
+        <v>13773888</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="D157" t="n">
-        <v>4570105</v>
+        <v>4571605</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D158" t="n">
-        <v>1357475</v>
+        <v>1360475</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D159" t="n">
-        <v>277174</v>
+        <v>280174</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3098</v>
+        <v>3105</v>
       </c>
       <c r="D161" t="n">
-        <v>4181924</v>
+        <v>4191428</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3656</v>
+        <v>3664</v>
       </c>
       <c r="D162" t="n">
-        <v>5265300</v>
+        <v>5277170</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7767</v>
+        <v>7777</v>
       </c>
       <c r="D163" t="n">
-        <v>11391065</v>
+        <v>11404136</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2524</v>
+        <v>2528</v>
       </c>
       <c r="D164" t="n">
-        <v>3754501</v>
+        <v>3760501</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D165" t="n">
-        <v>889212</v>
+        <v>892212</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2921</v>
+        <v>2933</v>
       </c>
       <c r="D168" t="n">
-        <v>3928377</v>
+        <v>3945008</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D169" t="n">
-        <v>1200232</v>
+        <v>1201732</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D171" t="n">
-        <v>1215681</v>
+        <v>1217181</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D173" t="n">
-        <v>57221</v>
+        <v>58721</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="D175" t="n">
-        <v>1527140</v>
+        <v>1530328</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1112</v>
+        <v>1124</v>
       </c>
       <c r="D176" t="n">
-        <v>1628981</v>
+        <v>1646981</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3450</v>
+        <v>3460</v>
       </c>
       <c r="D177" t="n">
-        <v>5085580</v>
+        <v>5100580</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D178" t="n">
-        <v>1707807</v>
+        <v>1709307</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D179" t="n">
-        <v>431876</v>
+        <v>437876</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D182" t="n">
-        <v>1461744</v>
+        <v>1463794</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D183" t="n">
-        <v>818076</v>
+        <v>822576</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1888</v>
+        <v>1894</v>
       </c>
       <c r="D184" t="n">
-        <v>2750815</v>
+        <v>2759815</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D185" t="n">
-        <v>962138</v>
+        <v>964701</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D186" t="n">
-        <v>263990</v>
+        <v>265490</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9310,10 +9310,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D187" t="n">
-        <v>67694</v>
+        <v>72194</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D188" t="n">
-        <v>1044306</v>
+        <v>1048106</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2145</v>
+        <v>2153</v>
       </c>
       <c r="D189" t="n">
-        <v>3082908</v>
+        <v>3094195</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>5644</v>
+        <v>5664</v>
       </c>
       <c r="D190" t="n">
-        <v>8266476</v>
+        <v>8295421</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="D191" t="n">
-        <v>2935404</v>
+        <v>2942904</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D193" t="n">
-        <v>130500</v>
+        <v>132000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D194" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2090</v>
+        <v>2104</v>
       </c>
       <c r="D195" t="n">
-        <v>2807258</v>
+        <v>2825362</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="D196" t="n">
-        <v>2670917</v>
+        <v>2675417</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5533</v>
+        <v>5546</v>
       </c>
       <c r="D197" t="n">
-        <v>8140341</v>
+        <v>8158856</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2050</v>
+        <v>2060</v>
       </c>
       <c r="D198" t="n">
-        <v>3048537</v>
+        <v>3063537</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1853</v>
+        <v>1862</v>
       </c>
       <c r="D202" t="n">
-        <v>2429552</v>
+        <v>2440837</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3120</v>
+        <v>3129</v>
       </c>
       <c r="D204" t="n">
-        <v>4587714</v>
+        <v>4600177</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D205" t="n">
-        <v>1543662</v>
+        <v>1546662</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="D209" t="n">
-        <v>1474372</v>
+        <v>1483958</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D210" t="n">
-        <v>1329370</v>
+        <v>1330870</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3579</v>
+        <v>3595</v>
       </c>
       <c r="D211" t="n">
-        <v>5227635</v>
+        <v>5251635</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1837</v>
+        <v>1862</v>
       </c>
       <c r="D212" t="n">
-        <v>2720246</v>
+        <v>2757746</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D213" t="n">
-        <v>740849</v>
+        <v>742349</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D214" t="n">
-        <v>138428</v>
+        <v>139928</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="D215" t="n">
-        <v>967448</v>
+        <v>983100</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2185</v>
+        <v>2212</v>
       </c>
       <c r="D216" t="n">
-        <v>3162067</v>
+        <v>3202375</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3996</v>
+        <v>4023</v>
       </c>
       <c r="D217" t="n">
-        <v>5836293</v>
+        <v>5875153</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="D218" t="n">
-        <v>1824542</v>
+        <v>1832042</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="D221" t="n">
-        <v>2211098</v>
+        <v>2228761</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D222" t="n">
-        <v>1032407</v>
+        <v>1036907</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2216</v>
+        <v>2231</v>
       </c>
       <c r="D223" t="n">
-        <v>3224493</v>
+        <v>3245679</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="D224" t="n">
-        <v>1057630</v>
+        <v>1063630</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D225" t="n">
-        <v>322928</v>
+        <v>324428</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D226" t="n">
-        <v>51000</v>
+        <v>52500</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="D227" t="n">
-        <v>1196237</v>
+        <v>1202283</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D228" t="n">
-        <v>1340518</v>
+        <v>1343048</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2605</v>
+        <v>2617</v>
       </c>
       <c r="D229" t="n">
-        <v>3800896</v>
+        <v>3817659</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D231" t="n">
-        <v>328556</v>
+        <v>331556</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D232" t="n">
-        <v>66627</v>
+        <v>68127</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3846</v>
+        <v>3863</v>
       </c>
       <c r="D234" t="n">
-        <v>5565361</v>
+        <v>5590861</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>12123</v>
+        <v>12180</v>
       </c>
       <c r="D235" t="n">
-        <v>17792385</v>
+        <v>17872190</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4705</v>
+        <v>4719</v>
       </c>
       <c r="D236" t="n">
-        <v>6981732</v>
+        <v>7002732</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11710,10 +11710,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1448</v>
+        <v>1455</v>
       </c>
       <c r="D237" t="n">
-        <v>2150119</v>
+        <v>2160619</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D238" t="n">
-        <v>464762</v>
+        <v>470762</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D239" t="n">
-        <v>36000</v>
+        <v>37500</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3336</v>
+        <v>3354</v>
       </c>
       <c r="D240" t="n">
-        <v>4531255</v>
+        <v>4553045</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D241" t="n">
-        <v>739083</v>
+        <v>742508</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="D242" t="n">
-        <v>1977652</v>
+        <v>1980652</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D243" t="n">
-        <v>650300</v>
+        <v>654800</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D244" t="n">
-        <v>202028</v>
+        <v>203528</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D247" t="n">
-        <v>738698</v>
+        <v>745649</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2615</v>
+        <v>2631</v>
       </c>
       <c r="D248" t="n">
-        <v>3782914</v>
+        <v>3806282</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>7745</v>
+        <v>7781</v>
       </c>
       <c r="D249" t="n">
-        <v>11368880</v>
+        <v>11422069</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3147</v>
+        <v>3154</v>
       </c>
       <c r="D250" t="n">
-        <v>4674833</v>
+        <v>4685333</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="D251" t="n">
-        <v>1286392</v>
+        <v>1292392</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D256" t="n">
-        <v>2654753</v>
+        <v>2659670</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1748</v>
+        <v>1754</v>
       </c>
       <c r="D257" t="n">
-        <v>2538618</v>
+        <v>2547618</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12718,10 +12718,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4850</v>
+        <v>4865</v>
       </c>
       <c r="D258" t="n">
-        <v>7140568</v>
+        <v>7163068</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="D259" t="n">
-        <v>2624810</v>
+        <v>2636810</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12814,10 +12814,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D260" t="n">
-        <v>788539</v>
+        <v>791539</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D261" t="n">
-        <v>121500</v>
+        <v>126000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="D263" t="n">
-        <v>2481713</v>
+        <v>2488645</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1818</v>
+        <v>1825</v>
       </c>
       <c r="D264" t="n">
-        <v>2660668</v>
+        <v>2670843</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>5449</v>
+        <v>5463</v>
       </c>
       <c r="D265" t="n">
-        <v>8013907</v>
+        <v>8033755</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13102,10 +13102,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1896</v>
+        <v>1906</v>
       </c>
       <c r="D266" t="n">
-        <v>2814966</v>
+        <v>2829966</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D267" t="n">
-        <v>736232</v>
+        <v>737732</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="D270" t="n">
-        <v>2893626</v>
+        <v>2897826</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13390,10 +13390,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="D272" t="n">
-        <v>2021989</v>
+        <v>2026489</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D276" t="n">
-        <v>760791</v>
+        <v>763529</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2594</v>
+        <v>2599</v>
       </c>
       <c r="D277" t="n">
-        <v>3756978</v>
+        <v>3764478</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>8443</v>
+        <v>8471</v>
       </c>
       <c r="D278" t="n">
-        <v>12376203</v>
+        <v>12416698</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3486</v>
+        <v>3496</v>
       </c>
       <c r="D279" t="n">
-        <v>5185444</v>
+        <v>5200195</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1077</v>
+        <v>1086</v>
       </c>
       <c r="D280" t="n">
-        <v>1612159</v>
+        <v>1625362</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2353</v>
+        <v>2366</v>
       </c>
       <c r="D283" t="n">
-        <v>3143050</v>
+        <v>3158265</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13966,10 +13966,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="D284" t="n">
-        <v>2264993</v>
+        <v>2270993</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3893</v>
+        <v>3906</v>
       </c>
       <c r="D285" t="n">
-        <v>5714972</v>
+        <v>5733442</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14062,10 +14062,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="D286" t="n">
-        <v>1885830</v>
+        <v>1893330</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14110,10 +14110,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D287" t="n">
-        <v>567032</v>
+        <v>568532</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14158,10 +14158,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D288" t="n">
-        <v>105917</v>
+        <v>107417</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1612</v>
+        <v>1620</v>
       </c>
       <c r="D290" t="n">
-        <v>2130042</v>
+        <v>2140711</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1886</v>
+        <v>1904</v>
       </c>
       <c r="D291" t="n">
-        <v>2737733</v>
+        <v>2762335</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>6525</v>
+        <v>6571</v>
       </c>
       <c r="D292" t="n">
-        <v>9600086</v>
+        <v>9666330</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2256</v>
+        <v>2264</v>
       </c>
       <c r="D293" t="n">
-        <v>3369324</v>
+        <v>3381324</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="D294" t="n">
-        <v>1097805</v>
+        <v>1103805</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>6286</v>
+        <v>6373</v>
       </c>
       <c r="D297" t="n">
-        <v>8667970</v>
+        <v>8782602</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="D298" t="n">
-        <v>1243334</v>
+        <v>1259834</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2096</v>
+        <v>2134</v>
       </c>
       <c r="D299" t="n">
-        <v>3110817</v>
+        <v>3167037</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>863</v>
+        <v>876</v>
       </c>
       <c r="D300" t="n">
-        <v>1284001</v>
+        <v>1303501</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14782,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D301" t="n">
-        <v>431758</v>
+        <v>443758</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D302" t="n">
-        <v>133500</v>
+        <v>139500</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1244</v>
+        <v>1261</v>
       </c>
       <c r="D304" t="n">
-        <v>1761257</v>
+        <v>1786073</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="D305" t="n">
-        <v>1642611</v>
+        <v>1647111</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3520</v>
+        <v>3526</v>
       </c>
       <c r="D306" t="n">
-        <v>5165441</v>
+        <v>5172926</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="D307" t="n">
-        <v>1953100</v>
+        <v>1956914</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>1396</v>
+        <v>1402</v>
       </c>
       <c r="D312" t="n">
-        <v>1860746</v>
+        <v>1868910</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>6843</v>
+        <v>6871</v>
       </c>
       <c r="D313" t="n">
-        <v>9876618</v>
+        <v>9916909</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>19268</v>
+        <v>19323</v>
       </c>
       <c r="D314" t="n">
-        <v>28199124</v>
+        <v>28275592</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>6851</v>
+        <v>6858</v>
       </c>
       <c r="D315" t="n">
-        <v>10197889</v>
+        <v>10208389</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2080</v>
+        <v>2085</v>
       </c>
       <c r="D316" t="n">
-        <v>3104519</v>
+        <v>3112019</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D317" t="n">
-        <v>657970</v>
+        <v>660970</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>6074</v>
+        <v>6094</v>
       </c>
       <c r="D320" t="n">
-        <v>8003262</v>
+        <v>8024840</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2046</v>
+        <v>2051</v>
       </c>
       <c r="D321" t="n">
-        <v>2995151</v>
+        <v>3002392</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>6371</v>
+        <v>6390</v>
       </c>
       <c r="D322" t="n">
-        <v>9356154</v>
+        <v>9384654</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15838,10 +15838,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2253</v>
+        <v>2261</v>
       </c>
       <c r="D323" t="n">
-        <v>3352780</v>
+        <v>3364780</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D324" t="n">
-        <v>896699</v>
+        <v>907199</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1940</v>
+        <v>1948</v>
       </c>
       <c r="D327" t="n">
-        <v>2641888</v>
+        <v>2653198</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3524</v>
+        <v>3534</v>
       </c>
       <c r="D328" t="n">
-        <v>5069545</v>
+        <v>5083562</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16126,10 +16126,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>10630</v>
+        <v>10644</v>
       </c>
       <c r="D329" t="n">
-        <v>15538653</v>
+        <v>15556993</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -16174,10 +16174,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>3455</v>
+        <v>3460</v>
       </c>
       <c r="D330" t="n">
-        <v>5125143</v>
+        <v>5131426</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D331" t="n">
-        <v>1596373</v>
+        <v>1597873</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3725</v>
+        <v>3738</v>
       </c>
       <c r="D335" t="n">
-        <v>4863778</v>
+        <v>4879886</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="D336" t="n">
-        <v>2163012</v>
+        <v>2165890</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>4173</v>
+        <v>4182</v>
       </c>
       <c r="D337" t="n">
-        <v>6098660</v>
+        <v>6111685</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16558,10 +16558,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="D338" t="n">
-        <v>2348052</v>
+        <v>2358552</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1643</v>
+        <v>1650</v>
       </c>
       <c r="D342" t="n">
-        <v>2140265</v>
+        <v>2148168</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3508</v>
+        <v>3527</v>
       </c>
       <c r="D343" t="n">
-        <v>5121042</v>
+        <v>5148965</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>10137</v>
+        <v>10181</v>
       </c>
       <c r="D344" t="n">
-        <v>14961440</v>
+        <v>15026880</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3907</v>
+        <v>3928</v>
       </c>
       <c r="D345" t="n">
-        <v>5816526</v>
+        <v>5848026</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="D346" t="n">
-        <v>1715179</v>
+        <v>1721179</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D347" t="n">
-        <v>311801</v>
+        <v>316301</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>3378</v>
+        <v>3397</v>
       </c>
       <c r="D351" t="n">
-        <v>4688721</v>
+        <v>4713522</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>6182</v>
+        <v>6235</v>
       </c>
       <c r="D352" t="n">
-        <v>9013144</v>
+        <v>9090581</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>15149</v>
+        <v>15226</v>
       </c>
       <c r="D353" t="n">
-        <v>22318073</v>
+        <v>22431335</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>6757</v>
+        <v>6792</v>
       </c>
       <c r="D354" t="n">
-        <v>10076913</v>
+        <v>10129413</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2041</v>
+        <v>2052</v>
       </c>
       <c r="D355" t="n">
-        <v>3046151</v>
+        <v>3062651</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D356" t="n">
-        <v>680081</v>
+        <v>690581</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>5546</v>
+        <v>5561</v>
       </c>
       <c r="D358" t="n">
-        <v>7581610</v>
+        <v>7598982</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>18068</v>
+        <v>18219</v>
       </c>
       <c r="D359" t="n">
-        <v>26244591</v>
+        <v>26461570</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>49962</v>
+        <v>50251</v>
       </c>
       <c r="D360" t="n">
-        <v>73649524</v>
+        <v>74062624</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>23375</v>
+        <v>23530</v>
       </c>
       <c r="D361" t="n">
-        <v>34883571</v>
+        <v>35112811</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>8368</v>
+        <v>8423</v>
       </c>
       <c r="D362" t="n">
-        <v>12514106</v>
+        <v>12596606</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2061</v>
+        <v>2087</v>
       </c>
       <c r="D363" t="n">
-        <v>3082122</v>
+        <v>3121122</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D364" t="n">
-        <v>157500</v>
+        <v>159000</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>17864</v>
+        <v>17970</v>
       </c>
       <c r="D368" t="n">
-        <v>24303821</v>
+        <v>24439333</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>4244</v>
+        <v>4253</v>
       </c>
       <c r="D369" t="n">
-        <v>6179371</v>
+        <v>6192871</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>12055</v>
+        <v>12114</v>
       </c>
       <c r="D370" t="n">
-        <v>17730893</v>
+        <v>17815772</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>4561</v>
+        <v>4585</v>
       </c>
       <c r="D371" t="n">
-        <v>6771176</v>
+        <v>6807176</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="D372" t="n">
-        <v>2091836</v>
+        <v>2099336</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D373" t="n">
-        <v>398507</v>
+        <v>401507</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>4258</v>
+        <v>4269</v>
       </c>
       <c r="D375" t="n">
-        <v>5822129</v>
+        <v>5836776</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>5228</v>
+        <v>5257</v>
       </c>
       <c r="D376" t="n">
-        <v>7611027</v>
+        <v>7653478</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>18535</v>
+        <v>18645</v>
       </c>
       <c r="D377" t="n">
-        <v>27308012</v>
+        <v>27470619</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>8667</v>
+        <v>8719</v>
       </c>
       <c r="D378" t="n">
-        <v>12925447</v>
+        <v>13003447</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2438</v>
+        <v>2449</v>
       </c>
       <c r="D379" t="n">
-        <v>3645806</v>
+        <v>3661775</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D380" t="n">
-        <v>904595</v>
+        <v>909095</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>5414</v>
+        <v>5438</v>
       </c>
       <c r="D382" t="n">
-        <v>7323991</v>
+        <v>7351891</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4680</v>
+        <v>4705</v>
       </c>
       <c r="D383" t="n">
-        <v>6819752</v>
+        <v>6857252</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>13521</v>
+        <v>13578</v>
       </c>
       <c r="D384" t="n">
-        <v>19914344</v>
+        <v>19997392</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>5595</v>
+        <v>5628</v>
       </c>
       <c r="D385" t="n">
-        <v>8335294</v>
+        <v>8384794</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="D386" t="n">
-        <v>2388622</v>
+        <v>2397622</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D387" t="n">
-        <v>571606</v>
+        <v>573106</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4871</v>
+        <v>4897</v>
       </c>
       <c r="D389" t="n">
-        <v>6660326</v>
+        <v>6689082</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3553</v>
+        <v>3569</v>
       </c>
       <c r="D390" t="n">
-        <v>5184750</v>
+        <v>5208750</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>11258</v>
+        <v>11316</v>
       </c>
       <c r="D391" t="n">
-        <v>16612519</v>
+        <v>16693015</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>4742</v>
+        <v>4753</v>
       </c>
       <c r="D392" t="n">
-        <v>7054585</v>
+        <v>7071085</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="D393" t="n">
-        <v>2051557</v>
+        <v>2057557</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D394" t="n">
-        <v>445684</v>
+        <v>448684</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3815</v>
+        <v>3831</v>
       </c>
       <c r="D397" t="n">
-        <v>5160115</v>
+        <v>5181515</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>4054</v>
+        <v>4082</v>
       </c>
       <c r="D398" t="n">
-        <v>5908056</v>
+        <v>5950056</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>10983</v>
+        <v>11023</v>
       </c>
       <c r="D399" t="n">
-        <v>16186199</v>
+        <v>16243181</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>4216</v>
+        <v>4236</v>
       </c>
       <c r="D400" t="n">
-        <v>6274792</v>
+        <v>6303296</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1326</v>
+        <v>1335</v>
       </c>
       <c r="D401" t="n">
-        <v>1981820</v>
+        <v>1995320</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D402" t="n">
-        <v>420010</v>
+        <v>424510</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>4016</v>
+        <v>4034</v>
       </c>
       <c r="D404" t="n">
-        <v>5509616</v>
+        <v>5533050</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>4447</v>
+        <v>4477</v>
       </c>
       <c r="D405" t="n">
-        <v>6444690</v>
+        <v>6488386</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>11239</v>
+        <v>11289</v>
       </c>
       <c r="D406" t="n">
-        <v>16518710</v>
+        <v>16587040</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>3802</v>
+        <v>3814</v>
       </c>
       <c r="D407" t="n">
-        <v>5666415</v>
+        <v>5684165</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>5195</v>
+        <v>5230</v>
       </c>
       <c r="D412" t="n">
-        <v>6995997</v>
+        <v>7045662</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1506</v>
+        <v>1526</v>
       </c>
       <c r="D413" t="n">
-        <v>2176203</v>
+        <v>2199539</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>4958</v>
+        <v>4990</v>
       </c>
       <c r="D414" t="n">
-        <v>7304441</v>
+        <v>7351737</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1885</v>
+        <v>1893</v>
       </c>
       <c r="D415" t="n">
-        <v>2808999</v>
+        <v>2820999</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D416" t="n">
-        <v>994960</v>
+        <v>997960</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D417" t="n">
-        <v>257113</v>
+        <v>258613</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>3365</v>
+        <v>3395</v>
       </c>
       <c r="D420" t="n">
-        <v>4462180</v>
+        <v>4501133</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D421" t="n">
-        <v>859464</v>
+        <v>862464</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D422" t="n">
-        <v>497130</v>
+        <v>503130</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D423" t="n">
-        <v>174000</v>
+        <v>175500</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>3023</v>
+        <v>3038</v>
       </c>
       <c r="D426" t="n">
-        <v>4384117</v>
+        <v>4406203</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>7274</v>
+        <v>7285</v>
       </c>
       <c r="D427" t="n">
-        <v>10675901</v>
+        <v>10691301</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2398</v>
+        <v>2403</v>
       </c>
       <c r="D428" t="n">
-        <v>3574494</v>
+        <v>3581994</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="D429" t="n">
-        <v>1046642</v>
+        <v>1054093</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D430" t="n">
-        <v>207390</v>
+        <v>210390</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>2364</v>
+        <v>2371</v>
       </c>
       <c r="D432" t="n">
-        <v>3155163</v>
+        <v>3163142</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1700</v>
+        <v>1706</v>
       </c>
       <c r="D433" t="n">
-        <v>2471528</v>
+        <v>2480528</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>4834</v>
+        <v>4842</v>
       </c>
       <c r="D434" t="n">
-        <v>7094204</v>
+        <v>7106204</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="D435" t="n">
-        <v>2359342</v>
+        <v>2362342</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21262,10 +21262,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D436" t="n">
-        <v>615188</v>
+        <v>616688</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1658</v>
+        <v>1665</v>
       </c>
       <c r="D439" t="n">
-        <v>2181387</v>
+        <v>2190133</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1915</v>
+        <v>1927</v>
       </c>
       <c r="D440" t="n">
-        <v>2771213</v>
+        <v>2783400</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>4798</v>
+        <v>4810</v>
       </c>
       <c r="D441" t="n">
-        <v>7047498</v>
+        <v>7065498</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="D442" t="n">
-        <v>2259360</v>
+        <v>2262360</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D443" t="n">
-        <v>638663</v>
+        <v>643163</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D444" t="n">
-        <v>78549</v>
+        <v>81549</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="D445" t="n">
-        <v>2111097</v>
+        <v>2115423</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D446" t="n">
-        <v>1323390</v>
+        <v>1327890</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>2628</v>
+        <v>2636</v>
       </c>
       <c r="D447" t="n">
-        <v>3856994</v>
+        <v>3866975</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21934,10 +21934,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D450" t="n">
-        <v>26733</v>
+        <v>27047</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="D451" t="n">
-        <v>1419305</v>
+        <v>1423717</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>2982</v>
+        <v>2999</v>
       </c>
       <c r="D452" t="n">
-        <v>4341088</v>
+        <v>4366086</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22078,10 +22078,10 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>9218</v>
+        <v>9245</v>
       </c>
       <c r="D453" t="n">
-        <v>13577322</v>
+        <v>13614213</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3345</v>
+        <v>3359</v>
       </c>
       <c r="D454" t="n">
-        <v>4971394</v>
+        <v>4992394</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="D455" t="n">
-        <v>1363737</v>
+        <v>1369737</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22270,10 +22270,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D457" t="n">
-        <v>31500</v>
+        <v>33000</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>2919</v>
+        <v>2928</v>
       </c>
       <c r="D458" t="n">
-        <v>3818937</v>
+        <v>3829594</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="D459" t="n">
-        <v>1713840</v>
+        <v>1720799</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3202</v>
+        <v>3204</v>
       </c>
       <c r="D460" t="n">
-        <v>4682264</v>
+        <v>4685264</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D461" t="n">
-        <v>1545244</v>
+        <v>1546744</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D462" t="n">
-        <v>470411</v>
+        <v>471911</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="D465" t="n">
-        <v>1690278</v>
+        <v>1693278</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>4338</v>
+        <v>4350</v>
       </c>
       <c r="D466" t="n">
-        <v>6278480</v>
+        <v>6296480</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>8119</v>
+        <v>8144</v>
       </c>
       <c r="D467" t="n">
-        <v>11908235</v>
+        <v>11944785</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="D468" t="n">
-        <v>3541489</v>
+        <v>3545989</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22990,10 +22990,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>2726</v>
+        <v>2738</v>
       </c>
       <c r="D472" t="n">
-        <v>3642777</v>
+        <v>3660467</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="D473" t="n">
-        <v>1490260</v>
+        <v>1494760</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>2570</v>
+        <v>2574</v>
       </c>
       <c r="D474" t="n">
-        <v>3759555</v>
+        <v>3765434</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D475" t="n">
-        <v>1141555</v>
+        <v>1144555</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="D478" t="n">
-        <v>1793957</v>
+        <v>1798457</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D479" t="n">
-        <v>526315</v>
+        <v>528679</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="D480" t="n">
-        <v>1513416</v>
+        <v>1517916</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D481" t="n">
-        <v>514578</v>
+        <v>516078</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D484" t="n">
-        <v>761083</v>
+        <v>764083</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D485" t="n">
-        <v>1323143</v>
+        <v>1326143</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>2823</v>
+        <v>2832</v>
       </c>
       <c r="D486" t="n">
-        <v>4160651</v>
+        <v>4174151</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="D487" t="n">
-        <v>1431293</v>
+        <v>1438793</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D490" t="n">
-        <v>1362693</v>
+        <v>1365693</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>2744</v>
+        <v>2754</v>
       </c>
       <c r="D491" t="n">
-        <v>3931593</v>
+        <v>3946424</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>5242</v>
+        <v>5256</v>
       </c>
       <c r="D492" t="n">
-        <v>7677201</v>
+        <v>7696397</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>1492</v>
+        <v>1505</v>
       </c>
       <c r="D493" t="n">
-        <v>2214099</v>
+        <v>2231106</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D494" t="n">
-        <v>546847</v>
+        <v>548347</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D495" t="n">
-        <v>102880</v>
+        <v>104380</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>2352</v>
+        <v>2361</v>
       </c>
       <c r="D497" t="n">
-        <v>3083933</v>
+        <v>3096336</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>8644</v>
+        <v>8673</v>
       </c>
       <c r="D498" t="n">
-        <v>12523478</v>
+        <v>12565327</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>18030</v>
+        <v>18105</v>
       </c>
       <c r="D499" t="n">
-        <v>26404735</v>
+        <v>26512515</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>6139</v>
+        <v>6156</v>
       </c>
       <c r="D500" t="n">
-        <v>9136455</v>
+        <v>9161455</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24382,10 +24382,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="D501" t="n">
-        <v>2842772</v>
+        <v>2848772</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D502" t="n">
-        <v>577115</v>
+        <v>578615</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>6488</v>
+        <v>6502</v>
       </c>
       <c r="D506" t="n">
-        <v>8794652</v>
+        <v>8812220</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="D507" t="n">
-        <v>1810448</v>
+        <v>1816448</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>3186</v>
+        <v>3195</v>
       </c>
       <c r="D508" t="n">
-        <v>4672149</v>
+        <v>4685156</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="D509" t="n">
-        <v>1548069</v>
+        <v>1555169</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D510" t="n">
-        <v>508432</v>
+        <v>512932</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D511" t="n">
-        <v>105000</v>
+        <v>106500</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>1541</v>
+        <v>1549</v>
       </c>
       <c r="D513" t="n">
-        <v>2036511</v>
+        <v>2045393</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>2858</v>
+        <v>2868</v>
       </c>
       <c r="D514" t="n">
-        <v>4104952</v>
+        <v>4119512</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>4910</v>
+        <v>4922</v>
       </c>
       <c r="D515" t="n">
-        <v>7187280</v>
+        <v>7205045</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="D516" t="n">
-        <v>2230682</v>
+        <v>2235182</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25150,10 +25150,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D517" t="n">
-        <v>570873</v>
+        <v>573873</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="D520" t="n">
-        <v>2116712</v>
+        <v>2122121</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="D521" t="n">
-        <v>2286329</v>
+        <v>2289329</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>3381</v>
+        <v>3393</v>
       </c>
       <c r="D522" t="n">
-        <v>4944779</v>
+        <v>4962779</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D523" t="n">
-        <v>1717535</v>
+        <v>1720535</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D525" t="n">
-        <v>82500</v>
+        <v>84000</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25582,10 +25582,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D526" t="n">
-        <v>1955583</v>
+        <v>1956413</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>3674</v>
+        <v>3689</v>
       </c>
       <c r="D527" t="n">
-        <v>5287569</v>
+        <v>5309592</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>9062</v>
+        <v>9087</v>
       </c>
       <c r="D528" t="n">
-        <v>13249827</v>
+        <v>13287327</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>3049</v>
+        <v>3052</v>
       </c>
       <c r="D529" t="n">
-        <v>4526695</v>
+        <v>4531195</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="D530" t="n">
-        <v>1258194</v>
+        <v>1267194</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D531" t="n">
-        <v>181200</v>
+        <v>182700</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>3585</v>
+        <v>3598</v>
       </c>
       <c r="D534" t="n">
-        <v>4828203</v>
+        <v>4845608</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="D535" t="n">
-        <v>1660679</v>
+        <v>1666679</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>3378</v>
+        <v>3390</v>
       </c>
       <c r="D536" t="n">
-        <v>4925022</v>
+        <v>4942490</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D537" t="n">
-        <v>1659921</v>
+        <v>1661421</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26302,10 +26302,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="D541" t="n">
-        <v>1638211</v>
+        <v>1641511</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D542" t="n">
-        <v>703783</v>
+        <v>705283</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>1744</v>
+        <v>1750</v>
       </c>
       <c r="D543" t="n">
-        <v>2544483</v>
+        <v>2553483</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D544" t="n">
-        <v>911906</v>
+        <v>913406</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D545" t="n">
-        <v>253630</v>
+        <v>256630</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D546" t="n">
-        <v>45000</v>
+        <v>46500</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="D548" t="n">
-        <v>1062200</v>
+        <v>1066868</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26686,10 +26686,10 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>2758</v>
+        <v>2770</v>
       </c>
       <c r="D549" t="n">
-        <v>3959211</v>
+        <v>3974141</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>4995</v>
+        <v>5020</v>
       </c>
       <c r="D550" t="n">
-        <v>7312734</v>
+        <v>7350234</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="D551" t="n">
-        <v>2263711</v>
+        <v>2267396</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D552" t="n">
-        <v>623278</v>
+        <v>624778</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="D555" t="n">
-        <v>2405064</v>
+        <v>2408884</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="D556" t="n">
-        <v>2475763</v>
+        <v>2478763</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>3590</v>
+        <v>3605</v>
       </c>
       <c r="D557" t="n">
-        <v>5251482</v>
+        <v>5273189</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D558" t="n">
-        <v>1563939</v>
+        <v>1568439</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D559" t="n">
-        <v>435952</v>
+        <v>437452</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D560" t="n">
-        <v>99000</v>
+        <v>102000</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="D562" t="n">
-        <v>2577808</v>
+        <v>2583388</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>4322</v>
+        <v>4338</v>
       </c>
       <c r="D563" t="n">
-        <v>6251308</v>
+        <v>6275288</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>10139</v>
+        <v>10163</v>
       </c>
       <c r="D564" t="n">
-        <v>14829534</v>
+        <v>14864509</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>2829</v>
+        <v>2844</v>
       </c>
       <c r="D565" t="n">
-        <v>4197377</v>
+        <v>4216900</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D566" t="n">
-        <v>980976</v>
+        <v>983976</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>3971</v>
+        <v>3981</v>
       </c>
       <c r="D568" t="n">
-        <v>5259629</v>
+        <v>5273543</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="D569" t="n">
-        <v>1425339</v>
+        <v>1430206</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>2239</v>
+        <v>2251</v>
       </c>
       <c r="D570" t="n">
-        <v>3259399</v>
+        <v>3276129</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D571" t="n">
-        <v>998195</v>
+        <v>999695</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27886,10 +27886,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>1201</v>
+        <v>1217</v>
       </c>
       <c r="D574" t="n">
-        <v>1580953</v>
+        <v>1600814</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>6091</v>
+        <v>6138</v>
       </c>
       <c r="D575" t="n">
-        <v>8805492</v>
+        <v>8870461</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>14706</v>
+        <v>14768</v>
       </c>
       <c r="D576" t="n">
-        <v>21565235</v>
+        <v>21657758</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>5184</v>
+        <v>5212</v>
       </c>
       <c r="D577" t="n">
-        <v>7704726</v>
+        <v>7745569</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="D578" t="n">
-        <v>2369944</v>
+        <v>2375944</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>5961</v>
+        <v>5994</v>
       </c>
       <c r="D582" t="n">
-        <v>7974070</v>
+        <v>8013572</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>1421</v>
+        <v>1430</v>
       </c>
       <c r="D583" t="n">
-        <v>2005557</v>
+        <v>2019057</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>3168</v>
+        <v>3179</v>
       </c>
       <c r="D584" t="n">
-        <v>4588993</v>
+        <v>4604993</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="D585" t="n">
-        <v>1554508</v>
+        <v>1560508</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>1750</v>
+        <v>1763</v>
       </c>
       <c r="D588" t="n">
-        <v>2347024</v>
+        <v>2360289</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>8430</v>
+        <v>8480</v>
       </c>
       <c r="D589" t="n">
-        <v>12225376</v>
+        <v>12300376</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>17901</v>
+        <v>17969</v>
       </c>
       <c r="D590" t="n">
-        <v>26234418</v>
+        <v>26334475</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>5391</v>
+        <v>5415</v>
       </c>
       <c r="D591" t="n">
-        <v>8018744</v>
+        <v>8053683</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="D592" t="n">
-        <v>2054736</v>
+        <v>2062236</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D593" t="n">
-        <v>372951</v>
+        <v>375951</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>5865</v>
+        <v>5894</v>
       </c>
       <c r="D595" t="n">
-        <v>7837729</v>
+        <v>7875451</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="D596" t="n">
-        <v>1829319</v>
+        <v>1838166</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>2244</v>
+        <v>2248</v>
       </c>
       <c r="D597" t="n">
-        <v>3287865</v>
+        <v>3293865</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D598" t="n">
-        <v>955703</v>
+        <v>957203</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D599" t="n">
-        <v>231645</v>
+        <v>234645</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>1186</v>
+        <v>1191</v>
       </c>
       <c r="D602" t="n">
-        <v>1563159</v>
+        <v>1570659</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D603" t="n">
-        <v>994833</v>
+        <v>997833</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="D604" t="n">
-        <v>1523569</v>
+        <v>1530895</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>741</v>
+        <v>776</v>
       </c>
       <c r="D608" t="n">
-        <v>1030071</v>
+        <v>1078654</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29566,10 +29566,10 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>3963</v>
+        <v>3978</v>
       </c>
       <c r="D609" t="n">
-        <v>5751420</v>
+        <v>5773513</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>6524</v>
+        <v>6554</v>
       </c>
       <c r="D610" t="n">
-        <v>9500114</v>
+        <v>9540916</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>2028</v>
+        <v>2038</v>
       </c>
       <c r="D611" t="n">
-        <v>3015487</v>
+        <v>3029711</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D613" t="n">
-        <v>160500</v>
+        <v>166500</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>2562</v>
+        <v>2571</v>
       </c>
       <c r="D615" t="n">
-        <v>3410694</v>
+        <v>3422922</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>1642</v>
+        <v>1654</v>
       </c>
       <c r="D616" t="n">
-        <v>2377145</v>
+        <v>2391012</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>4086</v>
+        <v>4105</v>
       </c>
       <c r="D617" t="n">
-        <v>6000876</v>
+        <v>6029376</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1230</v>
+        <v>1241</v>
       </c>
       <c r="D618" t="n">
-        <v>1817246</v>
+        <v>1833060</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30046,10 +30046,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D619" t="n">
-        <v>435758</v>
+        <v>438758</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="D622" t="n">
-        <v>2293419</v>
+        <v>2297919</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D623" t="n">
-        <v>1604514</v>
+        <v>1607514</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>2635</v>
+        <v>2646</v>
       </c>
       <c r="D624" t="n">
-        <v>3859825</v>
+        <v>3876325</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30526,10 +30526,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D629" t="n">
-        <v>1587700</v>
+        <v>1589200</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>5113</v>
+        <v>5140</v>
       </c>
       <c r="D630" t="n">
-        <v>7414547</v>
+        <v>7454114</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>12156</v>
+        <v>12175</v>
       </c>
       <c r="D631" t="n">
-        <v>17893788</v>
+        <v>17922288</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>4564</v>
+        <v>4579</v>
       </c>
       <c r="D632" t="n">
-        <v>6775186</v>
+        <v>6797686</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D633" t="n">
-        <v>1807857</v>
+        <v>1809357</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>4154</v>
+        <v>4168</v>
       </c>
       <c r="D636" t="n">
-        <v>5557909</v>
+        <v>5576544</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -30910,10 +30910,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>2246</v>
+        <v>2250</v>
       </c>
       <c r="D637" t="n">
-        <v>3237851</v>
+        <v>3243023</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -30958,10 +30958,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>6823</v>
+        <v>6843</v>
       </c>
       <c r="D638" t="n">
-        <v>10030878</v>
+        <v>10059441</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>2261</v>
+        <v>2265</v>
       </c>
       <c r="D639" t="n">
-        <v>3357050</v>
+        <v>3363050</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D640" t="n">
-        <v>914060</v>
+        <v>917060</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>2238</v>
+        <v>2248</v>
       </c>
       <c r="D644" t="n">
-        <v>3028234</v>
+        <v>3041894</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D645" t="n">
-        <v>1317513</v>
+        <v>1319013</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31342,10 +31342,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>2427</v>
+        <v>2440</v>
       </c>
       <c r="D646" t="n">
-        <v>3555038</v>
+        <v>3574290</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31390,10 +31390,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D647" t="n">
-        <v>1181290</v>
+        <v>1184290</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -31438,10 +31438,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D648" t="n">
-        <v>308962</v>
+        <v>310462</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D650" t="n">
-        <v>10075</v>
+        <v>12361</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31582,10 +31582,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="D651" t="n">
-        <v>1092952</v>
+        <v>1104952</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>1515</v>
+        <v>1524</v>
       </c>
       <c r="D652" t="n">
-        <v>2183858</v>
+        <v>2197358</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>4078</v>
+        <v>4088</v>
       </c>
       <c r="D653" t="n">
-        <v>5995277</v>
+        <v>6010010</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="D654" t="n">
-        <v>2029844</v>
+        <v>2032647</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>1351</v>
+        <v>1356</v>
       </c>
       <c r="D658" t="n">
-        <v>1761279</v>
+        <v>1768193</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>3183</v>
+        <v>3194</v>
       </c>
       <c r="D659" t="n">
-        <v>4623675</v>
+        <v>4639887</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>6307</v>
+        <v>6328</v>
       </c>
       <c r="D660" t="n">
-        <v>9235842</v>
+        <v>9263983</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>2324</v>
+        <v>2329</v>
       </c>
       <c r="D661" t="n">
-        <v>3460189</v>
+        <v>3467689</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D662" t="n">
-        <v>780039</v>
+        <v>784539</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="D666" t="n">
-        <v>2716368</v>
+        <v>2720868</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32350,10 +32350,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>1518</v>
+        <v>1531</v>
       </c>
       <c r="D667" t="n">
-        <v>2192165</v>
+        <v>2211665</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="D668" t="n">
-        <v>4113250</v>
+        <v>4117750</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D669" t="n">
-        <v>1225557</v>
+        <v>1227057</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="D673" t="n">
-        <v>1580984</v>
+        <v>1583837</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>8436</v>
+        <v>8484</v>
       </c>
       <c r="D674" t="n">
-        <v>12219391</v>
+        <v>12287736</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>20211</v>
+        <v>20283</v>
       </c>
       <c r="D675" t="n">
-        <v>29666423</v>
+        <v>29765057</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>6045</v>
+        <v>6054</v>
       </c>
       <c r="D676" t="n">
-        <v>8991109</v>
+        <v>9002758</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32830,10 +32830,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>1735</v>
+        <v>1741</v>
       </c>
       <c r="D677" t="n">
-        <v>2590874</v>
+        <v>2599874</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D678" t="n">
-        <v>591960</v>
+        <v>596460</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>7327</v>
+        <v>7352</v>
       </c>
       <c r="D680" t="n">
-        <v>9967339</v>
+        <v>10000532</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>10339</v>
+        <v>10394</v>
       </c>
       <c r="D681" t="n">
-        <v>15017263</v>
+        <v>15097243</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>27734</v>
+        <v>27829</v>
       </c>
       <c r="D682" t="n">
-        <v>40735596</v>
+        <v>40874323</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>8746</v>
+        <v>8769</v>
       </c>
       <c r="D683" t="n">
-        <v>13021063</v>
+        <v>13054843</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>2350</v>
+        <v>2364</v>
       </c>
       <c r="D684" t="n">
-        <v>3507279</v>
+        <v>3528279</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D685" t="n">
-        <v>791960</v>
+        <v>794960</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>9252</v>
+        <v>9288</v>
       </c>
       <c r="D688" t="n">
-        <v>12514932</v>
+        <v>12559457</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="D689" t="n">
-        <v>1832820</v>
+        <v>1835820</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>2658</v>
+        <v>2670</v>
       </c>
       <c r="D690" t="n">
-        <v>3882010</v>
+        <v>3900010</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="D691" t="n">
-        <v>1488538</v>
+        <v>1494538</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D693" t="n">
-        <v>131121</v>
+        <v>132621</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="D695" t="n">
-        <v>2748845</v>
+        <v>2753345</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>8881</v>
+        <v>8914</v>
       </c>
       <c r="D696" t="n">
-        <v>12730357</v>
+        <v>12776668</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>16721</v>
+        <v>16776</v>
       </c>
       <c r="D697" t="n">
-        <v>24396032</v>
+        <v>24476208</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>4650</v>
+        <v>4657</v>
       </c>
       <c r="D698" t="n">
-        <v>6907811</v>
+        <v>6918311</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D699" t="n">
-        <v>1657876</v>
+        <v>1659376</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D700" t="n">
-        <v>281651</v>
+        <v>283151</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -34078,10 +34078,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>5587</v>
+        <v>5596</v>
       </c>
       <c r="D703" t="n">
-        <v>7549877</v>
+        <v>7561833</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -34126,10 +34126,10 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>3737</v>
+        <v>3751</v>
       </c>
       <c r="D704" t="n">
-        <v>5396370</v>
+        <v>5417077</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>9410</v>
+        <v>9446</v>
       </c>
       <c r="D705" t="n">
-        <v>13794067</v>
+        <v>13846776</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>2591</v>
+        <v>2598</v>
       </c>
       <c r="D706" t="n">
-        <v>3844395</v>
+        <v>3853905</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34270,10 +34270,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="D707" t="n">
-        <v>853391</v>
+        <v>860891</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -34318,10 +34318,10 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D708" t="n">
-        <v>214500</v>
+        <v>216000</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>3142</v>
+        <v>3150</v>
       </c>
       <c r="D710" t="n">
-        <v>4149359</v>
+        <v>4158301</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1268</v>
+        <v>1275</v>
       </c>
       <c r="D2" t="n">
-        <v>1837587</v>
+        <v>1848087</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5675</v>
+        <v>5694</v>
       </c>
       <c r="D3" t="n">
-        <v>8336773</v>
+        <v>8364568</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D4" t="n">
-        <v>2998532</v>
+        <v>3006032</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D5" t="n">
-        <v>762571</v>
+        <v>765571</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="D8" t="n">
-        <v>800072</v>
+        <v>809954</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="D9" t="n">
-        <v>1691988</v>
+        <v>1706988</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3524</v>
+        <v>3539</v>
       </c>
       <c r="D10" t="n">
-        <v>5152215</v>
+        <v>5174715</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="D11" t="n">
-        <v>1349322</v>
+        <v>1359822</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" t="n">
-        <v>69962</v>
+        <v>72962</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1891</v>
+        <v>1909</v>
       </c>
       <c r="D14" t="n">
-        <v>2486569</v>
+        <v>2513569</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2519</v>
+        <v>2529</v>
       </c>
       <c r="D15" t="n">
-        <v>3645341</v>
+        <v>3655389</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4146</v>
+        <v>4165</v>
       </c>
       <c r="D16" t="n">
-        <v>6056640</v>
+        <v>6081989</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="D17" t="n">
-        <v>1701327</v>
+        <v>1704327</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1751</v>
+        <v>1763</v>
       </c>
       <c r="D21" t="n">
-        <v>2325735</v>
+        <v>2343735</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D22" t="n">
-        <v>949719</v>
+        <v>949870</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1905</v>
+        <v>1913</v>
       </c>
       <c r="D23" t="n">
-        <v>2763178</v>
+        <v>2773796</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D25" t="n">
-        <v>199263</v>
+        <v>200763</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2023</v>
+        <v>2065</v>
       </c>
       <c r="D28" t="n">
-        <v>2814157</v>
+        <v>2872370</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3143</v>
+        <v>3147</v>
       </c>
       <c r="D29" t="n">
-        <v>4545495</v>
+        <v>4551495</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6339</v>
+        <v>6361</v>
       </c>
       <c r="D30" t="n">
-        <v>9284234</v>
+        <v>9315932</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1958</v>
+        <v>1971</v>
       </c>
       <c r="D31" t="n">
-        <v>2901469</v>
+        <v>2920969</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D32" t="n">
-        <v>721404</v>
+        <v>728714</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" t="n">
-        <v>157549</v>
+        <v>159049</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2474</v>
+        <v>2486</v>
       </c>
       <c r="D35" t="n">
-        <v>3172812</v>
+        <v>3189538</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D36" t="n">
-        <v>1750634</v>
+        <v>1752134</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2749</v>
+        <v>2753</v>
       </c>
       <c r="D37" t="n">
-        <v>4003338</v>
+        <v>4009338</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D38" t="n">
-        <v>1141082</v>
+        <v>1143358</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1335</v>
+        <v>1342</v>
       </c>
       <c r="D42" t="n">
-        <v>1806535</v>
+        <v>1816454</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3913</v>
+        <v>3931</v>
       </c>
       <c r="D43" t="n">
-        <v>5692299</v>
+        <v>5718539</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8795</v>
+        <v>8839</v>
       </c>
       <c r="D44" t="n">
-        <v>12899785</v>
+        <v>12959713</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3594</v>
+        <v>3607</v>
       </c>
       <c r="D45" t="n">
-        <v>5318659</v>
+        <v>5338159</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="D46" t="n">
-        <v>1664785</v>
+        <v>1676785</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D47" t="n">
-        <v>478537</v>
+        <v>478950</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4912</v>
+        <v>4930</v>
       </c>
       <c r="D49" t="n">
-        <v>6726184</v>
+        <v>6751622</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5761</v>
+        <v>5787</v>
       </c>
       <c r="D50" t="n">
-        <v>8343191</v>
+        <v>8376242</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>13459</v>
+        <v>13505</v>
       </c>
       <c r="D51" t="n">
-        <v>19797135</v>
+        <v>19865235</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4572</v>
+        <v>4587</v>
       </c>
       <c r="D52" t="n">
-        <v>6773722</v>
+        <v>6795113</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="D53" t="n">
-        <v>1828695</v>
+        <v>1833195</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D54" t="n">
-        <v>380366</v>
+        <v>387866</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2974,10 +2974,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D55" t="n">
-        <v>30500</v>
+        <v>35000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5545</v>
+        <v>5572</v>
       </c>
       <c r="D57" t="n">
-        <v>7598633</v>
+        <v>7635050</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3122</v>
+        <v>3137</v>
       </c>
       <c r="D58" t="n">
-        <v>4507145</v>
+        <v>4529645</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7739</v>
+        <v>7767</v>
       </c>
       <c r="D59" t="n">
-        <v>11347422</v>
+        <v>11387648</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2461</v>
+        <v>2471</v>
       </c>
       <c r="D60" t="n">
-        <v>3627630</v>
+        <v>3641532</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D61" t="n">
-        <v>926677</v>
+        <v>929677</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3331</v>
+        <v>3348</v>
       </c>
       <c r="D64" t="n">
-        <v>4345874</v>
+        <v>4369428</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2646</v>
+        <v>2657</v>
       </c>
       <c r="D65" t="n">
-        <v>3807189</v>
+        <v>3818902</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6958</v>
+        <v>6971</v>
       </c>
       <c r="D66" t="n">
-        <v>10179942</v>
+        <v>10197942</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="D67" t="n">
-        <v>3484880</v>
+        <v>3489380</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D69" t="n">
-        <v>182486</v>
+        <v>183986</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3694,10 +3694,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2969</v>
+        <v>2978</v>
       </c>
       <c r="D71" t="n">
-        <v>3925338</v>
+        <v>3937436</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8970</v>
+        <v>9028</v>
       </c>
       <c r="D72" t="n">
-        <v>13018838</v>
+        <v>13099502</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>22161</v>
+        <v>22274</v>
       </c>
       <c r="D73" t="n">
-        <v>32562892</v>
+        <v>32723370</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7627</v>
+        <v>7657</v>
       </c>
       <c r="D74" t="n">
-        <v>11324293</v>
+        <v>11366697</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2144</v>
+        <v>2154</v>
       </c>
       <c r="D75" t="n">
-        <v>3190872</v>
+        <v>3205872</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D76" t="n">
-        <v>648983</v>
+        <v>659483</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7349</v>
+        <v>7378</v>
       </c>
       <c r="D80" t="n">
-        <v>10112359</v>
+        <v>10152621</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2701</v>
+        <v>2720</v>
       </c>
       <c r="D81" t="n">
-        <v>3918913</v>
+        <v>3947413</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6321</v>
+        <v>6371</v>
       </c>
       <c r="D82" t="n">
-        <v>9256442</v>
+        <v>9326359</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2832</v>
+        <v>2851</v>
       </c>
       <c r="D83" t="n">
-        <v>4196144</v>
+        <v>4224644</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="D84" t="n">
-        <v>1507493</v>
+        <v>1517993</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D85" t="n">
-        <v>441275</v>
+        <v>451775</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6366</v>
+        <v>6399</v>
       </c>
       <c r="D87" t="n">
-        <v>8946801</v>
+        <v>8987078</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1894</v>
+        <v>1902</v>
       </c>
       <c r="D88" t="n">
-        <v>2752912</v>
+        <v>2764412</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4856</v>
+        <v>4880</v>
       </c>
       <c r="D89" t="n">
-        <v>7133919</v>
+        <v>7168387</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1712</v>
+        <v>1719</v>
       </c>
       <c r="D90" t="n">
-        <v>2544772</v>
+        <v>2555272</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D91" t="n">
-        <v>702508</v>
+        <v>707008</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D92" t="n">
-        <v>122175</v>
+        <v>125175</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1966</v>
+        <v>1975</v>
       </c>
       <c r="D94" t="n">
-        <v>2586925</v>
+        <v>2600283</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1669</v>
+        <v>1688</v>
       </c>
       <c r="D95" t="n">
-        <v>2413256</v>
+        <v>2440865</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4471</v>
+        <v>4490</v>
       </c>
       <c r="D96" t="n">
-        <v>6562557</v>
+        <v>6591057</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1551</v>
+        <v>1557</v>
       </c>
       <c r="D97" t="n">
-        <v>2299677</v>
+        <v>2308677</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D98" t="n">
-        <v>662018</v>
+        <v>663518</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1523</v>
+        <v>1531</v>
       </c>
       <c r="D102" t="n">
-        <v>2059931</v>
+        <v>2069353</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D103" t="n">
-        <v>991922</v>
+        <v>1002422</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="D104" t="n">
-        <v>2561557</v>
+        <v>2566821</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D105" t="n">
-        <v>783690</v>
+        <v>786690</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D106" t="n">
-        <v>243000</v>
+        <v>244500</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5518,10 +5518,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="D108" t="n">
-        <v>1101202</v>
+        <v>1108912</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1088</v>
+        <v>1097</v>
       </c>
       <c r="D109" t="n">
-        <v>1575306</v>
+        <v>1588806</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2654</v>
+        <v>2660</v>
       </c>
       <c r="D110" t="n">
-        <v>3891501</v>
+        <v>3900501</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="D111" t="n">
-        <v>1165264</v>
+        <v>1172764</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D113" t="n">
-        <v>52955</v>
+        <v>55955</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="D115" t="n">
-        <v>1261855</v>
+        <v>1268362</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="D116" t="n">
-        <v>1027248</v>
+        <v>1036579</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5950,10 +5950,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1902</v>
+        <v>1908</v>
       </c>
       <c r="D117" t="n">
-        <v>2774158</v>
+        <v>2780942</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D118" t="n">
-        <v>872265</v>
+        <v>881265</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6094,10 +6094,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D120" t="n">
-        <v>58834</v>
+        <v>60334</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="D121" t="n">
-        <v>1152262</v>
+        <v>1161770</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1936</v>
+        <v>1941</v>
       </c>
       <c r="D122" t="n">
-        <v>2799237</v>
+        <v>2806106</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5683</v>
+        <v>5705</v>
       </c>
       <c r="D123" t="n">
-        <v>8326745</v>
+        <v>8359492</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="D124" t="n">
-        <v>2554519</v>
+        <v>2569519</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D125" t="n">
-        <v>538439</v>
+        <v>539939</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2417</v>
+        <v>2434</v>
       </c>
       <c r="D127" t="n">
-        <v>3261765</v>
+        <v>3283601</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D128" t="n">
-        <v>588396</v>
+        <v>588811</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="D129" t="n">
-        <v>1632014</v>
+        <v>1639178</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D133" t="n">
-        <v>447092</v>
+        <v>451722</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="D134" t="n">
-        <v>1569599</v>
+        <v>1575599</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3221</v>
+        <v>3229</v>
       </c>
       <c r="D135" t="n">
-        <v>4727664</v>
+        <v>4739664</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="D136" t="n">
-        <v>1384124</v>
+        <v>1387524</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D137" t="n">
-        <v>382564</v>
+        <v>384064</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D138" t="n">
-        <v>40680</v>
+        <v>42180</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D139" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1122</v>
+        <v>1129</v>
       </c>
       <c r="D140" t="n">
-        <v>1470136</v>
+        <v>1480011</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2616</v>
+        <v>2625</v>
       </c>
       <c r="D141" t="n">
-        <v>3784786</v>
+        <v>3798286</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6014</v>
+        <v>6039</v>
       </c>
       <c r="D142" t="n">
-        <v>8806331</v>
+        <v>8842764</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1665</v>
+        <v>1670</v>
       </c>
       <c r="D143" t="n">
-        <v>2475625</v>
+        <v>2483125</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D144" t="n">
-        <v>578250</v>
+        <v>587250</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2350</v>
+        <v>2370</v>
       </c>
       <c r="D147" t="n">
-        <v>3089621</v>
+        <v>3113615</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3583</v>
+        <v>3591</v>
       </c>
       <c r="D148" t="n">
-        <v>5165480</v>
+        <v>5176499</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>8158</v>
+        <v>8175</v>
       </c>
       <c r="D149" t="n">
-        <v>11941445</v>
+        <v>11965572</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2856</v>
+        <v>2870</v>
       </c>
       <c r="D150" t="n">
-        <v>4239266</v>
+        <v>4259076</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="D151" t="n">
-        <v>1018326</v>
+        <v>1027626</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D152" t="n">
-        <v>232761</v>
+        <v>234261</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3100</v>
+        <v>3108</v>
       </c>
       <c r="D154" t="n">
-        <v>4142851</v>
+        <v>4152786</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3347</v>
+        <v>3356</v>
       </c>
       <c r="D155" t="n">
-        <v>4854160</v>
+        <v>4864960</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>9361</v>
+        <v>9385</v>
       </c>
       <c r="D156" t="n">
-        <v>13811427</v>
+        <v>13842992</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3077</v>
+        <v>3090</v>
       </c>
       <c r="D157" t="n">
-        <v>4582105</v>
+        <v>4600971</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D159" t="n">
-        <v>283174</v>
+        <v>284674</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3115</v>
+        <v>3128</v>
       </c>
       <c r="D161" t="n">
-        <v>4203006</v>
+        <v>4219310</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3678</v>
+        <v>3694</v>
       </c>
       <c r="D162" t="n">
-        <v>5298170</v>
+        <v>5321335</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7806</v>
+        <v>7824</v>
       </c>
       <c r="D163" t="n">
-        <v>11444693</v>
+        <v>11471693</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2534</v>
+        <v>2542</v>
       </c>
       <c r="D164" t="n">
-        <v>3768789</v>
+        <v>3779725</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D165" t="n">
-        <v>898212</v>
+        <v>899712</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D166" t="n">
-        <v>151657</v>
+        <v>154657</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2947</v>
+        <v>2958</v>
       </c>
       <c r="D168" t="n">
-        <v>3964493</v>
+        <v>3976165</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D169" t="n">
-        <v>1207732</v>
+        <v>1209232</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2474</v>
+        <v>2482</v>
       </c>
       <c r="D170" t="n">
-        <v>3623020</v>
+        <v>3635020</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D175" t="n">
-        <v>1534620</v>
+        <v>1536120</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D176" t="n">
-        <v>1652102</v>
+        <v>1654102</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3474</v>
+        <v>3484</v>
       </c>
       <c r="D177" t="n">
-        <v>5121480</v>
+        <v>5136279</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="D178" t="n">
-        <v>1727307</v>
+        <v>1730307</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D179" t="n">
-        <v>439376</v>
+        <v>442376</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D180" t="n">
-        <v>51000</v>
+        <v>60000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="D182" t="n">
-        <v>1471294</v>
+        <v>1483271</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D183" t="n">
-        <v>824076</v>
+        <v>836076</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1903</v>
+        <v>1911</v>
       </c>
       <c r="D184" t="n">
-        <v>2771379</v>
+        <v>2783379</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D185" t="n">
-        <v>964701</v>
+        <v>967701</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D186" t="n">
-        <v>265490</v>
+        <v>266990</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9310,10 +9310,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D187" t="n">
-        <v>72194</v>
+        <v>73694</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="D188" t="n">
-        <v>1055606</v>
+        <v>1061863</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2163</v>
+        <v>2169</v>
       </c>
       <c r="D189" t="n">
-        <v>3108682</v>
+        <v>3116324</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>5682</v>
+        <v>5697</v>
       </c>
       <c r="D190" t="n">
-        <v>8321730</v>
+        <v>8343980</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="D191" t="n">
-        <v>2950404</v>
+        <v>2959404</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9550,10 +9550,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D192" t="n">
-        <v>785024</v>
+        <v>791024</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D193" t="n">
-        <v>132000</v>
+        <v>133500</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2108</v>
+        <v>2119</v>
       </c>
       <c r="D195" t="n">
-        <v>2829768</v>
+        <v>2842379</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1842</v>
+        <v>1854</v>
       </c>
       <c r="D196" t="n">
-        <v>2684417</v>
+        <v>2701444</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5571</v>
+        <v>5583</v>
       </c>
       <c r="D197" t="n">
-        <v>8196247</v>
+        <v>8212821</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2066</v>
+        <v>2072</v>
       </c>
       <c r="D198" t="n">
-        <v>3072537</v>
+        <v>3081537</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D200" t="n">
-        <v>126000</v>
+        <v>127500</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="D202" t="n">
-        <v>2450670</v>
+        <v>2455931</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D203" t="n">
-        <v>1431950</v>
+        <v>1434950</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3136</v>
+        <v>3147</v>
       </c>
       <c r="D204" t="n">
-        <v>4609300</v>
+        <v>4625800</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="D205" t="n">
-        <v>1563672</v>
+        <v>1574172</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D209" t="n">
-        <v>1487829</v>
+        <v>1490829</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="D210" t="n">
-        <v>1339870</v>
+        <v>1344370</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3623</v>
+        <v>3645</v>
       </c>
       <c r="D211" t="n">
-        <v>5291436</v>
+        <v>5324208</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1876</v>
+        <v>1893</v>
       </c>
       <c r="D212" t="n">
-        <v>2778746</v>
+        <v>2804246</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D213" t="n">
-        <v>743849</v>
+        <v>748349</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D214" t="n">
-        <v>139928</v>
+        <v>150428</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D215" t="n">
-        <v>987600</v>
+        <v>996215</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2226</v>
+        <v>2239</v>
       </c>
       <c r="D216" t="n">
-        <v>3220820</v>
+        <v>3240320</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>4043</v>
+        <v>4056</v>
       </c>
       <c r="D217" t="n">
-        <v>5903926</v>
+        <v>5923165</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1238</v>
+        <v>1246</v>
       </c>
       <c r="D218" t="n">
-        <v>1836542</v>
+        <v>1847508</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D219" t="n">
-        <v>466914</v>
+        <v>468414</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10894,10 +10894,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D220" t="n">
-        <v>77304</v>
+        <v>80304</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1648</v>
+        <v>1658</v>
       </c>
       <c r="D221" t="n">
-        <v>2240761</v>
+        <v>2255296</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D222" t="n">
-        <v>1038827</v>
+        <v>1040327</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2244</v>
+        <v>2255</v>
       </c>
       <c r="D223" t="n">
-        <v>3263807</v>
+        <v>3280307</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D224" t="n">
-        <v>1068130</v>
+        <v>1071130</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="D228" t="n">
-        <v>1345818</v>
+        <v>1351818</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2629</v>
+        <v>2635</v>
       </c>
       <c r="D229" t="n">
-        <v>3834593</v>
+        <v>3843593</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D230" t="n">
-        <v>1224881</v>
+        <v>1226381</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D231" t="n">
-        <v>333056</v>
+        <v>336056</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D232" t="n">
-        <v>69627</v>
+        <v>72380</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="D233" t="n">
-        <v>1235681</v>
+        <v>1240181</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3884</v>
+        <v>3904</v>
       </c>
       <c r="D234" t="n">
-        <v>5621214</v>
+        <v>5650872</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>12222</v>
+        <v>12281</v>
       </c>
       <c r="D235" t="n">
-        <v>17935096</v>
+        <v>18022646</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4736</v>
+        <v>4760</v>
       </c>
       <c r="D236" t="n">
-        <v>7028232</v>
+        <v>7064232</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11710,10 +11710,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1467</v>
+        <v>1474</v>
       </c>
       <c r="D237" t="n">
-        <v>2178619</v>
+        <v>2189119</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D238" t="n">
-        <v>481262</v>
+        <v>488762</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3372</v>
+        <v>3393</v>
       </c>
       <c r="D240" t="n">
-        <v>4579341</v>
+        <v>4605460</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D241" t="n">
-        <v>744008</v>
+        <v>745508</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1364</v>
+        <v>1369</v>
       </c>
       <c r="D242" t="n">
-        <v>1986196</v>
+        <v>1993696</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D244" t="n">
-        <v>203528</v>
+        <v>205028</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D247" t="n">
-        <v>745649</v>
+        <v>748035</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2649</v>
+        <v>2661</v>
       </c>
       <c r="D248" t="n">
-        <v>3830992</v>
+        <v>3848314</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>7813</v>
+        <v>7844</v>
       </c>
       <c r="D249" t="n">
-        <v>11462480</v>
+        <v>11508880</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3168</v>
+        <v>3187</v>
       </c>
       <c r="D250" t="n">
-        <v>4706333</v>
+        <v>4734833</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="D251" t="n">
-        <v>1293892</v>
+        <v>1298392</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D252" t="n">
-        <v>328230</v>
+        <v>334230</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>2028</v>
+        <v>2041</v>
       </c>
       <c r="D256" t="n">
-        <v>2672026</v>
+        <v>2688718</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1754</v>
+        <v>1761</v>
       </c>
       <c r="D257" t="n">
-        <v>2547618</v>
+        <v>2557688</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12718,10 +12718,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4880</v>
+        <v>4904</v>
       </c>
       <c r="D258" t="n">
-        <v>7185568</v>
+        <v>7220146</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="D259" t="n">
-        <v>2641310</v>
+        <v>2653310</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12814,10 +12814,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D260" t="n">
-        <v>791539</v>
+        <v>794539</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D261" t="n">
-        <v>126000</v>
+        <v>132000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1899</v>
+        <v>1908</v>
       </c>
       <c r="D263" t="n">
-        <v>2492180</v>
+        <v>2503854</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1830</v>
+        <v>1836</v>
       </c>
       <c r="D264" t="n">
-        <v>2678343</v>
+        <v>2684885</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>5482</v>
+        <v>5498</v>
       </c>
       <c r="D265" t="n">
-        <v>8060965</v>
+        <v>8084191</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13102,10 +13102,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1910</v>
+        <v>1915</v>
       </c>
       <c r="D266" t="n">
-        <v>2835966</v>
+        <v>2842875</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D267" t="n">
-        <v>740732</v>
+        <v>742232</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D268" t="n">
-        <v>222083</v>
+        <v>226583</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2159</v>
+        <v>2167</v>
       </c>
       <c r="D270" t="n">
-        <v>2907875</v>
+        <v>2918592</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13390,10 +13390,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="D272" t="n">
-        <v>2027989</v>
+        <v>2030143</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D273" t="n">
-        <v>640085</v>
+        <v>641585</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D274" t="n">
-        <v>178290</v>
+        <v>179790</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D275" t="n">
-        <v>42000</v>
+        <v>43500</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D276" t="n">
-        <v>763529</v>
+        <v>765029</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="D277" t="n">
-        <v>3777430</v>
+        <v>3786430</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>8495</v>
+        <v>8524</v>
       </c>
       <c r="D278" t="n">
-        <v>12452327</v>
+        <v>12493869</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3505</v>
+        <v>3519</v>
       </c>
       <c r="D279" t="n">
-        <v>5212664</v>
+        <v>5233258</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1092</v>
+        <v>1099</v>
       </c>
       <c r="D280" t="n">
-        <v>1634362</v>
+        <v>1644862</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D281" t="n">
-        <v>226656</v>
+        <v>232656</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2372</v>
+        <v>2385</v>
       </c>
       <c r="D283" t="n">
-        <v>3166632</v>
+        <v>3184443</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13966,10 +13966,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="D284" t="n">
-        <v>2275493</v>
+        <v>2278493</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3913</v>
+        <v>3936</v>
       </c>
       <c r="D285" t="n">
-        <v>5743342</v>
+        <v>5776305</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14062,10 +14062,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="D286" t="n">
-        <v>1900830</v>
+        <v>1906830</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14110,10 +14110,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D287" t="n">
-        <v>570032</v>
+        <v>571532</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1626</v>
+        <v>1632</v>
       </c>
       <c r="D290" t="n">
-        <v>2149011</v>
+        <v>2155256</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1926</v>
+        <v>1956</v>
       </c>
       <c r="D291" t="n">
-        <v>2793860</v>
+        <v>2837316</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>6628</v>
+        <v>6706</v>
       </c>
       <c r="D292" t="n">
-        <v>9751481</v>
+        <v>9862406</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2284</v>
+        <v>2305</v>
       </c>
       <c r="D293" t="n">
-        <v>3411324</v>
+        <v>3442824</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D294" t="n">
-        <v>1105305</v>
+        <v>1109805</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D295" t="n">
-        <v>254833</v>
+        <v>260833</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D296" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>6474</v>
+        <v>6613</v>
       </c>
       <c r="D297" t="n">
-        <v>8926029</v>
+        <v>9111676</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="D298" t="n">
-        <v>1288254</v>
+        <v>1312254</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2167</v>
+        <v>2243</v>
       </c>
       <c r="D299" t="n">
-        <v>3214113</v>
+        <v>3328113</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="D300" t="n">
-        <v>1320001</v>
+        <v>1338001</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14782,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D301" t="n">
-        <v>454258</v>
+        <v>461758</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D302" t="n">
-        <v>142500</v>
+        <v>147000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1289</v>
+        <v>1309</v>
       </c>
       <c r="D304" t="n">
-        <v>1819515</v>
+        <v>1847385</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D305" t="n">
-        <v>1655183</v>
+        <v>1658183</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="D306" t="n">
-        <v>5187926</v>
+        <v>5189426</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="D307" t="n">
-        <v>1965914</v>
+        <v>1973353</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="D312" t="n">
-        <v>1874910</v>
+        <v>1877910</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>6888</v>
+        <v>6922</v>
       </c>
       <c r="D313" t="n">
-        <v>9939573</v>
+        <v>9988129</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>19380</v>
+        <v>19421</v>
       </c>
       <c r="D314" t="n">
-        <v>28357290</v>
+        <v>28416397</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>6881</v>
+        <v>6905</v>
       </c>
       <c r="D315" t="n">
-        <v>10242889</v>
+        <v>10278103</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2098</v>
+        <v>2109</v>
       </c>
       <c r="D316" t="n">
-        <v>3130136</v>
+        <v>3146636</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D317" t="n">
-        <v>662470</v>
+        <v>663970</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D318" t="n">
-        <v>54000</v>
+        <v>55500</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>6124</v>
+        <v>6154</v>
       </c>
       <c r="D320" t="n">
-        <v>8065547</v>
+        <v>8102904</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2058</v>
+        <v>2066</v>
       </c>
       <c r="D321" t="n">
-        <v>3012892</v>
+        <v>3024892</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>6407</v>
+        <v>6430</v>
       </c>
       <c r="D322" t="n">
-        <v>9407951</v>
+        <v>9441917</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15838,10 +15838,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="D323" t="n">
-        <v>3381280</v>
+        <v>3385780</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D324" t="n">
-        <v>910199</v>
+        <v>914699</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1951</v>
+        <v>1963</v>
       </c>
       <c r="D327" t="n">
-        <v>2657698</v>
+        <v>2668665</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3540</v>
+        <v>3548</v>
       </c>
       <c r="D328" t="n">
-        <v>5092450</v>
+        <v>5103985</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16126,10 +16126,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>10673</v>
+        <v>10708</v>
       </c>
       <c r="D329" t="n">
-        <v>15597866</v>
+        <v>15648273</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -16174,10 +16174,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>3470</v>
+        <v>3482</v>
       </c>
       <c r="D330" t="n">
-        <v>5146426</v>
+        <v>5164426</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="D331" t="n">
-        <v>1603873</v>
+        <v>1611373</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3756</v>
+        <v>3766</v>
       </c>
       <c r="D335" t="n">
-        <v>4904518</v>
+        <v>4917295</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1500</v>
+        <v>1507</v>
       </c>
       <c r="D336" t="n">
-        <v>2173390</v>
+        <v>2181380</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>4198</v>
+        <v>4210</v>
       </c>
       <c r="D337" t="n">
-        <v>6134659</v>
+        <v>6152491</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16558,10 +16558,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="D338" t="n">
-        <v>2364552</v>
+        <v>2370552</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -16606,10 +16606,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D339" t="n">
-        <v>585579</v>
+        <v>590079</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D340" t="n">
-        <v>154500</v>
+        <v>159000</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16702,10 +16702,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D341" t="n">
-        <v>7689</v>
+        <v>10689</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="D342" t="n">
-        <v>2150127</v>
+        <v>2156127</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3549</v>
+        <v>3566</v>
       </c>
       <c r="D343" t="n">
-        <v>5181632</v>
+        <v>5206395</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>10232</v>
+        <v>10273</v>
       </c>
       <c r="D344" t="n">
-        <v>15101173</v>
+        <v>15160531</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3945</v>
+        <v>3960</v>
       </c>
       <c r="D345" t="n">
-        <v>5873526</v>
+        <v>5896026</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="D346" t="n">
-        <v>1730179</v>
+        <v>1739179</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D347" t="n">
-        <v>320801</v>
+        <v>323801</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>3406</v>
+        <v>3417</v>
       </c>
       <c r="D351" t="n">
-        <v>4722328</v>
+        <v>4736227</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>6274</v>
+        <v>6313</v>
       </c>
       <c r="D352" t="n">
-        <v>9144656</v>
+        <v>9200693</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>15315</v>
+        <v>15393</v>
       </c>
       <c r="D353" t="n">
-        <v>22559361</v>
+        <v>22670397</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>6824</v>
+        <v>6847</v>
       </c>
       <c r="D354" t="n">
-        <v>10175894</v>
+        <v>10206170</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2065</v>
+        <v>2075</v>
       </c>
       <c r="D355" t="n">
-        <v>3082151</v>
+        <v>3097151</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D356" t="n">
-        <v>695081</v>
+        <v>702581</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>5596</v>
+        <v>5637</v>
       </c>
       <c r="D358" t="n">
-        <v>7638435</v>
+        <v>7698464</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>18356</v>
+        <v>18482</v>
       </c>
       <c r="D359" t="n">
-        <v>26650151</v>
+        <v>26832497</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>50563</v>
+        <v>50828</v>
       </c>
       <c r="D360" t="n">
-        <v>74519299</v>
+        <v>74907370</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>23644</v>
+        <v>23788</v>
       </c>
       <c r="D361" t="n">
-        <v>35280308</v>
+        <v>35491744</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>8490</v>
+        <v>8545</v>
       </c>
       <c r="D362" t="n">
-        <v>12697106</v>
+        <v>12779606</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2109</v>
+        <v>2148</v>
       </c>
       <c r="D363" t="n">
-        <v>3154122</v>
+        <v>3211439</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D367" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>18093</v>
+        <v>18206</v>
       </c>
       <c r="D368" t="n">
-        <v>24591523</v>
+        <v>24730912</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>4258</v>
+        <v>4274</v>
       </c>
       <c r="D369" t="n">
-        <v>6199849</v>
+        <v>6223237</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>12156</v>
+        <v>12190</v>
       </c>
       <c r="D370" t="n">
-        <v>17877898</v>
+        <v>17927178</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>4609</v>
+        <v>4624</v>
       </c>
       <c r="D371" t="n">
-        <v>6843176</v>
+        <v>6865676</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="D372" t="n">
-        <v>2106836</v>
+        <v>2111336</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>4287</v>
+        <v>4305</v>
       </c>
       <c r="D375" t="n">
-        <v>5861257</v>
+        <v>5885897</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>5300</v>
+        <v>5333</v>
       </c>
       <c r="D376" t="n">
-        <v>7715335</v>
+        <v>7761470</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>18776</v>
+        <v>18868</v>
       </c>
       <c r="D377" t="n">
-        <v>27663069</v>
+        <v>27800269</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>8770</v>
+        <v>8812</v>
       </c>
       <c r="D378" t="n">
-        <v>13079939</v>
+        <v>13140139</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2458</v>
+        <v>2467</v>
       </c>
       <c r="D379" t="n">
-        <v>3675275</v>
+        <v>3687475</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="D380" t="n">
-        <v>916595</v>
+        <v>928595</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>5465</v>
+        <v>5499</v>
       </c>
       <c r="D382" t="n">
-        <v>7384337</v>
+        <v>7425923</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4737</v>
+        <v>4769</v>
       </c>
       <c r="D383" t="n">
-        <v>6904241</v>
+        <v>6951751</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>13645</v>
+        <v>13723</v>
       </c>
       <c r="D384" t="n">
-        <v>20095248</v>
+        <v>20204396</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>5655</v>
+        <v>5686</v>
       </c>
       <c r="D385" t="n">
-        <v>8425068</v>
+        <v>8469329</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>1620</v>
+        <v>1627</v>
       </c>
       <c r="D386" t="n">
-        <v>2417122</v>
+        <v>2427622</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D387" t="n">
-        <v>576106</v>
+        <v>583606</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4918</v>
+        <v>4940</v>
       </c>
       <c r="D389" t="n">
-        <v>6716848</v>
+        <v>6743761</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3589</v>
+        <v>3603</v>
       </c>
       <c r="D390" t="n">
-        <v>5238070</v>
+        <v>5259070</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>11340</v>
+        <v>11384</v>
       </c>
       <c r="D391" t="n">
-        <v>16728017</v>
+        <v>16794017</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>4771</v>
+        <v>4786</v>
       </c>
       <c r="D392" t="n">
-        <v>7098085</v>
+        <v>7120585</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1383</v>
+        <v>1390</v>
       </c>
       <c r="D393" t="n">
-        <v>2062057</v>
+        <v>2072557</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D395" t="n">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3845</v>
+        <v>3861</v>
       </c>
       <c r="D397" t="n">
-        <v>5202179</v>
+        <v>5222929</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>4098</v>
+        <v>4105</v>
       </c>
       <c r="D398" t="n">
-        <v>5974056</v>
+        <v>5983899</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>11074</v>
+        <v>11113</v>
       </c>
       <c r="D399" t="n">
-        <v>16317207</v>
+        <v>16374108</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>4253</v>
+        <v>4276</v>
       </c>
       <c r="D400" t="n">
-        <v>6328792</v>
+        <v>6363292</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="D401" t="n">
-        <v>2004320</v>
+        <v>2013320</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D403" t="n">
-        <v>32212</v>
+        <v>33712</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>4044</v>
+        <v>4064</v>
       </c>
       <c r="D404" t="n">
-        <v>5545949</v>
+        <v>5571389</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>4511</v>
+        <v>4530</v>
       </c>
       <c r="D405" t="n">
-        <v>6537450</v>
+        <v>6563059</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>11343</v>
+        <v>11397</v>
       </c>
       <c r="D406" t="n">
-        <v>16666223</v>
+        <v>16745098</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>3822</v>
+        <v>3831</v>
       </c>
       <c r="D407" t="n">
-        <v>5696165</v>
+        <v>5709665</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1319</v>
+        <v>1327</v>
       </c>
       <c r="D408" t="n">
-        <v>1970989</v>
+        <v>1982989</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>5266</v>
+        <v>5290</v>
       </c>
       <c r="D412" t="n">
-        <v>7090566</v>
+        <v>7118424</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1542</v>
+        <v>1555</v>
       </c>
       <c r="D413" t="n">
-        <v>2222603</v>
+        <v>2240604</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>5022</v>
+        <v>5048</v>
       </c>
       <c r="D414" t="n">
-        <v>7398364</v>
+        <v>7436529</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1902</v>
+        <v>1913</v>
       </c>
       <c r="D415" t="n">
-        <v>2833446</v>
+        <v>2849946</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="D416" t="n">
-        <v>1002460</v>
+        <v>1011460</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D417" t="n">
-        <v>258613</v>
+        <v>261613</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>3413</v>
+        <v>3449</v>
       </c>
       <c r="D420" t="n">
-        <v>4522058</v>
+        <v>4570529</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D421" t="n">
-        <v>863964</v>
+        <v>869664</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D423" t="n">
-        <v>177000</v>
+        <v>186000</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>3043</v>
+        <v>3053</v>
       </c>
       <c r="D426" t="n">
-        <v>4413018</v>
+        <v>4428018</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>7308</v>
+        <v>7331</v>
       </c>
       <c r="D427" t="n">
-        <v>10725801</v>
+        <v>10760301</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2411</v>
+        <v>2419</v>
       </c>
       <c r="D428" t="n">
-        <v>3593994</v>
+        <v>3605588</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D429" t="n">
-        <v>1055593</v>
+        <v>1057093</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>2381</v>
+        <v>2396</v>
       </c>
       <c r="D432" t="n">
-        <v>3178142</v>
+        <v>3198742</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1710</v>
+        <v>1719</v>
       </c>
       <c r="D433" t="n">
-        <v>2486528</v>
+        <v>2498894</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>4856</v>
+        <v>4868</v>
       </c>
       <c r="D434" t="n">
-        <v>7127204</v>
+        <v>7145204</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1594</v>
+        <v>1601</v>
       </c>
       <c r="D435" t="n">
-        <v>2374342</v>
+        <v>2384842</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="D439" t="n">
-        <v>2193791</v>
+        <v>2194609</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1933</v>
+        <v>1940</v>
       </c>
       <c r="D440" t="n">
-        <v>2792400</v>
+        <v>2801234</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>4824</v>
+        <v>4851</v>
       </c>
       <c r="D441" t="n">
-        <v>7086498</v>
+        <v>7126998</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1529</v>
+        <v>1535</v>
       </c>
       <c r="D442" t="n">
-        <v>2268360</v>
+        <v>2277360</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D443" t="n">
-        <v>643163</v>
+        <v>644663</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="D445" t="n">
-        <v>2124490</v>
+        <v>2133490</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="D446" t="n">
-        <v>1330890</v>
+        <v>1339890</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>2644</v>
+        <v>2647</v>
       </c>
       <c r="D447" t="n">
-        <v>3878302</v>
+        <v>3882802</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21838,10 +21838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D448" t="n">
-        <v>1140567</v>
+        <v>1142144</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="D451" t="n">
-        <v>1429717</v>
+        <v>1433406</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>3009</v>
+        <v>3021</v>
       </c>
       <c r="D452" t="n">
-        <v>4381086</v>
+        <v>4397261</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22078,10 +22078,10 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>9271</v>
+        <v>9295</v>
       </c>
       <c r="D453" t="n">
-        <v>13653213</v>
+        <v>13688310</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3369</v>
+        <v>3384</v>
       </c>
       <c r="D454" t="n">
-        <v>5007394</v>
+        <v>5029894</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D456" t="n">
-        <v>294060</v>
+        <v>303060</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>2940</v>
+        <v>2954</v>
       </c>
       <c r="D458" t="n">
-        <v>3846624</v>
+        <v>3864538</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D459" t="n">
-        <v>1726799</v>
+        <v>1728204</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3206</v>
+        <v>3219</v>
       </c>
       <c r="D460" t="n">
-        <v>4688264</v>
+        <v>4704618</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D461" t="n">
-        <v>1551244</v>
+        <v>1554244</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D463" t="n">
-        <v>76500</v>
+        <v>78000</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="D465" t="n">
-        <v>1699528</v>
+        <v>1702189</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>4361</v>
+        <v>4375</v>
       </c>
       <c r="D466" t="n">
-        <v>6312362</v>
+        <v>6332875</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>8164</v>
+        <v>8186</v>
       </c>
       <c r="D467" t="n">
-        <v>11974674</v>
+        <v>12006176</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>2389</v>
+        <v>2393</v>
       </c>
       <c r="D468" t="n">
-        <v>3553489</v>
+        <v>3558210</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D469" t="n">
-        <v>895853</v>
+        <v>903353</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22990,10 +22990,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>2747</v>
+        <v>2756</v>
       </c>
       <c r="D472" t="n">
-        <v>3669524</v>
+        <v>3681489</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="D473" t="n">
-        <v>1496260</v>
+        <v>1506547</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>2583</v>
+        <v>2589</v>
       </c>
       <c r="D474" t="n">
-        <v>3778934</v>
+        <v>3787934</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D475" t="n">
-        <v>1147555</v>
+        <v>1149055</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>1353</v>
+        <v>1374</v>
       </c>
       <c r="D478" t="n">
-        <v>1804775</v>
+        <v>1833612</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D479" t="n">
-        <v>530179</v>
+        <v>532548</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="D480" t="n">
-        <v>1526628</v>
+        <v>1534128</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D481" t="n">
-        <v>516078</v>
+        <v>517578</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D484" t="n">
-        <v>775398</v>
+        <v>778398</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="D485" t="n">
-        <v>1328674</v>
+        <v>1334061</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>2835</v>
+        <v>2841</v>
       </c>
       <c r="D486" t="n">
-        <v>4178651</v>
+        <v>4187062</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D487" t="n">
-        <v>1443293</v>
+        <v>1444793</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D488" t="n">
-        <v>377281</v>
+        <v>380281</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D489" t="n">
-        <v>100500</v>
+        <v>102900</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="D490" t="n">
-        <v>1371547</v>
+        <v>1382047</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>2763</v>
+        <v>2772</v>
       </c>
       <c r="D491" t="n">
-        <v>3956987</v>
+        <v>3970215</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>5275</v>
+        <v>5290</v>
       </c>
       <c r="D492" t="n">
-        <v>7724138</v>
+        <v>7746074</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="D493" t="n">
-        <v>2235606</v>
+        <v>2240106</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D494" t="n">
-        <v>549847</v>
+        <v>551347</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>2371</v>
+        <v>2378</v>
       </c>
       <c r="D497" t="n">
-        <v>3106106</v>
+        <v>3115047</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>8700</v>
+        <v>8739</v>
       </c>
       <c r="D498" t="n">
-        <v>12605827</v>
+        <v>12660912</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>18171</v>
+        <v>18234</v>
       </c>
       <c r="D499" t="n">
-        <v>26608518</v>
+        <v>26700929</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>6169</v>
+        <v>6202</v>
       </c>
       <c r="D500" t="n">
-        <v>9180955</v>
+        <v>9225927</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24382,10 +24382,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>1922</v>
+        <v>1937</v>
       </c>
       <c r="D501" t="n">
-        <v>2865272</v>
+        <v>2887772</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>6522</v>
+        <v>6551</v>
       </c>
       <c r="D506" t="n">
-        <v>8840629</v>
+        <v>8880838</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>1265</v>
+        <v>1272</v>
       </c>
       <c r="D507" t="n">
-        <v>1822448</v>
+        <v>1830615</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>3199</v>
+        <v>3210</v>
       </c>
       <c r="D508" t="n">
-        <v>4691156</v>
+        <v>4707656</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D509" t="n">
-        <v>1556669</v>
+        <v>1558169</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D510" t="n">
-        <v>512932</v>
+        <v>515932</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D512" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>1556</v>
+        <v>1561</v>
       </c>
       <c r="D513" t="n">
-        <v>2052165</v>
+        <v>2059335</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>2879</v>
+        <v>2888</v>
       </c>
       <c r="D514" t="n">
-        <v>4131354</v>
+        <v>4143609</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>4930</v>
+        <v>4943</v>
       </c>
       <c r="D515" t="n">
-        <v>7217045</v>
+        <v>7235736</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="D516" t="n">
-        <v>2241182</v>
+        <v>2247182</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25150,10 +25150,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D517" t="n">
-        <v>579873</v>
+        <v>588919</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D519" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1616</v>
+        <v>1624</v>
       </c>
       <c r="D520" t="n">
-        <v>2142138</v>
+        <v>2153170</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>1589</v>
+        <v>1594</v>
       </c>
       <c r="D521" t="n">
-        <v>2290829</v>
+        <v>2298013</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>3403</v>
+        <v>3412</v>
       </c>
       <c r="D522" t="n">
-        <v>4976332</v>
+        <v>4989832</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="D523" t="n">
-        <v>1726535</v>
+        <v>1732535</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D524" t="n">
-        <v>404675</v>
+        <v>407675</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25582,10 +25582,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D526" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>1459</v>
+        <v>1471</v>
       </c>
       <c r="D527" t="n">
-        <v>1974114</v>
+        <v>1985263</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>3708</v>
+        <v>3735</v>
       </c>
       <c r="D528" t="n">
-        <v>5338092</v>
+        <v>5375190</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>9125</v>
+        <v>9158</v>
       </c>
       <c r="D529" t="n">
-        <v>13342998</v>
+        <v>13391491</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>3074</v>
+        <v>3096</v>
       </c>
       <c r="D530" t="n">
-        <v>4562983</v>
+        <v>4595983</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="D531" t="n">
-        <v>1274694</v>
+        <v>1282194</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>3609</v>
+        <v>3624</v>
       </c>
       <c r="D535" t="n">
-        <v>4858632</v>
+        <v>4878987</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D536" t="n">
-        <v>1670141</v>
+        <v>1672178</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>3404</v>
+        <v>3417</v>
       </c>
       <c r="D537" t="n">
-        <v>4963490</v>
+        <v>4982990</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D538" t="n">
-        <v>1671921</v>
+        <v>1673666</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>1226</v>
+        <v>1250</v>
       </c>
       <c r="D542" t="n">
-        <v>1647394</v>
+        <v>1681446</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D543" t="n">
-        <v>708283</v>
+        <v>715991</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>1755</v>
+        <v>1769</v>
       </c>
       <c r="D544" t="n">
-        <v>2560983</v>
+        <v>2581983</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D545" t="n">
-        <v>914906</v>
+        <v>920906</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D546" t="n">
-        <v>258130</v>
+        <v>262327</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26686,10 +26686,10 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="D549" t="n">
-        <v>1070575</v>
+        <v>1084515</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>2791</v>
+        <v>2809</v>
       </c>
       <c r="D550" t="n">
-        <v>4004429</v>
+        <v>4031272</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>5038</v>
+        <v>5060</v>
       </c>
       <c r="D551" t="n">
-        <v>7377234</v>
+        <v>7408719</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1530</v>
+        <v>1538</v>
       </c>
       <c r="D552" t="n">
-        <v>2272834</v>
+        <v>2284411</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D553" t="n">
-        <v>632278</v>
+        <v>639778</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="D556" t="n">
-        <v>2415784</v>
+        <v>2422784</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>1740</v>
+        <v>1756</v>
       </c>
       <c r="D557" t="n">
-        <v>2494979</v>
+        <v>2517010</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>3621</v>
+        <v>3627</v>
       </c>
       <c r="D558" t="n">
-        <v>5296192</v>
+        <v>5305192</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="D559" t="n">
-        <v>1571439</v>
+        <v>1575939</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>1951</v>
+        <v>1961</v>
       </c>
       <c r="D563" t="n">
-        <v>2592202</v>
+        <v>2606306</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>4363</v>
+        <v>4383</v>
       </c>
       <c r="D564" t="n">
-        <v>6308293</v>
+        <v>6334512</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>10204</v>
+        <v>10243</v>
       </c>
       <c r="D565" t="n">
-        <v>14924560</v>
+        <v>14982895</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2859</v>
+        <v>2864</v>
       </c>
       <c r="D566" t="n">
-        <v>4239400</v>
+        <v>4246900</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D567" t="n">
-        <v>988476</v>
+        <v>994476</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D568" t="n">
-        <v>168740</v>
+        <v>170240</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>3996</v>
+        <v>4010</v>
       </c>
       <c r="D570" t="n">
-        <v>5292646</v>
+        <v>5313422</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="D571" t="n">
-        <v>1439206</v>
+        <v>1446706</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>2265</v>
+        <v>2278</v>
       </c>
       <c r="D572" t="n">
-        <v>3292237</v>
+        <v>3309767</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D573" t="n">
-        <v>1007195</v>
+        <v>1013195</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27886,10 +27886,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D574" t="n">
-        <v>248445</v>
+        <v>252945</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>1224</v>
+        <v>1236</v>
       </c>
       <c r="D576" t="n">
-        <v>1608734</v>
+        <v>1623354</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>6164</v>
+        <v>6201</v>
       </c>
       <c r="D577" t="n">
-        <v>8905576</v>
+        <v>8956573</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>14841</v>
+        <v>14896</v>
       </c>
       <c r="D578" t="n">
-        <v>21761872</v>
+        <v>21842752</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>5235</v>
+        <v>5254</v>
       </c>
       <c r="D579" t="n">
-        <v>7780069</v>
+        <v>7808569</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="D580" t="n">
-        <v>2387944</v>
+        <v>2392444</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28222,10 +28222,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D581" t="n">
-        <v>463227</v>
+        <v>466227</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>6014</v>
+        <v>6040</v>
       </c>
       <c r="D584" t="n">
-        <v>8035633</v>
+        <v>8072013</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>1438</v>
+        <v>1447</v>
       </c>
       <c r="D585" t="n">
-        <v>2028723</v>
+        <v>2042223</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>3198</v>
+        <v>3216</v>
       </c>
       <c r="D586" t="n">
-        <v>4630793</v>
+        <v>4656593</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28510,10 +28510,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="D587" t="n">
-        <v>1571797</v>
+        <v>1579297</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D588" t="n">
-        <v>391422</v>
+        <v>392922</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D589" t="n">
-        <v>96334</v>
+        <v>97834</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>1772</v>
+        <v>1785</v>
       </c>
       <c r="D590" t="n">
-        <v>2373000</v>
+        <v>2392156</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>8526</v>
+        <v>8571</v>
       </c>
       <c r="D591" t="n">
-        <v>12364459</v>
+        <v>12430661</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>18032</v>
+        <v>18123</v>
       </c>
       <c r="D592" t="n">
-        <v>26427073</v>
+        <v>26555782</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>5440</v>
+        <v>5456</v>
       </c>
       <c r="D593" t="n">
-        <v>8091183</v>
+        <v>8115183</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>1393</v>
+        <v>1407</v>
       </c>
       <c r="D594" t="n">
-        <v>2068236</v>
+        <v>2089236</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D595" t="n">
-        <v>377451</v>
+        <v>387951</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>5929</v>
+        <v>5955</v>
       </c>
       <c r="D597" t="n">
-        <v>7920020</v>
+        <v>7949838</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="D598" t="n">
-        <v>1848666</v>
+        <v>1854666</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>2254</v>
+        <v>2263</v>
       </c>
       <c r="D599" t="n">
-        <v>3302865</v>
+        <v>3314891</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29134,10 +29134,10 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D600" t="n">
-        <v>958703</v>
+        <v>960203</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D601" t="n">
-        <v>239145</v>
+        <v>242145</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>1199</v>
+        <v>1205</v>
       </c>
       <c r="D604" t="n">
-        <v>1578596</v>
+        <v>1586279</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29374,10 +29374,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="D605" t="n">
-        <v>1004333</v>
+        <v>1010333</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="D606" t="n">
-        <v>1534870</v>
+        <v>1545770</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D607" t="n">
-        <v>447481</v>
+        <v>450481</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>817</v>
+        <v>867</v>
       </c>
       <c r="D610" t="n">
-        <v>1136780</v>
+        <v>1202650</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>4009</v>
+        <v>4032</v>
       </c>
       <c r="D611" t="n">
-        <v>5818194</v>
+        <v>5852694</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>6575</v>
+        <v>6592</v>
       </c>
       <c r="D612" t="n">
-        <v>9571801</v>
+        <v>9594236</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>2047</v>
+        <v>2056</v>
       </c>
       <c r="D613" t="n">
-        <v>3043211</v>
+        <v>3056711</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D614" t="n">
-        <v>830592</v>
+        <v>838092</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D615" t="n">
-        <v>168000</v>
+        <v>171000</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="D617" t="n">
-        <v>3433835</v>
+        <v>3445964</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1662</v>
+        <v>1670</v>
       </c>
       <c r="D618" t="n">
-        <v>2403012</v>
+        <v>2414585</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30046,10 +30046,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>4128</v>
+        <v>4138</v>
       </c>
       <c r="D619" t="n">
-        <v>6063834</v>
+        <v>6078494</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="D620" t="n">
-        <v>1843560</v>
+        <v>1846560</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D621" t="n">
-        <v>440258</v>
+        <v>443258</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1748</v>
+        <v>1753</v>
       </c>
       <c r="D624" t="n">
-        <v>2306238</v>
+        <v>2312292</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="D625" t="n">
-        <v>1609525</v>
+        <v>1617730</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30382,10 +30382,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>2648</v>
+        <v>2655</v>
       </c>
       <c r="D626" t="n">
-        <v>3879325</v>
+        <v>3885715</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30430,10 +30430,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D627" t="n">
-        <v>1200354</v>
+        <v>1203354</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -30478,10 +30478,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D628" t="n">
-        <v>320291</v>
+        <v>321791</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="D631" t="n">
-        <v>1593700</v>
+        <v>1599700</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>5155</v>
+        <v>5179</v>
       </c>
       <c r="D632" t="n">
-        <v>7473681</v>
+        <v>7507880</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>12210</v>
+        <v>12243</v>
       </c>
       <c r="D633" t="n">
-        <v>17972130</v>
+        <v>18018282</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>4589</v>
+        <v>4609</v>
       </c>
       <c r="D634" t="n">
-        <v>6812430</v>
+        <v>6840778</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30814,10 +30814,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="D635" t="n">
-        <v>1813857</v>
+        <v>1821357</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D636" t="n">
-        <v>319762</v>
+        <v>321262</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -30958,10 +30958,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>4188</v>
+        <v>4197</v>
       </c>
       <c r="D638" t="n">
-        <v>5596539</v>
+        <v>5607762</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>2253</v>
+        <v>2258</v>
       </c>
       <c r="D639" t="n">
-        <v>3247523</v>
+        <v>3255023</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>6866</v>
+        <v>6886</v>
       </c>
       <c r="D640" t="n">
-        <v>10093225</v>
+        <v>10120783</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31102,10 +31102,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="D641" t="n">
-        <v>3367550</v>
+        <v>3372050</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="D642" t="n">
-        <v>923060</v>
+        <v>930560</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D643" t="n">
-        <v>159274</v>
+        <v>160774</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31342,10 +31342,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>2259</v>
+        <v>2265</v>
       </c>
       <c r="D646" t="n">
-        <v>3056097</v>
+        <v>3063213</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31390,10 +31390,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="D647" t="n">
-        <v>1322013</v>
+        <v>1329513</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -31438,10 +31438,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>2442</v>
+        <v>2455</v>
       </c>
       <c r="D648" t="n">
-        <v>3576664</v>
+        <v>3596164</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31486,10 +31486,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D649" t="n">
-        <v>1191790</v>
+        <v>1194790</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D650" t="n">
-        <v>310462</v>
+        <v>314962</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="D653" t="n">
-        <v>1112452</v>
+        <v>1117103</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="D654" t="n">
-        <v>2203358</v>
+        <v>2207858</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>4102</v>
+        <v>4117</v>
       </c>
       <c r="D655" t="n">
-        <v>6030156</v>
+        <v>6052656</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31822,10 +31822,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="D656" t="n">
-        <v>2038647</v>
+        <v>2041647</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -31870,10 +31870,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D657" t="n">
-        <v>510663</v>
+        <v>512964</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D658" t="n">
-        <v>99000</v>
+        <v>102000</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>1362</v>
+        <v>1368</v>
       </c>
       <c r="D660" t="n">
-        <v>1774755</v>
+        <v>1781912</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>3205</v>
+        <v>3220</v>
       </c>
       <c r="D661" t="n">
-        <v>4656037</v>
+        <v>4677105</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>6347</v>
+        <v>6368</v>
       </c>
       <c r="D662" t="n">
-        <v>9291356</v>
+        <v>9321722</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="D663" t="n">
-        <v>3485689</v>
+        <v>3487189</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D664" t="n">
-        <v>787161</v>
+        <v>788661</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="D668" t="n">
-        <v>2735339</v>
+        <v>2742828</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>1540</v>
+        <v>1548</v>
       </c>
       <c r="D669" t="n">
-        <v>2223523</v>
+        <v>2234539</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>2841</v>
+        <v>2847</v>
       </c>
       <c r="D670" t="n">
-        <v>4144000</v>
+        <v>4151800</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32542,10 +32542,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D671" t="n">
-        <v>1234557</v>
+        <v>1236057</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D675" t="n">
-        <v>1590740</v>
+        <v>1591805</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>8521</v>
+        <v>8555</v>
       </c>
       <c r="D676" t="n">
-        <v>12341151</v>
+        <v>12390906</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32830,10 +32830,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>20359</v>
+        <v>20464</v>
       </c>
       <c r="D677" t="n">
-        <v>29878310</v>
+        <v>30026610</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>6079</v>
+        <v>6109</v>
       </c>
       <c r="D678" t="n">
-        <v>9039786</v>
+        <v>9084600</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32926,10 +32926,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>1753</v>
+        <v>1759</v>
       </c>
       <c r="D679" t="n">
-        <v>2617874</v>
+        <v>2626874</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D680" t="n">
-        <v>600960</v>
+        <v>611460</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>7388</v>
+        <v>7419</v>
       </c>
       <c r="D682" t="n">
-        <v>10048637</v>
+        <v>10091982</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>10427</v>
+        <v>10475</v>
       </c>
       <c r="D683" t="n">
-        <v>15144258</v>
+        <v>15211149</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>27932</v>
+        <v>28044</v>
       </c>
       <c r="D684" t="n">
-        <v>41019335</v>
+        <v>41179166</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>8802</v>
+        <v>8838</v>
       </c>
       <c r="D685" t="n">
-        <v>13103493</v>
+        <v>13157393</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33262,10 +33262,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>2372</v>
+        <v>2385</v>
       </c>
       <c r="D686" t="n">
-        <v>3540279</v>
+        <v>3558245</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33310,10 +33310,10 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="D687" t="n">
-        <v>799460</v>
+        <v>811998</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D688" t="n">
-        <v>40500</v>
+        <v>43500</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>9331</v>
+        <v>9365</v>
       </c>
       <c r="D690" t="n">
-        <v>12611108</v>
+        <v>12652026</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>1279</v>
+        <v>1284</v>
       </c>
       <c r="D691" t="n">
-        <v>1841464</v>
+        <v>1848794</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33550,10 +33550,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>2677</v>
+        <v>2684</v>
       </c>
       <c r="D692" t="n">
-        <v>3910510</v>
+        <v>3920780</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="D693" t="n">
-        <v>1503538</v>
+        <v>1516900</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>2009</v>
+        <v>2023</v>
       </c>
       <c r="D697" t="n">
-        <v>2774345</v>
+        <v>2792845</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>8942</v>
+        <v>8981</v>
       </c>
       <c r="D698" t="n">
-        <v>12812546</v>
+        <v>12865231</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>16814</v>
+        <v>16841</v>
       </c>
       <c r="D699" t="n">
-        <v>24532145</v>
+        <v>24572645</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>4674</v>
+        <v>4686</v>
       </c>
       <c r="D700" t="n">
-        <v>6943323</v>
+        <v>6961323</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -33982,10 +33982,10 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="D701" t="n">
-        <v>1669876</v>
+        <v>1677376</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>5614</v>
+        <v>5634</v>
       </c>
       <c r="D705" t="n">
-        <v>7583748</v>
+        <v>7609769</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>3772</v>
+        <v>3786</v>
       </c>
       <c r="D706" t="n">
-        <v>5447782</v>
+        <v>5468178</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34270,10 +34270,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>9477</v>
+        <v>9519</v>
       </c>
       <c r="D707" t="n">
-        <v>13891825</v>
+        <v>13951264</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -34318,10 +34318,10 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>2612</v>
+        <v>2625</v>
       </c>
       <c r="D708" t="n">
-        <v>3874905</v>
+        <v>3894405</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="D709" t="n">
-        <v>863891</v>
+        <v>874391</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D710" t="n">
-        <v>216000</v>
+        <v>217500</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>3174</v>
+        <v>3189</v>
       </c>
       <c r="D712" t="n">
-        <v>4183002</v>
+        <v>4199950</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5694</v>
+        <v>5696</v>
       </c>
       <c r="D3" t="n">
-        <v>8364568</v>
+        <v>8367568</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="D4" t="n">
-        <v>3006032</v>
+        <v>3012032</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D8" t="n">
-        <v>809954</v>
+        <v>814198</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D9" t="n">
-        <v>1706988</v>
+        <v>1708488</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D11" t="n">
-        <v>1359822</v>
+        <v>1361322</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1909</v>
+        <v>1914</v>
       </c>
       <c r="D14" t="n">
-        <v>2513569</v>
+        <v>2521069</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2529</v>
+        <v>2537</v>
       </c>
       <c r="D15" t="n">
-        <v>3655389</v>
+        <v>3666379</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4165</v>
+        <v>4179</v>
       </c>
       <c r="D16" t="n">
-        <v>6081989</v>
+        <v>6101891</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="D17" t="n">
-        <v>1704327</v>
+        <v>1711827</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="D21" t="n">
-        <v>2343735</v>
+        <v>2347337</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D22" t="n">
-        <v>949870</v>
+        <v>951370</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="D23" t="n">
-        <v>2773796</v>
+        <v>2779796</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2065</v>
+        <v>2073</v>
       </c>
       <c r="D28" t="n">
-        <v>2872370</v>
+        <v>2884370</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3147</v>
+        <v>3157</v>
       </c>
       <c r="D29" t="n">
-        <v>4551495</v>
+        <v>4566495</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6361</v>
+        <v>6374</v>
       </c>
       <c r="D30" t="n">
-        <v>9315932</v>
+        <v>9333917</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="D31" t="n">
-        <v>2920969</v>
+        <v>2922469</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D32" t="n">
-        <v>728714</v>
+        <v>730214</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="D35" t="n">
-        <v>3189538</v>
+        <v>3192932</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="D36" t="n">
-        <v>1752134</v>
+        <v>1754426</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="D37" t="n">
-        <v>4009338</v>
+        <v>4015338</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D38" t="n">
-        <v>1143358</v>
+        <v>1146358</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D42" t="n">
-        <v>1816454</v>
+        <v>1817954</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3931</v>
+        <v>3939</v>
       </c>
       <c r="D43" t="n">
-        <v>5718539</v>
+        <v>5729601</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8839</v>
+        <v>8852</v>
       </c>
       <c r="D44" t="n">
-        <v>12959713</v>
+        <v>12979213</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3607</v>
+        <v>3615</v>
       </c>
       <c r="D45" t="n">
-        <v>5338159</v>
+        <v>5350159</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="D46" t="n">
-        <v>1676785</v>
+        <v>1679785</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4930</v>
+        <v>4944</v>
       </c>
       <c r="D49" t="n">
-        <v>6751622</v>
+        <v>6767762</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5787</v>
+        <v>5796</v>
       </c>
       <c r="D50" t="n">
-        <v>8376242</v>
+        <v>8388735</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>13505</v>
+        <v>13523</v>
       </c>
       <c r="D51" t="n">
-        <v>19865235</v>
+        <v>19889584</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4587</v>
+        <v>4593</v>
       </c>
       <c r="D52" t="n">
-        <v>6795113</v>
+        <v>6804113</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1234</v>
+        <v>1241</v>
       </c>
       <c r="D53" t="n">
-        <v>1833195</v>
+        <v>1843695</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2974,10 +2974,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>35000</v>
+        <v>36500</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5572</v>
+        <v>5587</v>
       </c>
       <c r="D57" t="n">
-        <v>7635050</v>
+        <v>7656814</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3137</v>
+        <v>3144</v>
       </c>
       <c r="D58" t="n">
-        <v>4529645</v>
+        <v>4538800</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7767</v>
+        <v>7779</v>
       </c>
       <c r="D59" t="n">
-        <v>11387648</v>
+        <v>11405648</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2471</v>
+        <v>2478</v>
       </c>
       <c r="D60" t="n">
-        <v>3641532</v>
+        <v>3652032</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D61" t="n">
-        <v>929677</v>
+        <v>932677</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="D64" t="n">
-        <v>4369428</v>
+        <v>4375316</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2657</v>
+        <v>2663</v>
       </c>
       <c r="D65" t="n">
-        <v>3818902</v>
+        <v>3827002</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6971</v>
+        <v>6984</v>
       </c>
       <c r="D66" t="n">
-        <v>10197942</v>
+        <v>10216510</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2360</v>
+        <v>2364</v>
       </c>
       <c r="D67" t="n">
-        <v>3489380</v>
+        <v>3495380</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D68" t="n">
-        <v>965198</v>
+        <v>966698</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2978</v>
+        <v>2984</v>
       </c>
       <c r="D71" t="n">
-        <v>3937436</v>
+        <v>3944110</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>9028</v>
+        <v>9064</v>
       </c>
       <c r="D72" t="n">
-        <v>13099502</v>
+        <v>13149031</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>22274</v>
+        <v>22321</v>
       </c>
       <c r="D73" t="n">
-        <v>32723370</v>
+        <v>32792185</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7657</v>
+        <v>7675</v>
       </c>
       <c r="D74" t="n">
-        <v>11366697</v>
+        <v>11392697</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2154</v>
+        <v>2159</v>
       </c>
       <c r="D75" t="n">
-        <v>3205872</v>
+        <v>3213372</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D76" t="n">
-        <v>659483</v>
+        <v>660983</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7378</v>
+        <v>7391</v>
       </c>
       <c r="D80" t="n">
-        <v>10152621</v>
+        <v>10167555</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2720</v>
+        <v>2725</v>
       </c>
       <c r="D81" t="n">
-        <v>3947413</v>
+        <v>3954913</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6371</v>
+        <v>6379</v>
       </c>
       <c r="D82" t="n">
-        <v>9326359</v>
+        <v>9338359</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="D83" t="n">
-        <v>4224644</v>
+        <v>4226144</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D85" t="n">
-        <v>451775</v>
+        <v>453275</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6399</v>
+        <v>6408</v>
       </c>
       <c r="D87" t="n">
-        <v>8987078</v>
+        <v>8998958</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="D88" t="n">
-        <v>2764412</v>
+        <v>2765912</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4880</v>
+        <v>4887</v>
       </c>
       <c r="D89" t="n">
-        <v>7168387</v>
+        <v>7178887</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="D90" t="n">
-        <v>2555272</v>
+        <v>2559772</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D92" t="n">
-        <v>125175</v>
+        <v>126675</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="D94" t="n">
-        <v>2600283</v>
+        <v>2605878</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1688</v>
+        <v>1693</v>
       </c>
       <c r="D95" t="n">
-        <v>2440865</v>
+        <v>2446984</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4490</v>
+        <v>4507</v>
       </c>
       <c r="D96" t="n">
-        <v>6591057</v>
+        <v>6614202</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D98" t="n">
-        <v>663518</v>
+        <v>665018</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D99" t="n">
-        <v>147899</v>
+        <v>149399</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1531</v>
+        <v>1536</v>
       </c>
       <c r="D102" t="n">
-        <v>2069353</v>
+        <v>2075451</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D103" t="n">
-        <v>1002422</v>
+        <v>1005422</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="D104" t="n">
-        <v>2566821</v>
+        <v>2572821</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D105" t="n">
-        <v>786690</v>
+        <v>789690</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D109" t="n">
-        <v>1588806</v>
+        <v>1591806</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="D110" t="n">
-        <v>3900501</v>
+        <v>3902001</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D111" t="n">
-        <v>1172764</v>
+        <v>1174264</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D115" t="n">
-        <v>1268362</v>
+        <v>1269754</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5950,10 +5950,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="D117" t="n">
-        <v>2780942</v>
+        <v>2783942</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D118" t="n">
-        <v>881265</v>
+        <v>882765</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1941</v>
+        <v>1951</v>
       </c>
       <c r="D122" t="n">
-        <v>2806106</v>
+        <v>2819713</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5705</v>
+        <v>5715</v>
       </c>
       <c r="D123" t="n">
-        <v>8359492</v>
+        <v>8374239</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="D124" t="n">
-        <v>2569519</v>
+        <v>2574019</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D125" t="n">
-        <v>539939</v>
+        <v>542939</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2434</v>
+        <v>2443</v>
       </c>
       <c r="D127" t="n">
-        <v>3283601</v>
+        <v>3293676</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D130" t="n">
-        <v>606552</v>
+        <v>609552</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D133" t="n">
-        <v>451722</v>
+        <v>451852</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="D134" t="n">
-        <v>1575599</v>
+        <v>1580099</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3229</v>
+        <v>3232</v>
       </c>
       <c r="D135" t="n">
-        <v>4739664</v>
+        <v>4744164</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D136" t="n">
-        <v>1387524</v>
+        <v>1389024</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D137" t="n">
-        <v>384064</v>
+        <v>387064</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="D141" t="n">
-        <v>3798286</v>
+        <v>3801286</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6039</v>
+        <v>6045</v>
       </c>
       <c r="D142" t="n">
-        <v>8842764</v>
+        <v>8851764</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="D143" t="n">
-        <v>2483125</v>
+        <v>2486125</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2370</v>
+        <v>2378</v>
       </c>
       <c r="D147" t="n">
-        <v>3113615</v>
+        <v>3124251</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3591</v>
+        <v>3599</v>
       </c>
       <c r="D148" t="n">
-        <v>5176499</v>
+        <v>5187502</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>8175</v>
+        <v>8186</v>
       </c>
       <c r="D149" t="n">
-        <v>11965572</v>
+        <v>11981174</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D151" t="n">
-        <v>1027626</v>
+        <v>1030626</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D152" t="n">
-        <v>234261</v>
+        <v>235761</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3108</v>
+        <v>3112</v>
       </c>
       <c r="D154" t="n">
-        <v>4152786</v>
+        <v>4156457</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3356</v>
+        <v>3364</v>
       </c>
       <c r="D155" t="n">
-        <v>4864960</v>
+        <v>4876425</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>9385</v>
+        <v>9397</v>
       </c>
       <c r="D156" t="n">
-        <v>13842992</v>
+        <v>13860283</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3090</v>
+        <v>3092</v>
       </c>
       <c r="D157" t="n">
-        <v>4600971</v>
+        <v>4603971</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="D158" t="n">
-        <v>1364975</v>
+        <v>1369475</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3128</v>
+        <v>3134</v>
       </c>
       <c r="D161" t="n">
-        <v>4219310</v>
+        <v>4226428</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3694</v>
+        <v>3701</v>
       </c>
       <c r="D162" t="n">
-        <v>5321335</v>
+        <v>5331139</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7824</v>
+        <v>7842</v>
       </c>
       <c r="D163" t="n">
-        <v>11471693</v>
+        <v>11496430</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="D164" t="n">
-        <v>3779725</v>
+        <v>3782725</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D165" t="n">
-        <v>899712</v>
+        <v>901212</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2958</v>
+        <v>2967</v>
       </c>
       <c r="D168" t="n">
-        <v>3976165</v>
+        <v>3985735</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="D169" t="n">
-        <v>1209232</v>
+        <v>1215642</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2482</v>
+        <v>2488</v>
       </c>
       <c r="D170" t="n">
-        <v>3635020</v>
+        <v>3644020</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D172" t="n">
-        <v>354000</v>
+        <v>355500</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="D175" t="n">
-        <v>1536120</v>
+        <v>1541120</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1130</v>
+        <v>1137</v>
       </c>
       <c r="D176" t="n">
-        <v>1654102</v>
+        <v>1664602</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="D177" t="n">
-        <v>5136279</v>
+        <v>5137215</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="D178" t="n">
-        <v>1730307</v>
+        <v>1734807</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D179" t="n">
-        <v>442376</v>
+        <v>443876</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D182" t="n">
-        <v>1483271</v>
+        <v>1485412</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="D184" t="n">
-        <v>2783379</v>
+        <v>2789379</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="D189" t="n">
-        <v>3116324</v>
+        <v>3119324</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>5697</v>
+        <v>5704</v>
       </c>
       <c r="D190" t="n">
-        <v>8343980</v>
+        <v>8354480</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="D191" t="n">
-        <v>2959404</v>
+        <v>2969904</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9550,10 +9550,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D192" t="n">
-        <v>791024</v>
+        <v>792524</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="D195" t="n">
-        <v>2842379</v>
+        <v>2844009</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="D196" t="n">
-        <v>2701444</v>
+        <v>2704444</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5583</v>
+        <v>5592</v>
       </c>
       <c r="D197" t="n">
-        <v>8212821</v>
+        <v>8226321</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="D198" t="n">
-        <v>3081537</v>
+        <v>3087537</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D199" t="n">
-        <v>714375</v>
+        <v>715874</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D200" t="n">
-        <v>127500</v>
+        <v>129000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="D202" t="n">
-        <v>2455931</v>
+        <v>2458931</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D203" t="n">
-        <v>1434950</v>
+        <v>1437950</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3147</v>
+        <v>3149</v>
       </c>
       <c r="D204" t="n">
-        <v>4625800</v>
+        <v>4628750</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="D210" t="n">
-        <v>1344370</v>
+        <v>1351870</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3645</v>
+        <v>3657</v>
       </c>
       <c r="D211" t="n">
-        <v>5324208</v>
+        <v>5342208</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1893</v>
+        <v>1903</v>
       </c>
       <c r="D212" t="n">
-        <v>2804246</v>
+        <v>2818953</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D213" t="n">
-        <v>748349</v>
+        <v>751409</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D214" t="n">
-        <v>150428</v>
+        <v>157928</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="D215" t="n">
-        <v>996215</v>
+        <v>1012694</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2239</v>
+        <v>2245</v>
       </c>
       <c r="D216" t="n">
-        <v>3240320</v>
+        <v>3249320</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>4056</v>
+        <v>4064</v>
       </c>
       <c r="D217" t="n">
-        <v>5923165</v>
+        <v>5933838</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="D221" t="n">
-        <v>2255296</v>
+        <v>2264296</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="D223" t="n">
-        <v>3280307</v>
+        <v>3281807</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D224" t="n">
-        <v>1071130</v>
+        <v>1072630</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D227" t="n">
-        <v>1202283</v>
+        <v>1203583</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2635</v>
+        <v>2639</v>
       </c>
       <c r="D229" t="n">
-        <v>3843593</v>
+        <v>3849593</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D231" t="n">
-        <v>336056</v>
+        <v>337556</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="D233" t="n">
-        <v>1240181</v>
+        <v>1244681</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3904</v>
+        <v>3918</v>
       </c>
       <c r="D234" t="n">
-        <v>5650872</v>
+        <v>5670288</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>12281</v>
+        <v>12300</v>
       </c>
       <c r="D235" t="n">
-        <v>18022646</v>
+        <v>18050244</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4760</v>
+        <v>4769</v>
       </c>
       <c r="D236" t="n">
-        <v>7064232</v>
+        <v>7077732</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11710,10 +11710,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D237" t="n">
-        <v>2189119</v>
+        <v>2190619</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D238" t="n">
-        <v>488762</v>
+        <v>494762</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3393</v>
+        <v>3397</v>
       </c>
       <c r="D240" t="n">
-        <v>4605460</v>
+        <v>4609387</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="D242" t="n">
-        <v>1993696</v>
+        <v>1998196</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D244" t="n">
-        <v>205028</v>
+        <v>206528</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D247" t="n">
-        <v>748035</v>
+        <v>751035</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2661</v>
+        <v>2665</v>
       </c>
       <c r="D248" t="n">
-        <v>3848314</v>
+        <v>3853676</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>7844</v>
+        <v>7857</v>
       </c>
       <c r="D249" t="n">
-        <v>11508880</v>
+        <v>11528380</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3187</v>
+        <v>3192</v>
       </c>
       <c r="D250" t="n">
-        <v>4734833</v>
+        <v>4742333</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D251" t="n">
-        <v>1298392</v>
+        <v>1299892</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D252" t="n">
-        <v>334230</v>
+        <v>335730</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="D256" t="n">
-        <v>2688718</v>
+        <v>2691815</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="D257" t="n">
-        <v>2557688</v>
+        <v>2562148</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12718,10 +12718,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4904</v>
+        <v>4911</v>
       </c>
       <c r="D258" t="n">
-        <v>7220146</v>
+        <v>7230646</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1786</v>
+        <v>1792</v>
       </c>
       <c r="D259" t="n">
-        <v>2653310</v>
+        <v>2662310</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12814,10 +12814,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D260" t="n">
-        <v>794539</v>
+        <v>796039</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D261" t="n">
-        <v>132000</v>
+        <v>133500</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D262" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="D263" t="n">
-        <v>2503854</v>
+        <v>2506854</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="D264" t="n">
-        <v>2684885</v>
+        <v>2690474</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>5498</v>
+        <v>5513</v>
       </c>
       <c r="D265" t="n">
-        <v>8084191</v>
+        <v>8104491</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13102,10 +13102,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="D266" t="n">
-        <v>2842875</v>
+        <v>2846979</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D267" t="n">
-        <v>742232</v>
+        <v>743732</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D268" t="n">
-        <v>226583</v>
+        <v>228083</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="D270" t="n">
-        <v>2918592</v>
+        <v>2920092</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D271" t="n">
-        <v>713932</v>
+        <v>717536</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D274" t="n">
-        <v>179790</v>
+        <v>182790</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D276" t="n">
-        <v>765029</v>
+        <v>766529</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="D277" t="n">
-        <v>3786430</v>
+        <v>3787930</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>8524</v>
+        <v>8534</v>
       </c>
       <c r="D278" t="n">
-        <v>12493869</v>
+        <v>12508869</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3519</v>
+        <v>3525</v>
       </c>
       <c r="D279" t="n">
-        <v>5233258</v>
+        <v>5242258</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D280" t="n">
-        <v>1644862</v>
+        <v>1647862</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="D283" t="n">
-        <v>3184443</v>
+        <v>3185943</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13966,10 +13966,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D284" t="n">
-        <v>2278493</v>
+        <v>2279993</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3936</v>
+        <v>3940</v>
       </c>
       <c r="D285" t="n">
-        <v>5776305</v>
+        <v>5782305</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="D290" t="n">
-        <v>2155256</v>
+        <v>2155757</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1956</v>
+        <v>1974</v>
       </c>
       <c r="D291" t="n">
-        <v>2837316</v>
+        <v>2864316</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>6706</v>
+        <v>6745</v>
       </c>
       <c r="D292" t="n">
-        <v>9862406</v>
+        <v>9918077</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2305</v>
+        <v>2317</v>
       </c>
       <c r="D293" t="n">
-        <v>3442824</v>
+        <v>3460418</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D294" t="n">
-        <v>1109805</v>
+        <v>1114305</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D295" t="n">
-        <v>260833</v>
+        <v>268333</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D296" t="n">
-        <v>27000</v>
+        <v>28500</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>6613</v>
+        <v>6678</v>
       </c>
       <c r="D297" t="n">
-        <v>9111676</v>
+        <v>9201233</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>894</v>
+        <v>903</v>
       </c>
       <c r="D298" t="n">
-        <v>1312254</v>
+        <v>1325754</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2243</v>
+        <v>2261</v>
       </c>
       <c r="D299" t="n">
-        <v>3328113</v>
+        <v>3355113</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="D300" t="n">
-        <v>1338001</v>
+        <v>1351501</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14782,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D301" t="n">
-        <v>461758</v>
+        <v>464758</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D303" t="n">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1309</v>
+        <v>1316</v>
       </c>
       <c r="D304" t="n">
-        <v>1847385</v>
+        <v>1857885</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="D305" t="n">
-        <v>1658183</v>
+        <v>1664659</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3537</v>
+        <v>3541</v>
       </c>
       <c r="D306" t="n">
-        <v>5189426</v>
+        <v>5195426</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D307" t="n">
-        <v>1973353</v>
+        <v>1974853</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D308" t="n">
-        <v>486005</v>
+        <v>487505</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="D312" t="n">
-        <v>1877910</v>
+        <v>1881726</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>6922</v>
+        <v>6936</v>
       </c>
       <c r="D313" t="n">
-        <v>9988129</v>
+        <v>10009129</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>19421</v>
+        <v>19442</v>
       </c>
       <c r="D314" t="n">
-        <v>28416397</v>
+        <v>28447448</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>6905</v>
+        <v>6917</v>
       </c>
       <c r="D315" t="n">
-        <v>10278103</v>
+        <v>10296103</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2109</v>
+        <v>2117</v>
       </c>
       <c r="D316" t="n">
-        <v>3146636</v>
+        <v>3158636</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D317" t="n">
-        <v>663970</v>
+        <v>668542</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>6154</v>
+        <v>6169</v>
       </c>
       <c r="D320" t="n">
-        <v>8102904</v>
+        <v>8121044</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="D321" t="n">
-        <v>3024892</v>
+        <v>3029392</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>6430</v>
+        <v>6445</v>
       </c>
       <c r="D322" t="n">
-        <v>9441917</v>
+        <v>9464193</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15838,10 +15838,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2275</v>
+        <v>2280</v>
       </c>
       <c r="D323" t="n">
-        <v>3385780</v>
+        <v>3393280</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D324" t="n">
-        <v>914699</v>
+        <v>917699</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1963</v>
+        <v>1968</v>
       </c>
       <c r="D327" t="n">
-        <v>2668665</v>
+        <v>2674943</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3548</v>
+        <v>3551</v>
       </c>
       <c r="D328" t="n">
-        <v>5103985</v>
+        <v>5108485</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16126,10 +16126,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>10708</v>
+        <v>10721</v>
       </c>
       <c r="D329" t="n">
-        <v>15648273</v>
+        <v>15665868</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -16174,10 +16174,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="D330" t="n">
-        <v>5164426</v>
+        <v>5165926</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="D331" t="n">
-        <v>1611373</v>
+        <v>1614373</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3766</v>
+        <v>3775</v>
       </c>
       <c r="D335" t="n">
-        <v>4917295</v>
+        <v>4928727</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D336" t="n">
-        <v>2181380</v>
+        <v>2182880</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>4210</v>
+        <v>4215</v>
       </c>
       <c r="D337" t="n">
-        <v>6152491</v>
+        <v>6157335</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16558,10 +16558,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1595</v>
+        <v>1600</v>
       </c>
       <c r="D338" t="n">
-        <v>2370552</v>
+        <v>2378052</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="D342" t="n">
-        <v>2156127</v>
+        <v>2158885</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3566</v>
+        <v>3576</v>
       </c>
       <c r="D343" t="n">
-        <v>5206395</v>
+        <v>5221395</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>10273</v>
+        <v>10305</v>
       </c>
       <c r="D344" t="n">
-        <v>15160531</v>
+        <v>15207518</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>3960</v>
+        <v>3967</v>
       </c>
       <c r="D345" t="n">
-        <v>5896026</v>
+        <v>5906526</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="D346" t="n">
-        <v>1739179</v>
+        <v>1743679</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>3417</v>
+        <v>3424</v>
       </c>
       <c r="D351" t="n">
-        <v>4736227</v>
+        <v>4745576</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>6313</v>
+        <v>6338</v>
       </c>
       <c r="D352" t="n">
-        <v>9200693</v>
+        <v>9232230</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>15393</v>
+        <v>15432</v>
       </c>
       <c r="D353" t="n">
-        <v>22670397</v>
+        <v>22727337</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>6847</v>
+        <v>6861</v>
       </c>
       <c r="D354" t="n">
-        <v>10206170</v>
+        <v>10226167</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2075</v>
+        <v>2082</v>
       </c>
       <c r="D355" t="n">
-        <v>3097151</v>
+        <v>3107651</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>5637</v>
+        <v>5659</v>
       </c>
       <c r="D358" t="n">
-        <v>7698464</v>
+        <v>7721592</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>18482</v>
+        <v>18556</v>
       </c>
       <c r="D359" t="n">
-        <v>26832497</v>
+        <v>26941603</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>50828</v>
+        <v>51021</v>
       </c>
       <c r="D360" t="n">
-        <v>74907370</v>
+        <v>75190069</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>23788</v>
+        <v>23862</v>
       </c>
       <c r="D361" t="n">
-        <v>35491744</v>
+        <v>35601225</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>8545</v>
+        <v>8572</v>
       </c>
       <c r="D362" t="n">
-        <v>12779606</v>
+        <v>12820106</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2148</v>
+        <v>2167</v>
       </c>
       <c r="D363" t="n">
-        <v>3211439</v>
+        <v>3239939</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D364" t="n">
-        <v>171000</v>
+        <v>172500</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>18206</v>
+        <v>18298</v>
       </c>
       <c r="D368" t="n">
-        <v>24730912</v>
+        <v>24848353</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>4274</v>
+        <v>4283</v>
       </c>
       <c r="D369" t="n">
-        <v>6223237</v>
+        <v>6236737</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>12190</v>
+        <v>12215</v>
       </c>
       <c r="D370" t="n">
-        <v>17927178</v>
+        <v>17962287</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>4624</v>
+        <v>4627</v>
       </c>
       <c r="D371" t="n">
-        <v>6865676</v>
+        <v>6870176</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="D372" t="n">
-        <v>2111336</v>
+        <v>2117336</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D373" t="n">
-        <v>403007</v>
+        <v>406007</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>4305</v>
+        <v>4314</v>
       </c>
       <c r="D375" t="n">
-        <v>5885897</v>
+        <v>5898460</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>5333</v>
+        <v>5355</v>
       </c>
       <c r="D376" t="n">
-        <v>7761470</v>
+        <v>7793438</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>18868</v>
+        <v>18925</v>
       </c>
       <c r="D377" t="n">
-        <v>27800269</v>
+        <v>27885733</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>8812</v>
+        <v>8850</v>
       </c>
       <c r="D378" t="n">
-        <v>13140139</v>
+        <v>13197139</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="D379" t="n">
-        <v>3687475</v>
+        <v>3691975</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D380" t="n">
-        <v>928595</v>
+        <v>931595</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>5499</v>
+        <v>5528</v>
       </c>
       <c r="D382" t="n">
-        <v>7425923</v>
+        <v>7462553</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4769</v>
+        <v>4791</v>
       </c>
       <c r="D383" t="n">
-        <v>6951751</v>
+        <v>6984366</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>13723</v>
+        <v>13764</v>
       </c>
       <c r="D384" t="n">
-        <v>20204396</v>
+        <v>20262752</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>5686</v>
+        <v>5692</v>
       </c>
       <c r="D385" t="n">
-        <v>8469329</v>
+        <v>8477890</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>1627</v>
+        <v>1632</v>
       </c>
       <c r="D386" t="n">
-        <v>2427622</v>
+        <v>2435122</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D387" t="n">
-        <v>583606</v>
+        <v>589606</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4940</v>
+        <v>4967</v>
       </c>
       <c r="D389" t="n">
-        <v>6743761</v>
+        <v>6779726</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3603</v>
+        <v>3620</v>
       </c>
       <c r="D390" t="n">
-        <v>5259070</v>
+        <v>5284070</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>11384</v>
+        <v>11413</v>
       </c>
       <c r="D391" t="n">
-        <v>16794017</v>
+        <v>16835148</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>4786</v>
+        <v>4795</v>
       </c>
       <c r="D392" t="n">
-        <v>7120585</v>
+        <v>7134085</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="D393" t="n">
-        <v>2072557</v>
+        <v>2078922</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3861</v>
+        <v>3872</v>
       </c>
       <c r="D397" t="n">
-        <v>5222929</v>
+        <v>5238831</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>4105</v>
+        <v>4112</v>
       </c>
       <c r="D398" t="n">
-        <v>5983899</v>
+        <v>5994226</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>11113</v>
+        <v>11145</v>
       </c>
       <c r="D399" t="n">
-        <v>16374108</v>
+        <v>16421459</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19534,10 +19534,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>4276</v>
+        <v>4287</v>
       </c>
       <c r="D400" t="n">
-        <v>6363292</v>
+        <v>6379792</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="D401" t="n">
-        <v>2013320</v>
+        <v>2017820</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>4064</v>
+        <v>4078</v>
       </c>
       <c r="D404" t="n">
-        <v>5571389</v>
+        <v>5586437</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>4530</v>
+        <v>4535</v>
       </c>
       <c r="D405" t="n">
-        <v>6563059</v>
+        <v>6569691</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>11397</v>
+        <v>11426</v>
       </c>
       <c r="D406" t="n">
-        <v>16745098</v>
+        <v>16787315</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>3831</v>
+        <v>3841</v>
       </c>
       <c r="D407" t="n">
-        <v>5709665</v>
+        <v>5724406</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="D408" t="n">
-        <v>1982989</v>
+        <v>1988989</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D409" t="n">
-        <v>419012</v>
+        <v>420512</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>5290</v>
+        <v>5302</v>
       </c>
       <c r="D412" t="n">
-        <v>7118424</v>
+        <v>7130557</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1555</v>
+        <v>1563</v>
       </c>
       <c r="D413" t="n">
-        <v>2240604</v>
+        <v>2250035</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>5048</v>
+        <v>5074</v>
       </c>
       <c r="D414" t="n">
-        <v>7436529</v>
+        <v>7475529</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1913</v>
+        <v>1924</v>
       </c>
       <c r="D415" t="n">
-        <v>2849946</v>
+        <v>2866446</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="D416" t="n">
-        <v>1011460</v>
+        <v>1020460</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D417" t="n">
-        <v>261613</v>
+        <v>263113</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>3449</v>
+        <v>3471</v>
       </c>
       <c r="D420" t="n">
-        <v>4570529</v>
+        <v>4600143</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D421" t="n">
-        <v>869664</v>
+        <v>874164</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>3053</v>
+        <v>3064</v>
       </c>
       <c r="D426" t="n">
-        <v>4428018</v>
+        <v>4443266</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>7331</v>
+        <v>7342</v>
       </c>
       <c r="D427" t="n">
-        <v>10760301</v>
+        <v>10775819</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2419</v>
+        <v>2426</v>
       </c>
       <c r="D428" t="n">
-        <v>3605588</v>
+        <v>3616088</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>2396</v>
+        <v>2401</v>
       </c>
       <c r="D432" t="n">
-        <v>3198742</v>
+        <v>3205597</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="D433" t="n">
-        <v>2498894</v>
+        <v>2501894</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>4868</v>
+        <v>4873</v>
       </c>
       <c r="D434" t="n">
-        <v>7145204</v>
+        <v>7152704</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="D435" t="n">
-        <v>2384842</v>
+        <v>2390727</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="D439" t="n">
-        <v>2194609</v>
+        <v>2197609</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="D440" t="n">
-        <v>2801234</v>
+        <v>2802734</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>4851</v>
+        <v>4858</v>
       </c>
       <c r="D441" t="n">
-        <v>7126998</v>
+        <v>7135881</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="D442" t="n">
-        <v>2277360</v>
+        <v>2280360</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D443" t="n">
-        <v>644663</v>
+        <v>647663</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="D445" t="n">
-        <v>2133490</v>
+        <v>2136420</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="D447" t="n">
-        <v>3882802</v>
+        <v>3887302</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>3021</v>
+        <v>3028</v>
       </c>
       <c r="D452" t="n">
-        <v>4397261</v>
+        <v>4406711</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22078,10 +22078,10 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>9295</v>
+        <v>9303</v>
       </c>
       <c r="D453" t="n">
-        <v>13688310</v>
+        <v>13699218</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="D454" t="n">
-        <v>5029894</v>
+        <v>5032894</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D455" t="n">
-        <v>1386237</v>
+        <v>1387737</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>2954</v>
+        <v>2957</v>
       </c>
       <c r="D458" t="n">
-        <v>3864538</v>
+        <v>3866574</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D459" t="n">
-        <v>1728204</v>
+        <v>1729704</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="D460" t="n">
-        <v>4704618</v>
+        <v>4709868</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D461" t="n">
-        <v>1554244</v>
+        <v>1555744</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D462" t="n">
-        <v>471911</v>
+        <v>476411</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>4375</v>
+        <v>4382</v>
       </c>
       <c r="D466" t="n">
-        <v>6332875</v>
+        <v>6342333</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>8186</v>
+        <v>8189</v>
       </c>
       <c r="D467" t="n">
-        <v>12006176</v>
+        <v>12009707</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="D468" t="n">
-        <v>3558210</v>
+        <v>3562710</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22990,10 +22990,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>2756</v>
+        <v>2760</v>
       </c>
       <c r="D472" t="n">
-        <v>3681489</v>
+        <v>3686356</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D473" t="n">
-        <v>1506547</v>
+        <v>1509547</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="D474" t="n">
-        <v>3787934</v>
+        <v>3792434</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D478" t="n">
-        <v>1833612</v>
+        <v>1835112</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D479" t="n">
-        <v>532548</v>
+        <v>534048</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D480" t="n">
-        <v>1534128</v>
+        <v>1535628</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D481" t="n">
-        <v>517578</v>
+        <v>519078</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D484" t="n">
-        <v>778398</v>
+        <v>781969</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D485" t="n">
-        <v>1334061</v>
+        <v>1335059</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23662,10 +23662,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="D486" t="n">
-        <v>4187062</v>
+        <v>4188053</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>2772</v>
+        <v>2777</v>
       </c>
       <c r="D491" t="n">
-        <v>3970215</v>
+        <v>3976162</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>5290</v>
+        <v>5296</v>
       </c>
       <c r="D492" t="n">
-        <v>7746074</v>
+        <v>7755000</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D493" t="n">
-        <v>2240106</v>
+        <v>2241606</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D494" t="n">
-        <v>551347</v>
+        <v>552847</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="D497" t="n">
-        <v>3115047</v>
+        <v>3119839</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>8739</v>
+        <v>8753</v>
       </c>
       <c r="D498" t="n">
-        <v>12660912</v>
+        <v>12680996</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>18234</v>
+        <v>18274</v>
       </c>
       <c r="D499" t="n">
-        <v>26700929</v>
+        <v>26757778</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>6202</v>
+        <v>6216</v>
       </c>
       <c r="D500" t="n">
-        <v>9225927</v>
+        <v>9246927</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24382,10 +24382,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>1937</v>
+        <v>1953</v>
       </c>
       <c r="D501" t="n">
-        <v>2887772</v>
+        <v>2911772</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D502" t="n">
-        <v>584615</v>
+        <v>595115</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>6551</v>
+        <v>6576</v>
       </c>
       <c r="D506" t="n">
-        <v>8880838</v>
+        <v>8911736</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D507" t="n">
-        <v>1830615</v>
+        <v>1832115</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>3210</v>
+        <v>3213</v>
       </c>
       <c r="D508" t="n">
-        <v>4707656</v>
+        <v>4712156</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D509" t="n">
-        <v>1558169</v>
+        <v>1559669</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D510" t="n">
-        <v>515932</v>
+        <v>517432</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="D513" t="n">
-        <v>2059335</v>
+        <v>2063462</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25006,10 +25006,10 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="D514" t="n">
-        <v>4143609</v>
+        <v>4146609</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>4943</v>
+        <v>4949</v>
       </c>
       <c r="D515" t="n">
-        <v>7235736</v>
+        <v>7244231</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="D516" t="n">
-        <v>2247182</v>
+        <v>2250182</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1624</v>
+        <v>1634</v>
       </c>
       <c r="D520" t="n">
-        <v>2153170</v>
+        <v>2162149</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>3412</v>
+        <v>3420</v>
       </c>
       <c r="D522" t="n">
-        <v>4989832</v>
+        <v>5001832</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D523" t="n">
-        <v>1732535</v>
+        <v>1734035</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="D527" t="n">
-        <v>1985263</v>
+        <v>1987365</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>3735</v>
+        <v>3742</v>
       </c>
       <c r="D528" t="n">
-        <v>5375190</v>
+        <v>5384472</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>9158</v>
+        <v>9174</v>
       </c>
       <c r="D529" t="n">
-        <v>13391491</v>
+        <v>13413499</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="D530" t="n">
-        <v>4595983</v>
+        <v>4600483</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D531" t="n">
-        <v>1282194</v>
+        <v>1283694</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D532" t="n">
-        <v>182700</v>
+        <v>184200</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>3624</v>
+        <v>3629</v>
       </c>
       <c r="D535" t="n">
-        <v>4878987</v>
+        <v>4885765</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D536" t="n">
-        <v>1672178</v>
+        <v>1673678</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>3417</v>
+        <v>3420</v>
       </c>
       <c r="D537" t="n">
-        <v>4982990</v>
+        <v>4986441</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="D538" t="n">
-        <v>1673666</v>
+        <v>1677683</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26206,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D539" t="n">
-        <v>520920</v>
+        <v>522420</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="D542" t="n">
-        <v>1681446</v>
+        <v>1684446</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D543" t="n">
-        <v>715991</v>
+        <v>717491</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="D544" t="n">
-        <v>2581983</v>
+        <v>2587983</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D545" t="n">
-        <v>920906</v>
+        <v>922406</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26686,10 +26686,10 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D549" t="n">
-        <v>1084515</v>
+        <v>1086015</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>2809</v>
+        <v>2815</v>
       </c>
       <c r="D550" t="n">
-        <v>4031272</v>
+        <v>4039704</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>5060</v>
+        <v>5074</v>
       </c>
       <c r="D551" t="n">
-        <v>7408719</v>
+        <v>7425050</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1538</v>
+        <v>1545</v>
       </c>
       <c r="D552" t="n">
-        <v>2284411</v>
+        <v>2294911</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>1756</v>
+        <v>1762</v>
       </c>
       <c r="D557" t="n">
-        <v>2517010</v>
+        <v>2526010</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>3627</v>
+        <v>3629</v>
       </c>
       <c r="D558" t="n">
-        <v>5305192</v>
+        <v>5306599</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D559" t="n">
-        <v>1575939</v>
+        <v>1578939</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="D563" t="n">
-        <v>2606306</v>
+        <v>2609306</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>4383</v>
+        <v>4397</v>
       </c>
       <c r="D564" t="n">
-        <v>6334512</v>
+        <v>6350996</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>10243</v>
+        <v>10255</v>
       </c>
       <c r="D565" t="n">
-        <v>14982895</v>
+        <v>15000895</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2864</v>
+        <v>2868</v>
       </c>
       <c r="D566" t="n">
-        <v>4246900</v>
+        <v>4252600</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>4010</v>
+        <v>4015</v>
       </c>
       <c r="D570" t="n">
-        <v>5313422</v>
+        <v>5319811</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D571" t="n">
-        <v>1446706</v>
+        <v>1448206</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="D572" t="n">
-        <v>3309767</v>
+        <v>3311621</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D573" t="n">
-        <v>1013195</v>
+        <v>1014695</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D575" t="n">
-        <v>64972</v>
+        <v>66472</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="D576" t="n">
-        <v>1623354</v>
+        <v>1627354</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>6201</v>
+        <v>6218</v>
       </c>
       <c r="D577" t="n">
-        <v>8956573</v>
+        <v>8980574</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>14896</v>
+        <v>14927</v>
       </c>
       <c r="D578" t="n">
-        <v>21842752</v>
+        <v>21887000</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>5254</v>
+        <v>5258</v>
       </c>
       <c r="D579" t="n">
-        <v>7808569</v>
+        <v>7814569</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D580" t="n">
-        <v>2392444</v>
+        <v>2393944</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28222,10 +28222,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D581" t="n">
-        <v>466227</v>
+        <v>467727</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>6040</v>
+        <v>6055</v>
       </c>
       <c r="D584" t="n">
-        <v>8072013</v>
+        <v>8092123</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>1447</v>
+        <v>1452</v>
       </c>
       <c r="D585" t="n">
-        <v>2042223</v>
+        <v>2049723</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>3216</v>
+        <v>3228</v>
       </c>
       <c r="D586" t="n">
-        <v>4656593</v>
+        <v>4674593</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D588" t="n">
-        <v>392922</v>
+        <v>394422</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="D590" t="n">
-        <v>2392156</v>
+        <v>2395156</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>8571</v>
+        <v>8585</v>
       </c>
       <c r="D591" t="n">
-        <v>12430661</v>
+        <v>12451244</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>18123</v>
+        <v>18154</v>
       </c>
       <c r="D592" t="n">
-        <v>26555782</v>
+        <v>26601310</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>5456</v>
+        <v>5465</v>
       </c>
       <c r="D593" t="n">
-        <v>8115183</v>
+        <v>8128683</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D594" t="n">
-        <v>2089236</v>
+        <v>2090736</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D595" t="n">
-        <v>387951</v>
+        <v>392451</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>5955</v>
+        <v>5963</v>
       </c>
       <c r="D597" t="n">
-        <v>7949838</v>
+        <v>7960230</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="D598" t="n">
-        <v>1854666</v>
+        <v>1860276</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="D599" t="n">
-        <v>3314891</v>
+        <v>3319391</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29134,10 +29134,10 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D600" t="n">
-        <v>960203</v>
+        <v>963203</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D604" t="n">
-        <v>1586279</v>
+        <v>1587779</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D606" t="n">
-        <v>1545770</v>
+        <v>1547270</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D607" t="n">
-        <v>450481</v>
+        <v>454307</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29566,10 +29566,10 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D609" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="D610" t="n">
-        <v>1202650</v>
+        <v>1213552</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>4032</v>
+        <v>4041</v>
       </c>
       <c r="D611" t="n">
-        <v>5852694</v>
+        <v>5865781</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>6592</v>
+        <v>6601</v>
       </c>
       <c r="D612" t="n">
-        <v>9594236</v>
+        <v>9606522</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="D613" t="n">
-        <v>3056711</v>
+        <v>3059711</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>2590</v>
+        <v>2598</v>
       </c>
       <c r="D617" t="n">
-        <v>3445964</v>
+        <v>3456458</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="D618" t="n">
-        <v>2414585</v>
+        <v>2417585</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30046,10 +30046,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>4138</v>
+        <v>4145</v>
       </c>
       <c r="D619" t="n">
-        <v>6078494</v>
+        <v>6088994</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="D620" t="n">
-        <v>1846560</v>
+        <v>1851060</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="D624" t="n">
-        <v>2312292</v>
+        <v>2317875</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="D625" t="n">
-        <v>1617730</v>
+        <v>1622230</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30382,10 +30382,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>2655</v>
+        <v>2658</v>
       </c>
       <c r="D626" t="n">
-        <v>3885715</v>
+        <v>3890215</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="D631" t="n">
-        <v>1599700</v>
+        <v>1604505</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>5179</v>
+        <v>5189</v>
       </c>
       <c r="D632" t="n">
-        <v>7507880</v>
+        <v>7521993</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>12243</v>
+        <v>12253</v>
       </c>
       <c r="D633" t="n">
-        <v>18018282</v>
+        <v>18033282</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>4609</v>
+        <v>4615</v>
       </c>
       <c r="D634" t="n">
-        <v>6840778</v>
+        <v>6848528</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30814,10 +30814,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="D635" t="n">
-        <v>1821357</v>
+        <v>1824357</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D636" t="n">
-        <v>321262</v>
+        <v>327262</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -30958,10 +30958,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>4197</v>
+        <v>4202</v>
       </c>
       <c r="D638" t="n">
-        <v>5607762</v>
+        <v>5613408</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>2258</v>
+        <v>2262</v>
       </c>
       <c r="D639" t="n">
-        <v>3255023</v>
+        <v>3261023</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>6886</v>
+        <v>6903</v>
       </c>
       <c r="D640" t="n">
-        <v>10120783</v>
+        <v>10145319</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31102,10 +31102,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="D641" t="n">
-        <v>3372050</v>
+        <v>3375050</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D642" t="n">
-        <v>930560</v>
+        <v>935060</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D643" t="n">
-        <v>160774</v>
+        <v>162274</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31342,10 +31342,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>2265</v>
+        <v>2270</v>
       </c>
       <c r="D646" t="n">
-        <v>3063213</v>
+        <v>3069604</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31390,10 +31390,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D647" t="n">
-        <v>1329513</v>
+        <v>1331013</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -31438,10 +31438,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="D648" t="n">
-        <v>3596164</v>
+        <v>3597664</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31486,10 +31486,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D649" t="n">
-        <v>1194790</v>
+        <v>1197790</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D653" t="n">
-        <v>1117103</v>
+        <v>1120103</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="D654" t="n">
-        <v>2207858</v>
+        <v>2210858</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>4117</v>
+        <v>4120</v>
       </c>
       <c r="D655" t="n">
-        <v>6052656</v>
+        <v>6055944</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31822,10 +31822,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="D656" t="n">
-        <v>2041647</v>
+        <v>2046147</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -31870,10 +31870,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D657" t="n">
-        <v>512964</v>
+        <v>514464</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D660" t="n">
-        <v>1781912</v>
+        <v>1782012</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>3220</v>
+        <v>3226</v>
       </c>
       <c r="D661" t="n">
-        <v>4677105</v>
+        <v>4685231</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>6368</v>
+        <v>6374</v>
       </c>
       <c r="D662" t="n">
-        <v>9321722</v>
+        <v>9329499</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="D663" t="n">
-        <v>3487189</v>
+        <v>3488689</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32206,10 +32206,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D664" t="n">
-        <v>788661</v>
+        <v>791661</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32254,10 +32254,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D665" t="n">
-        <v>93954</v>
+        <v>95454</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="D668" t="n">
-        <v>2742828</v>
+        <v>2746854</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>1548</v>
+        <v>1553</v>
       </c>
       <c r="D669" t="n">
-        <v>2234539</v>
+        <v>2242039</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>2847</v>
+        <v>2854</v>
       </c>
       <c r="D670" t="n">
-        <v>4151800</v>
+        <v>4162300</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D675" t="n">
-        <v>1591805</v>
+        <v>1592305</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>8555</v>
+        <v>8571</v>
       </c>
       <c r="D676" t="n">
-        <v>12390906</v>
+        <v>12411148</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32830,10 +32830,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>20464</v>
+        <v>20518</v>
       </c>
       <c r="D677" t="n">
-        <v>30026610</v>
+        <v>30106008</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>6109</v>
+        <v>6120</v>
       </c>
       <c r="D678" t="n">
-        <v>9084600</v>
+        <v>9101100</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32926,10 +32926,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="D679" t="n">
-        <v>2626874</v>
+        <v>2632874</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>7419</v>
+        <v>7430</v>
       </c>
       <c r="D682" t="n">
-        <v>10091982</v>
+        <v>10105972</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>10475</v>
+        <v>10491</v>
       </c>
       <c r="D683" t="n">
-        <v>15211149</v>
+        <v>15235149</v>
       </c>
       <c r=